--- a/13.0 FORMATO N°07 INVIERTE PE/FORMATO 7C IES JOSÉ MARIA ARGUEDAS CHUQUIBAMBILLA.xlsx
+++ b/13.0 FORMATO N°07 INVIERTE PE/FORMATO 7C IES JOSÉ MARIA ARGUEDAS CHUQUIBAMBILLA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JR2020\IOARR 2020\IOARR 2020 -JUNIO CONCLUIDOS\2. IOARR  IES JOSE MARIA ARGUEDAS - CHUQUIBAMBILLA\13. FORMATO N°07 INVIERTE PE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2018\Desktop\TURISMO CASA\IOARR0002-JM-ARGUEDAS\13.0 FORMATO N°07 INVIERTE PE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C79D8CEE-1095-494F-AD6D-3E7FB61673DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1392" yWindow="1392" windowWidth="13440" windowHeight="9492" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1395" yWindow="1395" windowWidth="13440" windowHeight="9495"/>
   </bookViews>
   <sheets>
     <sheet name="Formato 02 OARR" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Formato 02 OARR'!$A$1:$L$543</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1080,7 +1079,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1961,315 +1960,327 @@
     <xf numFmtId="49" fontId="26" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="25" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2317,24 +2328,12 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="25" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Porcentaje" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2612,76 +2611,76 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:P547"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A476" zoomScale="70" zoomScaleNormal="51" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="I504" sqref="I504"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A33" zoomScale="70" zoomScaleNormal="51" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="I487" sqref="I487"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.109375" style="19" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="19" customWidth="1"/>
     <col min="2" max="2" width="7" style="19" customWidth="1"/>
-    <col min="3" max="3" width="27.109375" style="19" customWidth="1"/>
-    <col min="4" max="4" width="20.44140625" style="19" customWidth="1"/>
-    <col min="5" max="5" width="20.5546875" style="19" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" style="19" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" style="19" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" style="19" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="19" customWidth="1"/>
     <col min="7" max="7" width="23" style="19" customWidth="1"/>
-    <col min="8" max="8" width="19.88671875" style="19" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" style="19" customWidth="1"/>
-    <col min="10" max="11" width="19.5546875" style="19" customWidth="1"/>
-    <col min="12" max="12" width="15.33203125" style="19" customWidth="1"/>
-    <col min="13" max="14" width="9.33203125" style="19" customWidth="1"/>
-    <col min="15" max="16384" width="11.44140625" style="19"/>
+    <col min="8" max="8" width="19.85546875" style="19" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="19" customWidth="1"/>
+    <col min="10" max="11" width="19.5703125" style="19" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" style="19" customWidth="1"/>
+    <col min="13" max="14" width="9.28515625" style="19" customWidth="1"/>
+    <col min="15" max="16384" width="11.42578125" style="19"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:12" ht="21" x14ac:dyDescent="0.3">
-      <c r="B3" s="173" t="s">
+    <row r="3" spans="2:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="B3" s="177" t="s">
         <v>258</v>
       </c>
-      <c r="C3" s="174"/>
-      <c r="D3" s="175"/>
-      <c r="E3" s="175"/>
-      <c r="F3" s="175"/>
-      <c r="G3" s="175"/>
-      <c r="H3" s="175"/>
-      <c r="I3" s="175"/>
-      <c r="J3" s="175"/>
-      <c r="K3" s="175"/>
-      <c r="L3" s="176"/>
-    </row>
-    <row r="4" spans="2:12" ht="21" x14ac:dyDescent="0.3">
-      <c r="B4" s="177" t="s">
+      <c r="C3" s="178"/>
+      <c r="D3" s="179"/>
+      <c r="E3" s="179"/>
+      <c r="F3" s="179"/>
+      <c r="G3" s="179"/>
+      <c r="H3" s="179"/>
+      <c r="I3" s="179"/>
+      <c r="J3" s="179"/>
+      <c r="K3" s="179"/>
+      <c r="L3" s="180"/>
+    </row>
+    <row r="4" spans="2:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="B4" s="181" t="s">
         <v>259</v>
       </c>
-      <c r="C4" s="178"/>
-      <c r="D4" s="179"/>
-      <c r="E4" s="179"/>
-      <c r="F4" s="179"/>
-      <c r="G4" s="179"/>
-      <c r="H4" s="179"/>
-      <c r="I4" s="179"/>
-      <c r="J4" s="179"/>
-      <c r="K4" s="179"/>
-      <c r="L4" s="180"/>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="155" t="s">
+      <c r="C4" s="182"/>
+      <c r="D4" s="183"/>
+      <c r="E4" s="183"/>
+      <c r="F4" s="183"/>
+      <c r="G4" s="183"/>
+      <c r="H4" s="183"/>
+      <c r="I4" s="183"/>
+      <c r="J4" s="183"/>
+      <c r="K4" s="183"/>
+      <c r="L4" s="184"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="157" t="s">
         <v>261</v>
       </c>
-      <c r="C5" s="155"/>
-      <c r="D5" s="181"/>
-      <c r="E5" s="181"/>
-      <c r="F5" s="181"/>
-      <c r="G5" s="181"/>
-      <c r="H5" s="181"/>
-      <c r="I5" s="181"/>
-      <c r="J5" s="181"/>
-      <c r="K5" s="181"/>
-      <c r="L5" s="181"/>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C5" s="157"/>
+      <c r="D5" s="185"/>
+      <c r="E5" s="185"/>
+      <c r="F5" s="185"/>
+      <c r="G5" s="185"/>
+      <c r="H5" s="185"/>
+      <c r="I5" s="185"/>
+      <c r="J5" s="185"/>
+      <c r="K5" s="185"/>
+      <c r="L5" s="185"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="2"/>
@@ -2694,7 +2693,7 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="3" t="s">
         <v>0</v>
@@ -2709,21 +2708,21 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="2:12" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
-      <c r="C8" s="224" t="s">
+      <c r="C8" s="226" t="s">
         <v>336</v>
       </c>
-      <c r="D8" s="225"/>
-      <c r="E8" s="225"/>
-      <c r="F8" s="225"/>
-      <c r="G8" s="225"/>
-      <c r="H8" s="225"/>
-      <c r="I8" s="225"/>
-      <c r="J8" s="225"/>
-      <c r="K8" s="226"/>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="D8" s="227"/>
+      <c r="E8" s="227"/>
+      <c r="F8" s="227"/>
+      <c r="G8" s="227"/>
+      <c r="H8" s="227"/>
+      <c r="I8" s="227"/>
+      <c r="J8" s="227"/>
+      <c r="K8" s="228"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="2"/>
@@ -2736,7 +2735,7 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="2:12" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:12" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="3" t="s">
         <v>1</v>
@@ -2751,7 +2750,7 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="3"/>
       <c r="D11" s="2"/>
@@ -2764,7 +2763,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="79" t="s">
         <v>2</v>
@@ -2779,7 +2778,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="79"/>
       <c r="D13" s="79"/>
@@ -2792,7 +2791,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="13" t="s">
         <v>3</v>
@@ -2809,7 +2808,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="13" t="s">
         <v>4</v>
@@ -2826,7 +2825,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="3"/>
       <c r="D16" s="2"/>
@@ -2839,7 +2838,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>6</v>
       </c>
@@ -2856,7 +2855,7 @@
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="89"/>
       <c r="C18" s="89"/>
       <c r="D18" s="90"/>
@@ -2869,7 +2868,7 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="89"/>
       <c r="C19" s="8" t="s">
         <v>8</v>
@@ -2886,7 +2885,7 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="89"/>
       <c r="C20" s="8"/>
       <c r="D20" s="86"/>
@@ -2899,7 +2898,7 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="89"/>
       <c r="C21" s="8" t="s">
         <v>9</v>
@@ -2916,7 +2915,7 @@
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="89"/>
       <c r="C22" s="8"/>
       <c r="D22" s="86"/>
@@ -2929,7 +2928,7 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="89"/>
       <c r="C23" s="8" t="s">
         <v>10</v>
@@ -2946,7 +2945,7 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="89"/>
       <c r="C24" s="86"/>
       <c r="D24" s="86"/>
@@ -2959,7 +2958,7 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="89"/>
       <c r="C25" s="8" t="s">
         <v>11</v>
@@ -2976,7 +2975,7 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="89"/>
       <c r="C26" s="89"/>
       <c r="D26" s="90"/>
@@ -2989,23 +2988,23 @@
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="89"/>
       <c r="C27" s="9" t="s">
         <v>12</v>
       </c>
       <c r="D27" s="92"/>
       <c r="E27" s="92"/>
-      <c r="G27" s="227" t="s">
+      <c r="G27" s="229" t="s">
         <v>330</v>
       </c>
-      <c r="H27" s="227"/>
-      <c r="I27" s="227"/>
-      <c r="J27" s="227"/>
-      <c r="K27" s="227"/>
+      <c r="H27" s="229"/>
+      <c r="I27" s="229"/>
+      <c r="J27" s="229"/>
+      <c r="K27" s="229"/>
       <c r="L27" s="80"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="89"/>
       <c r="C28" s="10"/>
       <c r="D28" s="92"/>
@@ -3017,25 +3016,25 @@
       <c r="K28" s="90"/>
       <c r="M28" s="80"/>
     </row>
-    <row r="29" spans="2:13" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:13" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="89"/>
-      <c r="C29" s="182" t="s">
+      <c r="C29" s="186" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="182"/>
-      <c r="E29" s="182"/>
+      <c r="D29" s="186"/>
+      <c r="E29" s="186"/>
       <c r="G29" s="142" t="s">
         <v>14</v>
       </c>
-      <c r="H29" s="228" t="s">
+      <c r="H29" s="230" t="s">
         <v>331</v>
       </c>
-      <c r="I29" s="229"/>
-      <c r="J29" s="229"/>
-      <c r="K29" s="229"/>
-      <c r="L29" s="230"/>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="I29" s="231"/>
+      <c r="J29" s="231"/>
+      <c r="K29" s="231"/>
+      <c r="L29" s="232"/>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="89"/>
       <c r="C30" s="9"/>
       <c r="D30" s="92"/>
@@ -3049,13 +3048,13 @@
       <c r="L30" s="90"/>
       <c r="M30" s="81"/>
     </row>
-    <row r="31" spans="2:13" ht="36" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:13" ht="37.5" x14ac:dyDescent="0.25">
       <c r="B31" s="89"/>
-      <c r="C31" s="148" t="s">
+      <c r="C31" s="150" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="148"/>
-      <c r="E31" s="149"/>
+      <c r="D31" s="150"/>
+      <c r="E31" s="151"/>
       <c r="F31" s="11" t="s">
         <v>16</v>
       </c>
@@ -3071,13 +3070,13 @@
       <c r="J31" s="131" t="s">
         <v>18</v>
       </c>
-      <c r="K31" s="263">
+      <c r="K31" s="144">
         <v>1</v>
       </c>
       <c r="L31" s="18"/>
       <c r="M31" s="90"/>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" s="89"/>
       <c r="C32" s="74"/>
       <c r="D32" s="74"/>
@@ -3091,7 +3090,7 @@
       <c r="L32" s="90"/>
       <c r="M32" s="90"/>
     </row>
-    <row r="33" spans="2:13" s="94" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:13" s="94" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="93"/>
       <c r="C33" s="68" t="s">
         <v>279</v>
@@ -3101,7 +3100,7 @@
       <c r="F33" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="G33" s="264">
+      <c r="G33" s="145">
         <v>0.2</v>
       </c>
       <c r="H33" s="63"/>
@@ -3111,7 +3110,7 @@
       <c r="L33" s="63"/>
       <c r="M33" s="63"/>
     </row>
-    <row r="34" spans="2:13" s="94" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:13" s="94" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="93"/>
       <c r="C34" s="69" t="s">
         <v>303</v>
@@ -3127,7 +3126,7 @@
       <c r="L34" s="96"/>
       <c r="M34" s="96"/>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" s="89"/>
       <c r="C35" s="65"/>
       <c r="D35" s="65"/>
@@ -3140,7 +3139,7 @@
       <c r="K35" s="97"/>
       <c r="M35" s="98"/>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="2"/>
@@ -3153,7 +3152,7 @@
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" s="14" t="s">
         <v>19</v>
       </c>
@@ -3168,7 +3167,7 @@
       <c r="K37" s="99"/>
       <c r="L37" s="99"/>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" s="58"/>
       <c r="C38" s="58"/>
       <c r="D38" s="90"/>
@@ -3181,7 +3180,7 @@
       <c r="K38" s="90"/>
       <c r="L38" s="90"/>
     </row>
-    <row r="39" spans="2:13" s="97" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:13" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="15" t="s">
         <v>20</v>
       </c>
@@ -3198,7 +3197,7 @@
       <c r="K39" s="19"/>
       <c r="L39" s="79"/>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" s="58"/>
       <c r="C40" s="16" t="s">
         <v>22</v>
@@ -3207,15 +3206,15 @@
       <c r="E40" s="17"/>
       <c r="F40" s="17"/>
       <c r="G40" s="17"/>
-      <c r="H40" s="150" t="s">
+      <c r="H40" s="148" t="s">
         <v>310</v>
       </c>
-      <c r="I40" s="151"/>
-      <c r="J40" s="151"/>
-      <c r="K40" s="152"/>
+      <c r="I40" s="152"/>
+      <c r="J40" s="152"/>
+      <c r="K40" s="149"/>
       <c r="L40" s="79"/>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" s="18"/>
       <c r="C41" s="16" t="s">
         <v>23</v>
@@ -3224,15 +3223,15 @@
       <c r="E41" s="17"/>
       <c r="F41" s="17"/>
       <c r="G41" s="17"/>
-      <c r="H41" s="150" t="s">
+      <c r="H41" s="148" t="s">
         <v>311</v>
       </c>
-      <c r="I41" s="151"/>
-      <c r="J41" s="151"/>
-      <c r="K41" s="152"/>
+      <c r="I41" s="152"/>
+      <c r="J41" s="152"/>
+      <c r="K41" s="149"/>
       <c r="L41" s="79"/>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42" s="18"/>
       <c r="C42" s="16" t="s">
         <v>24</v>
@@ -3241,15 +3240,15 @@
       <c r="E42" s="17"/>
       <c r="F42" s="17"/>
       <c r="G42" s="17"/>
-      <c r="H42" s="150" t="s">
+      <c r="H42" s="148" t="s">
         <v>312</v>
       </c>
-      <c r="I42" s="151"/>
-      <c r="J42" s="151"/>
-      <c r="K42" s="152"/>
+      <c r="I42" s="152"/>
+      <c r="J42" s="152"/>
+      <c r="K42" s="149"/>
       <c r="L42" s="79"/>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" s="18"/>
       <c r="C43" s="16" t="s">
         <v>25</v>
@@ -3258,15 +3257,15 @@
       <c r="E43" s="17"/>
       <c r="F43" s="17"/>
       <c r="G43" s="17"/>
-      <c r="H43" s="150" t="s">
+      <c r="H43" s="148" t="s">
         <v>325</v>
       </c>
-      <c r="I43" s="151"/>
-      <c r="J43" s="151"/>
-      <c r="K43" s="152"/>
+      <c r="I43" s="152"/>
+      <c r="J43" s="152"/>
+      <c r="K43" s="149"/>
       <c r="L43" s="79"/>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="18"/>
       <c r="C44" s="20"/>
       <c r="D44" s="140"/>
@@ -3279,7 +3278,7 @@
       <c r="K44" s="20"/>
       <c r="L44" s="139"/>
     </row>
-    <row r="45" spans="2:13" s="97" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:13" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B45" s="58"/>
       <c r="C45" s="79"/>
       <c r="D45" s="79"/>
@@ -3291,7 +3290,7 @@
       <c r="J45" s="19"/>
       <c r="K45" s="19"/>
     </row>
-    <row r="46" spans="2:13" s="97" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:13" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B46" s="15" t="s">
         <v>26</v>
       </c>
@@ -3308,7 +3307,7 @@
       <c r="K46" s="19"/>
       <c r="L46" s="79"/>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" s="58"/>
       <c r="C47" s="16" t="s">
         <v>28</v>
@@ -3317,15 +3316,15 @@
       <c r="E47" s="17"/>
       <c r="F47" s="17"/>
       <c r="G47" s="17"/>
-      <c r="H47" s="150" t="s">
+      <c r="H47" s="148" t="s">
         <v>310</v>
       </c>
-      <c r="I47" s="151"/>
-      <c r="J47" s="151"/>
-      <c r="K47" s="152"/>
+      <c r="I47" s="152"/>
+      <c r="J47" s="152"/>
+      <c r="K47" s="149"/>
       <c r="L47" s="79"/>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48" s="18"/>
       <c r="C48" s="16" t="s">
         <v>29</v>
@@ -3334,15 +3333,15 @@
       <c r="E48" s="17"/>
       <c r="F48" s="17"/>
       <c r="G48" s="17"/>
-      <c r="H48" s="150" t="s">
+      <c r="H48" s="148" t="s">
         <v>311</v>
       </c>
-      <c r="I48" s="151"/>
-      <c r="J48" s="151"/>
-      <c r="K48" s="152"/>
+      <c r="I48" s="152"/>
+      <c r="J48" s="152"/>
+      <c r="K48" s="149"/>
       <c r="L48" s="79"/>
     </row>
-    <row r="49" spans="2:16" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:16" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="18"/>
       <c r="C49" s="16" t="s">
         <v>30</v>
@@ -3351,15 +3350,15 @@
       <c r="E49" s="17"/>
       <c r="F49" s="17"/>
       <c r="G49" s="17"/>
-      <c r="H49" s="221" t="s">
+      <c r="H49" s="146" t="s">
         <v>313</v>
       </c>
-      <c r="I49" s="222"/>
-      <c r="J49" s="222"/>
-      <c r="K49" s="223"/>
+      <c r="I49" s="225"/>
+      <c r="J49" s="225"/>
+      <c r="K49" s="147"/>
       <c r="L49" s="79"/>
     </row>
-    <row r="50" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B50" s="18"/>
       <c r="C50" s="16" t="s">
         <v>31</v>
@@ -3368,19 +3367,19 @@
       <c r="E50" s="17"/>
       <c r="F50" s="17"/>
       <c r="G50" s="17"/>
-      <c r="H50" s="248" t="s">
+      <c r="H50" s="252" t="s">
         <v>333</v>
       </c>
-      <c r="I50" s="248"/>
-      <c r="J50" s="248"/>
-      <c r="K50" s="248"/>
+      <c r="I50" s="252"/>
+      <c r="J50" s="252"/>
+      <c r="K50" s="252"/>
       <c r="L50" s="138"/>
       <c r="M50" s="138"/>
       <c r="N50" s="138"/>
       <c r="O50" s="138"/>
       <c r="P50" s="138"/>
     </row>
-    <row r="51" spans="2:16" s="97" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:16" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B51" s="58"/>
       <c r="C51" s="79"/>
       <c r="D51" s="79"/>
@@ -3393,7 +3392,7 @@
       <c r="K51" s="19"/>
       <c r="L51" s="79"/>
     </row>
-    <row r="52" spans="2:16" s="97" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:16" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="15" t="s">
         <v>32</v>
       </c>
@@ -3410,7 +3409,7 @@
       <c r="K52" s="19"/>
       <c r="L52" s="79"/>
     </row>
-    <row r="53" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B53" s="58"/>
       <c r="C53" s="16" t="s">
         <v>22</v>
@@ -3419,15 +3418,15 @@
       <c r="E53" s="17"/>
       <c r="F53" s="17"/>
       <c r="G53" s="17"/>
-      <c r="H53" s="150" t="s">
+      <c r="H53" s="148" t="s">
         <v>310</v>
       </c>
-      <c r="I53" s="151"/>
-      <c r="J53" s="151"/>
-      <c r="K53" s="152"/>
+      <c r="I53" s="152"/>
+      <c r="J53" s="152"/>
+      <c r="K53" s="149"/>
       <c r="L53" s="79"/>
     </row>
-    <row r="54" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B54" s="18"/>
       <c r="C54" s="16" t="s">
         <v>23</v>
@@ -3436,15 +3435,15 @@
       <c r="E54" s="17"/>
       <c r="F54" s="17"/>
       <c r="G54" s="17"/>
-      <c r="H54" s="254" t="s">
+      <c r="H54" s="258" t="s">
         <v>311</v>
       </c>
-      <c r="I54" s="255"/>
-      <c r="J54" s="255"/>
-      <c r="K54" s="256"/>
+      <c r="I54" s="259"/>
+      <c r="J54" s="259"/>
+      <c r="K54" s="260"/>
       <c r="L54" s="79"/>
     </row>
-    <row r="55" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B55" s="18"/>
       <c r="C55" s="16" t="s">
         <v>34</v>
@@ -3453,19 +3452,19 @@
       <c r="E55" s="17"/>
       <c r="F55" s="17"/>
       <c r="G55" s="17"/>
-      <c r="H55" s="248" t="s">
+      <c r="H55" s="252" t="s">
         <v>314</v>
       </c>
-      <c r="I55" s="248"/>
-      <c r="J55" s="248"/>
-      <c r="K55" s="248"/>
+      <c r="I55" s="252"/>
+      <c r="J55" s="252"/>
+      <c r="K55" s="252"/>
       <c r="L55" s="138"/>
       <c r="M55" s="138"/>
       <c r="N55" s="138"/>
       <c r="O55" s="138"/>
       <c r="P55" s="138"/>
     </row>
-    <row r="56" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B56" s="18"/>
       <c r="C56" s="16" t="s">
         <v>35</v>
@@ -3474,19 +3473,19 @@
       <c r="E56" s="17"/>
       <c r="F56" s="17"/>
       <c r="G56" s="17"/>
-      <c r="H56" s="249" t="s">
+      <c r="H56" s="253" t="s">
         <v>315</v>
       </c>
-      <c r="I56" s="250"/>
-      <c r="J56" s="250"/>
-      <c r="K56" s="251"/>
+      <c r="I56" s="254"/>
+      <c r="J56" s="254"/>
+      <c r="K56" s="255"/>
       <c r="L56" s="138"/>
       <c r="M56" s="138"/>
       <c r="N56" s="138"/>
       <c r="O56" s="138"/>
       <c r="P56" s="138"/>
     </row>
-    <row r="57" spans="2:16" s="97" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:16" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B57" s="58"/>
       <c r="C57" s="58"/>
       <c r="D57" s="90"/>
@@ -3499,7 +3498,7 @@
       <c r="K57" s="100"/>
       <c r="L57" s="133"/>
     </row>
-    <row r="58" spans="2:16" s="97" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:16" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B58" s="58" t="s">
         <v>36</v>
       </c>
@@ -3516,7 +3515,7 @@
       <c r="K58" s="19"/>
       <c r="L58" s="80"/>
     </row>
-    <row r="59" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B59" s="18"/>
       <c r="C59" s="16" t="s">
         <v>38</v>
@@ -3537,7 +3536,7 @@
       <c r="O59" s="138"/>
       <c r="P59" s="138"/>
     </row>
-    <row r="60" spans="2:16" s="97" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:16" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B60" s="58"/>
       <c r="C60" s="20"/>
       <c r="D60" s="80"/>
@@ -3550,7 +3549,7 @@
       <c r="K60" s="80"/>
       <c r="L60" s="80"/>
     </row>
-    <row r="61" spans="2:16" s="97" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:16" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B61" s="14" t="s">
         <v>39</v>
       </c>
@@ -3565,7 +3564,7 @@
       <c r="K61" s="99"/>
       <c r="L61" s="99"/>
     </row>
-    <row r="62" spans="2:16" s="97" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:16" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B62" s="58"/>
       <c r="C62" s="20"/>
       <c r="D62" s="80"/>
@@ -3578,7 +3577,7 @@
       <c r="K62" s="80"/>
       <c r="L62" s="80"/>
     </row>
-    <row r="63" spans="2:16" s="97" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:16" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B63" s="15" t="s">
         <v>40</v>
       </c>
@@ -3595,7 +3594,7 @@
       <c r="K63" s="90"/>
       <c r="L63" s="90"/>
     </row>
-    <row r="64" spans="2:16" s="97" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:16" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B64" s="89"/>
       <c r="C64" s="89"/>
       <c r="D64" s="90"/>
@@ -3608,7 +3607,7 @@
       <c r="K64" s="90"/>
       <c r="L64" s="90"/>
     </row>
-    <row r="65" spans="2:12" s="97" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:12" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B65" s="58"/>
       <c r="C65" s="79" t="s">
         <v>42</v>
@@ -3625,7 +3624,7 @@
       <c r="K65" s="90"/>
       <c r="L65" s="90"/>
     </row>
-    <row r="66" spans="2:12" s="97" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:12" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B66" s="58"/>
       <c r="C66" s="79" t="s">
         <v>43</v>
@@ -3640,7 +3639,7 @@
       <c r="K66" s="90"/>
       <c r="L66" s="90"/>
     </row>
-    <row r="67" spans="2:12" s="97" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:12" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B67" s="58"/>
       <c r="C67" s="79" t="s">
         <v>44</v>
@@ -3655,7 +3654,7 @@
       <c r="K67" s="90"/>
       <c r="L67" s="90"/>
     </row>
-    <row r="68" spans="2:12" s="97" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:12" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B68" s="58"/>
       <c r="C68" s="79"/>
       <c r="D68" s="90"/>
@@ -3668,7 +3667,7 @@
       <c r="K68" s="90"/>
       <c r="L68" s="90"/>
     </row>
-    <row r="69" spans="2:12" s="97" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:12" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B69" s="58"/>
       <c r="C69" s="79" t="s">
         <v>45</v>
@@ -3684,7 +3683,7 @@
       <c r="J69" s="72"/>
       <c r="K69" s="13"/>
     </row>
-    <row r="70" spans="2:12" s="97" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:12" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B70" s="58"/>
       <c r="C70" s="79"/>
       <c r="D70" s="90"/>
@@ -3697,7 +3696,7 @@
       <c r="K70" s="90"/>
       <c r="L70" s="90"/>
     </row>
-    <row r="71" spans="2:12" s="97" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:12" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B71" s="58"/>
       <c r="C71" s="79" t="s">
         <v>46</v>
@@ -3715,7 +3714,7 @@
       <c r="K71" s="90"/>
       <c r="L71" s="90"/>
     </row>
-    <row r="72" spans="2:12" s="97" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:12" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B72" s="58"/>
       <c r="C72" s="79"/>
       <c r="D72" s="90"/>
@@ -3728,7 +3727,7 @@
       <c r="K72" s="90"/>
       <c r="L72" s="90"/>
     </row>
-    <row r="73" spans="2:12" s="97" customFormat="1" ht="36" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:12" s="97" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="B73" s="58"/>
       <c r="C73" s="75" t="s">
         <v>47</v>
@@ -3742,16 +3741,16 @@
       <c r="F73" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="G73" s="168" t="s">
+      <c r="G73" s="172" t="s">
         <v>51</v>
       </c>
-      <c r="H73" s="169"/>
-      <c r="I73" s="170"/>
+      <c r="H73" s="173"/>
+      <c r="I73" s="174"/>
       <c r="J73" s="90"/>
       <c r="K73" s="90"/>
       <c r="L73" s="90"/>
     </row>
-    <row r="74" spans="2:12" s="97" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:12" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B74" s="58"/>
       <c r="C74" s="30" t="s">
         <v>317</v>
@@ -3765,16 +3764,16 @@
       <c r="F74" s="30" t="s">
         <v>339</v>
       </c>
-      <c r="G74" s="260" t="s">
+      <c r="G74" s="264" t="s">
         <v>340</v>
       </c>
-      <c r="H74" s="261"/>
-      <c r="I74" s="262"/>
+      <c r="H74" s="265"/>
+      <c r="I74" s="266"/>
       <c r="J74" s="90"/>
       <c r="K74" s="90"/>
       <c r="L74" s="90"/>
     </row>
-    <row r="75" spans="2:12" s="97" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:12" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B75" s="58"/>
       <c r="C75" s="79"/>
       <c r="D75" s="80"/>
@@ -3787,7 +3786,7 @@
       <c r="K75" s="80"/>
       <c r="L75" s="80"/>
     </row>
-    <row r="76" spans="2:12" s="97" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:12" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B76" s="58"/>
       <c r="C76" s="80" t="s">
         <v>52</v>
@@ -3802,7 +3801,7 @@
       <c r="K76" s="80"/>
       <c r="L76" s="80"/>
     </row>
-    <row r="77" spans="2:12" s="97" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:12" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B77" s="58"/>
       <c r="C77" s="19"/>
       <c r="D77" s="19"/>
@@ -3815,7 +3814,7 @@
       <c r="K77" s="80"/>
       <c r="L77" s="80"/>
     </row>
-    <row r="78" spans="2:12" s="97" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:12" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B78" s="58"/>
       <c r="C78" s="19" t="s">
         <v>53</v>
@@ -3830,7 +3829,7 @@
       <c r="K78" s="80"/>
       <c r="L78" s="80"/>
     </row>
-    <row r="79" spans="2:12" s="97" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:12" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B79" s="58"/>
       <c r="C79" s="19"/>
       <c r="D79" s="19"/>
@@ -3843,7 +3842,7 @@
       <c r="K79" s="80"/>
       <c r="L79" s="80"/>
     </row>
-    <row r="80" spans="2:12" s="97" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:12" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B80" s="58"/>
       <c r="C80" s="37" t="s">
         <v>260</v>
@@ -3858,7 +3857,7 @@
       <c r="K80" s="80"/>
       <c r="L80" s="80"/>
     </row>
-    <row r="81" spans="2:12" s="97" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:12" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B81" s="58"/>
       <c r="C81" s="79"/>
       <c r="D81" s="80"/>
@@ -3871,7 +3870,7 @@
       <c r="K81" s="80"/>
       <c r="L81" s="80"/>
     </row>
-    <row r="82" spans="2:12" s="97" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:12" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B82" s="15" t="s">
         <v>54</v>
       </c>
@@ -3888,7 +3887,7 @@
       <c r="K82" s="80"/>
       <c r="L82" s="80"/>
     </row>
-    <row r="83" spans="2:12" s="97" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:12" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B83" s="15"/>
       <c r="C83" s="79"/>
       <c r="D83" s="80"/>
@@ -3901,7 +3900,7 @@
       <c r="K83" s="80"/>
       <c r="L83" s="80"/>
     </row>
-    <row r="84" spans="2:12" s="97" customFormat="1" ht="36" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:12" s="97" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
       <c r="B84" s="58"/>
       <c r="C84" s="77" t="s">
         <v>56</v>
@@ -3923,7 +3922,7 @@
       <c r="K84" s="80"/>
       <c r="L84" s="80"/>
     </row>
-    <row r="85" spans="2:12" s="97" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:12" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B85" s="58"/>
       <c r="C85" s="103" t="s">
         <v>3</v>
@@ -3946,7 +3945,7 @@
       <c r="K85" s="80"/>
       <c r="L85" s="80"/>
     </row>
-    <row r="86" spans="2:12" s="97" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:12" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B86" s="58"/>
       <c r="C86" s="103"/>
       <c r="D86" s="103"/>
@@ -3959,7 +3958,7 @@
       <c r="K86" s="80"/>
       <c r="L86" s="80"/>
     </row>
-    <row r="87" spans="2:12" s="97" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:12" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B87" s="58"/>
       <c r="C87" s="79" t="s">
         <v>61</v>
@@ -3974,22 +3973,22 @@
       <c r="K87" s="80"/>
       <c r="L87" s="80"/>
     </row>
-    <row r="88" spans="2:12" s="97" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:12" s="97" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="58"/>
-      <c r="C88" s="253" t="s">
+      <c r="C88" s="257" t="s">
         <v>268</v>
       </c>
-      <c r="D88" s="253"/>
-      <c r="E88" s="253"/>
-      <c r="F88" s="253"/>
-      <c r="G88" s="253"/>
-      <c r="H88" s="253"/>
-      <c r="I88" s="253"/>
-      <c r="J88" s="253"/>
-      <c r="K88" s="253"/>
+      <c r="D88" s="257"/>
+      <c r="E88" s="257"/>
+      <c r="F88" s="257"/>
+      <c r="G88" s="257"/>
+      <c r="H88" s="257"/>
+      <c r="I88" s="257"/>
+      <c r="J88" s="257"/>
+      <c r="K88" s="257"/>
       <c r="L88" s="80"/>
     </row>
-    <row r="89" spans="2:12" s="97" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:12" s="97" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="58"/>
       <c r="C89" s="23"/>
       <c r="D89" s="24"/>
@@ -4002,7 +4001,7 @@
       <c r="K89" s="80"/>
       <c r="L89" s="80"/>
     </row>
-    <row r="90" spans="2:12" s="97" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:12" s="97" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="58"/>
       <c r="C90" s="23"/>
       <c r="D90" s="24"/>
@@ -4015,7 +4014,7 @@
       <c r="K90" s="80"/>
       <c r="L90" s="80"/>
     </row>
-    <row r="91" spans="2:12" s="97" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:12" s="97" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B91" s="14" t="s">
         <v>62</v>
       </c>
@@ -4030,7 +4029,7 @@
       <c r="K91" s="99"/>
       <c r="L91" s="99"/>
     </row>
-    <row r="92" spans="2:12" s="97" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:12" s="97" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B92" s="58"/>
       <c r="C92" s="79"/>
       <c r="D92" s="80"/>
@@ -4043,7 +4042,7 @@
       <c r="K92" s="80"/>
       <c r="L92" s="80"/>
     </row>
-    <row r="93" spans="2:12" s="97" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:12" s="97" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B93" s="15" t="s">
         <v>63</v>
       </c>
@@ -4060,7 +4059,7 @@
       <c r="K93" s="79"/>
       <c r="L93" s="79"/>
     </row>
-    <row r="94" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B94" s="15"/>
       <c r="C94" s="21"/>
       <c r="D94" s="79"/>
@@ -4073,7 +4072,7 @@
       <c r="K94" s="79"/>
       <c r="L94" s="79"/>
     </row>
-    <row r="95" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B95" s="21"/>
       <c r="C95" s="79" t="s">
         <v>65</v>
@@ -4088,7 +4087,7 @@
       <c r="K95" s="25"/>
       <c r="L95" s="25"/>
     </row>
-    <row r="96" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B96" s="21"/>
       <c r="C96" s="79"/>
       <c r="D96" s="25"/>
@@ -4101,7 +4100,7 @@
       <c r="K96" s="25"/>
       <c r="L96" s="25"/>
     </row>
-    <row r="97" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B97" s="21"/>
       <c r="C97" s="25" t="s">
         <v>4</v>
@@ -4122,7 +4121,7 @@
       <c r="K97" s="79"/>
       <c r="L97" s="106"/>
     </row>
-    <row r="98" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B98" s="21"/>
       <c r="C98" s="25"/>
       <c r="D98" s="79"/>
@@ -4135,24 +4134,24 @@
       <c r="K98" s="79"/>
       <c r="L98" s="79"/>
     </row>
-    <row r="99" spans="2:12" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:12" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="21"/>
       <c r="C99" s="25" t="s">
         <v>3</v>
       </c>
       <c r="D99" s="103"/>
       <c r="E99" s="67"/>
-      <c r="F99" s="258" t="s">
+      <c r="F99" s="262" t="s">
         <v>280</v>
       </c>
-      <c r="G99" s="259"/>
+      <c r="G99" s="263"/>
       <c r="H99" s="107"/>
       <c r="I99" s="79"/>
       <c r="J99" s="79"/>
       <c r="K99" s="79"/>
       <c r="L99" s="79"/>
     </row>
-    <row r="100" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B100" s="21"/>
       <c r="C100" s="79"/>
       <c r="D100" s="25"/>
@@ -4165,7 +4164,7 @@
       <c r="K100" s="25"/>
       <c r="L100" s="25"/>
     </row>
-    <row r="101" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B101" s="21"/>
       <c r="C101" s="79" t="s">
         <v>69</v>
@@ -4180,7 +4179,7 @@
       <c r="K101" s="25"/>
       <c r="L101" s="25"/>
     </row>
-    <row r="102" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B102" s="21"/>
       <c r="C102" s="79"/>
       <c r="D102" s="25"/>
@@ -4193,7 +4192,7 @@
       <c r="K102" s="25"/>
       <c r="L102" s="25"/>
     </row>
-    <row r="103" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B103" s="21"/>
       <c r="C103" s="25" t="s">
         <v>4</v>
@@ -4212,7 +4211,7 @@
       <c r="K103" s="25"/>
       <c r="L103" s="25"/>
     </row>
-    <row r="104" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B104" s="21"/>
       <c r="C104" s="25"/>
       <c r="D104" s="79"/>
@@ -4225,7 +4224,7 @@
       <c r="K104" s="25"/>
       <c r="L104" s="25"/>
     </row>
-    <row r="105" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B105" s="21"/>
       <c r="C105" s="25" t="s">
         <v>3</v>
@@ -4240,7 +4239,7 @@
       <c r="K105" s="25"/>
       <c r="L105" s="25"/>
     </row>
-    <row r="106" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B106" s="18"/>
       <c r="C106" s="25"/>
       <c r="D106" s="25"/>
@@ -4253,7 +4252,7 @@
       <c r="K106" s="25"/>
       <c r="L106" s="25"/>
     </row>
-    <row r="107" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B107" s="18"/>
       <c r="C107" s="79" t="s">
         <v>71</v>
@@ -4268,7 +4267,7 @@
       <c r="K107" s="25"/>
       <c r="L107" s="25"/>
     </row>
-    <row r="108" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B108" s="18"/>
       <c r="C108" s="25"/>
       <c r="D108" s="25"/>
@@ -4281,7 +4280,7 @@
       <c r="K108" s="25"/>
       <c r="L108" s="25"/>
     </row>
-    <row r="109" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B109" s="15" t="s">
         <v>72</v>
       </c>
@@ -4298,7 +4297,7 @@
       <c r="K109" s="80"/>
       <c r="L109" s="80"/>
     </row>
-    <row r="110" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B110" s="18"/>
       <c r="C110" s="79"/>
       <c r="D110" s="79"/>
@@ -4311,50 +4310,50 @@
       <c r="K110" s="80"/>
       <c r="L110" s="80"/>
     </row>
-    <row r="111" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B111" s="58"/>
-      <c r="C111" s="200" t="s">
+      <c r="C111" s="204" t="s">
         <v>74</v>
       </c>
-      <c r="D111" s="200"/>
-      <c r="E111" s="200"/>
-      <c r="F111" s="200"/>
-      <c r="G111" s="201"/>
+      <c r="D111" s="204"/>
+      <c r="E111" s="204"/>
+      <c r="F111" s="204"/>
+      <c r="G111" s="205"/>
       <c r="H111" s="26"/>
       <c r="I111" s="27"/>
       <c r="J111" s="80"/>
       <c r="K111" s="80"/>
       <c r="L111" s="80"/>
     </row>
-    <row r="112" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B112" s="58"/>
       <c r="C112" s="79"/>
       <c r="D112" s="79"/>
       <c r="E112" s="79"/>
       <c r="F112" s="79"/>
       <c r="G112" s="79"/>
-      <c r="H112" s="202"/>
-      <c r="I112" s="202"/>
+      <c r="H112" s="206"/>
+      <c r="I112" s="206"/>
       <c r="J112" s="80"/>
       <c r="K112" s="80"/>
       <c r="L112" s="80"/>
     </row>
-    <row r="113" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B113" s="58"/>
-      <c r="C113" s="200" t="s">
+      <c r="C113" s="204" t="s">
         <v>75</v>
       </c>
-      <c r="D113" s="200"/>
-      <c r="E113" s="200"/>
-      <c r="F113" s="200"/>
-      <c r="G113" s="201"/>
+      <c r="D113" s="204"/>
+      <c r="E113" s="204"/>
+      <c r="F113" s="204"/>
+      <c r="G113" s="205"/>
       <c r="H113" s="26"/>
       <c r="I113" s="27"/>
       <c r="J113" s="80"/>
       <c r="K113" s="80"/>
       <c r="L113" s="80"/>
     </row>
-    <row r="114" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B114" s="18"/>
       <c r="C114" s="13"/>
       <c r="D114" s="80"/>
@@ -4367,7 +4366,7 @@
       <c r="K114" s="80"/>
       <c r="L114" s="80"/>
     </row>
-    <row r="115" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B115" s="14" t="s">
         <v>76</v>
       </c>
@@ -4382,7 +4381,7 @@
       <c r="K115" s="99"/>
       <c r="L115" s="99"/>
     </row>
-    <row r="116" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B116" s="18"/>
       <c r="C116" s="25"/>
       <c r="D116" s="25"/>
@@ -4395,7 +4394,7 @@
       <c r="K116" s="25"/>
       <c r="L116" s="25"/>
     </row>
-    <row r="117" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B117" s="18"/>
       <c r="C117" s="18" t="s">
         <v>77</v>
@@ -4410,7 +4409,7 @@
       <c r="K117" s="25"/>
       <c r="L117" s="25"/>
     </row>
-    <row r="118" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B118" s="18"/>
       <c r="C118" s="25"/>
       <c r="D118" s="25"/>
@@ -4423,7 +4422,7 @@
       <c r="K118" s="25"/>
       <c r="L118" s="25"/>
     </row>
-    <row r="119" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B119" s="15" t="s">
         <v>78</v>
       </c>
@@ -4440,7 +4439,7 @@
       <c r="K119" s="25"/>
       <c r="L119" s="25"/>
     </row>
-    <row r="120" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B120" s="18"/>
       <c r="C120" s="25"/>
       <c r="D120" s="25"/>
@@ -4453,7 +4452,7 @@
       <c r="K120" s="25"/>
       <c r="L120" s="25"/>
     </row>
-    <row r="121" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B121" s="58"/>
       <c r="C121" s="18" t="s">
         <v>301</v>
@@ -4468,48 +4467,48 @@
       <c r="K121" s="25"/>
       <c r="L121" s="25"/>
     </row>
-    <row r="122" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B122" s="58"/>
-      <c r="C122" s="203" t="s">
+      <c r="C122" s="207" t="s">
         <v>281</v>
       </c>
-      <c r="D122" s="204"/>
-      <c r="E122" s="204"/>
-      <c r="F122" s="204"/>
-      <c r="G122" s="204"/>
-      <c r="H122" s="204"/>
-      <c r="I122" s="204"/>
-      <c r="J122" s="204"/>
-      <c r="K122" s="204"/>
-      <c r="L122" s="205"/>
-    </row>
-    <row r="123" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D122" s="208"/>
+      <c r="E122" s="208"/>
+      <c r="F122" s="208"/>
+      <c r="G122" s="208"/>
+      <c r="H122" s="208"/>
+      <c r="I122" s="208"/>
+      <c r="J122" s="208"/>
+      <c r="K122" s="208"/>
+      <c r="L122" s="209"/>
+    </row>
+    <row r="123" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B123" s="58"/>
-      <c r="C123" s="206"/>
-      <c r="D123" s="207"/>
-      <c r="E123" s="207"/>
-      <c r="F123" s="207"/>
-      <c r="G123" s="207"/>
-      <c r="H123" s="207"/>
-      <c r="I123" s="207"/>
-      <c r="J123" s="207"/>
-      <c r="K123" s="207"/>
-      <c r="L123" s="208"/>
-    </row>
-    <row r="124" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="C123" s="210"/>
+      <c r="D123" s="211"/>
+      <c r="E123" s="211"/>
+      <c r="F123" s="211"/>
+      <c r="G123" s="211"/>
+      <c r="H123" s="211"/>
+      <c r="I123" s="211"/>
+      <c r="J123" s="211"/>
+      <c r="K123" s="211"/>
+      <c r="L123" s="212"/>
+    </row>
+    <row r="124" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B124" s="58"/>
-      <c r="C124" s="209"/>
-      <c r="D124" s="210"/>
-      <c r="E124" s="210"/>
-      <c r="F124" s="210"/>
-      <c r="G124" s="210"/>
-      <c r="H124" s="210"/>
-      <c r="I124" s="210"/>
-      <c r="J124" s="210"/>
-      <c r="K124" s="210"/>
-      <c r="L124" s="211"/>
-    </row>
-    <row r="125" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="C124" s="213"/>
+      <c r="D124" s="214"/>
+      <c r="E124" s="214"/>
+      <c r="F124" s="214"/>
+      <c r="G124" s="214"/>
+      <c r="H124" s="214"/>
+      <c r="I124" s="214"/>
+      <c r="J124" s="214"/>
+      <c r="K124" s="214"/>
+      <c r="L124" s="215"/>
+    </row>
+    <row r="125" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B125" s="58"/>
       <c r="C125" s="21"/>
       <c r="D125" s="25"/>
@@ -4522,7 +4521,7 @@
       <c r="K125" s="25"/>
       <c r="L125" s="25"/>
     </row>
-    <row r="126" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B126" s="58"/>
       <c r="C126" s="18" t="s">
         <v>80</v>
@@ -4537,22 +4536,22 @@
       <c r="K126" s="25"/>
       <c r="L126" s="25"/>
     </row>
-    <row r="127" spans="2:12" ht="63" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:12" ht="63" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" s="58"/>
-      <c r="C127" s="192" t="s">
+      <c r="C127" s="196" t="s">
         <v>282</v>
       </c>
-      <c r="D127" s="193"/>
-      <c r="E127" s="193"/>
-      <c r="F127" s="193"/>
-      <c r="G127" s="193"/>
-      <c r="H127" s="193"/>
-      <c r="I127" s="193"/>
-      <c r="J127" s="193"/>
-      <c r="K127" s="193"/>
-      <c r="L127" s="194"/>
-    </row>
-    <row r="128" spans="2:12" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D127" s="197"/>
+      <c r="E127" s="197"/>
+      <c r="F127" s="197"/>
+      <c r="G127" s="197"/>
+      <c r="H127" s="197"/>
+      <c r="I127" s="197"/>
+      <c r="J127" s="197"/>
+      <c r="K127" s="197"/>
+      <c r="L127" s="198"/>
+    </row>
+    <row r="128" spans="2:12" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" s="58"/>
       <c r="C128" s="21"/>
       <c r="D128" s="25"/>
@@ -4565,7 +4564,7 @@
       <c r="K128" s="25"/>
       <c r="L128" s="25"/>
     </row>
-    <row r="129" spans="2:12" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:12" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="58"/>
       <c r="C129" s="18" t="s">
         <v>81</v>
@@ -4580,22 +4579,22 @@
       <c r="K129" s="25"/>
       <c r="L129" s="25"/>
     </row>
-    <row r="130" spans="2:12" ht="46.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:12" ht="46.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B130" s="58"/>
-      <c r="C130" s="195" t="s">
+      <c r="C130" s="199" t="s">
         <v>283</v>
       </c>
-      <c r="D130" s="196"/>
-      <c r="E130" s="196"/>
-      <c r="F130" s="196"/>
-      <c r="G130" s="196"/>
-      <c r="H130" s="196"/>
-      <c r="I130" s="196"/>
-      <c r="J130" s="196"/>
-      <c r="K130" s="196"/>
-      <c r="L130" s="197"/>
-    </row>
-    <row r="131" spans="2:12" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D130" s="200"/>
+      <c r="E130" s="200"/>
+      <c r="F130" s="200"/>
+      <c r="G130" s="200"/>
+      <c r="H130" s="200"/>
+      <c r="I130" s="200"/>
+      <c r="J130" s="200"/>
+      <c r="K130" s="200"/>
+      <c r="L130" s="201"/>
+    </row>
+    <row r="131" spans="2:12" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131" s="58"/>
       <c r="C131" s="21"/>
       <c r="D131" s="25"/>
@@ -4608,7 +4607,7 @@
       <c r="K131" s="25"/>
       <c r="L131" s="25"/>
     </row>
-    <row r="132" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B132" s="58"/>
       <c r="C132" s="18" t="s">
         <v>82</v>
@@ -4623,7 +4622,7 @@
       <c r="K132" s="25"/>
       <c r="L132" s="25"/>
     </row>
-    <row r="133" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B133" s="58"/>
       <c r="C133" s="18"/>
       <c r="D133" s="25"/>
@@ -4637,7 +4636,7 @@
       </c>
       <c r="L133" s="25"/>
     </row>
-    <row r="134" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B134" s="58"/>
       <c r="C134" s="18" t="s">
         <v>84</v>
@@ -4651,7 +4650,7 @@
       <c r="K134" s="82"/>
       <c r="L134" s="25"/>
     </row>
-    <row r="135" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B135" s="58"/>
       <c r="C135" s="18" t="s">
         <v>85</v>
@@ -4665,7 +4664,7 @@
       <c r="K135" s="82"/>
       <c r="L135" s="25"/>
     </row>
-    <row r="136" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B136" s="58"/>
       <c r="C136" s="18" t="s">
         <v>86</v>
@@ -4679,7 +4678,7 @@
       <c r="K136" s="82"/>
       <c r="L136" s="25"/>
     </row>
-    <row r="137" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B137" s="58"/>
       <c r="C137" s="18" t="s">
         <v>87</v>
@@ -4693,7 +4692,7 @@
       <c r="K137" s="82"/>
       <c r="L137" s="25"/>
     </row>
-    <row r="138" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B138" s="58"/>
       <c r="C138" s="18" t="s">
         <v>88</v>
@@ -4707,7 +4706,7 @@
       <c r="K138" s="82"/>
       <c r="L138" s="25"/>
     </row>
-    <row r="139" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B139" s="58"/>
       <c r="C139" s="18" t="s">
         <v>89</v>
@@ -4721,7 +4720,7 @@
       <c r="K139" s="82"/>
       <c r="L139" s="25"/>
     </row>
-    <row r="140" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B140" s="58"/>
       <c r="C140" s="21"/>
       <c r="D140" s="25"/>
@@ -4734,7 +4733,7 @@
       <c r="K140" s="25"/>
       <c r="L140" s="25"/>
     </row>
-    <row r="141" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B141" s="58"/>
       <c r="C141" s="23" t="s">
         <v>263</v>
@@ -4749,7 +4748,7 @@
       <c r="K141" s="25"/>
       <c r="L141" s="25"/>
     </row>
-    <row r="142" spans="2:12" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:12" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B142" s="58"/>
       <c r="C142" s="21"/>
       <c r="D142" s="25"/>
@@ -4762,7 +4761,7 @@
       <c r="K142" s="25"/>
       <c r="L142" s="25"/>
     </row>
-    <row r="143" spans="2:12" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:12" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B143" s="58"/>
       <c r="C143" s="18" t="s">
         <v>90</v>
@@ -4777,22 +4776,22 @@
       <c r="K143" s="25"/>
       <c r="L143" s="25"/>
     </row>
-    <row r="144" spans="2:12" ht="87" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:12" ht="87" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="58"/>
-      <c r="C144" s="198" t="s">
+      <c r="C144" s="202" t="s">
         <v>284</v>
       </c>
-      <c r="D144" s="198"/>
-      <c r="E144" s="198"/>
-      <c r="F144" s="198"/>
-      <c r="G144" s="198"/>
-      <c r="H144" s="198"/>
-      <c r="I144" s="198"/>
-      <c r="J144" s="198"/>
-      <c r="K144" s="198"/>
-      <c r="L144" s="198"/>
-    </row>
-    <row r="145" spans="2:12" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D144" s="202"/>
+      <c r="E144" s="202"/>
+      <c r="F144" s="202"/>
+      <c r="G144" s="202"/>
+      <c r="H144" s="202"/>
+      <c r="I144" s="202"/>
+      <c r="J144" s="202"/>
+      <c r="K144" s="202"/>
+      <c r="L144" s="202"/>
+    </row>
+    <row r="145" spans="2:12" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B145" s="58"/>
       <c r="C145" s="21"/>
       <c r="D145" s="25"/>
@@ -4805,13 +4804,13 @@
       <c r="K145" s="25"/>
       <c r="L145" s="25"/>
     </row>
-    <row r="146" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B146" s="18"/>
-      <c r="C146" s="199" t="s">
+      <c r="C146" s="203" t="s">
         <v>91</v>
       </c>
-      <c r="D146" s="199"/>
-      <c r="E146" s="199"/>
+      <c r="D146" s="203"/>
+      <c r="E146" s="203"/>
       <c r="H146" s="106"/>
       <c r="I146" s="18" t="s">
         <v>92</v>
@@ -4820,7 +4819,7 @@
       <c r="K146" s="25"/>
       <c r="L146" s="25"/>
     </row>
-    <row r="147" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B147" s="18"/>
       <c r="C147" s="25"/>
       <c r="D147" s="25"/>
@@ -4831,13 +4830,13 @@
       <c r="K147" s="25"/>
       <c r="L147" s="25"/>
     </row>
-    <row r="148" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B148" s="18"/>
-      <c r="C148" s="199" t="s">
+      <c r="C148" s="203" t="s">
         <v>93</v>
       </c>
-      <c r="D148" s="199"/>
-      <c r="E148" s="199"/>
+      <c r="D148" s="203"/>
+      <c r="E148" s="203"/>
       <c r="H148" s="106"/>
       <c r="I148" s="18" t="s">
         <v>94</v>
@@ -4846,7 +4845,7 @@
       <c r="K148" s="25"/>
       <c r="L148" s="25"/>
     </row>
-    <row r="149" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B149" s="18"/>
       <c r="C149" s="25"/>
       <c r="D149" s="25"/>
@@ -4857,20 +4856,20 @@
       <c r="K149" s="25"/>
       <c r="L149" s="25"/>
     </row>
-    <row r="150" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B150" s="18"/>
-      <c r="C150" s="199" t="s">
+      <c r="C150" s="203" t="s">
         <v>95</v>
       </c>
-      <c r="D150" s="199"/>
-      <c r="E150" s="199"/>
+      <c r="D150" s="203"/>
+      <c r="E150" s="203"/>
       <c r="H150" s="106"/>
       <c r="I150" s="25"/>
       <c r="J150" s="25"/>
       <c r="K150" s="25"/>
       <c r="L150" s="25"/>
     </row>
-    <row r="151" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B151" s="18"/>
       <c r="C151" s="25"/>
       <c r="D151" s="25"/>
@@ -4881,21 +4880,21 @@
       <c r="K151" s="25"/>
       <c r="L151" s="25"/>
     </row>
-    <row r="152" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B152" s="18"/>
-      <c r="C152" s="199" t="s">
+      <c r="C152" s="203" t="s">
         <v>96</v>
       </c>
-      <c r="D152" s="199"/>
-      <c r="E152" s="199"/>
-      <c r="F152" s="199"/>
+      <c r="D152" s="203"/>
+      <c r="E152" s="203"/>
+      <c r="F152" s="203"/>
       <c r="H152" s="106"/>
       <c r="I152" s="25"/>
       <c r="J152" s="25"/>
       <c r="K152" s="25"/>
       <c r="L152" s="25"/>
     </row>
-    <row r="153" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B153" s="18"/>
       <c r="C153" s="25"/>
       <c r="D153" s="25"/>
@@ -4907,19 +4906,19 @@
       <c r="K153" s="25"/>
       <c r="L153" s="25"/>
     </row>
-    <row r="154" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B154" s="18"/>
-      <c r="C154" s="199" t="s">
+      <c r="C154" s="203" t="s">
         <v>97</v>
       </c>
-      <c r="D154" s="199"/>
-      <c r="E154" s="199"/>
-      <c r="F154" s="199"/>
-      <c r="G154" s="234"/>
+      <c r="D154" s="203"/>
+      <c r="E154" s="203"/>
+      <c r="F154" s="203"/>
+      <c r="G154" s="236"/>
       <c r="H154" s="106"/>
       <c r="I154" s="25"/>
     </row>
-    <row r="155" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B155" s="18"/>
       <c r="C155" s="25"/>
       <c r="D155" s="25"/>
@@ -4932,7 +4931,7 @@
       <c r="K155" s="25"/>
       <c r="L155" s="25"/>
     </row>
-    <row r="156" spans="2:12" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:12" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B156" s="18"/>
       <c r="C156" s="25"/>
       <c r="D156" s="25"/>
@@ -4945,7 +4944,7 @@
       <c r="K156" s="25"/>
       <c r="L156" s="25"/>
     </row>
-    <row r="157" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B157" s="15" t="s">
         <v>98</v>
       </c>
@@ -4962,7 +4961,7 @@
       <c r="K157" s="25"/>
       <c r="L157" s="25"/>
     </row>
-    <row r="158" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B158" s="18"/>
       <c r="C158" s="25"/>
       <c r="D158" s="25"/>
@@ -4975,7 +4974,7 @@
       <c r="K158" s="25"/>
       <c r="L158" s="25"/>
     </row>
-    <row r="159" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B159" s="21" t="s">
         <v>100</v>
       </c>
@@ -4992,7 +4991,7 @@
       <c r="K159" s="25"/>
       <c r="L159" s="25"/>
     </row>
-    <row r="160" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B160" s="18"/>
       <c r="C160" s="25"/>
       <c r="D160" s="25"/>
@@ -5005,7 +5004,7 @@
       <c r="K160" s="25"/>
       <c r="L160" s="25"/>
     </row>
-    <row r="161" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B161" s="18"/>
       <c r="C161" s="18" t="s">
         <v>102</v>
@@ -5020,7 +5019,7 @@
       <c r="K161" s="25"/>
       <c r="L161" s="25"/>
     </row>
-    <row r="162" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B162" s="18"/>
       <c r="C162" s="108"/>
       <c r="D162" s="109"/>
@@ -5033,22 +5032,22 @@
       <c r="K162" s="109"/>
       <c r="L162" s="110"/>
     </row>
-    <row r="163" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B163" s="18"/>
-      <c r="C163" s="231" t="s">
+      <c r="C163" s="233" t="s">
         <v>285</v>
       </c>
-      <c r="D163" s="232"/>
-      <c r="E163" s="232"/>
-      <c r="F163" s="232"/>
-      <c r="G163" s="232"/>
-      <c r="H163" s="232"/>
-      <c r="I163" s="232"/>
-      <c r="J163" s="232"/>
-      <c r="K163" s="232"/>
-      <c r="L163" s="233"/>
-    </row>
-    <row r="164" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D163" s="234"/>
+      <c r="E163" s="234"/>
+      <c r="F163" s="234"/>
+      <c r="G163" s="234"/>
+      <c r="H163" s="234"/>
+      <c r="I163" s="234"/>
+      <c r="J163" s="234"/>
+      <c r="K163" s="234"/>
+      <c r="L163" s="235"/>
+    </row>
+    <row r="164" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B164" s="18"/>
       <c r="C164" s="111"/>
       <c r="D164" s="112"/>
@@ -5061,7 +5060,7 @@
       <c r="K164" s="112"/>
       <c r="L164" s="113"/>
     </row>
-    <row r="165" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B165" s="18"/>
       <c r="C165" s="21"/>
       <c r="D165" s="25"/>
@@ -5074,7 +5073,7 @@
       <c r="K165" s="25"/>
       <c r="L165" s="25"/>
     </row>
-    <row r="166" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B166" s="18"/>
       <c r="C166" s="25"/>
       <c r="D166" s="25"/>
@@ -5087,7 +5086,7 @@
       <c r="K166" s="25"/>
       <c r="L166" s="25"/>
     </row>
-    <row r="167" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B167" s="18"/>
       <c r="C167" s="8" t="s">
         <v>103</v>
@@ -5102,7 +5101,7 @@
       <c r="K167" s="25"/>
       <c r="L167" s="25"/>
     </row>
-    <row r="168" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B168" s="18"/>
       <c r="H168" s="25"/>
       <c r="I168" s="25"/>
@@ -5110,7 +5109,7 @@
       <c r="K168" s="25"/>
       <c r="L168" s="25"/>
     </row>
-    <row r="169" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B169" s="18"/>
       <c r="C169" s="28" t="s">
         <v>104</v>
@@ -5121,7 +5120,7 @@
       <c r="K169" s="25"/>
       <c r="L169" s="25"/>
     </row>
-    <row r="170" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B170" s="18"/>
       <c r="C170" s="29" t="s">
         <v>105</v>
@@ -5132,7 +5131,7 @@
       <c r="K170" s="25"/>
       <c r="L170" s="25"/>
     </row>
-    <row r="171" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B171" s="18"/>
       <c r="C171" s="19" t="s">
         <v>106</v>
@@ -5143,7 +5142,7 @@
       <c r="K171" s="25"/>
       <c r="L171" s="25"/>
     </row>
-    <row r="172" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B172" s="18"/>
       <c r="C172" s="19" t="s">
         <v>107</v>
@@ -5154,7 +5153,7 @@
       <c r="K172" s="25"/>
       <c r="L172" s="25"/>
     </row>
-    <row r="173" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B173" s="18"/>
       <c r="D173" s="21"/>
       <c r="F173" s="21"/>
@@ -5165,7 +5164,7 @@
       <c r="K173" s="25"/>
       <c r="L173" s="25"/>
     </row>
-    <row r="174" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B174" s="18"/>
       <c r="C174" s="28" t="s">
         <v>108</v>
@@ -5179,7 +5178,7 @@
       <c r="K174" s="25"/>
       <c r="L174" s="25"/>
     </row>
-    <row r="175" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B175" s="18"/>
       <c r="C175" s="19" t="s">
         <v>109</v>
@@ -5193,7 +5192,7 @@
       <c r="K175" s="25"/>
       <c r="L175" s="25"/>
     </row>
-    <row r="176" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B176" s="18"/>
       <c r="C176" s="19" t="s">
         <v>110</v>
@@ -5207,7 +5206,7 @@
       <c r="K176" s="25"/>
       <c r="L176" s="25"/>
     </row>
-    <row r="177" spans="2:12" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:12" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B177" s="18"/>
       <c r="D177" s="21"/>
       <c r="F177" s="21"/>
@@ -5218,7 +5217,7 @@
       <c r="K177" s="25"/>
       <c r="L177" s="25"/>
     </row>
-    <row r="178" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B178" s="18"/>
       <c r="C178" s="31" t="s">
         <v>111</v>
@@ -5233,7 +5232,7 @@
       <c r="K178" s="25"/>
       <c r="L178" s="25"/>
     </row>
-    <row r="179" spans="2:12" ht="11.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:12" ht="11.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B179" s="18"/>
       <c r="C179" s="79"/>
       <c r="D179" s="80"/>
@@ -5246,14 +5245,14 @@
       <c r="K179" s="25"/>
       <c r="L179" s="25"/>
     </row>
-    <row r="180" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B180" s="25"/>
-      <c r="C180" s="199" t="s">
+      <c r="C180" s="203" t="s">
         <v>93</v>
       </c>
-      <c r="D180" s="199"/>
-      <c r="E180" s="199"/>
-      <c r="F180" s="199"/>
+      <c r="D180" s="203"/>
+      <c r="E180" s="203"/>
+      <c r="F180" s="203"/>
       <c r="G180" s="79"/>
       <c r="H180" s="103"/>
       <c r="I180" s="18" t="s">
@@ -5263,7 +5262,7 @@
       <c r="K180" s="25"/>
       <c r="L180" s="25"/>
     </row>
-    <row r="181" spans="2:12" ht="7.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:12" ht="7.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B181" s="18"/>
       <c r="C181" s="32"/>
       <c r="D181" s="80"/>
@@ -5276,22 +5275,22 @@
       <c r="K181" s="25"/>
       <c r="L181" s="25"/>
     </row>
-    <row r="182" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B182" s="25"/>
-      <c r="C182" s="199" t="s">
+      <c r="C182" s="203" t="s">
         <v>112</v>
       </c>
-      <c r="D182" s="199"/>
-      <c r="E182" s="199"/>
-      <c r="F182" s="199"/>
-      <c r="G182" s="234"/>
+      <c r="D182" s="203"/>
+      <c r="E182" s="203"/>
+      <c r="F182" s="203"/>
+      <c r="G182" s="236"/>
       <c r="H182" s="103"/>
       <c r="I182" s="25"/>
       <c r="J182" s="25"/>
       <c r="K182" s="25"/>
       <c r="L182" s="25"/>
     </row>
-    <row r="183" spans="2:12" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:12" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B183" s="18"/>
       <c r="C183" s="33"/>
       <c r="D183" s="80"/>
@@ -5304,7 +5303,7 @@
       <c r="K183" s="25"/>
       <c r="L183" s="25"/>
     </row>
-    <row r="184" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B184" s="18"/>
       <c r="C184" s="33" t="s">
         <v>113</v>
@@ -5319,7 +5318,7 @@
       <c r="K184" s="25"/>
       <c r="L184" s="25"/>
     </row>
-    <row r="185" spans="2:12" ht="7.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:12" ht="7.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B185" s="18"/>
       <c r="C185" s="33"/>
       <c r="D185" s="80"/>
@@ -5332,22 +5331,22 @@
       <c r="K185" s="25"/>
       <c r="L185" s="25"/>
     </row>
-    <row r="186" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B186" s="25"/>
-      <c r="C186" s="199" t="s">
+      <c r="C186" s="203" t="s">
         <v>114</v>
       </c>
-      <c r="D186" s="199"/>
-      <c r="E186" s="199"/>
-      <c r="F186" s="199"/>
-      <c r="G186" s="234"/>
+      <c r="D186" s="203"/>
+      <c r="E186" s="203"/>
+      <c r="F186" s="203"/>
+      <c r="G186" s="236"/>
       <c r="H186" s="103"/>
       <c r="I186" s="25"/>
       <c r="J186" s="25"/>
       <c r="K186" s="25"/>
       <c r="L186" s="25"/>
     </row>
-    <row r="187" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B187" s="18"/>
       <c r="C187" s="25"/>
       <c r="D187" s="25"/>
@@ -5360,7 +5359,7 @@
       <c r="K187" s="25"/>
       <c r="L187" s="25"/>
     </row>
-    <row r="188" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B188" s="18"/>
       <c r="C188" s="23" t="s">
         <v>262</v>
@@ -5375,7 +5374,7 @@
       <c r="K188" s="25"/>
       <c r="L188" s="25"/>
     </row>
-    <row r="189" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B189" s="18"/>
       <c r="C189" s="25"/>
       <c r="D189" s="25"/>
@@ -5388,7 +5387,7 @@
       <c r="K189" s="25"/>
       <c r="L189" s="25"/>
     </row>
-    <row r="190" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B190" s="21" t="s">
         <v>115</v>
       </c>
@@ -5405,7 +5404,7 @@
       <c r="K190" s="25"/>
       <c r="L190" s="25"/>
     </row>
-    <row r="191" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B191" s="21"/>
       <c r="C191" s="21"/>
       <c r="D191" s="25"/>
@@ -5418,7 +5417,7 @@
       <c r="K191" s="25"/>
       <c r="L191" s="25"/>
     </row>
-    <row r="192" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B192" s="21"/>
       <c r="C192" s="29"/>
       <c r="G192" s="20"/>
@@ -5428,7 +5427,7 @@
       <c r="K192" s="25"/>
       <c r="L192" s="25"/>
     </row>
-    <row r="193" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B193" s="21"/>
       <c r="C193" s="29" t="s">
         <v>290</v>
@@ -5443,79 +5442,79 @@
       <c r="K193" s="21"/>
       <c r="L193" s="21"/>
     </row>
-    <row r="194" spans="2:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B194" s="21"/>
-      <c r="C194" s="212" t="s">
+      <c r="C194" s="216" t="s">
         <v>286</v>
       </c>
-      <c r="D194" s="213"/>
-      <c r="E194" s="213"/>
-      <c r="F194" s="213"/>
-      <c r="G194" s="213"/>
-      <c r="H194" s="213"/>
-      <c r="I194" s="213"/>
-      <c r="J194" s="213"/>
-      <c r="K194" s="213"/>
-      <c r="L194" s="214"/>
+      <c r="D194" s="217"/>
+      <c r="E194" s="217"/>
+      <c r="F194" s="217"/>
+      <c r="G194" s="217"/>
+      <c r="H194" s="217"/>
+      <c r="I194" s="217"/>
+      <c r="J194" s="217"/>
+      <c r="K194" s="217"/>
+      <c r="L194" s="218"/>
       <c r="M194" s="21"/>
     </row>
-    <row r="195" spans="2:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B195" s="21"/>
-      <c r="C195" s="215"/>
-      <c r="D195" s="216"/>
-      <c r="E195" s="216"/>
-      <c r="F195" s="216"/>
-      <c r="G195" s="216"/>
-      <c r="H195" s="216"/>
-      <c r="I195" s="216"/>
-      <c r="J195" s="216"/>
-      <c r="K195" s="216"/>
-      <c r="L195" s="217"/>
+      <c r="C195" s="219"/>
+      <c r="D195" s="220"/>
+      <c r="E195" s="220"/>
+      <c r="F195" s="220"/>
+      <c r="G195" s="220"/>
+      <c r="H195" s="220"/>
+      <c r="I195" s="220"/>
+      <c r="J195" s="220"/>
+      <c r="K195" s="220"/>
+      <c r="L195" s="221"/>
       <c r="M195" s="2"/>
     </row>
-    <row r="196" spans="2:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B196" s="21"/>
-      <c r="C196" s="215"/>
-      <c r="D196" s="216"/>
-      <c r="E196" s="216"/>
-      <c r="F196" s="216"/>
-      <c r="G196" s="216"/>
-      <c r="H196" s="216"/>
-      <c r="I196" s="216"/>
-      <c r="J196" s="216"/>
-      <c r="K196" s="216"/>
-      <c r="L196" s="217"/>
+      <c r="C196" s="219"/>
+      <c r="D196" s="220"/>
+      <c r="E196" s="220"/>
+      <c r="F196" s="220"/>
+      <c r="G196" s="220"/>
+      <c r="H196" s="220"/>
+      <c r="I196" s="220"/>
+      <c r="J196" s="220"/>
+      <c r="K196" s="220"/>
+      <c r="L196" s="221"/>
       <c r="M196" s="2"/>
     </row>
-    <row r="197" spans="2:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B197" s="21"/>
-      <c r="C197" s="215"/>
-      <c r="D197" s="216"/>
-      <c r="E197" s="216"/>
-      <c r="F197" s="216"/>
-      <c r="G197" s="216"/>
-      <c r="H197" s="216"/>
-      <c r="I197" s="216"/>
-      <c r="J197" s="216"/>
-      <c r="K197" s="216"/>
-      <c r="L197" s="217"/>
+      <c r="C197" s="219"/>
+      <c r="D197" s="220"/>
+      <c r="E197" s="220"/>
+      <c r="F197" s="220"/>
+      <c r="G197" s="220"/>
+      <c r="H197" s="220"/>
+      <c r="I197" s="220"/>
+      <c r="J197" s="220"/>
+      <c r="K197" s="220"/>
+      <c r="L197" s="221"/>
       <c r="M197" s="2"/>
     </row>
-    <row r="198" spans="2:13" ht="99.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:13" ht="99.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B198" s="21"/>
-      <c r="C198" s="218"/>
-      <c r="D198" s="219"/>
-      <c r="E198" s="219"/>
-      <c r="F198" s="219"/>
-      <c r="G198" s="219"/>
-      <c r="H198" s="219"/>
-      <c r="I198" s="219"/>
-      <c r="J198" s="219"/>
-      <c r="K198" s="219"/>
-      <c r="L198" s="220"/>
+      <c r="C198" s="222"/>
+      <c r="D198" s="223"/>
+      <c r="E198" s="223"/>
+      <c r="F198" s="223"/>
+      <c r="G198" s="223"/>
+      <c r="H198" s="223"/>
+      <c r="I198" s="223"/>
+      <c r="J198" s="223"/>
+      <c r="K198" s="223"/>
+      <c r="L198" s="224"/>
       <c r="M198" s="2"/>
     </row>
-    <row r="199" spans="2:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B199" s="21"/>
       <c r="C199" s="20"/>
       <c r="D199" s="34"/>
@@ -5529,7 +5528,7 @@
       <c r="L199" s="34"/>
       <c r="M199" s="21"/>
     </row>
-    <row r="200" spans="2:13" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:13" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B200" s="21"/>
       <c r="C200" s="18" t="s">
         <v>117</v>
@@ -5545,79 +5544,79 @@
       <c r="L200" s="34"/>
       <c r="M200" s="34"/>
     </row>
-    <row r="201" spans="2:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B201" s="21"/>
-      <c r="C201" s="212" t="s">
+      <c r="C201" s="216" t="s">
         <v>287</v>
       </c>
-      <c r="D201" s="213"/>
-      <c r="E201" s="213"/>
-      <c r="F201" s="213"/>
-      <c r="G201" s="213"/>
-      <c r="H201" s="213"/>
-      <c r="I201" s="213"/>
-      <c r="J201" s="213"/>
-      <c r="K201" s="213"/>
-      <c r="L201" s="214"/>
+      <c r="D201" s="217"/>
+      <c r="E201" s="217"/>
+      <c r="F201" s="217"/>
+      <c r="G201" s="217"/>
+      <c r="H201" s="217"/>
+      <c r="I201" s="217"/>
+      <c r="J201" s="217"/>
+      <c r="K201" s="217"/>
+      <c r="L201" s="218"/>
       <c r="M201" s="34"/>
     </row>
-    <row r="202" spans="2:13" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:13" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B202" s="21"/>
-      <c r="C202" s="215"/>
-      <c r="D202" s="216"/>
-      <c r="E202" s="216"/>
-      <c r="F202" s="216"/>
-      <c r="G202" s="216"/>
-      <c r="H202" s="216"/>
-      <c r="I202" s="216"/>
-      <c r="J202" s="216"/>
-      <c r="K202" s="216"/>
-      <c r="L202" s="217"/>
+      <c r="C202" s="219"/>
+      <c r="D202" s="220"/>
+      <c r="E202" s="220"/>
+      <c r="F202" s="220"/>
+      <c r="G202" s="220"/>
+      <c r="H202" s="220"/>
+      <c r="I202" s="220"/>
+      <c r="J202" s="220"/>
+      <c r="K202" s="220"/>
+      <c r="L202" s="221"/>
       <c r="M202" s="2"/>
     </row>
-    <row r="203" spans="2:13" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:13" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B203" s="21"/>
-      <c r="C203" s="215"/>
-      <c r="D203" s="216"/>
-      <c r="E203" s="216"/>
-      <c r="F203" s="216"/>
-      <c r="G203" s="216"/>
-      <c r="H203" s="216"/>
-      <c r="I203" s="216"/>
-      <c r="J203" s="216"/>
-      <c r="K203" s="216"/>
-      <c r="L203" s="217"/>
+      <c r="C203" s="219"/>
+      <c r="D203" s="220"/>
+      <c r="E203" s="220"/>
+      <c r="F203" s="220"/>
+      <c r="G203" s="220"/>
+      <c r="H203" s="220"/>
+      <c r="I203" s="220"/>
+      <c r="J203" s="220"/>
+      <c r="K203" s="220"/>
+      <c r="L203" s="221"/>
       <c r="M203" s="2"/>
     </row>
-    <row r="204" spans="2:13" ht="35.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:13" ht="35.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B204" s="21"/>
-      <c r="C204" s="215"/>
-      <c r="D204" s="216"/>
-      <c r="E204" s="216"/>
-      <c r="F204" s="216"/>
-      <c r="G204" s="216"/>
-      <c r="H204" s="216"/>
-      <c r="I204" s="216"/>
-      <c r="J204" s="216"/>
-      <c r="K204" s="216"/>
-      <c r="L204" s="217"/>
+      <c r="C204" s="219"/>
+      <c r="D204" s="220"/>
+      <c r="E204" s="220"/>
+      <c r="F204" s="220"/>
+      <c r="G204" s="220"/>
+      <c r="H204" s="220"/>
+      <c r="I204" s="220"/>
+      <c r="J204" s="220"/>
+      <c r="K204" s="220"/>
+      <c r="L204" s="221"/>
       <c r="M204" s="2"/>
     </row>
-    <row r="205" spans="2:13" ht="39" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:13" ht="39" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B205" s="21"/>
-      <c r="C205" s="218"/>
-      <c r="D205" s="219"/>
-      <c r="E205" s="219"/>
-      <c r="F205" s="219"/>
-      <c r="G205" s="219"/>
-      <c r="H205" s="219"/>
-      <c r="I205" s="219"/>
-      <c r="J205" s="219"/>
-      <c r="K205" s="219"/>
-      <c r="L205" s="220"/>
+      <c r="C205" s="222"/>
+      <c r="D205" s="223"/>
+      <c r="E205" s="223"/>
+      <c r="F205" s="223"/>
+      <c r="G205" s="223"/>
+      <c r="H205" s="223"/>
+      <c r="I205" s="223"/>
+      <c r="J205" s="223"/>
+      <c r="K205" s="223"/>
+      <c r="L205" s="224"/>
       <c r="M205" s="2"/>
     </row>
-    <row r="206" spans="2:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B206" s="21"/>
       <c r="C206" s="21"/>
       <c r="D206" s="25"/>
@@ -5631,7 +5630,7 @@
       <c r="L206" s="25"/>
       <c r="M206" s="2"/>
     </row>
-    <row r="207" spans="2:13" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:13" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B207" s="21"/>
       <c r="C207" s="79" t="s">
         <v>288</v>
@@ -5647,7 +5646,7 @@
       <c r="L207" s="25"/>
       <c r="M207" s="2"/>
     </row>
-    <row r="208" spans="2:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B208" s="21"/>
       <c r="C208" s="79" t="s">
         <v>289</v>
@@ -5663,7 +5662,7 @@
       <c r="L208" s="25"/>
       <c r="M208" s="2"/>
     </row>
-    <row r="209" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B209" s="21"/>
       <c r="C209" s="21"/>
       <c r="D209" s="25"/>
@@ -5676,7 +5675,7 @@
       <c r="K209" s="25"/>
       <c r="L209" s="25"/>
     </row>
-    <row r="210" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B210" s="15" t="s">
         <v>118</v>
       </c>
@@ -5693,7 +5692,7 @@
       <c r="K210" s="25"/>
       <c r="L210" s="25"/>
     </row>
-    <row r="211" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B211" s="18"/>
       <c r="C211" s="25"/>
       <c r="D211" s="25"/>
@@ -5706,7 +5705,7 @@
       <c r="K211" s="25"/>
       <c r="L211" s="25"/>
     </row>
-    <row r="212" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B212" s="18"/>
       <c r="C212" s="18" t="s">
         <v>120</v>
@@ -5721,7 +5720,7 @@
       <c r="K212" s="26"/>
       <c r="L212" s="27"/>
     </row>
-    <row r="213" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B213" s="18"/>
       <c r="C213" s="25"/>
       <c r="D213" s="25"/>
@@ -5734,7 +5733,7 @@
       <c r="K213" s="25"/>
       <c r="L213" s="25"/>
     </row>
-    <row r="214" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B214" s="18"/>
       <c r="C214" s="8" t="s">
         <v>121</v>
@@ -5750,51 +5749,51 @@
       <c r="L214" s="21"/>
       <c r="M214" s="2"/>
     </row>
-    <row r="215" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B215" s="18"/>
-      <c r="C215" s="183" t="s">
+      <c r="C215" s="187" t="s">
         <v>292</v>
       </c>
-      <c r="D215" s="184"/>
-      <c r="E215" s="184"/>
-      <c r="F215" s="184"/>
-      <c r="G215" s="184"/>
-      <c r="H215" s="184"/>
-      <c r="I215" s="184"/>
-      <c r="J215" s="184"/>
-      <c r="K215" s="184"/>
-      <c r="L215" s="185"/>
+      <c r="D215" s="188"/>
+      <c r="E215" s="188"/>
+      <c r="F215" s="188"/>
+      <c r="G215" s="188"/>
+      <c r="H215" s="188"/>
+      <c r="I215" s="188"/>
+      <c r="J215" s="188"/>
+      <c r="K215" s="188"/>
+      <c r="L215" s="189"/>
       <c r="M215" s="34"/>
     </row>
-    <row r="216" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B216" s="18"/>
-      <c r="C216" s="186"/>
-      <c r="D216" s="187"/>
-      <c r="E216" s="187"/>
-      <c r="F216" s="187"/>
-      <c r="G216" s="187"/>
-      <c r="H216" s="187"/>
-      <c r="I216" s="187"/>
-      <c r="J216" s="187"/>
-      <c r="K216" s="187"/>
-      <c r="L216" s="188"/>
+      <c r="C216" s="190"/>
+      <c r="D216" s="191"/>
+      <c r="E216" s="191"/>
+      <c r="F216" s="191"/>
+      <c r="G216" s="191"/>
+      <c r="H216" s="191"/>
+      <c r="I216" s="191"/>
+      <c r="J216" s="191"/>
+      <c r="K216" s="191"/>
+      <c r="L216" s="192"/>
       <c r="M216" s="60"/>
     </row>
-    <row r="217" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B217" s="18"/>
-      <c r="C217" s="189"/>
-      <c r="D217" s="190"/>
-      <c r="E217" s="190"/>
-      <c r="F217" s="190"/>
-      <c r="G217" s="190"/>
-      <c r="H217" s="190"/>
-      <c r="I217" s="190"/>
-      <c r="J217" s="190"/>
-      <c r="K217" s="190"/>
-      <c r="L217" s="191"/>
+      <c r="C217" s="193"/>
+      <c r="D217" s="194"/>
+      <c r="E217" s="194"/>
+      <c r="F217" s="194"/>
+      <c r="G217" s="194"/>
+      <c r="H217" s="194"/>
+      <c r="I217" s="194"/>
+      <c r="J217" s="194"/>
+      <c r="K217" s="194"/>
+      <c r="L217" s="195"/>
       <c r="M217" s="60"/>
     </row>
-    <row r="218" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B218" s="18"/>
       <c r="C218" s="25"/>
       <c r="D218" s="25"/>
@@ -5808,7 +5807,7 @@
       <c r="L218" s="25"/>
       <c r="M218" s="60"/>
     </row>
-    <row r="219" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B219" s="18"/>
       <c r="C219" s="25"/>
       <c r="D219" s="25"/>
@@ -5822,12 +5821,12 @@
       <c r="L219" s="25"/>
       <c r="M219" s="2"/>
     </row>
-    <row r="220" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B220" s="18"/>
-      <c r="C220" s="199" t="s">
+      <c r="C220" s="203" t="s">
         <v>122</v>
       </c>
-      <c r="D220" s="199"/>
+      <c r="D220" s="203"/>
       <c r="E220" s="82"/>
       <c r="F220" s="79"/>
       <c r="G220" s="13"/>
@@ -5837,7 +5836,7 @@
       <c r="K220" s="25"/>
       <c r="L220" s="25"/>
     </row>
-    <row r="221" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B221" s="18"/>
       <c r="C221" s="25"/>
       <c r="D221" s="25"/>
@@ -5850,7 +5849,7 @@
       <c r="K221" s="25"/>
       <c r="L221" s="25"/>
     </row>
-    <row r="222" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B222" s="18"/>
       <c r="C222" s="18" t="s">
         <v>123</v>
@@ -5865,7 +5864,7 @@
       <c r="K222" s="25"/>
       <c r="L222" s="25"/>
     </row>
-    <row r="223" spans="2:13" ht="36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="2:13" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B223" s="18"/>
       <c r="C223" s="75" t="s">
         <v>47</v>
@@ -5888,7 +5887,7 @@
       <c r="K223" s="25"/>
       <c r="L223" s="25"/>
     </row>
-    <row r="224" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B224" s="18"/>
       <c r="C224" s="114"/>
       <c r="D224" s="114"/>
@@ -5901,7 +5900,7 @@
       <c r="K224" s="25"/>
       <c r="L224" s="25"/>
     </row>
-    <row r="225" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B225" s="18"/>
       <c r="C225" s="25"/>
       <c r="D225" s="25"/>
@@ -5914,7 +5913,7 @@
       <c r="K225" s="25"/>
       <c r="L225" s="25"/>
     </row>
-    <row r="226" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B226" s="18"/>
       <c r="C226" s="18" t="s">
         <v>124</v>
@@ -5929,7 +5928,7 @@
       <c r="K226" s="25"/>
       <c r="L226" s="25"/>
     </row>
-    <row r="227" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B227" s="18"/>
       <c r="C227" s="108"/>
       <c r="D227" s="109"/>
@@ -5942,22 +5941,22 @@
       <c r="K227" s="109"/>
       <c r="L227" s="110"/>
     </row>
-    <row r="228" spans="2:14" ht="49.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="2:14" ht="49.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B228" s="18"/>
-      <c r="C228" s="206" t="s">
+      <c r="C228" s="210" t="s">
         <v>291</v>
       </c>
-      <c r="D228" s="207"/>
-      <c r="E228" s="207"/>
-      <c r="F228" s="207"/>
-      <c r="G228" s="207"/>
-      <c r="H228" s="207"/>
-      <c r="I228" s="207"/>
-      <c r="J228" s="207"/>
-      <c r="K228" s="207"/>
-      <c r="L228" s="208"/>
-    </row>
-    <row r="229" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D228" s="211"/>
+      <c r="E228" s="211"/>
+      <c r="F228" s="211"/>
+      <c r="G228" s="211"/>
+      <c r="H228" s="211"/>
+      <c r="I228" s="211"/>
+      <c r="J228" s="211"/>
+      <c r="K228" s="211"/>
+      <c r="L228" s="212"/>
+    </row>
+    <row r="229" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B229" s="18"/>
       <c r="C229" s="111"/>
       <c r="D229" s="112"/>
@@ -5970,7 +5969,7 @@
       <c r="K229" s="112"/>
       <c r="L229" s="113"/>
     </row>
-    <row r="230" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B230" s="18"/>
       <c r="C230" s="101"/>
       <c r="D230" s="101"/>
@@ -5983,7 +5982,7 @@
       <c r="K230" s="101"/>
       <c r="L230" s="101"/>
     </row>
-    <row r="231" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B231" s="18"/>
       <c r="C231" s="29" t="s">
         <v>125</v>
@@ -5997,7 +5996,7 @@
       <c r="K231" s="101"/>
       <c r="L231" s="101"/>
     </row>
-    <row r="232" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B232" s="18"/>
       <c r="C232" s="101"/>
       <c r="D232" s="101"/>
@@ -6010,7 +6009,7 @@
       <c r="K232" s="101"/>
       <c r="L232" s="101"/>
     </row>
-    <row r="233" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B233" s="18"/>
       <c r="C233" s="20"/>
       <c r="D233" s="34"/>
@@ -6023,7 +6022,7 @@
       <c r="K233" s="34"/>
       <c r="L233" s="34"/>
     </row>
-    <row r="234" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B234" s="18"/>
       <c r="C234" s="18" t="s">
         <v>127</v>
@@ -6039,7 +6038,7 @@
       <c r="L234" s="34"/>
       <c r="M234" s="34"/>
     </row>
-    <row r="235" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B235" s="18"/>
       <c r="C235" s="18" t="s">
         <v>128</v>
@@ -6055,54 +6054,54 @@
       <c r="L235" s="34"/>
       <c r="M235" s="34"/>
     </row>
-    <row r="236" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B236" s="18"/>
-      <c r="C236" s="238" t="s">
+      <c r="C236" s="240" t="s">
         <v>129</v>
       </c>
-      <c r="D236" s="239"/>
-      <c r="E236" s="239"/>
-      <c r="F236" s="239"/>
-      <c r="G236" s="239"/>
-      <c r="H236" s="239"/>
-      <c r="I236" s="239"/>
-      <c r="J236" s="239"/>
-      <c r="K236" s="239"/>
-      <c r="L236" s="240"/>
+      <c r="D236" s="241"/>
+      <c r="E236" s="241"/>
+      <c r="F236" s="241"/>
+      <c r="G236" s="241"/>
+      <c r="H236" s="241"/>
+      <c r="I236" s="241"/>
+      <c r="J236" s="241"/>
+      <c r="K236" s="241"/>
+      <c r="L236" s="242"/>
       <c r="M236" s="34"/>
       <c r="N236" s="2"/>
     </row>
-    <row r="237" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B237" s="18"/>
-      <c r="C237" s="241"/>
-      <c r="D237" s="242"/>
-      <c r="E237" s="242"/>
-      <c r="F237" s="242"/>
-      <c r="G237" s="242"/>
-      <c r="H237" s="242"/>
-      <c r="I237" s="242"/>
-      <c r="J237" s="242"/>
-      <c r="K237" s="242"/>
-      <c r="L237" s="243"/>
+      <c r="C237" s="243"/>
+      <c r="D237" s="244"/>
+      <c r="E237" s="244"/>
+      <c r="F237" s="244"/>
+      <c r="G237" s="244"/>
+      <c r="H237" s="244"/>
+      <c r="I237" s="244"/>
+      <c r="J237" s="244"/>
+      <c r="K237" s="244"/>
+      <c r="L237" s="245"/>
       <c r="M237" s="60"/>
       <c r="N237" s="2"/>
     </row>
-    <row r="238" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B238" s="18"/>
-      <c r="C238" s="244"/>
-      <c r="D238" s="245"/>
-      <c r="E238" s="245"/>
-      <c r="F238" s="245"/>
-      <c r="G238" s="245"/>
-      <c r="H238" s="245"/>
-      <c r="I238" s="245"/>
-      <c r="J238" s="245"/>
-      <c r="K238" s="245"/>
-      <c r="L238" s="246"/>
+      <c r="C238" s="246"/>
+      <c r="D238" s="247"/>
+      <c r="E238" s="247"/>
+      <c r="F238" s="247"/>
+      <c r="G238" s="247"/>
+      <c r="H238" s="247"/>
+      <c r="I238" s="247"/>
+      <c r="J238" s="247"/>
+      <c r="K238" s="247"/>
+      <c r="L238" s="248"/>
       <c r="M238" s="60"/>
       <c r="N238" s="2"/>
     </row>
-    <row r="239" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B239" s="18"/>
       <c r="C239" s="101"/>
       <c r="D239" s="101"/>
@@ -6117,7 +6116,7 @@
       <c r="M239" s="60"/>
       <c r="N239" s="2"/>
     </row>
-    <row r="240" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B240" s="18"/>
       <c r="C240" s="25"/>
       <c r="D240" s="25"/>
@@ -6132,7 +6131,7 @@
       <c r="M240" s="2"/>
       <c r="N240" s="2"/>
     </row>
-    <row r="241" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B241" s="15" t="s">
         <v>130</v>
       </c>
@@ -6149,7 +6148,7 @@
       <c r="K241" s="25"/>
       <c r="L241" s="25"/>
     </row>
-    <row r="242" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B242" s="18"/>
       <c r="C242" s="25"/>
       <c r="D242" s="25"/>
@@ -6162,7 +6161,7 @@
       <c r="K242" s="25"/>
       <c r="L242" s="25"/>
     </row>
-    <row r="243" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B243" s="18"/>
       <c r="C243" s="18" t="s">
         <v>272</v>
@@ -6176,7 +6175,7 @@
       <c r="K243" s="25"/>
       <c r="L243" s="25"/>
     </row>
-    <row r="244" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B244" s="18"/>
       <c r="C244" s="25"/>
       <c r="D244" s="25"/>
@@ -6189,7 +6188,7 @@
       <c r="K244" s="25"/>
       <c r="L244" s="25"/>
     </row>
-    <row r="245" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B245" s="18"/>
       <c r="C245" s="18" t="s">
         <v>132</v>
@@ -6204,37 +6203,37 @@
       <c r="K245" s="25"/>
       <c r="L245" s="25"/>
     </row>
-    <row r="246" spans="2:12" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="2:12" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B246" s="18"/>
-      <c r="C246" s="253" t="s">
+      <c r="C246" s="257" t="s">
         <v>269</v>
       </c>
-      <c r="D246" s="253"/>
-      <c r="E246" s="253"/>
-      <c r="F246" s="253"/>
-      <c r="G246" s="253"/>
-      <c r="H246" s="253"/>
-      <c r="I246" s="253"/>
-      <c r="J246" s="253"/>
-      <c r="K246" s="253"/>
-      <c r="L246" s="253"/>
-    </row>
-    <row r="247" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D246" s="257"/>
+      <c r="E246" s="257"/>
+      <c r="F246" s="257"/>
+      <c r="G246" s="257"/>
+      <c r="H246" s="257"/>
+      <c r="I246" s="257"/>
+      <c r="J246" s="257"/>
+      <c r="K246" s="257"/>
+      <c r="L246" s="257"/>
+    </row>
+    <row r="247" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B247" s="18"/>
-      <c r="C247" s="253" t="s">
+      <c r="C247" s="257" t="s">
         <v>133</v>
       </c>
-      <c r="D247" s="253"/>
-      <c r="E247" s="253"/>
-      <c r="F247" s="253"/>
-      <c r="G247" s="253"/>
-      <c r="H247" s="253"/>
-      <c r="I247" s="253"/>
-      <c r="J247" s="253"/>
-      <c r="K247" s="253"/>
-      <c r="L247" s="253"/>
-    </row>
-    <row r="248" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D247" s="257"/>
+      <c r="E247" s="257"/>
+      <c r="F247" s="257"/>
+      <c r="G247" s="257"/>
+      <c r="H247" s="257"/>
+      <c r="I247" s="257"/>
+      <c r="J247" s="257"/>
+      <c r="K247" s="257"/>
+      <c r="L247" s="257"/>
+    </row>
+    <row r="248" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B248" s="18"/>
       <c r="C248" s="25"/>
       <c r="D248" s="25"/>
@@ -6247,7 +6246,7 @@
       <c r="K248" s="25"/>
       <c r="L248" s="25"/>
     </row>
-    <row r="249" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B249" s="18"/>
       <c r="C249" s="18" t="s">
         <v>134</v>
@@ -6262,7 +6261,7 @@
       <c r="K249" s="25"/>
       <c r="L249" s="25"/>
     </row>
-    <row r="250" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B250" s="18"/>
       <c r="C250" s="20"/>
       <c r="D250" s="20"/>
@@ -6275,7 +6274,7 @@
       <c r="K250" s="25"/>
       <c r="L250" s="25"/>
     </row>
-    <row r="251" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="2:12" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B251" s="18"/>
       <c r="C251" s="75" t="s">
         <v>132</v>
@@ -6292,7 +6291,7 @@
       <c r="K251" s="25"/>
       <c r="L251" s="25"/>
     </row>
-    <row r="252" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B252" s="18"/>
       <c r="C252" s="30"/>
       <c r="D252" s="30"/>
@@ -6305,7 +6304,7 @@
       <c r="K252" s="25"/>
       <c r="L252" s="25"/>
     </row>
-    <row r="253" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B253" s="18"/>
       <c r="C253" s="30"/>
       <c r="D253" s="30"/>
@@ -6318,7 +6317,7 @@
       <c r="K253" s="25"/>
       <c r="L253" s="25"/>
     </row>
-    <row r="254" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B254" s="18"/>
       <c r="C254" s="38" t="s">
         <v>135</v>
@@ -6333,7 +6332,7 @@
       <c r="K254" s="25"/>
       <c r="L254" s="25"/>
     </row>
-    <row r="255" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B255" s="18"/>
       <c r="C255" s="23" t="s">
         <v>136</v>
@@ -6348,7 +6347,7 @@
       <c r="K255" s="25"/>
       <c r="L255" s="25"/>
     </row>
-    <row r="256" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B256" s="18"/>
       <c r="C256" s="23" t="s">
         <v>137</v>
@@ -6363,7 +6362,7 @@
       <c r="K256" s="25"/>
       <c r="L256" s="25"/>
     </row>
-    <row r="257" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B257" s="18"/>
       <c r="C257" s="18"/>
       <c r="D257" s="25"/>
@@ -6376,7 +6375,7 @@
       <c r="K257" s="25"/>
       <c r="L257" s="25"/>
     </row>
-    <row r="258" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B258" s="15" t="s">
         <v>138</v>
       </c>
@@ -6393,7 +6392,7 @@
       <c r="K258" s="25"/>
       <c r="L258" s="25"/>
     </row>
-    <row r="259" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B259" s="18"/>
       <c r="C259" s="25"/>
       <c r="D259" s="25"/>
@@ -6406,7 +6405,7 @@
       <c r="K259" s="25"/>
       <c r="L259" s="25"/>
     </row>
-    <row r="260" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B260" s="18"/>
       <c r="C260" s="29" t="s">
         <v>297</v>
@@ -6423,84 +6422,84 @@
       <c r="M260" s="2"/>
       <c r="N260" s="2"/>
     </row>
-    <row r="261" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B261" s="18"/>
-      <c r="C261" s="212" t="s">
+      <c r="C261" s="216" t="s">
         <v>304</v>
       </c>
-      <c r="D261" s="213"/>
-      <c r="E261" s="213"/>
-      <c r="F261" s="213"/>
-      <c r="G261" s="213"/>
-      <c r="H261" s="213"/>
-      <c r="I261" s="213"/>
-      <c r="J261" s="213"/>
-      <c r="K261" s="213"/>
-      <c r="L261" s="214"/>
+      <c r="D261" s="217"/>
+      <c r="E261" s="217"/>
+      <c r="F261" s="217"/>
+      <c r="G261" s="217"/>
+      <c r="H261" s="217"/>
+      <c r="I261" s="217"/>
+      <c r="J261" s="217"/>
+      <c r="K261" s="217"/>
+      <c r="L261" s="218"/>
       <c r="M261" s="34"/>
       <c r="N261" s="2"/>
     </row>
-    <row r="262" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B262" s="18"/>
-      <c r="C262" s="215"/>
-      <c r="D262" s="216"/>
-      <c r="E262" s="216"/>
-      <c r="F262" s="216"/>
-      <c r="G262" s="216"/>
-      <c r="H262" s="216"/>
-      <c r="I262" s="216"/>
-      <c r="J262" s="216"/>
-      <c r="K262" s="216"/>
-      <c r="L262" s="217"/>
+      <c r="C262" s="219"/>
+      <c r="D262" s="220"/>
+      <c r="E262" s="220"/>
+      <c r="F262" s="220"/>
+      <c r="G262" s="220"/>
+      <c r="H262" s="220"/>
+      <c r="I262" s="220"/>
+      <c r="J262" s="220"/>
+      <c r="K262" s="220"/>
+      <c r="L262" s="221"/>
       <c r="M262" s="60"/>
       <c r="N262" s="2"/>
     </row>
-    <row r="263" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B263" s="18"/>
-      <c r="C263" s="215"/>
-      <c r="D263" s="216"/>
-      <c r="E263" s="216"/>
-      <c r="F263" s="216"/>
-      <c r="G263" s="216"/>
-      <c r="H263" s="216"/>
-      <c r="I263" s="216"/>
-      <c r="J263" s="216"/>
-      <c r="K263" s="216"/>
-      <c r="L263" s="217"/>
+      <c r="C263" s="219"/>
+      <c r="D263" s="220"/>
+      <c r="E263" s="220"/>
+      <c r="F263" s="220"/>
+      <c r="G263" s="220"/>
+      <c r="H263" s="220"/>
+      <c r="I263" s="220"/>
+      <c r="J263" s="220"/>
+      <c r="K263" s="220"/>
+      <c r="L263" s="221"/>
       <c r="M263" s="60"/>
       <c r="N263" s="2"/>
     </row>
-    <row r="264" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B264" s="18"/>
-      <c r="C264" s="215"/>
-      <c r="D264" s="216"/>
-      <c r="E264" s="216"/>
-      <c r="F264" s="216"/>
-      <c r="G264" s="216"/>
-      <c r="H264" s="216"/>
-      <c r="I264" s="216"/>
-      <c r="J264" s="216"/>
-      <c r="K264" s="216"/>
-      <c r="L264" s="217"/>
+      <c r="C264" s="219"/>
+      <c r="D264" s="220"/>
+      <c r="E264" s="220"/>
+      <c r="F264" s="220"/>
+      <c r="G264" s="220"/>
+      <c r="H264" s="220"/>
+      <c r="I264" s="220"/>
+      <c r="J264" s="220"/>
+      <c r="K264" s="220"/>
+      <c r="L264" s="221"/>
       <c r="M264" s="60"/>
       <c r="N264" s="2"/>
     </row>
-    <row r="265" spans="2:14" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="2:14" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B265" s="18"/>
-      <c r="C265" s="218"/>
-      <c r="D265" s="219"/>
-      <c r="E265" s="219"/>
-      <c r="F265" s="219"/>
-      <c r="G265" s="219"/>
-      <c r="H265" s="219"/>
-      <c r="I265" s="219"/>
-      <c r="J265" s="219"/>
-      <c r="K265" s="219"/>
-      <c r="L265" s="220"/>
+      <c r="C265" s="222"/>
+      <c r="D265" s="223"/>
+      <c r="E265" s="223"/>
+      <c r="F265" s="223"/>
+      <c r="G265" s="223"/>
+      <c r="H265" s="223"/>
+      <c r="I265" s="223"/>
+      <c r="J265" s="223"/>
+      <c r="K265" s="223"/>
+      <c r="L265" s="224"/>
       <c r="M265" s="60"/>
       <c r="N265" s="2"/>
     </row>
-    <row r="266" spans="2:14" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="2:14" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B266" s="18"/>
       <c r="C266" s="25"/>
       <c r="D266" s="25"/>
@@ -6515,7 +6514,7 @@
       <c r="M266" s="60"/>
       <c r="N266" s="2"/>
     </row>
-    <row r="267" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B267" s="18"/>
       <c r="C267" s="25"/>
       <c r="D267" s="25"/>
@@ -6530,7 +6529,7 @@
       <c r="M267" s="2"/>
       <c r="N267" s="2"/>
     </row>
-    <row r="268" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B268" s="18"/>
       <c r="C268" s="18" t="s">
         <v>140</v>
@@ -6547,29 +6546,29 @@
       <c r="M268" s="2"/>
       <c r="N268" s="2"/>
     </row>
-    <row r="269" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B269" s="18"/>
-      <c r="C269" s="165" t="s">
+      <c r="C269" s="169" t="s">
         <v>253</v>
       </c>
-      <c r="D269" s="165"/>
-      <c r="E269" s="157" t="s">
+      <c r="D269" s="169"/>
+      <c r="E269" s="165" t="s">
         <v>141</v>
       </c>
-      <c r="F269" s="163"/>
-      <c r="G269" s="163"/>
-      <c r="H269" s="163"/>
-      <c r="I269" s="163"/>
-      <c r="J269" s="163"/>
-      <c r="K269" s="163"/>
-      <c r="L269" s="158"/>
+      <c r="F269" s="166"/>
+      <c r="G269" s="166"/>
+      <c r="H269" s="166"/>
+      <c r="I269" s="166"/>
+      <c r="J269" s="166"/>
+      <c r="K269" s="166"/>
+      <c r="L269" s="167"/>
       <c r="M269" s="34"/>
       <c r="N269" s="2"/>
     </row>
-    <row r="270" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B270" s="18"/>
-      <c r="C270" s="252"/>
-      <c r="D270" s="252"/>
+      <c r="C270" s="256"/>
+      <c r="D270" s="256"/>
       <c r="E270" s="71"/>
       <c r="F270" s="73"/>
       <c r="G270" s="73"/>
@@ -6581,10 +6580,10 @@
       <c r="M270" s="22"/>
       <c r="N270" s="2"/>
     </row>
-    <row r="271" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B271" s="18"/>
-      <c r="C271" s="252"/>
-      <c r="D271" s="252"/>
+      <c r="C271" s="256"/>
+      <c r="D271" s="256"/>
       <c r="E271" s="71"/>
       <c r="F271" s="73"/>
       <c r="G271" s="73"/>
@@ -6596,10 +6595,10 @@
       <c r="M271" s="13"/>
       <c r="N271" s="2"/>
     </row>
-    <row r="272" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B272" s="18"/>
-      <c r="C272" s="252"/>
-      <c r="D272" s="252"/>
+      <c r="C272" s="256"/>
+      <c r="D272" s="256"/>
       <c r="E272" s="71"/>
       <c r="F272" s="73"/>
       <c r="G272" s="73"/>
@@ -6611,10 +6610,10 @@
       <c r="M272" s="13"/>
       <c r="N272" s="2"/>
     </row>
-    <row r="273" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B273" s="18"/>
-      <c r="C273" s="252"/>
-      <c r="D273" s="252"/>
+      <c r="C273" s="256"/>
+      <c r="D273" s="256"/>
       <c r="E273" s="71"/>
       <c r="F273" s="73"/>
       <c r="G273" s="73"/>
@@ -6626,7 +6625,7 @@
       <c r="M273" s="13"/>
       <c r="N273" s="2"/>
     </row>
-    <row r="274" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B274" s="18"/>
       <c r="C274" s="34"/>
       <c r="D274" s="34"/>
@@ -6641,7 +6640,7 @@
       <c r="M274" s="13"/>
       <c r="N274" s="2"/>
     </row>
-    <row r="275" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B275" s="18"/>
       <c r="C275" s="21"/>
       <c r="D275" s="34"/>
@@ -6656,7 +6655,7 @@
       <c r="M275" s="34"/>
       <c r="N275" s="2"/>
     </row>
-    <row r="276" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B276" s="18"/>
       <c r="C276" s="18" t="s">
         <v>142</v>
@@ -6673,84 +6672,84 @@
       <c r="M276" s="34"/>
       <c r="N276" s="2"/>
     </row>
-    <row r="277" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B277" s="18"/>
-      <c r="C277" s="257" t="s">
+      <c r="C277" s="261" t="s">
         <v>302</v>
       </c>
-      <c r="D277" s="257"/>
-      <c r="E277" s="257"/>
-      <c r="F277" s="257"/>
-      <c r="G277" s="257"/>
-      <c r="H277" s="257"/>
-      <c r="I277" s="257"/>
-      <c r="J277" s="257"/>
-      <c r="K277" s="257"/>
-      <c r="L277" s="257"/>
+      <c r="D277" s="261"/>
+      <c r="E277" s="261"/>
+      <c r="F277" s="261"/>
+      <c r="G277" s="261"/>
+      <c r="H277" s="261"/>
+      <c r="I277" s="261"/>
+      <c r="J277" s="261"/>
+      <c r="K277" s="261"/>
+      <c r="L277" s="261"/>
       <c r="M277" s="34"/>
       <c r="N277" s="2"/>
     </row>
-    <row r="278" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B278" s="18"/>
-      <c r="C278" s="257"/>
-      <c r="D278" s="257"/>
-      <c r="E278" s="257"/>
-      <c r="F278" s="257"/>
-      <c r="G278" s="257"/>
-      <c r="H278" s="257"/>
-      <c r="I278" s="257"/>
-      <c r="J278" s="257"/>
-      <c r="K278" s="257"/>
-      <c r="L278" s="257"/>
+      <c r="C278" s="261"/>
+      <c r="D278" s="261"/>
+      <c r="E278" s="261"/>
+      <c r="F278" s="261"/>
+      <c r="G278" s="261"/>
+      <c r="H278" s="261"/>
+      <c r="I278" s="261"/>
+      <c r="J278" s="261"/>
+      <c r="K278" s="261"/>
+      <c r="L278" s="261"/>
       <c r="M278" s="60"/>
       <c r="N278" s="2"/>
     </row>
-    <row r="279" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B279" s="18"/>
-      <c r="C279" s="257"/>
-      <c r="D279" s="257"/>
-      <c r="E279" s="257"/>
-      <c r="F279" s="257"/>
-      <c r="G279" s="257"/>
-      <c r="H279" s="257"/>
-      <c r="I279" s="257"/>
-      <c r="J279" s="257"/>
-      <c r="K279" s="257"/>
-      <c r="L279" s="257"/>
+      <c r="C279" s="261"/>
+      <c r="D279" s="261"/>
+      <c r="E279" s="261"/>
+      <c r="F279" s="261"/>
+      <c r="G279" s="261"/>
+      <c r="H279" s="261"/>
+      <c r="I279" s="261"/>
+      <c r="J279" s="261"/>
+      <c r="K279" s="261"/>
+      <c r="L279" s="261"/>
       <c r="M279" s="60"/>
       <c r="N279" s="2"/>
     </row>
-    <row r="280" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B280" s="18"/>
-      <c r="C280" s="257"/>
-      <c r="D280" s="257"/>
-      <c r="E280" s="257"/>
-      <c r="F280" s="257"/>
-      <c r="G280" s="257"/>
-      <c r="H280" s="257"/>
-      <c r="I280" s="257"/>
-      <c r="J280" s="257"/>
-      <c r="K280" s="257"/>
-      <c r="L280" s="257"/>
+      <c r="C280" s="261"/>
+      <c r="D280" s="261"/>
+      <c r="E280" s="261"/>
+      <c r="F280" s="261"/>
+      <c r="G280" s="261"/>
+      <c r="H280" s="261"/>
+      <c r="I280" s="261"/>
+      <c r="J280" s="261"/>
+      <c r="K280" s="261"/>
+      <c r="L280" s="261"/>
       <c r="M280" s="60"/>
       <c r="N280" s="2"/>
     </row>
-    <row r="281" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B281" s="18"/>
-      <c r="C281" s="257"/>
-      <c r="D281" s="257"/>
-      <c r="E281" s="257"/>
-      <c r="F281" s="257"/>
-      <c r="G281" s="257"/>
-      <c r="H281" s="257"/>
-      <c r="I281" s="257"/>
-      <c r="J281" s="257"/>
-      <c r="K281" s="257"/>
-      <c r="L281" s="257"/>
+      <c r="C281" s="261"/>
+      <c r="D281" s="261"/>
+      <c r="E281" s="261"/>
+      <c r="F281" s="261"/>
+      <c r="G281" s="261"/>
+      <c r="H281" s="261"/>
+      <c r="I281" s="261"/>
+      <c r="J281" s="261"/>
+      <c r="K281" s="261"/>
+      <c r="L281" s="261"/>
       <c r="M281" s="60"/>
       <c r="N281" s="2"/>
     </row>
-    <row r="282" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B282" s="18"/>
       <c r="C282" s="25"/>
       <c r="D282" s="25"/>
@@ -6765,7 +6764,7 @@
       <c r="M282" s="60"/>
       <c r="N282" s="2"/>
     </row>
-    <row r="283" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B283" s="18"/>
       <c r="C283" s="23" t="s">
         <v>143</v>
@@ -6782,7 +6781,7 @@
       <c r="M283" s="2"/>
       <c r="N283" s="2"/>
     </row>
-    <row r="284" spans="2:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="2:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B284" s="18"/>
       <c r="C284" s="25"/>
       <c r="D284" s="25"/>
@@ -6797,14 +6796,14 @@
       <c r="M284" s="2"/>
       <c r="N284" s="2"/>
     </row>
-    <row r="285" spans="2:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="2:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B285" s="18"/>
-      <c r="C285" s="199" t="s">
+      <c r="C285" s="203" t="s">
         <v>144</v>
       </c>
-      <c r="D285" s="199"/>
-      <c r="E285" s="199"/>
-      <c r="F285" s="234"/>
+      <c r="D285" s="203"/>
+      <c r="E285" s="203"/>
+      <c r="F285" s="236"/>
       <c r="G285" s="106"/>
       <c r="H285" s="25"/>
       <c r="I285" s="25"/>
@@ -6812,12 +6811,12 @@
       <c r="K285" s="25"/>
       <c r="L285" s="25"/>
     </row>
-    <row r="286" spans="2:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="2:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B286" s="18"/>
-      <c r="C286" s="199"/>
-      <c r="D286" s="199"/>
-      <c r="E286" s="199"/>
-      <c r="F286" s="199"/>
+      <c r="C286" s="203"/>
+      <c r="D286" s="203"/>
+      <c r="E286" s="203"/>
+      <c r="F286" s="203"/>
       <c r="G286" s="13"/>
       <c r="H286" s="25"/>
       <c r="I286" s="25"/>
@@ -6825,14 +6824,14 @@
       <c r="K286" s="25"/>
       <c r="L286" s="25"/>
     </row>
-    <row r="287" spans="2:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="2:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B287" s="18"/>
-      <c r="C287" s="199" t="s">
+      <c r="C287" s="203" t="s">
         <v>145</v>
       </c>
-      <c r="D287" s="199"/>
-      <c r="E287" s="199"/>
-      <c r="F287" s="234"/>
+      <c r="D287" s="203"/>
+      <c r="E287" s="203"/>
+      <c r="F287" s="236"/>
       <c r="G287" s="106"/>
       <c r="H287" s="18" t="s">
         <v>146</v>
@@ -6842,12 +6841,12 @@
       <c r="K287" s="25"/>
       <c r="L287" s="25"/>
     </row>
-    <row r="288" spans="2:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="2:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B288" s="18"/>
-      <c r="C288" s="199"/>
-      <c r="D288" s="199"/>
-      <c r="E288" s="199"/>
-      <c r="F288" s="199"/>
+      <c r="C288" s="203"/>
+      <c r="D288" s="203"/>
+      <c r="E288" s="203"/>
+      <c r="F288" s="203"/>
       <c r="G288" s="13"/>
       <c r="H288" s="25"/>
       <c r="I288" s="25"/>
@@ -6855,14 +6854,14 @@
       <c r="K288" s="25"/>
       <c r="L288" s="25"/>
     </row>
-    <row r="289" spans="2:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="2:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B289" s="18"/>
-      <c r="C289" s="199" t="s">
+      <c r="C289" s="203" t="s">
         <v>147</v>
       </c>
-      <c r="D289" s="199"/>
-      <c r="E289" s="199"/>
-      <c r="F289" s="234"/>
+      <c r="D289" s="203"/>
+      <c r="E289" s="203"/>
+      <c r="F289" s="236"/>
       <c r="G289" s="106"/>
       <c r="H289" s="25"/>
       <c r="I289" s="25"/>
@@ -6870,7 +6869,7 @@
       <c r="K289" s="25"/>
       <c r="L289" s="25"/>
     </row>
-    <row r="290" spans="2:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="2:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B290" s="18"/>
       <c r="C290" s="25"/>
       <c r="D290" s="25"/>
@@ -6883,14 +6882,14 @@
       <c r="K290" s="25"/>
       <c r="L290" s="25"/>
     </row>
-    <row r="291" spans="2:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="2:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B291" s="18"/>
-      <c r="C291" s="199" t="s">
+      <c r="C291" s="203" t="s">
         <v>148</v>
       </c>
-      <c r="D291" s="199"/>
-      <c r="E291" s="199"/>
-      <c r="F291" s="234"/>
+      <c r="D291" s="203"/>
+      <c r="E291" s="203"/>
+      <c r="F291" s="236"/>
       <c r="G291" s="106"/>
       <c r="H291" s="25"/>
       <c r="I291" s="25"/>
@@ -6898,7 +6897,7 @@
       <c r="K291" s="25"/>
       <c r="L291" s="25"/>
     </row>
-    <row r="292" spans="2:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="2:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B292" s="18"/>
       <c r="C292" s="25"/>
       <c r="D292" s="25"/>
@@ -6911,14 +6910,14 @@
       <c r="K292" s="25"/>
       <c r="L292" s="25"/>
     </row>
-    <row r="293" spans="2:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="2:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B293" s="18"/>
-      <c r="C293" s="199" t="s">
+      <c r="C293" s="203" t="s">
         <v>149</v>
       </c>
-      <c r="D293" s="199"/>
-      <c r="E293" s="199"/>
-      <c r="F293" s="234"/>
+      <c r="D293" s="203"/>
+      <c r="E293" s="203"/>
+      <c r="F293" s="236"/>
       <c r="G293" s="106"/>
       <c r="H293" s="25"/>
       <c r="I293" s="25"/>
@@ -6926,7 +6925,7 @@
       <c r="K293" s="25"/>
       <c r="L293" s="25"/>
     </row>
-    <row r="294" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B294" s="18"/>
       <c r="C294" s="25"/>
       <c r="D294" s="25"/>
@@ -6939,7 +6938,7 @@
       <c r="K294" s="25"/>
       <c r="L294" s="25"/>
     </row>
-    <row r="295" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B295" s="15" t="s">
         <v>150</v>
       </c>
@@ -6956,7 +6955,7 @@
       <c r="K295" s="25"/>
       <c r="L295" s="25"/>
     </row>
-    <row r="296" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B296" s="18"/>
       <c r="C296" s="25"/>
       <c r="D296" s="25"/>
@@ -6969,7 +6968,7 @@
       <c r="K296" s="25"/>
       <c r="L296" s="25"/>
     </row>
-    <row r="297" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B297" s="18"/>
       <c r="C297" s="21" t="s">
         <v>255</v>
@@ -6984,7 +6983,7 @@
       <c r="K297" s="25"/>
       <c r="L297" s="25"/>
     </row>
-    <row r="298" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B298" s="18"/>
       <c r="C298" s="25"/>
       <c r="D298" s="25"/>
@@ -6997,7 +6996,7 @@
       <c r="K298" s="25"/>
       <c r="L298" s="25"/>
     </row>
-    <row r="299" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B299" s="18"/>
       <c r="C299" s="29" t="s">
         <v>298</v>
@@ -7012,83 +7011,83 @@
       <c r="K299" s="21"/>
       <c r="L299" s="21"/>
     </row>
-    <row r="300" spans="2:14" ht="6.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="2:14" ht="6.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B300" s="18"/>
-      <c r="C300" s="212" t="s">
+      <c r="C300" s="216" t="s">
         <v>305</v>
       </c>
-      <c r="D300" s="213"/>
-      <c r="E300" s="213"/>
-      <c r="F300" s="213"/>
-      <c r="G300" s="213"/>
-      <c r="H300" s="213"/>
-      <c r="I300" s="213"/>
-      <c r="J300" s="213"/>
-      <c r="K300" s="213"/>
-      <c r="L300" s="214"/>
+      <c r="D300" s="217"/>
+      <c r="E300" s="217"/>
+      <c r="F300" s="217"/>
+      <c r="G300" s="217"/>
+      <c r="H300" s="217"/>
+      <c r="I300" s="217"/>
+      <c r="J300" s="217"/>
+      <c r="K300" s="217"/>
+      <c r="L300" s="218"/>
       <c r="M300" s="21"/>
     </row>
-    <row r="301" spans="2:14" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="2:14" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B301" s="18"/>
-      <c r="C301" s="215"/>
-      <c r="D301" s="216"/>
-      <c r="E301" s="216"/>
-      <c r="F301" s="216"/>
-      <c r="G301" s="216"/>
-      <c r="H301" s="216"/>
-      <c r="I301" s="216"/>
-      <c r="J301" s="216"/>
-      <c r="K301" s="216"/>
-      <c r="L301" s="217"/>
+      <c r="C301" s="219"/>
+      <c r="D301" s="220"/>
+      <c r="E301" s="220"/>
+      <c r="F301" s="220"/>
+      <c r="G301" s="220"/>
+      <c r="H301" s="220"/>
+      <c r="I301" s="220"/>
+      <c r="J301" s="220"/>
+      <c r="K301" s="220"/>
+      <c r="L301" s="221"/>
       <c r="M301" s="60"/>
       <c r="N301" s="2"/>
     </row>
-    <row r="302" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B302" s="18"/>
-      <c r="C302" s="215"/>
-      <c r="D302" s="216"/>
-      <c r="E302" s="216"/>
-      <c r="F302" s="216"/>
-      <c r="G302" s="216"/>
-      <c r="H302" s="216"/>
-      <c r="I302" s="216"/>
-      <c r="J302" s="216"/>
-      <c r="K302" s="216"/>
-      <c r="L302" s="217"/>
+      <c r="C302" s="219"/>
+      <c r="D302" s="220"/>
+      <c r="E302" s="220"/>
+      <c r="F302" s="220"/>
+      <c r="G302" s="220"/>
+      <c r="H302" s="220"/>
+      <c r="I302" s="220"/>
+      <c r="J302" s="220"/>
+      <c r="K302" s="220"/>
+      <c r="L302" s="221"/>
       <c r="M302" s="60"/>
       <c r="N302" s="2"/>
     </row>
-    <row r="303" spans="2:14" ht="30.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="2:14" ht="30.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B303" s="18"/>
-      <c r="C303" s="215"/>
-      <c r="D303" s="216"/>
-      <c r="E303" s="216"/>
-      <c r="F303" s="216"/>
-      <c r="G303" s="216"/>
-      <c r="H303" s="216"/>
-      <c r="I303" s="216"/>
-      <c r="J303" s="216"/>
-      <c r="K303" s="216"/>
-      <c r="L303" s="217"/>
+      <c r="C303" s="219"/>
+      <c r="D303" s="220"/>
+      <c r="E303" s="220"/>
+      <c r="F303" s="220"/>
+      <c r="G303" s="220"/>
+      <c r="H303" s="220"/>
+      <c r="I303" s="220"/>
+      <c r="J303" s="220"/>
+      <c r="K303" s="220"/>
+      <c r="L303" s="221"/>
       <c r="M303" s="60"/>
       <c r="N303" s="2"/>
     </row>
-    <row r="304" spans="2:14" ht="119.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="2:14" ht="119.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B304" s="18"/>
-      <c r="C304" s="218"/>
-      <c r="D304" s="219"/>
-      <c r="E304" s="219"/>
-      <c r="F304" s="219"/>
-      <c r="G304" s="219"/>
-      <c r="H304" s="219"/>
-      <c r="I304" s="219"/>
-      <c r="J304" s="219"/>
-      <c r="K304" s="219"/>
-      <c r="L304" s="220"/>
+      <c r="C304" s="222"/>
+      <c r="D304" s="223"/>
+      <c r="E304" s="223"/>
+      <c r="F304" s="223"/>
+      <c r="G304" s="223"/>
+      <c r="H304" s="223"/>
+      <c r="I304" s="223"/>
+      <c r="J304" s="223"/>
+      <c r="K304" s="223"/>
+      <c r="L304" s="224"/>
       <c r="M304" s="60"/>
       <c r="N304" s="2"/>
     </row>
-    <row r="305" spans="2:14" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="2:14" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B305" s="18"/>
       <c r="D305" s="21"/>
       <c r="E305" s="21"/>
@@ -7102,7 +7101,7 @@
       <c r="M305" s="60"/>
       <c r="N305" s="2"/>
     </row>
-    <row r="306" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B306" s="18"/>
       <c r="C306" s="18" t="s">
         <v>152</v>
@@ -7119,84 +7118,84 @@
       <c r="M306" s="34"/>
       <c r="N306" s="2"/>
     </row>
-    <row r="307" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B307" s="18"/>
-      <c r="C307" s="212" t="s">
+      <c r="C307" s="216" t="s">
         <v>293</v>
       </c>
-      <c r="D307" s="213"/>
-      <c r="E307" s="213"/>
-      <c r="F307" s="213"/>
-      <c r="G307" s="213"/>
-      <c r="H307" s="213"/>
-      <c r="I307" s="213"/>
-      <c r="J307" s="213"/>
-      <c r="K307" s="213"/>
-      <c r="L307" s="214"/>
+      <c r="D307" s="217"/>
+      <c r="E307" s="217"/>
+      <c r="F307" s="217"/>
+      <c r="G307" s="217"/>
+      <c r="H307" s="217"/>
+      <c r="I307" s="217"/>
+      <c r="J307" s="217"/>
+      <c r="K307" s="217"/>
+      <c r="L307" s="218"/>
       <c r="M307" s="34"/>
       <c r="N307" s="2"/>
     </row>
-    <row r="308" spans="2:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="2:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B308" s="18"/>
-      <c r="C308" s="215"/>
-      <c r="D308" s="216"/>
-      <c r="E308" s="216"/>
-      <c r="F308" s="216"/>
-      <c r="G308" s="216"/>
-      <c r="H308" s="216"/>
-      <c r="I308" s="216"/>
-      <c r="J308" s="216"/>
-      <c r="K308" s="216"/>
-      <c r="L308" s="217"/>
+      <c r="C308" s="219"/>
+      <c r="D308" s="220"/>
+      <c r="E308" s="220"/>
+      <c r="F308" s="220"/>
+      <c r="G308" s="220"/>
+      <c r="H308" s="220"/>
+      <c r="I308" s="220"/>
+      <c r="J308" s="220"/>
+      <c r="K308" s="220"/>
+      <c r="L308" s="221"/>
       <c r="M308" s="60"/>
       <c r="N308" s="2"/>
     </row>
-    <row r="309" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B309" s="18"/>
-      <c r="C309" s="215"/>
-      <c r="D309" s="216"/>
-      <c r="E309" s="216"/>
-      <c r="F309" s="216"/>
-      <c r="G309" s="216"/>
-      <c r="H309" s="216"/>
-      <c r="I309" s="216"/>
-      <c r="J309" s="216"/>
-      <c r="K309" s="216"/>
-      <c r="L309" s="217"/>
+      <c r="C309" s="219"/>
+      <c r="D309" s="220"/>
+      <c r="E309" s="220"/>
+      <c r="F309" s="220"/>
+      <c r="G309" s="220"/>
+      <c r="H309" s="220"/>
+      <c r="I309" s="220"/>
+      <c r="J309" s="220"/>
+      <c r="K309" s="220"/>
+      <c r="L309" s="221"/>
       <c r="M309" s="60"/>
       <c r="N309" s="2"/>
     </row>
-    <row r="310" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B310" s="18"/>
-      <c r="C310" s="215"/>
-      <c r="D310" s="216"/>
-      <c r="E310" s="216"/>
-      <c r="F310" s="216"/>
-      <c r="G310" s="216"/>
-      <c r="H310" s="216"/>
-      <c r="I310" s="216"/>
-      <c r="J310" s="216"/>
-      <c r="K310" s="216"/>
-      <c r="L310" s="217"/>
+      <c r="C310" s="219"/>
+      <c r="D310" s="220"/>
+      <c r="E310" s="220"/>
+      <c r="F310" s="220"/>
+      <c r="G310" s="220"/>
+      <c r="H310" s="220"/>
+      <c r="I310" s="220"/>
+      <c r="J310" s="220"/>
+      <c r="K310" s="220"/>
+      <c r="L310" s="221"/>
       <c r="M310" s="60"/>
       <c r="N310" s="2"/>
     </row>
-    <row r="311" spans="2:14" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="2:14" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B311" s="18"/>
-      <c r="C311" s="218"/>
-      <c r="D311" s="219"/>
-      <c r="E311" s="219"/>
-      <c r="F311" s="219"/>
-      <c r="G311" s="219"/>
-      <c r="H311" s="219"/>
-      <c r="I311" s="219"/>
-      <c r="J311" s="219"/>
-      <c r="K311" s="219"/>
-      <c r="L311" s="220"/>
+      <c r="C311" s="222"/>
+      <c r="D311" s="223"/>
+      <c r="E311" s="223"/>
+      <c r="F311" s="223"/>
+      <c r="G311" s="223"/>
+      <c r="H311" s="223"/>
+      <c r="I311" s="223"/>
+      <c r="J311" s="223"/>
+      <c r="K311" s="223"/>
+      <c r="L311" s="224"/>
       <c r="M311" s="60"/>
       <c r="N311" s="2"/>
     </row>
-    <row r="312" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B312" s="18"/>
       <c r="C312" s="79" t="s">
         <v>288</v>
@@ -7213,7 +7212,7 @@
       <c r="M312" s="60"/>
       <c r="N312" s="2"/>
     </row>
-    <row r="313" spans="2:14" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="2:14" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B313" s="18"/>
       <c r="C313" s="79" t="s">
         <v>289</v>
@@ -7230,7 +7229,7 @@
       <c r="M313" s="2"/>
       <c r="N313" s="2"/>
     </row>
-    <row r="314" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B314" s="18"/>
       <c r="C314" s="25"/>
       <c r="D314" s="25"/>
@@ -7245,7 +7244,7 @@
       <c r="M314" s="60"/>
       <c r="N314" s="2"/>
     </row>
-    <row r="315" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B315" s="18"/>
       <c r="C315" s="117"/>
       <c r="D315" s="117"/>
@@ -7260,7 +7259,7 @@
       <c r="M315" s="2"/>
       <c r="N315" s="2"/>
     </row>
-    <row r="316" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B316" s="18"/>
       <c r="C316" s="21" t="s">
         <v>254</v>
@@ -7277,7 +7276,7 @@
       <c r="M316" s="2"/>
       <c r="N316" s="2"/>
     </row>
-    <row r="317" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B317" s="18"/>
       <c r="C317" s="117"/>
       <c r="D317" s="117"/>
@@ -7292,7 +7291,7 @@
       <c r="M317" s="2"/>
       <c r="N317" s="2"/>
     </row>
-    <row r="318" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B318" s="18"/>
       <c r="C318" s="29" t="s">
         <v>153</v>
@@ -7311,7 +7310,7 @@
       <c r="M318" s="2"/>
       <c r="N318" s="2"/>
     </row>
-    <row r="319" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B319" s="18"/>
       <c r="C319" s="36" t="s">
         <v>155</v>
@@ -7328,7 +7327,7 @@
       <c r="M319" s="34"/>
       <c r="N319" s="2"/>
     </row>
-    <row r="320" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B320" s="18"/>
       <c r="C320" s="36"/>
       <c r="D320" s="21"/>
@@ -7343,7 +7342,7 @@
       <c r="M320" s="34"/>
       <c r="N320" s="2"/>
     </row>
-    <row r="321" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B321" s="18"/>
       <c r="C321" s="29" t="s">
         <v>299</v>
@@ -7360,84 +7359,84 @@
       <c r="M321" s="34"/>
       <c r="N321" s="2"/>
     </row>
-    <row r="322" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B322" s="18"/>
-      <c r="C322" s="212" t="s">
+      <c r="C322" s="216" t="s">
         <v>294</v>
       </c>
-      <c r="D322" s="213"/>
-      <c r="E322" s="213"/>
-      <c r="F322" s="213"/>
-      <c r="G322" s="213"/>
-      <c r="H322" s="213"/>
-      <c r="I322" s="213"/>
-      <c r="J322" s="213"/>
-      <c r="K322" s="213"/>
-      <c r="L322" s="214"/>
+      <c r="D322" s="217"/>
+      <c r="E322" s="217"/>
+      <c r="F322" s="217"/>
+      <c r="G322" s="217"/>
+      <c r="H322" s="217"/>
+      <c r="I322" s="217"/>
+      <c r="J322" s="217"/>
+      <c r="K322" s="217"/>
+      <c r="L322" s="218"/>
       <c r="M322" s="34"/>
       <c r="N322" s="2"/>
     </row>
-    <row r="323" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B323" s="18"/>
-      <c r="C323" s="215"/>
-      <c r="D323" s="216"/>
-      <c r="E323" s="216"/>
-      <c r="F323" s="216"/>
-      <c r="G323" s="216"/>
-      <c r="H323" s="216"/>
-      <c r="I323" s="216"/>
-      <c r="J323" s="216"/>
-      <c r="K323" s="216"/>
-      <c r="L323" s="217"/>
+      <c r="C323" s="219"/>
+      <c r="D323" s="220"/>
+      <c r="E323" s="220"/>
+      <c r="F323" s="220"/>
+      <c r="G323" s="220"/>
+      <c r="H323" s="220"/>
+      <c r="I323" s="220"/>
+      <c r="J323" s="220"/>
+      <c r="K323" s="220"/>
+      <c r="L323" s="221"/>
       <c r="M323" s="60"/>
       <c r="N323" s="2"/>
     </row>
-    <row r="324" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B324" s="18"/>
-      <c r="C324" s="215"/>
-      <c r="D324" s="216"/>
-      <c r="E324" s="216"/>
-      <c r="F324" s="216"/>
-      <c r="G324" s="216"/>
-      <c r="H324" s="216"/>
-      <c r="I324" s="216"/>
-      <c r="J324" s="216"/>
-      <c r="K324" s="216"/>
-      <c r="L324" s="217"/>
+      <c r="C324" s="219"/>
+      <c r="D324" s="220"/>
+      <c r="E324" s="220"/>
+      <c r="F324" s="220"/>
+      <c r="G324" s="220"/>
+      <c r="H324" s="220"/>
+      <c r="I324" s="220"/>
+      <c r="J324" s="220"/>
+      <c r="K324" s="220"/>
+      <c r="L324" s="221"/>
       <c r="M324" s="60"/>
       <c r="N324" s="2"/>
     </row>
-    <row r="325" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B325" s="18"/>
-      <c r="C325" s="215"/>
-      <c r="D325" s="216"/>
-      <c r="E325" s="216"/>
-      <c r="F325" s="216"/>
-      <c r="G325" s="216"/>
-      <c r="H325" s="216"/>
-      <c r="I325" s="216"/>
-      <c r="J325" s="216"/>
-      <c r="K325" s="216"/>
-      <c r="L325" s="217"/>
+      <c r="C325" s="219"/>
+      <c r="D325" s="220"/>
+      <c r="E325" s="220"/>
+      <c r="F325" s="220"/>
+      <c r="G325" s="220"/>
+      <c r="H325" s="220"/>
+      <c r="I325" s="220"/>
+      <c r="J325" s="220"/>
+      <c r="K325" s="220"/>
+      <c r="L325" s="221"/>
       <c r="M325" s="60"/>
       <c r="N325" s="2"/>
     </row>
-    <row r="326" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B326" s="18"/>
-      <c r="C326" s="218"/>
-      <c r="D326" s="219"/>
-      <c r="E326" s="219"/>
-      <c r="F326" s="219"/>
-      <c r="G326" s="219"/>
-      <c r="H326" s="219"/>
-      <c r="I326" s="219"/>
-      <c r="J326" s="219"/>
-      <c r="K326" s="219"/>
-      <c r="L326" s="220"/>
+      <c r="C326" s="222"/>
+      <c r="D326" s="223"/>
+      <c r="E326" s="223"/>
+      <c r="F326" s="223"/>
+      <c r="G326" s="223"/>
+      <c r="H326" s="223"/>
+      <c r="I326" s="223"/>
+      <c r="J326" s="223"/>
+      <c r="K326" s="223"/>
+      <c r="L326" s="224"/>
       <c r="M326" s="60"/>
       <c r="N326" s="2"/>
     </row>
-    <row r="327" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B327" s="18"/>
       <c r="C327" s="2"/>
       <c r="D327" s="20"/>
@@ -7452,24 +7451,24 @@
       <c r="M327" s="60"/>
       <c r="N327" s="2"/>
     </row>
-    <row r="328" spans="2:14" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="2:14" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B328" s="18"/>
-      <c r="C328" s="237" t="s">
+      <c r="C328" s="239" t="s">
         <v>156</v>
       </c>
-      <c r="D328" s="237"/>
-      <c r="E328" s="237"/>
-      <c r="F328" s="237"/>
-      <c r="G328" s="237"/>
-      <c r="H328" s="237"/>
-      <c r="I328" s="237"/>
-      <c r="J328" s="237"/>
-      <c r="K328" s="237"/>
-      <c r="L328" s="237"/>
+      <c r="D328" s="239"/>
+      <c r="E328" s="239"/>
+      <c r="F328" s="239"/>
+      <c r="G328" s="239"/>
+      <c r="H328" s="239"/>
+      <c r="I328" s="239"/>
+      <c r="J328" s="239"/>
+      <c r="K328" s="239"/>
+      <c r="L328" s="239"/>
       <c r="M328" s="20"/>
       <c r="N328" s="2"/>
     </row>
-    <row r="329" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B329" s="18"/>
       <c r="C329" s="37" t="s">
         <v>157</v>
@@ -7485,7 +7484,7 @@
       <c r="L329" s="21"/>
       <c r="M329" s="20"/>
     </row>
-    <row r="330" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B330" s="18"/>
       <c r="D330" s="21"/>
       <c r="E330" s="21"/>
@@ -7498,7 +7497,7 @@
       <c r="L330" s="21"/>
       <c r="M330" s="21"/>
     </row>
-    <row r="331" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B331" s="18"/>
       <c r="C331" s="29" t="s">
         <v>158</v>
@@ -7513,7 +7512,7 @@
       <c r="L331" s="21"/>
       <c r="M331" s="21"/>
     </row>
-    <row r="332" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B332" s="18"/>
       <c r="C332" s="29"/>
       <c r="F332" s="22"/>
@@ -7525,7 +7524,7 @@
       <c r="L332" s="21"/>
       <c r="M332" s="21"/>
     </row>
-    <row r="333" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B333" s="18"/>
       <c r="C333" s="29" t="s">
         <v>159</v>
@@ -7541,7 +7540,7 @@
       <c r="L333" s="21"/>
       <c r="M333" s="21"/>
     </row>
-    <row r="334" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B334" s="18"/>
       <c r="C334" s="29"/>
       <c r="D334" s="20"/>
@@ -7555,7 +7554,7 @@
       <c r="L334" s="21"/>
       <c r="M334" s="21"/>
     </row>
-    <row r="335" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B335" s="18"/>
       <c r="C335" s="18" t="s">
         <v>161</v>
@@ -7571,79 +7570,79 @@
       <c r="L335" s="34"/>
       <c r="M335" s="21"/>
     </row>
-    <row r="336" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B336" s="18"/>
-      <c r="C336" s="238" t="s">
+      <c r="C336" s="240" t="s">
         <v>252</v>
       </c>
-      <c r="D336" s="239"/>
-      <c r="E336" s="239"/>
-      <c r="F336" s="239"/>
-      <c r="G336" s="239"/>
-      <c r="H336" s="239"/>
-      <c r="I336" s="239"/>
-      <c r="J336" s="239"/>
-      <c r="K336" s="239"/>
-      <c r="L336" s="240"/>
+      <c r="D336" s="241"/>
+      <c r="E336" s="241"/>
+      <c r="F336" s="241"/>
+      <c r="G336" s="241"/>
+      <c r="H336" s="241"/>
+      <c r="I336" s="241"/>
+      <c r="J336" s="241"/>
+      <c r="K336" s="241"/>
+      <c r="L336" s="242"/>
       <c r="M336" s="34"/>
     </row>
-    <row r="337" spans="2:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="2:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B337" s="18"/>
-      <c r="C337" s="241"/>
-      <c r="D337" s="242"/>
-      <c r="E337" s="242"/>
-      <c r="F337" s="242"/>
-      <c r="G337" s="242"/>
-      <c r="H337" s="242"/>
-      <c r="I337" s="242"/>
-      <c r="J337" s="242"/>
-      <c r="K337" s="242"/>
-      <c r="L337" s="243"/>
+      <c r="C337" s="243"/>
+      <c r="D337" s="244"/>
+      <c r="E337" s="244"/>
+      <c r="F337" s="244"/>
+      <c r="G337" s="244"/>
+      <c r="H337" s="244"/>
+      <c r="I337" s="244"/>
+      <c r="J337" s="244"/>
+      <c r="K337" s="244"/>
+      <c r="L337" s="245"/>
       <c r="M337" s="60"/>
     </row>
-    <row r="338" spans="2:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="2:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B338" s="18"/>
-      <c r="C338" s="241"/>
-      <c r="D338" s="242"/>
-      <c r="E338" s="242"/>
-      <c r="F338" s="242"/>
-      <c r="G338" s="242"/>
-      <c r="H338" s="242"/>
-      <c r="I338" s="242"/>
-      <c r="J338" s="242"/>
-      <c r="K338" s="242"/>
-      <c r="L338" s="243"/>
+      <c r="C338" s="243"/>
+      <c r="D338" s="244"/>
+      <c r="E338" s="244"/>
+      <c r="F338" s="244"/>
+      <c r="G338" s="244"/>
+      <c r="H338" s="244"/>
+      <c r="I338" s="244"/>
+      <c r="J338" s="244"/>
+      <c r="K338" s="244"/>
+      <c r="L338" s="245"/>
       <c r="M338" s="60"/>
     </row>
-    <row r="339" spans="2:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="2:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B339" s="18"/>
-      <c r="C339" s="241"/>
-      <c r="D339" s="242"/>
-      <c r="E339" s="242"/>
-      <c r="F339" s="242"/>
-      <c r="G339" s="242"/>
-      <c r="H339" s="242"/>
-      <c r="I339" s="242"/>
-      <c r="J339" s="242"/>
-      <c r="K339" s="242"/>
-      <c r="L339" s="243"/>
+      <c r="C339" s="243"/>
+      <c r="D339" s="244"/>
+      <c r="E339" s="244"/>
+      <c r="F339" s="244"/>
+      <c r="G339" s="244"/>
+      <c r="H339" s="244"/>
+      <c r="I339" s="244"/>
+      <c r="J339" s="244"/>
+      <c r="K339" s="244"/>
+      <c r="L339" s="245"/>
       <c r="M339" s="60"/>
     </row>
-    <row r="340" spans="2:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="2:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B340" s="18"/>
-      <c r="C340" s="244"/>
-      <c r="D340" s="245"/>
-      <c r="E340" s="245"/>
-      <c r="F340" s="245"/>
-      <c r="G340" s="245"/>
-      <c r="H340" s="245"/>
-      <c r="I340" s="245"/>
-      <c r="J340" s="245"/>
-      <c r="K340" s="245"/>
-      <c r="L340" s="246"/>
+      <c r="C340" s="246"/>
+      <c r="D340" s="247"/>
+      <c r="E340" s="247"/>
+      <c r="F340" s="247"/>
+      <c r="G340" s="247"/>
+      <c r="H340" s="247"/>
+      <c r="I340" s="247"/>
+      <c r="J340" s="247"/>
+      <c r="K340" s="247"/>
+      <c r="L340" s="248"/>
       <c r="M340" s="60"/>
     </row>
-    <row r="341" spans="2:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="2:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B341" s="18"/>
       <c r="C341" s="60"/>
       <c r="D341" s="60"/>
@@ -7657,23 +7656,23 @@
       <c r="L341" s="60"/>
       <c r="M341" s="60"/>
     </row>
-    <row r="342" spans="2:13" ht="39" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="2:13" ht="39" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B342" s="18"/>
-      <c r="C342" s="237" t="s">
+      <c r="C342" s="239" t="s">
         <v>251</v>
       </c>
-      <c r="D342" s="237"/>
-      <c r="E342" s="237"/>
-      <c r="F342" s="237"/>
-      <c r="G342" s="237"/>
-      <c r="H342" s="237"/>
-      <c r="I342" s="237"/>
-      <c r="J342" s="237"/>
-      <c r="K342" s="237"/>
-      <c r="L342" s="237"/>
+      <c r="D342" s="239"/>
+      <c r="E342" s="239"/>
+      <c r="F342" s="239"/>
+      <c r="G342" s="239"/>
+      <c r="H342" s="239"/>
+      <c r="I342" s="239"/>
+      <c r="J342" s="239"/>
+      <c r="K342" s="239"/>
+      <c r="L342" s="239"/>
       <c r="M342" s="60"/>
     </row>
-    <row r="343" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B343" s="18"/>
       <c r="C343" s="117"/>
       <c r="D343" s="117"/>
@@ -7686,7 +7685,7 @@
       <c r="K343" s="25"/>
       <c r="L343" s="25"/>
     </row>
-    <row r="344" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B344" s="18"/>
       <c r="C344" s="21" t="s">
         <v>256</v>
@@ -7701,7 +7700,7 @@
       <c r="K344" s="25"/>
       <c r="L344" s="25"/>
     </row>
-    <row r="345" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B345" s="18"/>
       <c r="C345" s="117"/>
       <c r="D345" s="117"/>
@@ -7714,21 +7713,21 @@
       <c r="K345" s="25"/>
       <c r="L345" s="25"/>
     </row>
-    <row r="346" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B346" s="18"/>
-      <c r="C346" s="236" t="s">
+      <c r="C346" s="238" t="s">
         <v>162</v>
       </c>
-      <c r="D346" s="236"/>
-      <c r="E346" s="236"/>
-      <c r="F346" s="236"/>
+      <c r="D346" s="238"/>
+      <c r="E346" s="238"/>
+      <c r="F346" s="238"/>
       <c r="H346" s="106"/>
       <c r="I346" s="25"/>
       <c r="J346" s="25"/>
       <c r="K346" s="25"/>
       <c r="L346" s="25"/>
     </row>
-    <row r="347" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B347" s="18"/>
       <c r="C347" s="13"/>
       <c r="D347" s="13"/>
@@ -7740,14 +7739,14 @@
       <c r="K347" s="25"/>
       <c r="L347" s="25"/>
     </row>
-    <row r="348" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B348" s="18"/>
-      <c r="C348" s="236" t="s">
+      <c r="C348" s="238" t="s">
         <v>163</v>
       </c>
-      <c r="D348" s="236"/>
-      <c r="E348" s="236"/>
-      <c r="F348" s="236"/>
+      <c r="D348" s="238"/>
+      <c r="E348" s="238"/>
+      <c r="F348" s="238"/>
       <c r="H348" s="106"/>
       <c r="I348" s="18" t="s">
         <v>164</v>
@@ -7756,7 +7755,7 @@
       <c r="K348" s="25"/>
       <c r="L348" s="25"/>
     </row>
-    <row r="349" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B349" s="18"/>
       <c r="C349" s="13"/>
       <c r="D349" s="13"/>
@@ -7768,22 +7767,22 @@
       <c r="K349" s="25"/>
       <c r="L349" s="25"/>
     </row>
-    <row r="350" spans="2:13" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="2:13" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B350" s="18"/>
-      <c r="C350" s="236" t="s">
+      <c r="C350" s="238" t="s">
         <v>165</v>
       </c>
-      <c r="D350" s="236"/>
-      <c r="E350" s="236"/>
-      <c r="F350" s="236"/>
-      <c r="G350" s="234"/>
+      <c r="D350" s="238"/>
+      <c r="E350" s="238"/>
+      <c r="F350" s="238"/>
+      <c r="G350" s="236"/>
       <c r="H350" s="106"/>
       <c r="I350" s="25"/>
       <c r="J350" s="25"/>
       <c r="K350" s="25"/>
       <c r="L350" s="25"/>
     </row>
-    <row r="351" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B351" s="18"/>
       <c r="C351" s="13"/>
       <c r="D351" s="13"/>
@@ -7795,22 +7794,22 @@
       <c r="K351" s="25"/>
       <c r="L351" s="25"/>
     </row>
-    <row r="352" spans="2:13" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="2:13" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B352" s="18"/>
-      <c r="C352" s="236" t="s">
+      <c r="C352" s="238" t="s">
         <v>166</v>
       </c>
-      <c r="D352" s="236"/>
-      <c r="E352" s="236"/>
-      <c r="F352" s="236"/>
-      <c r="G352" s="234"/>
+      <c r="D352" s="238"/>
+      <c r="E352" s="238"/>
+      <c r="F352" s="238"/>
+      <c r="G352" s="236"/>
       <c r="H352" s="106"/>
       <c r="I352" s="25"/>
       <c r="J352" s="25"/>
       <c r="K352" s="25"/>
       <c r="L352" s="25"/>
     </row>
-    <row r="353" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B353" s="18"/>
       <c r="C353" s="13"/>
       <c r="D353" s="13"/>
@@ -7822,22 +7821,22 @@
       <c r="K353" s="25"/>
       <c r="L353" s="25"/>
     </row>
-    <row r="354" spans="2:14" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="2:14" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B354" s="18"/>
-      <c r="C354" s="236" t="s">
+      <c r="C354" s="238" t="s">
         <v>167</v>
       </c>
-      <c r="D354" s="236"/>
-      <c r="E354" s="236"/>
-      <c r="F354" s="236"/>
-      <c r="G354" s="234"/>
+      <c r="D354" s="238"/>
+      <c r="E354" s="238"/>
+      <c r="F354" s="238"/>
+      <c r="G354" s="236"/>
       <c r="H354" s="106"/>
       <c r="I354" s="25"/>
       <c r="J354" s="25"/>
       <c r="K354" s="25"/>
       <c r="L354" s="25"/>
     </row>
-    <row r="355" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B355" s="18"/>
       <c r="C355" s="117"/>
       <c r="D355" s="117"/>
@@ -7850,7 +7849,7 @@
       <c r="K355" s="25"/>
       <c r="L355" s="25"/>
     </row>
-    <row r="356" spans="2:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="2:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B356" s="21" t="s">
         <v>168</v>
       </c>
@@ -7867,7 +7866,7 @@
       <c r="K356" s="25"/>
       <c r="L356" s="25"/>
     </row>
-    <row r="357" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B357" s="18"/>
       <c r="C357" s="25"/>
       <c r="D357" s="25"/>
@@ -7880,7 +7879,7 @@
       <c r="K357" s="25"/>
       <c r="L357" s="25"/>
     </row>
-    <row r="358" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B358" s="18"/>
       <c r="C358" s="29" t="s">
         <v>300</v>
@@ -7895,84 +7894,84 @@
       <c r="K358" s="21"/>
       <c r="L358" s="21"/>
     </row>
-    <row r="359" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B359" s="18"/>
-      <c r="C359" s="212" t="s">
+      <c r="C359" s="216" t="s">
         <v>295</v>
       </c>
-      <c r="D359" s="213"/>
-      <c r="E359" s="213"/>
-      <c r="F359" s="213"/>
-      <c r="G359" s="213"/>
-      <c r="H359" s="213"/>
-      <c r="I359" s="213"/>
-      <c r="J359" s="213"/>
-      <c r="K359" s="213"/>
-      <c r="L359" s="214"/>
+      <c r="D359" s="217"/>
+      <c r="E359" s="217"/>
+      <c r="F359" s="217"/>
+      <c r="G359" s="217"/>
+      <c r="H359" s="217"/>
+      <c r="I359" s="217"/>
+      <c r="J359" s="217"/>
+      <c r="K359" s="217"/>
+      <c r="L359" s="218"/>
       <c r="M359" s="34"/>
       <c r="N359" s="2"/>
     </row>
-    <row r="360" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B360" s="18"/>
-      <c r="C360" s="215"/>
-      <c r="D360" s="216"/>
-      <c r="E360" s="216"/>
-      <c r="F360" s="216"/>
-      <c r="G360" s="216"/>
-      <c r="H360" s="216"/>
-      <c r="I360" s="216"/>
-      <c r="J360" s="216"/>
-      <c r="K360" s="216"/>
-      <c r="L360" s="217"/>
+      <c r="C360" s="219"/>
+      <c r="D360" s="220"/>
+      <c r="E360" s="220"/>
+      <c r="F360" s="220"/>
+      <c r="G360" s="220"/>
+      <c r="H360" s="220"/>
+      <c r="I360" s="220"/>
+      <c r="J360" s="220"/>
+      <c r="K360" s="220"/>
+      <c r="L360" s="221"/>
       <c r="M360" s="60"/>
       <c r="N360" s="2"/>
     </row>
-    <row r="361" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B361" s="18"/>
-      <c r="C361" s="215"/>
-      <c r="D361" s="216"/>
-      <c r="E361" s="216"/>
-      <c r="F361" s="216"/>
-      <c r="G361" s="216"/>
-      <c r="H361" s="216"/>
-      <c r="I361" s="216"/>
-      <c r="J361" s="216"/>
-      <c r="K361" s="216"/>
-      <c r="L361" s="217"/>
+      <c r="C361" s="219"/>
+      <c r="D361" s="220"/>
+      <c r="E361" s="220"/>
+      <c r="F361" s="220"/>
+      <c r="G361" s="220"/>
+      <c r="H361" s="220"/>
+      <c r="I361" s="220"/>
+      <c r="J361" s="220"/>
+      <c r="K361" s="220"/>
+      <c r="L361" s="221"/>
       <c r="M361" s="60"/>
       <c r="N361" s="2"/>
     </row>
-    <row r="362" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B362" s="18"/>
-      <c r="C362" s="215"/>
-      <c r="D362" s="216"/>
-      <c r="E362" s="216"/>
-      <c r="F362" s="216"/>
-      <c r="G362" s="216"/>
-      <c r="H362" s="216"/>
-      <c r="I362" s="216"/>
-      <c r="J362" s="216"/>
-      <c r="K362" s="216"/>
-      <c r="L362" s="217"/>
+      <c r="C362" s="219"/>
+      <c r="D362" s="220"/>
+      <c r="E362" s="220"/>
+      <c r="F362" s="220"/>
+      <c r="G362" s="220"/>
+      <c r="H362" s="220"/>
+      <c r="I362" s="220"/>
+      <c r="J362" s="220"/>
+      <c r="K362" s="220"/>
+      <c r="L362" s="221"/>
       <c r="M362" s="60"/>
       <c r="N362" s="2"/>
     </row>
-    <row r="363" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B363" s="18"/>
-      <c r="C363" s="218"/>
-      <c r="D363" s="219"/>
-      <c r="E363" s="219"/>
-      <c r="F363" s="219"/>
-      <c r="G363" s="219"/>
-      <c r="H363" s="219"/>
-      <c r="I363" s="219"/>
-      <c r="J363" s="219"/>
-      <c r="K363" s="219"/>
-      <c r="L363" s="220"/>
+      <c r="C363" s="222"/>
+      <c r="D363" s="223"/>
+      <c r="E363" s="223"/>
+      <c r="F363" s="223"/>
+      <c r="G363" s="223"/>
+      <c r="H363" s="223"/>
+      <c r="I363" s="223"/>
+      <c r="J363" s="223"/>
+      <c r="K363" s="223"/>
+      <c r="L363" s="224"/>
       <c r="M363" s="60"/>
       <c r="N363" s="2"/>
     </row>
-    <row r="364" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B364" s="18"/>
       <c r="C364" s="20"/>
       <c r="D364" s="20"/>
@@ -7987,7 +7986,7 @@
       <c r="M364" s="60"/>
       <c r="N364" s="2"/>
     </row>
-    <row r="365" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B365" s="18"/>
       <c r="C365" s="29" t="s">
         <v>158</v>
@@ -8006,7 +8005,7 @@
       <c r="M365" s="20"/>
       <c r="N365" s="2"/>
     </row>
-    <row r="366" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B366" s="18"/>
       <c r="D366" s="18"/>
       <c r="E366" s="18"/>
@@ -8020,7 +8019,7 @@
       <c r="M366" s="20"/>
       <c r="N366" s="2"/>
     </row>
-    <row r="367" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B367" s="18"/>
       <c r="C367" s="18" t="s">
         <v>170</v>
@@ -8037,29 +8036,29 @@
       <c r="M367" s="20"/>
       <c r="N367" s="2"/>
     </row>
-    <row r="368" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B368" s="18"/>
-      <c r="C368" s="144" t="s">
+      <c r="C368" s="249" t="s">
         <v>253</v>
       </c>
-      <c r="D368" s="145"/>
-      <c r="E368" s="146" t="s">
+      <c r="D368" s="250"/>
+      <c r="E368" s="155" t="s">
         <v>141</v>
       </c>
-      <c r="F368" s="247"/>
-      <c r="G368" s="247"/>
-      <c r="H368" s="247"/>
-      <c r="I368" s="247"/>
-      <c r="J368" s="247"/>
-      <c r="K368" s="247"/>
-      <c r="L368" s="147"/>
+      <c r="F368" s="251"/>
+      <c r="G368" s="251"/>
+      <c r="H368" s="251"/>
+      <c r="I368" s="251"/>
+      <c r="J368" s="251"/>
+      <c r="K368" s="251"/>
+      <c r="L368" s="156"/>
       <c r="M368" s="20"/>
       <c r="N368" s="2"/>
     </row>
-    <row r="369" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B369" s="18"/>
-      <c r="C369" s="146"/>
-      <c r="D369" s="147"/>
+      <c r="C369" s="155"/>
+      <c r="D369" s="156"/>
       <c r="E369" s="71"/>
       <c r="F369" s="73"/>
       <c r="G369" s="73"/>
@@ -8071,24 +8070,24 @@
       <c r="M369" s="13"/>
       <c r="N369" s="2"/>
     </row>
-    <row r="370" spans="2:14" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="2:14" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B370" s="18"/>
-      <c r="C370" s="235" t="s">
+      <c r="C370" s="237" t="s">
         <v>270</v>
       </c>
-      <c r="D370" s="235"/>
-      <c r="E370" s="235"/>
-      <c r="F370" s="235"/>
-      <c r="G370" s="235"/>
-      <c r="H370" s="235"/>
-      <c r="I370" s="235"/>
-      <c r="J370" s="235"/>
-      <c r="K370" s="235"/>
-      <c r="L370" s="235"/>
+      <c r="D370" s="237"/>
+      <c r="E370" s="237"/>
+      <c r="F370" s="237"/>
+      <c r="G370" s="237"/>
+      <c r="H370" s="237"/>
+      <c r="I370" s="237"/>
+      <c r="J370" s="237"/>
+      <c r="K370" s="237"/>
+      <c r="L370" s="237"/>
       <c r="M370" s="13"/>
       <c r="N370" s="2"/>
     </row>
-    <row r="371" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B371" s="18"/>
       <c r="C371" s="23"/>
       <c r="D371" s="34"/>
@@ -8102,7 +8101,7 @@
       <c r="L371" s="34"/>
       <c r="M371" s="20"/>
     </row>
-    <row r="372" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B372" s="18"/>
       <c r="C372" s="34"/>
       <c r="D372" s="34"/>
@@ -8116,7 +8115,7 @@
       <c r="L372" s="34"/>
       <c r="M372" s="34"/>
     </row>
-    <row r="373" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B373" s="18"/>
       <c r="C373" s="18" t="s">
         <v>171</v>
@@ -8132,7 +8131,7 @@
       <c r="L373" s="34"/>
       <c r="M373" s="34"/>
     </row>
-    <row r="374" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B374" s="18"/>
       <c r="C374" s="79" t="s">
         <v>172</v>
@@ -8148,7 +8147,7 @@
       <c r="L374" s="18"/>
       <c r="M374" s="34"/>
     </row>
-    <row r="375" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B375" s="18"/>
       <c r="C375" s="31"/>
       <c r="D375" s="20"/>
@@ -8162,7 +8161,7 @@
       <c r="L375" s="18"/>
       <c r="M375" s="18"/>
     </row>
-    <row r="376" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B376" s="18"/>
       <c r="C376" s="75" t="s">
         <v>173</v>
@@ -8184,7 +8183,7 @@
       <c r="L376" s="22"/>
       <c r="M376" s="18"/>
     </row>
-    <row r="377" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B377" s="18"/>
       <c r="C377" s="75">
         <v>1</v>
@@ -8200,7 +8199,7 @@
       <c r="L377" s="34"/>
       <c r="M377" s="76"/>
     </row>
-    <row r="378" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B378" s="18"/>
       <c r="C378" s="75">
         <v>2</v>
@@ -8216,7 +8215,7 @@
       <c r="L378" s="34"/>
       <c r="M378" s="34"/>
     </row>
-    <row r="379" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B379" s="18"/>
       <c r="C379" s="75">
         <v>3</v>
@@ -8232,7 +8231,7 @@
       <c r="L379" s="34"/>
       <c r="M379" s="34"/>
     </row>
-    <row r="380" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B380" s="18"/>
       <c r="C380" s="75" t="s">
         <v>177</v>
@@ -8248,7 +8247,7 @@
       <c r="L380" s="34"/>
       <c r="M380" s="34"/>
     </row>
-    <row r="381" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B381" s="18"/>
       <c r="C381" s="75" t="s">
         <v>178</v>
@@ -8264,7 +8263,7 @@
       <c r="L381" s="34"/>
       <c r="M381" s="34"/>
     </row>
-    <row r="382" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B382" s="18"/>
       <c r="C382" s="75" t="s">
         <v>179</v>
@@ -8280,7 +8279,7 @@
       <c r="L382" s="34"/>
       <c r="M382" s="34"/>
     </row>
-    <row r="383" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B383" s="18"/>
       <c r="C383" s="75" t="s">
         <v>180</v>
@@ -8296,7 +8295,7 @@
       <c r="L383" s="34"/>
       <c r="M383" s="34"/>
     </row>
-    <row r="384" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B384" s="18"/>
       <c r="C384" s="20"/>
       <c r="D384" s="34"/>
@@ -8310,7 +8309,7 @@
       <c r="L384" s="34"/>
       <c r="M384" s="34"/>
     </row>
-    <row r="385" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B385" s="18"/>
       <c r="C385" s="38" t="s">
         <v>257</v>
@@ -8326,7 +8325,7 @@
       <c r="L385" s="34"/>
       <c r="M385" s="34"/>
     </row>
-    <row r="386" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B386" s="18"/>
       <c r="C386" s="25"/>
       <c r="D386" s="25"/>
@@ -8340,7 +8339,7 @@
       <c r="L386" s="25"/>
       <c r="M386" s="34"/>
     </row>
-    <row r="387" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B387" s="18"/>
       <c r="C387" s="25"/>
       <c r="D387" s="25"/>
@@ -8353,7 +8352,7 @@
       <c r="K387" s="25"/>
       <c r="L387" s="25"/>
     </row>
-    <row r="388" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B388" s="14" t="s">
         <v>274</v>
       </c>
@@ -8368,7 +8367,7 @@
       <c r="K388" s="99"/>
       <c r="L388" s="99"/>
     </row>
-    <row r="389" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B389" s="18"/>
       <c r="C389" s="25"/>
       <c r="D389" s="25"/>
@@ -8381,13 +8380,13 @@
       <c r="K389" s="25"/>
       <c r="L389" s="25"/>
     </row>
-    <row r="390" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B390" s="18"/>
       <c r="J390" s="25"/>
       <c r="K390" s="25"/>
       <c r="L390" s="25"/>
     </row>
-    <row r="391" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B391" s="21" t="s">
         <v>181</v>
       </c>
@@ -8398,14 +8397,14 @@
       <c r="K391" s="25"/>
       <c r="L391" s="25"/>
     </row>
-    <row r="392" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B392" s="21"/>
       <c r="C392" s="28"/>
       <c r="J392" s="25"/>
       <c r="K392" s="25"/>
       <c r="L392" s="25"/>
     </row>
-    <row r="393" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B393" s="18"/>
       <c r="D393" s="154" t="s">
         <v>265</v>
@@ -8415,27 +8414,27 @@
       <c r="K393" s="25"/>
       <c r="L393" s="25"/>
     </row>
-    <row r="394" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B394" s="18"/>
-      <c r="C394" s="165" t="s">
+      <c r="C394" s="169" t="s">
         <v>182</v>
       </c>
-      <c r="D394" s="165" t="s">
+      <c r="D394" s="169" t="s">
         <v>264</v>
       </c>
-      <c r="E394" s="165" t="s">
+      <c r="E394" s="169" t="s">
         <v>59</v>
       </c>
-      <c r="F394" s="165" t="s">
+      <c r="F394" s="169" t="s">
         <v>60</v>
       </c>
-      <c r="G394" s="166" t="s">
+      <c r="G394" s="170" t="s">
         <v>183</v>
       </c>
-      <c r="H394" s="166" t="s">
+      <c r="H394" s="170" t="s">
         <v>176</v>
       </c>
-      <c r="I394" s="166" t="s">
+      <c r="I394" s="170" t="s">
         <v>184</v>
       </c>
       <c r="J394" s="153" t="s">
@@ -8444,15 +8443,15 @@
       <c r="K394" s="153"/>
       <c r="L394" s="25"/>
     </row>
-    <row r="395" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B395" s="18"/>
-      <c r="C395" s="165"/>
-      <c r="D395" s="165"/>
-      <c r="E395" s="165"/>
-      <c r="F395" s="165"/>
-      <c r="G395" s="167"/>
-      <c r="H395" s="167"/>
-      <c r="I395" s="167"/>
+      <c r="C395" s="169"/>
+      <c r="D395" s="169"/>
+      <c r="E395" s="169"/>
+      <c r="F395" s="169"/>
+      <c r="G395" s="171"/>
+      <c r="H395" s="171"/>
+      <c r="I395" s="171"/>
       <c r="J395" s="75" t="s">
         <v>186</v>
       </c>
@@ -8461,7 +8460,7 @@
       </c>
       <c r="L395" s="25"/>
     </row>
-    <row r="396" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B396" s="18"/>
       <c r="C396" s="39"/>
       <c r="D396" s="103"/>
@@ -8476,7 +8475,7 @@
       <c r="K396" s="119"/>
       <c r="L396" s="25"/>
     </row>
-    <row r="397" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B397" s="18"/>
       <c r="C397" s="39"/>
       <c r="D397" s="103"/>
@@ -8491,7 +8490,7 @@
       <c r="K397" s="82"/>
       <c r="L397" s="25"/>
     </row>
-    <row r="398" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B398" s="18"/>
       <c r="C398" s="39"/>
       <c r="D398" s="103"/>
@@ -8506,7 +8505,7 @@
       <c r="K398" s="82"/>
       <c r="L398" s="25"/>
     </row>
-    <row r="399" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B399" s="18"/>
       <c r="C399" s="39"/>
       <c r="D399" s="103"/>
@@ -8521,7 +8520,7 @@
       <c r="K399" s="82"/>
       <c r="L399" s="25"/>
     </row>
-    <row r="400" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B400" s="18"/>
       <c r="C400" s="82"/>
       <c r="D400" s="103"/>
@@ -8536,7 +8535,7 @@
       <c r="K400" s="82"/>
       <c r="L400" s="25"/>
     </row>
-    <row r="401" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B401" s="18"/>
       <c r="C401" s="39"/>
       <c r="D401" s="103"/>
@@ -8551,7 +8550,7 @@
       <c r="K401" s="82"/>
       <c r="L401" s="25"/>
     </row>
-    <row r="402" spans="2:12" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="2:12" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B402" s="18"/>
       <c r="C402" s="40"/>
       <c r="D402" s="80"/>
@@ -8565,7 +8564,7 @@
       <c r="K402" s="25"/>
       <c r="L402" s="25"/>
     </row>
-    <row r="403" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B403" s="18"/>
       <c r="C403" s="40"/>
       <c r="D403" s="80"/>
@@ -8579,7 +8578,7 @@
       <c r="K403" s="25"/>
       <c r="L403" s="25"/>
     </row>
-    <row r="404" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B404" s="18"/>
       <c r="C404" s="40"/>
       <c r="D404" s="80"/>
@@ -8593,7 +8592,7 @@
       <c r="K404" s="25"/>
       <c r="L404" s="25"/>
     </row>
-    <row r="405" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B405" s="18"/>
       <c r="C405" s="40"/>
       <c r="D405" s="80"/>
@@ -8610,7 +8609,7 @@
       <c r="K405" s="25"/>
       <c r="L405" s="25"/>
     </row>
-    <row r="406" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B406" s="18"/>
       <c r="C406" s="25"/>
       <c r="D406" s="25"/>
@@ -8623,7 +8622,7 @@
       <c r="K406" s="25"/>
       <c r="L406" s="25"/>
     </row>
-    <row r="407" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B407" s="15" t="s">
         <v>197</v>
       </c>
@@ -8640,7 +8639,7 @@
       <c r="K407" s="25"/>
       <c r="L407" s="25"/>
     </row>
-    <row r="408" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B408" s="18"/>
       <c r="C408" s="25"/>
       <c r="D408" s="25"/>
@@ -8653,7 +8652,7 @@
       <c r="K408" s="25"/>
       <c r="L408" s="25"/>
     </row>
-    <row r="409" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B409" s="18"/>
       <c r="C409" s="80" t="s">
         <v>199</v>
@@ -8669,7 +8668,7 @@
       <c r="K409" s="25"/>
       <c r="L409" s="25"/>
     </row>
-    <row r="410" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B410" s="18"/>
       <c r="C410" s="25"/>
       <c r="D410" s="25"/>
@@ -8682,7 +8681,7 @@
       <c r="K410" s="25"/>
       <c r="L410" s="25"/>
     </row>
-    <row r="411" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B411" s="18"/>
       <c r="C411" s="33" t="s">
         <v>275</v>
@@ -8698,7 +8697,7 @@
       <c r="K411" s="25"/>
       <c r="L411" s="25"/>
     </row>
-    <row r="412" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B412" s="18"/>
       <c r="F412" s="79"/>
       <c r="G412" s="13"/>
@@ -8708,7 +8707,7 @@
       <c r="K412" s="25"/>
       <c r="L412" s="25"/>
     </row>
-    <row r="413" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B413" s="18"/>
       <c r="C413" s="33" t="s">
         <v>276</v>
@@ -8722,7 +8721,7 @@
       <c r="K413" s="25"/>
       <c r="L413" s="25"/>
     </row>
-    <row r="414" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B414" s="18"/>
       <c r="C414" s="25"/>
       <c r="D414" s="25"/>
@@ -8735,26 +8734,26 @@
       <c r="K414" s="25"/>
       <c r="L414" s="25"/>
     </row>
-    <row r="415" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B415" s="18"/>
-      <c r="C415" s="157" t="s">
+      <c r="C415" s="165" t="s">
         <v>265</v>
       </c>
-      <c r="D415" s="158"/>
-      <c r="E415" s="157" t="s">
+      <c r="D415" s="167"/>
+      <c r="E415" s="165" t="s">
         <v>204</v>
       </c>
-      <c r="F415" s="163"/>
-      <c r="G415" s="163"/>
-      <c r="H415" s="163"/>
-      <c r="I415" s="163"/>
-      <c r="J415" s="163"/>
-      <c r="K415" s="158"/>
-      <c r="L415" s="166" t="s">
+      <c r="F415" s="166"/>
+      <c r="G415" s="166"/>
+      <c r="H415" s="166"/>
+      <c r="I415" s="166"/>
+      <c r="J415" s="166"/>
+      <c r="K415" s="167"/>
+      <c r="L415" s="170" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="416" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B416" s="20"/>
       <c r="C416" s="75" t="s">
         <v>264</v>
@@ -8783,9 +8782,9 @@
       <c r="K416" s="75" t="s">
         <v>180</v>
       </c>
-      <c r="L416" s="167"/>
-    </row>
-    <row r="417" spans="2:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L416" s="171"/>
+    </row>
+    <row r="417" spans="2:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B417" s="20"/>
       <c r="C417" s="30" t="s">
         <v>266</v>
@@ -8802,7 +8801,7 @@
       <c r="K417" s="122"/>
       <c r="L417" s="42"/>
     </row>
-    <row r="418" spans="2:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="2:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B418" s="20"/>
       <c r="C418" s="30" t="s">
         <v>178</v>
@@ -8819,7 +8818,7 @@
       <c r="K418" s="122"/>
       <c r="L418" s="42"/>
     </row>
-    <row r="419" spans="2:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="2:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B419" s="20"/>
       <c r="C419" s="30" t="s">
         <v>267</v>
@@ -8836,7 +8835,7 @@
       <c r="K419" s="122"/>
       <c r="L419" s="42"/>
     </row>
-    <row r="420" spans="2:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="2:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B420" s="20"/>
       <c r="C420" s="80"/>
       <c r="D420" s="80"/>
@@ -8851,7 +8850,7 @@
       </c>
       <c r="L420" s="82"/>
     </row>
-    <row r="421" spans="2:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="2:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B421" s="20"/>
       <c r="C421" s="80"/>
       <c r="D421" s="80"/>
@@ -8864,7 +8863,7 @@
       <c r="K421" s="80"/>
       <c r="L421" s="80"/>
     </row>
-    <row r="422" spans="2:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="2:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B422" s="20"/>
       <c r="C422" s="16" t="s">
         <v>207</v>
@@ -8879,7 +8878,7 @@
       <c r="K422" s="103"/>
       <c r="L422" s="39"/>
     </row>
-    <row r="423" spans="2:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="2:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B423" s="20"/>
       <c r="C423" s="44" t="s">
         <v>208</v>
@@ -8894,7 +8893,7 @@
       <c r="K423" s="103"/>
       <c r="L423" s="39"/>
     </row>
-    <row r="424" spans="2:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="2:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B424" s="20"/>
       <c r="C424" s="44" t="s">
         <v>209</v>
@@ -8909,7 +8908,7 @@
       <c r="K424" s="103"/>
       <c r="L424" s="39"/>
     </row>
-    <row r="425" spans="2:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="2:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B425" s="20"/>
       <c r="C425" s="80"/>
       <c r="D425" s="80"/>
@@ -8924,7 +8923,7 @@
       </c>
       <c r="L425" s="82"/>
     </row>
-    <row r="426" spans="2:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="2:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B426" s="20"/>
       <c r="C426" s="80"/>
       <c r="D426" s="80"/>
@@ -8937,7 +8936,7 @@
       <c r="K426" s="80"/>
       <c r="L426" s="80"/>
     </row>
-    <row r="427" spans="2:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="2:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B427" s="20"/>
       <c r="C427" s="80" t="s">
         <v>296</v>
@@ -8954,7 +8953,7 @@
       </c>
       <c r="L427" s="46"/>
     </row>
-    <row r="428" spans="2:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="2:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B428" s="20"/>
       <c r="C428" s="80" t="s">
         <v>211</v>
@@ -8969,7 +8968,7 @@
       <c r="K428" s="80"/>
       <c r="L428" s="80"/>
     </row>
-    <row r="429" spans="2:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="2:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B429" s="20"/>
       <c r="C429" s="80"/>
       <c r="D429" s="80"/>
@@ -8982,7 +8981,7 @@
       <c r="K429" s="80"/>
       <c r="L429" s="80"/>
     </row>
-    <row r="430" spans="2:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="2:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B430" s="15" t="s">
         <v>212</v>
       </c>
@@ -8999,7 +8998,7 @@
       <c r="K430" s="80"/>
       <c r="L430" s="80"/>
     </row>
-    <row r="431" spans="2:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="2:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B431" s="20"/>
       <c r="C431" s="80"/>
       <c r="D431" s="33"/>
@@ -9012,28 +9011,28 @@
       <c r="K431" s="80"/>
       <c r="L431" s="80"/>
     </row>
-    <row r="432" spans="2:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="2:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B432" s="20"/>
-      <c r="C432" s="157" t="s">
+      <c r="C432" s="165" t="s">
         <v>265</v>
       </c>
-      <c r="D432" s="158"/>
-      <c r="E432" s="172" t="s">
+      <c r="D432" s="167"/>
+      <c r="E432" s="176" t="s">
         <v>214</v>
       </c>
-      <c r="F432" s="157" t="s">
+      <c r="F432" s="165" t="s">
         <v>204</v>
       </c>
-      <c r="G432" s="163"/>
-      <c r="H432" s="163"/>
-      <c r="I432" s="163"/>
-      <c r="J432" s="163"/>
-      <c r="K432" s="158"/>
-      <c r="L432" s="166" t="s">
+      <c r="G432" s="166"/>
+      <c r="H432" s="166"/>
+      <c r="I432" s="166"/>
+      <c r="J432" s="166"/>
+      <c r="K432" s="167"/>
+      <c r="L432" s="170" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="433" spans="2:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="2:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B433" s="20"/>
       <c r="C433" s="75" t="s">
         <v>264</v>
@@ -9060,9 +9059,9 @@
       <c r="K433" s="75" t="s">
         <v>180</v>
       </c>
-      <c r="L433" s="167"/>
-    </row>
-    <row r="434" spans="2:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L433" s="171"/>
+    </row>
+    <row r="434" spans="2:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B434" s="20"/>
       <c r="C434" s="30" t="s">
         <v>266</v>
@@ -9079,7 +9078,7 @@
       <c r="K434" s="123"/>
       <c r="L434" s="42"/>
     </row>
-    <row r="435" spans="2:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="2:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B435" s="20"/>
       <c r="C435" s="30" t="s">
         <v>178</v>
@@ -9096,7 +9095,7 @@
       <c r="K435" s="123"/>
       <c r="L435" s="42"/>
     </row>
-    <row r="436" spans="2:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="2:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B436" s="20"/>
       <c r="C436" s="30" t="s">
         <v>267</v>
@@ -9113,7 +9112,7 @@
       <c r="K436" s="123"/>
       <c r="L436" s="42"/>
     </row>
-    <row r="437" spans="2:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="2:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B437" s="20"/>
       <c r="C437" s="80"/>
       <c r="D437" s="33"/>
@@ -9126,7 +9125,7 @@
       <c r="K437" s="80"/>
       <c r="L437" s="80"/>
     </row>
-    <row r="438" spans="2:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="2:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B438" s="15" t="s">
         <v>215</v>
       </c>
@@ -9143,7 +9142,7 @@
       <c r="K438" s="80"/>
       <c r="L438" s="80"/>
     </row>
-    <row r="439" spans="2:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="2:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B439" s="20"/>
       <c r="C439" s="80"/>
       <c r="D439" s="33"/>
@@ -9156,7 +9155,7 @@
       <c r="K439" s="80"/>
       <c r="L439" s="80"/>
     </row>
-    <row r="440" spans="2:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="2:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B440" s="20"/>
       <c r="C440" s="80" t="s">
         <v>217</v>
@@ -9171,7 +9170,7 @@
       <c r="K440" s="80"/>
       <c r="L440" s="80"/>
     </row>
-    <row r="441" spans="2:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="2:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B441" s="20"/>
       <c r="C441" s="25"/>
       <c r="D441" s="25"/>
@@ -9182,7 +9181,7 @@
       <c r="K441" s="80"/>
       <c r="L441" s="80"/>
     </row>
-    <row r="442" spans="2:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="2:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B442" s="20"/>
       <c r="C442" s="33" t="s">
         <v>201</v>
@@ -9197,7 +9196,7 @@
       <c r="K442" s="80"/>
       <c r="L442" s="80"/>
     </row>
-    <row r="443" spans="2:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="2:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B443" s="20"/>
       <c r="C443" s="19"/>
       <c r="D443" s="19"/>
@@ -9208,7 +9207,7 @@
       <c r="K443" s="80"/>
       <c r="L443" s="80"/>
     </row>
-    <row r="444" spans="2:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="2:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B444" s="20"/>
       <c r="C444" s="33" t="s">
         <v>203</v>
@@ -9221,7 +9220,7 @@
       <c r="K444" s="80"/>
       <c r="L444" s="80"/>
     </row>
-    <row r="445" spans="2:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="2:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B445" s="20"/>
       <c r="C445" s="80"/>
       <c r="D445" s="33"/>
@@ -9234,27 +9233,27 @@
       <c r="K445" s="80"/>
       <c r="L445" s="80"/>
     </row>
-    <row r="446" spans="2:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="2:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B446" s="20"/>
-      <c r="C446" s="159" t="s">
+      <c r="C446" s="161" t="s">
         <v>59</v>
       </c>
-      <c r="D446" s="160"/>
-      <c r="E446" s="157" t="s">
+      <c r="D446" s="162"/>
+      <c r="E446" s="165" t="s">
         <v>204</v>
       </c>
-      <c r="F446" s="163"/>
-      <c r="G446" s="163"/>
-      <c r="H446" s="163"/>
-      <c r="I446" s="163"/>
-      <c r="J446" s="163"/>
-      <c r="K446" s="158"/>
-      <c r="L446" s="164"/>
-    </row>
-    <row r="447" spans="2:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F446" s="166"/>
+      <c r="G446" s="166"/>
+      <c r="H446" s="166"/>
+      <c r="I446" s="166"/>
+      <c r="J446" s="166"/>
+      <c r="K446" s="167"/>
+      <c r="L446" s="168"/>
+    </row>
+    <row r="447" spans="2:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B447" s="20"/>
-      <c r="C447" s="161"/>
-      <c r="D447" s="162"/>
+      <c r="C447" s="163"/>
+      <c r="D447" s="164"/>
       <c r="E447" s="75">
         <v>1</v>
       </c>
@@ -9276,14 +9275,14 @@
       <c r="K447" s="75" t="s">
         <v>180</v>
       </c>
-      <c r="L447" s="164"/>
-    </row>
-    <row r="448" spans="2:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L447" s="168"/>
+    </row>
+    <row r="448" spans="2:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B448" s="20"/>
-      <c r="C448" s="146" t="s">
+      <c r="C448" s="155" t="s">
         <v>219</v>
       </c>
-      <c r="D448" s="147"/>
+      <c r="D448" s="156"/>
       <c r="E448" s="82"/>
       <c r="F448" s="82"/>
       <c r="G448" s="82"/>
@@ -9293,12 +9292,12 @@
       <c r="K448" s="4"/>
       <c r="L448" s="40"/>
     </row>
-    <row r="449" spans="2:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="2:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B449" s="20"/>
-      <c r="C449" s="146" t="s">
+      <c r="C449" s="155" t="s">
         <v>178</v>
       </c>
-      <c r="D449" s="147"/>
+      <c r="D449" s="156"/>
       <c r="E449" s="82"/>
       <c r="F449" s="82"/>
       <c r="G449" s="82"/>
@@ -9308,12 +9307,12 @@
       <c r="K449" s="4"/>
       <c r="L449" s="40"/>
     </row>
-    <row r="450" spans="2:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="2:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B450" s="20"/>
-      <c r="C450" s="146" t="s">
+      <c r="C450" s="155" t="s">
         <v>220</v>
       </c>
-      <c r="D450" s="147"/>
+      <c r="D450" s="156"/>
       <c r="E450" s="82"/>
       <c r="F450" s="82"/>
       <c r="G450" s="82"/>
@@ -9323,12 +9322,12 @@
       <c r="K450" s="4"/>
       <c r="L450" s="40"/>
     </row>
-    <row r="451" spans="2:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="2:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B451" s="20"/>
-      <c r="C451" s="157" t="s">
+      <c r="C451" s="165" t="s">
         <v>210</v>
       </c>
-      <c r="D451" s="158"/>
+      <c r="D451" s="167"/>
       <c r="E451" s="46"/>
       <c r="F451" s="46"/>
       <c r="G451" s="46"/>
@@ -9338,7 +9337,7 @@
       <c r="K451" s="47"/>
       <c r="L451" s="24"/>
     </row>
-    <row r="452" spans="2:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="2:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B452" s="20"/>
       <c r="C452" s="80"/>
       <c r="D452" s="33"/>
@@ -9351,7 +9350,7 @@
       <c r="K452" s="80"/>
       <c r="L452" s="80"/>
     </row>
-    <row r="453" spans="2:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="2:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B453" s="15" t="s">
         <v>221</v>
       </c>
@@ -9368,7 +9367,7 @@
       <c r="K453" s="80"/>
       <c r="L453" s="80"/>
     </row>
-    <row r="454" spans="2:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="2:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B454" s="20"/>
       <c r="C454" s="79"/>
       <c r="D454" s="80"/>
@@ -9381,7 +9380,7 @@
       <c r="K454" s="80"/>
       <c r="L454" s="80"/>
     </row>
-    <row r="455" spans="2:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="2:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B455" s="20"/>
       <c r="C455" s="48" t="s">
         <v>223</v>
@@ -9396,7 +9395,7 @@
       <c r="K455" s="80"/>
       <c r="L455" s="80"/>
     </row>
-    <row r="456" spans="2:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="2:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B456" s="20"/>
       <c r="C456" s="50" t="s">
         <v>225</v>
@@ -9409,7 +9408,7 @@
       <c r="K456" s="80"/>
       <c r="L456" s="80"/>
     </row>
-    <row r="457" spans="2:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="2:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B457" s="20"/>
       <c r="C457" s="53" t="s">
         <v>226</v>
@@ -9422,7 +9421,7 @@
       <c r="K457" s="80"/>
       <c r="L457" s="80"/>
     </row>
-    <row r="458" spans="2:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="2:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B458" s="20"/>
       <c r="C458" s="53" t="s">
         <v>227</v>
@@ -9435,7 +9434,7 @@
       <c r="K458" s="80"/>
       <c r="L458" s="80"/>
     </row>
-    <row r="459" spans="2:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="2:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B459" s="20"/>
       <c r="C459" s="55" t="s">
         <v>228</v>
@@ -9448,7 +9447,7 @@
       <c r="K459" s="80"/>
       <c r="L459" s="80"/>
     </row>
-    <row r="460" spans="2:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="2:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B460" s="20"/>
       <c r="C460" s="80"/>
       <c r="D460" s="33"/>
@@ -9461,7 +9460,7 @@
       <c r="K460" s="80"/>
       <c r="L460" s="80"/>
     </row>
-    <row r="461" spans="2:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="2:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B461" s="15" t="s">
         <v>229</v>
       </c>
@@ -9478,7 +9477,7 @@
       <c r="K461" s="80"/>
       <c r="L461" s="80"/>
     </row>
-    <row r="462" spans="2:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="2:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B462" s="20"/>
       <c r="C462" s="79"/>
       <c r="D462" s="80"/>
@@ -9491,7 +9490,7 @@
       <c r="K462" s="80"/>
       <c r="L462" s="80"/>
     </row>
-    <row r="463" spans="2:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="2:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B463" s="20"/>
       <c r="C463" s="48" t="s">
         <v>231</v>
@@ -9508,7 +9507,7 @@
       <c r="K463" s="80"/>
       <c r="L463" s="80"/>
     </row>
-    <row r="464" spans="2:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="2:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B464" s="20"/>
       <c r="C464" s="50" t="s">
         <v>232</v>
@@ -9523,7 +9522,7 @@
       <c r="K464" s="80"/>
       <c r="L464" s="80"/>
     </row>
-    <row r="465" spans="2:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="2:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B465" s="20"/>
       <c r="C465" s="53" t="s">
         <v>233</v>
@@ -9538,7 +9537,7 @@
       <c r="K465" s="80"/>
       <c r="L465" s="80"/>
     </row>
-    <row r="466" spans="2:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="2:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B466" s="20"/>
       <c r="C466" s="53" t="s">
         <v>234</v>
@@ -9553,7 +9552,7 @@
       <c r="K466" s="80"/>
       <c r="L466" s="80"/>
     </row>
-    <row r="467" spans="2:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="2:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B467" s="20"/>
       <c r="C467" s="53" t="s">
         <v>235</v>
@@ -9568,7 +9567,7 @@
       <c r="K467" s="80"/>
       <c r="L467" s="80"/>
     </row>
-    <row r="468" spans="2:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="2:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B468" s="20"/>
       <c r="C468" s="55" t="s">
         <v>236</v>
@@ -9583,7 +9582,7 @@
       <c r="K468" s="80"/>
       <c r="L468" s="80"/>
     </row>
-    <row r="469" spans="2:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="2:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B469" s="20"/>
       <c r="C469" s="80"/>
       <c r="D469" s="33"/>
@@ -9596,7 +9595,7 @@
       <c r="K469" s="80"/>
       <c r="L469" s="80"/>
     </row>
-    <row r="470" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B470" s="125" t="s">
         <v>237</v>
       </c>
@@ -9611,7 +9610,7 @@
       <c r="K470" s="127"/>
       <c r="L470" s="127"/>
     </row>
-    <row r="471" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B471" s="19"/>
       <c r="C471" s="19"/>
       <c r="D471" s="19"/>
@@ -9624,7 +9623,7 @@
       <c r="K471" s="80"/>
       <c r="L471" s="80"/>
     </row>
-    <row r="472" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B472" s="19"/>
       <c r="C472" s="19"/>
       <c r="D472" s="19"/>
@@ -9637,24 +9636,24 @@
       <c r="K472" s="80"/>
       <c r="L472" s="80"/>
     </row>
-    <row r="473" spans="2:13" s="2" customFormat="1" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="2:13" s="2" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B473" s="31" t="s">
         <v>238</v>
       </c>
       <c r="C473" s="80"/>
-      <c r="E473" s="171" t="s">
+      <c r="E473" s="175" t="s">
         <v>328</v>
       </c>
-      <c r="F473" s="171"/>
-      <c r="G473" s="171"/>
-      <c r="H473" s="171"/>
-      <c r="I473" s="171"/>
-      <c r="J473" s="171"/>
-      <c r="K473" s="171"/>
-      <c r="L473" s="171"/>
+      <c r="F473" s="175"/>
+      <c r="G473" s="175"/>
+      <c r="H473" s="175"/>
+      <c r="I473" s="175"/>
+      <c r="J473" s="175"/>
+      <c r="K473" s="175"/>
+      <c r="L473" s="175"/>
       <c r="M473" s="134"/>
     </row>
-    <row r="474" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B474" s="19"/>
       <c r="C474" s="19"/>
       <c r="D474" s="19"/>
@@ -9667,7 +9666,7 @@
       <c r="K474" s="80"/>
       <c r="L474" s="80"/>
     </row>
-    <row r="475" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B475" s="58" t="s">
         <v>239</v>
       </c>
@@ -9682,7 +9681,7 @@
       <c r="K475" s="80"/>
       <c r="L475" s="80"/>
     </row>
-    <row r="476" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B476" s="19"/>
       <c r="C476" s="19"/>
       <c r="D476" s="154" t="s">
@@ -9697,44 +9696,44 @@
       <c r="K476" s="80"/>
       <c r="L476" s="80"/>
     </row>
-    <row r="477" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B477" s="79"/>
-      <c r="C477" s="165" t="s">
+      <c r="C477" s="169" t="s">
         <v>182</v>
       </c>
-      <c r="D477" s="165" t="s">
+      <c r="D477" s="169" t="s">
         <v>58</v>
       </c>
-      <c r="E477" s="165" t="s">
+      <c r="E477" s="169" t="s">
         <v>59</v>
       </c>
-      <c r="F477" s="165" t="s">
+      <c r="F477" s="169" t="s">
         <v>60</v>
       </c>
-      <c r="G477" s="166" t="s">
+      <c r="G477" s="170" t="s">
         <v>183</v>
       </c>
-      <c r="H477" s="166" t="s">
+      <c r="H477" s="170" t="s">
         <v>176</v>
       </c>
-      <c r="I477" s="166" t="s">
+      <c r="I477" s="170" t="s">
         <v>184</v>
       </c>
-      <c r="J477" s="168" t="s">
+      <c r="J477" s="172" t="s">
         <v>240</v>
       </c>
-      <c r="K477" s="169"/>
-      <c r="L477" s="170"/>
-    </row>
-    <row r="478" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K477" s="173"/>
+      <c r="L477" s="174"/>
+    </row>
+    <row r="478" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B478" s="79"/>
-      <c r="C478" s="165"/>
-      <c r="D478" s="165"/>
-      <c r="E478" s="165"/>
-      <c r="F478" s="165"/>
-      <c r="G478" s="167"/>
-      <c r="H478" s="167"/>
-      <c r="I478" s="167"/>
+      <c r="C478" s="169"/>
+      <c r="D478" s="169"/>
+      <c r="E478" s="169"/>
+      <c r="F478" s="169"/>
+      <c r="G478" s="171"/>
+      <c r="H478" s="171"/>
+      <c r="I478" s="171"/>
       <c r="J478" s="77" t="s">
         <v>241</v>
       </c>
@@ -9746,7 +9745,7 @@
       </c>
       <c r="M478" s="80"/>
     </row>
-    <row r="479" spans="2:13" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.3">
+    <row r="479" spans="2:13" s="2" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="B479" s="79"/>
       <c r="C479" s="39" t="s">
         <v>318</v>
@@ -9767,21 +9766,20 @@
         <v>826.85</v>
       </c>
       <c r="I479" s="128">
-        <f>274397.67+15464.07</f>
-        <v>289861.74</v>
+        <v>380539.3</v>
       </c>
       <c r="J479" s="59"/>
       <c r="K479" s="128">
         <f>+I479/2</f>
-        <v>144930.87</v>
+        <v>190269.65</v>
       </c>
       <c r="L479" s="128">
         <f>+I479/2</f>
-        <v>144930.87</v>
+        <v>190269.65</v>
       </c>
       <c r="M479" s="80"/>
     </row>
-    <row r="480" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B480" s="79"/>
       <c r="C480" s="39"/>
       <c r="D480" s="103"/>
@@ -9797,7 +9795,7 @@
       <c r="L480" s="59"/>
       <c r="M480" s="80"/>
     </row>
-    <row r="481" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B481" s="79"/>
       <c r="C481" s="39"/>
       <c r="D481" s="103"/>
@@ -9813,7 +9811,7 @@
       <c r="L481" s="103"/>
       <c r="M481" s="80"/>
     </row>
-    <row r="482" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B482" s="79"/>
       <c r="C482" s="39"/>
       <c r="D482" s="103"/>
@@ -9829,7 +9827,7 @@
       <c r="L482" s="103"/>
       <c r="M482" s="80"/>
     </row>
-    <row r="483" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B483" s="79"/>
       <c r="C483" s="82"/>
       <c r="D483" s="103"/>
@@ -9845,7 +9843,7 @@
       <c r="L483" s="103"/>
       <c r="M483" s="80"/>
     </row>
-    <row r="484" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B484" s="79"/>
       <c r="C484" s="39"/>
       <c r="D484" s="103"/>
@@ -9861,16 +9859,16 @@
       <c r="L484" s="103"/>
       <c r="M484" s="80"/>
     </row>
-    <row r="485" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B485" s="79"/>
       <c r="C485" s="40"/>
       <c r="D485" s="80"/>
       <c r="E485" s="80"/>
       <c r="F485" s="40"/>
-      <c r="G485" s="221" t="s">
+      <c r="G485" s="146" t="s">
         <v>277</v>
       </c>
-      <c r="H485" s="223"/>
+      <c r="H485" s="147"/>
       <c r="I485" s="128">
         <v>10000</v>
       </c>
@@ -9879,16 +9877,16 @@
       <c r="L485" s="80"/>
       <c r="M485" s="80"/>
     </row>
-    <row r="486" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B486" s="79"/>
       <c r="C486" s="40"/>
       <c r="D486" s="80"/>
       <c r="E486" s="80"/>
       <c r="F486" s="40"/>
-      <c r="G486" s="150" t="s">
+      <c r="G486" s="148" t="s">
         <v>278</v>
       </c>
-      <c r="H486" s="152"/>
+      <c r="H486" s="149"/>
       <c r="I486" s="128">
         <v>24961.5</v>
       </c>
@@ -9897,16 +9895,16 @@
       <c r="L486" s="80"/>
       <c r="M486" s="80"/>
     </row>
-    <row r="487" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B487" s="79"/>
       <c r="C487" s="40"/>
       <c r="D487" s="80"/>
       <c r="E487" s="80"/>
       <c r="F487" s="40"/>
-      <c r="G487" s="150" t="s">
+      <c r="G487" s="148" t="s">
         <v>195</v>
       </c>
-      <c r="H487" s="152"/>
+      <c r="H487" s="149"/>
       <c r="I487" s="128">
         <v>17290.75</v>
       </c>
@@ -9915,26 +9913,26 @@
       <c r="L487" s="80"/>
       <c r="M487" s="80"/>
     </row>
-    <row r="488" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B488" s="79"/>
       <c r="C488" s="40"/>
       <c r="D488" s="80"/>
       <c r="E488" s="80"/>
       <c r="F488" s="40"/>
-      <c r="G488" s="265" t="s">
+      <c r="G488" s="159" t="s">
         <v>196</v>
       </c>
-      <c r="H488" s="266"/>
+      <c r="H488" s="160"/>
       <c r="I488" s="129">
         <f>SUM(I479:I487)</f>
-        <v>342113.99</v>
+        <v>432791.55</v>
       </c>
       <c r="J488" s="80"/>
       <c r="K488" s="80"/>
       <c r="L488" s="80"/>
       <c r="M488" s="80"/>
     </row>
-    <row r="489" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B489" s="79"/>
       <c r="C489" s="40"/>
       <c r="D489" s="80"/>
@@ -9948,7 +9946,7 @@
       <c r="L489" s="80"/>
       <c r="M489" s="80"/>
     </row>
-    <row r="490" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B490" s="79"/>
       <c r="C490" s="40"/>
       <c r="D490" s="80"/>
@@ -9962,7 +9960,7 @@
       <c r="L490" s="80"/>
       <c r="M490" s="80"/>
     </row>
-    <row r="491" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B491" s="15" t="s">
         <v>242</v>
       </c>
@@ -9980,7 +9978,7 @@
       <c r="L491" s="80"/>
       <c r="M491" s="80"/>
     </row>
-    <row r="492" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B492" s="20"/>
       <c r="C492" s="80"/>
       <c r="D492" s="33"/>
@@ -9994,7 +9992,7 @@
       <c r="L492" s="80"/>
       <c r="M492" s="80"/>
     </row>
-    <row r="493" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B493" s="20"/>
       <c r="C493" s="33" t="s">
         <v>275</v>
@@ -10012,7 +10010,7 @@
       <c r="L493" s="80"/>
       <c r="M493" s="80"/>
     </row>
-    <row r="494" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B494" s="20"/>
       <c r="C494" s="79"/>
       <c r="D494" s="79"/>
@@ -10026,7 +10024,7 @@
       <c r="L494" s="80"/>
       <c r="M494" s="80"/>
     </row>
-    <row r="495" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B495" s="20"/>
       <c r="C495" s="33" t="s">
         <v>276</v>
@@ -10044,7 +10042,7 @@
       <c r="L495" s="80"/>
       <c r="M495" s="80"/>
     </row>
-    <row r="496" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B496" s="20"/>
       <c r="C496" s="80"/>
       <c r="D496" s="33"/>
@@ -10058,28 +10056,28 @@
       <c r="L496" s="80"/>
       <c r="M496" s="80"/>
     </row>
-    <row r="497" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B497" s="20"/>
-      <c r="C497" s="159" t="s">
+      <c r="C497" s="161" t="s">
         <v>59</v>
       </c>
-      <c r="D497" s="160"/>
-      <c r="E497" s="157" t="s">
+      <c r="D497" s="162"/>
+      <c r="E497" s="165" t="s">
         <v>204</v>
       </c>
-      <c r="F497" s="163"/>
-      <c r="G497" s="163"/>
-      <c r="H497" s="163"/>
-      <c r="I497" s="163"/>
-      <c r="J497" s="163"/>
-      <c r="K497" s="158"/>
-      <c r="L497" s="164"/>
+      <c r="F497" s="166"/>
+      <c r="G497" s="166"/>
+      <c r="H497" s="166"/>
+      <c r="I497" s="166"/>
+      <c r="J497" s="166"/>
+      <c r="K497" s="167"/>
+      <c r="L497" s="168"/>
       <c r="M497" s="80"/>
     </row>
-    <row r="498" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B498" s="20"/>
-      <c r="C498" s="161"/>
-      <c r="D498" s="162"/>
+      <c r="C498" s="163"/>
+      <c r="D498" s="164"/>
       <c r="E498" s="75">
         <v>1</v>
       </c>
@@ -10101,15 +10099,15 @@
       <c r="K498" s="75">
         <v>10</v>
       </c>
-      <c r="L498" s="164"/>
+      <c r="L498" s="168"/>
       <c r="M498" s="80"/>
     </row>
-    <row r="499" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B499" s="20"/>
-      <c r="C499" s="146" t="s">
+      <c r="C499" s="155" t="s">
         <v>324</v>
       </c>
-      <c r="D499" s="147"/>
+      <c r="D499" s="156"/>
       <c r="E499" s="103"/>
       <c r="F499" s="103">
         <v>3500</v>
@@ -10128,12 +10126,12 @@
       <c r="L499" s="40"/>
       <c r="M499" s="80"/>
     </row>
-    <row r="500" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B500" s="20"/>
-      <c r="C500" s="146" t="s">
+      <c r="C500" s="155" t="s">
         <v>178</v>
       </c>
-      <c r="D500" s="147"/>
+      <c r="D500" s="156"/>
       <c r="E500" s="82"/>
       <c r="F500" s="82"/>
       <c r="G500" s="82"/>
@@ -10144,12 +10142,12 @@
       <c r="L500" s="40"/>
       <c r="M500" s="80"/>
     </row>
-    <row r="501" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B501" s="20"/>
-      <c r="C501" s="146" t="s">
+      <c r="C501" s="155" t="s">
         <v>220</v>
       </c>
-      <c r="D501" s="147"/>
+      <c r="D501" s="156"/>
       <c r="E501" s="82"/>
       <c r="F501" s="82"/>
       <c r="G501" s="82"/>
@@ -10160,7 +10158,7 @@
       <c r="L501" s="40"/>
       <c r="M501" s="80"/>
     </row>
-    <row r="502" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B502" s="79"/>
       <c r="C502" s="40"/>
       <c r="D502" s="80"/>
@@ -10174,7 +10172,7 @@
       <c r="L502" s="80"/>
       <c r="M502" s="80"/>
     </row>
-    <row r="503" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B503" s="79"/>
       <c r="C503" s="40"/>
       <c r="D503" s="80"/>
@@ -10188,7 +10186,7 @@
       <c r="L503" s="80"/>
       <c r="M503" s="80"/>
     </row>
-    <row r="504" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B504" s="15" t="s">
         <v>243</v>
       </c>
@@ -10206,7 +10204,7 @@
       <c r="L504" s="80"/>
       <c r="M504" s="80"/>
     </row>
-    <row r="505" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B505" s="20"/>
       <c r="C505" s="79"/>
       <c r="D505" s="80"/>
@@ -10220,7 +10218,7 @@
       <c r="L505" s="80"/>
       <c r="M505" s="80"/>
     </row>
-    <row r="506" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B506" s="20"/>
       <c r="C506" s="48" t="s">
         <v>223</v>
@@ -10238,7 +10236,7 @@
       <c r="L506" s="80"/>
       <c r="M506" s="80"/>
     </row>
-    <row r="507" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B507" s="20"/>
       <c r="C507" s="50" t="s">
         <v>225</v>
@@ -10256,7 +10254,7 @@
       <c r="L507" s="80"/>
       <c r="M507" s="80"/>
     </row>
-    <row r="508" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B508" s="20"/>
       <c r="C508" s="53" t="s">
         <v>226</v>
@@ -10272,7 +10270,7 @@
       <c r="L508" s="80"/>
       <c r="M508" s="80"/>
     </row>
-    <row r="509" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B509" s="20"/>
       <c r="C509" s="53" t="s">
         <v>227</v>
@@ -10288,7 +10286,7 @@
       <c r="L509" s="80"/>
       <c r="M509" s="80"/>
     </row>
-    <row r="510" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B510" s="20"/>
       <c r="C510" s="55" t="s">
         <v>228</v>
@@ -10304,7 +10302,7 @@
       <c r="L510" s="80"/>
       <c r="M510" s="80"/>
     </row>
-    <row r="511" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B511" s="20"/>
       <c r="C511" s="140"/>
       <c r="D511" s="140"/>
@@ -10318,7 +10316,7 @@
       <c r="L511" s="140"/>
       <c r="M511" s="140"/>
     </row>
-    <row r="512" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B512" s="20"/>
       <c r="C512" s="140"/>
       <c r="D512" s="140"/>
@@ -10332,7 +10330,7 @@
       <c r="L512" s="140"/>
       <c r="M512" s="140"/>
     </row>
-    <row r="513" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B513" s="20"/>
       <c r="C513" s="140"/>
       <c r="D513" s="140"/>
@@ -10346,7 +10344,7 @@
       <c r="L513" s="140"/>
       <c r="M513" s="140"/>
     </row>
-    <row r="514" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B514" s="20"/>
       <c r="C514" s="80"/>
       <c r="D514" s="33"/>
@@ -10360,7 +10358,7 @@
       <c r="L514" s="80"/>
       <c r="M514" s="80"/>
     </row>
-    <row r="515" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B515" s="15" t="s">
         <v>244</v>
       </c>
@@ -10378,7 +10376,7 @@
       <c r="L515" s="80"/>
       <c r="M515" s="80"/>
     </row>
-    <row r="516" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B516" s="20"/>
       <c r="C516" s="79"/>
       <c r="D516" s="80"/>
@@ -10392,7 +10390,7 @@
       <c r="L516" s="80"/>
       <c r="M516" s="80"/>
     </row>
-    <row r="517" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B517" s="20"/>
       <c r="C517" s="48" t="s">
         <v>231</v>
@@ -10410,7 +10408,7 @@
       <c r="L517" s="80"/>
       <c r="M517" s="80"/>
     </row>
-    <row r="518" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B518" s="20"/>
       <c r="C518" s="50" t="s">
         <v>232</v>
@@ -10428,7 +10426,7 @@
       <c r="L518" s="80"/>
       <c r="M518" s="80"/>
     </row>
-    <row r="519" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B519" s="20"/>
       <c r="C519" s="53" t="s">
         <v>233</v>
@@ -10444,7 +10442,7 @@
       <c r="L519" s="80"/>
       <c r="M519" s="80"/>
     </row>
-    <row r="520" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B520" s="20"/>
       <c r="C520" s="53" t="s">
         <v>234</v>
@@ -10460,7 +10458,7 @@
       <c r="L520" s="80"/>
       <c r="M520" s="80"/>
     </row>
-    <row r="521" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B521" s="20"/>
       <c r="C521" s="53" t="s">
         <v>235</v>
@@ -10476,7 +10474,7 @@
       <c r="L521" s="80"/>
       <c r="M521" s="80"/>
     </row>
-    <row r="522" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B522" s="20"/>
       <c r="C522" s="55" t="s">
         <v>236</v>
@@ -10494,18 +10492,18 @@
       <c r="L522" s="80"/>
       <c r="M522" s="80"/>
     </row>
-    <row r="523" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B523" s="19"/>
       <c r="C523" s="60"/>
       <c r="F523" s="60"/>
       <c r="M523" s="80"/>
     </row>
-    <row r="524" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B524" s="19"/>
       <c r="C524" s="60"/>
       <c r="F524" s="60"/>
     </row>
-    <row r="525" spans="2:13" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="2:13" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B525" s="19"/>
       <c r="C525" s="19"/>
       <c r="D525" s="19"/>
@@ -10518,7 +10516,7 @@
       <c r="K525" s="80"/>
       <c r="L525" s="80"/>
     </row>
-    <row r="526" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B526" s="125" t="s">
         <v>245</v>
       </c>
@@ -10533,7 +10531,7 @@
       <c r="K526" s="127"/>
       <c r="L526" s="127"/>
     </row>
-    <row r="527" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B527" s="19"/>
       <c r="C527" s="19"/>
       <c r="D527" s="19"/>
@@ -10546,7 +10544,7 @@
       <c r="K527" s="80"/>
       <c r="L527" s="80"/>
     </row>
-    <row r="528" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B528" s="19"/>
       <c r="C528" s="19"/>
       <c r="D528" s="19"/>
@@ -10559,7 +10557,7 @@
       <c r="K528" s="80"/>
       <c r="L528" s="80"/>
     </row>
-    <row r="529" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B529" s="19"/>
       <c r="C529" s="19"/>
       <c r="D529" s="19"/>
@@ -10572,7 +10570,7 @@
       <c r="K529" s="80"/>
       <c r="L529" s="80"/>
     </row>
-    <row r="530" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B530" s="19"/>
       <c r="D530" s="19"/>
       <c r="E530" s="19"/>
@@ -10584,7 +10582,7 @@
       <c r="K530" s="80"/>
       <c r="L530" s="80"/>
     </row>
-    <row r="531" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B531" s="19"/>
       <c r="D531" s="130"/>
       <c r="E531" s="130"/>
@@ -10596,24 +10594,24 @@
       <c r="K531" s="80"/>
       <c r="L531" s="80"/>
     </row>
-    <row r="532" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D532" s="19"/>
       <c r="J532" s="80"/>
       <c r="K532" s="80"/>
       <c r="L532" s="80"/>
     </row>
-    <row r="533" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B533" s="155" t="s">
+    <row r="533" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B533" s="157" t="s">
         <v>246</v>
       </c>
-      <c r="C533" s="155"/>
-      <c r="D533" s="155"/>
-      <c r="E533" s="155"/>
+      <c r="C533" s="157"/>
+      <c r="D533" s="157"/>
+      <c r="E533" s="157"/>
       <c r="J533" s="80"/>
       <c r="K533" s="80"/>
       <c r="L533" s="80"/>
     </row>
-    <row r="534" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B534" s="19"/>
       <c r="C534" s="19"/>
       <c r="D534" s="19"/>
@@ -10626,7 +10624,7 @@
       <c r="K534" s="80"/>
       <c r="L534" s="80"/>
     </row>
-    <row r="535" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B535" s="19"/>
       <c r="C535" s="19"/>
       <c r="D535" s="19"/>
@@ -10639,7 +10637,7 @@
       <c r="K535" s="80"/>
       <c r="L535" s="80"/>
     </row>
-    <row r="536" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B536" s="130"/>
       <c r="C536" s="130"/>
       <c r="D536" s="19"/>
@@ -10652,7 +10650,7 @@
       <c r="K536" s="80"/>
       <c r="L536" s="80"/>
     </row>
-    <row r="537" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B537" s="24" t="s">
         <v>247</v>
       </c>
@@ -10667,7 +10665,7 @@
       <c r="K537" s="79"/>
       <c r="L537" s="19"/>
     </row>
-    <row r="538" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="538" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B538" s="80"/>
       <c r="C538" s="79"/>
       <c r="D538" s="79"/>
@@ -10679,37 +10677,37 @@
       <c r="J538" s="79"/>
       <c r="K538" s="79"/>
     </row>
-    <row r="539" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B539" s="156" t="s">
+    <row r="539" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B539" s="158" t="s">
         <v>248</v>
       </c>
-      <c r="C539" s="156"/>
-      <c r="D539" s="156"/>
-      <c r="E539" s="156"/>
-      <c r="F539" s="156"/>
-      <c r="G539" s="156"/>
-      <c r="H539" s="156"/>
-      <c r="I539" s="156"/>
-      <c r="J539" s="156"/>
-      <c r="K539" s="156"/>
-      <c r="L539" s="156"/>
-    </row>
-    <row r="540" spans="2:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B540" s="156" t="s">
+      <c r="C539" s="158"/>
+      <c r="D539" s="158"/>
+      <c r="E539" s="158"/>
+      <c r="F539" s="158"/>
+      <c r="G539" s="158"/>
+      <c r="H539" s="158"/>
+      <c r="I539" s="158"/>
+      <c r="J539" s="158"/>
+      <c r="K539" s="158"/>
+      <c r="L539" s="158"/>
+    </row>
+    <row r="540" spans="2:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B540" s="158" t="s">
         <v>271</v>
       </c>
-      <c r="C540" s="156"/>
-      <c r="D540" s="156"/>
-      <c r="E540" s="156"/>
-      <c r="F540" s="156"/>
-      <c r="G540" s="156"/>
-      <c r="H540" s="156"/>
-      <c r="I540" s="156"/>
-      <c r="J540" s="156"/>
-      <c r="K540" s="156"/>
-      <c r="L540" s="156"/>
-    </row>
-    <row r="541" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C540" s="158"/>
+      <c r="D540" s="158"/>
+      <c r="E540" s="158"/>
+      <c r="F540" s="158"/>
+      <c r="G540" s="158"/>
+      <c r="H540" s="158"/>
+      <c r="I540" s="158"/>
+      <c r="J540" s="158"/>
+      <c r="K540" s="158"/>
+      <c r="L540" s="158"/>
+    </row>
+    <row r="541" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B541" s="80"/>
       <c r="C541" s="79"/>
       <c r="D541" s="79"/>
@@ -10721,7 +10719,7 @@
       <c r="J541" s="79"/>
       <c r="K541" s="79"/>
     </row>
-    <row r="542" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="542" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B542" s="24" t="s">
         <v>249</v>
       </c>
@@ -10735,31 +10733,31 @@
       <c r="J542" s="79"/>
       <c r="K542" s="79"/>
     </row>
-    <row r="543" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B543" s="156" t="s">
+    <row r="543" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B543" s="158" t="s">
         <v>250</v>
       </c>
-      <c r="C543" s="156"/>
-      <c r="D543" s="156"/>
-      <c r="E543" s="156"/>
-      <c r="F543" s="156"/>
-      <c r="G543" s="156"/>
-      <c r="H543" s="156"/>
-      <c r="I543" s="156"/>
-      <c r="J543" s="156"/>
-      <c r="K543" s="156"/>
-      <c r="L543" s="156"/>
-    </row>
-    <row r="544" spans="2:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C543" s="158"/>
+      <c r="D543" s="158"/>
+      <c r="E543" s="158"/>
+      <c r="F543" s="158"/>
+      <c r="G543" s="158"/>
+      <c r="H543" s="158"/>
+      <c r="I543" s="158"/>
+      <c r="J543" s="158"/>
+      <c r="K543" s="158"/>
+      <c r="L543" s="158"/>
+    </row>
+    <row r="544" spans="2:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B544" s="79"/>
     </row>
-    <row r="545" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="545" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B545" s="79"/>
     </row>
-    <row r="546" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="546" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B546" s="79"/>
     </row>
-    <row r="547" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="547" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B547" s="79"/>
     </row>
   </sheetData>

--- a/13.0 FORMATO N°07 INVIERTE PE/FORMATO 7C IES JOSÉ MARIA ARGUEDAS CHUQUIBAMBILLA.xlsx
+++ b/13.0 FORMATO N°07 INVIERTE PE/FORMATO 7C IES JOSÉ MARIA ARGUEDAS CHUQUIBAMBILLA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2018\Desktop\TURISMO CASA\IOARR0002-JM-ARGUEDAS\13.0 FORMATO N°07 INVIERTE PE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2018\Desktop\ARCHIVO LOSA ARGUEDAS\JM-ARGUEDAS\13.0 FORMATO N°07 INVIERTE PE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1966,368 +1966,368 @@
     <xf numFmtId="9" fontId="17" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2614,8 +2614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:P547"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A33" zoomScale="70" zoomScaleNormal="51" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="I487" sqref="I487"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A470" zoomScale="70" zoomScaleNormal="51" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="J482" sqref="J482"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -2636,49 +2636,49 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="B3" s="177" t="s">
+      <c r="B3" s="199" t="s">
         <v>258</v>
       </c>
-      <c r="C3" s="178"/>
-      <c r="D3" s="179"/>
-      <c r="E3" s="179"/>
-      <c r="F3" s="179"/>
-      <c r="G3" s="179"/>
-      <c r="H3" s="179"/>
-      <c r="I3" s="179"/>
-      <c r="J3" s="179"/>
-      <c r="K3" s="179"/>
-      <c r="L3" s="180"/>
+      <c r="C3" s="200"/>
+      <c r="D3" s="201"/>
+      <c r="E3" s="201"/>
+      <c r="F3" s="201"/>
+      <c r="G3" s="201"/>
+      <c r="H3" s="201"/>
+      <c r="I3" s="201"/>
+      <c r="J3" s="201"/>
+      <c r="K3" s="201"/>
+      <c r="L3" s="202"/>
     </row>
     <row r="4" spans="2:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="B4" s="181" t="s">
+      <c r="B4" s="203" t="s">
         <v>259</v>
       </c>
-      <c r="C4" s="182"/>
-      <c r="D4" s="183"/>
-      <c r="E4" s="183"/>
-      <c r="F4" s="183"/>
-      <c r="G4" s="183"/>
-      <c r="H4" s="183"/>
-      <c r="I4" s="183"/>
-      <c r="J4" s="183"/>
-      <c r="K4" s="183"/>
-      <c r="L4" s="184"/>
+      <c r="C4" s="204"/>
+      <c r="D4" s="205"/>
+      <c r="E4" s="205"/>
+      <c r="F4" s="205"/>
+      <c r="G4" s="205"/>
+      <c r="H4" s="205"/>
+      <c r="I4" s="205"/>
+      <c r="J4" s="205"/>
+      <c r="K4" s="205"/>
+      <c r="L4" s="206"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="157" t="s">
+      <c r="B5" s="207" t="s">
         <v>261</v>
       </c>
-      <c r="C5" s="157"/>
-      <c r="D5" s="185"/>
-      <c r="E5" s="185"/>
-      <c r="F5" s="185"/>
-      <c r="G5" s="185"/>
-      <c r="H5" s="185"/>
-      <c r="I5" s="185"/>
-      <c r="J5" s="185"/>
-      <c r="K5" s="185"/>
-      <c r="L5" s="185"/>
+      <c r="C5" s="207"/>
+      <c r="D5" s="208"/>
+      <c r="E5" s="208"/>
+      <c r="F5" s="208"/>
+      <c r="G5" s="208"/>
+      <c r="H5" s="208"/>
+      <c r="I5" s="208"/>
+      <c r="J5" s="208"/>
+      <c r="K5" s="208"/>
+      <c r="L5" s="208"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
@@ -2710,17 +2710,17 @@
     </row>
     <row r="8" spans="2:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
-      <c r="C8" s="226" t="s">
+      <c r="C8" s="241" t="s">
         <v>336</v>
       </c>
-      <c r="D8" s="227"/>
-      <c r="E8" s="227"/>
-      <c r="F8" s="227"/>
-      <c r="G8" s="227"/>
-      <c r="H8" s="227"/>
-      <c r="I8" s="227"/>
-      <c r="J8" s="227"/>
-      <c r="K8" s="228"/>
+      <c r="D8" s="242"/>
+      <c r="E8" s="242"/>
+      <c r="F8" s="242"/>
+      <c r="G8" s="242"/>
+      <c r="H8" s="242"/>
+      <c r="I8" s="242"/>
+      <c r="J8" s="242"/>
+      <c r="K8" s="243"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
@@ -2995,13 +2995,13 @@
       </c>
       <c r="D27" s="92"/>
       <c r="E27" s="92"/>
-      <c r="G27" s="229" t="s">
+      <c r="G27" s="244" t="s">
         <v>330</v>
       </c>
-      <c r="H27" s="229"/>
-      <c r="I27" s="229"/>
-      <c r="J27" s="229"/>
-      <c r="K27" s="229"/>
+      <c r="H27" s="244"/>
+      <c r="I27" s="244"/>
+      <c r="J27" s="244"/>
+      <c r="K27" s="244"/>
       <c r="L27" s="80"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
@@ -3018,21 +3018,21 @@
     </row>
     <row r="29" spans="2:13" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="89"/>
-      <c r="C29" s="186" t="s">
+      <c r="C29" s="209" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="186"/>
-      <c r="E29" s="186"/>
+      <c r="D29" s="209"/>
+      <c r="E29" s="209"/>
       <c r="G29" s="142" t="s">
         <v>14</v>
       </c>
-      <c r="H29" s="230" t="s">
+      <c r="H29" s="245" t="s">
         <v>331</v>
       </c>
-      <c r="I29" s="231"/>
-      <c r="J29" s="231"/>
-      <c r="K29" s="231"/>
-      <c r="L29" s="232"/>
+      <c r="I29" s="246"/>
+      <c r="J29" s="246"/>
+      <c r="K29" s="246"/>
+      <c r="L29" s="247"/>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="89"/>
@@ -3050,11 +3050,11 @@
     </row>
     <row r="31" spans="2:13" ht="37.5" x14ac:dyDescent="0.25">
       <c r="B31" s="89"/>
-      <c r="C31" s="150" t="s">
+      <c r="C31" s="265" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="150"/>
-      <c r="E31" s="151"/>
+      <c r="D31" s="265"/>
+      <c r="E31" s="266"/>
       <c r="F31" s="11" t="s">
         <v>16</v>
       </c>
@@ -3206,12 +3206,12 @@
       <c r="E40" s="17"/>
       <c r="F40" s="17"/>
       <c r="G40" s="17"/>
-      <c r="H40" s="148" t="s">
+      <c r="H40" s="238" t="s">
         <v>310</v>
       </c>
-      <c r="I40" s="152"/>
-      <c r="J40" s="152"/>
-      <c r="K40" s="149"/>
+      <c r="I40" s="239"/>
+      <c r="J40" s="239"/>
+      <c r="K40" s="240"/>
       <c r="L40" s="79"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
@@ -3223,12 +3223,12 @@
       <c r="E41" s="17"/>
       <c r="F41" s="17"/>
       <c r="G41" s="17"/>
-      <c r="H41" s="148" t="s">
+      <c r="H41" s="238" t="s">
         <v>311</v>
       </c>
-      <c r="I41" s="152"/>
-      <c r="J41" s="152"/>
-      <c r="K41" s="149"/>
+      <c r="I41" s="239"/>
+      <c r="J41" s="239"/>
+      <c r="K41" s="240"/>
       <c r="L41" s="79"/>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
@@ -3240,12 +3240,12 @@
       <c r="E42" s="17"/>
       <c r="F42" s="17"/>
       <c r="G42" s="17"/>
-      <c r="H42" s="148" t="s">
+      <c r="H42" s="238" t="s">
         <v>312</v>
       </c>
-      <c r="I42" s="152"/>
-      <c r="J42" s="152"/>
-      <c r="K42" s="149"/>
+      <c r="I42" s="239"/>
+      <c r="J42" s="239"/>
+      <c r="K42" s="240"/>
       <c r="L42" s="79"/>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
@@ -3257,12 +3257,12 @@
       <c r="E43" s="17"/>
       <c r="F43" s="17"/>
       <c r="G43" s="17"/>
-      <c r="H43" s="148" t="s">
+      <c r="H43" s="238" t="s">
         <v>325</v>
       </c>
-      <c r="I43" s="152"/>
-      <c r="J43" s="152"/>
-      <c r="K43" s="149"/>
+      <c r="I43" s="239"/>
+      <c r="J43" s="239"/>
+      <c r="K43" s="240"/>
       <c r="L43" s="79"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
@@ -3316,12 +3316,12 @@
       <c r="E47" s="17"/>
       <c r="F47" s="17"/>
       <c r="G47" s="17"/>
-      <c r="H47" s="148" t="s">
+      <c r="H47" s="238" t="s">
         <v>310</v>
       </c>
-      <c r="I47" s="152"/>
-      <c r="J47" s="152"/>
-      <c r="K47" s="149"/>
+      <c r="I47" s="239"/>
+      <c r="J47" s="239"/>
+      <c r="K47" s="240"/>
       <c r="L47" s="79"/>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
@@ -3333,12 +3333,12 @@
       <c r="E48" s="17"/>
       <c r="F48" s="17"/>
       <c r="G48" s="17"/>
-      <c r="H48" s="148" t="s">
+      <c r="H48" s="238" t="s">
         <v>311</v>
       </c>
-      <c r="I48" s="152"/>
-      <c r="J48" s="152"/>
-      <c r="K48" s="149"/>
+      <c r="I48" s="239"/>
+      <c r="J48" s="239"/>
+      <c r="K48" s="240"/>
       <c r="L48" s="79"/>
     </row>
     <row r="49" spans="2:16" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3350,12 +3350,12 @@
       <c r="E49" s="17"/>
       <c r="F49" s="17"/>
       <c r="G49" s="17"/>
-      <c r="H49" s="146" t="s">
+      <c r="H49" s="235" t="s">
         <v>313</v>
       </c>
-      <c r="I49" s="225"/>
-      <c r="J49" s="225"/>
-      <c r="K49" s="147"/>
+      <c r="I49" s="236"/>
+      <c r="J49" s="236"/>
+      <c r="K49" s="237"/>
       <c r="L49" s="79"/>
     </row>
     <row r="50" spans="2:16" x14ac:dyDescent="0.25">
@@ -3367,12 +3367,12 @@
       <c r="E50" s="17"/>
       <c r="F50" s="17"/>
       <c r="G50" s="17"/>
-      <c r="H50" s="252" t="s">
+      <c r="H50" s="146" t="s">
         <v>333</v>
       </c>
-      <c r="I50" s="252"/>
-      <c r="J50" s="252"/>
-      <c r="K50" s="252"/>
+      <c r="I50" s="146"/>
+      <c r="J50" s="146"/>
+      <c r="K50" s="146"/>
       <c r="L50" s="138"/>
       <c r="M50" s="138"/>
       <c r="N50" s="138"/>
@@ -3418,12 +3418,12 @@
       <c r="E53" s="17"/>
       <c r="F53" s="17"/>
       <c r="G53" s="17"/>
-      <c r="H53" s="148" t="s">
+      <c r="H53" s="238" t="s">
         <v>310</v>
       </c>
-      <c r="I53" s="152"/>
-      <c r="J53" s="152"/>
-      <c r="K53" s="149"/>
+      <c r="I53" s="239"/>
+      <c r="J53" s="239"/>
+      <c r="K53" s="240"/>
       <c r="L53" s="79"/>
     </row>
     <row r="54" spans="2:16" x14ac:dyDescent="0.25">
@@ -3435,12 +3435,12 @@
       <c r="E54" s="17"/>
       <c r="F54" s="17"/>
       <c r="G54" s="17"/>
-      <c r="H54" s="258" t="s">
+      <c r="H54" s="155" t="s">
         <v>311</v>
       </c>
-      <c r="I54" s="259"/>
-      <c r="J54" s="259"/>
-      <c r="K54" s="260"/>
+      <c r="I54" s="156"/>
+      <c r="J54" s="156"/>
+      <c r="K54" s="157"/>
       <c r="L54" s="79"/>
     </row>
     <row r="55" spans="2:16" x14ac:dyDescent="0.25">
@@ -3452,12 +3452,12 @@
       <c r="E55" s="17"/>
       <c r="F55" s="17"/>
       <c r="G55" s="17"/>
-      <c r="H55" s="252" t="s">
+      <c r="H55" s="146" t="s">
         <v>314</v>
       </c>
-      <c r="I55" s="252"/>
-      <c r="J55" s="252"/>
-      <c r="K55" s="252"/>
+      <c r="I55" s="146"/>
+      <c r="J55" s="146"/>
+      <c r="K55" s="146"/>
       <c r="L55" s="138"/>
       <c r="M55" s="138"/>
       <c r="N55" s="138"/>
@@ -3473,12 +3473,12 @@
       <c r="E56" s="17"/>
       <c r="F56" s="17"/>
       <c r="G56" s="17"/>
-      <c r="H56" s="253" t="s">
+      <c r="H56" s="147" t="s">
         <v>315</v>
       </c>
-      <c r="I56" s="254"/>
-      <c r="J56" s="254"/>
-      <c r="K56" s="255"/>
+      <c r="I56" s="148"/>
+      <c r="J56" s="148"/>
+      <c r="K56" s="149"/>
       <c r="L56" s="138"/>
       <c r="M56" s="138"/>
       <c r="N56" s="138"/>
@@ -3741,11 +3741,11 @@
       <c r="F73" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="G73" s="172" t="s">
+      <c r="G73" s="188" t="s">
         <v>51</v>
       </c>
-      <c r="H73" s="173"/>
-      <c r="I73" s="174"/>
+      <c r="H73" s="189"/>
+      <c r="I73" s="190"/>
       <c r="J73" s="90"/>
       <c r="K73" s="90"/>
       <c r="L73" s="90"/>
@@ -3764,11 +3764,11 @@
       <c r="F74" s="30" t="s">
         <v>339</v>
       </c>
-      <c r="G74" s="264" t="s">
+      <c r="G74" s="185" t="s">
         <v>340</v>
       </c>
-      <c r="H74" s="265"/>
-      <c r="I74" s="266"/>
+      <c r="H74" s="186"/>
+      <c r="I74" s="187"/>
       <c r="J74" s="90"/>
       <c r="K74" s="90"/>
       <c r="L74" s="90"/>
@@ -3891,10 +3891,10 @@
       <c r="B83" s="15"/>
       <c r="C83" s="79"/>
       <c r="D83" s="80"/>
-      <c r="E83" s="153" t="s">
+      <c r="E83" s="252" t="s">
         <v>265</v>
       </c>
-      <c r="F83" s="153"/>
+      <c r="F83" s="252"/>
       <c r="I83" s="80"/>
       <c r="J83" s="80"/>
       <c r="K83" s="80"/>
@@ -3975,17 +3975,17 @@
     </row>
     <row r="88" spans="2:12" s="97" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="58"/>
-      <c r="C88" s="257" t="s">
+      <c r="C88" s="153" t="s">
         <v>268</v>
       </c>
-      <c r="D88" s="257"/>
-      <c r="E88" s="257"/>
-      <c r="F88" s="257"/>
-      <c r="G88" s="257"/>
-      <c r="H88" s="257"/>
-      <c r="I88" s="257"/>
-      <c r="J88" s="257"/>
-      <c r="K88" s="257"/>
+      <c r="D88" s="153"/>
+      <c r="E88" s="153"/>
+      <c r="F88" s="153"/>
+      <c r="G88" s="153"/>
+      <c r="H88" s="153"/>
+      <c r="I88" s="153"/>
+      <c r="J88" s="153"/>
+      <c r="K88" s="153"/>
       <c r="L88" s="80"/>
     </row>
     <row r="89" spans="2:12" s="97" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4141,10 +4141,10 @@
       </c>
       <c r="D99" s="103"/>
       <c r="E99" s="67"/>
-      <c r="F99" s="262" t="s">
+      <c r="F99" s="180" t="s">
         <v>280</v>
       </c>
-      <c r="G99" s="263"/>
+      <c r="G99" s="181"/>
       <c r="H99" s="107"/>
       <c r="I99" s="79"/>
       <c r="J99" s="79"/>
@@ -4312,13 +4312,13 @@
     </row>
     <row r="111" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B111" s="58"/>
-      <c r="C111" s="204" t="s">
+      <c r="C111" s="226" t="s">
         <v>74</v>
       </c>
-      <c r="D111" s="204"/>
-      <c r="E111" s="204"/>
-      <c r="F111" s="204"/>
-      <c r="G111" s="205"/>
+      <c r="D111" s="226"/>
+      <c r="E111" s="226"/>
+      <c r="F111" s="226"/>
+      <c r="G111" s="227"/>
       <c r="H111" s="26"/>
       <c r="I111" s="27"/>
       <c r="J111" s="80"/>
@@ -4332,21 +4332,21 @@
       <c r="E112" s="79"/>
       <c r="F112" s="79"/>
       <c r="G112" s="79"/>
-      <c r="H112" s="206"/>
-      <c r="I112" s="206"/>
+      <c r="H112" s="228"/>
+      <c r="I112" s="228"/>
       <c r="J112" s="80"/>
       <c r="K112" s="80"/>
       <c r="L112" s="80"/>
     </row>
     <row r="113" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B113" s="58"/>
-      <c r="C113" s="204" t="s">
+      <c r="C113" s="226" t="s">
         <v>75</v>
       </c>
-      <c r="D113" s="204"/>
-      <c r="E113" s="204"/>
-      <c r="F113" s="204"/>
-      <c r="G113" s="205"/>
+      <c r="D113" s="226"/>
+      <c r="E113" s="226"/>
+      <c r="F113" s="226"/>
+      <c r="G113" s="227"/>
       <c r="H113" s="26"/>
       <c r="I113" s="27"/>
       <c r="J113" s="80"/>
@@ -4469,44 +4469,44 @@
     </row>
     <row r="122" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B122" s="58"/>
-      <c r="C122" s="207" t="s">
+      <c r="C122" s="229" t="s">
         <v>281</v>
       </c>
-      <c r="D122" s="208"/>
-      <c r="E122" s="208"/>
-      <c r="F122" s="208"/>
-      <c r="G122" s="208"/>
-      <c r="H122" s="208"/>
-      <c r="I122" s="208"/>
-      <c r="J122" s="208"/>
-      <c r="K122" s="208"/>
-      <c r="L122" s="209"/>
+      <c r="D122" s="230"/>
+      <c r="E122" s="230"/>
+      <c r="F122" s="230"/>
+      <c r="G122" s="230"/>
+      <c r="H122" s="230"/>
+      <c r="I122" s="230"/>
+      <c r="J122" s="230"/>
+      <c r="K122" s="230"/>
+      <c r="L122" s="231"/>
     </row>
     <row r="123" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B123" s="58"/>
-      <c r="C123" s="210"/>
-      <c r="D123" s="211"/>
-      <c r="E123" s="211"/>
-      <c r="F123" s="211"/>
-      <c r="G123" s="211"/>
-      <c r="H123" s="211"/>
-      <c r="I123" s="211"/>
-      <c r="J123" s="211"/>
-      <c r="K123" s="211"/>
-      <c r="L123" s="212"/>
+      <c r="C123" s="182"/>
+      <c r="D123" s="183"/>
+      <c r="E123" s="183"/>
+      <c r="F123" s="183"/>
+      <c r="G123" s="183"/>
+      <c r="H123" s="183"/>
+      <c r="I123" s="183"/>
+      <c r="J123" s="183"/>
+      <c r="K123" s="183"/>
+      <c r="L123" s="184"/>
     </row>
     <row r="124" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B124" s="58"/>
-      <c r="C124" s="213"/>
-      <c r="D124" s="214"/>
-      <c r="E124" s="214"/>
-      <c r="F124" s="214"/>
-      <c r="G124" s="214"/>
-      <c r="H124" s="214"/>
-      <c r="I124" s="214"/>
-      <c r="J124" s="214"/>
-      <c r="K124" s="214"/>
-      <c r="L124" s="215"/>
+      <c r="C124" s="232"/>
+      <c r="D124" s="233"/>
+      <c r="E124" s="233"/>
+      <c r="F124" s="233"/>
+      <c r="G124" s="233"/>
+      <c r="H124" s="233"/>
+      <c r="I124" s="233"/>
+      <c r="J124" s="233"/>
+      <c r="K124" s="233"/>
+      <c r="L124" s="234"/>
     </row>
     <row r="125" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B125" s="58"/>
@@ -4538,18 +4538,18 @@
     </row>
     <row r="127" spans="2:12" ht="63" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" s="58"/>
-      <c r="C127" s="196" t="s">
+      <c r="C127" s="219" t="s">
         <v>282</v>
       </c>
-      <c r="D127" s="197"/>
-      <c r="E127" s="197"/>
-      <c r="F127" s="197"/>
-      <c r="G127" s="197"/>
-      <c r="H127" s="197"/>
-      <c r="I127" s="197"/>
-      <c r="J127" s="197"/>
-      <c r="K127" s="197"/>
-      <c r="L127" s="198"/>
+      <c r="D127" s="220"/>
+      <c r="E127" s="220"/>
+      <c r="F127" s="220"/>
+      <c r="G127" s="220"/>
+      <c r="H127" s="220"/>
+      <c r="I127" s="220"/>
+      <c r="J127" s="220"/>
+      <c r="K127" s="220"/>
+      <c r="L127" s="221"/>
     </row>
     <row r="128" spans="2:12" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" s="58"/>
@@ -4581,18 +4581,18 @@
     </row>
     <row r="130" spans="2:12" ht="46.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B130" s="58"/>
-      <c r="C130" s="199" t="s">
+      <c r="C130" s="222" t="s">
         <v>283</v>
       </c>
-      <c r="D130" s="200"/>
-      <c r="E130" s="200"/>
-      <c r="F130" s="200"/>
-      <c r="G130" s="200"/>
-      <c r="H130" s="200"/>
-      <c r="I130" s="200"/>
-      <c r="J130" s="200"/>
-      <c r="K130" s="200"/>
-      <c r="L130" s="201"/>
+      <c r="D130" s="223"/>
+      <c r="E130" s="223"/>
+      <c r="F130" s="223"/>
+      <c r="G130" s="223"/>
+      <c r="H130" s="223"/>
+      <c r="I130" s="223"/>
+      <c r="J130" s="223"/>
+      <c r="K130" s="223"/>
+      <c r="L130" s="224"/>
     </row>
     <row r="131" spans="2:12" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131" s="58"/>
@@ -4778,18 +4778,18 @@
     </row>
     <row r="144" spans="2:12" ht="87" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="58"/>
-      <c r="C144" s="202" t="s">
+      <c r="C144" s="225" t="s">
         <v>284</v>
       </c>
-      <c r="D144" s="202"/>
-      <c r="E144" s="202"/>
-      <c r="F144" s="202"/>
-      <c r="G144" s="202"/>
-      <c r="H144" s="202"/>
-      <c r="I144" s="202"/>
-      <c r="J144" s="202"/>
-      <c r="K144" s="202"/>
-      <c r="L144" s="202"/>
+      <c r="D144" s="225"/>
+      <c r="E144" s="225"/>
+      <c r="F144" s="225"/>
+      <c r="G144" s="225"/>
+      <c r="H144" s="225"/>
+      <c r="I144" s="225"/>
+      <c r="J144" s="225"/>
+      <c r="K144" s="225"/>
+      <c r="L144" s="225"/>
     </row>
     <row r="145" spans="2:12" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B145" s="58"/>
@@ -4806,11 +4806,11 @@
     </row>
     <row r="146" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B146" s="18"/>
-      <c r="C146" s="203" t="s">
+      <c r="C146" s="150" t="s">
         <v>91</v>
       </c>
-      <c r="D146" s="203"/>
-      <c r="E146" s="203"/>
+      <c r="D146" s="150"/>
+      <c r="E146" s="150"/>
       <c r="H146" s="106"/>
       <c r="I146" s="18" t="s">
         <v>92</v>
@@ -4832,11 +4832,11 @@
     </row>
     <row r="148" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B148" s="18"/>
-      <c r="C148" s="203" t="s">
+      <c r="C148" s="150" t="s">
         <v>93</v>
       </c>
-      <c r="D148" s="203"/>
-      <c r="E148" s="203"/>
+      <c r="D148" s="150"/>
+      <c r="E148" s="150"/>
       <c r="H148" s="106"/>
       <c r="I148" s="18" t="s">
         <v>94</v>
@@ -4858,11 +4858,11 @@
     </row>
     <row r="150" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B150" s="18"/>
-      <c r="C150" s="203" t="s">
+      <c r="C150" s="150" t="s">
         <v>95</v>
       </c>
-      <c r="D150" s="203"/>
-      <c r="E150" s="203"/>
+      <c r="D150" s="150"/>
+      <c r="E150" s="150"/>
       <c r="H150" s="106"/>
       <c r="I150" s="25"/>
       <c r="J150" s="25"/>
@@ -4882,12 +4882,12 @@
     </row>
     <row r="152" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B152" s="18"/>
-      <c r="C152" s="203" t="s">
+      <c r="C152" s="150" t="s">
         <v>96</v>
       </c>
-      <c r="D152" s="203"/>
-      <c r="E152" s="203"/>
-      <c r="F152" s="203"/>
+      <c r="D152" s="150"/>
+      <c r="E152" s="150"/>
+      <c r="F152" s="150"/>
       <c r="H152" s="106"/>
       <c r="I152" s="25"/>
       <c r="J152" s="25"/>
@@ -4908,13 +4908,13 @@
     </row>
     <row r="154" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B154" s="18"/>
-      <c r="C154" s="203" t="s">
+      <c r="C154" s="150" t="s">
         <v>97</v>
       </c>
-      <c r="D154" s="203"/>
-      <c r="E154" s="203"/>
-      <c r="F154" s="203"/>
-      <c r="G154" s="236"/>
+      <c r="D154" s="150"/>
+      <c r="E154" s="150"/>
+      <c r="F154" s="150"/>
+      <c r="G154" s="151"/>
       <c r="H154" s="106"/>
       <c r="I154" s="25"/>
     </row>
@@ -5034,18 +5034,18 @@
     </row>
     <row r="163" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B163" s="18"/>
-      <c r="C163" s="233" t="s">
+      <c r="C163" s="248" t="s">
         <v>285</v>
       </c>
-      <c r="D163" s="234"/>
-      <c r="E163" s="234"/>
-      <c r="F163" s="234"/>
-      <c r="G163" s="234"/>
-      <c r="H163" s="234"/>
-      <c r="I163" s="234"/>
-      <c r="J163" s="234"/>
-      <c r="K163" s="234"/>
-      <c r="L163" s="235"/>
+      <c r="D163" s="249"/>
+      <c r="E163" s="249"/>
+      <c r="F163" s="249"/>
+      <c r="G163" s="249"/>
+      <c r="H163" s="249"/>
+      <c r="I163" s="249"/>
+      <c r="J163" s="249"/>
+      <c r="K163" s="249"/>
+      <c r="L163" s="250"/>
     </row>
     <row r="164" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B164" s="18"/>
@@ -5247,12 +5247,12 @@
     </row>
     <row r="180" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B180" s="25"/>
-      <c r="C180" s="203" t="s">
+      <c r="C180" s="150" t="s">
         <v>93</v>
       </c>
-      <c r="D180" s="203"/>
-      <c r="E180" s="203"/>
-      <c r="F180" s="203"/>
+      <c r="D180" s="150"/>
+      <c r="E180" s="150"/>
+      <c r="F180" s="150"/>
       <c r="G180" s="79"/>
       <c r="H180" s="103"/>
       <c r="I180" s="18" t="s">
@@ -5277,13 +5277,13 @@
     </row>
     <row r="182" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B182" s="25"/>
-      <c r="C182" s="203" t="s">
+      <c r="C182" s="150" t="s">
         <v>112</v>
       </c>
-      <c r="D182" s="203"/>
-      <c r="E182" s="203"/>
-      <c r="F182" s="203"/>
-      <c r="G182" s="236"/>
+      <c r="D182" s="150"/>
+      <c r="E182" s="150"/>
+      <c r="F182" s="150"/>
+      <c r="G182" s="151"/>
       <c r="H182" s="103"/>
       <c r="I182" s="25"/>
       <c r="J182" s="25"/>
@@ -5333,13 +5333,13 @@
     </row>
     <row r="186" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B186" s="25"/>
-      <c r="C186" s="203" t="s">
+      <c r="C186" s="150" t="s">
         <v>114</v>
       </c>
-      <c r="D186" s="203"/>
-      <c r="E186" s="203"/>
-      <c r="F186" s="203"/>
-      <c r="G186" s="236"/>
+      <c r="D186" s="150"/>
+      <c r="E186" s="150"/>
+      <c r="F186" s="150"/>
+      <c r="G186" s="151"/>
       <c r="H186" s="103"/>
       <c r="I186" s="25"/>
       <c r="J186" s="25"/>
@@ -5444,74 +5444,74 @@
     </row>
     <row r="194" spans="2:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B194" s="21"/>
-      <c r="C194" s="216" t="s">
+      <c r="C194" s="167" t="s">
         <v>286</v>
       </c>
-      <c r="D194" s="217"/>
-      <c r="E194" s="217"/>
-      <c r="F194" s="217"/>
-      <c r="G194" s="217"/>
-      <c r="H194" s="217"/>
-      <c r="I194" s="217"/>
-      <c r="J194" s="217"/>
-      <c r="K194" s="217"/>
-      <c r="L194" s="218"/>
+      <c r="D194" s="168"/>
+      <c r="E194" s="168"/>
+      <c r="F194" s="168"/>
+      <c r="G194" s="168"/>
+      <c r="H194" s="168"/>
+      <c r="I194" s="168"/>
+      <c r="J194" s="168"/>
+      <c r="K194" s="168"/>
+      <c r="L194" s="169"/>
       <c r="M194" s="21"/>
     </row>
     <row r="195" spans="2:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B195" s="21"/>
-      <c r="C195" s="219"/>
-      <c r="D195" s="220"/>
-      <c r="E195" s="220"/>
-      <c r="F195" s="220"/>
-      <c r="G195" s="220"/>
-      <c r="H195" s="220"/>
-      <c r="I195" s="220"/>
-      <c r="J195" s="220"/>
-      <c r="K195" s="220"/>
-      <c r="L195" s="221"/>
+      <c r="C195" s="170"/>
+      <c r="D195" s="171"/>
+      <c r="E195" s="171"/>
+      <c r="F195" s="171"/>
+      <c r="G195" s="171"/>
+      <c r="H195" s="171"/>
+      <c r="I195" s="171"/>
+      <c r="J195" s="171"/>
+      <c r="K195" s="171"/>
+      <c r="L195" s="172"/>
       <c r="M195" s="2"/>
     </row>
     <row r="196" spans="2:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B196" s="21"/>
-      <c r="C196" s="219"/>
-      <c r="D196" s="220"/>
-      <c r="E196" s="220"/>
-      <c r="F196" s="220"/>
-      <c r="G196" s="220"/>
-      <c r="H196" s="220"/>
-      <c r="I196" s="220"/>
-      <c r="J196" s="220"/>
-      <c r="K196" s="220"/>
-      <c r="L196" s="221"/>
+      <c r="C196" s="170"/>
+      <c r="D196" s="171"/>
+      <c r="E196" s="171"/>
+      <c r="F196" s="171"/>
+      <c r="G196" s="171"/>
+      <c r="H196" s="171"/>
+      <c r="I196" s="171"/>
+      <c r="J196" s="171"/>
+      <c r="K196" s="171"/>
+      <c r="L196" s="172"/>
       <c r="M196" s="2"/>
     </row>
     <row r="197" spans="2:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B197" s="21"/>
-      <c r="C197" s="219"/>
-      <c r="D197" s="220"/>
-      <c r="E197" s="220"/>
-      <c r="F197" s="220"/>
-      <c r="G197" s="220"/>
-      <c r="H197" s="220"/>
-      <c r="I197" s="220"/>
-      <c r="J197" s="220"/>
-      <c r="K197" s="220"/>
-      <c r="L197" s="221"/>
+      <c r="C197" s="170"/>
+      <c r="D197" s="171"/>
+      <c r="E197" s="171"/>
+      <c r="F197" s="171"/>
+      <c r="G197" s="171"/>
+      <c r="H197" s="171"/>
+      <c r="I197" s="171"/>
+      <c r="J197" s="171"/>
+      <c r="K197" s="171"/>
+      <c r="L197" s="172"/>
       <c r="M197" s="2"/>
     </row>
     <row r="198" spans="2:13" ht="99.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B198" s="21"/>
-      <c r="C198" s="222"/>
-      <c r="D198" s="223"/>
-      <c r="E198" s="223"/>
-      <c r="F198" s="223"/>
-      <c r="G198" s="223"/>
-      <c r="H198" s="223"/>
-      <c r="I198" s="223"/>
-      <c r="J198" s="223"/>
-      <c r="K198" s="223"/>
-      <c r="L198" s="224"/>
+      <c r="C198" s="173"/>
+      <c r="D198" s="174"/>
+      <c r="E198" s="174"/>
+      <c r="F198" s="174"/>
+      <c r="G198" s="174"/>
+      <c r="H198" s="174"/>
+      <c r="I198" s="174"/>
+      <c r="J198" s="174"/>
+      <c r="K198" s="174"/>
+      <c r="L198" s="175"/>
       <c r="M198" s="2"/>
     </row>
     <row r="199" spans="2:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -5546,74 +5546,74 @@
     </row>
     <row r="201" spans="2:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B201" s="21"/>
-      <c r="C201" s="216" t="s">
+      <c r="C201" s="167" t="s">
         <v>287</v>
       </c>
-      <c r="D201" s="217"/>
-      <c r="E201" s="217"/>
-      <c r="F201" s="217"/>
-      <c r="G201" s="217"/>
-      <c r="H201" s="217"/>
-      <c r="I201" s="217"/>
-      <c r="J201" s="217"/>
-      <c r="K201" s="217"/>
-      <c r="L201" s="218"/>
+      <c r="D201" s="168"/>
+      <c r="E201" s="168"/>
+      <c r="F201" s="168"/>
+      <c r="G201" s="168"/>
+      <c r="H201" s="168"/>
+      <c r="I201" s="168"/>
+      <c r="J201" s="168"/>
+      <c r="K201" s="168"/>
+      <c r="L201" s="169"/>
       <c r="M201" s="34"/>
     </row>
     <row r="202" spans="2:13" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B202" s="21"/>
-      <c r="C202" s="219"/>
-      <c r="D202" s="220"/>
-      <c r="E202" s="220"/>
-      <c r="F202" s="220"/>
-      <c r="G202" s="220"/>
-      <c r="H202" s="220"/>
-      <c r="I202" s="220"/>
-      <c r="J202" s="220"/>
-      <c r="K202" s="220"/>
-      <c r="L202" s="221"/>
+      <c r="C202" s="170"/>
+      <c r="D202" s="171"/>
+      <c r="E202" s="171"/>
+      <c r="F202" s="171"/>
+      <c r="G202" s="171"/>
+      <c r="H202" s="171"/>
+      <c r="I202" s="171"/>
+      <c r="J202" s="171"/>
+      <c r="K202" s="171"/>
+      <c r="L202" s="172"/>
       <c r="M202" s="2"/>
     </row>
     <row r="203" spans="2:13" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B203" s="21"/>
-      <c r="C203" s="219"/>
-      <c r="D203" s="220"/>
-      <c r="E203" s="220"/>
-      <c r="F203" s="220"/>
-      <c r="G203" s="220"/>
-      <c r="H203" s="220"/>
-      <c r="I203" s="220"/>
-      <c r="J203" s="220"/>
-      <c r="K203" s="220"/>
-      <c r="L203" s="221"/>
+      <c r="C203" s="170"/>
+      <c r="D203" s="171"/>
+      <c r="E203" s="171"/>
+      <c r="F203" s="171"/>
+      <c r="G203" s="171"/>
+      <c r="H203" s="171"/>
+      <c r="I203" s="171"/>
+      <c r="J203" s="171"/>
+      <c r="K203" s="171"/>
+      <c r="L203" s="172"/>
       <c r="M203" s="2"/>
     </row>
     <row r="204" spans="2:13" ht="35.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B204" s="21"/>
-      <c r="C204" s="219"/>
-      <c r="D204" s="220"/>
-      <c r="E204" s="220"/>
-      <c r="F204" s="220"/>
-      <c r="G204" s="220"/>
-      <c r="H204" s="220"/>
-      <c r="I204" s="220"/>
-      <c r="J204" s="220"/>
-      <c r="K204" s="220"/>
-      <c r="L204" s="221"/>
+      <c r="C204" s="170"/>
+      <c r="D204" s="171"/>
+      <c r="E204" s="171"/>
+      <c r="F204" s="171"/>
+      <c r="G204" s="171"/>
+      <c r="H204" s="171"/>
+      <c r="I204" s="171"/>
+      <c r="J204" s="171"/>
+      <c r="K204" s="171"/>
+      <c r="L204" s="172"/>
       <c r="M204" s="2"/>
     </row>
     <row r="205" spans="2:13" ht="39" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B205" s="21"/>
-      <c r="C205" s="222"/>
-      <c r="D205" s="223"/>
-      <c r="E205" s="223"/>
-      <c r="F205" s="223"/>
-      <c r="G205" s="223"/>
-      <c r="H205" s="223"/>
-      <c r="I205" s="223"/>
-      <c r="J205" s="223"/>
-      <c r="K205" s="223"/>
-      <c r="L205" s="224"/>
+      <c r="C205" s="173"/>
+      <c r="D205" s="174"/>
+      <c r="E205" s="174"/>
+      <c r="F205" s="174"/>
+      <c r="G205" s="174"/>
+      <c r="H205" s="174"/>
+      <c r="I205" s="174"/>
+      <c r="J205" s="174"/>
+      <c r="K205" s="174"/>
+      <c r="L205" s="175"/>
       <c r="M205" s="2"/>
     </row>
     <row r="206" spans="2:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -5751,46 +5751,46 @@
     </row>
     <row r="215" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B215" s="18"/>
-      <c r="C215" s="187" t="s">
+      <c r="C215" s="210" t="s">
         <v>292</v>
       </c>
-      <c r="D215" s="188"/>
-      <c r="E215" s="188"/>
-      <c r="F215" s="188"/>
-      <c r="G215" s="188"/>
-      <c r="H215" s="188"/>
-      <c r="I215" s="188"/>
-      <c r="J215" s="188"/>
-      <c r="K215" s="188"/>
-      <c r="L215" s="189"/>
+      <c r="D215" s="211"/>
+      <c r="E215" s="211"/>
+      <c r="F215" s="211"/>
+      <c r="G215" s="211"/>
+      <c r="H215" s="211"/>
+      <c r="I215" s="211"/>
+      <c r="J215" s="211"/>
+      <c r="K215" s="211"/>
+      <c r="L215" s="212"/>
       <c r="M215" s="34"/>
     </row>
     <row r="216" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B216" s="18"/>
-      <c r="C216" s="190"/>
-      <c r="D216" s="191"/>
-      <c r="E216" s="191"/>
-      <c r="F216" s="191"/>
-      <c r="G216" s="191"/>
-      <c r="H216" s="191"/>
-      <c r="I216" s="191"/>
-      <c r="J216" s="191"/>
-      <c r="K216" s="191"/>
-      <c r="L216" s="192"/>
+      <c r="C216" s="213"/>
+      <c r="D216" s="214"/>
+      <c r="E216" s="214"/>
+      <c r="F216" s="214"/>
+      <c r="G216" s="214"/>
+      <c r="H216" s="214"/>
+      <c r="I216" s="214"/>
+      <c r="J216" s="214"/>
+      <c r="K216" s="214"/>
+      <c r="L216" s="215"/>
       <c r="M216" s="60"/>
     </row>
     <row r="217" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B217" s="18"/>
-      <c r="C217" s="193"/>
-      <c r="D217" s="194"/>
-      <c r="E217" s="194"/>
-      <c r="F217" s="194"/>
-      <c r="G217" s="194"/>
-      <c r="H217" s="194"/>
-      <c r="I217" s="194"/>
-      <c r="J217" s="194"/>
-      <c r="K217" s="194"/>
-      <c r="L217" s="195"/>
+      <c r="C217" s="216"/>
+      <c r="D217" s="217"/>
+      <c r="E217" s="217"/>
+      <c r="F217" s="217"/>
+      <c r="G217" s="217"/>
+      <c r="H217" s="217"/>
+      <c r="I217" s="217"/>
+      <c r="J217" s="217"/>
+      <c r="K217" s="217"/>
+      <c r="L217" s="218"/>
       <c r="M217" s="60"/>
     </row>
     <row r="218" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
@@ -5823,10 +5823,10 @@
     </row>
     <row r="220" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B220" s="18"/>
-      <c r="C220" s="203" t="s">
+      <c r="C220" s="150" t="s">
         <v>122</v>
       </c>
-      <c r="D220" s="203"/>
+      <c r="D220" s="150"/>
       <c r="E220" s="82"/>
       <c r="F220" s="79"/>
       <c r="G220" s="13"/>
@@ -5943,18 +5943,18 @@
     </row>
     <row r="228" spans="2:14" ht="49.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B228" s="18"/>
-      <c r="C228" s="210" t="s">
+      <c r="C228" s="182" t="s">
         <v>291</v>
       </c>
-      <c r="D228" s="211"/>
-      <c r="E228" s="211"/>
-      <c r="F228" s="211"/>
-      <c r="G228" s="211"/>
-      <c r="H228" s="211"/>
-      <c r="I228" s="211"/>
-      <c r="J228" s="211"/>
-      <c r="K228" s="211"/>
-      <c r="L228" s="212"/>
+      <c r="D228" s="183"/>
+      <c r="E228" s="183"/>
+      <c r="F228" s="183"/>
+      <c r="G228" s="183"/>
+      <c r="H228" s="183"/>
+      <c r="I228" s="183"/>
+      <c r="J228" s="183"/>
+      <c r="K228" s="183"/>
+      <c r="L228" s="184"/>
     </row>
     <row r="229" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B229" s="18"/>
@@ -6056,48 +6056,48 @@
     </row>
     <row r="236" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B236" s="18"/>
-      <c r="C236" s="240" t="s">
+      <c r="C236" s="158" t="s">
         <v>129</v>
       </c>
-      <c r="D236" s="241"/>
-      <c r="E236" s="241"/>
-      <c r="F236" s="241"/>
-      <c r="G236" s="241"/>
-      <c r="H236" s="241"/>
-      <c r="I236" s="241"/>
-      <c r="J236" s="241"/>
-      <c r="K236" s="241"/>
-      <c r="L236" s="242"/>
+      <c r="D236" s="159"/>
+      <c r="E236" s="159"/>
+      <c r="F236" s="159"/>
+      <c r="G236" s="159"/>
+      <c r="H236" s="159"/>
+      <c r="I236" s="159"/>
+      <c r="J236" s="159"/>
+      <c r="K236" s="159"/>
+      <c r="L236" s="160"/>
       <c r="M236" s="34"/>
       <c r="N236" s="2"/>
     </row>
     <row r="237" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B237" s="18"/>
-      <c r="C237" s="243"/>
-      <c r="D237" s="244"/>
-      <c r="E237" s="244"/>
-      <c r="F237" s="244"/>
-      <c r="G237" s="244"/>
-      <c r="H237" s="244"/>
-      <c r="I237" s="244"/>
-      <c r="J237" s="244"/>
-      <c r="K237" s="244"/>
-      <c r="L237" s="245"/>
+      <c r="C237" s="161"/>
+      <c r="D237" s="162"/>
+      <c r="E237" s="162"/>
+      <c r="F237" s="162"/>
+      <c r="G237" s="162"/>
+      <c r="H237" s="162"/>
+      <c r="I237" s="162"/>
+      <c r="J237" s="162"/>
+      <c r="K237" s="162"/>
+      <c r="L237" s="163"/>
       <c r="M237" s="60"/>
       <c r="N237" s="2"/>
     </row>
     <row r="238" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B238" s="18"/>
-      <c r="C238" s="246"/>
-      <c r="D238" s="247"/>
-      <c r="E238" s="247"/>
-      <c r="F238" s="247"/>
-      <c r="G238" s="247"/>
-      <c r="H238" s="247"/>
-      <c r="I238" s="247"/>
-      <c r="J238" s="247"/>
-      <c r="K238" s="247"/>
-      <c r="L238" s="248"/>
+      <c r="C238" s="164"/>
+      <c r="D238" s="165"/>
+      <c r="E238" s="165"/>
+      <c r="F238" s="165"/>
+      <c r="G238" s="165"/>
+      <c r="H238" s="165"/>
+      <c r="I238" s="165"/>
+      <c r="J238" s="165"/>
+      <c r="K238" s="165"/>
+      <c r="L238" s="166"/>
       <c r="M238" s="60"/>
       <c r="N238" s="2"/>
     </row>
@@ -6205,33 +6205,33 @@
     </row>
     <row r="246" spans="2:12" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B246" s="18"/>
-      <c r="C246" s="257" t="s">
+      <c r="C246" s="153" t="s">
         <v>269</v>
       </c>
-      <c r="D246" s="257"/>
-      <c r="E246" s="257"/>
-      <c r="F246" s="257"/>
-      <c r="G246" s="257"/>
-      <c r="H246" s="257"/>
-      <c r="I246" s="257"/>
-      <c r="J246" s="257"/>
-      <c r="K246" s="257"/>
-      <c r="L246" s="257"/>
+      <c r="D246" s="153"/>
+      <c r="E246" s="153"/>
+      <c r="F246" s="153"/>
+      <c r="G246" s="153"/>
+      <c r="H246" s="153"/>
+      <c r="I246" s="153"/>
+      <c r="J246" s="153"/>
+      <c r="K246" s="153"/>
+      <c r="L246" s="153"/>
     </row>
     <row r="247" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B247" s="18"/>
-      <c r="C247" s="257" t="s">
+      <c r="C247" s="153" t="s">
         <v>133</v>
       </c>
-      <c r="D247" s="257"/>
-      <c r="E247" s="257"/>
-      <c r="F247" s="257"/>
-      <c r="G247" s="257"/>
-      <c r="H247" s="257"/>
-      <c r="I247" s="257"/>
-      <c r="J247" s="257"/>
-      <c r="K247" s="257"/>
-      <c r="L247" s="257"/>
+      <c r="D247" s="153"/>
+      <c r="E247" s="153"/>
+      <c r="F247" s="153"/>
+      <c r="G247" s="153"/>
+      <c r="H247" s="153"/>
+      <c r="I247" s="153"/>
+      <c r="J247" s="153"/>
+      <c r="K247" s="153"/>
+      <c r="L247" s="153"/>
     </row>
     <row r="248" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B248" s="18"/>
@@ -6424,78 +6424,78 @@
     </row>
     <row r="261" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B261" s="18"/>
-      <c r="C261" s="216" t="s">
+      <c r="C261" s="167" t="s">
         <v>304</v>
       </c>
-      <c r="D261" s="217"/>
-      <c r="E261" s="217"/>
-      <c r="F261" s="217"/>
-      <c r="G261" s="217"/>
-      <c r="H261" s="217"/>
-      <c r="I261" s="217"/>
-      <c r="J261" s="217"/>
-      <c r="K261" s="217"/>
-      <c r="L261" s="218"/>
+      <c r="D261" s="168"/>
+      <c r="E261" s="168"/>
+      <c r="F261" s="168"/>
+      <c r="G261" s="168"/>
+      <c r="H261" s="168"/>
+      <c r="I261" s="168"/>
+      <c r="J261" s="168"/>
+      <c r="K261" s="168"/>
+      <c r="L261" s="169"/>
       <c r="M261" s="34"/>
       <c r="N261" s="2"/>
     </row>
     <row r="262" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B262" s="18"/>
-      <c r="C262" s="219"/>
-      <c r="D262" s="220"/>
-      <c r="E262" s="220"/>
-      <c r="F262" s="220"/>
-      <c r="G262" s="220"/>
-      <c r="H262" s="220"/>
-      <c r="I262" s="220"/>
-      <c r="J262" s="220"/>
-      <c r="K262" s="220"/>
-      <c r="L262" s="221"/>
+      <c r="C262" s="170"/>
+      <c r="D262" s="171"/>
+      <c r="E262" s="171"/>
+      <c r="F262" s="171"/>
+      <c r="G262" s="171"/>
+      <c r="H262" s="171"/>
+      <c r="I262" s="171"/>
+      <c r="J262" s="171"/>
+      <c r="K262" s="171"/>
+      <c r="L262" s="172"/>
       <c r="M262" s="60"/>
       <c r="N262" s="2"/>
     </row>
     <row r="263" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B263" s="18"/>
-      <c r="C263" s="219"/>
-      <c r="D263" s="220"/>
-      <c r="E263" s="220"/>
-      <c r="F263" s="220"/>
-      <c r="G263" s="220"/>
-      <c r="H263" s="220"/>
-      <c r="I263" s="220"/>
-      <c r="J263" s="220"/>
-      <c r="K263" s="220"/>
-      <c r="L263" s="221"/>
+      <c r="C263" s="170"/>
+      <c r="D263" s="171"/>
+      <c r="E263" s="171"/>
+      <c r="F263" s="171"/>
+      <c r="G263" s="171"/>
+      <c r="H263" s="171"/>
+      <c r="I263" s="171"/>
+      <c r="J263" s="171"/>
+      <c r="K263" s="171"/>
+      <c r="L263" s="172"/>
       <c r="M263" s="60"/>
       <c r="N263" s="2"/>
     </row>
     <row r="264" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B264" s="18"/>
-      <c r="C264" s="219"/>
-      <c r="D264" s="220"/>
-      <c r="E264" s="220"/>
-      <c r="F264" s="220"/>
-      <c r="G264" s="220"/>
-      <c r="H264" s="220"/>
-      <c r="I264" s="220"/>
-      <c r="J264" s="220"/>
-      <c r="K264" s="220"/>
-      <c r="L264" s="221"/>
+      <c r="C264" s="170"/>
+      <c r="D264" s="171"/>
+      <c r="E264" s="171"/>
+      <c r="F264" s="171"/>
+      <c r="G264" s="171"/>
+      <c r="H264" s="171"/>
+      <c r="I264" s="171"/>
+      <c r="J264" s="171"/>
+      <c r="K264" s="171"/>
+      <c r="L264" s="172"/>
       <c r="M264" s="60"/>
       <c r="N264" s="2"/>
     </row>
     <row r="265" spans="2:14" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B265" s="18"/>
-      <c r="C265" s="222"/>
-      <c r="D265" s="223"/>
-      <c r="E265" s="223"/>
-      <c r="F265" s="223"/>
-      <c r="G265" s="223"/>
-      <c r="H265" s="223"/>
-      <c r="I265" s="223"/>
-      <c r="J265" s="223"/>
-      <c r="K265" s="223"/>
-      <c r="L265" s="224"/>
+      <c r="C265" s="173"/>
+      <c r="D265" s="174"/>
+      <c r="E265" s="174"/>
+      <c r="F265" s="174"/>
+      <c r="G265" s="174"/>
+      <c r="H265" s="174"/>
+      <c r="I265" s="174"/>
+      <c r="J265" s="174"/>
+      <c r="K265" s="174"/>
+      <c r="L265" s="175"/>
       <c r="M265" s="60"/>
       <c r="N265" s="2"/>
     </row>
@@ -6548,27 +6548,27 @@
     </row>
     <row r="269" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B269" s="18"/>
-      <c r="C269" s="169" t="s">
+      <c r="C269" s="154" t="s">
         <v>253</v>
       </c>
-      <c r="D269" s="169"/>
-      <c r="E269" s="165" t="s">
+      <c r="D269" s="154"/>
+      <c r="E269" s="177" t="s">
         <v>141</v>
       </c>
-      <c r="F269" s="166"/>
-      <c r="G269" s="166"/>
-      <c r="H269" s="166"/>
-      <c r="I269" s="166"/>
-      <c r="J269" s="166"/>
-      <c r="K269" s="166"/>
-      <c r="L269" s="167"/>
+      <c r="F269" s="178"/>
+      <c r="G269" s="178"/>
+      <c r="H269" s="178"/>
+      <c r="I269" s="178"/>
+      <c r="J269" s="178"/>
+      <c r="K269" s="178"/>
+      <c r="L269" s="179"/>
       <c r="M269" s="34"/>
       <c r="N269" s="2"/>
     </row>
     <row r="270" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B270" s="18"/>
-      <c r="C270" s="256"/>
-      <c r="D270" s="256"/>
+      <c r="C270" s="152"/>
+      <c r="D270" s="152"/>
       <c r="E270" s="71"/>
       <c r="F270" s="73"/>
       <c r="G270" s="73"/>
@@ -6582,8 +6582,8 @@
     </row>
     <row r="271" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B271" s="18"/>
-      <c r="C271" s="256"/>
-      <c r="D271" s="256"/>
+      <c r="C271" s="152"/>
+      <c r="D271" s="152"/>
       <c r="E271" s="71"/>
       <c r="F271" s="73"/>
       <c r="G271" s="73"/>
@@ -6597,8 +6597,8 @@
     </row>
     <row r="272" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B272" s="18"/>
-      <c r="C272" s="256"/>
-      <c r="D272" s="256"/>
+      <c r="C272" s="152"/>
+      <c r="D272" s="152"/>
       <c r="E272" s="71"/>
       <c r="F272" s="73"/>
       <c r="G272" s="73"/>
@@ -6612,8 +6612,8 @@
     </row>
     <row r="273" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B273" s="18"/>
-      <c r="C273" s="256"/>
-      <c r="D273" s="256"/>
+      <c r="C273" s="152"/>
+      <c r="D273" s="152"/>
       <c r="E273" s="71"/>
       <c r="F273" s="73"/>
       <c r="G273" s="73"/>
@@ -6674,78 +6674,78 @@
     </row>
     <row r="277" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B277" s="18"/>
-      <c r="C277" s="261" t="s">
+      <c r="C277" s="176" t="s">
         <v>302</v>
       </c>
-      <c r="D277" s="261"/>
-      <c r="E277" s="261"/>
-      <c r="F277" s="261"/>
-      <c r="G277" s="261"/>
-      <c r="H277" s="261"/>
-      <c r="I277" s="261"/>
-      <c r="J277" s="261"/>
-      <c r="K277" s="261"/>
-      <c r="L277" s="261"/>
+      <c r="D277" s="176"/>
+      <c r="E277" s="176"/>
+      <c r="F277" s="176"/>
+      <c r="G277" s="176"/>
+      <c r="H277" s="176"/>
+      <c r="I277" s="176"/>
+      <c r="J277" s="176"/>
+      <c r="K277" s="176"/>
+      <c r="L277" s="176"/>
       <c r="M277" s="34"/>
       <c r="N277" s="2"/>
     </row>
     <row r="278" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B278" s="18"/>
-      <c r="C278" s="261"/>
-      <c r="D278" s="261"/>
-      <c r="E278" s="261"/>
-      <c r="F278" s="261"/>
-      <c r="G278" s="261"/>
-      <c r="H278" s="261"/>
-      <c r="I278" s="261"/>
-      <c r="J278" s="261"/>
-      <c r="K278" s="261"/>
-      <c r="L278" s="261"/>
+      <c r="C278" s="176"/>
+      <c r="D278" s="176"/>
+      <c r="E278" s="176"/>
+      <c r="F278" s="176"/>
+      <c r="G278" s="176"/>
+      <c r="H278" s="176"/>
+      <c r="I278" s="176"/>
+      <c r="J278" s="176"/>
+      <c r="K278" s="176"/>
+      <c r="L278" s="176"/>
       <c r="M278" s="60"/>
       <c r="N278" s="2"/>
     </row>
     <row r="279" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B279" s="18"/>
-      <c r="C279" s="261"/>
-      <c r="D279" s="261"/>
-      <c r="E279" s="261"/>
-      <c r="F279" s="261"/>
-      <c r="G279" s="261"/>
-      <c r="H279" s="261"/>
-      <c r="I279" s="261"/>
-      <c r="J279" s="261"/>
-      <c r="K279" s="261"/>
-      <c r="L279" s="261"/>
+      <c r="C279" s="176"/>
+      <c r="D279" s="176"/>
+      <c r="E279" s="176"/>
+      <c r="F279" s="176"/>
+      <c r="G279" s="176"/>
+      <c r="H279" s="176"/>
+      <c r="I279" s="176"/>
+      <c r="J279" s="176"/>
+      <c r="K279" s="176"/>
+      <c r="L279" s="176"/>
       <c r="M279" s="60"/>
       <c r="N279" s="2"/>
     </row>
     <row r="280" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B280" s="18"/>
-      <c r="C280" s="261"/>
-      <c r="D280" s="261"/>
-      <c r="E280" s="261"/>
-      <c r="F280" s="261"/>
-      <c r="G280" s="261"/>
-      <c r="H280" s="261"/>
-      <c r="I280" s="261"/>
-      <c r="J280" s="261"/>
-      <c r="K280" s="261"/>
-      <c r="L280" s="261"/>
+      <c r="C280" s="176"/>
+      <c r="D280" s="176"/>
+      <c r="E280" s="176"/>
+      <c r="F280" s="176"/>
+      <c r="G280" s="176"/>
+      <c r="H280" s="176"/>
+      <c r="I280" s="176"/>
+      <c r="J280" s="176"/>
+      <c r="K280" s="176"/>
+      <c r="L280" s="176"/>
       <c r="M280" s="60"/>
       <c r="N280" s="2"/>
     </row>
     <row r="281" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B281" s="18"/>
-      <c r="C281" s="261"/>
-      <c r="D281" s="261"/>
-      <c r="E281" s="261"/>
-      <c r="F281" s="261"/>
-      <c r="G281" s="261"/>
-      <c r="H281" s="261"/>
-      <c r="I281" s="261"/>
-      <c r="J281" s="261"/>
-      <c r="K281" s="261"/>
-      <c r="L281" s="261"/>
+      <c r="C281" s="176"/>
+      <c r="D281" s="176"/>
+      <c r="E281" s="176"/>
+      <c r="F281" s="176"/>
+      <c r="G281" s="176"/>
+      <c r="H281" s="176"/>
+      <c r="I281" s="176"/>
+      <c r="J281" s="176"/>
+      <c r="K281" s="176"/>
+      <c r="L281" s="176"/>
       <c r="M281" s="60"/>
       <c r="N281" s="2"/>
     </row>
@@ -6798,12 +6798,12 @@
     </row>
     <row r="285" spans="2:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B285" s="18"/>
-      <c r="C285" s="203" t="s">
+      <c r="C285" s="150" t="s">
         <v>144</v>
       </c>
-      <c r="D285" s="203"/>
-      <c r="E285" s="203"/>
-      <c r="F285" s="236"/>
+      <c r="D285" s="150"/>
+      <c r="E285" s="150"/>
+      <c r="F285" s="151"/>
       <c r="G285" s="106"/>
       <c r="H285" s="25"/>
       <c r="I285" s="25"/>
@@ -6813,10 +6813,10 @@
     </row>
     <row r="286" spans="2:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B286" s="18"/>
-      <c r="C286" s="203"/>
-      <c r="D286" s="203"/>
-      <c r="E286" s="203"/>
-      <c r="F286" s="203"/>
+      <c r="C286" s="150"/>
+      <c r="D286" s="150"/>
+      <c r="E286" s="150"/>
+      <c r="F286" s="150"/>
       <c r="G286" s="13"/>
       <c r="H286" s="25"/>
       <c r="I286" s="25"/>
@@ -6826,12 +6826,12 @@
     </row>
     <row r="287" spans="2:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B287" s="18"/>
-      <c r="C287" s="203" t="s">
+      <c r="C287" s="150" t="s">
         <v>145</v>
       </c>
-      <c r="D287" s="203"/>
-      <c r="E287" s="203"/>
-      <c r="F287" s="236"/>
+      <c r="D287" s="150"/>
+      <c r="E287" s="150"/>
+      <c r="F287" s="151"/>
       <c r="G287" s="106"/>
       <c r="H287" s="18" t="s">
         <v>146</v>
@@ -6843,10 +6843,10 @@
     </row>
     <row r="288" spans="2:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B288" s="18"/>
-      <c r="C288" s="203"/>
-      <c r="D288" s="203"/>
-      <c r="E288" s="203"/>
-      <c r="F288" s="203"/>
+      <c r="C288" s="150"/>
+      <c r="D288" s="150"/>
+      <c r="E288" s="150"/>
+      <c r="F288" s="150"/>
       <c r="G288" s="13"/>
       <c r="H288" s="25"/>
       <c r="I288" s="25"/>
@@ -6856,12 +6856,12 @@
     </row>
     <row r="289" spans="2:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B289" s="18"/>
-      <c r="C289" s="203" t="s">
+      <c r="C289" s="150" t="s">
         <v>147</v>
       </c>
-      <c r="D289" s="203"/>
-      <c r="E289" s="203"/>
-      <c r="F289" s="236"/>
+      <c r="D289" s="150"/>
+      <c r="E289" s="150"/>
+      <c r="F289" s="151"/>
       <c r="G289" s="106"/>
       <c r="H289" s="25"/>
       <c r="I289" s="25"/>
@@ -6884,12 +6884,12 @@
     </row>
     <row r="291" spans="2:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B291" s="18"/>
-      <c r="C291" s="203" t="s">
+      <c r="C291" s="150" t="s">
         <v>148</v>
       </c>
-      <c r="D291" s="203"/>
-      <c r="E291" s="203"/>
-      <c r="F291" s="236"/>
+      <c r="D291" s="150"/>
+      <c r="E291" s="150"/>
+      <c r="F291" s="151"/>
       <c r="G291" s="106"/>
       <c r="H291" s="25"/>
       <c r="I291" s="25"/>
@@ -6912,12 +6912,12 @@
     </row>
     <row r="293" spans="2:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B293" s="18"/>
-      <c r="C293" s="203" t="s">
+      <c r="C293" s="150" t="s">
         <v>149</v>
       </c>
-      <c r="D293" s="203"/>
-      <c r="E293" s="203"/>
-      <c r="F293" s="236"/>
+      <c r="D293" s="150"/>
+      <c r="E293" s="150"/>
+      <c r="F293" s="151"/>
       <c r="G293" s="106"/>
       <c r="H293" s="25"/>
       <c r="I293" s="25"/>
@@ -7013,77 +7013,77 @@
     </row>
     <row r="300" spans="2:14" ht="6.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B300" s="18"/>
-      <c r="C300" s="216" t="s">
+      <c r="C300" s="167" t="s">
         <v>305</v>
       </c>
-      <c r="D300" s="217"/>
-      <c r="E300" s="217"/>
-      <c r="F300" s="217"/>
-      <c r="G300" s="217"/>
-      <c r="H300" s="217"/>
-      <c r="I300" s="217"/>
-      <c r="J300" s="217"/>
-      <c r="K300" s="217"/>
-      <c r="L300" s="218"/>
+      <c r="D300" s="168"/>
+      <c r="E300" s="168"/>
+      <c r="F300" s="168"/>
+      <c r="G300" s="168"/>
+      <c r="H300" s="168"/>
+      <c r="I300" s="168"/>
+      <c r="J300" s="168"/>
+      <c r="K300" s="168"/>
+      <c r="L300" s="169"/>
       <c r="M300" s="21"/>
     </row>
     <row r="301" spans="2:14" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B301" s="18"/>
-      <c r="C301" s="219"/>
-      <c r="D301" s="220"/>
-      <c r="E301" s="220"/>
-      <c r="F301" s="220"/>
-      <c r="G301" s="220"/>
-      <c r="H301" s="220"/>
-      <c r="I301" s="220"/>
-      <c r="J301" s="220"/>
-      <c r="K301" s="220"/>
-      <c r="L301" s="221"/>
+      <c r="C301" s="170"/>
+      <c r="D301" s="171"/>
+      <c r="E301" s="171"/>
+      <c r="F301" s="171"/>
+      <c r="G301" s="171"/>
+      <c r="H301" s="171"/>
+      <c r="I301" s="171"/>
+      <c r="J301" s="171"/>
+      <c r="K301" s="171"/>
+      <c r="L301" s="172"/>
       <c r="M301" s="60"/>
       <c r="N301" s="2"/>
     </row>
     <row r="302" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B302" s="18"/>
-      <c r="C302" s="219"/>
-      <c r="D302" s="220"/>
-      <c r="E302" s="220"/>
-      <c r="F302" s="220"/>
-      <c r="G302" s="220"/>
-      <c r="H302" s="220"/>
-      <c r="I302" s="220"/>
-      <c r="J302" s="220"/>
-      <c r="K302" s="220"/>
-      <c r="L302" s="221"/>
+      <c r="C302" s="170"/>
+      <c r="D302" s="171"/>
+      <c r="E302" s="171"/>
+      <c r="F302" s="171"/>
+      <c r="G302" s="171"/>
+      <c r="H302" s="171"/>
+      <c r="I302" s="171"/>
+      <c r="J302" s="171"/>
+      <c r="K302" s="171"/>
+      <c r="L302" s="172"/>
       <c r="M302" s="60"/>
       <c r="N302" s="2"/>
     </row>
     <row r="303" spans="2:14" ht="30.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B303" s="18"/>
-      <c r="C303" s="219"/>
-      <c r="D303" s="220"/>
-      <c r="E303" s="220"/>
-      <c r="F303" s="220"/>
-      <c r="G303" s="220"/>
-      <c r="H303" s="220"/>
-      <c r="I303" s="220"/>
-      <c r="J303" s="220"/>
-      <c r="K303" s="220"/>
-      <c r="L303" s="221"/>
+      <c r="C303" s="170"/>
+      <c r="D303" s="171"/>
+      <c r="E303" s="171"/>
+      <c r="F303" s="171"/>
+      <c r="G303" s="171"/>
+      <c r="H303" s="171"/>
+      <c r="I303" s="171"/>
+      <c r="J303" s="171"/>
+      <c r="K303" s="171"/>
+      <c r="L303" s="172"/>
       <c r="M303" s="60"/>
       <c r="N303" s="2"/>
     </row>
     <row r="304" spans="2:14" ht="119.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B304" s="18"/>
-      <c r="C304" s="222"/>
-      <c r="D304" s="223"/>
-      <c r="E304" s="223"/>
-      <c r="F304" s="223"/>
-      <c r="G304" s="223"/>
-      <c r="H304" s="223"/>
-      <c r="I304" s="223"/>
-      <c r="J304" s="223"/>
-      <c r="K304" s="223"/>
-      <c r="L304" s="224"/>
+      <c r="C304" s="173"/>
+      <c r="D304" s="174"/>
+      <c r="E304" s="174"/>
+      <c r="F304" s="174"/>
+      <c r="G304" s="174"/>
+      <c r="H304" s="174"/>
+      <c r="I304" s="174"/>
+      <c r="J304" s="174"/>
+      <c r="K304" s="174"/>
+      <c r="L304" s="175"/>
       <c r="M304" s="60"/>
       <c r="N304" s="2"/>
     </row>
@@ -7120,78 +7120,78 @@
     </row>
     <row r="307" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B307" s="18"/>
-      <c r="C307" s="216" t="s">
+      <c r="C307" s="167" t="s">
         <v>293</v>
       </c>
-      <c r="D307" s="217"/>
-      <c r="E307" s="217"/>
-      <c r="F307" s="217"/>
-      <c r="G307" s="217"/>
-      <c r="H307" s="217"/>
-      <c r="I307" s="217"/>
-      <c r="J307" s="217"/>
-      <c r="K307" s="217"/>
-      <c r="L307" s="218"/>
+      <c r="D307" s="168"/>
+      <c r="E307" s="168"/>
+      <c r="F307" s="168"/>
+      <c r="G307" s="168"/>
+      <c r="H307" s="168"/>
+      <c r="I307" s="168"/>
+      <c r="J307" s="168"/>
+      <c r="K307" s="168"/>
+      <c r="L307" s="169"/>
       <c r="M307" s="34"/>
       <c r="N307" s="2"/>
     </row>
     <row r="308" spans="2:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B308" s="18"/>
-      <c r="C308" s="219"/>
-      <c r="D308" s="220"/>
-      <c r="E308" s="220"/>
-      <c r="F308" s="220"/>
-      <c r="G308" s="220"/>
-      <c r="H308" s="220"/>
-      <c r="I308" s="220"/>
-      <c r="J308" s="220"/>
-      <c r="K308" s="220"/>
-      <c r="L308" s="221"/>
+      <c r="C308" s="170"/>
+      <c r="D308" s="171"/>
+      <c r="E308" s="171"/>
+      <c r="F308" s="171"/>
+      <c r="G308" s="171"/>
+      <c r="H308" s="171"/>
+      <c r="I308" s="171"/>
+      <c r="J308" s="171"/>
+      <c r="K308" s="171"/>
+      <c r="L308" s="172"/>
       <c r="M308" s="60"/>
       <c r="N308" s="2"/>
     </row>
     <row r="309" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B309" s="18"/>
-      <c r="C309" s="219"/>
-      <c r="D309" s="220"/>
-      <c r="E309" s="220"/>
-      <c r="F309" s="220"/>
-      <c r="G309" s="220"/>
-      <c r="H309" s="220"/>
-      <c r="I309" s="220"/>
-      <c r="J309" s="220"/>
-      <c r="K309" s="220"/>
-      <c r="L309" s="221"/>
+      <c r="C309" s="170"/>
+      <c r="D309" s="171"/>
+      <c r="E309" s="171"/>
+      <c r="F309" s="171"/>
+      <c r="G309" s="171"/>
+      <c r="H309" s="171"/>
+      <c r="I309" s="171"/>
+      <c r="J309" s="171"/>
+      <c r="K309" s="171"/>
+      <c r="L309" s="172"/>
       <c r="M309" s="60"/>
       <c r="N309" s="2"/>
     </row>
     <row r="310" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B310" s="18"/>
-      <c r="C310" s="219"/>
-      <c r="D310" s="220"/>
-      <c r="E310" s="220"/>
-      <c r="F310" s="220"/>
-      <c r="G310" s="220"/>
-      <c r="H310" s="220"/>
-      <c r="I310" s="220"/>
-      <c r="J310" s="220"/>
-      <c r="K310" s="220"/>
-      <c r="L310" s="221"/>
+      <c r="C310" s="170"/>
+      <c r="D310" s="171"/>
+      <c r="E310" s="171"/>
+      <c r="F310" s="171"/>
+      <c r="G310" s="171"/>
+      <c r="H310" s="171"/>
+      <c r="I310" s="171"/>
+      <c r="J310" s="171"/>
+      <c r="K310" s="171"/>
+      <c r="L310" s="172"/>
       <c r="M310" s="60"/>
       <c r="N310" s="2"/>
     </row>
     <row r="311" spans="2:14" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B311" s="18"/>
-      <c r="C311" s="222"/>
-      <c r="D311" s="223"/>
-      <c r="E311" s="223"/>
-      <c r="F311" s="223"/>
-      <c r="G311" s="223"/>
-      <c r="H311" s="223"/>
-      <c r="I311" s="223"/>
-      <c r="J311" s="223"/>
-      <c r="K311" s="223"/>
-      <c r="L311" s="224"/>
+      <c r="C311" s="173"/>
+      <c r="D311" s="174"/>
+      <c r="E311" s="174"/>
+      <c r="F311" s="174"/>
+      <c r="G311" s="174"/>
+      <c r="H311" s="174"/>
+      <c r="I311" s="174"/>
+      <c r="J311" s="174"/>
+      <c r="K311" s="174"/>
+      <c r="L311" s="175"/>
       <c r="M311" s="60"/>
       <c r="N311" s="2"/>
     </row>
@@ -7361,78 +7361,78 @@
     </row>
     <row r="322" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B322" s="18"/>
-      <c r="C322" s="216" t="s">
+      <c r="C322" s="167" t="s">
         <v>294</v>
       </c>
-      <c r="D322" s="217"/>
-      <c r="E322" s="217"/>
-      <c r="F322" s="217"/>
-      <c r="G322" s="217"/>
-      <c r="H322" s="217"/>
-      <c r="I322" s="217"/>
-      <c r="J322" s="217"/>
-      <c r="K322" s="217"/>
-      <c r="L322" s="218"/>
+      <c r="D322" s="168"/>
+      <c r="E322" s="168"/>
+      <c r="F322" s="168"/>
+      <c r="G322" s="168"/>
+      <c r="H322" s="168"/>
+      <c r="I322" s="168"/>
+      <c r="J322" s="168"/>
+      <c r="K322" s="168"/>
+      <c r="L322" s="169"/>
       <c r="M322" s="34"/>
       <c r="N322" s="2"/>
     </row>
     <row r="323" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B323" s="18"/>
-      <c r="C323" s="219"/>
-      <c r="D323" s="220"/>
-      <c r="E323" s="220"/>
-      <c r="F323" s="220"/>
-      <c r="G323" s="220"/>
-      <c r="H323" s="220"/>
-      <c r="I323" s="220"/>
-      <c r="J323" s="220"/>
-      <c r="K323" s="220"/>
-      <c r="L323" s="221"/>
+      <c r="C323" s="170"/>
+      <c r="D323" s="171"/>
+      <c r="E323" s="171"/>
+      <c r="F323" s="171"/>
+      <c r="G323" s="171"/>
+      <c r="H323" s="171"/>
+      <c r="I323" s="171"/>
+      <c r="J323" s="171"/>
+      <c r="K323" s="171"/>
+      <c r="L323" s="172"/>
       <c r="M323" s="60"/>
       <c r="N323" s="2"/>
     </row>
     <row r="324" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B324" s="18"/>
-      <c r="C324" s="219"/>
-      <c r="D324" s="220"/>
-      <c r="E324" s="220"/>
-      <c r="F324" s="220"/>
-      <c r="G324" s="220"/>
-      <c r="H324" s="220"/>
-      <c r="I324" s="220"/>
-      <c r="J324" s="220"/>
-      <c r="K324" s="220"/>
-      <c r="L324" s="221"/>
+      <c r="C324" s="170"/>
+      <c r="D324" s="171"/>
+      <c r="E324" s="171"/>
+      <c r="F324" s="171"/>
+      <c r="G324" s="171"/>
+      <c r="H324" s="171"/>
+      <c r="I324" s="171"/>
+      <c r="J324" s="171"/>
+      <c r="K324" s="171"/>
+      <c r="L324" s="172"/>
       <c r="M324" s="60"/>
       <c r="N324" s="2"/>
     </row>
     <row r="325" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B325" s="18"/>
-      <c r="C325" s="219"/>
-      <c r="D325" s="220"/>
-      <c r="E325" s="220"/>
-      <c r="F325" s="220"/>
-      <c r="G325" s="220"/>
-      <c r="H325" s="220"/>
-      <c r="I325" s="220"/>
-      <c r="J325" s="220"/>
-      <c r="K325" s="220"/>
-      <c r="L325" s="221"/>
+      <c r="C325" s="170"/>
+      <c r="D325" s="171"/>
+      <c r="E325" s="171"/>
+      <c r="F325" s="171"/>
+      <c r="G325" s="171"/>
+      <c r="H325" s="171"/>
+      <c r="I325" s="171"/>
+      <c r="J325" s="171"/>
+      <c r="K325" s="171"/>
+      <c r="L325" s="172"/>
       <c r="M325" s="60"/>
       <c r="N325" s="2"/>
     </row>
     <row r="326" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B326" s="18"/>
-      <c r="C326" s="222"/>
-      <c r="D326" s="223"/>
-      <c r="E326" s="223"/>
-      <c r="F326" s="223"/>
-      <c r="G326" s="223"/>
-      <c r="H326" s="223"/>
-      <c r="I326" s="223"/>
-      <c r="J326" s="223"/>
-      <c r="K326" s="223"/>
-      <c r="L326" s="224"/>
+      <c r="C326" s="173"/>
+      <c r="D326" s="174"/>
+      <c r="E326" s="174"/>
+      <c r="F326" s="174"/>
+      <c r="G326" s="174"/>
+      <c r="H326" s="174"/>
+      <c r="I326" s="174"/>
+      <c r="J326" s="174"/>
+      <c r="K326" s="174"/>
+      <c r="L326" s="175"/>
       <c r="M326" s="60"/>
       <c r="N326" s="2"/>
     </row>
@@ -7453,18 +7453,18 @@
     </row>
     <row r="328" spans="2:14" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B328" s="18"/>
-      <c r="C328" s="239" t="s">
+      <c r="C328" s="195" t="s">
         <v>156</v>
       </c>
-      <c r="D328" s="239"/>
-      <c r="E328" s="239"/>
-      <c r="F328" s="239"/>
-      <c r="G328" s="239"/>
-      <c r="H328" s="239"/>
-      <c r="I328" s="239"/>
-      <c r="J328" s="239"/>
-      <c r="K328" s="239"/>
-      <c r="L328" s="239"/>
+      <c r="D328" s="195"/>
+      <c r="E328" s="195"/>
+      <c r="F328" s="195"/>
+      <c r="G328" s="195"/>
+      <c r="H328" s="195"/>
+      <c r="I328" s="195"/>
+      <c r="J328" s="195"/>
+      <c r="K328" s="195"/>
+      <c r="L328" s="195"/>
       <c r="M328" s="20"/>
       <c r="N328" s="2"/>
     </row>
@@ -7572,74 +7572,74 @@
     </row>
     <row r="336" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B336" s="18"/>
-      <c r="C336" s="240" t="s">
+      <c r="C336" s="158" t="s">
         <v>252</v>
       </c>
-      <c r="D336" s="241"/>
-      <c r="E336" s="241"/>
-      <c r="F336" s="241"/>
-      <c r="G336" s="241"/>
-      <c r="H336" s="241"/>
-      <c r="I336" s="241"/>
-      <c r="J336" s="241"/>
-      <c r="K336" s="241"/>
-      <c r="L336" s="242"/>
+      <c r="D336" s="159"/>
+      <c r="E336" s="159"/>
+      <c r="F336" s="159"/>
+      <c r="G336" s="159"/>
+      <c r="H336" s="159"/>
+      <c r="I336" s="159"/>
+      <c r="J336" s="159"/>
+      <c r="K336" s="159"/>
+      <c r="L336" s="160"/>
       <c r="M336" s="34"/>
     </row>
     <row r="337" spans="2:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B337" s="18"/>
-      <c r="C337" s="243"/>
-      <c r="D337" s="244"/>
-      <c r="E337" s="244"/>
-      <c r="F337" s="244"/>
-      <c r="G337" s="244"/>
-      <c r="H337" s="244"/>
-      <c r="I337" s="244"/>
-      <c r="J337" s="244"/>
-      <c r="K337" s="244"/>
-      <c r="L337" s="245"/>
+      <c r="C337" s="161"/>
+      <c r="D337" s="162"/>
+      <c r="E337" s="162"/>
+      <c r="F337" s="162"/>
+      <c r="G337" s="162"/>
+      <c r="H337" s="162"/>
+      <c r="I337" s="162"/>
+      <c r="J337" s="162"/>
+      <c r="K337" s="162"/>
+      <c r="L337" s="163"/>
       <c r="M337" s="60"/>
     </row>
     <row r="338" spans="2:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B338" s="18"/>
-      <c r="C338" s="243"/>
-      <c r="D338" s="244"/>
-      <c r="E338" s="244"/>
-      <c r="F338" s="244"/>
-      <c r="G338" s="244"/>
-      <c r="H338" s="244"/>
-      <c r="I338" s="244"/>
-      <c r="J338" s="244"/>
-      <c r="K338" s="244"/>
-      <c r="L338" s="245"/>
+      <c r="C338" s="161"/>
+      <c r="D338" s="162"/>
+      <c r="E338" s="162"/>
+      <c r="F338" s="162"/>
+      <c r="G338" s="162"/>
+      <c r="H338" s="162"/>
+      <c r="I338" s="162"/>
+      <c r="J338" s="162"/>
+      <c r="K338" s="162"/>
+      <c r="L338" s="163"/>
       <c r="M338" s="60"/>
     </row>
     <row r="339" spans="2:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B339" s="18"/>
-      <c r="C339" s="243"/>
-      <c r="D339" s="244"/>
-      <c r="E339" s="244"/>
-      <c r="F339" s="244"/>
-      <c r="G339" s="244"/>
-      <c r="H339" s="244"/>
-      <c r="I339" s="244"/>
-      <c r="J339" s="244"/>
-      <c r="K339" s="244"/>
-      <c r="L339" s="245"/>
+      <c r="C339" s="161"/>
+      <c r="D339" s="162"/>
+      <c r="E339" s="162"/>
+      <c r="F339" s="162"/>
+      <c r="G339" s="162"/>
+      <c r="H339" s="162"/>
+      <c r="I339" s="162"/>
+      <c r="J339" s="162"/>
+      <c r="K339" s="162"/>
+      <c r="L339" s="163"/>
       <c r="M339" s="60"/>
     </row>
     <row r="340" spans="2:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B340" s="18"/>
-      <c r="C340" s="246"/>
-      <c r="D340" s="247"/>
-      <c r="E340" s="247"/>
-      <c r="F340" s="247"/>
-      <c r="G340" s="247"/>
-      <c r="H340" s="247"/>
-      <c r="I340" s="247"/>
-      <c r="J340" s="247"/>
-      <c r="K340" s="247"/>
-      <c r="L340" s="248"/>
+      <c r="C340" s="164"/>
+      <c r="D340" s="165"/>
+      <c r="E340" s="165"/>
+      <c r="F340" s="165"/>
+      <c r="G340" s="165"/>
+      <c r="H340" s="165"/>
+      <c r="I340" s="165"/>
+      <c r="J340" s="165"/>
+      <c r="K340" s="165"/>
+      <c r="L340" s="166"/>
       <c r="M340" s="60"/>
     </row>
     <row r="341" spans="2:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -7658,18 +7658,18 @@
     </row>
     <row r="342" spans="2:13" ht="39" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B342" s="18"/>
-      <c r="C342" s="239" t="s">
+      <c r="C342" s="195" t="s">
         <v>251</v>
       </c>
-      <c r="D342" s="239"/>
-      <c r="E342" s="239"/>
-      <c r="F342" s="239"/>
-      <c r="G342" s="239"/>
-      <c r="H342" s="239"/>
-      <c r="I342" s="239"/>
-      <c r="J342" s="239"/>
-      <c r="K342" s="239"/>
-      <c r="L342" s="239"/>
+      <c r="D342" s="195"/>
+      <c r="E342" s="195"/>
+      <c r="F342" s="195"/>
+      <c r="G342" s="195"/>
+      <c r="H342" s="195"/>
+      <c r="I342" s="195"/>
+      <c r="J342" s="195"/>
+      <c r="K342" s="195"/>
+      <c r="L342" s="195"/>
       <c r="M342" s="60"/>
     </row>
     <row r="343" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
@@ -7715,12 +7715,12 @@
     </row>
     <row r="346" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B346" s="18"/>
-      <c r="C346" s="238" t="s">
+      <c r="C346" s="192" t="s">
         <v>162</v>
       </c>
-      <c r="D346" s="238"/>
-      <c r="E346" s="238"/>
-      <c r="F346" s="238"/>
+      <c r="D346" s="192"/>
+      <c r="E346" s="192"/>
+      <c r="F346" s="192"/>
       <c r="H346" s="106"/>
       <c r="I346" s="25"/>
       <c r="J346" s="25"/>
@@ -7741,12 +7741,12 @@
     </row>
     <row r="348" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B348" s="18"/>
-      <c r="C348" s="238" t="s">
+      <c r="C348" s="192" t="s">
         <v>163</v>
       </c>
-      <c r="D348" s="238"/>
-      <c r="E348" s="238"/>
-      <c r="F348" s="238"/>
+      <c r="D348" s="192"/>
+      <c r="E348" s="192"/>
+      <c r="F348" s="192"/>
       <c r="H348" s="106"/>
       <c r="I348" s="18" t="s">
         <v>164</v>
@@ -7769,13 +7769,13 @@
     </row>
     <row r="350" spans="2:13" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B350" s="18"/>
-      <c r="C350" s="238" t="s">
+      <c r="C350" s="192" t="s">
         <v>165</v>
       </c>
-      <c r="D350" s="238"/>
-      <c r="E350" s="238"/>
-      <c r="F350" s="238"/>
-      <c r="G350" s="236"/>
+      <c r="D350" s="192"/>
+      <c r="E350" s="192"/>
+      <c r="F350" s="192"/>
+      <c r="G350" s="151"/>
       <c r="H350" s="106"/>
       <c r="I350" s="25"/>
       <c r="J350" s="25"/>
@@ -7796,13 +7796,13 @@
     </row>
     <row r="352" spans="2:13" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B352" s="18"/>
-      <c r="C352" s="238" t="s">
+      <c r="C352" s="192" t="s">
         <v>166</v>
       </c>
-      <c r="D352" s="238"/>
-      <c r="E352" s="238"/>
-      <c r="F352" s="238"/>
-      <c r="G352" s="236"/>
+      <c r="D352" s="192"/>
+      <c r="E352" s="192"/>
+      <c r="F352" s="192"/>
+      <c r="G352" s="151"/>
       <c r="H352" s="106"/>
       <c r="I352" s="25"/>
       <c r="J352" s="25"/>
@@ -7823,13 +7823,13 @@
     </row>
     <row r="354" spans="2:14" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B354" s="18"/>
-      <c r="C354" s="238" t="s">
+      <c r="C354" s="192" t="s">
         <v>167</v>
       </c>
-      <c r="D354" s="238"/>
-      <c r="E354" s="238"/>
-      <c r="F354" s="238"/>
-      <c r="G354" s="236"/>
+      <c r="D354" s="192"/>
+      <c r="E354" s="192"/>
+      <c r="F354" s="192"/>
+      <c r="G354" s="151"/>
       <c r="H354" s="106"/>
       <c r="I354" s="25"/>
       <c r="J354" s="25"/>
@@ -7896,78 +7896,78 @@
     </row>
     <row r="359" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B359" s="18"/>
-      <c r="C359" s="216" t="s">
+      <c r="C359" s="167" t="s">
         <v>295</v>
       </c>
-      <c r="D359" s="217"/>
-      <c r="E359" s="217"/>
-      <c r="F359" s="217"/>
-      <c r="G359" s="217"/>
-      <c r="H359" s="217"/>
-      <c r="I359" s="217"/>
-      <c r="J359" s="217"/>
-      <c r="K359" s="217"/>
-      <c r="L359" s="218"/>
+      <c r="D359" s="168"/>
+      <c r="E359" s="168"/>
+      <c r="F359" s="168"/>
+      <c r="G359" s="168"/>
+      <c r="H359" s="168"/>
+      <c r="I359" s="168"/>
+      <c r="J359" s="168"/>
+      <c r="K359" s="168"/>
+      <c r="L359" s="169"/>
       <c r="M359" s="34"/>
       <c r="N359" s="2"/>
     </row>
     <row r="360" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B360" s="18"/>
-      <c r="C360" s="219"/>
-      <c r="D360" s="220"/>
-      <c r="E360" s="220"/>
-      <c r="F360" s="220"/>
-      <c r="G360" s="220"/>
-      <c r="H360" s="220"/>
-      <c r="I360" s="220"/>
-      <c r="J360" s="220"/>
-      <c r="K360" s="220"/>
-      <c r="L360" s="221"/>
+      <c r="C360" s="170"/>
+      <c r="D360" s="171"/>
+      <c r="E360" s="171"/>
+      <c r="F360" s="171"/>
+      <c r="G360" s="171"/>
+      <c r="H360" s="171"/>
+      <c r="I360" s="171"/>
+      <c r="J360" s="171"/>
+      <c r="K360" s="171"/>
+      <c r="L360" s="172"/>
       <c r="M360" s="60"/>
       <c r="N360" s="2"/>
     </row>
     <row r="361" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B361" s="18"/>
-      <c r="C361" s="219"/>
-      <c r="D361" s="220"/>
-      <c r="E361" s="220"/>
-      <c r="F361" s="220"/>
-      <c r="G361" s="220"/>
-      <c r="H361" s="220"/>
-      <c r="I361" s="220"/>
-      <c r="J361" s="220"/>
-      <c r="K361" s="220"/>
-      <c r="L361" s="221"/>
+      <c r="C361" s="170"/>
+      <c r="D361" s="171"/>
+      <c r="E361" s="171"/>
+      <c r="F361" s="171"/>
+      <c r="G361" s="171"/>
+      <c r="H361" s="171"/>
+      <c r="I361" s="171"/>
+      <c r="J361" s="171"/>
+      <c r="K361" s="171"/>
+      <c r="L361" s="172"/>
       <c r="M361" s="60"/>
       <c r="N361" s="2"/>
     </row>
     <row r="362" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B362" s="18"/>
-      <c r="C362" s="219"/>
-      <c r="D362" s="220"/>
-      <c r="E362" s="220"/>
-      <c r="F362" s="220"/>
-      <c r="G362" s="220"/>
-      <c r="H362" s="220"/>
-      <c r="I362" s="220"/>
-      <c r="J362" s="220"/>
-      <c r="K362" s="220"/>
-      <c r="L362" s="221"/>
+      <c r="C362" s="170"/>
+      <c r="D362" s="171"/>
+      <c r="E362" s="171"/>
+      <c r="F362" s="171"/>
+      <c r="G362" s="171"/>
+      <c r="H362" s="171"/>
+      <c r="I362" s="171"/>
+      <c r="J362" s="171"/>
+      <c r="K362" s="171"/>
+      <c r="L362" s="172"/>
       <c r="M362" s="60"/>
       <c r="N362" s="2"/>
     </row>
     <row r="363" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B363" s="18"/>
-      <c r="C363" s="222"/>
-      <c r="D363" s="223"/>
-      <c r="E363" s="223"/>
-      <c r="F363" s="223"/>
-      <c r="G363" s="223"/>
-      <c r="H363" s="223"/>
-      <c r="I363" s="223"/>
-      <c r="J363" s="223"/>
-      <c r="K363" s="223"/>
-      <c r="L363" s="224"/>
+      <c r="C363" s="173"/>
+      <c r="D363" s="174"/>
+      <c r="E363" s="174"/>
+      <c r="F363" s="174"/>
+      <c r="G363" s="174"/>
+      <c r="H363" s="174"/>
+      <c r="I363" s="174"/>
+      <c r="J363" s="174"/>
+      <c r="K363" s="174"/>
+      <c r="L363" s="175"/>
       <c r="M363" s="60"/>
       <c r="N363" s="2"/>
     </row>
@@ -8038,27 +8038,27 @@
     </row>
     <row r="368" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B368" s="18"/>
-      <c r="C368" s="249" t="s">
+      <c r="C368" s="196" t="s">
         <v>253</v>
       </c>
-      <c r="D368" s="250"/>
-      <c r="E368" s="155" t="s">
+      <c r="D368" s="197"/>
+      <c r="E368" s="193" t="s">
         <v>141</v>
       </c>
-      <c r="F368" s="251"/>
-      <c r="G368" s="251"/>
-      <c r="H368" s="251"/>
-      <c r="I368" s="251"/>
-      <c r="J368" s="251"/>
-      <c r="K368" s="251"/>
-      <c r="L368" s="156"/>
+      <c r="F368" s="198"/>
+      <c r="G368" s="198"/>
+      <c r="H368" s="198"/>
+      <c r="I368" s="198"/>
+      <c r="J368" s="198"/>
+      <c r="K368" s="198"/>
+      <c r="L368" s="194"/>
       <c r="M368" s="20"/>
       <c r="N368" s="2"/>
     </row>
     <row r="369" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B369" s="18"/>
-      <c r="C369" s="155"/>
-      <c r="D369" s="156"/>
+      <c r="C369" s="193"/>
+      <c r="D369" s="194"/>
       <c r="E369" s="71"/>
       <c r="F369" s="73"/>
       <c r="G369" s="73"/>
@@ -8072,18 +8072,18 @@
     </row>
     <row r="370" spans="2:14" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B370" s="18"/>
-      <c r="C370" s="237" t="s">
+      <c r="C370" s="191" t="s">
         <v>270</v>
       </c>
-      <c r="D370" s="237"/>
-      <c r="E370" s="237"/>
-      <c r="F370" s="237"/>
-      <c r="G370" s="237"/>
-      <c r="H370" s="237"/>
-      <c r="I370" s="237"/>
-      <c r="J370" s="237"/>
-      <c r="K370" s="237"/>
-      <c r="L370" s="237"/>
+      <c r="D370" s="191"/>
+      <c r="E370" s="191"/>
+      <c r="F370" s="191"/>
+      <c r="G370" s="191"/>
+      <c r="H370" s="191"/>
+      <c r="I370" s="191"/>
+      <c r="J370" s="191"/>
+      <c r="K370" s="191"/>
+      <c r="L370" s="191"/>
       <c r="M370" s="13"/>
       <c r="N370" s="2"/>
     </row>
@@ -8166,20 +8166,20 @@
       <c r="C376" s="75" t="s">
         <v>173</v>
       </c>
-      <c r="D376" s="154" t="s">
+      <c r="D376" s="251" t="s">
         <v>51</v>
       </c>
-      <c r="E376" s="154"/>
-      <c r="F376" s="153" t="s">
+      <c r="E376" s="251"/>
+      <c r="F376" s="252" t="s">
         <v>174</v>
       </c>
-      <c r="G376" s="153"/>
-      <c r="H376" s="153"/>
-      <c r="I376" s="153" t="s">
+      <c r="G376" s="252"/>
+      <c r="H376" s="252"/>
+      <c r="I376" s="252" t="s">
         <v>175</v>
       </c>
-      <c r="J376" s="153"/>
-      <c r="K376" s="153"/>
+      <c r="J376" s="252"/>
+      <c r="K376" s="252"/>
       <c r="L376" s="22"/>
       <c r="M376" s="18"/>
     </row>
@@ -8188,14 +8188,14 @@
       <c r="C377" s="75">
         <v>1</v>
       </c>
-      <c r="D377" s="154"/>
-      <c r="E377" s="154"/>
-      <c r="F377" s="153"/>
-      <c r="G377" s="153"/>
-      <c r="H377" s="153"/>
-      <c r="I377" s="153"/>
-      <c r="J377" s="153"/>
-      <c r="K377" s="153"/>
+      <c r="D377" s="251"/>
+      <c r="E377" s="251"/>
+      <c r="F377" s="252"/>
+      <c r="G377" s="252"/>
+      <c r="H377" s="252"/>
+      <c r="I377" s="252"/>
+      <c r="J377" s="252"/>
+      <c r="K377" s="252"/>
       <c r="L377" s="34"/>
       <c r="M377" s="76"/>
     </row>
@@ -8204,14 +8204,14 @@
       <c r="C378" s="75">
         <v>2</v>
       </c>
-      <c r="D378" s="154"/>
-      <c r="E378" s="154"/>
-      <c r="F378" s="153"/>
-      <c r="G378" s="153"/>
-      <c r="H378" s="153"/>
-      <c r="I378" s="153"/>
-      <c r="J378" s="153"/>
-      <c r="K378" s="153"/>
+      <c r="D378" s="251"/>
+      <c r="E378" s="251"/>
+      <c r="F378" s="252"/>
+      <c r="G378" s="252"/>
+      <c r="H378" s="252"/>
+      <c r="I378" s="252"/>
+      <c r="J378" s="252"/>
+      <c r="K378" s="252"/>
       <c r="L378" s="34"/>
       <c r="M378" s="34"/>
     </row>
@@ -8220,14 +8220,14 @@
       <c r="C379" s="75">
         <v>3</v>
       </c>
-      <c r="D379" s="154"/>
-      <c r="E379" s="154"/>
-      <c r="F379" s="153"/>
-      <c r="G379" s="153"/>
-      <c r="H379" s="153"/>
-      <c r="I379" s="153"/>
-      <c r="J379" s="153"/>
-      <c r="K379" s="153"/>
+      <c r="D379" s="251"/>
+      <c r="E379" s="251"/>
+      <c r="F379" s="252"/>
+      <c r="G379" s="252"/>
+      <c r="H379" s="252"/>
+      <c r="I379" s="252"/>
+      <c r="J379" s="252"/>
+      <c r="K379" s="252"/>
       <c r="L379" s="34"/>
       <c r="M379" s="34"/>
     </row>
@@ -8236,14 +8236,14 @@
       <c r="C380" s="75" t="s">
         <v>177</v>
       </c>
-      <c r="D380" s="154"/>
-      <c r="E380" s="154"/>
-      <c r="F380" s="153"/>
-      <c r="G380" s="153"/>
-      <c r="H380" s="153"/>
-      <c r="I380" s="153"/>
-      <c r="J380" s="153"/>
-      <c r="K380" s="153"/>
+      <c r="D380" s="251"/>
+      <c r="E380" s="251"/>
+      <c r="F380" s="252"/>
+      <c r="G380" s="252"/>
+      <c r="H380" s="252"/>
+      <c r="I380" s="252"/>
+      <c r="J380" s="252"/>
+      <c r="K380" s="252"/>
       <c r="L380" s="34"/>
       <c r="M380" s="34"/>
     </row>
@@ -8252,14 +8252,14 @@
       <c r="C381" s="75" t="s">
         <v>178</v>
       </c>
-      <c r="D381" s="154"/>
-      <c r="E381" s="154"/>
-      <c r="F381" s="153"/>
-      <c r="G381" s="153"/>
-      <c r="H381" s="153"/>
-      <c r="I381" s="153"/>
-      <c r="J381" s="153"/>
-      <c r="K381" s="153"/>
+      <c r="D381" s="251"/>
+      <c r="E381" s="251"/>
+      <c r="F381" s="252"/>
+      <c r="G381" s="252"/>
+      <c r="H381" s="252"/>
+      <c r="I381" s="252"/>
+      <c r="J381" s="252"/>
+      <c r="K381" s="252"/>
       <c r="L381" s="34"/>
       <c r="M381" s="34"/>
     </row>
@@ -8268,14 +8268,14 @@
       <c r="C382" s="75" t="s">
         <v>179</v>
       </c>
-      <c r="D382" s="154"/>
-      <c r="E382" s="154"/>
-      <c r="F382" s="153"/>
-      <c r="G382" s="153"/>
-      <c r="H382" s="153"/>
-      <c r="I382" s="153"/>
-      <c r="J382" s="153"/>
-      <c r="K382" s="153"/>
+      <c r="D382" s="251"/>
+      <c r="E382" s="251"/>
+      <c r="F382" s="252"/>
+      <c r="G382" s="252"/>
+      <c r="H382" s="252"/>
+      <c r="I382" s="252"/>
+      <c r="J382" s="252"/>
+      <c r="K382" s="252"/>
       <c r="L382" s="34"/>
       <c r="M382" s="34"/>
     </row>
@@ -8284,14 +8284,14 @@
       <c r="C383" s="75" t="s">
         <v>180</v>
       </c>
-      <c r="D383" s="154"/>
-      <c r="E383" s="154"/>
-      <c r="F383" s="153"/>
-      <c r="G383" s="153"/>
-      <c r="H383" s="153"/>
-      <c r="I383" s="153"/>
-      <c r="J383" s="153"/>
-      <c r="K383" s="153"/>
+      <c r="D383" s="251"/>
+      <c r="E383" s="251"/>
+      <c r="F383" s="252"/>
+      <c r="G383" s="252"/>
+      <c r="H383" s="252"/>
+      <c r="I383" s="252"/>
+      <c r="J383" s="252"/>
+      <c r="K383" s="252"/>
       <c r="L383" s="34"/>
       <c r="M383" s="34"/>
     </row>
@@ -8406,52 +8406,52 @@
     </row>
     <row r="393" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B393" s="18"/>
-      <c r="D393" s="154" t="s">
+      <c r="D393" s="251" t="s">
         <v>265</v>
       </c>
-      <c r="E393" s="154"/>
+      <c r="E393" s="251"/>
       <c r="J393" s="25"/>
       <c r="K393" s="25"/>
       <c r="L393" s="25"/>
     </row>
     <row r="394" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B394" s="18"/>
-      <c r="C394" s="169" t="s">
+      <c r="C394" s="154" t="s">
         <v>182</v>
       </c>
-      <c r="D394" s="169" t="s">
+      <c r="D394" s="154" t="s">
         <v>264</v>
       </c>
-      <c r="E394" s="169" t="s">
+      <c r="E394" s="154" t="s">
         <v>59</v>
       </c>
-      <c r="F394" s="169" t="s">
+      <c r="F394" s="154" t="s">
         <v>60</v>
       </c>
-      <c r="G394" s="170" t="s">
+      <c r="G394" s="253" t="s">
         <v>183</v>
       </c>
-      <c r="H394" s="170" t="s">
+      <c r="H394" s="253" t="s">
         <v>176</v>
       </c>
-      <c r="I394" s="170" t="s">
+      <c r="I394" s="253" t="s">
         <v>184</v>
       </c>
-      <c r="J394" s="153" t="s">
+      <c r="J394" s="252" t="s">
         <v>185</v>
       </c>
-      <c r="K394" s="153"/>
+      <c r="K394" s="252"/>
       <c r="L394" s="25"/>
     </row>
     <row r="395" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B395" s="18"/>
-      <c r="C395" s="169"/>
-      <c r="D395" s="169"/>
-      <c r="E395" s="169"/>
-      <c r="F395" s="169"/>
-      <c r="G395" s="171"/>
-      <c r="H395" s="171"/>
-      <c r="I395" s="171"/>
+      <c r="C395" s="154"/>
+      <c r="D395" s="154"/>
+      <c r="E395" s="154"/>
+      <c r="F395" s="154"/>
+      <c r="G395" s="254"/>
+      <c r="H395" s="254"/>
+      <c r="I395" s="254"/>
       <c r="J395" s="75" t="s">
         <v>186</v>
       </c>
@@ -8736,20 +8736,20 @@
     </row>
     <row r="415" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B415" s="18"/>
-      <c r="C415" s="165" t="s">
+      <c r="C415" s="177" t="s">
         <v>265</v>
       </c>
-      <c r="D415" s="167"/>
-      <c r="E415" s="165" t="s">
+      <c r="D415" s="179"/>
+      <c r="E415" s="177" t="s">
         <v>204</v>
       </c>
-      <c r="F415" s="166"/>
-      <c r="G415" s="166"/>
-      <c r="H415" s="166"/>
-      <c r="I415" s="166"/>
-      <c r="J415" s="166"/>
-      <c r="K415" s="167"/>
-      <c r="L415" s="170" t="s">
+      <c r="F415" s="178"/>
+      <c r="G415" s="178"/>
+      <c r="H415" s="178"/>
+      <c r="I415" s="178"/>
+      <c r="J415" s="178"/>
+      <c r="K415" s="179"/>
+      <c r="L415" s="253" t="s">
         <v>205</v>
       </c>
     </row>
@@ -8782,7 +8782,7 @@
       <c r="K416" s="75" t="s">
         <v>180</v>
       </c>
-      <c r="L416" s="171"/>
+      <c r="L416" s="254"/>
     </row>
     <row r="417" spans="2:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B417" s="20"/>
@@ -9013,22 +9013,22 @@
     </row>
     <row r="432" spans="2:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B432" s="20"/>
-      <c r="C432" s="165" t="s">
+      <c r="C432" s="177" t="s">
         <v>265</v>
       </c>
-      <c r="D432" s="167"/>
-      <c r="E432" s="176" t="s">
+      <c r="D432" s="179"/>
+      <c r="E432" s="255" t="s">
         <v>214</v>
       </c>
-      <c r="F432" s="165" t="s">
+      <c r="F432" s="177" t="s">
         <v>204</v>
       </c>
-      <c r="G432" s="166"/>
-      <c r="H432" s="166"/>
-      <c r="I432" s="166"/>
-      <c r="J432" s="166"/>
-      <c r="K432" s="167"/>
-      <c r="L432" s="170" t="s">
+      <c r="G432" s="178"/>
+      <c r="H432" s="178"/>
+      <c r="I432" s="178"/>
+      <c r="J432" s="178"/>
+      <c r="K432" s="179"/>
+      <c r="L432" s="253" t="s">
         <v>210</v>
       </c>
     </row>
@@ -9040,7 +9040,7 @@
       <c r="D433" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="E433" s="154"/>
+      <c r="E433" s="251"/>
       <c r="F433" s="75">
         <v>1</v>
       </c>
@@ -9059,7 +9059,7 @@
       <c r="K433" s="75" t="s">
         <v>180</v>
       </c>
-      <c r="L433" s="171"/>
+      <c r="L433" s="254"/>
     </row>
     <row r="434" spans="2:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B434" s="20"/>
@@ -9235,25 +9235,25 @@
     </row>
     <row r="446" spans="2:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B446" s="20"/>
-      <c r="C446" s="161" t="s">
+      <c r="C446" s="256" t="s">
         <v>59</v>
       </c>
-      <c r="D446" s="162"/>
-      <c r="E446" s="165" t="s">
+      <c r="D446" s="257"/>
+      <c r="E446" s="177" t="s">
         <v>204</v>
       </c>
-      <c r="F446" s="166"/>
-      <c r="G446" s="166"/>
-      <c r="H446" s="166"/>
-      <c r="I446" s="166"/>
-      <c r="J446" s="166"/>
-      <c r="K446" s="167"/>
-      <c r="L446" s="168"/>
+      <c r="F446" s="178"/>
+      <c r="G446" s="178"/>
+      <c r="H446" s="178"/>
+      <c r="I446" s="178"/>
+      <c r="J446" s="178"/>
+      <c r="K446" s="179"/>
+      <c r="L446" s="260"/>
     </row>
     <row r="447" spans="2:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B447" s="20"/>
-      <c r="C447" s="163"/>
-      <c r="D447" s="164"/>
+      <c r="C447" s="258"/>
+      <c r="D447" s="259"/>
       <c r="E447" s="75">
         <v>1</v>
       </c>
@@ -9275,14 +9275,14 @@
       <c r="K447" s="75" t="s">
         <v>180</v>
       </c>
-      <c r="L447" s="168"/>
+      <c r="L447" s="260"/>
     </row>
     <row r="448" spans="2:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B448" s="20"/>
-      <c r="C448" s="155" t="s">
+      <c r="C448" s="193" t="s">
         <v>219</v>
       </c>
-      <c r="D448" s="156"/>
+      <c r="D448" s="194"/>
       <c r="E448" s="82"/>
       <c r="F448" s="82"/>
       <c r="G448" s="82"/>
@@ -9294,10 +9294,10 @@
     </row>
     <row r="449" spans="2:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B449" s="20"/>
-      <c r="C449" s="155" t="s">
+      <c r="C449" s="193" t="s">
         <v>178</v>
       </c>
-      <c r="D449" s="156"/>
+      <c r="D449" s="194"/>
       <c r="E449" s="82"/>
       <c r="F449" s="82"/>
       <c r="G449" s="82"/>
@@ -9309,10 +9309,10 @@
     </row>
     <row r="450" spans="2:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B450" s="20"/>
-      <c r="C450" s="155" t="s">
+      <c r="C450" s="193" t="s">
         <v>220</v>
       </c>
-      <c r="D450" s="156"/>
+      <c r="D450" s="194"/>
       <c r="E450" s="82"/>
       <c r="F450" s="82"/>
       <c r="G450" s="82"/>
@@ -9324,10 +9324,10 @@
     </row>
     <row r="451" spans="2:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B451" s="20"/>
-      <c r="C451" s="165" t="s">
+      <c r="C451" s="177" t="s">
         <v>210</v>
       </c>
-      <c r="D451" s="167"/>
+      <c r="D451" s="179"/>
       <c r="E451" s="46"/>
       <c r="F451" s="46"/>
       <c r="G451" s="46"/>
@@ -9641,16 +9641,16 @@
         <v>238</v>
       </c>
       <c r="C473" s="80"/>
-      <c r="E473" s="175" t="s">
+      <c r="E473" s="261" t="s">
         <v>328</v>
       </c>
-      <c r="F473" s="175"/>
-      <c r="G473" s="175"/>
-      <c r="H473" s="175"/>
-      <c r="I473" s="175"/>
-      <c r="J473" s="175"/>
-      <c r="K473" s="175"/>
-      <c r="L473" s="175"/>
+      <c r="F473" s="261"/>
+      <c r="G473" s="261"/>
+      <c r="H473" s="261"/>
+      <c r="I473" s="261"/>
+      <c r="J473" s="261"/>
+      <c r="K473" s="261"/>
+      <c r="L473" s="261"/>
       <c r="M473" s="134"/>
     </row>
     <row r="474" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -9684,10 +9684,10 @@
     <row r="476" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B476" s="19"/>
       <c r="C476" s="19"/>
-      <c r="D476" s="154" t="s">
+      <c r="D476" s="251" t="s">
         <v>265</v>
       </c>
-      <c r="E476" s="154"/>
+      <c r="E476" s="251"/>
       <c r="F476" s="19"/>
       <c r="G476" s="19"/>
       <c r="H476" s="19"/>
@@ -9698,42 +9698,42 @@
     </row>
     <row r="477" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B477" s="79"/>
-      <c r="C477" s="169" t="s">
+      <c r="C477" s="154" t="s">
         <v>182</v>
       </c>
-      <c r="D477" s="169" t="s">
+      <c r="D477" s="154" t="s">
         <v>58</v>
       </c>
-      <c r="E477" s="169" t="s">
+      <c r="E477" s="154" t="s">
         <v>59</v>
       </c>
-      <c r="F477" s="169" t="s">
+      <c r="F477" s="154" t="s">
         <v>60</v>
       </c>
-      <c r="G477" s="170" t="s">
+      <c r="G477" s="253" t="s">
         <v>183</v>
       </c>
-      <c r="H477" s="170" t="s">
+      <c r="H477" s="253" t="s">
         <v>176</v>
       </c>
-      <c r="I477" s="170" t="s">
+      <c r="I477" s="253" t="s">
         <v>184</v>
       </c>
-      <c r="J477" s="172" t="s">
+      <c r="J477" s="188" t="s">
         <v>240</v>
       </c>
-      <c r="K477" s="173"/>
-      <c r="L477" s="174"/>
+      <c r="K477" s="189"/>
+      <c r="L477" s="190"/>
     </row>
     <row r="478" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B478" s="79"/>
-      <c r="C478" s="169"/>
-      <c r="D478" s="169"/>
-      <c r="E478" s="169"/>
-      <c r="F478" s="169"/>
-      <c r="G478" s="171"/>
-      <c r="H478" s="171"/>
-      <c r="I478" s="171"/>
+      <c r="C478" s="154"/>
+      <c r="D478" s="154"/>
+      <c r="E478" s="154"/>
+      <c r="F478" s="154"/>
+      <c r="G478" s="254"/>
+      <c r="H478" s="254"/>
+      <c r="I478" s="254"/>
       <c r="J478" s="77" t="s">
         <v>241</v>
       </c>
@@ -9865,10 +9865,10 @@
       <c r="D485" s="80"/>
       <c r="E485" s="80"/>
       <c r="F485" s="40"/>
-      <c r="G485" s="146" t="s">
+      <c r="G485" s="235" t="s">
         <v>277</v>
       </c>
-      <c r="H485" s="147"/>
+      <c r="H485" s="237"/>
       <c r="I485" s="128">
         <v>10000</v>
       </c>
@@ -9883,10 +9883,10 @@
       <c r="D486" s="80"/>
       <c r="E486" s="80"/>
       <c r="F486" s="40"/>
-      <c r="G486" s="148" t="s">
+      <c r="G486" s="238" t="s">
         <v>278</v>
       </c>
-      <c r="H486" s="149"/>
+      <c r="H486" s="240"/>
       <c r="I486" s="128">
         <v>24961.5</v>
       </c>
@@ -9901,10 +9901,10 @@
       <c r="D487" s="80"/>
       <c r="E487" s="80"/>
       <c r="F487" s="40"/>
-      <c r="G487" s="148" t="s">
+      <c r="G487" s="238" t="s">
         <v>195</v>
       </c>
-      <c r="H487" s="149"/>
+      <c r="H487" s="240"/>
       <c r="I487" s="128">
         <v>17290.75</v>
       </c>
@@ -9919,10 +9919,10 @@
       <c r="D488" s="80"/>
       <c r="E488" s="80"/>
       <c r="F488" s="40"/>
-      <c r="G488" s="159" t="s">
+      <c r="G488" s="263" t="s">
         <v>196</v>
       </c>
-      <c r="H488" s="160"/>
+      <c r="H488" s="264"/>
       <c r="I488" s="129">
         <f>SUM(I479:I487)</f>
         <v>432791.55</v>
@@ -10058,26 +10058,26 @@
     </row>
     <row r="497" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B497" s="20"/>
-      <c r="C497" s="161" t="s">
+      <c r="C497" s="256" t="s">
         <v>59</v>
       </c>
-      <c r="D497" s="162"/>
-      <c r="E497" s="165" t="s">
+      <c r="D497" s="257"/>
+      <c r="E497" s="177" t="s">
         <v>204</v>
       </c>
-      <c r="F497" s="166"/>
-      <c r="G497" s="166"/>
-      <c r="H497" s="166"/>
-      <c r="I497" s="166"/>
-      <c r="J497" s="166"/>
-      <c r="K497" s="167"/>
-      <c r="L497" s="168"/>
+      <c r="F497" s="178"/>
+      <c r="G497" s="178"/>
+      <c r="H497" s="178"/>
+      <c r="I497" s="178"/>
+      <c r="J497" s="178"/>
+      <c r="K497" s="179"/>
+      <c r="L497" s="260"/>
       <c r="M497" s="80"/>
     </row>
     <row r="498" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B498" s="20"/>
-      <c r="C498" s="163"/>
-      <c r="D498" s="164"/>
+      <c r="C498" s="258"/>
+      <c r="D498" s="259"/>
       <c r="E498" s="75">
         <v>1</v>
       </c>
@@ -10099,15 +10099,15 @@
       <c r="K498" s="75">
         <v>10</v>
       </c>
-      <c r="L498" s="168"/>
+      <c r="L498" s="260"/>
       <c r="M498" s="80"/>
     </row>
     <row r="499" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B499" s="20"/>
-      <c r="C499" s="155" t="s">
+      <c r="C499" s="193" t="s">
         <v>324</v>
       </c>
-      <c r="D499" s="156"/>
+      <c r="D499" s="194"/>
       <c r="E499" s="103"/>
       <c r="F499" s="103">
         <v>3500</v>
@@ -10128,10 +10128,10 @@
     </row>
     <row r="500" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B500" s="20"/>
-      <c r="C500" s="155" t="s">
+      <c r="C500" s="193" t="s">
         <v>178</v>
       </c>
-      <c r="D500" s="156"/>
+      <c r="D500" s="194"/>
       <c r="E500" s="82"/>
       <c r="F500" s="82"/>
       <c r="G500" s="82"/>
@@ -10144,10 +10144,10 @@
     </row>
     <row r="501" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B501" s="20"/>
-      <c r="C501" s="155" t="s">
+      <c r="C501" s="193" t="s">
         <v>220</v>
       </c>
-      <c r="D501" s="156"/>
+      <c r="D501" s="194"/>
       <c r="E501" s="82"/>
       <c r="F501" s="82"/>
       <c r="G501" s="82"/>
@@ -10601,12 +10601,12 @@
       <c r="L532" s="80"/>
     </row>
     <row r="533" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B533" s="157" t="s">
+      <c r="B533" s="207" t="s">
         <v>246</v>
       </c>
-      <c r="C533" s="157"/>
-      <c r="D533" s="157"/>
-      <c r="E533" s="157"/>
+      <c r="C533" s="207"/>
+      <c r="D533" s="207"/>
+      <c r="E533" s="207"/>
       <c r="J533" s="80"/>
       <c r="K533" s="80"/>
       <c r="L533" s="80"/>
@@ -10678,34 +10678,34 @@
       <c r="K538" s="79"/>
     </row>
     <row r="539" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B539" s="158" t="s">
+      <c r="B539" s="262" t="s">
         <v>248</v>
       </c>
-      <c r="C539" s="158"/>
-      <c r="D539" s="158"/>
-      <c r="E539" s="158"/>
-      <c r="F539" s="158"/>
-      <c r="G539" s="158"/>
-      <c r="H539" s="158"/>
-      <c r="I539" s="158"/>
-      <c r="J539" s="158"/>
-      <c r="K539" s="158"/>
-      <c r="L539" s="158"/>
+      <c r="C539" s="262"/>
+      <c r="D539" s="262"/>
+      <c r="E539" s="262"/>
+      <c r="F539" s="262"/>
+      <c r="G539" s="262"/>
+      <c r="H539" s="262"/>
+      <c r="I539" s="262"/>
+      <c r="J539" s="262"/>
+      <c r="K539" s="262"/>
+      <c r="L539" s="262"/>
     </row>
     <row r="540" spans="2:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B540" s="158" t="s">
+      <c r="B540" s="262" t="s">
         <v>271</v>
       </c>
-      <c r="C540" s="158"/>
-      <c r="D540" s="158"/>
-      <c r="E540" s="158"/>
-      <c r="F540" s="158"/>
-      <c r="G540" s="158"/>
-      <c r="H540" s="158"/>
-      <c r="I540" s="158"/>
-      <c r="J540" s="158"/>
-      <c r="K540" s="158"/>
-      <c r="L540" s="158"/>
+      <c r="C540" s="262"/>
+      <c r="D540" s="262"/>
+      <c r="E540" s="262"/>
+      <c r="F540" s="262"/>
+      <c r="G540" s="262"/>
+      <c r="H540" s="262"/>
+      <c r="I540" s="262"/>
+      <c r="J540" s="262"/>
+      <c r="K540" s="262"/>
+      <c r="L540" s="262"/>
     </row>
     <row r="541" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B541" s="80"/>
@@ -10734,19 +10734,19 @@
       <c r="K542" s="79"/>
     </row>
     <row r="543" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B543" s="158" t="s">
+      <c r="B543" s="262" t="s">
         <v>250</v>
       </c>
-      <c r="C543" s="158"/>
-      <c r="D543" s="158"/>
-      <c r="E543" s="158"/>
-      <c r="F543" s="158"/>
-      <c r="G543" s="158"/>
-      <c r="H543" s="158"/>
-      <c r="I543" s="158"/>
-      <c r="J543" s="158"/>
-      <c r="K543" s="158"/>
-      <c r="L543" s="158"/>
+      <c r="C543" s="262"/>
+      <c r="D543" s="262"/>
+      <c r="E543" s="262"/>
+      <c r="F543" s="262"/>
+      <c r="G543" s="262"/>
+      <c r="H543" s="262"/>
+      <c r="I543" s="262"/>
+      <c r="J543" s="262"/>
+      <c r="K543" s="262"/>
+      <c r="L543" s="262"/>
     </row>
     <row r="544" spans="2:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B544" s="79"/>
@@ -10762,6 +10762,133 @@
     </row>
   </sheetData>
   <mergeCells count="151">
+    <mergeCell ref="G485:H485"/>
+    <mergeCell ref="G486:H486"/>
+    <mergeCell ref="G487:H487"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="D393:E393"/>
+    <mergeCell ref="D382:E382"/>
+    <mergeCell ref="F382:H382"/>
+    <mergeCell ref="I382:K382"/>
+    <mergeCell ref="D383:E383"/>
+    <mergeCell ref="F383:H383"/>
+    <mergeCell ref="I383:K383"/>
+    <mergeCell ref="D380:E380"/>
+    <mergeCell ref="F380:H380"/>
+    <mergeCell ref="I380:K380"/>
+    <mergeCell ref="D381:E381"/>
+    <mergeCell ref="F381:H381"/>
+    <mergeCell ref="I381:K381"/>
+    <mergeCell ref="C501:D501"/>
+    <mergeCell ref="B533:E533"/>
+    <mergeCell ref="B539:L539"/>
+    <mergeCell ref="B540:L540"/>
+    <mergeCell ref="B543:L543"/>
+    <mergeCell ref="G488:H488"/>
+    <mergeCell ref="C497:D498"/>
+    <mergeCell ref="E497:K497"/>
+    <mergeCell ref="L497:L498"/>
+    <mergeCell ref="C499:D499"/>
+    <mergeCell ref="C500:D500"/>
+    <mergeCell ref="C451:D451"/>
+    <mergeCell ref="C477:C478"/>
+    <mergeCell ref="D477:D478"/>
+    <mergeCell ref="E477:E478"/>
+    <mergeCell ref="F477:F478"/>
+    <mergeCell ref="G477:G478"/>
+    <mergeCell ref="C446:D447"/>
+    <mergeCell ref="E446:K446"/>
+    <mergeCell ref="L446:L447"/>
+    <mergeCell ref="C448:D448"/>
+    <mergeCell ref="C449:D449"/>
+    <mergeCell ref="C450:D450"/>
+    <mergeCell ref="D476:E476"/>
+    <mergeCell ref="H477:H478"/>
+    <mergeCell ref="I477:I478"/>
+    <mergeCell ref="J477:L477"/>
+    <mergeCell ref="E473:L473"/>
+    <mergeCell ref="I394:I395"/>
+    <mergeCell ref="J394:K394"/>
+    <mergeCell ref="C415:D415"/>
+    <mergeCell ref="E415:K415"/>
+    <mergeCell ref="L415:L416"/>
+    <mergeCell ref="C432:D432"/>
+    <mergeCell ref="E432:E433"/>
+    <mergeCell ref="F432:K432"/>
+    <mergeCell ref="L432:L433"/>
+    <mergeCell ref="C394:C395"/>
+    <mergeCell ref="D394:D395"/>
+    <mergeCell ref="E394:E395"/>
+    <mergeCell ref="F394:F395"/>
+    <mergeCell ref="G394:G395"/>
+    <mergeCell ref="H394:H395"/>
+    <mergeCell ref="D379:E379"/>
+    <mergeCell ref="F379:H379"/>
+    <mergeCell ref="I379:K379"/>
+    <mergeCell ref="D376:E376"/>
+    <mergeCell ref="F376:H376"/>
+    <mergeCell ref="I376:K376"/>
+    <mergeCell ref="D377:E377"/>
+    <mergeCell ref="F377:H377"/>
+    <mergeCell ref="I377:K377"/>
+    <mergeCell ref="D378:E378"/>
+    <mergeCell ref="F378:H378"/>
+    <mergeCell ref="I378:K378"/>
+    <mergeCell ref="B3:L3"/>
+    <mergeCell ref="B4:L4"/>
+    <mergeCell ref="B5:L5"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C215:L217"/>
+    <mergeCell ref="C127:L127"/>
+    <mergeCell ref="C130:L130"/>
+    <mergeCell ref="C144:L144"/>
+    <mergeCell ref="C146:E146"/>
+    <mergeCell ref="C148:E148"/>
+    <mergeCell ref="C150:E150"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="H112:I112"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="C122:L124"/>
+    <mergeCell ref="C194:L198"/>
+    <mergeCell ref="C201:L205"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="C8:K8"/>
+    <mergeCell ref="G27:K27"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="C163:L163"/>
+    <mergeCell ref="C180:F180"/>
+    <mergeCell ref="C182:G182"/>
+    <mergeCell ref="C186:G186"/>
+    <mergeCell ref="C370:L370"/>
+    <mergeCell ref="C350:G350"/>
+    <mergeCell ref="C352:G352"/>
+    <mergeCell ref="C354:G354"/>
+    <mergeCell ref="C154:G154"/>
+    <mergeCell ref="C369:D369"/>
+    <mergeCell ref="C346:F346"/>
+    <mergeCell ref="C348:F348"/>
+    <mergeCell ref="C287:F287"/>
+    <mergeCell ref="C288:F288"/>
+    <mergeCell ref="C289:F289"/>
+    <mergeCell ref="C291:F291"/>
+    <mergeCell ref="C293:F293"/>
+    <mergeCell ref="C328:L328"/>
+    <mergeCell ref="C342:L342"/>
+    <mergeCell ref="C359:L363"/>
+    <mergeCell ref="C300:L304"/>
+    <mergeCell ref="C307:L311"/>
+    <mergeCell ref="C322:L326"/>
+    <mergeCell ref="C336:L340"/>
+    <mergeCell ref="C368:D368"/>
+    <mergeCell ref="E368:L368"/>
     <mergeCell ref="H50:K50"/>
     <mergeCell ref="H55:K55"/>
     <mergeCell ref="H56:K56"/>
@@ -10786,133 +10913,6 @@
     <mergeCell ref="C152:F152"/>
     <mergeCell ref="G74:I74"/>
     <mergeCell ref="G73:I73"/>
-    <mergeCell ref="C182:G182"/>
-    <mergeCell ref="C186:G186"/>
-    <mergeCell ref="C370:L370"/>
-    <mergeCell ref="C350:G350"/>
-    <mergeCell ref="C352:G352"/>
-    <mergeCell ref="C354:G354"/>
-    <mergeCell ref="C154:G154"/>
-    <mergeCell ref="C369:D369"/>
-    <mergeCell ref="C346:F346"/>
-    <mergeCell ref="C348:F348"/>
-    <mergeCell ref="C287:F287"/>
-    <mergeCell ref="C288:F288"/>
-    <mergeCell ref="C289:F289"/>
-    <mergeCell ref="C291:F291"/>
-    <mergeCell ref="C293:F293"/>
-    <mergeCell ref="C328:L328"/>
-    <mergeCell ref="C342:L342"/>
-    <mergeCell ref="C359:L363"/>
-    <mergeCell ref="C300:L304"/>
-    <mergeCell ref="C307:L311"/>
-    <mergeCell ref="C322:L326"/>
-    <mergeCell ref="C336:L340"/>
-    <mergeCell ref="C368:D368"/>
-    <mergeCell ref="E368:L368"/>
-    <mergeCell ref="B3:L3"/>
-    <mergeCell ref="B4:L4"/>
-    <mergeCell ref="B5:L5"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C215:L217"/>
-    <mergeCell ref="C127:L127"/>
-    <mergeCell ref="C130:L130"/>
-    <mergeCell ref="C144:L144"/>
-    <mergeCell ref="C146:E146"/>
-    <mergeCell ref="C148:E148"/>
-    <mergeCell ref="C150:E150"/>
-    <mergeCell ref="C111:G111"/>
-    <mergeCell ref="H112:I112"/>
-    <mergeCell ref="C113:G113"/>
-    <mergeCell ref="C122:L124"/>
-    <mergeCell ref="C194:L198"/>
-    <mergeCell ref="C201:L205"/>
-    <mergeCell ref="H49:K49"/>
-    <mergeCell ref="H53:K53"/>
-    <mergeCell ref="C8:K8"/>
-    <mergeCell ref="G27:K27"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="C163:L163"/>
-    <mergeCell ref="C180:F180"/>
-    <mergeCell ref="D379:E379"/>
-    <mergeCell ref="F379:H379"/>
-    <mergeCell ref="I379:K379"/>
-    <mergeCell ref="D376:E376"/>
-    <mergeCell ref="F376:H376"/>
-    <mergeCell ref="I376:K376"/>
-    <mergeCell ref="D377:E377"/>
-    <mergeCell ref="F377:H377"/>
-    <mergeCell ref="I377:K377"/>
-    <mergeCell ref="D378:E378"/>
-    <mergeCell ref="F378:H378"/>
-    <mergeCell ref="I378:K378"/>
-    <mergeCell ref="I394:I395"/>
-    <mergeCell ref="J394:K394"/>
-    <mergeCell ref="C415:D415"/>
-    <mergeCell ref="E415:K415"/>
-    <mergeCell ref="L415:L416"/>
-    <mergeCell ref="C432:D432"/>
-    <mergeCell ref="E432:E433"/>
-    <mergeCell ref="F432:K432"/>
-    <mergeCell ref="L432:L433"/>
-    <mergeCell ref="C394:C395"/>
-    <mergeCell ref="D394:D395"/>
-    <mergeCell ref="E394:E395"/>
-    <mergeCell ref="F394:F395"/>
-    <mergeCell ref="G394:G395"/>
-    <mergeCell ref="H394:H395"/>
-    <mergeCell ref="C451:D451"/>
-    <mergeCell ref="C477:C478"/>
-    <mergeCell ref="D477:D478"/>
-    <mergeCell ref="E477:E478"/>
-    <mergeCell ref="F477:F478"/>
-    <mergeCell ref="G477:G478"/>
-    <mergeCell ref="C446:D447"/>
-    <mergeCell ref="E446:K446"/>
-    <mergeCell ref="L446:L447"/>
-    <mergeCell ref="C448:D448"/>
-    <mergeCell ref="C449:D449"/>
-    <mergeCell ref="C450:D450"/>
-    <mergeCell ref="D476:E476"/>
-    <mergeCell ref="H477:H478"/>
-    <mergeCell ref="I477:I478"/>
-    <mergeCell ref="J477:L477"/>
-    <mergeCell ref="E473:L473"/>
-    <mergeCell ref="C501:D501"/>
-    <mergeCell ref="B533:E533"/>
-    <mergeCell ref="B539:L539"/>
-    <mergeCell ref="B540:L540"/>
-    <mergeCell ref="B543:L543"/>
-    <mergeCell ref="G488:H488"/>
-    <mergeCell ref="C497:D498"/>
-    <mergeCell ref="E497:K497"/>
-    <mergeCell ref="L497:L498"/>
-    <mergeCell ref="C499:D499"/>
-    <mergeCell ref="C500:D500"/>
-    <mergeCell ref="G485:H485"/>
-    <mergeCell ref="G486:H486"/>
-    <mergeCell ref="G487:H487"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="H41:K41"/>
-    <mergeCell ref="H42:K42"/>
-    <mergeCell ref="H43:K43"/>
-    <mergeCell ref="H47:K47"/>
-    <mergeCell ref="H48:K48"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="D393:E393"/>
-    <mergeCell ref="D382:E382"/>
-    <mergeCell ref="F382:H382"/>
-    <mergeCell ref="I382:K382"/>
-    <mergeCell ref="D383:E383"/>
-    <mergeCell ref="F383:H383"/>
-    <mergeCell ref="I383:K383"/>
-    <mergeCell ref="D380:E380"/>
-    <mergeCell ref="F380:H380"/>
-    <mergeCell ref="I380:K380"/>
-    <mergeCell ref="D381:E381"/>
-    <mergeCell ref="F381:H381"/>
-    <mergeCell ref="I381:K381"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.78740157480314965" header="0" footer="0"/>

--- a/13.0 FORMATO N°07 INVIERTE PE/FORMATO 7C IES JOSÉ MARIA ARGUEDAS CHUQUIBAMBILLA.xlsx
+++ b/13.0 FORMATO N°07 INVIERTE PE/FORMATO 7C IES JOSÉ MARIA ARGUEDAS CHUQUIBAMBILLA.xlsx
@@ -1996,389 +1996,389 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="25" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="25" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2688,52 +2688,52 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="B3" s="184" t="s">
+      <c r="B3" s="214" t="s">
         <v>258</v>
       </c>
-      <c r="C3" s="185"/>
-      <c r="D3" s="186"/>
-      <c r="E3" s="186"/>
-      <c r="F3" s="186"/>
-      <c r="G3" s="186"/>
-      <c r="H3" s="186"/>
-      <c r="I3" s="186"/>
-      <c r="J3" s="186"/>
-      <c r="K3" s="186"/>
-      <c r="L3" s="186"/>
-      <c r="M3" s="187"/>
+      <c r="C3" s="215"/>
+      <c r="D3" s="216"/>
+      <c r="E3" s="216"/>
+      <c r="F3" s="216"/>
+      <c r="G3" s="216"/>
+      <c r="H3" s="216"/>
+      <c r="I3" s="216"/>
+      <c r="J3" s="216"/>
+      <c r="K3" s="216"/>
+      <c r="L3" s="216"/>
+      <c r="M3" s="217"/>
     </row>
     <row r="4" spans="2:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="B4" s="188" t="s">
+      <c r="B4" s="218" t="s">
         <v>259</v>
       </c>
-      <c r="C4" s="189"/>
-      <c r="D4" s="190"/>
-      <c r="E4" s="190"/>
-      <c r="F4" s="190"/>
-      <c r="G4" s="190"/>
-      <c r="H4" s="190"/>
-      <c r="I4" s="190"/>
-      <c r="J4" s="190"/>
-      <c r="K4" s="190"/>
-      <c r="L4" s="190"/>
-      <c r="M4" s="191"/>
+      <c r="C4" s="219"/>
+      <c r="D4" s="220"/>
+      <c r="E4" s="220"/>
+      <c r="F4" s="220"/>
+      <c r="G4" s="220"/>
+      <c r="H4" s="220"/>
+      <c r="I4" s="220"/>
+      <c r="J4" s="220"/>
+      <c r="K4" s="220"/>
+      <c r="L4" s="220"/>
+      <c r="M4" s="221"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="166" t="s">
+      <c r="B5" s="222" t="s">
         <v>261</v>
       </c>
-      <c r="C5" s="166"/>
-      <c r="D5" s="192"/>
-      <c r="E5" s="192"/>
-      <c r="F5" s="192"/>
-      <c r="G5" s="192"/>
-      <c r="H5" s="192"/>
-      <c r="I5" s="192"/>
-      <c r="J5" s="192"/>
-      <c r="K5" s="192"/>
-      <c r="L5" s="192"/>
-      <c r="M5" s="192"/>
+      <c r="C5" s="222"/>
+      <c r="D5" s="223"/>
+      <c r="E5" s="223"/>
+      <c r="F5" s="223"/>
+      <c r="G5" s="223"/>
+      <c r="H5" s="223"/>
+      <c r="I5" s="223"/>
+      <c r="J5" s="223"/>
+      <c r="K5" s="223"/>
+      <c r="L5" s="223"/>
+      <c r="M5" s="223"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
@@ -2767,18 +2767,18 @@
     </row>
     <row r="8" spans="2:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
-      <c r="C8" s="233" t="s">
+      <c r="C8" s="256" t="s">
         <v>336</v>
       </c>
-      <c r="D8" s="234"/>
-      <c r="E8" s="234"/>
-      <c r="F8" s="234"/>
-      <c r="G8" s="234"/>
-      <c r="H8" s="234"/>
-      <c r="I8" s="234"/>
-      <c r="J8" s="234"/>
-      <c r="K8" s="235"/>
-      <c r="L8" s="277"/>
+      <c r="D8" s="257"/>
+      <c r="E8" s="257"/>
+      <c r="F8" s="257"/>
+      <c r="G8" s="257"/>
+      <c r="H8" s="257"/>
+      <c r="I8" s="257"/>
+      <c r="J8" s="257"/>
+      <c r="K8" s="258"/>
+      <c r="L8" s="155"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
@@ -3071,14 +3071,14 @@
       </c>
       <c r="D27" s="92"/>
       <c r="E27" s="92"/>
-      <c r="G27" s="236" t="s">
+      <c r="G27" s="259" t="s">
         <v>330</v>
       </c>
-      <c r="H27" s="236"/>
-      <c r="I27" s="236"/>
-      <c r="J27" s="236"/>
-      <c r="K27" s="236"/>
-      <c r="L27" s="278"/>
+      <c r="H27" s="259"/>
+      <c r="I27" s="259"/>
+      <c r="J27" s="259"/>
+      <c r="K27" s="259"/>
+      <c r="L27" s="156"/>
       <c r="M27" s="80"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
@@ -3096,22 +3096,22 @@
     </row>
     <row r="29" spans="2:14" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="89"/>
-      <c r="C29" s="193" t="s">
+      <c r="C29" s="224" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="193"/>
-      <c r="E29" s="193"/>
+      <c r="D29" s="224"/>
+      <c r="E29" s="224"/>
       <c r="G29" s="142" t="s">
         <v>14</v>
       </c>
-      <c r="H29" s="237" t="s">
+      <c r="H29" s="260" t="s">
         <v>331</v>
       </c>
-      <c r="I29" s="238"/>
-      <c r="J29" s="238"/>
-      <c r="K29" s="238"/>
-      <c r="L29" s="238"/>
-      <c r="M29" s="239"/>
+      <c r="I29" s="261"/>
+      <c r="J29" s="261"/>
+      <c r="K29" s="261"/>
+      <c r="L29" s="261"/>
+      <c r="M29" s="262"/>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="89"/>
@@ -3130,11 +3130,11 @@
     </row>
     <row r="31" spans="2:14" ht="37.5" x14ac:dyDescent="0.25">
       <c r="B31" s="89"/>
-      <c r="C31" s="159" t="s">
+      <c r="C31" s="281" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="159"/>
-      <c r="E31" s="160"/>
+      <c r="D31" s="281"/>
+      <c r="E31" s="282"/>
       <c r="F31" s="11" t="s">
         <v>16</v>
       </c>
@@ -3153,7 +3153,7 @@
       <c r="K31" s="144">
         <v>1</v>
       </c>
-      <c r="L31" s="279"/>
+      <c r="L31" s="157"/>
       <c r="M31" s="18"/>
       <c r="N31" s="90"/>
     </row>
@@ -3295,12 +3295,12 @@
       <c r="E40" s="17"/>
       <c r="F40" s="17"/>
       <c r="G40" s="17"/>
-      <c r="H40" s="157" t="s">
+      <c r="H40" s="253" t="s">
         <v>310</v>
       </c>
-      <c r="I40" s="161"/>
-      <c r="J40" s="161"/>
-      <c r="K40" s="158"/>
+      <c r="I40" s="254"/>
+      <c r="J40" s="254"/>
+      <c r="K40" s="255"/>
       <c r="L40" s="20"/>
       <c r="M40" s="79"/>
     </row>
@@ -3313,12 +3313,12 @@
       <c r="E41" s="17"/>
       <c r="F41" s="17"/>
       <c r="G41" s="17"/>
-      <c r="H41" s="157" t="s">
+      <c r="H41" s="253" t="s">
         <v>311</v>
       </c>
-      <c r="I41" s="161"/>
-      <c r="J41" s="161"/>
-      <c r="K41" s="158"/>
+      <c r="I41" s="254"/>
+      <c r="J41" s="254"/>
+      <c r="K41" s="255"/>
       <c r="L41" s="20"/>
       <c r="M41" s="79"/>
     </row>
@@ -3331,12 +3331,12 @@
       <c r="E42" s="17"/>
       <c r="F42" s="17"/>
       <c r="G42" s="17"/>
-      <c r="H42" s="157" t="s">
+      <c r="H42" s="253" t="s">
         <v>312</v>
       </c>
-      <c r="I42" s="161"/>
-      <c r="J42" s="161"/>
-      <c r="K42" s="158"/>
+      <c r="I42" s="254"/>
+      <c r="J42" s="254"/>
+      <c r="K42" s="255"/>
       <c r="L42" s="20"/>
       <c r="M42" s="79"/>
     </row>
@@ -3349,12 +3349,12 @@
       <c r="E43" s="17"/>
       <c r="F43" s="17"/>
       <c r="G43" s="17"/>
-      <c r="H43" s="157" t="s">
+      <c r="H43" s="253" t="s">
         <v>325</v>
       </c>
-      <c r="I43" s="161"/>
-      <c r="J43" s="161"/>
-      <c r="K43" s="158"/>
+      <c r="I43" s="254"/>
+      <c r="J43" s="254"/>
+      <c r="K43" s="255"/>
       <c r="L43" s="20"/>
       <c r="M43" s="79"/>
     </row>
@@ -3412,12 +3412,12 @@
       <c r="E47" s="17"/>
       <c r="F47" s="17"/>
       <c r="G47" s="17"/>
-      <c r="H47" s="157" t="s">
+      <c r="H47" s="253" t="s">
         <v>310</v>
       </c>
-      <c r="I47" s="161"/>
-      <c r="J47" s="161"/>
-      <c r="K47" s="158"/>
+      <c r="I47" s="254"/>
+      <c r="J47" s="254"/>
+      <c r="K47" s="255"/>
       <c r="L47" s="20"/>
       <c r="M47" s="79"/>
     </row>
@@ -3430,12 +3430,12 @@
       <c r="E48" s="17"/>
       <c r="F48" s="17"/>
       <c r="G48" s="17"/>
-      <c r="H48" s="157" t="s">
+      <c r="H48" s="253" t="s">
         <v>311</v>
       </c>
-      <c r="I48" s="161"/>
-      <c r="J48" s="161"/>
-      <c r="K48" s="158"/>
+      <c r="I48" s="254"/>
+      <c r="J48" s="254"/>
+      <c r="K48" s="255"/>
       <c r="L48" s="20"/>
       <c r="M48" s="79"/>
     </row>
@@ -3448,12 +3448,12 @@
       <c r="E49" s="17"/>
       <c r="F49" s="17"/>
       <c r="G49" s="17"/>
-      <c r="H49" s="155" t="s">
+      <c r="H49" s="250" t="s">
         <v>313</v>
       </c>
-      <c r="I49" s="232"/>
-      <c r="J49" s="232"/>
-      <c r="K49" s="156"/>
+      <c r="I49" s="251"/>
+      <c r="J49" s="251"/>
+      <c r="K49" s="252"/>
       <c r="L49" s="149"/>
       <c r="M49" s="79"/>
     </row>
@@ -3466,13 +3466,13 @@
       <c r="E50" s="17"/>
       <c r="F50" s="17"/>
       <c r="G50" s="17"/>
-      <c r="H50" s="259" t="s">
+      <c r="H50" s="161" t="s">
         <v>333</v>
       </c>
-      <c r="I50" s="259"/>
-      <c r="J50" s="259"/>
-      <c r="K50" s="259"/>
-      <c r="L50" s="280"/>
+      <c r="I50" s="161"/>
+      <c r="J50" s="161"/>
+      <c r="K50" s="161"/>
+      <c r="L50" s="158"/>
       <c r="M50" s="138"/>
       <c r="N50" s="138"/>
       <c r="O50" s="138"/>
@@ -3520,12 +3520,12 @@
       <c r="E53" s="17"/>
       <c r="F53" s="17"/>
       <c r="G53" s="17"/>
-      <c r="H53" s="157" t="s">
+      <c r="H53" s="253" t="s">
         <v>310</v>
       </c>
-      <c r="I53" s="161"/>
-      <c r="J53" s="161"/>
-      <c r="K53" s="158"/>
+      <c r="I53" s="254"/>
+      <c r="J53" s="254"/>
+      <c r="K53" s="255"/>
       <c r="L53" s="20"/>
       <c r="M53" s="79"/>
     </row>
@@ -3538,12 +3538,12 @@
       <c r="E54" s="17"/>
       <c r="F54" s="17"/>
       <c r="G54" s="17"/>
-      <c r="H54" s="265" t="s">
+      <c r="H54" s="170" t="s">
         <v>311</v>
       </c>
-      <c r="I54" s="266"/>
-      <c r="J54" s="266"/>
-      <c r="K54" s="267"/>
+      <c r="I54" s="171"/>
+      <c r="J54" s="171"/>
+      <c r="K54" s="172"/>
       <c r="L54" s="20"/>
       <c r="M54" s="79"/>
     </row>
@@ -3556,13 +3556,13 @@
       <c r="E55" s="17"/>
       <c r="F55" s="17"/>
       <c r="G55" s="17"/>
-      <c r="H55" s="259" t="s">
+      <c r="H55" s="161" t="s">
         <v>314</v>
       </c>
-      <c r="I55" s="259"/>
-      <c r="J55" s="259"/>
-      <c r="K55" s="259"/>
-      <c r="L55" s="280"/>
+      <c r="I55" s="161"/>
+      <c r="J55" s="161"/>
+      <c r="K55" s="161"/>
+      <c r="L55" s="158"/>
       <c r="M55" s="138"/>
       <c r="N55" s="138"/>
       <c r="O55" s="138"/>
@@ -3578,13 +3578,13 @@
       <c r="E56" s="17"/>
       <c r="F56" s="17"/>
       <c r="G56" s="17"/>
-      <c r="H56" s="260" t="s">
+      <c r="H56" s="162" t="s">
         <v>315</v>
       </c>
-      <c r="I56" s="261"/>
-      <c r="J56" s="261"/>
-      <c r="K56" s="262"/>
-      <c r="L56" s="280"/>
+      <c r="I56" s="163"/>
+      <c r="J56" s="163"/>
+      <c r="K56" s="164"/>
+      <c r="L56" s="158"/>
       <c r="M56" s="138"/>
       <c r="N56" s="138"/>
       <c r="O56" s="138"/>
@@ -3863,11 +3863,11 @@
       <c r="F73" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="G73" s="179" t="s">
+      <c r="G73" s="203" t="s">
         <v>51</v>
       </c>
-      <c r="H73" s="180"/>
-      <c r="I73" s="181"/>
+      <c r="H73" s="204"/>
+      <c r="I73" s="205"/>
       <c r="J73" s="90"/>
       <c r="K73" s="90"/>
       <c r="L73" s="90"/>
@@ -3887,11 +3887,11 @@
       <c r="F74" s="30" t="s">
         <v>339</v>
       </c>
-      <c r="G74" s="271" t="s">
+      <c r="G74" s="200" t="s">
         <v>340</v>
       </c>
-      <c r="H74" s="272"/>
-      <c r="I74" s="273"/>
+      <c r="H74" s="201"/>
+      <c r="I74" s="202"/>
       <c r="J74" s="90"/>
       <c r="K74" s="90"/>
       <c r="L74" s="90"/>
@@ -4023,10 +4023,10 @@
       <c r="B83" s="15"/>
       <c r="C83" s="79"/>
       <c r="D83" s="80"/>
-      <c r="E83" s="162" t="s">
+      <c r="E83" s="267" t="s">
         <v>265</v>
       </c>
-      <c r="F83" s="162"/>
+      <c r="F83" s="267"/>
       <c r="I83" s="80"/>
       <c r="J83" s="80"/>
       <c r="K83" s="80"/>
@@ -4112,17 +4112,17 @@
     </row>
     <row r="88" spans="2:13" s="97" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="58"/>
-      <c r="C88" s="264" t="s">
+      <c r="C88" s="168" t="s">
         <v>268</v>
       </c>
-      <c r="D88" s="264"/>
-      <c r="E88" s="264"/>
-      <c r="F88" s="264"/>
-      <c r="G88" s="264"/>
-      <c r="H88" s="264"/>
-      <c r="I88" s="264"/>
-      <c r="J88" s="264"/>
-      <c r="K88" s="264"/>
+      <c r="D88" s="168"/>
+      <c r="E88" s="168"/>
+      <c r="F88" s="168"/>
+      <c r="G88" s="168"/>
+      <c r="H88" s="168"/>
+      <c r="I88" s="168"/>
+      <c r="J88" s="168"/>
+      <c r="K88" s="168"/>
       <c r="L88" s="147"/>
       <c r="M88" s="80"/>
     </row>
@@ -4289,10 +4289,10 @@
       </c>
       <c r="D99" s="103"/>
       <c r="E99" s="67"/>
-      <c r="F99" s="269" t="s">
+      <c r="F99" s="195" t="s">
         <v>280</v>
       </c>
-      <c r="G99" s="270"/>
+      <c r="G99" s="196"/>
       <c r="H99" s="107"/>
       <c r="I99" s="79"/>
       <c r="J99" s="79"/>
@@ -4472,13 +4472,13 @@
     </row>
     <row r="111" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B111" s="58"/>
-      <c r="C111" s="211" t="s">
+      <c r="C111" s="241" t="s">
         <v>74</v>
       </c>
-      <c r="D111" s="211"/>
-      <c r="E111" s="211"/>
-      <c r="F111" s="211"/>
-      <c r="G111" s="212"/>
+      <c r="D111" s="241"/>
+      <c r="E111" s="241"/>
+      <c r="F111" s="241"/>
+      <c r="G111" s="242"/>
       <c r="H111" s="26"/>
       <c r="I111" s="27"/>
       <c r="J111" s="80"/>
@@ -4493,8 +4493,8 @@
       <c r="E112" s="79"/>
       <c r="F112" s="79"/>
       <c r="G112" s="79"/>
-      <c r="H112" s="213"/>
-      <c r="I112" s="213"/>
+      <c r="H112" s="243"/>
+      <c r="I112" s="243"/>
       <c r="J112" s="80"/>
       <c r="K112" s="80"/>
       <c r="L112" s="152"/>
@@ -4502,13 +4502,13 @@
     </row>
     <row r="113" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B113" s="58"/>
-      <c r="C113" s="211" t="s">
+      <c r="C113" s="241" t="s">
         <v>75</v>
       </c>
-      <c r="D113" s="211"/>
-      <c r="E113" s="211"/>
-      <c r="F113" s="211"/>
-      <c r="G113" s="212"/>
+      <c r="D113" s="241"/>
+      <c r="E113" s="241"/>
+      <c r="F113" s="241"/>
+      <c r="G113" s="242"/>
       <c r="H113" s="26"/>
       <c r="I113" s="27"/>
       <c r="J113" s="80"/>
@@ -4640,47 +4640,47 @@
     </row>
     <row r="122" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B122" s="58"/>
-      <c r="C122" s="214" t="s">
+      <c r="C122" s="244" t="s">
         <v>281</v>
       </c>
-      <c r="D122" s="215"/>
-      <c r="E122" s="215"/>
-      <c r="F122" s="215"/>
-      <c r="G122" s="215"/>
-      <c r="H122" s="215"/>
-      <c r="I122" s="215"/>
-      <c r="J122" s="215"/>
-      <c r="K122" s="215"/>
-      <c r="L122" s="215"/>
-      <c r="M122" s="216"/>
+      <c r="D122" s="245"/>
+      <c r="E122" s="245"/>
+      <c r="F122" s="245"/>
+      <c r="G122" s="245"/>
+      <c r="H122" s="245"/>
+      <c r="I122" s="245"/>
+      <c r="J122" s="245"/>
+      <c r="K122" s="245"/>
+      <c r="L122" s="245"/>
+      <c r="M122" s="246"/>
     </row>
     <row r="123" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B123" s="58"/>
-      <c r="C123" s="217"/>
-      <c r="D123" s="218"/>
-      <c r="E123" s="218"/>
-      <c r="F123" s="218"/>
-      <c r="G123" s="218"/>
-      <c r="H123" s="218"/>
-      <c r="I123" s="218"/>
-      <c r="J123" s="218"/>
-      <c r="K123" s="218"/>
-      <c r="L123" s="218"/>
-      <c r="M123" s="219"/>
+      <c r="C123" s="197"/>
+      <c r="D123" s="198"/>
+      <c r="E123" s="198"/>
+      <c r="F123" s="198"/>
+      <c r="G123" s="198"/>
+      <c r="H123" s="198"/>
+      <c r="I123" s="198"/>
+      <c r="J123" s="198"/>
+      <c r="K123" s="198"/>
+      <c r="L123" s="198"/>
+      <c r="M123" s="199"/>
     </row>
     <row r="124" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B124" s="58"/>
-      <c r="C124" s="220"/>
-      <c r="D124" s="221"/>
-      <c r="E124" s="221"/>
-      <c r="F124" s="221"/>
-      <c r="G124" s="221"/>
-      <c r="H124" s="221"/>
-      <c r="I124" s="221"/>
-      <c r="J124" s="221"/>
-      <c r="K124" s="221"/>
-      <c r="L124" s="221"/>
-      <c r="M124" s="222"/>
+      <c r="C124" s="247"/>
+      <c r="D124" s="248"/>
+      <c r="E124" s="248"/>
+      <c r="F124" s="248"/>
+      <c r="G124" s="248"/>
+      <c r="H124" s="248"/>
+      <c r="I124" s="248"/>
+      <c r="J124" s="248"/>
+      <c r="K124" s="248"/>
+      <c r="L124" s="248"/>
+      <c r="M124" s="249"/>
     </row>
     <row r="125" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B125" s="58"/>
@@ -4714,19 +4714,19 @@
     </row>
     <row r="127" spans="2:13" ht="63" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" s="58"/>
-      <c r="C127" s="203" t="s">
+      <c r="C127" s="234" t="s">
         <v>282</v>
       </c>
-      <c r="D127" s="204"/>
-      <c r="E127" s="204"/>
-      <c r="F127" s="204"/>
-      <c r="G127" s="204"/>
-      <c r="H127" s="204"/>
-      <c r="I127" s="204"/>
-      <c r="J127" s="204"/>
-      <c r="K127" s="204"/>
-      <c r="L127" s="204"/>
-      <c r="M127" s="205"/>
+      <c r="D127" s="235"/>
+      <c r="E127" s="235"/>
+      <c r="F127" s="235"/>
+      <c r="G127" s="235"/>
+      <c r="H127" s="235"/>
+      <c r="I127" s="235"/>
+      <c r="J127" s="235"/>
+      <c r="K127" s="235"/>
+      <c r="L127" s="235"/>
+      <c r="M127" s="236"/>
     </row>
     <row r="128" spans="2:13" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" s="58"/>
@@ -4760,19 +4760,19 @@
     </row>
     <row r="130" spans="2:13" ht="46.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B130" s="58"/>
-      <c r="C130" s="206" t="s">
+      <c r="C130" s="237" t="s">
         <v>283</v>
       </c>
-      <c r="D130" s="207"/>
-      <c r="E130" s="207"/>
-      <c r="F130" s="207"/>
-      <c r="G130" s="207"/>
-      <c r="H130" s="207"/>
-      <c r="I130" s="207"/>
-      <c r="J130" s="207"/>
-      <c r="K130" s="207"/>
-      <c r="L130" s="207"/>
-      <c r="M130" s="208"/>
+      <c r="D130" s="238"/>
+      <c r="E130" s="238"/>
+      <c r="F130" s="238"/>
+      <c r="G130" s="238"/>
+      <c r="H130" s="238"/>
+      <c r="I130" s="238"/>
+      <c r="J130" s="238"/>
+      <c r="K130" s="238"/>
+      <c r="L130" s="238"/>
+      <c r="M130" s="239"/>
     </row>
     <row r="131" spans="2:13" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131" s="58"/>
@@ -4971,19 +4971,19 @@
     </row>
     <row r="144" spans="2:13" ht="87" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="58"/>
-      <c r="C144" s="209" t="s">
+      <c r="C144" s="240" t="s">
         <v>284</v>
       </c>
-      <c r="D144" s="209"/>
-      <c r="E144" s="209"/>
-      <c r="F144" s="209"/>
-      <c r="G144" s="209"/>
-      <c r="H144" s="209"/>
-      <c r="I144" s="209"/>
-      <c r="J144" s="209"/>
-      <c r="K144" s="209"/>
-      <c r="L144" s="209"/>
-      <c r="M144" s="209"/>
+      <c r="D144" s="240"/>
+      <c r="E144" s="240"/>
+      <c r="F144" s="240"/>
+      <c r="G144" s="240"/>
+      <c r="H144" s="240"/>
+      <c r="I144" s="240"/>
+      <c r="J144" s="240"/>
+      <c r="K144" s="240"/>
+      <c r="L144" s="240"/>
+      <c r="M144" s="240"/>
     </row>
     <row r="145" spans="2:13" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B145" s="58"/>
@@ -5001,11 +5001,11 @@
     </row>
     <row r="146" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B146" s="18"/>
-      <c r="C146" s="210" t="s">
+      <c r="C146" s="165" t="s">
         <v>91</v>
       </c>
-      <c r="D146" s="210"/>
-      <c r="E146" s="210"/>
+      <c r="D146" s="165"/>
+      <c r="E146" s="165"/>
       <c r="H146" s="106"/>
       <c r="I146" s="18" t="s">
         <v>92</v>
@@ -5029,11 +5029,11 @@
     </row>
     <row r="148" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B148" s="18"/>
-      <c r="C148" s="210" t="s">
+      <c r="C148" s="165" t="s">
         <v>93</v>
       </c>
-      <c r="D148" s="210"/>
-      <c r="E148" s="210"/>
+      <c r="D148" s="165"/>
+      <c r="E148" s="165"/>
       <c r="H148" s="106"/>
       <c r="I148" s="18" t="s">
         <v>94</v>
@@ -5057,11 +5057,11 @@
     </row>
     <row r="150" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B150" s="18"/>
-      <c r="C150" s="210" t="s">
+      <c r="C150" s="165" t="s">
         <v>95</v>
       </c>
-      <c r="D150" s="210"/>
-      <c r="E150" s="210"/>
+      <c r="D150" s="165"/>
+      <c r="E150" s="165"/>
       <c r="H150" s="106"/>
       <c r="I150" s="25"/>
       <c r="J150" s="25"/>
@@ -5083,12 +5083,12 @@
     </row>
     <row r="152" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B152" s="18"/>
-      <c r="C152" s="210" t="s">
+      <c r="C152" s="165" t="s">
         <v>96</v>
       </c>
-      <c r="D152" s="210"/>
-      <c r="E152" s="210"/>
-      <c r="F152" s="210"/>
+      <c r="D152" s="165"/>
+      <c r="E152" s="165"/>
+      <c r="F152" s="165"/>
       <c r="H152" s="106"/>
       <c r="I152" s="25"/>
       <c r="J152" s="25"/>
@@ -5111,13 +5111,13 @@
     </row>
     <row r="154" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B154" s="18"/>
-      <c r="C154" s="210" t="s">
+      <c r="C154" s="165" t="s">
         <v>97</v>
       </c>
-      <c r="D154" s="210"/>
-      <c r="E154" s="210"/>
-      <c r="F154" s="210"/>
-      <c r="G154" s="243"/>
+      <c r="D154" s="165"/>
+      <c r="E154" s="165"/>
+      <c r="F154" s="165"/>
+      <c r="G154" s="166"/>
       <c r="H154" s="106"/>
       <c r="I154" s="25"/>
     </row>
@@ -5245,19 +5245,19 @@
     </row>
     <row r="163" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B163" s="18"/>
-      <c r="C163" s="240" t="s">
+      <c r="C163" s="263" t="s">
         <v>285</v>
       </c>
-      <c r="D163" s="241"/>
-      <c r="E163" s="241"/>
-      <c r="F163" s="241"/>
-      <c r="G163" s="241"/>
-      <c r="H163" s="241"/>
-      <c r="I163" s="241"/>
-      <c r="J163" s="241"/>
-      <c r="K163" s="241"/>
-      <c r="L163" s="241"/>
-      <c r="M163" s="242"/>
+      <c r="D163" s="264"/>
+      <c r="E163" s="264"/>
+      <c r="F163" s="264"/>
+      <c r="G163" s="264"/>
+      <c r="H163" s="264"/>
+      <c r="I163" s="264"/>
+      <c r="J163" s="264"/>
+      <c r="K163" s="264"/>
+      <c r="L163" s="264"/>
+      <c r="M163" s="265"/>
     </row>
     <row r="164" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B164" s="18"/>
@@ -5475,12 +5475,12 @@
     </row>
     <row r="180" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B180" s="25"/>
-      <c r="C180" s="210" t="s">
+      <c r="C180" s="165" t="s">
         <v>93</v>
       </c>
-      <c r="D180" s="210"/>
-      <c r="E180" s="210"/>
-      <c r="F180" s="210"/>
+      <c r="D180" s="165"/>
+      <c r="E180" s="165"/>
+      <c r="F180" s="165"/>
       <c r="G180" s="79"/>
       <c r="H180" s="103"/>
       <c r="I180" s="18" t="s">
@@ -5507,13 +5507,13 @@
     </row>
     <row r="182" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B182" s="25"/>
-      <c r="C182" s="210" t="s">
+      <c r="C182" s="165" t="s">
         <v>112</v>
       </c>
-      <c r="D182" s="210"/>
-      <c r="E182" s="210"/>
-      <c r="F182" s="210"/>
-      <c r="G182" s="243"/>
+      <c r="D182" s="165"/>
+      <c r="E182" s="165"/>
+      <c r="F182" s="165"/>
+      <c r="G182" s="166"/>
       <c r="H182" s="103"/>
       <c r="I182" s="25"/>
       <c r="J182" s="25"/>
@@ -5567,13 +5567,13 @@
     </row>
     <row r="186" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B186" s="25"/>
-      <c r="C186" s="210" t="s">
+      <c r="C186" s="165" t="s">
         <v>114</v>
       </c>
-      <c r="D186" s="210"/>
-      <c r="E186" s="210"/>
-      <c r="F186" s="210"/>
-      <c r="G186" s="243"/>
+      <c r="D186" s="165"/>
+      <c r="E186" s="165"/>
+      <c r="F186" s="165"/>
+      <c r="G186" s="166"/>
       <c r="H186" s="103"/>
       <c r="I186" s="25"/>
       <c r="J186" s="25"/>
@@ -5686,79 +5686,79 @@
     </row>
     <row r="194" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B194" s="21"/>
-      <c r="C194" s="223" t="s">
+      <c r="C194" s="182" t="s">
         <v>286</v>
       </c>
-      <c r="D194" s="224"/>
-      <c r="E194" s="224"/>
-      <c r="F194" s="224"/>
-      <c r="G194" s="224"/>
-      <c r="H194" s="224"/>
-      <c r="I194" s="224"/>
-      <c r="J194" s="224"/>
-      <c r="K194" s="224"/>
-      <c r="L194" s="224"/>
-      <c r="M194" s="225"/>
+      <c r="D194" s="183"/>
+      <c r="E194" s="183"/>
+      <c r="F194" s="183"/>
+      <c r="G194" s="183"/>
+      <c r="H194" s="183"/>
+      <c r="I194" s="183"/>
+      <c r="J194" s="183"/>
+      <c r="K194" s="183"/>
+      <c r="L194" s="183"/>
+      <c r="M194" s="184"/>
       <c r="N194" s="21"/>
     </row>
     <row r="195" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B195" s="21"/>
-      <c r="C195" s="226"/>
-      <c r="D195" s="227"/>
-      <c r="E195" s="227"/>
-      <c r="F195" s="227"/>
-      <c r="G195" s="227"/>
-      <c r="H195" s="227"/>
-      <c r="I195" s="227"/>
-      <c r="J195" s="227"/>
-      <c r="K195" s="227"/>
-      <c r="L195" s="227"/>
-      <c r="M195" s="228"/>
+      <c r="C195" s="185"/>
+      <c r="D195" s="186"/>
+      <c r="E195" s="186"/>
+      <c r="F195" s="186"/>
+      <c r="G195" s="186"/>
+      <c r="H195" s="186"/>
+      <c r="I195" s="186"/>
+      <c r="J195" s="186"/>
+      <c r="K195" s="186"/>
+      <c r="L195" s="186"/>
+      <c r="M195" s="187"/>
       <c r="N195" s="2"/>
     </row>
     <row r="196" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B196" s="21"/>
-      <c r="C196" s="226"/>
-      <c r="D196" s="227"/>
-      <c r="E196" s="227"/>
-      <c r="F196" s="227"/>
-      <c r="G196" s="227"/>
-      <c r="H196" s="227"/>
-      <c r="I196" s="227"/>
-      <c r="J196" s="227"/>
-      <c r="K196" s="227"/>
-      <c r="L196" s="227"/>
-      <c r="M196" s="228"/>
+      <c r="C196" s="185"/>
+      <c r="D196" s="186"/>
+      <c r="E196" s="186"/>
+      <c r="F196" s="186"/>
+      <c r="G196" s="186"/>
+      <c r="H196" s="186"/>
+      <c r="I196" s="186"/>
+      <c r="J196" s="186"/>
+      <c r="K196" s="186"/>
+      <c r="L196" s="186"/>
+      <c r="M196" s="187"/>
       <c r="N196" s="2"/>
     </row>
     <row r="197" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B197" s="21"/>
-      <c r="C197" s="226"/>
-      <c r="D197" s="227"/>
-      <c r="E197" s="227"/>
-      <c r="F197" s="227"/>
-      <c r="G197" s="227"/>
-      <c r="H197" s="227"/>
-      <c r="I197" s="227"/>
-      <c r="J197" s="227"/>
-      <c r="K197" s="227"/>
-      <c r="L197" s="227"/>
-      <c r="M197" s="228"/>
+      <c r="C197" s="185"/>
+      <c r="D197" s="186"/>
+      <c r="E197" s="186"/>
+      <c r="F197" s="186"/>
+      <c r="G197" s="186"/>
+      <c r="H197" s="186"/>
+      <c r="I197" s="186"/>
+      <c r="J197" s="186"/>
+      <c r="K197" s="186"/>
+      <c r="L197" s="186"/>
+      <c r="M197" s="187"/>
       <c r="N197" s="2"/>
     </row>
     <row r="198" spans="2:14" ht="99.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B198" s="21"/>
-      <c r="C198" s="229"/>
-      <c r="D198" s="230"/>
-      <c r="E198" s="230"/>
-      <c r="F198" s="230"/>
-      <c r="G198" s="230"/>
-      <c r="H198" s="230"/>
-      <c r="I198" s="230"/>
-      <c r="J198" s="230"/>
-      <c r="K198" s="230"/>
-      <c r="L198" s="230"/>
-      <c r="M198" s="231"/>
+      <c r="C198" s="188"/>
+      <c r="D198" s="189"/>
+      <c r="E198" s="189"/>
+      <c r="F198" s="189"/>
+      <c r="G198" s="189"/>
+      <c r="H198" s="189"/>
+      <c r="I198" s="189"/>
+      <c r="J198" s="189"/>
+      <c r="K198" s="189"/>
+      <c r="L198" s="189"/>
+      <c r="M198" s="190"/>
       <c r="N198" s="2"/>
     </row>
     <row r="199" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -5795,79 +5795,79 @@
     </row>
     <row r="201" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B201" s="21"/>
-      <c r="C201" s="223" t="s">
+      <c r="C201" s="182" t="s">
         <v>287</v>
       </c>
-      <c r="D201" s="224"/>
-      <c r="E201" s="224"/>
-      <c r="F201" s="224"/>
-      <c r="G201" s="224"/>
-      <c r="H201" s="224"/>
-      <c r="I201" s="224"/>
-      <c r="J201" s="224"/>
-      <c r="K201" s="224"/>
-      <c r="L201" s="224"/>
-      <c r="M201" s="225"/>
+      <c r="D201" s="183"/>
+      <c r="E201" s="183"/>
+      <c r="F201" s="183"/>
+      <c r="G201" s="183"/>
+      <c r="H201" s="183"/>
+      <c r="I201" s="183"/>
+      <c r="J201" s="183"/>
+      <c r="K201" s="183"/>
+      <c r="L201" s="183"/>
+      <c r="M201" s="184"/>
       <c r="N201" s="34"/>
     </row>
     <row r="202" spans="2:14" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B202" s="21"/>
-      <c r="C202" s="226"/>
-      <c r="D202" s="227"/>
-      <c r="E202" s="227"/>
-      <c r="F202" s="227"/>
-      <c r="G202" s="227"/>
-      <c r="H202" s="227"/>
-      <c r="I202" s="227"/>
-      <c r="J202" s="227"/>
-      <c r="K202" s="227"/>
-      <c r="L202" s="227"/>
-      <c r="M202" s="228"/>
+      <c r="C202" s="185"/>
+      <c r="D202" s="186"/>
+      <c r="E202" s="186"/>
+      <c r="F202" s="186"/>
+      <c r="G202" s="186"/>
+      <c r="H202" s="186"/>
+      <c r="I202" s="186"/>
+      <c r="J202" s="186"/>
+      <c r="K202" s="186"/>
+      <c r="L202" s="186"/>
+      <c r="M202" s="187"/>
       <c r="N202" s="2"/>
     </row>
     <row r="203" spans="2:14" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B203" s="21"/>
-      <c r="C203" s="226"/>
-      <c r="D203" s="227"/>
-      <c r="E203" s="227"/>
-      <c r="F203" s="227"/>
-      <c r="G203" s="227"/>
-      <c r="H203" s="227"/>
-      <c r="I203" s="227"/>
-      <c r="J203" s="227"/>
-      <c r="K203" s="227"/>
-      <c r="L203" s="227"/>
-      <c r="M203" s="228"/>
+      <c r="C203" s="185"/>
+      <c r="D203" s="186"/>
+      <c r="E203" s="186"/>
+      <c r="F203" s="186"/>
+      <c r="G203" s="186"/>
+      <c r="H203" s="186"/>
+      <c r="I203" s="186"/>
+      <c r="J203" s="186"/>
+      <c r="K203" s="186"/>
+      <c r="L203" s="186"/>
+      <c r="M203" s="187"/>
       <c r="N203" s="2"/>
     </row>
     <row r="204" spans="2:14" ht="35.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B204" s="21"/>
-      <c r="C204" s="226"/>
-      <c r="D204" s="227"/>
-      <c r="E204" s="227"/>
-      <c r="F204" s="227"/>
-      <c r="G204" s="227"/>
-      <c r="H204" s="227"/>
-      <c r="I204" s="227"/>
-      <c r="J204" s="227"/>
-      <c r="K204" s="227"/>
-      <c r="L204" s="227"/>
-      <c r="M204" s="228"/>
+      <c r="C204" s="185"/>
+      <c r="D204" s="186"/>
+      <c r="E204" s="186"/>
+      <c r="F204" s="186"/>
+      <c r="G204" s="186"/>
+      <c r="H204" s="186"/>
+      <c r="I204" s="186"/>
+      <c r="J204" s="186"/>
+      <c r="K204" s="186"/>
+      <c r="L204" s="186"/>
+      <c r="M204" s="187"/>
       <c r="N204" s="2"/>
     </row>
     <row r="205" spans="2:14" ht="39" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B205" s="21"/>
-      <c r="C205" s="229"/>
-      <c r="D205" s="230"/>
-      <c r="E205" s="230"/>
-      <c r="F205" s="230"/>
-      <c r="G205" s="230"/>
-      <c r="H205" s="230"/>
-      <c r="I205" s="230"/>
-      <c r="J205" s="230"/>
-      <c r="K205" s="230"/>
-      <c r="L205" s="230"/>
-      <c r="M205" s="231"/>
+      <c r="C205" s="188"/>
+      <c r="D205" s="189"/>
+      <c r="E205" s="189"/>
+      <c r="F205" s="189"/>
+      <c r="G205" s="189"/>
+      <c r="H205" s="189"/>
+      <c r="I205" s="189"/>
+      <c r="J205" s="189"/>
+      <c r="K205" s="189"/>
+      <c r="L205" s="189"/>
+      <c r="M205" s="190"/>
       <c r="N205" s="2"/>
     </row>
     <row r="206" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -6014,49 +6014,49 @@
     </row>
     <row r="215" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B215" s="18"/>
-      <c r="C215" s="194" t="s">
+      <c r="C215" s="225" t="s">
         <v>292</v>
       </c>
-      <c r="D215" s="195"/>
-      <c r="E215" s="195"/>
-      <c r="F215" s="195"/>
-      <c r="G215" s="195"/>
-      <c r="H215" s="195"/>
-      <c r="I215" s="195"/>
-      <c r="J215" s="195"/>
-      <c r="K215" s="195"/>
-      <c r="L215" s="195"/>
-      <c r="M215" s="196"/>
+      <c r="D215" s="226"/>
+      <c r="E215" s="226"/>
+      <c r="F215" s="226"/>
+      <c r="G215" s="226"/>
+      <c r="H215" s="226"/>
+      <c r="I215" s="226"/>
+      <c r="J215" s="226"/>
+      <c r="K215" s="226"/>
+      <c r="L215" s="226"/>
+      <c r="M215" s="227"/>
       <c r="N215" s="34"/>
     </row>
     <row r="216" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B216" s="18"/>
-      <c r="C216" s="197"/>
-      <c r="D216" s="198"/>
-      <c r="E216" s="198"/>
-      <c r="F216" s="198"/>
-      <c r="G216" s="198"/>
-      <c r="H216" s="198"/>
-      <c r="I216" s="198"/>
-      <c r="J216" s="198"/>
-      <c r="K216" s="198"/>
-      <c r="L216" s="198"/>
-      <c r="M216" s="199"/>
+      <c r="C216" s="228"/>
+      <c r="D216" s="229"/>
+      <c r="E216" s="229"/>
+      <c r="F216" s="229"/>
+      <c r="G216" s="229"/>
+      <c r="H216" s="229"/>
+      <c r="I216" s="229"/>
+      <c r="J216" s="229"/>
+      <c r="K216" s="229"/>
+      <c r="L216" s="229"/>
+      <c r="M216" s="230"/>
       <c r="N216" s="60"/>
     </row>
     <row r="217" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B217" s="18"/>
-      <c r="C217" s="200"/>
-      <c r="D217" s="201"/>
-      <c r="E217" s="201"/>
-      <c r="F217" s="201"/>
-      <c r="G217" s="201"/>
-      <c r="H217" s="201"/>
-      <c r="I217" s="201"/>
-      <c r="J217" s="201"/>
-      <c r="K217" s="201"/>
-      <c r="L217" s="201"/>
-      <c r="M217" s="202"/>
+      <c r="C217" s="231"/>
+      <c r="D217" s="232"/>
+      <c r="E217" s="232"/>
+      <c r="F217" s="232"/>
+      <c r="G217" s="232"/>
+      <c r="H217" s="232"/>
+      <c r="I217" s="232"/>
+      <c r="J217" s="232"/>
+      <c r="K217" s="232"/>
+      <c r="L217" s="232"/>
+      <c r="M217" s="233"/>
       <c r="N217" s="60"/>
     </row>
     <row r="218" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
@@ -6091,10 +6091,10 @@
     </row>
     <row r="220" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B220" s="18"/>
-      <c r="C220" s="210" t="s">
+      <c r="C220" s="165" t="s">
         <v>122</v>
       </c>
-      <c r="D220" s="210"/>
+      <c r="D220" s="165"/>
       <c r="E220" s="82"/>
       <c r="F220" s="79"/>
       <c r="G220" s="13"/>
@@ -6219,19 +6219,19 @@
     </row>
     <row r="228" spans="2:15" ht="49.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B228" s="18"/>
-      <c r="C228" s="217" t="s">
+      <c r="C228" s="197" t="s">
         <v>291</v>
       </c>
-      <c r="D228" s="218"/>
-      <c r="E228" s="218"/>
-      <c r="F228" s="218"/>
-      <c r="G228" s="218"/>
-      <c r="H228" s="218"/>
-      <c r="I228" s="218"/>
-      <c r="J228" s="218"/>
-      <c r="K228" s="218"/>
-      <c r="L228" s="218"/>
-      <c r="M228" s="219"/>
+      <c r="D228" s="198"/>
+      <c r="E228" s="198"/>
+      <c r="F228" s="198"/>
+      <c r="G228" s="198"/>
+      <c r="H228" s="198"/>
+      <c r="I228" s="198"/>
+      <c r="J228" s="198"/>
+      <c r="K228" s="198"/>
+      <c r="L228" s="198"/>
+      <c r="M228" s="199"/>
     </row>
     <row r="229" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B229" s="18"/>
@@ -6340,51 +6340,51 @@
     </row>
     <row r="236" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B236" s="18"/>
-      <c r="C236" s="247" t="s">
+      <c r="C236" s="173" t="s">
         <v>129</v>
       </c>
-      <c r="D236" s="248"/>
-      <c r="E236" s="248"/>
-      <c r="F236" s="248"/>
-      <c r="G236" s="248"/>
-      <c r="H236" s="248"/>
-      <c r="I236" s="248"/>
-      <c r="J236" s="248"/>
-      <c r="K236" s="248"/>
-      <c r="L236" s="248"/>
-      <c r="M236" s="249"/>
+      <c r="D236" s="174"/>
+      <c r="E236" s="174"/>
+      <c r="F236" s="174"/>
+      <c r="G236" s="174"/>
+      <c r="H236" s="174"/>
+      <c r="I236" s="174"/>
+      <c r="J236" s="174"/>
+      <c r="K236" s="174"/>
+      <c r="L236" s="174"/>
+      <c r="M236" s="175"/>
       <c r="N236" s="34"/>
       <c r="O236" s="2"/>
     </row>
     <row r="237" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B237" s="18"/>
-      <c r="C237" s="250"/>
-      <c r="D237" s="251"/>
-      <c r="E237" s="251"/>
-      <c r="F237" s="251"/>
-      <c r="G237" s="251"/>
-      <c r="H237" s="251"/>
-      <c r="I237" s="251"/>
-      <c r="J237" s="251"/>
-      <c r="K237" s="251"/>
-      <c r="L237" s="251"/>
-      <c r="M237" s="252"/>
+      <c r="C237" s="176"/>
+      <c r="D237" s="177"/>
+      <c r="E237" s="177"/>
+      <c r="F237" s="177"/>
+      <c r="G237" s="177"/>
+      <c r="H237" s="177"/>
+      <c r="I237" s="177"/>
+      <c r="J237" s="177"/>
+      <c r="K237" s="177"/>
+      <c r="L237" s="177"/>
+      <c r="M237" s="178"/>
       <c r="N237" s="60"/>
       <c r="O237" s="2"/>
     </row>
     <row r="238" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B238" s="18"/>
-      <c r="C238" s="253"/>
-      <c r="D238" s="254"/>
-      <c r="E238" s="254"/>
-      <c r="F238" s="254"/>
-      <c r="G238" s="254"/>
-      <c r="H238" s="254"/>
-      <c r="I238" s="254"/>
-      <c r="J238" s="254"/>
-      <c r="K238" s="254"/>
-      <c r="L238" s="254"/>
-      <c r="M238" s="255"/>
+      <c r="C238" s="179"/>
+      <c r="D238" s="180"/>
+      <c r="E238" s="180"/>
+      <c r="F238" s="180"/>
+      <c r="G238" s="180"/>
+      <c r="H238" s="180"/>
+      <c r="I238" s="180"/>
+      <c r="J238" s="180"/>
+      <c r="K238" s="180"/>
+      <c r="L238" s="180"/>
+      <c r="M238" s="181"/>
       <c r="N238" s="60"/>
       <c r="O238" s="2"/>
     </row>
@@ -6499,35 +6499,35 @@
     </row>
     <row r="246" spans="2:13" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B246" s="18"/>
-      <c r="C246" s="264" t="s">
+      <c r="C246" s="168" t="s">
         <v>269</v>
       </c>
-      <c r="D246" s="264"/>
-      <c r="E246" s="264"/>
-      <c r="F246" s="264"/>
-      <c r="G246" s="264"/>
-      <c r="H246" s="264"/>
-      <c r="I246" s="264"/>
-      <c r="J246" s="264"/>
-      <c r="K246" s="264"/>
-      <c r="L246" s="264"/>
-      <c r="M246" s="264"/>
+      <c r="D246" s="168"/>
+      <c r="E246" s="168"/>
+      <c r="F246" s="168"/>
+      <c r="G246" s="168"/>
+      <c r="H246" s="168"/>
+      <c r="I246" s="168"/>
+      <c r="J246" s="168"/>
+      <c r="K246" s="168"/>
+      <c r="L246" s="168"/>
+      <c r="M246" s="168"/>
     </row>
     <row r="247" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B247" s="18"/>
-      <c r="C247" s="264" t="s">
+      <c r="C247" s="168" t="s">
         <v>133</v>
       </c>
-      <c r="D247" s="264"/>
-      <c r="E247" s="264"/>
-      <c r="F247" s="264"/>
-      <c r="G247" s="264"/>
-      <c r="H247" s="264"/>
-      <c r="I247" s="264"/>
-      <c r="J247" s="264"/>
-      <c r="K247" s="264"/>
-      <c r="L247" s="264"/>
-      <c r="M247" s="264"/>
+      <c r="D247" s="168"/>
+      <c r="E247" s="168"/>
+      <c r="F247" s="168"/>
+      <c r="G247" s="168"/>
+      <c r="H247" s="168"/>
+      <c r="I247" s="168"/>
+      <c r="J247" s="168"/>
+      <c r="K247" s="168"/>
+      <c r="L247" s="168"/>
+      <c r="M247" s="168"/>
     </row>
     <row r="248" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B248" s="18"/>
@@ -6733,83 +6733,83 @@
     </row>
     <row r="261" spans="2:15" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B261" s="18"/>
-      <c r="C261" s="223" t="s">
+      <c r="C261" s="182" t="s">
         <v>304</v>
       </c>
-      <c r="D261" s="224"/>
-      <c r="E261" s="224"/>
-      <c r="F261" s="224"/>
-      <c r="G261" s="224"/>
-      <c r="H261" s="224"/>
-      <c r="I261" s="224"/>
-      <c r="J261" s="224"/>
-      <c r="K261" s="224"/>
-      <c r="L261" s="224"/>
-      <c r="M261" s="225"/>
+      <c r="D261" s="183"/>
+      <c r="E261" s="183"/>
+      <c r="F261" s="183"/>
+      <c r="G261" s="183"/>
+      <c r="H261" s="183"/>
+      <c r="I261" s="183"/>
+      <c r="J261" s="183"/>
+      <c r="K261" s="183"/>
+      <c r="L261" s="183"/>
+      <c r="M261" s="184"/>
       <c r="N261" s="34"/>
       <c r="O261" s="2"/>
     </row>
     <row r="262" spans="2:15" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B262" s="18"/>
-      <c r="C262" s="226"/>
-      <c r="D262" s="227"/>
-      <c r="E262" s="227"/>
-      <c r="F262" s="227"/>
-      <c r="G262" s="227"/>
-      <c r="H262" s="227"/>
-      <c r="I262" s="227"/>
-      <c r="J262" s="227"/>
-      <c r="K262" s="227"/>
-      <c r="L262" s="227"/>
-      <c r="M262" s="228"/>
+      <c r="C262" s="185"/>
+      <c r="D262" s="186"/>
+      <c r="E262" s="186"/>
+      <c r="F262" s="186"/>
+      <c r="G262" s="186"/>
+      <c r="H262" s="186"/>
+      <c r="I262" s="186"/>
+      <c r="J262" s="186"/>
+      <c r="K262" s="186"/>
+      <c r="L262" s="186"/>
+      <c r="M262" s="187"/>
       <c r="N262" s="60"/>
       <c r="O262" s="2"/>
     </row>
     <row r="263" spans="2:15" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B263" s="18"/>
-      <c r="C263" s="226"/>
-      <c r="D263" s="227"/>
-      <c r="E263" s="227"/>
-      <c r="F263" s="227"/>
-      <c r="G263" s="227"/>
-      <c r="H263" s="227"/>
-      <c r="I263" s="227"/>
-      <c r="J263" s="227"/>
-      <c r="K263" s="227"/>
-      <c r="L263" s="227"/>
-      <c r="M263" s="228"/>
+      <c r="C263" s="185"/>
+      <c r="D263" s="186"/>
+      <c r="E263" s="186"/>
+      <c r="F263" s="186"/>
+      <c r="G263" s="186"/>
+      <c r="H263" s="186"/>
+      <c r="I263" s="186"/>
+      <c r="J263" s="186"/>
+      <c r="K263" s="186"/>
+      <c r="L263" s="186"/>
+      <c r="M263" s="187"/>
       <c r="N263" s="60"/>
       <c r="O263" s="2"/>
     </row>
     <row r="264" spans="2:15" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B264" s="18"/>
-      <c r="C264" s="226"/>
-      <c r="D264" s="227"/>
-      <c r="E264" s="227"/>
-      <c r="F264" s="227"/>
-      <c r="G264" s="227"/>
-      <c r="H264" s="227"/>
-      <c r="I264" s="227"/>
-      <c r="J264" s="227"/>
-      <c r="K264" s="227"/>
-      <c r="L264" s="227"/>
-      <c r="M264" s="228"/>
+      <c r="C264" s="185"/>
+      <c r="D264" s="186"/>
+      <c r="E264" s="186"/>
+      <c r="F264" s="186"/>
+      <c r="G264" s="186"/>
+      <c r="H264" s="186"/>
+      <c r="I264" s="186"/>
+      <c r="J264" s="186"/>
+      <c r="K264" s="186"/>
+      <c r="L264" s="186"/>
+      <c r="M264" s="187"/>
       <c r="N264" s="60"/>
       <c r="O264" s="2"/>
     </row>
     <row r="265" spans="2:15" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B265" s="18"/>
-      <c r="C265" s="229"/>
-      <c r="D265" s="230"/>
-      <c r="E265" s="230"/>
-      <c r="F265" s="230"/>
-      <c r="G265" s="230"/>
-      <c r="H265" s="230"/>
-      <c r="I265" s="230"/>
-      <c r="J265" s="230"/>
-      <c r="K265" s="230"/>
-      <c r="L265" s="230"/>
-      <c r="M265" s="231"/>
+      <c r="C265" s="188"/>
+      <c r="D265" s="189"/>
+      <c r="E265" s="189"/>
+      <c r="F265" s="189"/>
+      <c r="G265" s="189"/>
+      <c r="H265" s="189"/>
+      <c r="I265" s="189"/>
+      <c r="J265" s="189"/>
+      <c r="K265" s="189"/>
+      <c r="L265" s="189"/>
+      <c r="M265" s="190"/>
       <c r="N265" s="60"/>
       <c r="O265" s="2"/>
     </row>
@@ -6865,28 +6865,28 @@
     </row>
     <row r="269" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B269" s="18"/>
-      <c r="C269" s="176" t="s">
+      <c r="C269" s="169" t="s">
         <v>253</v>
       </c>
-      <c r="D269" s="176"/>
-      <c r="E269" s="172" t="s">
+      <c r="D269" s="169"/>
+      <c r="E269" s="192" t="s">
         <v>141</v>
       </c>
-      <c r="F269" s="173"/>
-      <c r="G269" s="173"/>
-      <c r="H269" s="173"/>
-      <c r="I269" s="173"/>
-      <c r="J269" s="173"/>
-      <c r="K269" s="173"/>
-      <c r="L269" s="173"/>
-      <c r="M269" s="174"/>
+      <c r="F269" s="193"/>
+      <c r="G269" s="193"/>
+      <c r="H269" s="193"/>
+      <c r="I269" s="193"/>
+      <c r="J269" s="193"/>
+      <c r="K269" s="193"/>
+      <c r="L269" s="193"/>
+      <c r="M269" s="194"/>
       <c r="N269" s="34"/>
       <c r="O269" s="2"/>
     </row>
     <row r="270" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B270" s="18"/>
-      <c r="C270" s="263"/>
-      <c r="D270" s="263"/>
+      <c r="C270" s="167"/>
+      <c r="D270" s="167"/>
       <c r="E270" s="71"/>
       <c r="F270" s="73"/>
       <c r="G270" s="73"/>
@@ -6901,8 +6901,8 @@
     </row>
     <row r="271" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B271" s="18"/>
-      <c r="C271" s="263"/>
-      <c r="D271" s="263"/>
+      <c r="C271" s="167"/>
+      <c r="D271" s="167"/>
       <c r="E271" s="71"/>
       <c r="F271" s="73"/>
       <c r="G271" s="73"/>
@@ -6917,8 +6917,8 @@
     </row>
     <row r="272" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B272" s="18"/>
-      <c r="C272" s="263"/>
-      <c r="D272" s="263"/>
+      <c r="C272" s="167"/>
+      <c r="D272" s="167"/>
       <c r="E272" s="71"/>
       <c r="F272" s="73"/>
       <c r="G272" s="73"/>
@@ -6933,8 +6933,8 @@
     </row>
     <row r="273" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B273" s="18"/>
-      <c r="C273" s="263"/>
-      <c r="D273" s="263"/>
+      <c r="C273" s="167"/>
+      <c r="D273" s="167"/>
       <c r="E273" s="71"/>
       <c r="F273" s="73"/>
       <c r="G273" s="73"/>
@@ -6999,83 +6999,83 @@
     </row>
     <row r="277" spans="2:15" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B277" s="18"/>
-      <c r="C277" s="268" t="s">
+      <c r="C277" s="191" t="s">
         <v>302</v>
       </c>
-      <c r="D277" s="268"/>
-      <c r="E277" s="268"/>
-      <c r="F277" s="268"/>
-      <c r="G277" s="268"/>
-      <c r="H277" s="268"/>
-      <c r="I277" s="268"/>
-      <c r="J277" s="268"/>
-      <c r="K277" s="268"/>
-      <c r="L277" s="268"/>
-      <c r="M277" s="268"/>
+      <c r="D277" s="191"/>
+      <c r="E277" s="191"/>
+      <c r="F277" s="191"/>
+      <c r="G277" s="191"/>
+      <c r="H277" s="191"/>
+      <c r="I277" s="191"/>
+      <c r="J277" s="191"/>
+      <c r="K277" s="191"/>
+      <c r="L277" s="191"/>
+      <c r="M277" s="191"/>
       <c r="N277" s="34"/>
       <c r="O277" s="2"/>
     </row>
     <row r="278" spans="2:15" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B278" s="18"/>
-      <c r="C278" s="268"/>
-      <c r="D278" s="268"/>
-      <c r="E278" s="268"/>
-      <c r="F278" s="268"/>
-      <c r="G278" s="268"/>
-      <c r="H278" s="268"/>
-      <c r="I278" s="268"/>
-      <c r="J278" s="268"/>
-      <c r="K278" s="268"/>
-      <c r="L278" s="268"/>
-      <c r="M278" s="268"/>
+      <c r="C278" s="191"/>
+      <c r="D278" s="191"/>
+      <c r="E278" s="191"/>
+      <c r="F278" s="191"/>
+      <c r="G278" s="191"/>
+      <c r="H278" s="191"/>
+      <c r="I278" s="191"/>
+      <c r="J278" s="191"/>
+      <c r="K278" s="191"/>
+      <c r="L278" s="191"/>
+      <c r="M278" s="191"/>
       <c r="N278" s="60"/>
       <c r="O278" s="2"/>
     </row>
     <row r="279" spans="2:15" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B279" s="18"/>
-      <c r="C279" s="268"/>
-      <c r="D279" s="268"/>
-      <c r="E279" s="268"/>
-      <c r="F279" s="268"/>
-      <c r="G279" s="268"/>
-      <c r="H279" s="268"/>
-      <c r="I279" s="268"/>
-      <c r="J279" s="268"/>
-      <c r="K279" s="268"/>
-      <c r="L279" s="268"/>
-      <c r="M279" s="268"/>
+      <c r="C279" s="191"/>
+      <c r="D279" s="191"/>
+      <c r="E279" s="191"/>
+      <c r="F279" s="191"/>
+      <c r="G279" s="191"/>
+      <c r="H279" s="191"/>
+      <c r="I279" s="191"/>
+      <c r="J279" s="191"/>
+      <c r="K279" s="191"/>
+      <c r="L279" s="191"/>
+      <c r="M279" s="191"/>
       <c r="N279" s="60"/>
       <c r="O279" s="2"/>
     </row>
     <row r="280" spans="2:15" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B280" s="18"/>
-      <c r="C280" s="268"/>
-      <c r="D280" s="268"/>
-      <c r="E280" s="268"/>
-      <c r="F280" s="268"/>
-      <c r="G280" s="268"/>
-      <c r="H280" s="268"/>
-      <c r="I280" s="268"/>
-      <c r="J280" s="268"/>
-      <c r="K280" s="268"/>
-      <c r="L280" s="268"/>
-      <c r="M280" s="268"/>
+      <c r="C280" s="191"/>
+      <c r="D280" s="191"/>
+      <c r="E280" s="191"/>
+      <c r="F280" s="191"/>
+      <c r="G280" s="191"/>
+      <c r="H280" s="191"/>
+      <c r="I280" s="191"/>
+      <c r="J280" s="191"/>
+      <c r="K280" s="191"/>
+      <c r="L280" s="191"/>
+      <c r="M280" s="191"/>
       <c r="N280" s="60"/>
       <c r="O280" s="2"/>
     </row>
     <row r="281" spans="2:15" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B281" s="18"/>
-      <c r="C281" s="268"/>
-      <c r="D281" s="268"/>
-      <c r="E281" s="268"/>
-      <c r="F281" s="268"/>
-      <c r="G281" s="268"/>
-      <c r="H281" s="268"/>
-      <c r="I281" s="268"/>
-      <c r="J281" s="268"/>
-      <c r="K281" s="268"/>
-      <c r="L281" s="268"/>
-      <c r="M281" s="268"/>
+      <c r="C281" s="191"/>
+      <c r="D281" s="191"/>
+      <c r="E281" s="191"/>
+      <c r="F281" s="191"/>
+      <c r="G281" s="191"/>
+      <c r="H281" s="191"/>
+      <c r="I281" s="191"/>
+      <c r="J281" s="191"/>
+      <c r="K281" s="191"/>
+      <c r="L281" s="191"/>
+      <c r="M281" s="191"/>
       <c r="N281" s="60"/>
       <c r="O281" s="2"/>
     </row>
@@ -7131,12 +7131,12 @@
     </row>
     <row r="285" spans="2:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B285" s="18"/>
-      <c r="C285" s="210" t="s">
+      <c r="C285" s="165" t="s">
         <v>144</v>
       </c>
-      <c r="D285" s="210"/>
-      <c r="E285" s="210"/>
-      <c r="F285" s="243"/>
+      <c r="D285" s="165"/>
+      <c r="E285" s="165"/>
+      <c r="F285" s="166"/>
       <c r="G285" s="106"/>
       <c r="H285" s="25"/>
       <c r="I285" s="25"/>
@@ -7147,10 +7147,10 @@
     </row>
     <row r="286" spans="2:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B286" s="18"/>
-      <c r="C286" s="210"/>
-      <c r="D286" s="210"/>
-      <c r="E286" s="210"/>
-      <c r="F286" s="210"/>
+      <c r="C286" s="165"/>
+      <c r="D286" s="165"/>
+      <c r="E286" s="165"/>
+      <c r="F286" s="165"/>
       <c r="G286" s="13"/>
       <c r="H286" s="25"/>
       <c r="I286" s="25"/>
@@ -7161,12 +7161,12 @@
     </row>
     <row r="287" spans="2:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B287" s="18"/>
-      <c r="C287" s="210" t="s">
+      <c r="C287" s="165" t="s">
         <v>145</v>
       </c>
-      <c r="D287" s="210"/>
-      <c r="E287" s="210"/>
-      <c r="F287" s="243"/>
+      <c r="D287" s="165"/>
+      <c r="E287" s="165"/>
+      <c r="F287" s="166"/>
       <c r="G287" s="106"/>
       <c r="H287" s="18" t="s">
         <v>146</v>
@@ -7179,10 +7179,10 @@
     </row>
     <row r="288" spans="2:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B288" s="18"/>
-      <c r="C288" s="210"/>
-      <c r="D288" s="210"/>
-      <c r="E288" s="210"/>
-      <c r="F288" s="210"/>
+      <c r="C288" s="165"/>
+      <c r="D288" s="165"/>
+      <c r="E288" s="165"/>
+      <c r="F288" s="165"/>
       <c r="G288" s="13"/>
       <c r="H288" s="25"/>
       <c r="I288" s="25"/>
@@ -7193,12 +7193,12 @@
     </row>
     <row r="289" spans="2:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B289" s="18"/>
-      <c r="C289" s="210" t="s">
+      <c r="C289" s="165" t="s">
         <v>147</v>
       </c>
-      <c r="D289" s="210"/>
-      <c r="E289" s="210"/>
-      <c r="F289" s="243"/>
+      <c r="D289" s="165"/>
+      <c r="E289" s="165"/>
+      <c r="F289" s="166"/>
       <c r="G289" s="106"/>
       <c r="H289" s="25"/>
       <c r="I289" s="25"/>
@@ -7223,12 +7223,12 @@
     </row>
     <row r="291" spans="2:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B291" s="18"/>
-      <c r="C291" s="210" t="s">
+      <c r="C291" s="165" t="s">
         <v>148</v>
       </c>
-      <c r="D291" s="210"/>
-      <c r="E291" s="210"/>
-      <c r="F291" s="243"/>
+      <c r="D291" s="165"/>
+      <c r="E291" s="165"/>
+      <c r="F291" s="166"/>
       <c r="G291" s="106"/>
       <c r="H291" s="25"/>
       <c r="I291" s="25"/>
@@ -7253,12 +7253,12 @@
     </row>
     <row r="293" spans="2:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B293" s="18"/>
-      <c r="C293" s="210" t="s">
+      <c r="C293" s="165" t="s">
         <v>149</v>
       </c>
-      <c r="D293" s="210"/>
-      <c r="E293" s="210"/>
-      <c r="F293" s="243"/>
+      <c r="D293" s="165"/>
+      <c r="E293" s="165"/>
+      <c r="F293" s="166"/>
       <c r="G293" s="106"/>
       <c r="H293" s="25"/>
       <c r="I293" s="25"/>
@@ -7361,82 +7361,82 @@
     </row>
     <row r="300" spans="2:15" ht="6.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B300" s="18"/>
-      <c r="C300" s="223" t="s">
+      <c r="C300" s="182" t="s">
         <v>305</v>
       </c>
-      <c r="D300" s="224"/>
-      <c r="E300" s="224"/>
-      <c r="F300" s="224"/>
-      <c r="G300" s="224"/>
-      <c r="H300" s="224"/>
-      <c r="I300" s="224"/>
-      <c r="J300" s="224"/>
-      <c r="K300" s="224"/>
-      <c r="L300" s="224"/>
-      <c r="M300" s="225"/>
+      <c r="D300" s="183"/>
+      <c r="E300" s="183"/>
+      <c r="F300" s="183"/>
+      <c r="G300" s="183"/>
+      <c r="H300" s="183"/>
+      <c r="I300" s="183"/>
+      <c r="J300" s="183"/>
+      <c r="K300" s="183"/>
+      <c r="L300" s="183"/>
+      <c r="M300" s="184"/>
       <c r="N300" s="21"/>
     </row>
     <row r="301" spans="2:15" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B301" s="18"/>
-      <c r="C301" s="226"/>
-      <c r="D301" s="227"/>
-      <c r="E301" s="227"/>
-      <c r="F301" s="227"/>
-      <c r="G301" s="227"/>
-      <c r="H301" s="227"/>
-      <c r="I301" s="227"/>
-      <c r="J301" s="227"/>
-      <c r="K301" s="227"/>
-      <c r="L301" s="227"/>
-      <c r="M301" s="228"/>
+      <c r="C301" s="185"/>
+      <c r="D301" s="186"/>
+      <c r="E301" s="186"/>
+      <c r="F301" s="186"/>
+      <c r="G301" s="186"/>
+      <c r="H301" s="186"/>
+      <c r="I301" s="186"/>
+      <c r="J301" s="186"/>
+      <c r="K301" s="186"/>
+      <c r="L301" s="186"/>
+      <c r="M301" s="187"/>
       <c r="N301" s="60"/>
       <c r="O301" s="2"/>
     </row>
     <row r="302" spans="2:15" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B302" s="18"/>
-      <c r="C302" s="226"/>
-      <c r="D302" s="227"/>
-      <c r="E302" s="227"/>
-      <c r="F302" s="227"/>
-      <c r="G302" s="227"/>
-      <c r="H302" s="227"/>
-      <c r="I302" s="227"/>
-      <c r="J302" s="227"/>
-      <c r="K302" s="227"/>
-      <c r="L302" s="227"/>
-      <c r="M302" s="228"/>
+      <c r="C302" s="185"/>
+      <c r="D302" s="186"/>
+      <c r="E302" s="186"/>
+      <c r="F302" s="186"/>
+      <c r="G302" s="186"/>
+      <c r="H302" s="186"/>
+      <c r="I302" s="186"/>
+      <c r="J302" s="186"/>
+      <c r="K302" s="186"/>
+      <c r="L302" s="186"/>
+      <c r="M302" s="187"/>
       <c r="N302" s="60"/>
       <c r="O302" s="2"/>
     </row>
     <row r="303" spans="2:15" ht="30.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B303" s="18"/>
-      <c r="C303" s="226"/>
-      <c r="D303" s="227"/>
-      <c r="E303" s="227"/>
-      <c r="F303" s="227"/>
-      <c r="G303" s="227"/>
-      <c r="H303" s="227"/>
-      <c r="I303" s="227"/>
-      <c r="J303" s="227"/>
-      <c r="K303" s="227"/>
-      <c r="L303" s="227"/>
-      <c r="M303" s="228"/>
+      <c r="C303" s="185"/>
+      <c r="D303" s="186"/>
+      <c r="E303" s="186"/>
+      <c r="F303" s="186"/>
+      <c r="G303" s="186"/>
+      <c r="H303" s="186"/>
+      <c r="I303" s="186"/>
+      <c r="J303" s="186"/>
+      <c r="K303" s="186"/>
+      <c r="L303" s="186"/>
+      <c r="M303" s="187"/>
       <c r="N303" s="60"/>
       <c r="O303" s="2"/>
     </row>
     <row r="304" spans="2:15" ht="119.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B304" s="18"/>
-      <c r="C304" s="229"/>
-      <c r="D304" s="230"/>
-      <c r="E304" s="230"/>
-      <c r="F304" s="230"/>
-      <c r="G304" s="230"/>
-      <c r="H304" s="230"/>
-      <c r="I304" s="230"/>
-      <c r="J304" s="230"/>
-      <c r="K304" s="230"/>
-      <c r="L304" s="230"/>
-      <c r="M304" s="231"/>
+      <c r="C304" s="188"/>
+      <c r="D304" s="189"/>
+      <c r="E304" s="189"/>
+      <c r="F304" s="189"/>
+      <c r="G304" s="189"/>
+      <c r="H304" s="189"/>
+      <c r="I304" s="189"/>
+      <c r="J304" s="189"/>
+      <c r="K304" s="189"/>
+      <c r="L304" s="189"/>
+      <c r="M304" s="190"/>
       <c r="N304" s="60"/>
       <c r="O304" s="2"/>
     </row>
@@ -7475,83 +7475,83 @@
     </row>
     <row r="307" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B307" s="18"/>
-      <c r="C307" s="223" t="s">
+      <c r="C307" s="182" t="s">
         <v>293</v>
       </c>
-      <c r="D307" s="224"/>
-      <c r="E307" s="224"/>
-      <c r="F307" s="224"/>
-      <c r="G307" s="224"/>
-      <c r="H307" s="224"/>
-      <c r="I307" s="224"/>
-      <c r="J307" s="224"/>
-      <c r="K307" s="224"/>
-      <c r="L307" s="224"/>
-      <c r="M307" s="225"/>
+      <c r="D307" s="183"/>
+      <c r="E307" s="183"/>
+      <c r="F307" s="183"/>
+      <c r="G307" s="183"/>
+      <c r="H307" s="183"/>
+      <c r="I307" s="183"/>
+      <c r="J307" s="183"/>
+      <c r="K307" s="183"/>
+      <c r="L307" s="183"/>
+      <c r="M307" s="184"/>
       <c r="N307" s="34"/>
       <c r="O307" s="2"/>
     </row>
     <row r="308" spans="2:15" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B308" s="18"/>
-      <c r="C308" s="226"/>
-      <c r="D308" s="227"/>
-      <c r="E308" s="227"/>
-      <c r="F308" s="227"/>
-      <c r="G308" s="227"/>
-      <c r="H308" s="227"/>
-      <c r="I308" s="227"/>
-      <c r="J308" s="227"/>
-      <c r="K308" s="227"/>
-      <c r="L308" s="227"/>
-      <c r="M308" s="228"/>
+      <c r="C308" s="185"/>
+      <c r="D308" s="186"/>
+      <c r="E308" s="186"/>
+      <c r="F308" s="186"/>
+      <c r="G308" s="186"/>
+      <c r="H308" s="186"/>
+      <c r="I308" s="186"/>
+      <c r="J308" s="186"/>
+      <c r="K308" s="186"/>
+      <c r="L308" s="186"/>
+      <c r="M308" s="187"/>
       <c r="N308" s="60"/>
       <c r="O308" s="2"/>
     </row>
     <row r="309" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B309" s="18"/>
-      <c r="C309" s="226"/>
-      <c r="D309" s="227"/>
-      <c r="E309" s="227"/>
-      <c r="F309" s="227"/>
-      <c r="G309" s="227"/>
-      <c r="H309" s="227"/>
-      <c r="I309" s="227"/>
-      <c r="J309" s="227"/>
-      <c r="K309" s="227"/>
-      <c r="L309" s="227"/>
-      <c r="M309" s="228"/>
+      <c r="C309" s="185"/>
+      <c r="D309" s="186"/>
+      <c r="E309" s="186"/>
+      <c r="F309" s="186"/>
+      <c r="G309" s="186"/>
+      <c r="H309" s="186"/>
+      <c r="I309" s="186"/>
+      <c r="J309" s="186"/>
+      <c r="K309" s="186"/>
+      <c r="L309" s="186"/>
+      <c r="M309" s="187"/>
       <c r="N309" s="60"/>
       <c r="O309" s="2"/>
     </row>
     <row r="310" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B310" s="18"/>
-      <c r="C310" s="226"/>
-      <c r="D310" s="227"/>
-      <c r="E310" s="227"/>
-      <c r="F310" s="227"/>
-      <c r="G310" s="227"/>
-      <c r="H310" s="227"/>
-      <c r="I310" s="227"/>
-      <c r="J310" s="227"/>
-      <c r="K310" s="227"/>
-      <c r="L310" s="227"/>
-      <c r="M310" s="228"/>
+      <c r="C310" s="185"/>
+      <c r="D310" s="186"/>
+      <c r="E310" s="186"/>
+      <c r="F310" s="186"/>
+      <c r="G310" s="186"/>
+      <c r="H310" s="186"/>
+      <c r="I310" s="186"/>
+      <c r="J310" s="186"/>
+      <c r="K310" s="186"/>
+      <c r="L310" s="186"/>
+      <c r="M310" s="187"/>
       <c r="N310" s="60"/>
       <c r="O310" s="2"/>
     </row>
     <row r="311" spans="2:15" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B311" s="18"/>
-      <c r="C311" s="229"/>
-      <c r="D311" s="230"/>
-      <c r="E311" s="230"/>
-      <c r="F311" s="230"/>
-      <c r="G311" s="230"/>
-      <c r="H311" s="230"/>
-      <c r="I311" s="230"/>
-      <c r="J311" s="230"/>
-      <c r="K311" s="230"/>
-      <c r="L311" s="230"/>
-      <c r="M311" s="231"/>
+      <c r="C311" s="188"/>
+      <c r="D311" s="189"/>
+      <c r="E311" s="189"/>
+      <c r="F311" s="189"/>
+      <c r="G311" s="189"/>
+      <c r="H311" s="189"/>
+      <c r="I311" s="189"/>
+      <c r="J311" s="189"/>
+      <c r="K311" s="189"/>
+      <c r="L311" s="189"/>
+      <c r="M311" s="190"/>
       <c r="N311" s="60"/>
       <c r="O311" s="2"/>
     </row>
@@ -7731,83 +7731,83 @@
     </row>
     <row r="322" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B322" s="18"/>
-      <c r="C322" s="223" t="s">
+      <c r="C322" s="182" t="s">
         <v>294</v>
       </c>
-      <c r="D322" s="224"/>
-      <c r="E322" s="224"/>
-      <c r="F322" s="224"/>
-      <c r="G322" s="224"/>
-      <c r="H322" s="224"/>
-      <c r="I322" s="224"/>
-      <c r="J322" s="224"/>
-      <c r="K322" s="224"/>
-      <c r="L322" s="224"/>
-      <c r="M322" s="225"/>
+      <c r="D322" s="183"/>
+      <c r="E322" s="183"/>
+      <c r="F322" s="183"/>
+      <c r="G322" s="183"/>
+      <c r="H322" s="183"/>
+      <c r="I322" s="183"/>
+      <c r="J322" s="183"/>
+      <c r="K322" s="183"/>
+      <c r="L322" s="183"/>
+      <c r="M322" s="184"/>
       <c r="N322" s="34"/>
       <c r="O322" s="2"/>
     </row>
     <row r="323" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B323" s="18"/>
-      <c r="C323" s="226"/>
-      <c r="D323" s="227"/>
-      <c r="E323" s="227"/>
-      <c r="F323" s="227"/>
-      <c r="G323" s="227"/>
-      <c r="H323" s="227"/>
-      <c r="I323" s="227"/>
-      <c r="J323" s="227"/>
-      <c r="K323" s="227"/>
-      <c r="L323" s="227"/>
-      <c r="M323" s="228"/>
+      <c r="C323" s="185"/>
+      <c r="D323" s="186"/>
+      <c r="E323" s="186"/>
+      <c r="F323" s="186"/>
+      <c r="G323" s="186"/>
+      <c r="H323" s="186"/>
+      <c r="I323" s="186"/>
+      <c r="J323" s="186"/>
+      <c r="K323" s="186"/>
+      <c r="L323" s="186"/>
+      <c r="M323" s="187"/>
       <c r="N323" s="60"/>
       <c r="O323" s="2"/>
     </row>
     <row r="324" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B324" s="18"/>
-      <c r="C324" s="226"/>
-      <c r="D324" s="227"/>
-      <c r="E324" s="227"/>
-      <c r="F324" s="227"/>
-      <c r="G324" s="227"/>
-      <c r="H324" s="227"/>
-      <c r="I324" s="227"/>
-      <c r="J324" s="227"/>
-      <c r="K324" s="227"/>
-      <c r="L324" s="227"/>
-      <c r="M324" s="228"/>
+      <c r="C324" s="185"/>
+      <c r="D324" s="186"/>
+      <c r="E324" s="186"/>
+      <c r="F324" s="186"/>
+      <c r="G324" s="186"/>
+      <c r="H324" s="186"/>
+      <c r="I324" s="186"/>
+      <c r="J324" s="186"/>
+      <c r="K324" s="186"/>
+      <c r="L324" s="186"/>
+      <c r="M324" s="187"/>
       <c r="N324" s="60"/>
       <c r="O324" s="2"/>
     </row>
     <row r="325" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B325" s="18"/>
-      <c r="C325" s="226"/>
-      <c r="D325" s="227"/>
-      <c r="E325" s="227"/>
-      <c r="F325" s="227"/>
-      <c r="G325" s="227"/>
-      <c r="H325" s="227"/>
-      <c r="I325" s="227"/>
-      <c r="J325" s="227"/>
-      <c r="K325" s="227"/>
-      <c r="L325" s="227"/>
-      <c r="M325" s="228"/>
+      <c r="C325" s="185"/>
+      <c r="D325" s="186"/>
+      <c r="E325" s="186"/>
+      <c r="F325" s="186"/>
+      <c r="G325" s="186"/>
+      <c r="H325" s="186"/>
+      <c r="I325" s="186"/>
+      <c r="J325" s="186"/>
+      <c r="K325" s="186"/>
+      <c r="L325" s="186"/>
+      <c r="M325" s="187"/>
       <c r="N325" s="60"/>
       <c r="O325" s="2"/>
     </row>
     <row r="326" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B326" s="18"/>
-      <c r="C326" s="229"/>
-      <c r="D326" s="230"/>
-      <c r="E326" s="230"/>
-      <c r="F326" s="230"/>
-      <c r="G326" s="230"/>
-      <c r="H326" s="230"/>
-      <c r="I326" s="230"/>
-      <c r="J326" s="230"/>
-      <c r="K326" s="230"/>
-      <c r="L326" s="230"/>
-      <c r="M326" s="231"/>
+      <c r="C326" s="188"/>
+      <c r="D326" s="189"/>
+      <c r="E326" s="189"/>
+      <c r="F326" s="189"/>
+      <c r="G326" s="189"/>
+      <c r="H326" s="189"/>
+      <c r="I326" s="189"/>
+      <c r="J326" s="189"/>
+      <c r="K326" s="189"/>
+      <c r="L326" s="189"/>
+      <c r="M326" s="190"/>
       <c r="N326" s="60"/>
       <c r="O326" s="2"/>
     </row>
@@ -7829,19 +7829,19 @@
     </row>
     <row r="328" spans="2:15" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B328" s="18"/>
-      <c r="C328" s="246" t="s">
+      <c r="C328" s="210" t="s">
         <v>156</v>
       </c>
-      <c r="D328" s="246"/>
-      <c r="E328" s="246"/>
-      <c r="F328" s="246"/>
-      <c r="G328" s="246"/>
-      <c r="H328" s="246"/>
-      <c r="I328" s="246"/>
-      <c r="J328" s="246"/>
-      <c r="K328" s="246"/>
-      <c r="L328" s="246"/>
-      <c r="M328" s="246"/>
+      <c r="D328" s="210"/>
+      <c r="E328" s="210"/>
+      <c r="F328" s="210"/>
+      <c r="G328" s="210"/>
+      <c r="H328" s="210"/>
+      <c r="I328" s="210"/>
+      <c r="J328" s="210"/>
+      <c r="K328" s="210"/>
+      <c r="L328" s="210"/>
+      <c r="M328" s="210"/>
       <c r="N328" s="20"/>
       <c r="O328" s="2"/>
     </row>
@@ -7956,79 +7956,79 @@
     </row>
     <row r="336" spans="2:15" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B336" s="18"/>
-      <c r="C336" s="247" t="s">
+      <c r="C336" s="173" t="s">
         <v>252</v>
       </c>
-      <c r="D336" s="248"/>
-      <c r="E336" s="248"/>
-      <c r="F336" s="248"/>
-      <c r="G336" s="248"/>
-      <c r="H336" s="248"/>
-      <c r="I336" s="248"/>
-      <c r="J336" s="248"/>
-      <c r="K336" s="248"/>
-      <c r="L336" s="248"/>
-      <c r="M336" s="249"/>
+      <c r="D336" s="174"/>
+      <c r="E336" s="174"/>
+      <c r="F336" s="174"/>
+      <c r="G336" s="174"/>
+      <c r="H336" s="174"/>
+      <c r="I336" s="174"/>
+      <c r="J336" s="174"/>
+      <c r="K336" s="174"/>
+      <c r="L336" s="174"/>
+      <c r="M336" s="175"/>
       <c r="N336" s="34"/>
     </row>
     <row r="337" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B337" s="18"/>
-      <c r="C337" s="250"/>
-      <c r="D337" s="251"/>
-      <c r="E337" s="251"/>
-      <c r="F337" s="251"/>
-      <c r="G337" s="251"/>
-      <c r="H337" s="251"/>
-      <c r="I337" s="251"/>
-      <c r="J337" s="251"/>
-      <c r="K337" s="251"/>
-      <c r="L337" s="251"/>
-      <c r="M337" s="252"/>
+      <c r="C337" s="176"/>
+      <c r="D337" s="177"/>
+      <c r="E337" s="177"/>
+      <c r="F337" s="177"/>
+      <c r="G337" s="177"/>
+      <c r="H337" s="177"/>
+      <c r="I337" s="177"/>
+      <c r="J337" s="177"/>
+      <c r="K337" s="177"/>
+      <c r="L337" s="177"/>
+      <c r="M337" s="178"/>
       <c r="N337" s="60"/>
     </row>
     <row r="338" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B338" s="18"/>
-      <c r="C338" s="250"/>
-      <c r="D338" s="251"/>
-      <c r="E338" s="251"/>
-      <c r="F338" s="251"/>
-      <c r="G338" s="251"/>
-      <c r="H338" s="251"/>
-      <c r="I338" s="251"/>
-      <c r="J338" s="251"/>
-      <c r="K338" s="251"/>
-      <c r="L338" s="251"/>
-      <c r="M338" s="252"/>
+      <c r="C338" s="176"/>
+      <c r="D338" s="177"/>
+      <c r="E338" s="177"/>
+      <c r="F338" s="177"/>
+      <c r="G338" s="177"/>
+      <c r="H338" s="177"/>
+      <c r="I338" s="177"/>
+      <c r="J338" s="177"/>
+      <c r="K338" s="177"/>
+      <c r="L338" s="177"/>
+      <c r="M338" s="178"/>
       <c r="N338" s="60"/>
     </row>
     <row r="339" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B339" s="18"/>
-      <c r="C339" s="250"/>
-      <c r="D339" s="251"/>
-      <c r="E339" s="251"/>
-      <c r="F339" s="251"/>
-      <c r="G339" s="251"/>
-      <c r="H339" s="251"/>
-      <c r="I339" s="251"/>
-      <c r="J339" s="251"/>
-      <c r="K339" s="251"/>
-      <c r="L339" s="251"/>
-      <c r="M339" s="252"/>
+      <c r="C339" s="176"/>
+      <c r="D339" s="177"/>
+      <c r="E339" s="177"/>
+      <c r="F339" s="177"/>
+      <c r="G339" s="177"/>
+      <c r="H339" s="177"/>
+      <c r="I339" s="177"/>
+      <c r="J339" s="177"/>
+      <c r="K339" s="177"/>
+      <c r="L339" s="177"/>
+      <c r="M339" s="178"/>
       <c r="N339" s="60"/>
     </row>
     <row r="340" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B340" s="18"/>
-      <c r="C340" s="253"/>
-      <c r="D340" s="254"/>
-      <c r="E340" s="254"/>
-      <c r="F340" s="254"/>
-      <c r="G340" s="254"/>
-      <c r="H340" s="254"/>
-      <c r="I340" s="254"/>
-      <c r="J340" s="254"/>
-      <c r="K340" s="254"/>
-      <c r="L340" s="254"/>
-      <c r="M340" s="255"/>
+      <c r="C340" s="179"/>
+      <c r="D340" s="180"/>
+      <c r="E340" s="180"/>
+      <c r="F340" s="180"/>
+      <c r="G340" s="180"/>
+      <c r="H340" s="180"/>
+      <c r="I340" s="180"/>
+      <c r="J340" s="180"/>
+      <c r="K340" s="180"/>
+      <c r="L340" s="180"/>
+      <c r="M340" s="181"/>
       <c r="N340" s="60"/>
     </row>
     <row r="341" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -8048,19 +8048,19 @@
     </row>
     <row r="342" spans="2:14" ht="39" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B342" s="18"/>
-      <c r="C342" s="246" t="s">
+      <c r="C342" s="210" t="s">
         <v>251</v>
       </c>
-      <c r="D342" s="246"/>
-      <c r="E342" s="246"/>
-      <c r="F342" s="246"/>
-      <c r="G342" s="246"/>
-      <c r="H342" s="246"/>
-      <c r="I342" s="246"/>
-      <c r="J342" s="246"/>
-      <c r="K342" s="246"/>
-      <c r="L342" s="246"/>
-      <c r="M342" s="246"/>
+      <c r="D342" s="210"/>
+      <c r="E342" s="210"/>
+      <c r="F342" s="210"/>
+      <c r="G342" s="210"/>
+      <c r="H342" s="210"/>
+      <c r="I342" s="210"/>
+      <c r="J342" s="210"/>
+      <c r="K342" s="210"/>
+      <c r="L342" s="210"/>
+      <c r="M342" s="210"/>
       <c r="N342" s="60"/>
     </row>
     <row r="343" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
@@ -8109,12 +8109,12 @@
     </row>
     <row r="346" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B346" s="18"/>
-      <c r="C346" s="245" t="s">
+      <c r="C346" s="207" t="s">
         <v>162</v>
       </c>
-      <c r="D346" s="245"/>
-      <c r="E346" s="245"/>
-      <c r="F346" s="245"/>
+      <c r="D346" s="207"/>
+      <c r="E346" s="207"/>
+      <c r="F346" s="207"/>
       <c r="H346" s="106"/>
       <c r="I346" s="25"/>
       <c r="J346" s="25"/>
@@ -8137,12 +8137,12 @@
     </row>
     <row r="348" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B348" s="18"/>
-      <c r="C348" s="245" t="s">
+      <c r="C348" s="207" t="s">
         <v>163</v>
       </c>
-      <c r="D348" s="245"/>
-      <c r="E348" s="245"/>
-      <c r="F348" s="245"/>
+      <c r="D348" s="207"/>
+      <c r="E348" s="207"/>
+      <c r="F348" s="207"/>
       <c r="H348" s="106"/>
       <c r="I348" s="18" t="s">
         <v>164</v>
@@ -8167,13 +8167,13 @@
     </row>
     <row r="350" spans="2:14" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B350" s="18"/>
-      <c r="C350" s="245" t="s">
+      <c r="C350" s="207" t="s">
         <v>165</v>
       </c>
-      <c r="D350" s="245"/>
-      <c r="E350" s="245"/>
-      <c r="F350" s="245"/>
-      <c r="G350" s="243"/>
+      <c r="D350" s="207"/>
+      <c r="E350" s="207"/>
+      <c r="F350" s="207"/>
+      <c r="G350" s="166"/>
       <c r="H350" s="106"/>
       <c r="I350" s="25"/>
       <c r="J350" s="25"/>
@@ -8196,13 +8196,13 @@
     </row>
     <row r="352" spans="2:14" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B352" s="18"/>
-      <c r="C352" s="245" t="s">
+      <c r="C352" s="207" t="s">
         <v>166</v>
       </c>
-      <c r="D352" s="245"/>
-      <c r="E352" s="245"/>
-      <c r="F352" s="245"/>
-      <c r="G352" s="243"/>
+      <c r="D352" s="207"/>
+      <c r="E352" s="207"/>
+      <c r="F352" s="207"/>
+      <c r="G352" s="166"/>
       <c r="H352" s="106"/>
       <c r="I352" s="25"/>
       <c r="J352" s="25"/>
@@ -8225,13 +8225,13 @@
     </row>
     <row r="354" spans="2:15" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B354" s="18"/>
-      <c r="C354" s="245" t="s">
+      <c r="C354" s="207" t="s">
         <v>167</v>
       </c>
-      <c r="D354" s="245"/>
-      <c r="E354" s="245"/>
-      <c r="F354" s="245"/>
-      <c r="G354" s="243"/>
+      <c r="D354" s="207"/>
+      <c r="E354" s="207"/>
+      <c r="F354" s="207"/>
+      <c r="G354" s="166"/>
       <c r="H354" s="106"/>
       <c r="I354" s="25"/>
       <c r="J354" s="25"/>
@@ -8303,83 +8303,83 @@
     </row>
     <row r="359" spans="2:15" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B359" s="18"/>
-      <c r="C359" s="223" t="s">
+      <c r="C359" s="182" t="s">
         <v>295</v>
       </c>
-      <c r="D359" s="224"/>
-      <c r="E359" s="224"/>
-      <c r="F359" s="224"/>
-      <c r="G359" s="224"/>
-      <c r="H359" s="224"/>
-      <c r="I359" s="224"/>
-      <c r="J359" s="224"/>
-      <c r="K359" s="224"/>
-      <c r="L359" s="224"/>
-      <c r="M359" s="225"/>
+      <c r="D359" s="183"/>
+      <c r="E359" s="183"/>
+      <c r="F359" s="183"/>
+      <c r="G359" s="183"/>
+      <c r="H359" s="183"/>
+      <c r="I359" s="183"/>
+      <c r="J359" s="183"/>
+      <c r="K359" s="183"/>
+      <c r="L359" s="183"/>
+      <c r="M359" s="184"/>
       <c r="N359" s="34"/>
       <c r="O359" s="2"/>
     </row>
     <row r="360" spans="2:15" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B360" s="18"/>
-      <c r="C360" s="226"/>
-      <c r="D360" s="227"/>
-      <c r="E360" s="227"/>
-      <c r="F360" s="227"/>
-      <c r="G360" s="227"/>
-      <c r="H360" s="227"/>
-      <c r="I360" s="227"/>
-      <c r="J360" s="227"/>
-      <c r="K360" s="227"/>
-      <c r="L360" s="227"/>
-      <c r="M360" s="228"/>
+      <c r="C360" s="185"/>
+      <c r="D360" s="186"/>
+      <c r="E360" s="186"/>
+      <c r="F360" s="186"/>
+      <c r="G360" s="186"/>
+      <c r="H360" s="186"/>
+      <c r="I360" s="186"/>
+      <c r="J360" s="186"/>
+      <c r="K360" s="186"/>
+      <c r="L360" s="186"/>
+      <c r="M360" s="187"/>
       <c r="N360" s="60"/>
       <c r="O360" s="2"/>
     </row>
     <row r="361" spans="2:15" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B361" s="18"/>
-      <c r="C361" s="226"/>
-      <c r="D361" s="227"/>
-      <c r="E361" s="227"/>
-      <c r="F361" s="227"/>
-      <c r="G361" s="227"/>
-      <c r="H361" s="227"/>
-      <c r="I361" s="227"/>
-      <c r="J361" s="227"/>
-      <c r="K361" s="227"/>
-      <c r="L361" s="227"/>
-      <c r="M361" s="228"/>
+      <c r="C361" s="185"/>
+      <c r="D361" s="186"/>
+      <c r="E361" s="186"/>
+      <c r="F361" s="186"/>
+      <c r="G361" s="186"/>
+      <c r="H361" s="186"/>
+      <c r="I361" s="186"/>
+      <c r="J361" s="186"/>
+      <c r="K361" s="186"/>
+      <c r="L361" s="186"/>
+      <c r="M361" s="187"/>
       <c r="N361" s="60"/>
       <c r="O361" s="2"/>
     </row>
     <row r="362" spans="2:15" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B362" s="18"/>
-      <c r="C362" s="226"/>
-      <c r="D362" s="227"/>
-      <c r="E362" s="227"/>
-      <c r="F362" s="227"/>
-      <c r="G362" s="227"/>
-      <c r="H362" s="227"/>
-      <c r="I362" s="227"/>
-      <c r="J362" s="227"/>
-      <c r="K362" s="227"/>
-      <c r="L362" s="227"/>
-      <c r="M362" s="228"/>
+      <c r="C362" s="185"/>
+      <c r="D362" s="186"/>
+      <c r="E362" s="186"/>
+      <c r="F362" s="186"/>
+      <c r="G362" s="186"/>
+      <c r="H362" s="186"/>
+      <c r="I362" s="186"/>
+      <c r="J362" s="186"/>
+      <c r="K362" s="186"/>
+      <c r="L362" s="186"/>
+      <c r="M362" s="187"/>
       <c r="N362" s="60"/>
       <c r="O362" s="2"/>
     </row>
     <row r="363" spans="2:15" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B363" s="18"/>
-      <c r="C363" s="229"/>
-      <c r="D363" s="230"/>
-      <c r="E363" s="230"/>
-      <c r="F363" s="230"/>
-      <c r="G363" s="230"/>
-      <c r="H363" s="230"/>
-      <c r="I363" s="230"/>
-      <c r="J363" s="230"/>
-      <c r="K363" s="230"/>
-      <c r="L363" s="230"/>
-      <c r="M363" s="231"/>
+      <c r="C363" s="188"/>
+      <c r="D363" s="189"/>
+      <c r="E363" s="189"/>
+      <c r="F363" s="189"/>
+      <c r="G363" s="189"/>
+      <c r="H363" s="189"/>
+      <c r="I363" s="189"/>
+      <c r="J363" s="189"/>
+      <c r="K363" s="189"/>
+      <c r="L363" s="189"/>
+      <c r="M363" s="190"/>
       <c r="N363" s="60"/>
       <c r="O363" s="2"/>
     </row>
@@ -8454,28 +8454,28 @@
     </row>
     <row r="368" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B368" s="18"/>
-      <c r="C368" s="256" t="s">
+      <c r="C368" s="211" t="s">
         <v>253</v>
       </c>
-      <c r="D368" s="257"/>
-      <c r="E368" s="164" t="s">
+      <c r="D368" s="212"/>
+      <c r="E368" s="208" t="s">
         <v>141</v>
       </c>
-      <c r="F368" s="258"/>
-      <c r="G368" s="258"/>
-      <c r="H368" s="258"/>
-      <c r="I368" s="258"/>
-      <c r="J368" s="258"/>
-      <c r="K368" s="258"/>
-      <c r="L368" s="258"/>
-      <c r="M368" s="165"/>
+      <c r="F368" s="213"/>
+      <c r="G368" s="213"/>
+      <c r="H368" s="213"/>
+      <c r="I368" s="213"/>
+      <c r="J368" s="213"/>
+      <c r="K368" s="213"/>
+      <c r="L368" s="213"/>
+      <c r="M368" s="209"/>
       <c r="N368" s="20"/>
       <c r="O368" s="2"/>
     </row>
     <row r="369" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B369" s="18"/>
-      <c r="C369" s="164"/>
-      <c r="D369" s="165"/>
+      <c r="C369" s="208"/>
+      <c r="D369" s="209"/>
       <c r="E369" s="71"/>
       <c r="F369" s="73"/>
       <c r="G369" s="73"/>
@@ -8490,19 +8490,19 @@
     </row>
     <row r="370" spans="2:15" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B370" s="18"/>
-      <c r="C370" s="244" t="s">
+      <c r="C370" s="206" t="s">
         <v>270</v>
       </c>
-      <c r="D370" s="244"/>
-      <c r="E370" s="244"/>
-      <c r="F370" s="244"/>
-      <c r="G370" s="244"/>
-      <c r="H370" s="244"/>
-      <c r="I370" s="244"/>
-      <c r="J370" s="244"/>
-      <c r="K370" s="244"/>
-      <c r="L370" s="244"/>
-      <c r="M370" s="244"/>
+      <c r="D370" s="206"/>
+      <c r="E370" s="206"/>
+      <c r="F370" s="206"/>
+      <c r="G370" s="206"/>
+      <c r="H370" s="206"/>
+      <c r="I370" s="206"/>
+      <c r="J370" s="206"/>
+      <c r="K370" s="206"/>
+      <c r="L370" s="206"/>
+      <c r="M370" s="206"/>
       <c r="N370" s="13"/>
       <c r="O370" s="2"/>
     </row>
@@ -8590,20 +8590,20 @@
       <c r="C376" s="75" t="s">
         <v>173</v>
       </c>
-      <c r="D376" s="163" t="s">
+      <c r="D376" s="266" t="s">
         <v>51</v>
       </c>
-      <c r="E376" s="163"/>
-      <c r="F376" s="162" t="s">
+      <c r="E376" s="266"/>
+      <c r="F376" s="267" t="s">
         <v>174</v>
       </c>
-      <c r="G376" s="162"/>
-      <c r="H376" s="162"/>
-      <c r="I376" s="162" t="s">
+      <c r="G376" s="267"/>
+      <c r="H376" s="267"/>
+      <c r="I376" s="267" t="s">
         <v>175</v>
       </c>
-      <c r="J376" s="162"/>
-      <c r="K376" s="162"/>
+      <c r="J376" s="267"/>
+      <c r="K376" s="267"/>
       <c r="L376" s="22"/>
       <c r="M376" s="22"/>
       <c r="N376" s="18"/>
@@ -8613,14 +8613,14 @@
       <c r="C377" s="75">
         <v>1</v>
       </c>
-      <c r="D377" s="163"/>
-      <c r="E377" s="163"/>
-      <c r="F377" s="162"/>
-      <c r="G377" s="162"/>
-      <c r="H377" s="162"/>
-      <c r="I377" s="162"/>
-      <c r="J377" s="162"/>
-      <c r="K377" s="162"/>
+      <c r="D377" s="266"/>
+      <c r="E377" s="266"/>
+      <c r="F377" s="267"/>
+      <c r="G377" s="267"/>
+      <c r="H377" s="267"/>
+      <c r="I377" s="267"/>
+      <c r="J377" s="267"/>
+      <c r="K377" s="267"/>
       <c r="L377" s="22"/>
       <c r="M377" s="34"/>
       <c r="N377" s="76"/>
@@ -8630,14 +8630,14 @@
       <c r="C378" s="75">
         <v>2</v>
       </c>
-      <c r="D378" s="163"/>
-      <c r="E378" s="163"/>
-      <c r="F378" s="162"/>
-      <c r="G378" s="162"/>
-      <c r="H378" s="162"/>
-      <c r="I378" s="162"/>
-      <c r="J378" s="162"/>
-      <c r="K378" s="162"/>
+      <c r="D378" s="266"/>
+      <c r="E378" s="266"/>
+      <c r="F378" s="267"/>
+      <c r="G378" s="267"/>
+      <c r="H378" s="267"/>
+      <c r="I378" s="267"/>
+      <c r="J378" s="267"/>
+      <c r="K378" s="267"/>
       <c r="L378" s="22"/>
       <c r="M378" s="34"/>
       <c r="N378" s="34"/>
@@ -8647,14 +8647,14 @@
       <c r="C379" s="75">
         <v>3</v>
       </c>
-      <c r="D379" s="163"/>
-      <c r="E379" s="163"/>
-      <c r="F379" s="162"/>
-      <c r="G379" s="162"/>
-      <c r="H379" s="162"/>
-      <c r="I379" s="162"/>
-      <c r="J379" s="162"/>
-      <c r="K379" s="162"/>
+      <c r="D379" s="266"/>
+      <c r="E379" s="266"/>
+      <c r="F379" s="267"/>
+      <c r="G379" s="267"/>
+      <c r="H379" s="267"/>
+      <c r="I379" s="267"/>
+      <c r="J379" s="267"/>
+      <c r="K379" s="267"/>
       <c r="L379" s="22"/>
       <c r="M379" s="34"/>
       <c r="N379" s="34"/>
@@ -8664,14 +8664,14 @@
       <c r="C380" s="75" t="s">
         <v>177</v>
       </c>
-      <c r="D380" s="163"/>
-      <c r="E380" s="163"/>
-      <c r="F380" s="162"/>
-      <c r="G380" s="162"/>
-      <c r="H380" s="162"/>
-      <c r="I380" s="162"/>
-      <c r="J380" s="162"/>
-      <c r="K380" s="162"/>
+      <c r="D380" s="266"/>
+      <c r="E380" s="266"/>
+      <c r="F380" s="267"/>
+      <c r="G380" s="267"/>
+      <c r="H380" s="267"/>
+      <c r="I380" s="267"/>
+      <c r="J380" s="267"/>
+      <c r="K380" s="267"/>
       <c r="L380" s="22"/>
       <c r="M380" s="34"/>
       <c r="N380" s="34"/>
@@ -8681,14 +8681,14 @@
       <c r="C381" s="75" t="s">
         <v>178</v>
       </c>
-      <c r="D381" s="163"/>
-      <c r="E381" s="163"/>
-      <c r="F381" s="162"/>
-      <c r="G381" s="162"/>
-      <c r="H381" s="162"/>
-      <c r="I381" s="162"/>
-      <c r="J381" s="162"/>
-      <c r="K381" s="162"/>
+      <c r="D381" s="266"/>
+      <c r="E381" s="266"/>
+      <c r="F381" s="267"/>
+      <c r="G381" s="267"/>
+      <c r="H381" s="267"/>
+      <c r="I381" s="267"/>
+      <c r="J381" s="267"/>
+      <c r="K381" s="267"/>
       <c r="L381" s="22"/>
       <c r="M381" s="34"/>
       <c r="N381" s="34"/>
@@ -8698,14 +8698,14 @@
       <c r="C382" s="75" t="s">
         <v>179</v>
       </c>
-      <c r="D382" s="163"/>
-      <c r="E382" s="163"/>
-      <c r="F382" s="162"/>
-      <c r="G382" s="162"/>
-      <c r="H382" s="162"/>
-      <c r="I382" s="162"/>
-      <c r="J382" s="162"/>
-      <c r="K382" s="162"/>
+      <c r="D382" s="266"/>
+      <c r="E382" s="266"/>
+      <c r="F382" s="267"/>
+      <c r="G382" s="267"/>
+      <c r="H382" s="267"/>
+      <c r="I382" s="267"/>
+      <c r="J382" s="267"/>
+      <c r="K382" s="267"/>
       <c r="L382" s="22"/>
       <c r="M382" s="34"/>
       <c r="N382" s="34"/>
@@ -8715,14 +8715,14 @@
       <c r="C383" s="75" t="s">
         <v>180</v>
       </c>
-      <c r="D383" s="163"/>
-      <c r="E383" s="163"/>
-      <c r="F383" s="162"/>
-      <c r="G383" s="162"/>
-      <c r="H383" s="162"/>
-      <c r="I383" s="162"/>
-      <c r="J383" s="162"/>
-      <c r="K383" s="162"/>
+      <c r="D383" s="266"/>
+      <c r="E383" s="266"/>
+      <c r="F383" s="267"/>
+      <c r="G383" s="267"/>
+      <c r="H383" s="267"/>
+      <c r="I383" s="267"/>
+      <c r="J383" s="267"/>
+      <c r="K383" s="267"/>
       <c r="L383" s="22"/>
       <c r="M383" s="34"/>
       <c r="N383" s="34"/>
@@ -8847,10 +8847,10 @@
     </row>
     <row r="393" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B393" s="18"/>
-      <c r="D393" s="163" t="s">
+      <c r="D393" s="266" t="s">
         <v>265</v>
       </c>
-      <c r="E393" s="163"/>
+      <c r="E393" s="266"/>
       <c r="J393" s="25"/>
       <c r="K393" s="25"/>
       <c r="L393" s="25"/>
@@ -8858,43 +8858,43 @@
     </row>
     <row r="394" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B394" s="18"/>
-      <c r="C394" s="176" t="s">
+      <c r="C394" s="169" t="s">
         <v>182</v>
       </c>
-      <c r="D394" s="176" t="s">
+      <c r="D394" s="169" t="s">
         <v>264</v>
       </c>
-      <c r="E394" s="176" t="s">
+      <c r="E394" s="169" t="s">
         <v>59</v>
       </c>
-      <c r="F394" s="176" t="s">
+      <c r="F394" s="169" t="s">
         <v>60</v>
       </c>
-      <c r="G394" s="177" t="s">
+      <c r="G394" s="268" t="s">
         <v>183</v>
       </c>
-      <c r="H394" s="177" t="s">
+      <c r="H394" s="268" t="s">
         <v>176</v>
       </c>
-      <c r="I394" s="177" t="s">
+      <c r="I394" s="268" t="s">
         <v>184</v>
       </c>
-      <c r="J394" s="162" t="s">
+      <c r="J394" s="267" t="s">
         <v>185</v>
       </c>
-      <c r="K394" s="162"/>
+      <c r="K394" s="267"/>
       <c r="L394" s="22"/>
       <c r="M394" s="25"/>
     </row>
     <row r="395" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B395" s="18"/>
-      <c r="C395" s="176"/>
-      <c r="D395" s="176"/>
-      <c r="E395" s="176"/>
-      <c r="F395" s="176"/>
-      <c r="G395" s="178"/>
-      <c r="H395" s="178"/>
-      <c r="I395" s="178"/>
+      <c r="C395" s="169"/>
+      <c r="D395" s="169"/>
+      <c r="E395" s="169"/>
+      <c r="F395" s="169"/>
+      <c r="G395" s="269"/>
+      <c r="H395" s="269"/>
+      <c r="I395" s="269"/>
       <c r="J395" s="75" t="s">
         <v>186</v>
       </c>
@@ -8917,7 +8917,7 @@
       <c r="I396" s="39"/>
       <c r="J396" s="119"/>
       <c r="K396" s="119"/>
-      <c r="L396" s="281"/>
+      <c r="L396" s="159"/>
       <c r="M396" s="25"/>
     </row>
     <row r="397" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
@@ -9199,21 +9199,21 @@
     </row>
     <row r="415" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B415" s="18"/>
-      <c r="C415" s="172" t="s">
+      <c r="C415" s="192" t="s">
         <v>265</v>
       </c>
-      <c r="D415" s="174"/>
-      <c r="E415" s="172" t="s">
+      <c r="D415" s="194"/>
+      <c r="E415" s="192" t="s">
         <v>204</v>
       </c>
-      <c r="F415" s="173"/>
-      <c r="G415" s="173"/>
-      <c r="H415" s="173"/>
-      <c r="I415" s="173"/>
-      <c r="J415" s="173"/>
-      <c r="K415" s="174"/>
+      <c r="F415" s="193"/>
+      <c r="G415" s="193"/>
+      <c r="H415" s="193"/>
+      <c r="I415" s="193"/>
+      <c r="J415" s="193"/>
+      <c r="K415" s="194"/>
       <c r="L415" s="154"/>
-      <c r="M415" s="177" t="s">
+      <c r="M415" s="268" t="s">
         <v>205</v>
       </c>
     </row>
@@ -9246,8 +9246,8 @@
       <c r="K416" s="75" t="s">
         <v>180</v>
       </c>
-      <c r="L416" s="282"/>
-      <c r="M416" s="178"/>
+      <c r="L416" s="160"/>
+      <c r="M416" s="269"/>
     </row>
     <row r="417" spans="2:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B417" s="20"/>
@@ -9493,23 +9493,23 @@
     </row>
     <row r="432" spans="2:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B432" s="20"/>
-      <c r="C432" s="172" t="s">
+      <c r="C432" s="192" t="s">
         <v>265</v>
       </c>
-      <c r="D432" s="174"/>
-      <c r="E432" s="183" t="s">
+      <c r="D432" s="194"/>
+      <c r="E432" s="270" t="s">
         <v>214</v>
       </c>
-      <c r="F432" s="172" t="s">
+      <c r="F432" s="192" t="s">
         <v>204</v>
       </c>
-      <c r="G432" s="173"/>
-      <c r="H432" s="173"/>
-      <c r="I432" s="173"/>
-      <c r="J432" s="173"/>
-      <c r="K432" s="174"/>
+      <c r="G432" s="193"/>
+      <c r="H432" s="193"/>
+      <c r="I432" s="193"/>
+      <c r="J432" s="193"/>
+      <c r="K432" s="194"/>
       <c r="L432" s="154"/>
-      <c r="M432" s="177" t="s">
+      <c r="M432" s="268" t="s">
         <v>210</v>
       </c>
     </row>
@@ -9521,7 +9521,7 @@
       <c r="D433" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="E433" s="163"/>
+      <c r="E433" s="266"/>
       <c r="F433" s="75">
         <v>1</v>
       </c>
@@ -9540,8 +9540,8 @@
       <c r="K433" s="75" t="s">
         <v>180</v>
       </c>
-      <c r="L433" s="282"/>
-      <c r="M433" s="178"/>
+      <c r="L433" s="160"/>
+      <c r="M433" s="269"/>
     </row>
     <row r="434" spans="2:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B434" s="20"/>
@@ -9729,26 +9729,26 @@
     </row>
     <row r="446" spans="2:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B446" s="20"/>
-      <c r="C446" s="168" t="s">
+      <c r="C446" s="271" t="s">
         <v>59</v>
       </c>
-      <c r="D446" s="169"/>
-      <c r="E446" s="172" t="s">
+      <c r="D446" s="272"/>
+      <c r="E446" s="192" t="s">
         <v>204</v>
       </c>
-      <c r="F446" s="173"/>
-      <c r="G446" s="173"/>
-      <c r="H446" s="173"/>
-      <c r="I446" s="173"/>
-      <c r="J446" s="173"/>
-      <c r="K446" s="174"/>
+      <c r="F446" s="193"/>
+      <c r="G446" s="193"/>
+      <c r="H446" s="193"/>
+      <c r="I446" s="193"/>
+      <c r="J446" s="193"/>
+      <c r="K446" s="194"/>
       <c r="L446" s="22"/>
-      <c r="M446" s="175"/>
+      <c r="M446" s="275"/>
     </row>
     <row r="447" spans="2:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B447" s="20"/>
-      <c r="C447" s="170"/>
-      <c r="D447" s="171"/>
+      <c r="C447" s="273"/>
+      <c r="D447" s="274"/>
       <c r="E447" s="75">
         <v>1</v>
       </c>
@@ -9771,14 +9771,14 @@
         <v>180</v>
       </c>
       <c r="L447" s="22"/>
-      <c r="M447" s="175"/>
+      <c r="M447" s="275"/>
     </row>
     <row r="448" spans="2:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B448" s="20"/>
-      <c r="C448" s="164" t="s">
+      <c r="C448" s="208" t="s">
         <v>219</v>
       </c>
-      <c r="D448" s="165"/>
+      <c r="D448" s="209"/>
       <c r="E448" s="82"/>
       <c r="F448" s="82"/>
       <c r="G448" s="82"/>
@@ -9790,10 +9790,10 @@
     </row>
     <row r="449" spans="2:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B449" s="20"/>
-      <c r="C449" s="164" t="s">
+      <c r="C449" s="208" t="s">
         <v>178</v>
       </c>
-      <c r="D449" s="165"/>
+      <c r="D449" s="209"/>
       <c r="E449" s="82"/>
       <c r="F449" s="82"/>
       <c r="G449" s="82"/>
@@ -9805,10 +9805,10 @@
     </row>
     <row r="450" spans="2:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B450" s="20"/>
-      <c r="C450" s="164" t="s">
+      <c r="C450" s="208" t="s">
         <v>220</v>
       </c>
-      <c r="D450" s="165"/>
+      <c r="D450" s="209"/>
       <c r="E450" s="82"/>
       <c r="F450" s="82"/>
       <c r="G450" s="82"/>
@@ -9820,10 +9820,10 @@
     </row>
     <row r="451" spans="2:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B451" s="20"/>
-      <c r="C451" s="172" t="s">
+      <c r="C451" s="192" t="s">
         <v>210</v>
       </c>
-      <c r="D451" s="174"/>
+      <c r="D451" s="194"/>
       <c r="E451" s="46"/>
       <c r="F451" s="46"/>
       <c r="G451" s="46"/>
@@ -10159,17 +10159,17 @@
         <v>238</v>
       </c>
       <c r="C473" s="80"/>
-      <c r="E473" s="182" t="s">
+      <c r="E473" s="276" t="s">
         <v>328</v>
       </c>
-      <c r="F473" s="182"/>
-      <c r="G473" s="182"/>
-      <c r="H473" s="182"/>
-      <c r="I473" s="182"/>
-      <c r="J473" s="182"/>
-      <c r="K473" s="182"/>
-      <c r="L473" s="182"/>
-      <c r="M473" s="182"/>
+      <c r="F473" s="276"/>
+      <c r="G473" s="276"/>
+      <c r="H473" s="276"/>
+      <c r="I473" s="276"/>
+      <c r="J473" s="276"/>
+      <c r="K473" s="276"/>
+      <c r="L473" s="276"/>
+      <c r="M473" s="276"/>
       <c r="N473" s="134"/>
     </row>
     <row r="474" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -10205,10 +10205,10 @@
     <row r="476" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B476" s="19"/>
       <c r="C476" s="19"/>
-      <c r="D476" s="163" t="s">
+      <c r="D476" s="266" t="s">
         <v>265</v>
       </c>
-      <c r="E476" s="163"/>
+      <c r="E476" s="266"/>
       <c r="F476" s="19"/>
       <c r="G476" s="19"/>
       <c r="H476" s="19"/>
@@ -10220,43 +10220,43 @@
     </row>
     <row r="477" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B477" s="79"/>
-      <c r="C477" s="176" t="s">
+      <c r="C477" s="169" t="s">
         <v>182</v>
       </c>
-      <c r="D477" s="176" t="s">
+      <c r="D477" s="169" t="s">
         <v>58</v>
       </c>
-      <c r="E477" s="176" t="s">
+      <c r="E477" s="169" t="s">
         <v>59</v>
       </c>
-      <c r="F477" s="176" t="s">
+      <c r="F477" s="169" t="s">
         <v>60</v>
       </c>
-      <c r="G477" s="177" t="s">
+      <c r="G477" s="268" t="s">
         <v>183</v>
       </c>
-      <c r="H477" s="177" t="s">
+      <c r="H477" s="268" t="s">
         <v>176</v>
       </c>
-      <c r="I477" s="177" t="s">
+      <c r="I477" s="268" t="s">
         <v>184</v>
       </c>
-      <c r="J477" s="179" t="s">
+      <c r="J477" s="203" t="s">
         <v>240</v>
       </c>
-      <c r="K477" s="180"/>
-      <c r="L477" s="180"/>
-      <c r="M477" s="181"/>
+      <c r="K477" s="204"/>
+      <c r="L477" s="204"/>
+      <c r="M477" s="205"/>
     </row>
     <row r="478" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B478" s="79"/>
-      <c r="C478" s="176"/>
-      <c r="D478" s="176"/>
-      <c r="E478" s="176"/>
-      <c r="F478" s="176"/>
-      <c r="G478" s="178"/>
-      <c r="H478" s="178"/>
-      <c r="I478" s="178"/>
+      <c r="C478" s="169"/>
+      <c r="D478" s="169"/>
+      <c r="E478" s="169"/>
+      <c r="F478" s="169"/>
+      <c r="G478" s="269"/>
+      <c r="H478" s="269"/>
+      <c r="I478" s="269"/>
       <c r="J478" s="77" t="s">
         <v>241</v>
       </c>
@@ -10396,10 +10396,10 @@
       <c r="D485" s="80"/>
       <c r="E485" s="80"/>
       <c r="F485" s="40"/>
-      <c r="G485" s="274" t="s">
+      <c r="G485" s="279" t="s">
         <v>277</v>
       </c>
-      <c r="H485" s="274"/>
+      <c r="H485" s="279"/>
       <c r="I485" s="128">
         <v>10000</v>
       </c>
@@ -10418,10 +10418,10 @@
       <c r="D486" s="80"/>
       <c r="E486" s="80"/>
       <c r="F486" s="40"/>
-      <c r="G486" s="275" t="s">
+      <c r="G486" s="280" t="s">
         <v>278</v>
       </c>
-      <c r="H486" s="275"/>
+      <c r="H486" s="280"/>
       <c r="I486" s="128">
         <v>24961.5</v>
       </c>
@@ -10443,10 +10443,10 @@
       <c r="D487" s="80"/>
       <c r="E487" s="80"/>
       <c r="F487" s="40"/>
-      <c r="G487" s="275" t="s">
+      <c r="G487" s="280" t="s">
         <v>195</v>
       </c>
-      <c r="H487" s="275"/>
+      <c r="H487" s="280"/>
       <c r="I487" s="128">
         <v>17290.75</v>
       </c>
@@ -10465,10 +10465,10 @@
       <c r="D488" s="80"/>
       <c r="E488" s="80"/>
       <c r="F488" s="40"/>
-      <c r="G488" s="276" t="s">
+      <c r="G488" s="278" t="s">
         <v>196</v>
       </c>
-      <c r="H488" s="276"/>
+      <c r="H488" s="278"/>
       <c r="I488" s="129">
         <f>SUM(I479:I487)</f>
         <v>432791.55</v>
@@ -10613,27 +10613,27 @@
     </row>
     <row r="497" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B497" s="20"/>
-      <c r="C497" s="168" t="s">
+      <c r="C497" s="271" t="s">
         <v>59</v>
       </c>
-      <c r="D497" s="169"/>
-      <c r="E497" s="172" t="s">
+      <c r="D497" s="272"/>
+      <c r="E497" s="192" t="s">
         <v>204</v>
       </c>
-      <c r="F497" s="173"/>
-      <c r="G497" s="173"/>
-      <c r="H497" s="173"/>
-      <c r="I497" s="173"/>
-      <c r="J497" s="173"/>
-      <c r="K497" s="174"/>
+      <c r="F497" s="193"/>
+      <c r="G497" s="193"/>
+      <c r="H497" s="193"/>
+      <c r="I497" s="193"/>
+      <c r="J497" s="193"/>
+      <c r="K497" s="194"/>
       <c r="L497" s="22"/>
-      <c r="M497" s="175"/>
+      <c r="M497" s="275"/>
       <c r="N497" s="80"/>
     </row>
     <row r="498" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B498" s="20"/>
-      <c r="C498" s="170"/>
-      <c r="D498" s="171"/>
+      <c r="C498" s="273"/>
+      <c r="D498" s="274"/>
       <c r="E498" s="75">
         <v>1</v>
       </c>
@@ -10656,15 +10656,15 @@
         <v>10</v>
       </c>
       <c r="L498" s="22"/>
-      <c r="M498" s="175"/>
+      <c r="M498" s="275"/>
       <c r="N498" s="80"/>
     </row>
     <row r="499" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B499" s="20"/>
-      <c r="C499" s="164" t="s">
+      <c r="C499" s="208" t="s">
         <v>324</v>
       </c>
-      <c r="D499" s="165"/>
+      <c r="D499" s="209"/>
       <c r="E499" s="103"/>
       <c r="F499" s="103">
         <v>3500</v>
@@ -10686,10 +10686,10 @@
     </row>
     <row r="500" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B500" s="20"/>
-      <c r="C500" s="164" t="s">
+      <c r="C500" s="208" t="s">
         <v>178</v>
       </c>
-      <c r="D500" s="165"/>
+      <c r="D500" s="209"/>
       <c r="E500" s="82"/>
       <c r="F500" s="82"/>
       <c r="G500" s="82"/>
@@ -10703,10 +10703,10 @@
     </row>
     <row r="501" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B501" s="20"/>
-      <c r="C501" s="164" t="s">
+      <c r="C501" s="208" t="s">
         <v>220</v>
       </c>
-      <c r="D501" s="165"/>
+      <c r="D501" s="209"/>
       <c r="E501" s="82"/>
       <c r="F501" s="82"/>
       <c r="G501" s="82"/>
@@ -11190,12 +11190,12 @@
       <c r="M532" s="80"/>
     </row>
     <row r="533" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B533" s="166" t="s">
+      <c r="B533" s="222" t="s">
         <v>246</v>
       </c>
-      <c r="C533" s="166"/>
-      <c r="D533" s="166"/>
-      <c r="E533" s="166"/>
+      <c r="C533" s="222"/>
+      <c r="D533" s="222"/>
+      <c r="E533" s="222"/>
       <c r="J533" s="80"/>
       <c r="K533" s="80"/>
       <c r="L533" s="152"/>
@@ -11273,36 +11273,36 @@
       <c r="L538" s="151"/>
     </row>
     <row r="539" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B539" s="167" t="s">
+      <c r="B539" s="277" t="s">
         <v>248</v>
       </c>
-      <c r="C539" s="167"/>
-      <c r="D539" s="167"/>
-      <c r="E539" s="167"/>
-      <c r="F539" s="167"/>
-      <c r="G539" s="167"/>
-      <c r="H539" s="167"/>
-      <c r="I539" s="167"/>
-      <c r="J539" s="167"/>
-      <c r="K539" s="167"/>
-      <c r="L539" s="167"/>
-      <c r="M539" s="167"/>
+      <c r="C539" s="277"/>
+      <c r="D539" s="277"/>
+      <c r="E539" s="277"/>
+      <c r="F539" s="277"/>
+      <c r="G539" s="277"/>
+      <c r="H539" s="277"/>
+      <c r="I539" s="277"/>
+      <c r="J539" s="277"/>
+      <c r="K539" s="277"/>
+      <c r="L539" s="277"/>
+      <c r="M539" s="277"/>
     </row>
     <row r="540" spans="2:13" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B540" s="167" t="s">
+      <c r="B540" s="277" t="s">
         <v>271</v>
       </c>
-      <c r="C540" s="167"/>
-      <c r="D540" s="167"/>
-      <c r="E540" s="167"/>
-      <c r="F540" s="167"/>
-      <c r="G540" s="167"/>
-      <c r="H540" s="167"/>
-      <c r="I540" s="167"/>
-      <c r="J540" s="167"/>
-      <c r="K540" s="167"/>
-      <c r="L540" s="167"/>
-      <c r="M540" s="167"/>
+      <c r="C540" s="277"/>
+      <c r="D540" s="277"/>
+      <c r="E540" s="277"/>
+      <c r="F540" s="277"/>
+      <c r="G540" s="277"/>
+      <c r="H540" s="277"/>
+      <c r="I540" s="277"/>
+      <c r="J540" s="277"/>
+      <c r="K540" s="277"/>
+      <c r="L540" s="277"/>
+      <c r="M540" s="277"/>
     </row>
     <row r="541" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B541" s="80"/>
@@ -11333,20 +11333,20 @@
       <c r="L542" s="151"/>
     </row>
     <row r="543" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B543" s="167" t="s">
+      <c r="B543" s="277" t="s">
         <v>250</v>
       </c>
-      <c r="C543" s="167"/>
-      <c r="D543" s="167"/>
-      <c r="E543" s="167"/>
-      <c r="F543" s="167"/>
-      <c r="G543" s="167"/>
-      <c r="H543" s="167"/>
-      <c r="I543" s="167"/>
-      <c r="J543" s="167"/>
-      <c r="K543" s="167"/>
-      <c r="L543" s="167"/>
-      <c r="M543" s="167"/>
+      <c r="C543" s="277"/>
+      <c r="D543" s="277"/>
+      <c r="E543" s="277"/>
+      <c r="F543" s="277"/>
+      <c r="G543" s="277"/>
+      <c r="H543" s="277"/>
+      <c r="I543" s="277"/>
+      <c r="J543" s="277"/>
+      <c r="K543" s="277"/>
+      <c r="L543" s="277"/>
+      <c r="M543" s="277"/>
     </row>
     <row r="544" spans="2:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B544" s="79"/>
@@ -11362,6 +11362,133 @@
     </row>
   </sheetData>
   <mergeCells count="151">
+    <mergeCell ref="G485:H485"/>
+    <mergeCell ref="G486:H486"/>
+    <mergeCell ref="G487:H487"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="D393:E393"/>
+    <mergeCell ref="D382:E382"/>
+    <mergeCell ref="F382:H382"/>
+    <mergeCell ref="I382:K382"/>
+    <mergeCell ref="D383:E383"/>
+    <mergeCell ref="F383:H383"/>
+    <mergeCell ref="I383:K383"/>
+    <mergeCell ref="D380:E380"/>
+    <mergeCell ref="F380:H380"/>
+    <mergeCell ref="I380:K380"/>
+    <mergeCell ref="D381:E381"/>
+    <mergeCell ref="F381:H381"/>
+    <mergeCell ref="I381:K381"/>
+    <mergeCell ref="C501:D501"/>
+    <mergeCell ref="B533:E533"/>
+    <mergeCell ref="B539:M539"/>
+    <mergeCell ref="B540:M540"/>
+    <mergeCell ref="B543:M543"/>
+    <mergeCell ref="G488:H488"/>
+    <mergeCell ref="C497:D498"/>
+    <mergeCell ref="E497:K497"/>
+    <mergeCell ref="M497:M498"/>
+    <mergeCell ref="C499:D499"/>
+    <mergeCell ref="C500:D500"/>
+    <mergeCell ref="C451:D451"/>
+    <mergeCell ref="C477:C478"/>
+    <mergeCell ref="D477:D478"/>
+    <mergeCell ref="E477:E478"/>
+    <mergeCell ref="F477:F478"/>
+    <mergeCell ref="G477:G478"/>
+    <mergeCell ref="C446:D447"/>
+    <mergeCell ref="E446:K446"/>
+    <mergeCell ref="M446:M447"/>
+    <mergeCell ref="C448:D448"/>
+    <mergeCell ref="C449:D449"/>
+    <mergeCell ref="C450:D450"/>
+    <mergeCell ref="D476:E476"/>
+    <mergeCell ref="H477:H478"/>
+    <mergeCell ref="I477:I478"/>
+    <mergeCell ref="J477:M477"/>
+    <mergeCell ref="E473:M473"/>
+    <mergeCell ref="I394:I395"/>
+    <mergeCell ref="J394:K394"/>
+    <mergeCell ref="C415:D415"/>
+    <mergeCell ref="E415:K415"/>
+    <mergeCell ref="M415:M416"/>
+    <mergeCell ref="C432:D432"/>
+    <mergeCell ref="E432:E433"/>
+    <mergeCell ref="F432:K432"/>
+    <mergeCell ref="M432:M433"/>
+    <mergeCell ref="C394:C395"/>
+    <mergeCell ref="D394:D395"/>
+    <mergeCell ref="E394:E395"/>
+    <mergeCell ref="F394:F395"/>
+    <mergeCell ref="G394:G395"/>
+    <mergeCell ref="H394:H395"/>
+    <mergeCell ref="D379:E379"/>
+    <mergeCell ref="F379:H379"/>
+    <mergeCell ref="I379:K379"/>
+    <mergeCell ref="D376:E376"/>
+    <mergeCell ref="F376:H376"/>
+    <mergeCell ref="I376:K376"/>
+    <mergeCell ref="D377:E377"/>
+    <mergeCell ref="F377:H377"/>
+    <mergeCell ref="I377:K377"/>
+    <mergeCell ref="D378:E378"/>
+    <mergeCell ref="F378:H378"/>
+    <mergeCell ref="I378:K378"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="B4:M4"/>
+    <mergeCell ref="B5:M5"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C215:M217"/>
+    <mergeCell ref="C127:M127"/>
+    <mergeCell ref="C130:M130"/>
+    <mergeCell ref="C144:M144"/>
+    <mergeCell ref="C146:E146"/>
+    <mergeCell ref="C148:E148"/>
+    <mergeCell ref="C150:E150"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="H112:I112"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="C122:M124"/>
+    <mergeCell ref="C194:M198"/>
+    <mergeCell ref="C201:M205"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="C8:K8"/>
+    <mergeCell ref="G27:K27"/>
+    <mergeCell ref="H29:M29"/>
+    <mergeCell ref="C163:M163"/>
+    <mergeCell ref="C180:F180"/>
+    <mergeCell ref="C182:G182"/>
+    <mergeCell ref="C186:G186"/>
+    <mergeCell ref="C370:M370"/>
+    <mergeCell ref="C350:G350"/>
+    <mergeCell ref="C352:G352"/>
+    <mergeCell ref="C354:G354"/>
+    <mergeCell ref="C154:G154"/>
+    <mergeCell ref="C369:D369"/>
+    <mergeCell ref="C346:F346"/>
+    <mergeCell ref="C348:F348"/>
+    <mergeCell ref="C287:F287"/>
+    <mergeCell ref="C288:F288"/>
+    <mergeCell ref="C289:F289"/>
+    <mergeCell ref="C291:F291"/>
+    <mergeCell ref="C293:F293"/>
+    <mergeCell ref="C328:M328"/>
+    <mergeCell ref="C342:M342"/>
+    <mergeCell ref="C359:M363"/>
+    <mergeCell ref="C300:M304"/>
+    <mergeCell ref="C307:M311"/>
+    <mergeCell ref="C322:M326"/>
+    <mergeCell ref="C336:M340"/>
+    <mergeCell ref="C368:D368"/>
+    <mergeCell ref="E368:M368"/>
     <mergeCell ref="H50:K50"/>
     <mergeCell ref="H55:K55"/>
     <mergeCell ref="H56:K56"/>
@@ -11386,133 +11513,6 @@
     <mergeCell ref="C152:F152"/>
     <mergeCell ref="G74:I74"/>
     <mergeCell ref="G73:I73"/>
-    <mergeCell ref="C182:G182"/>
-    <mergeCell ref="C186:G186"/>
-    <mergeCell ref="C370:M370"/>
-    <mergeCell ref="C350:G350"/>
-    <mergeCell ref="C352:G352"/>
-    <mergeCell ref="C354:G354"/>
-    <mergeCell ref="C154:G154"/>
-    <mergeCell ref="C369:D369"/>
-    <mergeCell ref="C346:F346"/>
-    <mergeCell ref="C348:F348"/>
-    <mergeCell ref="C287:F287"/>
-    <mergeCell ref="C288:F288"/>
-    <mergeCell ref="C289:F289"/>
-    <mergeCell ref="C291:F291"/>
-    <mergeCell ref="C293:F293"/>
-    <mergeCell ref="C328:M328"/>
-    <mergeCell ref="C342:M342"/>
-    <mergeCell ref="C359:M363"/>
-    <mergeCell ref="C300:M304"/>
-    <mergeCell ref="C307:M311"/>
-    <mergeCell ref="C322:M326"/>
-    <mergeCell ref="C336:M340"/>
-    <mergeCell ref="C368:D368"/>
-    <mergeCell ref="E368:M368"/>
-    <mergeCell ref="B3:M3"/>
-    <mergeCell ref="B4:M4"/>
-    <mergeCell ref="B5:M5"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C215:M217"/>
-    <mergeCell ref="C127:M127"/>
-    <mergeCell ref="C130:M130"/>
-    <mergeCell ref="C144:M144"/>
-    <mergeCell ref="C146:E146"/>
-    <mergeCell ref="C148:E148"/>
-    <mergeCell ref="C150:E150"/>
-    <mergeCell ref="C111:G111"/>
-    <mergeCell ref="H112:I112"/>
-    <mergeCell ref="C113:G113"/>
-    <mergeCell ref="C122:M124"/>
-    <mergeCell ref="C194:M198"/>
-    <mergeCell ref="C201:M205"/>
-    <mergeCell ref="H49:K49"/>
-    <mergeCell ref="H53:K53"/>
-    <mergeCell ref="C8:K8"/>
-    <mergeCell ref="G27:K27"/>
-    <mergeCell ref="H29:M29"/>
-    <mergeCell ref="C163:M163"/>
-    <mergeCell ref="C180:F180"/>
-    <mergeCell ref="D379:E379"/>
-    <mergeCell ref="F379:H379"/>
-    <mergeCell ref="I379:K379"/>
-    <mergeCell ref="D376:E376"/>
-    <mergeCell ref="F376:H376"/>
-    <mergeCell ref="I376:K376"/>
-    <mergeCell ref="D377:E377"/>
-    <mergeCell ref="F377:H377"/>
-    <mergeCell ref="I377:K377"/>
-    <mergeCell ref="D378:E378"/>
-    <mergeCell ref="F378:H378"/>
-    <mergeCell ref="I378:K378"/>
-    <mergeCell ref="I394:I395"/>
-    <mergeCell ref="J394:K394"/>
-    <mergeCell ref="C415:D415"/>
-    <mergeCell ref="E415:K415"/>
-    <mergeCell ref="M415:M416"/>
-    <mergeCell ref="C432:D432"/>
-    <mergeCell ref="E432:E433"/>
-    <mergeCell ref="F432:K432"/>
-    <mergeCell ref="M432:M433"/>
-    <mergeCell ref="C394:C395"/>
-    <mergeCell ref="D394:D395"/>
-    <mergeCell ref="E394:E395"/>
-    <mergeCell ref="F394:F395"/>
-    <mergeCell ref="G394:G395"/>
-    <mergeCell ref="H394:H395"/>
-    <mergeCell ref="C451:D451"/>
-    <mergeCell ref="C477:C478"/>
-    <mergeCell ref="D477:D478"/>
-    <mergeCell ref="E477:E478"/>
-    <mergeCell ref="F477:F478"/>
-    <mergeCell ref="G477:G478"/>
-    <mergeCell ref="C446:D447"/>
-    <mergeCell ref="E446:K446"/>
-    <mergeCell ref="M446:M447"/>
-    <mergeCell ref="C448:D448"/>
-    <mergeCell ref="C449:D449"/>
-    <mergeCell ref="C450:D450"/>
-    <mergeCell ref="D476:E476"/>
-    <mergeCell ref="H477:H478"/>
-    <mergeCell ref="I477:I478"/>
-    <mergeCell ref="J477:M477"/>
-    <mergeCell ref="E473:M473"/>
-    <mergeCell ref="C501:D501"/>
-    <mergeCell ref="B533:E533"/>
-    <mergeCell ref="B539:M539"/>
-    <mergeCell ref="B540:M540"/>
-    <mergeCell ref="B543:M543"/>
-    <mergeCell ref="G488:H488"/>
-    <mergeCell ref="C497:D498"/>
-    <mergeCell ref="E497:K497"/>
-    <mergeCell ref="M497:M498"/>
-    <mergeCell ref="C499:D499"/>
-    <mergeCell ref="C500:D500"/>
-    <mergeCell ref="G485:H485"/>
-    <mergeCell ref="G486:H486"/>
-    <mergeCell ref="G487:H487"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="H41:K41"/>
-    <mergeCell ref="H42:K42"/>
-    <mergeCell ref="H43:K43"/>
-    <mergeCell ref="H47:K47"/>
-    <mergeCell ref="H48:K48"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="D393:E393"/>
-    <mergeCell ref="D382:E382"/>
-    <mergeCell ref="F382:H382"/>
-    <mergeCell ref="I382:K382"/>
-    <mergeCell ref="D383:E383"/>
-    <mergeCell ref="F383:H383"/>
-    <mergeCell ref="I383:K383"/>
-    <mergeCell ref="D380:E380"/>
-    <mergeCell ref="F380:H380"/>
-    <mergeCell ref="I380:K380"/>
-    <mergeCell ref="D381:E381"/>
-    <mergeCell ref="F381:H381"/>
-    <mergeCell ref="I381:K381"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.78740157480314965" header="0" footer="0"/>

--- a/13.0 FORMATO N°07 INVIERTE PE/FORMATO 7C IES JOSÉ MARIA ARGUEDAS CHUQUIBAMBILLA.xlsx
+++ b/13.0 FORMATO N°07 INVIERTE PE/FORMATO 7C IES JOSÉ MARIA ARGUEDAS CHUQUIBAMBILLA.xlsx
@@ -2014,6 +2014,327 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2026,21 +2347,12 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2050,87 +2362,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2139,246 +2379,6 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2666,7 +2666,7 @@
   <dimension ref="B3:Q547"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A470" zoomScale="70" zoomScaleNormal="51" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="N488" sqref="N488"/>
+      <selection activeCell="I488" sqref="I488"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -2688,52 +2688,52 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="B3" s="214" t="s">
+      <c r="B3" s="191" t="s">
         <v>258</v>
       </c>
-      <c r="C3" s="215"/>
-      <c r="D3" s="216"/>
-      <c r="E3" s="216"/>
-      <c r="F3" s="216"/>
-      <c r="G3" s="216"/>
-      <c r="H3" s="216"/>
-      <c r="I3" s="216"/>
-      <c r="J3" s="216"/>
-      <c r="K3" s="216"/>
-      <c r="L3" s="216"/>
-      <c r="M3" s="217"/>
+      <c r="C3" s="192"/>
+      <c r="D3" s="193"/>
+      <c r="E3" s="193"/>
+      <c r="F3" s="193"/>
+      <c r="G3" s="193"/>
+      <c r="H3" s="193"/>
+      <c r="I3" s="193"/>
+      <c r="J3" s="193"/>
+      <c r="K3" s="193"/>
+      <c r="L3" s="193"/>
+      <c r="M3" s="194"/>
     </row>
     <row r="4" spans="2:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="B4" s="218" t="s">
+      <c r="B4" s="195" t="s">
         <v>259</v>
       </c>
-      <c r="C4" s="219"/>
-      <c r="D4" s="220"/>
-      <c r="E4" s="220"/>
-      <c r="F4" s="220"/>
-      <c r="G4" s="220"/>
-      <c r="H4" s="220"/>
-      <c r="I4" s="220"/>
-      <c r="J4" s="220"/>
-      <c r="K4" s="220"/>
-      <c r="L4" s="220"/>
-      <c r="M4" s="221"/>
+      <c r="C4" s="196"/>
+      <c r="D4" s="197"/>
+      <c r="E4" s="197"/>
+      <c r="F4" s="197"/>
+      <c r="G4" s="197"/>
+      <c r="H4" s="197"/>
+      <c r="I4" s="197"/>
+      <c r="J4" s="197"/>
+      <c r="K4" s="197"/>
+      <c r="L4" s="197"/>
+      <c r="M4" s="198"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="222" t="s">
+      <c r="B5" s="172" t="s">
         <v>261</v>
       </c>
-      <c r="C5" s="222"/>
-      <c r="D5" s="223"/>
-      <c r="E5" s="223"/>
-      <c r="F5" s="223"/>
-      <c r="G5" s="223"/>
-      <c r="H5" s="223"/>
-      <c r="I5" s="223"/>
-      <c r="J5" s="223"/>
-      <c r="K5" s="223"/>
-      <c r="L5" s="223"/>
-      <c r="M5" s="223"/>
+      <c r="C5" s="172"/>
+      <c r="D5" s="199"/>
+      <c r="E5" s="199"/>
+      <c r="F5" s="199"/>
+      <c r="G5" s="199"/>
+      <c r="H5" s="199"/>
+      <c r="I5" s="199"/>
+      <c r="J5" s="199"/>
+      <c r="K5" s="199"/>
+      <c r="L5" s="199"/>
+      <c r="M5" s="199"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
@@ -2767,17 +2767,17 @@
     </row>
     <row r="8" spans="2:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
-      <c r="C8" s="256" t="s">
+      <c r="C8" s="242" t="s">
         <v>336</v>
       </c>
-      <c r="D8" s="257"/>
-      <c r="E8" s="257"/>
-      <c r="F8" s="257"/>
-      <c r="G8" s="257"/>
-      <c r="H8" s="257"/>
-      <c r="I8" s="257"/>
-      <c r="J8" s="257"/>
-      <c r="K8" s="258"/>
+      <c r="D8" s="243"/>
+      <c r="E8" s="243"/>
+      <c r="F8" s="243"/>
+      <c r="G8" s="243"/>
+      <c r="H8" s="243"/>
+      <c r="I8" s="243"/>
+      <c r="J8" s="243"/>
+      <c r="K8" s="244"/>
       <c r="L8" s="155"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
@@ -3071,13 +3071,13 @@
       </c>
       <c r="D27" s="92"/>
       <c r="E27" s="92"/>
-      <c r="G27" s="259" t="s">
+      <c r="G27" s="245" t="s">
         <v>330</v>
       </c>
-      <c r="H27" s="259"/>
-      <c r="I27" s="259"/>
-      <c r="J27" s="259"/>
-      <c r="K27" s="259"/>
+      <c r="H27" s="245"/>
+      <c r="I27" s="245"/>
+      <c r="J27" s="245"/>
+      <c r="K27" s="245"/>
       <c r="L27" s="156"/>
       <c r="M27" s="80"/>
     </row>
@@ -3096,22 +3096,22 @@
     </row>
     <row r="29" spans="2:14" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="89"/>
-      <c r="C29" s="224" t="s">
+      <c r="C29" s="200" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="224"/>
-      <c r="E29" s="224"/>
+      <c r="D29" s="200"/>
+      <c r="E29" s="200"/>
       <c r="G29" s="142" t="s">
         <v>14</v>
       </c>
-      <c r="H29" s="260" t="s">
+      <c r="H29" s="246" t="s">
         <v>331</v>
       </c>
-      <c r="I29" s="261"/>
-      <c r="J29" s="261"/>
-      <c r="K29" s="261"/>
-      <c r="L29" s="261"/>
-      <c r="M29" s="262"/>
+      <c r="I29" s="247"/>
+      <c r="J29" s="247"/>
+      <c r="K29" s="247"/>
+      <c r="L29" s="247"/>
+      <c r="M29" s="248"/>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="89"/>
@@ -3130,11 +3130,11 @@
     </row>
     <row r="31" spans="2:14" ht="37.5" x14ac:dyDescent="0.25">
       <c r="B31" s="89"/>
-      <c r="C31" s="281" t="s">
+      <c r="C31" s="163" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="281"/>
-      <c r="E31" s="282"/>
+      <c r="D31" s="163"/>
+      <c r="E31" s="164"/>
       <c r="F31" s="11" t="s">
         <v>16</v>
       </c>
@@ -3295,12 +3295,12 @@
       <c r="E40" s="17"/>
       <c r="F40" s="17"/>
       <c r="G40" s="17"/>
-      <c r="H40" s="253" t="s">
+      <c r="H40" s="165" t="s">
         <v>310</v>
       </c>
-      <c r="I40" s="254"/>
-      <c r="J40" s="254"/>
-      <c r="K40" s="255"/>
+      <c r="I40" s="166"/>
+      <c r="J40" s="166"/>
+      <c r="K40" s="167"/>
       <c r="L40" s="20"/>
       <c r="M40" s="79"/>
     </row>
@@ -3313,12 +3313,12 @@
       <c r="E41" s="17"/>
       <c r="F41" s="17"/>
       <c r="G41" s="17"/>
-      <c r="H41" s="253" t="s">
+      <c r="H41" s="165" t="s">
         <v>311</v>
       </c>
-      <c r="I41" s="254"/>
-      <c r="J41" s="254"/>
-      <c r="K41" s="255"/>
+      <c r="I41" s="166"/>
+      <c r="J41" s="166"/>
+      <c r="K41" s="167"/>
       <c r="L41" s="20"/>
       <c r="M41" s="79"/>
     </row>
@@ -3331,12 +3331,12 @@
       <c r="E42" s="17"/>
       <c r="F42" s="17"/>
       <c r="G42" s="17"/>
-      <c r="H42" s="253" t="s">
+      <c r="H42" s="165" t="s">
         <v>312</v>
       </c>
-      <c r="I42" s="254"/>
-      <c r="J42" s="254"/>
-      <c r="K42" s="255"/>
+      <c r="I42" s="166"/>
+      <c r="J42" s="166"/>
+      <c r="K42" s="167"/>
       <c r="L42" s="20"/>
       <c r="M42" s="79"/>
     </row>
@@ -3349,12 +3349,12 @@
       <c r="E43" s="17"/>
       <c r="F43" s="17"/>
       <c r="G43" s="17"/>
-      <c r="H43" s="253" t="s">
+      <c r="H43" s="165" t="s">
         <v>325</v>
       </c>
-      <c r="I43" s="254"/>
-      <c r="J43" s="254"/>
-      <c r="K43" s="255"/>
+      <c r="I43" s="166"/>
+      <c r="J43" s="166"/>
+      <c r="K43" s="167"/>
       <c r="L43" s="20"/>
       <c r="M43" s="79"/>
     </row>
@@ -3412,12 +3412,12 @@
       <c r="E47" s="17"/>
       <c r="F47" s="17"/>
       <c r="G47" s="17"/>
-      <c r="H47" s="253" t="s">
+      <c r="H47" s="165" t="s">
         <v>310</v>
       </c>
-      <c r="I47" s="254"/>
-      <c r="J47" s="254"/>
-      <c r="K47" s="255"/>
+      <c r="I47" s="166"/>
+      <c r="J47" s="166"/>
+      <c r="K47" s="167"/>
       <c r="L47" s="20"/>
       <c r="M47" s="79"/>
     </row>
@@ -3430,12 +3430,12 @@
       <c r="E48" s="17"/>
       <c r="F48" s="17"/>
       <c r="G48" s="17"/>
-      <c r="H48" s="253" t="s">
+      <c r="H48" s="165" t="s">
         <v>311</v>
       </c>
-      <c r="I48" s="254"/>
-      <c r="J48" s="254"/>
-      <c r="K48" s="255"/>
+      <c r="I48" s="166"/>
+      <c r="J48" s="166"/>
+      <c r="K48" s="167"/>
       <c r="L48" s="20"/>
       <c r="M48" s="79"/>
     </row>
@@ -3448,12 +3448,12 @@
       <c r="E49" s="17"/>
       <c r="F49" s="17"/>
       <c r="G49" s="17"/>
-      <c r="H49" s="250" t="s">
+      <c r="H49" s="239" t="s">
         <v>313</v>
       </c>
-      <c r="I49" s="251"/>
-      <c r="J49" s="251"/>
-      <c r="K49" s="252"/>
+      <c r="I49" s="240"/>
+      <c r="J49" s="240"/>
+      <c r="K49" s="241"/>
       <c r="L49" s="149"/>
       <c r="M49" s="79"/>
     </row>
@@ -3466,12 +3466,12 @@
       <c r="E50" s="17"/>
       <c r="F50" s="17"/>
       <c r="G50" s="17"/>
-      <c r="H50" s="161" t="s">
+      <c r="H50" s="268" t="s">
         <v>333</v>
       </c>
-      <c r="I50" s="161"/>
-      <c r="J50" s="161"/>
-      <c r="K50" s="161"/>
+      <c r="I50" s="268"/>
+      <c r="J50" s="268"/>
+      <c r="K50" s="268"/>
       <c r="L50" s="158"/>
       <c r="M50" s="138"/>
       <c r="N50" s="138"/>
@@ -3520,12 +3520,12 @@
       <c r="E53" s="17"/>
       <c r="F53" s="17"/>
       <c r="G53" s="17"/>
-      <c r="H53" s="253" t="s">
+      <c r="H53" s="165" t="s">
         <v>310</v>
       </c>
-      <c r="I53" s="254"/>
-      <c r="J53" s="254"/>
-      <c r="K53" s="255"/>
+      <c r="I53" s="166"/>
+      <c r="J53" s="166"/>
+      <c r="K53" s="167"/>
       <c r="L53" s="20"/>
       <c r="M53" s="79"/>
     </row>
@@ -3538,12 +3538,12 @@
       <c r="E54" s="17"/>
       <c r="F54" s="17"/>
       <c r="G54" s="17"/>
-      <c r="H54" s="170" t="s">
+      <c r="H54" s="274" t="s">
         <v>311</v>
       </c>
-      <c r="I54" s="171"/>
-      <c r="J54" s="171"/>
-      <c r="K54" s="172"/>
+      <c r="I54" s="275"/>
+      <c r="J54" s="275"/>
+      <c r="K54" s="276"/>
       <c r="L54" s="20"/>
       <c r="M54" s="79"/>
     </row>
@@ -3556,12 +3556,12 @@
       <c r="E55" s="17"/>
       <c r="F55" s="17"/>
       <c r="G55" s="17"/>
-      <c r="H55" s="161" t="s">
+      <c r="H55" s="268" t="s">
         <v>314</v>
       </c>
-      <c r="I55" s="161"/>
-      <c r="J55" s="161"/>
-      <c r="K55" s="161"/>
+      <c r="I55" s="268"/>
+      <c r="J55" s="268"/>
+      <c r="K55" s="268"/>
       <c r="L55" s="158"/>
       <c r="M55" s="138"/>
       <c r="N55" s="138"/>
@@ -3578,12 +3578,12 @@
       <c r="E56" s="17"/>
       <c r="F56" s="17"/>
       <c r="G56" s="17"/>
-      <c r="H56" s="162" t="s">
+      <c r="H56" s="269" t="s">
         <v>315</v>
       </c>
-      <c r="I56" s="163"/>
-      <c r="J56" s="163"/>
-      <c r="K56" s="164"/>
+      <c r="I56" s="270"/>
+      <c r="J56" s="270"/>
+      <c r="K56" s="271"/>
       <c r="L56" s="158"/>
       <c r="M56" s="138"/>
       <c r="N56" s="138"/>
@@ -3863,11 +3863,11 @@
       <c r="F73" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="G73" s="203" t="s">
+      <c r="G73" s="186" t="s">
         <v>51</v>
       </c>
-      <c r="H73" s="204"/>
-      <c r="I73" s="205"/>
+      <c r="H73" s="187"/>
+      <c r="I73" s="188"/>
       <c r="J73" s="90"/>
       <c r="K73" s="90"/>
       <c r="L73" s="90"/>
@@ -3887,11 +3887,11 @@
       <c r="F74" s="30" t="s">
         <v>339</v>
       </c>
-      <c r="G74" s="200" t="s">
+      <c r="G74" s="280" t="s">
         <v>340</v>
       </c>
-      <c r="H74" s="201"/>
-      <c r="I74" s="202"/>
+      <c r="H74" s="281"/>
+      <c r="I74" s="282"/>
       <c r="J74" s="90"/>
       <c r="K74" s="90"/>
       <c r="L74" s="90"/>
@@ -4023,10 +4023,10 @@
       <c r="B83" s="15"/>
       <c r="C83" s="79"/>
       <c r="D83" s="80"/>
-      <c r="E83" s="267" t="s">
+      <c r="E83" s="168" t="s">
         <v>265</v>
       </c>
-      <c r="F83" s="267"/>
+      <c r="F83" s="168"/>
       <c r="I83" s="80"/>
       <c r="J83" s="80"/>
       <c r="K83" s="80"/>
@@ -4112,17 +4112,17 @@
     </row>
     <row r="88" spans="2:13" s="97" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="58"/>
-      <c r="C88" s="168" t="s">
+      <c r="C88" s="273" t="s">
         <v>268</v>
       </c>
-      <c r="D88" s="168"/>
-      <c r="E88" s="168"/>
-      <c r="F88" s="168"/>
-      <c r="G88" s="168"/>
-      <c r="H88" s="168"/>
-      <c r="I88" s="168"/>
-      <c r="J88" s="168"/>
-      <c r="K88" s="168"/>
+      <c r="D88" s="273"/>
+      <c r="E88" s="273"/>
+      <c r="F88" s="273"/>
+      <c r="G88" s="273"/>
+      <c r="H88" s="273"/>
+      <c r="I88" s="273"/>
+      <c r="J88" s="273"/>
+      <c r="K88" s="273"/>
       <c r="L88" s="147"/>
       <c r="M88" s="80"/>
     </row>
@@ -4289,10 +4289,10 @@
       </c>
       <c r="D99" s="103"/>
       <c r="E99" s="67"/>
-      <c r="F99" s="195" t="s">
+      <c r="F99" s="278" t="s">
         <v>280</v>
       </c>
-      <c r="G99" s="196"/>
+      <c r="G99" s="279"/>
       <c r="H99" s="107"/>
       <c r="I99" s="79"/>
       <c r="J99" s="79"/>
@@ -4472,13 +4472,13 @@
     </row>
     <row r="111" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B111" s="58"/>
-      <c r="C111" s="241" t="s">
+      <c r="C111" s="218" t="s">
         <v>74</v>
       </c>
-      <c r="D111" s="241"/>
-      <c r="E111" s="241"/>
-      <c r="F111" s="241"/>
-      <c r="G111" s="242"/>
+      <c r="D111" s="218"/>
+      <c r="E111" s="218"/>
+      <c r="F111" s="218"/>
+      <c r="G111" s="219"/>
       <c r="H111" s="26"/>
       <c r="I111" s="27"/>
       <c r="J111" s="80"/>
@@ -4493,8 +4493,8 @@
       <c r="E112" s="79"/>
       <c r="F112" s="79"/>
       <c r="G112" s="79"/>
-      <c r="H112" s="243"/>
-      <c r="I112" s="243"/>
+      <c r="H112" s="220"/>
+      <c r="I112" s="220"/>
       <c r="J112" s="80"/>
       <c r="K112" s="80"/>
       <c r="L112" s="152"/>
@@ -4502,13 +4502,13 @@
     </row>
     <row r="113" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B113" s="58"/>
-      <c r="C113" s="241" t="s">
+      <c r="C113" s="218" t="s">
         <v>75</v>
       </c>
-      <c r="D113" s="241"/>
-      <c r="E113" s="241"/>
-      <c r="F113" s="241"/>
-      <c r="G113" s="242"/>
+      <c r="D113" s="218"/>
+      <c r="E113" s="218"/>
+      <c r="F113" s="218"/>
+      <c r="G113" s="219"/>
       <c r="H113" s="26"/>
       <c r="I113" s="27"/>
       <c r="J113" s="80"/>
@@ -4640,47 +4640,47 @@
     </row>
     <row r="122" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B122" s="58"/>
-      <c r="C122" s="244" t="s">
+      <c r="C122" s="221" t="s">
         <v>281</v>
       </c>
-      <c r="D122" s="245"/>
-      <c r="E122" s="245"/>
-      <c r="F122" s="245"/>
-      <c r="G122" s="245"/>
-      <c r="H122" s="245"/>
-      <c r="I122" s="245"/>
-      <c r="J122" s="245"/>
-      <c r="K122" s="245"/>
-      <c r="L122" s="245"/>
-      <c r="M122" s="246"/>
+      <c r="D122" s="222"/>
+      <c r="E122" s="222"/>
+      <c r="F122" s="222"/>
+      <c r="G122" s="222"/>
+      <c r="H122" s="222"/>
+      <c r="I122" s="222"/>
+      <c r="J122" s="222"/>
+      <c r="K122" s="222"/>
+      <c r="L122" s="222"/>
+      <c r="M122" s="223"/>
     </row>
     <row r="123" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B123" s="58"/>
-      <c r="C123" s="197"/>
-      <c r="D123" s="198"/>
-      <c r="E123" s="198"/>
-      <c r="F123" s="198"/>
-      <c r="G123" s="198"/>
-      <c r="H123" s="198"/>
-      <c r="I123" s="198"/>
-      <c r="J123" s="198"/>
-      <c r="K123" s="198"/>
-      <c r="L123" s="198"/>
-      <c r="M123" s="199"/>
+      <c r="C123" s="224"/>
+      <c r="D123" s="225"/>
+      <c r="E123" s="225"/>
+      <c r="F123" s="225"/>
+      <c r="G123" s="225"/>
+      <c r="H123" s="225"/>
+      <c r="I123" s="225"/>
+      <c r="J123" s="225"/>
+      <c r="K123" s="225"/>
+      <c r="L123" s="225"/>
+      <c r="M123" s="226"/>
     </row>
     <row r="124" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B124" s="58"/>
-      <c r="C124" s="247"/>
-      <c r="D124" s="248"/>
-      <c r="E124" s="248"/>
-      <c r="F124" s="248"/>
-      <c r="G124" s="248"/>
-      <c r="H124" s="248"/>
-      <c r="I124" s="248"/>
-      <c r="J124" s="248"/>
-      <c r="K124" s="248"/>
-      <c r="L124" s="248"/>
-      <c r="M124" s="249"/>
+      <c r="C124" s="227"/>
+      <c r="D124" s="228"/>
+      <c r="E124" s="228"/>
+      <c r="F124" s="228"/>
+      <c r="G124" s="228"/>
+      <c r="H124" s="228"/>
+      <c r="I124" s="228"/>
+      <c r="J124" s="228"/>
+      <c r="K124" s="228"/>
+      <c r="L124" s="228"/>
+      <c r="M124" s="229"/>
     </row>
     <row r="125" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B125" s="58"/>
@@ -4714,19 +4714,19 @@
     </row>
     <row r="127" spans="2:13" ht="63" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" s="58"/>
-      <c r="C127" s="234" t="s">
+      <c r="C127" s="210" t="s">
         <v>282</v>
       </c>
-      <c r="D127" s="235"/>
-      <c r="E127" s="235"/>
-      <c r="F127" s="235"/>
-      <c r="G127" s="235"/>
-      <c r="H127" s="235"/>
-      <c r="I127" s="235"/>
-      <c r="J127" s="235"/>
-      <c r="K127" s="235"/>
-      <c r="L127" s="235"/>
-      <c r="M127" s="236"/>
+      <c r="D127" s="211"/>
+      <c r="E127" s="211"/>
+      <c r="F127" s="211"/>
+      <c r="G127" s="211"/>
+      <c r="H127" s="211"/>
+      <c r="I127" s="211"/>
+      <c r="J127" s="211"/>
+      <c r="K127" s="211"/>
+      <c r="L127" s="211"/>
+      <c r="M127" s="212"/>
     </row>
     <row r="128" spans="2:13" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" s="58"/>
@@ -4760,19 +4760,19 @@
     </row>
     <row r="130" spans="2:13" ht="46.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B130" s="58"/>
-      <c r="C130" s="237" t="s">
+      <c r="C130" s="213" t="s">
         <v>283</v>
       </c>
-      <c r="D130" s="238"/>
-      <c r="E130" s="238"/>
-      <c r="F130" s="238"/>
-      <c r="G130" s="238"/>
-      <c r="H130" s="238"/>
-      <c r="I130" s="238"/>
-      <c r="J130" s="238"/>
-      <c r="K130" s="238"/>
-      <c r="L130" s="238"/>
-      <c r="M130" s="239"/>
+      <c r="D130" s="214"/>
+      <c r="E130" s="214"/>
+      <c r="F130" s="214"/>
+      <c r="G130" s="214"/>
+      <c r="H130" s="214"/>
+      <c r="I130" s="214"/>
+      <c r="J130" s="214"/>
+      <c r="K130" s="214"/>
+      <c r="L130" s="214"/>
+      <c r="M130" s="215"/>
     </row>
     <row r="131" spans="2:13" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131" s="58"/>
@@ -4971,19 +4971,19 @@
     </row>
     <row r="144" spans="2:13" ht="87" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="58"/>
-      <c r="C144" s="240" t="s">
+      <c r="C144" s="216" t="s">
         <v>284</v>
       </c>
-      <c r="D144" s="240"/>
-      <c r="E144" s="240"/>
-      <c r="F144" s="240"/>
-      <c r="G144" s="240"/>
-      <c r="H144" s="240"/>
-      <c r="I144" s="240"/>
-      <c r="J144" s="240"/>
-      <c r="K144" s="240"/>
-      <c r="L144" s="240"/>
-      <c r="M144" s="240"/>
+      <c r="D144" s="216"/>
+      <c r="E144" s="216"/>
+      <c r="F144" s="216"/>
+      <c r="G144" s="216"/>
+      <c r="H144" s="216"/>
+      <c r="I144" s="216"/>
+      <c r="J144" s="216"/>
+      <c r="K144" s="216"/>
+      <c r="L144" s="216"/>
+      <c r="M144" s="216"/>
     </row>
     <row r="145" spans="2:13" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B145" s="58"/>
@@ -5001,11 +5001,11 @@
     </row>
     <row r="146" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B146" s="18"/>
-      <c r="C146" s="165" t="s">
+      <c r="C146" s="217" t="s">
         <v>91</v>
       </c>
-      <c r="D146" s="165"/>
-      <c r="E146" s="165"/>
+      <c r="D146" s="217"/>
+      <c r="E146" s="217"/>
       <c r="H146" s="106"/>
       <c r="I146" s="18" t="s">
         <v>92</v>
@@ -5029,11 +5029,11 @@
     </row>
     <row r="148" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B148" s="18"/>
-      <c r="C148" s="165" t="s">
+      <c r="C148" s="217" t="s">
         <v>93</v>
       </c>
-      <c r="D148" s="165"/>
-      <c r="E148" s="165"/>
+      <c r="D148" s="217"/>
+      <c r="E148" s="217"/>
       <c r="H148" s="106"/>
       <c r="I148" s="18" t="s">
         <v>94</v>
@@ -5057,11 +5057,11 @@
     </row>
     <row r="150" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B150" s="18"/>
-      <c r="C150" s="165" t="s">
+      <c r="C150" s="217" t="s">
         <v>95</v>
       </c>
-      <c r="D150" s="165"/>
-      <c r="E150" s="165"/>
+      <c r="D150" s="217"/>
+      <c r="E150" s="217"/>
       <c r="H150" s="106"/>
       <c r="I150" s="25"/>
       <c r="J150" s="25"/>
@@ -5083,12 +5083,12 @@
     </row>
     <row r="152" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B152" s="18"/>
-      <c r="C152" s="165" t="s">
+      <c r="C152" s="217" t="s">
         <v>96</v>
       </c>
-      <c r="D152" s="165"/>
-      <c r="E152" s="165"/>
-      <c r="F152" s="165"/>
+      <c r="D152" s="217"/>
+      <c r="E152" s="217"/>
+      <c r="F152" s="217"/>
       <c r="H152" s="106"/>
       <c r="I152" s="25"/>
       <c r="J152" s="25"/>
@@ -5111,13 +5111,13 @@
     </row>
     <row r="154" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B154" s="18"/>
-      <c r="C154" s="165" t="s">
+      <c r="C154" s="217" t="s">
         <v>97</v>
       </c>
-      <c r="D154" s="165"/>
-      <c r="E154" s="165"/>
-      <c r="F154" s="165"/>
-      <c r="G154" s="166"/>
+      <c r="D154" s="217"/>
+      <c r="E154" s="217"/>
+      <c r="F154" s="217"/>
+      <c r="G154" s="252"/>
       <c r="H154" s="106"/>
       <c r="I154" s="25"/>
     </row>
@@ -5245,19 +5245,19 @@
     </row>
     <row r="163" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B163" s="18"/>
-      <c r="C163" s="263" t="s">
+      <c r="C163" s="249" t="s">
         <v>285</v>
       </c>
-      <c r="D163" s="264"/>
-      <c r="E163" s="264"/>
-      <c r="F163" s="264"/>
-      <c r="G163" s="264"/>
-      <c r="H163" s="264"/>
-      <c r="I163" s="264"/>
-      <c r="J163" s="264"/>
-      <c r="K163" s="264"/>
-      <c r="L163" s="264"/>
-      <c r="M163" s="265"/>
+      <c r="D163" s="250"/>
+      <c r="E163" s="250"/>
+      <c r="F163" s="250"/>
+      <c r="G163" s="250"/>
+      <c r="H163" s="250"/>
+      <c r="I163" s="250"/>
+      <c r="J163" s="250"/>
+      <c r="K163" s="250"/>
+      <c r="L163" s="250"/>
+      <c r="M163" s="251"/>
     </row>
     <row r="164" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B164" s="18"/>
@@ -5475,12 +5475,12 @@
     </row>
     <row r="180" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B180" s="25"/>
-      <c r="C180" s="165" t="s">
+      <c r="C180" s="217" t="s">
         <v>93</v>
       </c>
-      <c r="D180" s="165"/>
-      <c r="E180" s="165"/>
-      <c r="F180" s="165"/>
+      <c r="D180" s="217"/>
+      <c r="E180" s="217"/>
+      <c r="F180" s="217"/>
       <c r="G180" s="79"/>
       <c r="H180" s="103"/>
       <c r="I180" s="18" t="s">
@@ -5507,13 +5507,13 @@
     </row>
     <row r="182" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B182" s="25"/>
-      <c r="C182" s="165" t="s">
+      <c r="C182" s="217" t="s">
         <v>112</v>
       </c>
-      <c r="D182" s="165"/>
-      <c r="E182" s="165"/>
-      <c r="F182" s="165"/>
-      <c r="G182" s="166"/>
+      <c r="D182" s="217"/>
+      <c r="E182" s="217"/>
+      <c r="F182" s="217"/>
+      <c r="G182" s="252"/>
       <c r="H182" s="103"/>
       <c r="I182" s="25"/>
       <c r="J182" s="25"/>
@@ -5567,13 +5567,13 @@
     </row>
     <row r="186" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B186" s="25"/>
-      <c r="C186" s="165" t="s">
+      <c r="C186" s="217" t="s">
         <v>114</v>
       </c>
-      <c r="D186" s="165"/>
-      <c r="E186" s="165"/>
-      <c r="F186" s="165"/>
-      <c r="G186" s="166"/>
+      <c r="D186" s="217"/>
+      <c r="E186" s="217"/>
+      <c r="F186" s="217"/>
+      <c r="G186" s="252"/>
       <c r="H186" s="103"/>
       <c r="I186" s="25"/>
       <c r="J186" s="25"/>
@@ -5686,79 +5686,79 @@
     </row>
     <row r="194" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B194" s="21"/>
-      <c r="C194" s="182" t="s">
+      <c r="C194" s="230" t="s">
         <v>286</v>
       </c>
-      <c r="D194" s="183"/>
-      <c r="E194" s="183"/>
-      <c r="F194" s="183"/>
-      <c r="G194" s="183"/>
-      <c r="H194" s="183"/>
-      <c r="I194" s="183"/>
-      <c r="J194" s="183"/>
-      <c r="K194" s="183"/>
-      <c r="L194" s="183"/>
-      <c r="M194" s="184"/>
+      <c r="D194" s="231"/>
+      <c r="E194" s="231"/>
+      <c r="F194" s="231"/>
+      <c r="G194" s="231"/>
+      <c r="H194" s="231"/>
+      <c r="I194" s="231"/>
+      <c r="J194" s="231"/>
+      <c r="K194" s="231"/>
+      <c r="L194" s="231"/>
+      <c r="M194" s="232"/>
       <c r="N194" s="21"/>
     </row>
     <row r="195" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B195" s="21"/>
-      <c r="C195" s="185"/>
-      <c r="D195" s="186"/>
-      <c r="E195" s="186"/>
-      <c r="F195" s="186"/>
-      <c r="G195" s="186"/>
-      <c r="H195" s="186"/>
-      <c r="I195" s="186"/>
-      <c r="J195" s="186"/>
-      <c r="K195" s="186"/>
-      <c r="L195" s="186"/>
-      <c r="M195" s="187"/>
+      <c r="C195" s="233"/>
+      <c r="D195" s="234"/>
+      <c r="E195" s="234"/>
+      <c r="F195" s="234"/>
+      <c r="G195" s="234"/>
+      <c r="H195" s="234"/>
+      <c r="I195" s="234"/>
+      <c r="J195" s="234"/>
+      <c r="K195" s="234"/>
+      <c r="L195" s="234"/>
+      <c r="M195" s="235"/>
       <c r="N195" s="2"/>
     </row>
     <row r="196" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B196" s="21"/>
-      <c r="C196" s="185"/>
-      <c r="D196" s="186"/>
-      <c r="E196" s="186"/>
-      <c r="F196" s="186"/>
-      <c r="G196" s="186"/>
-      <c r="H196" s="186"/>
-      <c r="I196" s="186"/>
-      <c r="J196" s="186"/>
-      <c r="K196" s="186"/>
-      <c r="L196" s="186"/>
-      <c r="M196" s="187"/>
+      <c r="C196" s="233"/>
+      <c r="D196" s="234"/>
+      <c r="E196" s="234"/>
+      <c r="F196" s="234"/>
+      <c r="G196" s="234"/>
+      <c r="H196" s="234"/>
+      <c r="I196" s="234"/>
+      <c r="J196" s="234"/>
+      <c r="K196" s="234"/>
+      <c r="L196" s="234"/>
+      <c r="M196" s="235"/>
       <c r="N196" s="2"/>
     </row>
     <row r="197" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B197" s="21"/>
-      <c r="C197" s="185"/>
-      <c r="D197" s="186"/>
-      <c r="E197" s="186"/>
-      <c r="F197" s="186"/>
-      <c r="G197" s="186"/>
-      <c r="H197" s="186"/>
-      <c r="I197" s="186"/>
-      <c r="J197" s="186"/>
-      <c r="K197" s="186"/>
-      <c r="L197" s="186"/>
-      <c r="M197" s="187"/>
+      <c r="C197" s="233"/>
+      <c r="D197" s="234"/>
+      <c r="E197" s="234"/>
+      <c r="F197" s="234"/>
+      <c r="G197" s="234"/>
+      <c r="H197" s="234"/>
+      <c r="I197" s="234"/>
+      <c r="J197" s="234"/>
+      <c r="K197" s="234"/>
+      <c r="L197" s="234"/>
+      <c r="M197" s="235"/>
       <c r="N197" s="2"/>
     </row>
     <row r="198" spans="2:14" ht="99.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B198" s="21"/>
-      <c r="C198" s="188"/>
-      <c r="D198" s="189"/>
-      <c r="E198" s="189"/>
-      <c r="F198" s="189"/>
-      <c r="G198" s="189"/>
-      <c r="H198" s="189"/>
-      <c r="I198" s="189"/>
-      <c r="J198" s="189"/>
-      <c r="K198" s="189"/>
-      <c r="L198" s="189"/>
-      <c r="M198" s="190"/>
+      <c r="C198" s="236"/>
+      <c r="D198" s="237"/>
+      <c r="E198" s="237"/>
+      <c r="F198" s="237"/>
+      <c r="G198" s="237"/>
+      <c r="H198" s="237"/>
+      <c r="I198" s="237"/>
+      <c r="J198" s="237"/>
+      <c r="K198" s="237"/>
+      <c r="L198" s="237"/>
+      <c r="M198" s="238"/>
       <c r="N198" s="2"/>
     </row>
     <row r="199" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -5795,79 +5795,79 @@
     </row>
     <row r="201" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B201" s="21"/>
-      <c r="C201" s="182" t="s">
+      <c r="C201" s="230" t="s">
         <v>287</v>
       </c>
-      <c r="D201" s="183"/>
-      <c r="E201" s="183"/>
-      <c r="F201" s="183"/>
-      <c r="G201" s="183"/>
-      <c r="H201" s="183"/>
-      <c r="I201" s="183"/>
-      <c r="J201" s="183"/>
-      <c r="K201" s="183"/>
-      <c r="L201" s="183"/>
-      <c r="M201" s="184"/>
+      <c r="D201" s="231"/>
+      <c r="E201" s="231"/>
+      <c r="F201" s="231"/>
+      <c r="G201" s="231"/>
+      <c r="H201" s="231"/>
+      <c r="I201" s="231"/>
+      <c r="J201" s="231"/>
+      <c r="K201" s="231"/>
+      <c r="L201" s="231"/>
+      <c r="M201" s="232"/>
       <c r="N201" s="34"/>
     </row>
     <row r="202" spans="2:14" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B202" s="21"/>
-      <c r="C202" s="185"/>
-      <c r="D202" s="186"/>
-      <c r="E202" s="186"/>
-      <c r="F202" s="186"/>
-      <c r="G202" s="186"/>
-      <c r="H202" s="186"/>
-      <c r="I202" s="186"/>
-      <c r="J202" s="186"/>
-      <c r="K202" s="186"/>
-      <c r="L202" s="186"/>
-      <c r="M202" s="187"/>
+      <c r="C202" s="233"/>
+      <c r="D202" s="234"/>
+      <c r="E202" s="234"/>
+      <c r="F202" s="234"/>
+      <c r="G202" s="234"/>
+      <c r="H202" s="234"/>
+      <c r="I202" s="234"/>
+      <c r="J202" s="234"/>
+      <c r="K202" s="234"/>
+      <c r="L202" s="234"/>
+      <c r="M202" s="235"/>
       <c r="N202" s="2"/>
     </row>
     <row r="203" spans="2:14" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B203" s="21"/>
-      <c r="C203" s="185"/>
-      <c r="D203" s="186"/>
-      <c r="E203" s="186"/>
-      <c r="F203" s="186"/>
-      <c r="G203" s="186"/>
-      <c r="H203" s="186"/>
-      <c r="I203" s="186"/>
-      <c r="J203" s="186"/>
-      <c r="K203" s="186"/>
-      <c r="L203" s="186"/>
-      <c r="M203" s="187"/>
+      <c r="C203" s="233"/>
+      <c r="D203" s="234"/>
+      <c r="E203" s="234"/>
+      <c r="F203" s="234"/>
+      <c r="G203" s="234"/>
+      <c r="H203" s="234"/>
+      <c r="I203" s="234"/>
+      <c r="J203" s="234"/>
+      <c r="K203" s="234"/>
+      <c r="L203" s="234"/>
+      <c r="M203" s="235"/>
       <c r="N203" s="2"/>
     </row>
     <row r="204" spans="2:14" ht="35.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B204" s="21"/>
-      <c r="C204" s="185"/>
-      <c r="D204" s="186"/>
-      <c r="E204" s="186"/>
-      <c r="F204" s="186"/>
-      <c r="G204" s="186"/>
-      <c r="H204" s="186"/>
-      <c r="I204" s="186"/>
-      <c r="J204" s="186"/>
-      <c r="K204" s="186"/>
-      <c r="L204" s="186"/>
-      <c r="M204" s="187"/>
+      <c r="C204" s="233"/>
+      <c r="D204" s="234"/>
+      <c r="E204" s="234"/>
+      <c r="F204" s="234"/>
+      <c r="G204" s="234"/>
+      <c r="H204" s="234"/>
+      <c r="I204" s="234"/>
+      <c r="J204" s="234"/>
+      <c r="K204" s="234"/>
+      <c r="L204" s="234"/>
+      <c r="M204" s="235"/>
       <c r="N204" s="2"/>
     </row>
     <row r="205" spans="2:14" ht="39" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B205" s="21"/>
-      <c r="C205" s="188"/>
-      <c r="D205" s="189"/>
-      <c r="E205" s="189"/>
-      <c r="F205" s="189"/>
-      <c r="G205" s="189"/>
-      <c r="H205" s="189"/>
-      <c r="I205" s="189"/>
-      <c r="J205" s="189"/>
-      <c r="K205" s="189"/>
-      <c r="L205" s="189"/>
-      <c r="M205" s="190"/>
+      <c r="C205" s="236"/>
+      <c r="D205" s="237"/>
+      <c r="E205" s="237"/>
+      <c r="F205" s="237"/>
+      <c r="G205" s="237"/>
+      <c r="H205" s="237"/>
+      <c r="I205" s="237"/>
+      <c r="J205" s="237"/>
+      <c r="K205" s="237"/>
+      <c r="L205" s="237"/>
+      <c r="M205" s="238"/>
       <c r="N205" s="2"/>
     </row>
     <row r="206" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -6014,49 +6014,49 @@
     </row>
     <row r="215" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B215" s="18"/>
-      <c r="C215" s="225" t="s">
+      <c r="C215" s="201" t="s">
         <v>292</v>
       </c>
-      <c r="D215" s="226"/>
-      <c r="E215" s="226"/>
-      <c r="F215" s="226"/>
-      <c r="G215" s="226"/>
-      <c r="H215" s="226"/>
-      <c r="I215" s="226"/>
-      <c r="J215" s="226"/>
-      <c r="K215" s="226"/>
-      <c r="L215" s="226"/>
-      <c r="M215" s="227"/>
+      <c r="D215" s="202"/>
+      <c r="E215" s="202"/>
+      <c r="F215" s="202"/>
+      <c r="G215" s="202"/>
+      <c r="H215" s="202"/>
+      <c r="I215" s="202"/>
+      <c r="J215" s="202"/>
+      <c r="K215" s="202"/>
+      <c r="L215" s="202"/>
+      <c r="M215" s="203"/>
       <c r="N215" s="34"/>
     </row>
     <row r="216" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B216" s="18"/>
-      <c r="C216" s="228"/>
-      <c r="D216" s="229"/>
-      <c r="E216" s="229"/>
-      <c r="F216" s="229"/>
-      <c r="G216" s="229"/>
-      <c r="H216" s="229"/>
-      <c r="I216" s="229"/>
-      <c r="J216" s="229"/>
-      <c r="K216" s="229"/>
-      <c r="L216" s="229"/>
-      <c r="M216" s="230"/>
+      <c r="C216" s="204"/>
+      <c r="D216" s="205"/>
+      <c r="E216" s="205"/>
+      <c r="F216" s="205"/>
+      <c r="G216" s="205"/>
+      <c r="H216" s="205"/>
+      <c r="I216" s="205"/>
+      <c r="J216" s="205"/>
+      <c r="K216" s="205"/>
+      <c r="L216" s="205"/>
+      <c r="M216" s="206"/>
       <c r="N216" s="60"/>
     </row>
     <row r="217" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B217" s="18"/>
-      <c r="C217" s="231"/>
-      <c r="D217" s="232"/>
-      <c r="E217" s="232"/>
-      <c r="F217" s="232"/>
-      <c r="G217" s="232"/>
-      <c r="H217" s="232"/>
-      <c r="I217" s="232"/>
-      <c r="J217" s="232"/>
-      <c r="K217" s="232"/>
-      <c r="L217" s="232"/>
-      <c r="M217" s="233"/>
+      <c r="C217" s="207"/>
+      <c r="D217" s="208"/>
+      <c r="E217" s="208"/>
+      <c r="F217" s="208"/>
+      <c r="G217" s="208"/>
+      <c r="H217" s="208"/>
+      <c r="I217" s="208"/>
+      <c r="J217" s="208"/>
+      <c r="K217" s="208"/>
+      <c r="L217" s="208"/>
+      <c r="M217" s="209"/>
       <c r="N217" s="60"/>
     </row>
     <row r="218" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
@@ -6091,10 +6091,10 @@
     </row>
     <row r="220" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B220" s="18"/>
-      <c r="C220" s="165" t="s">
+      <c r="C220" s="217" t="s">
         <v>122</v>
       </c>
-      <c r="D220" s="165"/>
+      <c r="D220" s="217"/>
       <c r="E220" s="82"/>
       <c r="F220" s="79"/>
       <c r="G220" s="13"/>
@@ -6219,19 +6219,19 @@
     </row>
     <row r="228" spans="2:15" ht="49.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B228" s="18"/>
-      <c r="C228" s="197" t="s">
+      <c r="C228" s="224" t="s">
         <v>291</v>
       </c>
-      <c r="D228" s="198"/>
-      <c r="E228" s="198"/>
-      <c r="F228" s="198"/>
-      <c r="G228" s="198"/>
-      <c r="H228" s="198"/>
-      <c r="I228" s="198"/>
-      <c r="J228" s="198"/>
-      <c r="K228" s="198"/>
-      <c r="L228" s="198"/>
-      <c r="M228" s="199"/>
+      <c r="D228" s="225"/>
+      <c r="E228" s="225"/>
+      <c r="F228" s="225"/>
+      <c r="G228" s="225"/>
+      <c r="H228" s="225"/>
+      <c r="I228" s="225"/>
+      <c r="J228" s="225"/>
+      <c r="K228" s="225"/>
+      <c r="L228" s="225"/>
+      <c r="M228" s="226"/>
     </row>
     <row r="229" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B229" s="18"/>
@@ -6340,51 +6340,51 @@
     </row>
     <row r="236" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B236" s="18"/>
-      <c r="C236" s="173" t="s">
+      <c r="C236" s="256" t="s">
         <v>129</v>
       </c>
-      <c r="D236" s="174"/>
-      <c r="E236" s="174"/>
-      <c r="F236" s="174"/>
-      <c r="G236" s="174"/>
-      <c r="H236" s="174"/>
-      <c r="I236" s="174"/>
-      <c r="J236" s="174"/>
-      <c r="K236" s="174"/>
-      <c r="L236" s="174"/>
-      <c r="M236" s="175"/>
+      <c r="D236" s="257"/>
+      <c r="E236" s="257"/>
+      <c r="F236" s="257"/>
+      <c r="G236" s="257"/>
+      <c r="H236" s="257"/>
+      <c r="I236" s="257"/>
+      <c r="J236" s="257"/>
+      <c r="K236" s="257"/>
+      <c r="L236" s="257"/>
+      <c r="M236" s="258"/>
       <c r="N236" s="34"/>
       <c r="O236" s="2"/>
     </row>
     <row r="237" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B237" s="18"/>
-      <c r="C237" s="176"/>
-      <c r="D237" s="177"/>
-      <c r="E237" s="177"/>
-      <c r="F237" s="177"/>
-      <c r="G237" s="177"/>
-      <c r="H237" s="177"/>
-      <c r="I237" s="177"/>
-      <c r="J237" s="177"/>
-      <c r="K237" s="177"/>
-      <c r="L237" s="177"/>
-      <c r="M237" s="178"/>
+      <c r="C237" s="259"/>
+      <c r="D237" s="260"/>
+      <c r="E237" s="260"/>
+      <c r="F237" s="260"/>
+      <c r="G237" s="260"/>
+      <c r="H237" s="260"/>
+      <c r="I237" s="260"/>
+      <c r="J237" s="260"/>
+      <c r="K237" s="260"/>
+      <c r="L237" s="260"/>
+      <c r="M237" s="261"/>
       <c r="N237" s="60"/>
       <c r="O237" s="2"/>
     </row>
     <row r="238" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B238" s="18"/>
-      <c r="C238" s="179"/>
-      <c r="D238" s="180"/>
-      <c r="E238" s="180"/>
-      <c r="F238" s="180"/>
-      <c r="G238" s="180"/>
-      <c r="H238" s="180"/>
-      <c r="I238" s="180"/>
-      <c r="J238" s="180"/>
-      <c r="K238" s="180"/>
-      <c r="L238" s="180"/>
-      <c r="M238" s="181"/>
+      <c r="C238" s="262"/>
+      <c r="D238" s="263"/>
+      <c r="E238" s="263"/>
+      <c r="F238" s="263"/>
+      <c r="G238" s="263"/>
+      <c r="H238" s="263"/>
+      <c r="I238" s="263"/>
+      <c r="J238" s="263"/>
+      <c r="K238" s="263"/>
+      <c r="L238" s="263"/>
+      <c r="M238" s="264"/>
       <c r="N238" s="60"/>
       <c r="O238" s="2"/>
     </row>
@@ -6499,35 +6499,35 @@
     </row>
     <row r="246" spans="2:13" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B246" s="18"/>
-      <c r="C246" s="168" t="s">
+      <c r="C246" s="273" t="s">
         <v>269</v>
       </c>
-      <c r="D246" s="168"/>
-      <c r="E246" s="168"/>
-      <c r="F246" s="168"/>
-      <c r="G246" s="168"/>
-      <c r="H246" s="168"/>
-      <c r="I246" s="168"/>
-      <c r="J246" s="168"/>
-      <c r="K246" s="168"/>
-      <c r="L246" s="168"/>
-      <c r="M246" s="168"/>
+      <c r="D246" s="273"/>
+      <c r="E246" s="273"/>
+      <c r="F246" s="273"/>
+      <c r="G246" s="273"/>
+      <c r="H246" s="273"/>
+      <c r="I246" s="273"/>
+      <c r="J246" s="273"/>
+      <c r="K246" s="273"/>
+      <c r="L246" s="273"/>
+      <c r="M246" s="273"/>
     </row>
     <row r="247" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B247" s="18"/>
-      <c r="C247" s="168" t="s">
+      <c r="C247" s="273" t="s">
         <v>133</v>
       </c>
-      <c r="D247" s="168"/>
-      <c r="E247" s="168"/>
-      <c r="F247" s="168"/>
-      <c r="G247" s="168"/>
-      <c r="H247" s="168"/>
-      <c r="I247" s="168"/>
-      <c r="J247" s="168"/>
-      <c r="K247" s="168"/>
-      <c r="L247" s="168"/>
-      <c r="M247" s="168"/>
+      <c r="D247" s="273"/>
+      <c r="E247" s="273"/>
+      <c r="F247" s="273"/>
+      <c r="G247" s="273"/>
+      <c r="H247" s="273"/>
+      <c r="I247" s="273"/>
+      <c r="J247" s="273"/>
+      <c r="K247" s="273"/>
+      <c r="L247" s="273"/>
+      <c r="M247" s="273"/>
     </row>
     <row r="248" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B248" s="18"/>
@@ -6733,83 +6733,83 @@
     </row>
     <row r="261" spans="2:15" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B261" s="18"/>
-      <c r="C261" s="182" t="s">
+      <c r="C261" s="230" t="s">
         <v>304</v>
       </c>
-      <c r="D261" s="183"/>
-      <c r="E261" s="183"/>
-      <c r="F261" s="183"/>
-      <c r="G261" s="183"/>
-      <c r="H261" s="183"/>
-      <c r="I261" s="183"/>
-      <c r="J261" s="183"/>
-      <c r="K261" s="183"/>
-      <c r="L261" s="183"/>
-      <c r="M261" s="184"/>
+      <c r="D261" s="231"/>
+      <c r="E261" s="231"/>
+      <c r="F261" s="231"/>
+      <c r="G261" s="231"/>
+      <c r="H261" s="231"/>
+      <c r="I261" s="231"/>
+      <c r="J261" s="231"/>
+      <c r="K261" s="231"/>
+      <c r="L261" s="231"/>
+      <c r="M261" s="232"/>
       <c r="N261" s="34"/>
       <c r="O261" s="2"/>
     </row>
     <row r="262" spans="2:15" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B262" s="18"/>
-      <c r="C262" s="185"/>
-      <c r="D262" s="186"/>
-      <c r="E262" s="186"/>
-      <c r="F262" s="186"/>
-      <c r="G262" s="186"/>
-      <c r="H262" s="186"/>
-      <c r="I262" s="186"/>
-      <c r="J262" s="186"/>
-      <c r="K262" s="186"/>
-      <c r="L262" s="186"/>
-      <c r="M262" s="187"/>
+      <c r="C262" s="233"/>
+      <c r="D262" s="234"/>
+      <c r="E262" s="234"/>
+      <c r="F262" s="234"/>
+      <c r="G262" s="234"/>
+      <c r="H262" s="234"/>
+      <c r="I262" s="234"/>
+      <c r="J262" s="234"/>
+      <c r="K262" s="234"/>
+      <c r="L262" s="234"/>
+      <c r="M262" s="235"/>
       <c r="N262" s="60"/>
       <c r="O262" s="2"/>
     </row>
     <row r="263" spans="2:15" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B263" s="18"/>
-      <c r="C263" s="185"/>
-      <c r="D263" s="186"/>
-      <c r="E263" s="186"/>
-      <c r="F263" s="186"/>
-      <c r="G263" s="186"/>
-      <c r="H263" s="186"/>
-      <c r="I263" s="186"/>
-      <c r="J263" s="186"/>
-      <c r="K263" s="186"/>
-      <c r="L263" s="186"/>
-      <c r="M263" s="187"/>
+      <c r="C263" s="233"/>
+      <c r="D263" s="234"/>
+      <c r="E263" s="234"/>
+      <c r="F263" s="234"/>
+      <c r="G263" s="234"/>
+      <c r="H263" s="234"/>
+      <c r="I263" s="234"/>
+      <c r="J263" s="234"/>
+      <c r="K263" s="234"/>
+      <c r="L263" s="234"/>
+      <c r="M263" s="235"/>
       <c r="N263" s="60"/>
       <c r="O263" s="2"/>
     </row>
     <row r="264" spans="2:15" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B264" s="18"/>
-      <c r="C264" s="185"/>
-      <c r="D264" s="186"/>
-      <c r="E264" s="186"/>
-      <c r="F264" s="186"/>
-      <c r="G264" s="186"/>
-      <c r="H264" s="186"/>
-      <c r="I264" s="186"/>
-      <c r="J264" s="186"/>
-      <c r="K264" s="186"/>
-      <c r="L264" s="186"/>
-      <c r="M264" s="187"/>
+      <c r="C264" s="233"/>
+      <c r="D264" s="234"/>
+      <c r="E264" s="234"/>
+      <c r="F264" s="234"/>
+      <c r="G264" s="234"/>
+      <c r="H264" s="234"/>
+      <c r="I264" s="234"/>
+      <c r="J264" s="234"/>
+      <c r="K264" s="234"/>
+      <c r="L264" s="234"/>
+      <c r="M264" s="235"/>
       <c r="N264" s="60"/>
       <c r="O264" s="2"/>
     </row>
     <row r="265" spans="2:15" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B265" s="18"/>
-      <c r="C265" s="188"/>
-      <c r="D265" s="189"/>
-      <c r="E265" s="189"/>
-      <c r="F265" s="189"/>
-      <c r="G265" s="189"/>
-      <c r="H265" s="189"/>
-      <c r="I265" s="189"/>
-      <c r="J265" s="189"/>
-      <c r="K265" s="189"/>
-      <c r="L265" s="189"/>
-      <c r="M265" s="190"/>
+      <c r="C265" s="236"/>
+      <c r="D265" s="237"/>
+      <c r="E265" s="237"/>
+      <c r="F265" s="237"/>
+      <c r="G265" s="237"/>
+      <c r="H265" s="237"/>
+      <c r="I265" s="237"/>
+      <c r="J265" s="237"/>
+      <c r="K265" s="237"/>
+      <c r="L265" s="237"/>
+      <c r="M265" s="238"/>
       <c r="N265" s="60"/>
       <c r="O265" s="2"/>
     </row>
@@ -6865,28 +6865,28 @@
     </row>
     <row r="269" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B269" s="18"/>
-      <c r="C269" s="169" t="s">
+      <c r="C269" s="183" t="s">
         <v>253</v>
       </c>
-      <c r="D269" s="169"/>
-      <c r="E269" s="192" t="s">
+      <c r="D269" s="183"/>
+      <c r="E269" s="179" t="s">
         <v>141</v>
       </c>
-      <c r="F269" s="193"/>
-      <c r="G269" s="193"/>
-      <c r="H269" s="193"/>
-      <c r="I269" s="193"/>
-      <c r="J269" s="193"/>
-      <c r="K269" s="193"/>
-      <c r="L269" s="193"/>
-      <c r="M269" s="194"/>
+      <c r="F269" s="180"/>
+      <c r="G269" s="180"/>
+      <c r="H269" s="180"/>
+      <c r="I269" s="180"/>
+      <c r="J269" s="180"/>
+      <c r="K269" s="180"/>
+      <c r="L269" s="180"/>
+      <c r="M269" s="181"/>
       <c r="N269" s="34"/>
       <c r="O269" s="2"/>
     </row>
     <row r="270" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B270" s="18"/>
-      <c r="C270" s="167"/>
-      <c r="D270" s="167"/>
+      <c r="C270" s="272"/>
+      <c r="D270" s="272"/>
       <c r="E270" s="71"/>
       <c r="F270" s="73"/>
       <c r="G270" s="73"/>
@@ -6901,8 +6901,8 @@
     </row>
     <row r="271" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B271" s="18"/>
-      <c r="C271" s="167"/>
-      <c r="D271" s="167"/>
+      <c r="C271" s="272"/>
+      <c r="D271" s="272"/>
       <c r="E271" s="71"/>
       <c r="F271" s="73"/>
       <c r="G271" s="73"/>
@@ -6917,8 +6917,8 @@
     </row>
     <row r="272" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B272" s="18"/>
-      <c r="C272" s="167"/>
-      <c r="D272" s="167"/>
+      <c r="C272" s="272"/>
+      <c r="D272" s="272"/>
       <c r="E272" s="71"/>
       <c r="F272" s="73"/>
       <c r="G272" s="73"/>
@@ -6933,8 +6933,8 @@
     </row>
     <row r="273" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B273" s="18"/>
-      <c r="C273" s="167"/>
-      <c r="D273" s="167"/>
+      <c r="C273" s="272"/>
+      <c r="D273" s="272"/>
       <c r="E273" s="71"/>
       <c r="F273" s="73"/>
       <c r="G273" s="73"/>
@@ -6999,83 +6999,83 @@
     </row>
     <row r="277" spans="2:15" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B277" s="18"/>
-      <c r="C277" s="191" t="s">
+      <c r="C277" s="277" t="s">
         <v>302</v>
       </c>
-      <c r="D277" s="191"/>
-      <c r="E277" s="191"/>
-      <c r="F277" s="191"/>
-      <c r="G277" s="191"/>
-      <c r="H277" s="191"/>
-      <c r="I277" s="191"/>
-      <c r="J277" s="191"/>
-      <c r="K277" s="191"/>
-      <c r="L277" s="191"/>
-      <c r="M277" s="191"/>
+      <c r="D277" s="277"/>
+      <c r="E277" s="277"/>
+      <c r="F277" s="277"/>
+      <c r="G277" s="277"/>
+      <c r="H277" s="277"/>
+      <c r="I277" s="277"/>
+      <c r="J277" s="277"/>
+      <c r="K277" s="277"/>
+      <c r="L277" s="277"/>
+      <c r="M277" s="277"/>
       <c r="N277" s="34"/>
       <c r="O277" s="2"/>
     </row>
     <row r="278" spans="2:15" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B278" s="18"/>
-      <c r="C278" s="191"/>
-      <c r="D278" s="191"/>
-      <c r="E278" s="191"/>
-      <c r="F278" s="191"/>
-      <c r="G278" s="191"/>
-      <c r="H278" s="191"/>
-      <c r="I278" s="191"/>
-      <c r="J278" s="191"/>
-      <c r="K278" s="191"/>
-      <c r="L278" s="191"/>
-      <c r="M278" s="191"/>
+      <c r="C278" s="277"/>
+      <c r="D278" s="277"/>
+      <c r="E278" s="277"/>
+      <c r="F278" s="277"/>
+      <c r="G278" s="277"/>
+      <c r="H278" s="277"/>
+      <c r="I278" s="277"/>
+      <c r="J278" s="277"/>
+      <c r="K278" s="277"/>
+      <c r="L278" s="277"/>
+      <c r="M278" s="277"/>
       <c r="N278" s="60"/>
       <c r="O278" s="2"/>
     </row>
     <row r="279" spans="2:15" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B279" s="18"/>
-      <c r="C279" s="191"/>
-      <c r="D279" s="191"/>
-      <c r="E279" s="191"/>
-      <c r="F279" s="191"/>
-      <c r="G279" s="191"/>
-      <c r="H279" s="191"/>
-      <c r="I279" s="191"/>
-      <c r="J279" s="191"/>
-      <c r="K279" s="191"/>
-      <c r="L279" s="191"/>
-      <c r="M279" s="191"/>
+      <c r="C279" s="277"/>
+      <c r="D279" s="277"/>
+      <c r="E279" s="277"/>
+      <c r="F279" s="277"/>
+      <c r="G279" s="277"/>
+      <c r="H279" s="277"/>
+      <c r="I279" s="277"/>
+      <c r="J279" s="277"/>
+      <c r="K279" s="277"/>
+      <c r="L279" s="277"/>
+      <c r="M279" s="277"/>
       <c r="N279" s="60"/>
       <c r="O279" s="2"/>
     </row>
     <row r="280" spans="2:15" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B280" s="18"/>
-      <c r="C280" s="191"/>
-      <c r="D280" s="191"/>
-      <c r="E280" s="191"/>
-      <c r="F280" s="191"/>
-      <c r="G280" s="191"/>
-      <c r="H280" s="191"/>
-      <c r="I280" s="191"/>
-      <c r="J280" s="191"/>
-      <c r="K280" s="191"/>
-      <c r="L280" s="191"/>
-      <c r="M280" s="191"/>
+      <c r="C280" s="277"/>
+      <c r="D280" s="277"/>
+      <c r="E280" s="277"/>
+      <c r="F280" s="277"/>
+      <c r="G280" s="277"/>
+      <c r="H280" s="277"/>
+      <c r="I280" s="277"/>
+      <c r="J280" s="277"/>
+      <c r="K280" s="277"/>
+      <c r="L280" s="277"/>
+      <c r="M280" s="277"/>
       <c r="N280" s="60"/>
       <c r="O280" s="2"/>
     </row>
     <row r="281" spans="2:15" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B281" s="18"/>
-      <c r="C281" s="191"/>
-      <c r="D281" s="191"/>
-      <c r="E281" s="191"/>
-      <c r="F281" s="191"/>
-      <c r="G281" s="191"/>
-      <c r="H281" s="191"/>
-      <c r="I281" s="191"/>
-      <c r="J281" s="191"/>
-      <c r="K281" s="191"/>
-      <c r="L281" s="191"/>
-      <c r="M281" s="191"/>
+      <c r="C281" s="277"/>
+      <c r="D281" s="277"/>
+      <c r="E281" s="277"/>
+      <c r="F281" s="277"/>
+      <c r="G281" s="277"/>
+      <c r="H281" s="277"/>
+      <c r="I281" s="277"/>
+      <c r="J281" s="277"/>
+      <c r="K281" s="277"/>
+      <c r="L281" s="277"/>
+      <c r="M281" s="277"/>
       <c r="N281" s="60"/>
       <c r="O281" s="2"/>
     </row>
@@ -7131,12 +7131,12 @@
     </row>
     <row r="285" spans="2:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B285" s="18"/>
-      <c r="C285" s="165" t="s">
+      <c r="C285" s="217" t="s">
         <v>144</v>
       </c>
-      <c r="D285" s="165"/>
-      <c r="E285" s="165"/>
-      <c r="F285" s="166"/>
+      <c r="D285" s="217"/>
+      <c r="E285" s="217"/>
+      <c r="F285" s="252"/>
       <c r="G285" s="106"/>
       <c r="H285" s="25"/>
       <c r="I285" s="25"/>
@@ -7147,10 +7147,10 @@
     </row>
     <row r="286" spans="2:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B286" s="18"/>
-      <c r="C286" s="165"/>
-      <c r="D286" s="165"/>
-      <c r="E286" s="165"/>
-      <c r="F286" s="165"/>
+      <c r="C286" s="217"/>
+      <c r="D286" s="217"/>
+      <c r="E286" s="217"/>
+      <c r="F286" s="217"/>
       <c r="G286" s="13"/>
       <c r="H286" s="25"/>
       <c r="I286" s="25"/>
@@ -7161,12 +7161,12 @@
     </row>
     <row r="287" spans="2:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B287" s="18"/>
-      <c r="C287" s="165" t="s">
+      <c r="C287" s="217" t="s">
         <v>145</v>
       </c>
-      <c r="D287" s="165"/>
-      <c r="E287" s="165"/>
-      <c r="F287" s="166"/>
+      <c r="D287" s="217"/>
+      <c r="E287" s="217"/>
+      <c r="F287" s="252"/>
       <c r="G287" s="106"/>
       <c r="H287" s="18" t="s">
         <v>146</v>
@@ -7179,10 +7179,10 @@
     </row>
     <row r="288" spans="2:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B288" s="18"/>
-      <c r="C288" s="165"/>
-      <c r="D288" s="165"/>
-      <c r="E288" s="165"/>
-      <c r="F288" s="165"/>
+      <c r="C288" s="217"/>
+      <c r="D288" s="217"/>
+      <c r="E288" s="217"/>
+      <c r="F288" s="217"/>
       <c r="G288" s="13"/>
       <c r="H288" s="25"/>
       <c r="I288" s="25"/>
@@ -7193,12 +7193,12 @@
     </row>
     <row r="289" spans="2:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B289" s="18"/>
-      <c r="C289" s="165" t="s">
+      <c r="C289" s="217" t="s">
         <v>147</v>
       </c>
-      <c r="D289" s="165"/>
-      <c r="E289" s="165"/>
-      <c r="F289" s="166"/>
+      <c r="D289" s="217"/>
+      <c r="E289" s="217"/>
+      <c r="F289" s="252"/>
       <c r="G289" s="106"/>
       <c r="H289" s="25"/>
       <c r="I289" s="25"/>
@@ -7223,12 +7223,12 @@
     </row>
     <row r="291" spans="2:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B291" s="18"/>
-      <c r="C291" s="165" t="s">
+      <c r="C291" s="217" t="s">
         <v>148</v>
       </c>
-      <c r="D291" s="165"/>
-      <c r="E291" s="165"/>
-      <c r="F291" s="166"/>
+      <c r="D291" s="217"/>
+      <c r="E291" s="217"/>
+      <c r="F291" s="252"/>
       <c r="G291" s="106"/>
       <c r="H291" s="25"/>
       <c r="I291" s="25"/>
@@ -7253,12 +7253,12 @@
     </row>
     <row r="293" spans="2:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B293" s="18"/>
-      <c r="C293" s="165" t="s">
+      <c r="C293" s="217" t="s">
         <v>149</v>
       </c>
-      <c r="D293" s="165"/>
-      <c r="E293" s="165"/>
-      <c r="F293" s="166"/>
+      <c r="D293" s="217"/>
+      <c r="E293" s="217"/>
+      <c r="F293" s="252"/>
       <c r="G293" s="106"/>
       <c r="H293" s="25"/>
       <c r="I293" s="25"/>
@@ -7361,82 +7361,82 @@
     </row>
     <row r="300" spans="2:15" ht="6.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B300" s="18"/>
-      <c r="C300" s="182" t="s">
+      <c r="C300" s="230" t="s">
         <v>305</v>
       </c>
-      <c r="D300" s="183"/>
-      <c r="E300" s="183"/>
-      <c r="F300" s="183"/>
-      <c r="G300" s="183"/>
-      <c r="H300" s="183"/>
-      <c r="I300" s="183"/>
-      <c r="J300" s="183"/>
-      <c r="K300" s="183"/>
-      <c r="L300" s="183"/>
-      <c r="M300" s="184"/>
+      <c r="D300" s="231"/>
+      <c r="E300" s="231"/>
+      <c r="F300" s="231"/>
+      <c r="G300" s="231"/>
+      <c r="H300" s="231"/>
+      <c r="I300" s="231"/>
+      <c r="J300" s="231"/>
+      <c r="K300" s="231"/>
+      <c r="L300" s="231"/>
+      <c r="M300" s="232"/>
       <c r="N300" s="21"/>
     </row>
     <row r="301" spans="2:15" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B301" s="18"/>
-      <c r="C301" s="185"/>
-      <c r="D301" s="186"/>
-      <c r="E301" s="186"/>
-      <c r="F301" s="186"/>
-      <c r="G301" s="186"/>
-      <c r="H301" s="186"/>
-      <c r="I301" s="186"/>
-      <c r="J301" s="186"/>
-      <c r="K301" s="186"/>
-      <c r="L301" s="186"/>
-      <c r="M301" s="187"/>
+      <c r="C301" s="233"/>
+      <c r="D301" s="234"/>
+      <c r="E301" s="234"/>
+      <c r="F301" s="234"/>
+      <c r="G301" s="234"/>
+      <c r="H301" s="234"/>
+      <c r="I301" s="234"/>
+      <c r="J301" s="234"/>
+      <c r="K301" s="234"/>
+      <c r="L301" s="234"/>
+      <c r="M301" s="235"/>
       <c r="N301" s="60"/>
       <c r="O301" s="2"/>
     </row>
     <row r="302" spans="2:15" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B302" s="18"/>
-      <c r="C302" s="185"/>
-      <c r="D302" s="186"/>
-      <c r="E302" s="186"/>
-      <c r="F302" s="186"/>
-      <c r="G302" s="186"/>
-      <c r="H302" s="186"/>
-      <c r="I302" s="186"/>
-      <c r="J302" s="186"/>
-      <c r="K302" s="186"/>
-      <c r="L302" s="186"/>
-      <c r="M302" s="187"/>
+      <c r="C302" s="233"/>
+      <c r="D302" s="234"/>
+      <c r="E302" s="234"/>
+      <c r="F302" s="234"/>
+      <c r="G302" s="234"/>
+      <c r="H302" s="234"/>
+      <c r="I302" s="234"/>
+      <c r="J302" s="234"/>
+      <c r="K302" s="234"/>
+      <c r="L302" s="234"/>
+      <c r="M302" s="235"/>
       <c r="N302" s="60"/>
       <c r="O302" s="2"/>
     </row>
     <row r="303" spans="2:15" ht="30.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B303" s="18"/>
-      <c r="C303" s="185"/>
-      <c r="D303" s="186"/>
-      <c r="E303" s="186"/>
-      <c r="F303" s="186"/>
-      <c r="G303" s="186"/>
-      <c r="H303" s="186"/>
-      <c r="I303" s="186"/>
-      <c r="J303" s="186"/>
-      <c r="K303" s="186"/>
-      <c r="L303" s="186"/>
-      <c r="M303" s="187"/>
+      <c r="C303" s="233"/>
+      <c r="D303" s="234"/>
+      <c r="E303" s="234"/>
+      <c r="F303" s="234"/>
+      <c r="G303" s="234"/>
+      <c r="H303" s="234"/>
+      <c r="I303" s="234"/>
+      <c r="J303" s="234"/>
+      <c r="K303" s="234"/>
+      <c r="L303" s="234"/>
+      <c r="M303" s="235"/>
       <c r="N303" s="60"/>
       <c r="O303" s="2"/>
     </row>
     <row r="304" spans="2:15" ht="119.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B304" s="18"/>
-      <c r="C304" s="188"/>
-      <c r="D304" s="189"/>
-      <c r="E304" s="189"/>
-      <c r="F304" s="189"/>
-      <c r="G304" s="189"/>
-      <c r="H304" s="189"/>
-      <c r="I304" s="189"/>
-      <c r="J304" s="189"/>
-      <c r="K304" s="189"/>
-      <c r="L304" s="189"/>
-      <c r="M304" s="190"/>
+      <c r="C304" s="236"/>
+      <c r="D304" s="237"/>
+      <c r="E304" s="237"/>
+      <c r="F304" s="237"/>
+      <c r="G304" s="237"/>
+      <c r="H304" s="237"/>
+      <c r="I304" s="237"/>
+      <c r="J304" s="237"/>
+      <c r="K304" s="237"/>
+      <c r="L304" s="237"/>
+      <c r="M304" s="238"/>
       <c r="N304" s="60"/>
       <c r="O304" s="2"/>
     </row>
@@ -7475,83 +7475,83 @@
     </row>
     <row r="307" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B307" s="18"/>
-      <c r="C307" s="182" t="s">
+      <c r="C307" s="230" t="s">
         <v>293</v>
       </c>
-      <c r="D307" s="183"/>
-      <c r="E307" s="183"/>
-      <c r="F307" s="183"/>
-      <c r="G307" s="183"/>
-      <c r="H307" s="183"/>
-      <c r="I307" s="183"/>
-      <c r="J307" s="183"/>
-      <c r="K307" s="183"/>
-      <c r="L307" s="183"/>
-      <c r="M307" s="184"/>
+      <c r="D307" s="231"/>
+      <c r="E307" s="231"/>
+      <c r="F307" s="231"/>
+      <c r="G307" s="231"/>
+      <c r="H307" s="231"/>
+      <c r="I307" s="231"/>
+      <c r="J307" s="231"/>
+      <c r="K307" s="231"/>
+      <c r="L307" s="231"/>
+      <c r="M307" s="232"/>
       <c r="N307" s="34"/>
       <c r="O307" s="2"/>
     </row>
     <row r="308" spans="2:15" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B308" s="18"/>
-      <c r="C308" s="185"/>
-      <c r="D308" s="186"/>
-      <c r="E308" s="186"/>
-      <c r="F308" s="186"/>
-      <c r="G308" s="186"/>
-      <c r="H308" s="186"/>
-      <c r="I308" s="186"/>
-      <c r="J308" s="186"/>
-      <c r="K308" s="186"/>
-      <c r="L308" s="186"/>
-      <c r="M308" s="187"/>
+      <c r="C308" s="233"/>
+      <c r="D308" s="234"/>
+      <c r="E308" s="234"/>
+      <c r="F308" s="234"/>
+      <c r="G308" s="234"/>
+      <c r="H308" s="234"/>
+      <c r="I308" s="234"/>
+      <c r="J308" s="234"/>
+      <c r="K308" s="234"/>
+      <c r="L308" s="234"/>
+      <c r="M308" s="235"/>
       <c r="N308" s="60"/>
       <c r="O308" s="2"/>
     </row>
     <row r="309" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B309" s="18"/>
-      <c r="C309" s="185"/>
-      <c r="D309" s="186"/>
-      <c r="E309" s="186"/>
-      <c r="F309" s="186"/>
-      <c r="G309" s="186"/>
-      <c r="H309" s="186"/>
-      <c r="I309" s="186"/>
-      <c r="J309" s="186"/>
-      <c r="K309" s="186"/>
-      <c r="L309" s="186"/>
-      <c r="M309" s="187"/>
+      <c r="C309" s="233"/>
+      <c r="D309" s="234"/>
+      <c r="E309" s="234"/>
+      <c r="F309" s="234"/>
+      <c r="G309" s="234"/>
+      <c r="H309" s="234"/>
+      <c r="I309" s="234"/>
+      <c r="J309" s="234"/>
+      <c r="K309" s="234"/>
+      <c r="L309" s="234"/>
+      <c r="M309" s="235"/>
       <c r="N309" s="60"/>
       <c r="O309" s="2"/>
     </row>
     <row r="310" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B310" s="18"/>
-      <c r="C310" s="185"/>
-      <c r="D310" s="186"/>
-      <c r="E310" s="186"/>
-      <c r="F310" s="186"/>
-      <c r="G310" s="186"/>
-      <c r="H310" s="186"/>
-      <c r="I310" s="186"/>
-      <c r="J310" s="186"/>
-      <c r="K310" s="186"/>
-      <c r="L310" s="186"/>
-      <c r="M310" s="187"/>
+      <c r="C310" s="233"/>
+      <c r="D310" s="234"/>
+      <c r="E310" s="234"/>
+      <c r="F310" s="234"/>
+      <c r="G310" s="234"/>
+      <c r="H310" s="234"/>
+      <c r="I310" s="234"/>
+      <c r="J310" s="234"/>
+      <c r="K310" s="234"/>
+      <c r="L310" s="234"/>
+      <c r="M310" s="235"/>
       <c r="N310" s="60"/>
       <c r="O310" s="2"/>
     </row>
     <row r="311" spans="2:15" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B311" s="18"/>
-      <c r="C311" s="188"/>
-      <c r="D311" s="189"/>
-      <c r="E311" s="189"/>
-      <c r="F311" s="189"/>
-      <c r="G311" s="189"/>
-      <c r="H311" s="189"/>
-      <c r="I311" s="189"/>
-      <c r="J311" s="189"/>
-      <c r="K311" s="189"/>
-      <c r="L311" s="189"/>
-      <c r="M311" s="190"/>
+      <c r="C311" s="236"/>
+      <c r="D311" s="237"/>
+      <c r="E311" s="237"/>
+      <c r="F311" s="237"/>
+      <c r="G311" s="237"/>
+      <c r="H311" s="237"/>
+      <c r="I311" s="237"/>
+      <c r="J311" s="237"/>
+      <c r="K311" s="237"/>
+      <c r="L311" s="237"/>
+      <c r="M311" s="238"/>
       <c r="N311" s="60"/>
       <c r="O311" s="2"/>
     </row>
@@ -7731,83 +7731,83 @@
     </row>
     <row r="322" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B322" s="18"/>
-      <c r="C322" s="182" t="s">
+      <c r="C322" s="230" t="s">
         <v>294</v>
       </c>
-      <c r="D322" s="183"/>
-      <c r="E322" s="183"/>
-      <c r="F322" s="183"/>
-      <c r="G322" s="183"/>
-      <c r="H322" s="183"/>
-      <c r="I322" s="183"/>
-      <c r="J322" s="183"/>
-      <c r="K322" s="183"/>
-      <c r="L322" s="183"/>
-      <c r="M322" s="184"/>
+      <c r="D322" s="231"/>
+      <c r="E322" s="231"/>
+      <c r="F322" s="231"/>
+      <c r="G322" s="231"/>
+      <c r="H322" s="231"/>
+      <c r="I322" s="231"/>
+      <c r="J322" s="231"/>
+      <c r="K322" s="231"/>
+      <c r="L322" s="231"/>
+      <c r="M322" s="232"/>
       <c r="N322" s="34"/>
       <c r="O322" s="2"/>
     </row>
     <row r="323" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B323" s="18"/>
-      <c r="C323" s="185"/>
-      <c r="D323" s="186"/>
-      <c r="E323" s="186"/>
-      <c r="F323" s="186"/>
-      <c r="G323" s="186"/>
-      <c r="H323" s="186"/>
-      <c r="I323" s="186"/>
-      <c r="J323" s="186"/>
-      <c r="K323" s="186"/>
-      <c r="L323" s="186"/>
-      <c r="M323" s="187"/>
+      <c r="C323" s="233"/>
+      <c r="D323" s="234"/>
+      <c r="E323" s="234"/>
+      <c r="F323" s="234"/>
+      <c r="G323" s="234"/>
+      <c r="H323" s="234"/>
+      <c r="I323" s="234"/>
+      <c r="J323" s="234"/>
+      <c r="K323" s="234"/>
+      <c r="L323" s="234"/>
+      <c r="M323" s="235"/>
       <c r="N323" s="60"/>
       <c r="O323" s="2"/>
     </row>
     <row r="324" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B324" s="18"/>
-      <c r="C324" s="185"/>
-      <c r="D324" s="186"/>
-      <c r="E324" s="186"/>
-      <c r="F324" s="186"/>
-      <c r="G324" s="186"/>
-      <c r="H324" s="186"/>
-      <c r="I324" s="186"/>
-      <c r="J324" s="186"/>
-      <c r="K324" s="186"/>
-      <c r="L324" s="186"/>
-      <c r="M324" s="187"/>
+      <c r="C324" s="233"/>
+      <c r="D324" s="234"/>
+      <c r="E324" s="234"/>
+      <c r="F324" s="234"/>
+      <c r="G324" s="234"/>
+      <c r="H324" s="234"/>
+      <c r="I324" s="234"/>
+      <c r="J324" s="234"/>
+      <c r="K324" s="234"/>
+      <c r="L324" s="234"/>
+      <c r="M324" s="235"/>
       <c r="N324" s="60"/>
       <c r="O324" s="2"/>
     </row>
     <row r="325" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B325" s="18"/>
-      <c r="C325" s="185"/>
-      <c r="D325" s="186"/>
-      <c r="E325" s="186"/>
-      <c r="F325" s="186"/>
-      <c r="G325" s="186"/>
-      <c r="H325" s="186"/>
-      <c r="I325" s="186"/>
-      <c r="J325" s="186"/>
-      <c r="K325" s="186"/>
-      <c r="L325" s="186"/>
-      <c r="M325" s="187"/>
+      <c r="C325" s="233"/>
+      <c r="D325" s="234"/>
+      <c r="E325" s="234"/>
+      <c r="F325" s="234"/>
+      <c r="G325" s="234"/>
+      <c r="H325" s="234"/>
+      <c r="I325" s="234"/>
+      <c r="J325" s="234"/>
+      <c r="K325" s="234"/>
+      <c r="L325" s="234"/>
+      <c r="M325" s="235"/>
       <c r="N325" s="60"/>
       <c r="O325" s="2"/>
     </row>
     <row r="326" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B326" s="18"/>
-      <c r="C326" s="188"/>
-      <c r="D326" s="189"/>
-      <c r="E326" s="189"/>
-      <c r="F326" s="189"/>
-      <c r="G326" s="189"/>
-      <c r="H326" s="189"/>
-      <c r="I326" s="189"/>
-      <c r="J326" s="189"/>
-      <c r="K326" s="189"/>
-      <c r="L326" s="189"/>
-      <c r="M326" s="190"/>
+      <c r="C326" s="236"/>
+      <c r="D326" s="237"/>
+      <c r="E326" s="237"/>
+      <c r="F326" s="237"/>
+      <c r="G326" s="237"/>
+      <c r="H326" s="237"/>
+      <c r="I326" s="237"/>
+      <c r="J326" s="237"/>
+      <c r="K326" s="237"/>
+      <c r="L326" s="237"/>
+      <c r="M326" s="238"/>
       <c r="N326" s="60"/>
       <c r="O326" s="2"/>
     </row>
@@ -7829,19 +7829,19 @@
     </row>
     <row r="328" spans="2:15" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B328" s="18"/>
-      <c r="C328" s="210" t="s">
+      <c r="C328" s="255" t="s">
         <v>156</v>
       </c>
-      <c r="D328" s="210"/>
-      <c r="E328" s="210"/>
-      <c r="F328" s="210"/>
-      <c r="G328" s="210"/>
-      <c r="H328" s="210"/>
-      <c r="I328" s="210"/>
-      <c r="J328" s="210"/>
-      <c r="K328" s="210"/>
-      <c r="L328" s="210"/>
-      <c r="M328" s="210"/>
+      <c r="D328" s="255"/>
+      <c r="E328" s="255"/>
+      <c r="F328" s="255"/>
+      <c r="G328" s="255"/>
+      <c r="H328" s="255"/>
+      <c r="I328" s="255"/>
+      <c r="J328" s="255"/>
+      <c r="K328" s="255"/>
+      <c r="L328" s="255"/>
+      <c r="M328" s="255"/>
       <c r="N328" s="20"/>
       <c r="O328" s="2"/>
     </row>
@@ -7956,79 +7956,79 @@
     </row>
     <row r="336" spans="2:15" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B336" s="18"/>
-      <c r="C336" s="173" t="s">
+      <c r="C336" s="256" t="s">
         <v>252</v>
       </c>
-      <c r="D336" s="174"/>
-      <c r="E336" s="174"/>
-      <c r="F336" s="174"/>
-      <c r="G336" s="174"/>
-      <c r="H336" s="174"/>
-      <c r="I336" s="174"/>
-      <c r="J336" s="174"/>
-      <c r="K336" s="174"/>
-      <c r="L336" s="174"/>
-      <c r="M336" s="175"/>
+      <c r="D336" s="257"/>
+      <c r="E336" s="257"/>
+      <c r="F336" s="257"/>
+      <c r="G336" s="257"/>
+      <c r="H336" s="257"/>
+      <c r="I336" s="257"/>
+      <c r="J336" s="257"/>
+      <c r="K336" s="257"/>
+      <c r="L336" s="257"/>
+      <c r="M336" s="258"/>
       <c r="N336" s="34"/>
     </row>
     <row r="337" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B337" s="18"/>
-      <c r="C337" s="176"/>
-      <c r="D337" s="177"/>
-      <c r="E337" s="177"/>
-      <c r="F337" s="177"/>
-      <c r="G337" s="177"/>
-      <c r="H337" s="177"/>
-      <c r="I337" s="177"/>
-      <c r="J337" s="177"/>
-      <c r="K337" s="177"/>
-      <c r="L337" s="177"/>
-      <c r="M337" s="178"/>
+      <c r="C337" s="259"/>
+      <c r="D337" s="260"/>
+      <c r="E337" s="260"/>
+      <c r="F337" s="260"/>
+      <c r="G337" s="260"/>
+      <c r="H337" s="260"/>
+      <c r="I337" s="260"/>
+      <c r="J337" s="260"/>
+      <c r="K337" s="260"/>
+      <c r="L337" s="260"/>
+      <c r="M337" s="261"/>
       <c r="N337" s="60"/>
     </row>
     <row r="338" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B338" s="18"/>
-      <c r="C338" s="176"/>
-      <c r="D338" s="177"/>
-      <c r="E338" s="177"/>
-      <c r="F338" s="177"/>
-      <c r="G338" s="177"/>
-      <c r="H338" s="177"/>
-      <c r="I338" s="177"/>
-      <c r="J338" s="177"/>
-      <c r="K338" s="177"/>
-      <c r="L338" s="177"/>
-      <c r="M338" s="178"/>
+      <c r="C338" s="259"/>
+      <c r="D338" s="260"/>
+      <c r="E338" s="260"/>
+      <c r="F338" s="260"/>
+      <c r="G338" s="260"/>
+      <c r="H338" s="260"/>
+      <c r="I338" s="260"/>
+      <c r="J338" s="260"/>
+      <c r="K338" s="260"/>
+      <c r="L338" s="260"/>
+      <c r="M338" s="261"/>
       <c r="N338" s="60"/>
     </row>
     <row r="339" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B339" s="18"/>
-      <c r="C339" s="176"/>
-      <c r="D339" s="177"/>
-      <c r="E339" s="177"/>
-      <c r="F339" s="177"/>
-      <c r="G339" s="177"/>
-      <c r="H339" s="177"/>
-      <c r="I339" s="177"/>
-      <c r="J339" s="177"/>
-      <c r="K339" s="177"/>
-      <c r="L339" s="177"/>
-      <c r="M339" s="178"/>
+      <c r="C339" s="259"/>
+      <c r="D339" s="260"/>
+      <c r="E339" s="260"/>
+      <c r="F339" s="260"/>
+      <c r="G339" s="260"/>
+      <c r="H339" s="260"/>
+      <c r="I339" s="260"/>
+      <c r="J339" s="260"/>
+      <c r="K339" s="260"/>
+      <c r="L339" s="260"/>
+      <c r="M339" s="261"/>
       <c r="N339" s="60"/>
     </row>
     <row r="340" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B340" s="18"/>
-      <c r="C340" s="179"/>
-      <c r="D340" s="180"/>
-      <c r="E340" s="180"/>
-      <c r="F340" s="180"/>
-      <c r="G340" s="180"/>
-      <c r="H340" s="180"/>
-      <c r="I340" s="180"/>
-      <c r="J340" s="180"/>
-      <c r="K340" s="180"/>
-      <c r="L340" s="180"/>
-      <c r="M340" s="181"/>
+      <c r="C340" s="262"/>
+      <c r="D340" s="263"/>
+      <c r="E340" s="263"/>
+      <c r="F340" s="263"/>
+      <c r="G340" s="263"/>
+      <c r="H340" s="263"/>
+      <c r="I340" s="263"/>
+      <c r="J340" s="263"/>
+      <c r="K340" s="263"/>
+      <c r="L340" s="263"/>
+      <c r="M340" s="264"/>
       <c r="N340" s="60"/>
     </row>
     <row r="341" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -8048,19 +8048,19 @@
     </row>
     <row r="342" spans="2:14" ht="39" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B342" s="18"/>
-      <c r="C342" s="210" t="s">
+      <c r="C342" s="255" t="s">
         <v>251</v>
       </c>
-      <c r="D342" s="210"/>
-      <c r="E342" s="210"/>
-      <c r="F342" s="210"/>
-      <c r="G342" s="210"/>
-      <c r="H342" s="210"/>
-      <c r="I342" s="210"/>
-      <c r="J342" s="210"/>
-      <c r="K342" s="210"/>
-      <c r="L342" s="210"/>
-      <c r="M342" s="210"/>
+      <c r="D342" s="255"/>
+      <c r="E342" s="255"/>
+      <c r="F342" s="255"/>
+      <c r="G342" s="255"/>
+      <c r="H342" s="255"/>
+      <c r="I342" s="255"/>
+      <c r="J342" s="255"/>
+      <c r="K342" s="255"/>
+      <c r="L342" s="255"/>
+      <c r="M342" s="255"/>
       <c r="N342" s="60"/>
     </row>
     <row r="343" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
@@ -8109,12 +8109,12 @@
     </row>
     <row r="346" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B346" s="18"/>
-      <c r="C346" s="207" t="s">
+      <c r="C346" s="254" t="s">
         <v>162</v>
       </c>
-      <c r="D346" s="207"/>
-      <c r="E346" s="207"/>
-      <c r="F346" s="207"/>
+      <c r="D346" s="254"/>
+      <c r="E346" s="254"/>
+      <c r="F346" s="254"/>
       <c r="H346" s="106"/>
       <c r="I346" s="25"/>
       <c r="J346" s="25"/>
@@ -8137,12 +8137,12 @@
     </row>
     <row r="348" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B348" s="18"/>
-      <c r="C348" s="207" t="s">
+      <c r="C348" s="254" t="s">
         <v>163</v>
       </c>
-      <c r="D348" s="207"/>
-      <c r="E348" s="207"/>
-      <c r="F348" s="207"/>
+      <c r="D348" s="254"/>
+      <c r="E348" s="254"/>
+      <c r="F348" s="254"/>
       <c r="H348" s="106"/>
       <c r="I348" s="18" t="s">
         <v>164</v>
@@ -8167,13 +8167,13 @@
     </row>
     <row r="350" spans="2:14" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B350" s="18"/>
-      <c r="C350" s="207" t="s">
+      <c r="C350" s="254" t="s">
         <v>165</v>
       </c>
-      <c r="D350" s="207"/>
-      <c r="E350" s="207"/>
-      <c r="F350" s="207"/>
-      <c r="G350" s="166"/>
+      <c r="D350" s="254"/>
+      <c r="E350" s="254"/>
+      <c r="F350" s="254"/>
+      <c r="G350" s="252"/>
       <c r="H350" s="106"/>
       <c r="I350" s="25"/>
       <c r="J350" s="25"/>
@@ -8196,13 +8196,13 @@
     </row>
     <row r="352" spans="2:14" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B352" s="18"/>
-      <c r="C352" s="207" t="s">
+      <c r="C352" s="254" t="s">
         <v>166</v>
       </c>
-      <c r="D352" s="207"/>
-      <c r="E352" s="207"/>
-      <c r="F352" s="207"/>
-      <c r="G352" s="166"/>
+      <c r="D352" s="254"/>
+      <c r="E352" s="254"/>
+      <c r="F352" s="254"/>
+      <c r="G352" s="252"/>
       <c r="H352" s="106"/>
       <c r="I352" s="25"/>
       <c r="J352" s="25"/>
@@ -8225,13 +8225,13 @@
     </row>
     <row r="354" spans="2:15" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B354" s="18"/>
-      <c r="C354" s="207" t="s">
+      <c r="C354" s="254" t="s">
         <v>167</v>
       </c>
-      <c r="D354" s="207"/>
-      <c r="E354" s="207"/>
-      <c r="F354" s="207"/>
-      <c r="G354" s="166"/>
+      <c r="D354" s="254"/>
+      <c r="E354" s="254"/>
+      <c r="F354" s="254"/>
+      <c r="G354" s="252"/>
       <c r="H354" s="106"/>
       <c r="I354" s="25"/>
       <c r="J354" s="25"/>
@@ -8303,83 +8303,83 @@
     </row>
     <row r="359" spans="2:15" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B359" s="18"/>
-      <c r="C359" s="182" t="s">
+      <c r="C359" s="230" t="s">
         <v>295</v>
       </c>
-      <c r="D359" s="183"/>
-      <c r="E359" s="183"/>
-      <c r="F359" s="183"/>
-      <c r="G359" s="183"/>
-      <c r="H359" s="183"/>
-      <c r="I359" s="183"/>
-      <c r="J359" s="183"/>
-      <c r="K359" s="183"/>
-      <c r="L359" s="183"/>
-      <c r="M359" s="184"/>
+      <c r="D359" s="231"/>
+      <c r="E359" s="231"/>
+      <c r="F359" s="231"/>
+      <c r="G359" s="231"/>
+      <c r="H359" s="231"/>
+      <c r="I359" s="231"/>
+      <c r="J359" s="231"/>
+      <c r="K359" s="231"/>
+      <c r="L359" s="231"/>
+      <c r="M359" s="232"/>
       <c r="N359" s="34"/>
       <c r="O359" s="2"/>
     </row>
     <row r="360" spans="2:15" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B360" s="18"/>
-      <c r="C360" s="185"/>
-      <c r="D360" s="186"/>
-      <c r="E360" s="186"/>
-      <c r="F360" s="186"/>
-      <c r="G360" s="186"/>
-      <c r="H360" s="186"/>
-      <c r="I360" s="186"/>
-      <c r="J360" s="186"/>
-      <c r="K360" s="186"/>
-      <c r="L360" s="186"/>
-      <c r="M360" s="187"/>
+      <c r="C360" s="233"/>
+      <c r="D360" s="234"/>
+      <c r="E360" s="234"/>
+      <c r="F360" s="234"/>
+      <c r="G360" s="234"/>
+      <c r="H360" s="234"/>
+      <c r="I360" s="234"/>
+      <c r="J360" s="234"/>
+      <c r="K360" s="234"/>
+      <c r="L360" s="234"/>
+      <c r="M360" s="235"/>
       <c r="N360" s="60"/>
       <c r="O360" s="2"/>
     </row>
     <row r="361" spans="2:15" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B361" s="18"/>
-      <c r="C361" s="185"/>
-      <c r="D361" s="186"/>
-      <c r="E361" s="186"/>
-      <c r="F361" s="186"/>
-      <c r="G361" s="186"/>
-      <c r="H361" s="186"/>
-      <c r="I361" s="186"/>
-      <c r="J361" s="186"/>
-      <c r="K361" s="186"/>
-      <c r="L361" s="186"/>
-      <c r="M361" s="187"/>
+      <c r="C361" s="233"/>
+      <c r="D361" s="234"/>
+      <c r="E361" s="234"/>
+      <c r="F361" s="234"/>
+      <c r="G361" s="234"/>
+      <c r="H361" s="234"/>
+      <c r="I361" s="234"/>
+      <c r="J361" s="234"/>
+      <c r="K361" s="234"/>
+      <c r="L361" s="234"/>
+      <c r="M361" s="235"/>
       <c r="N361" s="60"/>
       <c r="O361" s="2"/>
     </row>
     <row r="362" spans="2:15" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B362" s="18"/>
-      <c r="C362" s="185"/>
-      <c r="D362" s="186"/>
-      <c r="E362" s="186"/>
-      <c r="F362" s="186"/>
-      <c r="G362" s="186"/>
-      <c r="H362" s="186"/>
-      <c r="I362" s="186"/>
-      <c r="J362" s="186"/>
-      <c r="K362" s="186"/>
-      <c r="L362" s="186"/>
-      <c r="M362" s="187"/>
+      <c r="C362" s="233"/>
+      <c r="D362" s="234"/>
+      <c r="E362" s="234"/>
+      <c r="F362" s="234"/>
+      <c r="G362" s="234"/>
+      <c r="H362" s="234"/>
+      <c r="I362" s="234"/>
+      <c r="J362" s="234"/>
+      <c r="K362" s="234"/>
+      <c r="L362" s="234"/>
+      <c r="M362" s="235"/>
       <c r="N362" s="60"/>
       <c r="O362" s="2"/>
     </row>
     <row r="363" spans="2:15" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B363" s="18"/>
-      <c r="C363" s="188"/>
-      <c r="D363" s="189"/>
-      <c r="E363" s="189"/>
-      <c r="F363" s="189"/>
-      <c r="G363" s="189"/>
-      <c r="H363" s="189"/>
-      <c r="I363" s="189"/>
-      <c r="J363" s="189"/>
-      <c r="K363" s="189"/>
-      <c r="L363" s="189"/>
-      <c r="M363" s="190"/>
+      <c r="C363" s="236"/>
+      <c r="D363" s="237"/>
+      <c r="E363" s="237"/>
+      <c r="F363" s="237"/>
+      <c r="G363" s="237"/>
+      <c r="H363" s="237"/>
+      <c r="I363" s="237"/>
+      <c r="J363" s="237"/>
+      <c r="K363" s="237"/>
+      <c r="L363" s="237"/>
+      <c r="M363" s="238"/>
       <c r="N363" s="60"/>
       <c r="O363" s="2"/>
     </row>
@@ -8454,28 +8454,28 @@
     </row>
     <row r="368" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B368" s="18"/>
-      <c r="C368" s="211" t="s">
+      <c r="C368" s="265" t="s">
         <v>253</v>
       </c>
-      <c r="D368" s="212"/>
-      <c r="E368" s="208" t="s">
+      <c r="D368" s="266"/>
+      <c r="E368" s="170" t="s">
         <v>141</v>
       </c>
-      <c r="F368" s="213"/>
-      <c r="G368" s="213"/>
-      <c r="H368" s="213"/>
-      <c r="I368" s="213"/>
-      <c r="J368" s="213"/>
-      <c r="K368" s="213"/>
-      <c r="L368" s="213"/>
-      <c r="M368" s="209"/>
+      <c r="F368" s="267"/>
+      <c r="G368" s="267"/>
+      <c r="H368" s="267"/>
+      <c r="I368" s="267"/>
+      <c r="J368" s="267"/>
+      <c r="K368" s="267"/>
+      <c r="L368" s="267"/>
+      <c r="M368" s="171"/>
       <c r="N368" s="20"/>
       <c r="O368" s="2"/>
     </row>
     <row r="369" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B369" s="18"/>
-      <c r="C369" s="208"/>
-      <c r="D369" s="209"/>
+      <c r="C369" s="170"/>
+      <c r="D369" s="171"/>
       <c r="E369" s="71"/>
       <c r="F369" s="73"/>
       <c r="G369" s="73"/>
@@ -8490,19 +8490,19 @@
     </row>
     <row r="370" spans="2:15" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B370" s="18"/>
-      <c r="C370" s="206" t="s">
+      <c r="C370" s="253" t="s">
         <v>270</v>
       </c>
-      <c r="D370" s="206"/>
-      <c r="E370" s="206"/>
-      <c r="F370" s="206"/>
-      <c r="G370" s="206"/>
-      <c r="H370" s="206"/>
-      <c r="I370" s="206"/>
-      <c r="J370" s="206"/>
-      <c r="K370" s="206"/>
-      <c r="L370" s="206"/>
-      <c r="M370" s="206"/>
+      <c r="D370" s="253"/>
+      <c r="E370" s="253"/>
+      <c r="F370" s="253"/>
+      <c r="G370" s="253"/>
+      <c r="H370" s="253"/>
+      <c r="I370" s="253"/>
+      <c r="J370" s="253"/>
+      <c r="K370" s="253"/>
+      <c r="L370" s="253"/>
+      <c r="M370" s="253"/>
       <c r="N370" s="13"/>
       <c r="O370" s="2"/>
     </row>
@@ -8590,20 +8590,20 @@
       <c r="C376" s="75" t="s">
         <v>173</v>
       </c>
-      <c r="D376" s="266" t="s">
+      <c r="D376" s="169" t="s">
         <v>51</v>
       </c>
-      <c r="E376" s="266"/>
-      <c r="F376" s="267" t="s">
+      <c r="E376" s="169"/>
+      <c r="F376" s="168" t="s">
         <v>174</v>
       </c>
-      <c r="G376" s="267"/>
-      <c r="H376" s="267"/>
-      <c r="I376" s="267" t="s">
+      <c r="G376" s="168"/>
+      <c r="H376" s="168"/>
+      <c r="I376" s="168" t="s">
         <v>175</v>
       </c>
-      <c r="J376" s="267"/>
-      <c r="K376" s="267"/>
+      <c r="J376" s="168"/>
+      <c r="K376" s="168"/>
       <c r="L376" s="22"/>
       <c r="M376" s="22"/>
       <c r="N376" s="18"/>
@@ -8613,14 +8613,14 @@
       <c r="C377" s="75">
         <v>1</v>
       </c>
-      <c r="D377" s="266"/>
-      <c r="E377" s="266"/>
-      <c r="F377" s="267"/>
-      <c r="G377" s="267"/>
-      <c r="H377" s="267"/>
-      <c r="I377" s="267"/>
-      <c r="J377" s="267"/>
-      <c r="K377" s="267"/>
+      <c r="D377" s="169"/>
+      <c r="E377" s="169"/>
+      <c r="F377" s="168"/>
+      <c r="G377" s="168"/>
+      <c r="H377" s="168"/>
+      <c r="I377" s="168"/>
+      <c r="J377" s="168"/>
+      <c r="K377" s="168"/>
       <c r="L377" s="22"/>
       <c r="M377" s="34"/>
       <c r="N377" s="76"/>
@@ -8630,14 +8630,14 @@
       <c r="C378" s="75">
         <v>2</v>
       </c>
-      <c r="D378" s="266"/>
-      <c r="E378" s="266"/>
-      <c r="F378" s="267"/>
-      <c r="G378" s="267"/>
-      <c r="H378" s="267"/>
-      <c r="I378" s="267"/>
-      <c r="J378" s="267"/>
-      <c r="K378" s="267"/>
+      <c r="D378" s="169"/>
+      <c r="E378" s="169"/>
+      <c r="F378" s="168"/>
+      <c r="G378" s="168"/>
+      <c r="H378" s="168"/>
+      <c r="I378" s="168"/>
+      <c r="J378" s="168"/>
+      <c r="K378" s="168"/>
       <c r="L378" s="22"/>
       <c r="M378" s="34"/>
       <c r="N378" s="34"/>
@@ -8647,14 +8647,14 @@
       <c r="C379" s="75">
         <v>3</v>
       </c>
-      <c r="D379" s="266"/>
-      <c r="E379" s="266"/>
-      <c r="F379" s="267"/>
-      <c r="G379" s="267"/>
-      <c r="H379" s="267"/>
-      <c r="I379" s="267"/>
-      <c r="J379" s="267"/>
-      <c r="K379" s="267"/>
+      <c r="D379" s="169"/>
+      <c r="E379" s="169"/>
+      <c r="F379" s="168"/>
+      <c r="G379" s="168"/>
+      <c r="H379" s="168"/>
+      <c r="I379" s="168"/>
+      <c r="J379" s="168"/>
+      <c r="K379" s="168"/>
       <c r="L379" s="22"/>
       <c r="M379" s="34"/>
       <c r="N379" s="34"/>
@@ -8664,14 +8664,14 @@
       <c r="C380" s="75" t="s">
         <v>177</v>
       </c>
-      <c r="D380" s="266"/>
-      <c r="E380" s="266"/>
-      <c r="F380" s="267"/>
-      <c r="G380" s="267"/>
-      <c r="H380" s="267"/>
-      <c r="I380" s="267"/>
-      <c r="J380" s="267"/>
-      <c r="K380" s="267"/>
+      <c r="D380" s="169"/>
+      <c r="E380" s="169"/>
+      <c r="F380" s="168"/>
+      <c r="G380" s="168"/>
+      <c r="H380" s="168"/>
+      <c r="I380" s="168"/>
+      <c r="J380" s="168"/>
+      <c r="K380" s="168"/>
       <c r="L380" s="22"/>
       <c r="M380" s="34"/>
       <c r="N380" s="34"/>
@@ -8681,14 +8681,14 @@
       <c r="C381" s="75" t="s">
         <v>178</v>
       </c>
-      <c r="D381" s="266"/>
-      <c r="E381" s="266"/>
-      <c r="F381" s="267"/>
-      <c r="G381" s="267"/>
-      <c r="H381" s="267"/>
-      <c r="I381" s="267"/>
-      <c r="J381" s="267"/>
-      <c r="K381" s="267"/>
+      <c r="D381" s="169"/>
+      <c r="E381" s="169"/>
+      <c r="F381" s="168"/>
+      <c r="G381" s="168"/>
+      <c r="H381" s="168"/>
+      <c r="I381" s="168"/>
+      <c r="J381" s="168"/>
+      <c r="K381" s="168"/>
       <c r="L381" s="22"/>
       <c r="M381" s="34"/>
       <c r="N381" s="34"/>
@@ -8698,14 +8698,14 @@
       <c r="C382" s="75" t="s">
         <v>179</v>
       </c>
-      <c r="D382" s="266"/>
-      <c r="E382" s="266"/>
-      <c r="F382" s="267"/>
-      <c r="G382" s="267"/>
-      <c r="H382" s="267"/>
-      <c r="I382" s="267"/>
-      <c r="J382" s="267"/>
-      <c r="K382" s="267"/>
+      <c r="D382" s="169"/>
+      <c r="E382" s="169"/>
+      <c r="F382" s="168"/>
+      <c r="G382" s="168"/>
+      <c r="H382" s="168"/>
+      <c r="I382" s="168"/>
+      <c r="J382" s="168"/>
+      <c r="K382" s="168"/>
       <c r="L382" s="22"/>
       <c r="M382" s="34"/>
       <c r="N382" s="34"/>
@@ -8715,14 +8715,14 @@
       <c r="C383" s="75" t="s">
         <v>180</v>
       </c>
-      <c r="D383" s="266"/>
-      <c r="E383" s="266"/>
-      <c r="F383" s="267"/>
-      <c r="G383" s="267"/>
-      <c r="H383" s="267"/>
-      <c r="I383" s="267"/>
-      <c r="J383" s="267"/>
-      <c r="K383" s="267"/>
+      <c r="D383" s="169"/>
+      <c r="E383" s="169"/>
+      <c r="F383" s="168"/>
+      <c r="G383" s="168"/>
+      <c r="H383" s="168"/>
+      <c r="I383" s="168"/>
+      <c r="J383" s="168"/>
+      <c r="K383" s="168"/>
       <c r="L383" s="22"/>
       <c r="M383" s="34"/>
       <c r="N383" s="34"/>
@@ -8847,10 +8847,10 @@
     </row>
     <row r="393" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B393" s="18"/>
-      <c r="D393" s="266" t="s">
+      <c r="D393" s="169" t="s">
         <v>265</v>
       </c>
-      <c r="E393" s="266"/>
+      <c r="E393" s="169"/>
       <c r="J393" s="25"/>
       <c r="K393" s="25"/>
       <c r="L393" s="25"/>
@@ -8858,43 +8858,43 @@
     </row>
     <row r="394" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B394" s="18"/>
-      <c r="C394" s="169" t="s">
+      <c r="C394" s="183" t="s">
         <v>182</v>
       </c>
-      <c r="D394" s="169" t="s">
+      <c r="D394" s="183" t="s">
         <v>264</v>
       </c>
-      <c r="E394" s="169" t="s">
+      <c r="E394" s="183" t="s">
         <v>59</v>
       </c>
-      <c r="F394" s="169" t="s">
+      <c r="F394" s="183" t="s">
         <v>60</v>
       </c>
-      <c r="G394" s="268" t="s">
+      <c r="G394" s="184" t="s">
         <v>183</v>
       </c>
-      <c r="H394" s="268" t="s">
+      <c r="H394" s="184" t="s">
         <v>176</v>
       </c>
-      <c r="I394" s="268" t="s">
+      <c r="I394" s="184" t="s">
         <v>184</v>
       </c>
-      <c r="J394" s="267" t="s">
+      <c r="J394" s="168" t="s">
         <v>185</v>
       </c>
-      <c r="K394" s="267"/>
+      <c r="K394" s="168"/>
       <c r="L394" s="22"/>
       <c r="M394" s="25"/>
     </row>
     <row r="395" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B395" s="18"/>
-      <c r="C395" s="169"/>
-      <c r="D395" s="169"/>
-      <c r="E395" s="169"/>
-      <c r="F395" s="169"/>
-      <c r="G395" s="269"/>
-      <c r="H395" s="269"/>
-      <c r="I395" s="269"/>
+      <c r="C395" s="183"/>
+      <c r="D395" s="183"/>
+      <c r="E395" s="183"/>
+      <c r="F395" s="183"/>
+      <c r="G395" s="185"/>
+      <c r="H395" s="185"/>
+      <c r="I395" s="185"/>
       <c r="J395" s="75" t="s">
         <v>186</v>
       </c>
@@ -9199,21 +9199,21 @@
     </row>
     <row r="415" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B415" s="18"/>
-      <c r="C415" s="192" t="s">
+      <c r="C415" s="179" t="s">
         <v>265</v>
       </c>
-      <c r="D415" s="194"/>
-      <c r="E415" s="192" t="s">
+      <c r="D415" s="181"/>
+      <c r="E415" s="179" t="s">
         <v>204</v>
       </c>
-      <c r="F415" s="193"/>
-      <c r="G415" s="193"/>
-      <c r="H415" s="193"/>
-      <c r="I415" s="193"/>
-      <c r="J415" s="193"/>
-      <c r="K415" s="194"/>
+      <c r="F415" s="180"/>
+      <c r="G415" s="180"/>
+      <c r="H415" s="180"/>
+      <c r="I415" s="180"/>
+      <c r="J415" s="180"/>
+      <c r="K415" s="181"/>
       <c r="L415" s="154"/>
-      <c r="M415" s="268" t="s">
+      <c r="M415" s="184" t="s">
         <v>205</v>
       </c>
     </row>
@@ -9247,7 +9247,7 @@
         <v>180</v>
       </c>
       <c r="L416" s="160"/>
-      <c r="M416" s="269"/>
+      <c r="M416" s="185"/>
     </row>
     <row r="417" spans="2:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B417" s="20"/>
@@ -9493,23 +9493,23 @@
     </row>
     <row r="432" spans="2:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B432" s="20"/>
-      <c r="C432" s="192" t="s">
+      <c r="C432" s="179" t="s">
         <v>265</v>
       </c>
-      <c r="D432" s="194"/>
-      <c r="E432" s="270" t="s">
+      <c r="D432" s="181"/>
+      <c r="E432" s="190" t="s">
         <v>214</v>
       </c>
-      <c r="F432" s="192" t="s">
+      <c r="F432" s="179" t="s">
         <v>204</v>
       </c>
-      <c r="G432" s="193"/>
-      <c r="H432" s="193"/>
-      <c r="I432" s="193"/>
-      <c r="J432" s="193"/>
-      <c r="K432" s="194"/>
+      <c r="G432" s="180"/>
+      <c r="H432" s="180"/>
+      <c r="I432" s="180"/>
+      <c r="J432" s="180"/>
+      <c r="K432" s="181"/>
       <c r="L432" s="154"/>
-      <c r="M432" s="268" t="s">
+      <c r="M432" s="184" t="s">
         <v>210</v>
       </c>
     </row>
@@ -9521,7 +9521,7 @@
       <c r="D433" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="E433" s="266"/>
+      <c r="E433" s="169"/>
       <c r="F433" s="75">
         <v>1</v>
       </c>
@@ -9541,7 +9541,7 @@
         <v>180</v>
       </c>
       <c r="L433" s="160"/>
-      <c r="M433" s="269"/>
+      <c r="M433" s="185"/>
     </row>
     <row r="434" spans="2:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B434" s="20"/>
@@ -9729,26 +9729,26 @@
     </row>
     <row r="446" spans="2:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B446" s="20"/>
-      <c r="C446" s="271" t="s">
+      <c r="C446" s="175" t="s">
         <v>59</v>
       </c>
-      <c r="D446" s="272"/>
-      <c r="E446" s="192" t="s">
+      <c r="D446" s="176"/>
+      <c r="E446" s="179" t="s">
         <v>204</v>
       </c>
-      <c r="F446" s="193"/>
-      <c r="G446" s="193"/>
-      <c r="H446" s="193"/>
-      <c r="I446" s="193"/>
-      <c r="J446" s="193"/>
-      <c r="K446" s="194"/>
+      <c r="F446" s="180"/>
+      <c r="G446" s="180"/>
+      <c r="H446" s="180"/>
+      <c r="I446" s="180"/>
+      <c r="J446" s="180"/>
+      <c r="K446" s="181"/>
       <c r="L446" s="22"/>
-      <c r="M446" s="275"/>
+      <c r="M446" s="182"/>
     </row>
     <row r="447" spans="2:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B447" s="20"/>
-      <c r="C447" s="273"/>
-      <c r="D447" s="274"/>
+      <c r="C447" s="177"/>
+      <c r="D447" s="178"/>
       <c r="E447" s="75">
         <v>1</v>
       </c>
@@ -9771,14 +9771,14 @@
         <v>180</v>
       </c>
       <c r="L447" s="22"/>
-      <c r="M447" s="275"/>
+      <c r="M447" s="182"/>
     </row>
     <row r="448" spans="2:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B448" s="20"/>
-      <c r="C448" s="208" t="s">
+      <c r="C448" s="170" t="s">
         <v>219</v>
       </c>
-      <c r="D448" s="209"/>
+      <c r="D448" s="171"/>
       <c r="E448" s="82"/>
       <c r="F448" s="82"/>
       <c r="G448" s="82"/>
@@ -9790,10 +9790,10 @@
     </row>
     <row r="449" spans="2:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B449" s="20"/>
-      <c r="C449" s="208" t="s">
+      <c r="C449" s="170" t="s">
         <v>178</v>
       </c>
-      <c r="D449" s="209"/>
+      <c r="D449" s="171"/>
       <c r="E449" s="82"/>
       <c r="F449" s="82"/>
       <c r="G449" s="82"/>
@@ -9805,10 +9805,10 @@
     </row>
     <row r="450" spans="2:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B450" s="20"/>
-      <c r="C450" s="208" t="s">
+      <c r="C450" s="170" t="s">
         <v>220</v>
       </c>
-      <c r="D450" s="209"/>
+      <c r="D450" s="171"/>
       <c r="E450" s="82"/>
       <c r="F450" s="82"/>
       <c r="G450" s="82"/>
@@ -9820,10 +9820,10 @@
     </row>
     <row r="451" spans="2:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B451" s="20"/>
-      <c r="C451" s="192" t="s">
+      <c r="C451" s="179" t="s">
         <v>210</v>
       </c>
-      <c r="D451" s="194"/>
+      <c r="D451" s="181"/>
       <c r="E451" s="46"/>
       <c r="F451" s="46"/>
       <c r="G451" s="46"/>
@@ -10159,17 +10159,17 @@
         <v>238</v>
       </c>
       <c r="C473" s="80"/>
-      <c r="E473" s="276" t="s">
+      <c r="E473" s="189" t="s">
         <v>328</v>
       </c>
-      <c r="F473" s="276"/>
-      <c r="G473" s="276"/>
-      <c r="H473" s="276"/>
-      <c r="I473" s="276"/>
-      <c r="J473" s="276"/>
-      <c r="K473" s="276"/>
-      <c r="L473" s="276"/>
-      <c r="M473" s="276"/>
+      <c r="F473" s="189"/>
+      <c r="G473" s="189"/>
+      <c r="H473" s="189"/>
+      <c r="I473" s="189"/>
+      <c r="J473" s="189"/>
+      <c r="K473" s="189"/>
+      <c r="L473" s="189"/>
+      <c r="M473" s="189"/>
       <c r="N473" s="134"/>
     </row>
     <row r="474" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -10205,10 +10205,10 @@
     <row r="476" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B476" s="19"/>
       <c r="C476" s="19"/>
-      <c r="D476" s="266" t="s">
+      <c r="D476" s="169" t="s">
         <v>265</v>
       </c>
-      <c r="E476" s="266"/>
+      <c r="E476" s="169"/>
       <c r="F476" s="19"/>
       <c r="G476" s="19"/>
       <c r="H476" s="19"/>
@@ -10220,43 +10220,43 @@
     </row>
     <row r="477" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B477" s="79"/>
-      <c r="C477" s="169" t="s">
+      <c r="C477" s="183" t="s">
         <v>182</v>
       </c>
-      <c r="D477" s="169" t="s">
+      <c r="D477" s="183" t="s">
         <v>58</v>
       </c>
-      <c r="E477" s="169" t="s">
+      <c r="E477" s="183" t="s">
         <v>59</v>
       </c>
-      <c r="F477" s="169" t="s">
+      <c r="F477" s="183" t="s">
         <v>60</v>
       </c>
-      <c r="G477" s="268" t="s">
+      <c r="G477" s="184" t="s">
         <v>183</v>
       </c>
-      <c r="H477" s="268" t="s">
+      <c r="H477" s="184" t="s">
         <v>176</v>
       </c>
-      <c r="I477" s="268" t="s">
+      <c r="I477" s="184" t="s">
         <v>184</v>
       </c>
-      <c r="J477" s="203" t="s">
+      <c r="J477" s="186" t="s">
         <v>240</v>
       </c>
-      <c r="K477" s="204"/>
-      <c r="L477" s="204"/>
-      <c r="M477" s="205"/>
+      <c r="K477" s="187"/>
+      <c r="L477" s="187"/>
+      <c r="M477" s="188"/>
     </row>
     <row r="478" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B478" s="79"/>
-      <c r="C478" s="169"/>
-      <c r="D478" s="169"/>
-      <c r="E478" s="169"/>
-      <c r="F478" s="169"/>
-      <c r="G478" s="269"/>
-      <c r="H478" s="269"/>
-      <c r="I478" s="269"/>
+      <c r="C478" s="183"/>
+      <c r="D478" s="183"/>
+      <c r="E478" s="183"/>
+      <c r="F478" s="183"/>
+      <c r="G478" s="185"/>
+      <c r="H478" s="185"/>
+      <c r="I478" s="185"/>
       <c r="J478" s="77" t="s">
         <v>241</v>
       </c>
@@ -10396,10 +10396,10 @@
       <c r="D485" s="80"/>
       <c r="E485" s="80"/>
       <c r="F485" s="40"/>
-      <c r="G485" s="279" t="s">
+      <c r="G485" s="161" t="s">
         <v>277</v>
       </c>
-      <c r="H485" s="279"/>
+      <c r="H485" s="161"/>
       <c r="I485" s="128">
         <v>10000</v>
       </c>
@@ -10418,10 +10418,10 @@
       <c r="D486" s="80"/>
       <c r="E486" s="80"/>
       <c r="F486" s="40"/>
-      <c r="G486" s="280" t="s">
+      <c r="G486" s="162" t="s">
         <v>278</v>
       </c>
-      <c r="H486" s="280"/>
+      <c r="H486" s="162"/>
       <c r="I486" s="128">
         <v>24961.5</v>
       </c>
@@ -10443,10 +10443,10 @@
       <c r="D487" s="80"/>
       <c r="E487" s="80"/>
       <c r="F487" s="40"/>
-      <c r="G487" s="280" t="s">
+      <c r="G487" s="162" t="s">
         <v>195</v>
       </c>
-      <c r="H487" s="280"/>
+      <c r="H487" s="162"/>
       <c r="I487" s="128">
         <v>17290.75</v>
       </c>
@@ -10465,10 +10465,10 @@
       <c r="D488" s="80"/>
       <c r="E488" s="80"/>
       <c r="F488" s="40"/>
-      <c r="G488" s="278" t="s">
+      <c r="G488" s="174" t="s">
         <v>196</v>
       </c>
-      <c r="H488" s="278"/>
+      <c r="H488" s="174"/>
       <c r="I488" s="129">
         <f>SUM(I479:I487)</f>
         <v>432791.55</v>
@@ -10613,27 +10613,27 @@
     </row>
     <row r="497" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B497" s="20"/>
-      <c r="C497" s="271" t="s">
+      <c r="C497" s="175" t="s">
         <v>59</v>
       </c>
-      <c r="D497" s="272"/>
-      <c r="E497" s="192" t="s">
+      <c r="D497" s="176"/>
+      <c r="E497" s="179" t="s">
         <v>204</v>
       </c>
-      <c r="F497" s="193"/>
-      <c r="G497" s="193"/>
-      <c r="H497" s="193"/>
-      <c r="I497" s="193"/>
-      <c r="J497" s="193"/>
-      <c r="K497" s="194"/>
+      <c r="F497" s="180"/>
+      <c r="G497" s="180"/>
+      <c r="H497" s="180"/>
+      <c r="I497" s="180"/>
+      <c r="J497" s="180"/>
+      <c r="K497" s="181"/>
       <c r="L497" s="22"/>
-      <c r="M497" s="275"/>
+      <c r="M497" s="182"/>
       <c r="N497" s="80"/>
     </row>
     <row r="498" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B498" s="20"/>
-      <c r="C498" s="273"/>
-      <c r="D498" s="274"/>
+      <c r="C498" s="177"/>
+      <c r="D498" s="178"/>
       <c r="E498" s="75">
         <v>1</v>
       </c>
@@ -10656,15 +10656,15 @@
         <v>10</v>
       </c>
       <c r="L498" s="22"/>
-      <c r="M498" s="275"/>
+      <c r="M498" s="182"/>
       <c r="N498" s="80"/>
     </row>
     <row r="499" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B499" s="20"/>
-      <c r="C499" s="208" t="s">
+      <c r="C499" s="170" t="s">
         <v>324</v>
       </c>
-      <c r="D499" s="209"/>
+      <c r="D499" s="171"/>
       <c r="E499" s="103"/>
       <c r="F499" s="103">
         <v>3500</v>
@@ -10686,10 +10686,10 @@
     </row>
     <row r="500" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B500" s="20"/>
-      <c r="C500" s="208" t="s">
+      <c r="C500" s="170" t="s">
         <v>178</v>
       </c>
-      <c r="D500" s="209"/>
+      <c r="D500" s="171"/>
       <c r="E500" s="82"/>
       <c r="F500" s="82"/>
       <c r="G500" s="82"/>
@@ -10703,10 +10703,10 @@
     </row>
     <row r="501" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B501" s="20"/>
-      <c r="C501" s="208" t="s">
+      <c r="C501" s="170" t="s">
         <v>220</v>
       </c>
-      <c r="D501" s="209"/>
+      <c r="D501" s="171"/>
       <c r="E501" s="82"/>
       <c r="F501" s="82"/>
       <c r="G501" s="82"/>
@@ -11190,12 +11190,12 @@
       <c r="M532" s="80"/>
     </row>
     <row r="533" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B533" s="222" t="s">
+      <c r="B533" s="172" t="s">
         <v>246</v>
       </c>
-      <c r="C533" s="222"/>
-      <c r="D533" s="222"/>
-      <c r="E533" s="222"/>
+      <c r="C533" s="172"/>
+      <c r="D533" s="172"/>
+      <c r="E533" s="172"/>
       <c r="J533" s="80"/>
       <c r="K533" s="80"/>
       <c r="L533" s="152"/>
@@ -11273,36 +11273,36 @@
       <c r="L538" s="151"/>
     </row>
     <row r="539" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B539" s="277" t="s">
+      <c r="B539" s="173" t="s">
         <v>248</v>
       </c>
-      <c r="C539" s="277"/>
-      <c r="D539" s="277"/>
-      <c r="E539" s="277"/>
-      <c r="F539" s="277"/>
-      <c r="G539" s="277"/>
-      <c r="H539" s="277"/>
-      <c r="I539" s="277"/>
-      <c r="J539" s="277"/>
-      <c r="K539" s="277"/>
-      <c r="L539" s="277"/>
-      <c r="M539" s="277"/>
+      <c r="C539" s="173"/>
+      <c r="D539" s="173"/>
+      <c r="E539" s="173"/>
+      <c r="F539" s="173"/>
+      <c r="G539" s="173"/>
+      <c r="H539" s="173"/>
+      <c r="I539" s="173"/>
+      <c r="J539" s="173"/>
+      <c r="K539" s="173"/>
+      <c r="L539" s="173"/>
+      <c r="M539" s="173"/>
     </row>
     <row r="540" spans="2:13" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B540" s="277" t="s">
+      <c r="B540" s="173" t="s">
         <v>271</v>
       </c>
-      <c r="C540" s="277"/>
-      <c r="D540" s="277"/>
-      <c r="E540" s="277"/>
-      <c r="F540" s="277"/>
-      <c r="G540" s="277"/>
-      <c r="H540" s="277"/>
-      <c r="I540" s="277"/>
-      <c r="J540" s="277"/>
-      <c r="K540" s="277"/>
-      <c r="L540" s="277"/>
-      <c r="M540" s="277"/>
+      <c r="C540" s="173"/>
+      <c r="D540" s="173"/>
+      <c r="E540" s="173"/>
+      <c r="F540" s="173"/>
+      <c r="G540" s="173"/>
+      <c r="H540" s="173"/>
+      <c r="I540" s="173"/>
+      <c r="J540" s="173"/>
+      <c r="K540" s="173"/>
+      <c r="L540" s="173"/>
+      <c r="M540" s="173"/>
     </row>
     <row r="541" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B541" s="80"/>
@@ -11333,20 +11333,20 @@
       <c r="L542" s="151"/>
     </row>
     <row r="543" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B543" s="277" t="s">
+      <c r="B543" s="173" t="s">
         <v>250</v>
       </c>
-      <c r="C543" s="277"/>
-      <c r="D543" s="277"/>
-      <c r="E543" s="277"/>
-      <c r="F543" s="277"/>
-      <c r="G543" s="277"/>
-      <c r="H543" s="277"/>
-      <c r="I543" s="277"/>
-      <c r="J543" s="277"/>
-      <c r="K543" s="277"/>
-      <c r="L543" s="277"/>
-      <c r="M543" s="277"/>
+      <c r="C543" s="173"/>
+      <c r="D543" s="173"/>
+      <c r="E543" s="173"/>
+      <c r="F543" s="173"/>
+      <c r="G543" s="173"/>
+      <c r="H543" s="173"/>
+      <c r="I543" s="173"/>
+      <c r="J543" s="173"/>
+      <c r="K543" s="173"/>
+      <c r="L543" s="173"/>
+      <c r="M543" s="173"/>
     </row>
     <row r="544" spans="2:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B544" s="79"/>
@@ -11362,6 +11362,133 @@
     </row>
   </sheetData>
   <mergeCells count="151">
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="C285:F285"/>
+    <mergeCell ref="C286:F286"/>
+    <mergeCell ref="C270:D270"/>
+    <mergeCell ref="C271:D271"/>
+    <mergeCell ref="C272:D272"/>
+    <mergeCell ref="C246:M246"/>
+    <mergeCell ref="C247:M247"/>
+    <mergeCell ref="C269:D269"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="C236:M238"/>
+    <mergeCell ref="C261:M265"/>
+    <mergeCell ref="C277:M281"/>
+    <mergeCell ref="E269:M269"/>
+    <mergeCell ref="C273:D273"/>
+    <mergeCell ref="F99:G99"/>
+    <mergeCell ref="C88:K88"/>
+    <mergeCell ref="C220:D220"/>
+    <mergeCell ref="C228:M228"/>
+    <mergeCell ref="C152:F152"/>
+    <mergeCell ref="G74:I74"/>
+    <mergeCell ref="G73:I73"/>
+    <mergeCell ref="C182:G182"/>
+    <mergeCell ref="C186:G186"/>
+    <mergeCell ref="C370:M370"/>
+    <mergeCell ref="C350:G350"/>
+    <mergeCell ref="C352:G352"/>
+    <mergeCell ref="C354:G354"/>
+    <mergeCell ref="C154:G154"/>
+    <mergeCell ref="C369:D369"/>
+    <mergeCell ref="C346:F346"/>
+    <mergeCell ref="C348:F348"/>
+    <mergeCell ref="C287:F287"/>
+    <mergeCell ref="C288:F288"/>
+    <mergeCell ref="C289:F289"/>
+    <mergeCell ref="C291:F291"/>
+    <mergeCell ref="C293:F293"/>
+    <mergeCell ref="C328:M328"/>
+    <mergeCell ref="C342:M342"/>
+    <mergeCell ref="C359:M363"/>
+    <mergeCell ref="C300:M304"/>
+    <mergeCell ref="C307:M311"/>
+    <mergeCell ref="C322:M326"/>
+    <mergeCell ref="C336:M340"/>
+    <mergeCell ref="C368:D368"/>
+    <mergeCell ref="E368:M368"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="B4:M4"/>
+    <mergeCell ref="B5:M5"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C215:M217"/>
+    <mergeCell ref="C127:M127"/>
+    <mergeCell ref="C130:M130"/>
+    <mergeCell ref="C144:M144"/>
+    <mergeCell ref="C146:E146"/>
+    <mergeCell ref="C148:E148"/>
+    <mergeCell ref="C150:E150"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="H112:I112"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="C122:M124"/>
+    <mergeCell ref="C194:M198"/>
+    <mergeCell ref="C201:M205"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="C8:K8"/>
+    <mergeCell ref="G27:K27"/>
+    <mergeCell ref="H29:M29"/>
+    <mergeCell ref="C163:M163"/>
+    <mergeCell ref="C180:F180"/>
+    <mergeCell ref="D379:E379"/>
+    <mergeCell ref="F379:H379"/>
+    <mergeCell ref="I379:K379"/>
+    <mergeCell ref="D376:E376"/>
+    <mergeCell ref="F376:H376"/>
+    <mergeCell ref="I376:K376"/>
+    <mergeCell ref="D377:E377"/>
+    <mergeCell ref="F377:H377"/>
+    <mergeCell ref="I377:K377"/>
+    <mergeCell ref="D378:E378"/>
+    <mergeCell ref="F378:H378"/>
+    <mergeCell ref="I378:K378"/>
+    <mergeCell ref="I394:I395"/>
+    <mergeCell ref="J394:K394"/>
+    <mergeCell ref="C415:D415"/>
+    <mergeCell ref="E415:K415"/>
+    <mergeCell ref="M415:M416"/>
+    <mergeCell ref="C432:D432"/>
+    <mergeCell ref="E432:E433"/>
+    <mergeCell ref="F432:K432"/>
+    <mergeCell ref="M432:M433"/>
+    <mergeCell ref="C394:C395"/>
+    <mergeCell ref="D394:D395"/>
+    <mergeCell ref="E394:E395"/>
+    <mergeCell ref="F394:F395"/>
+    <mergeCell ref="G394:G395"/>
+    <mergeCell ref="H394:H395"/>
+    <mergeCell ref="C451:D451"/>
+    <mergeCell ref="C477:C478"/>
+    <mergeCell ref="D477:D478"/>
+    <mergeCell ref="E477:E478"/>
+    <mergeCell ref="F477:F478"/>
+    <mergeCell ref="G477:G478"/>
+    <mergeCell ref="C446:D447"/>
+    <mergeCell ref="E446:K446"/>
+    <mergeCell ref="M446:M447"/>
+    <mergeCell ref="C448:D448"/>
+    <mergeCell ref="C449:D449"/>
+    <mergeCell ref="C450:D450"/>
+    <mergeCell ref="D476:E476"/>
+    <mergeCell ref="H477:H478"/>
+    <mergeCell ref="I477:I478"/>
+    <mergeCell ref="J477:M477"/>
+    <mergeCell ref="E473:M473"/>
+    <mergeCell ref="C501:D501"/>
+    <mergeCell ref="B533:E533"/>
+    <mergeCell ref="B539:M539"/>
+    <mergeCell ref="B540:M540"/>
+    <mergeCell ref="B543:M543"/>
+    <mergeCell ref="G488:H488"/>
+    <mergeCell ref="C497:D498"/>
+    <mergeCell ref="E497:K497"/>
+    <mergeCell ref="M497:M498"/>
+    <mergeCell ref="C499:D499"/>
+    <mergeCell ref="C500:D500"/>
     <mergeCell ref="G485:H485"/>
     <mergeCell ref="G486:H486"/>
     <mergeCell ref="G487:H487"/>
@@ -11386,133 +11513,6 @@
     <mergeCell ref="D381:E381"/>
     <mergeCell ref="F381:H381"/>
     <mergeCell ref="I381:K381"/>
-    <mergeCell ref="C501:D501"/>
-    <mergeCell ref="B533:E533"/>
-    <mergeCell ref="B539:M539"/>
-    <mergeCell ref="B540:M540"/>
-    <mergeCell ref="B543:M543"/>
-    <mergeCell ref="G488:H488"/>
-    <mergeCell ref="C497:D498"/>
-    <mergeCell ref="E497:K497"/>
-    <mergeCell ref="M497:M498"/>
-    <mergeCell ref="C499:D499"/>
-    <mergeCell ref="C500:D500"/>
-    <mergeCell ref="C451:D451"/>
-    <mergeCell ref="C477:C478"/>
-    <mergeCell ref="D477:D478"/>
-    <mergeCell ref="E477:E478"/>
-    <mergeCell ref="F477:F478"/>
-    <mergeCell ref="G477:G478"/>
-    <mergeCell ref="C446:D447"/>
-    <mergeCell ref="E446:K446"/>
-    <mergeCell ref="M446:M447"/>
-    <mergeCell ref="C448:D448"/>
-    <mergeCell ref="C449:D449"/>
-    <mergeCell ref="C450:D450"/>
-    <mergeCell ref="D476:E476"/>
-    <mergeCell ref="H477:H478"/>
-    <mergeCell ref="I477:I478"/>
-    <mergeCell ref="J477:M477"/>
-    <mergeCell ref="E473:M473"/>
-    <mergeCell ref="I394:I395"/>
-    <mergeCell ref="J394:K394"/>
-    <mergeCell ref="C415:D415"/>
-    <mergeCell ref="E415:K415"/>
-    <mergeCell ref="M415:M416"/>
-    <mergeCell ref="C432:D432"/>
-    <mergeCell ref="E432:E433"/>
-    <mergeCell ref="F432:K432"/>
-    <mergeCell ref="M432:M433"/>
-    <mergeCell ref="C394:C395"/>
-    <mergeCell ref="D394:D395"/>
-    <mergeCell ref="E394:E395"/>
-    <mergeCell ref="F394:F395"/>
-    <mergeCell ref="G394:G395"/>
-    <mergeCell ref="H394:H395"/>
-    <mergeCell ref="D379:E379"/>
-    <mergeCell ref="F379:H379"/>
-    <mergeCell ref="I379:K379"/>
-    <mergeCell ref="D376:E376"/>
-    <mergeCell ref="F376:H376"/>
-    <mergeCell ref="I376:K376"/>
-    <mergeCell ref="D377:E377"/>
-    <mergeCell ref="F377:H377"/>
-    <mergeCell ref="I377:K377"/>
-    <mergeCell ref="D378:E378"/>
-    <mergeCell ref="F378:H378"/>
-    <mergeCell ref="I378:K378"/>
-    <mergeCell ref="B3:M3"/>
-    <mergeCell ref="B4:M4"/>
-    <mergeCell ref="B5:M5"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C215:M217"/>
-    <mergeCell ref="C127:M127"/>
-    <mergeCell ref="C130:M130"/>
-    <mergeCell ref="C144:M144"/>
-    <mergeCell ref="C146:E146"/>
-    <mergeCell ref="C148:E148"/>
-    <mergeCell ref="C150:E150"/>
-    <mergeCell ref="C111:G111"/>
-    <mergeCell ref="H112:I112"/>
-    <mergeCell ref="C113:G113"/>
-    <mergeCell ref="C122:M124"/>
-    <mergeCell ref="C194:M198"/>
-    <mergeCell ref="C201:M205"/>
-    <mergeCell ref="H49:K49"/>
-    <mergeCell ref="H53:K53"/>
-    <mergeCell ref="C8:K8"/>
-    <mergeCell ref="G27:K27"/>
-    <mergeCell ref="H29:M29"/>
-    <mergeCell ref="C163:M163"/>
-    <mergeCell ref="C180:F180"/>
-    <mergeCell ref="C182:G182"/>
-    <mergeCell ref="C186:G186"/>
-    <mergeCell ref="C370:M370"/>
-    <mergeCell ref="C350:G350"/>
-    <mergeCell ref="C352:G352"/>
-    <mergeCell ref="C354:G354"/>
-    <mergeCell ref="C154:G154"/>
-    <mergeCell ref="C369:D369"/>
-    <mergeCell ref="C346:F346"/>
-    <mergeCell ref="C348:F348"/>
-    <mergeCell ref="C287:F287"/>
-    <mergeCell ref="C288:F288"/>
-    <mergeCell ref="C289:F289"/>
-    <mergeCell ref="C291:F291"/>
-    <mergeCell ref="C293:F293"/>
-    <mergeCell ref="C328:M328"/>
-    <mergeCell ref="C342:M342"/>
-    <mergeCell ref="C359:M363"/>
-    <mergeCell ref="C300:M304"/>
-    <mergeCell ref="C307:M311"/>
-    <mergeCell ref="C322:M326"/>
-    <mergeCell ref="C336:M340"/>
-    <mergeCell ref="C368:D368"/>
-    <mergeCell ref="E368:M368"/>
-    <mergeCell ref="H50:K50"/>
-    <mergeCell ref="H55:K55"/>
-    <mergeCell ref="H56:K56"/>
-    <mergeCell ref="C285:F285"/>
-    <mergeCell ref="C286:F286"/>
-    <mergeCell ref="C270:D270"/>
-    <mergeCell ref="C271:D271"/>
-    <mergeCell ref="C272:D272"/>
-    <mergeCell ref="C246:M246"/>
-    <mergeCell ref="C247:M247"/>
-    <mergeCell ref="C269:D269"/>
-    <mergeCell ref="H54:K54"/>
-    <mergeCell ref="C236:M238"/>
-    <mergeCell ref="C261:M265"/>
-    <mergeCell ref="C277:M281"/>
-    <mergeCell ref="E269:M269"/>
-    <mergeCell ref="C273:D273"/>
-    <mergeCell ref="F99:G99"/>
-    <mergeCell ref="C88:K88"/>
-    <mergeCell ref="C220:D220"/>
-    <mergeCell ref="C228:M228"/>
-    <mergeCell ref="C152:F152"/>
-    <mergeCell ref="G74:I74"/>
-    <mergeCell ref="G73:I73"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.78740157480314965" header="0" footer="0"/>

--- a/13.0 FORMATO N°07 INVIERTE PE/FORMATO 7C IES JOSÉ MARIA ARGUEDAS CHUQUIBAMBILLA.xlsx
+++ b/13.0 FORMATO N°07 INVIERTE PE/FORMATO 7C IES JOSÉ MARIA ARGUEDAS CHUQUIBAMBILLA.xlsx
@@ -2014,6 +2014,360 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2025,360 +2379,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2665,8 +2665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:Q547"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A470" zoomScale="70" zoomScaleNormal="51" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="I488" sqref="I488"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="B517" zoomScale="70" zoomScaleNormal="51" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="I480" sqref="I480"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -2688,52 +2688,52 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="B3" s="191" t="s">
+      <c r="B3" s="214" t="s">
         <v>258</v>
       </c>
-      <c r="C3" s="192"/>
-      <c r="D3" s="193"/>
-      <c r="E3" s="193"/>
-      <c r="F3" s="193"/>
-      <c r="G3" s="193"/>
-      <c r="H3" s="193"/>
-      <c r="I3" s="193"/>
-      <c r="J3" s="193"/>
-      <c r="K3" s="193"/>
-      <c r="L3" s="193"/>
-      <c r="M3" s="194"/>
+      <c r="C3" s="215"/>
+      <c r="D3" s="216"/>
+      <c r="E3" s="216"/>
+      <c r="F3" s="216"/>
+      <c r="G3" s="216"/>
+      <c r="H3" s="216"/>
+      <c r="I3" s="216"/>
+      <c r="J3" s="216"/>
+      <c r="K3" s="216"/>
+      <c r="L3" s="216"/>
+      <c r="M3" s="217"/>
     </row>
     <row r="4" spans="2:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="B4" s="195" t="s">
+      <c r="B4" s="218" t="s">
         <v>259</v>
       </c>
-      <c r="C4" s="196"/>
-      <c r="D4" s="197"/>
-      <c r="E4" s="197"/>
-      <c r="F4" s="197"/>
-      <c r="G4" s="197"/>
-      <c r="H4" s="197"/>
-      <c r="I4" s="197"/>
-      <c r="J4" s="197"/>
-      <c r="K4" s="197"/>
-      <c r="L4" s="197"/>
-      <c r="M4" s="198"/>
+      <c r="C4" s="219"/>
+      <c r="D4" s="220"/>
+      <c r="E4" s="220"/>
+      <c r="F4" s="220"/>
+      <c r="G4" s="220"/>
+      <c r="H4" s="220"/>
+      <c r="I4" s="220"/>
+      <c r="J4" s="220"/>
+      <c r="K4" s="220"/>
+      <c r="L4" s="220"/>
+      <c r="M4" s="221"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="172" t="s">
+      <c r="B5" s="222" t="s">
         <v>261</v>
       </c>
-      <c r="C5" s="172"/>
-      <c r="D5" s="199"/>
-      <c r="E5" s="199"/>
-      <c r="F5" s="199"/>
-      <c r="G5" s="199"/>
-      <c r="H5" s="199"/>
-      <c r="I5" s="199"/>
-      <c r="J5" s="199"/>
-      <c r="K5" s="199"/>
-      <c r="L5" s="199"/>
-      <c r="M5" s="199"/>
+      <c r="C5" s="222"/>
+      <c r="D5" s="223"/>
+      <c r="E5" s="223"/>
+      <c r="F5" s="223"/>
+      <c r="G5" s="223"/>
+      <c r="H5" s="223"/>
+      <c r="I5" s="223"/>
+      <c r="J5" s="223"/>
+      <c r="K5" s="223"/>
+      <c r="L5" s="223"/>
+      <c r="M5" s="223"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
@@ -2767,17 +2767,17 @@
     </row>
     <row r="8" spans="2:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
-      <c r="C8" s="242" t="s">
+      <c r="C8" s="256" t="s">
         <v>336</v>
       </c>
-      <c r="D8" s="243"/>
-      <c r="E8" s="243"/>
-      <c r="F8" s="243"/>
-      <c r="G8" s="243"/>
-      <c r="H8" s="243"/>
-      <c r="I8" s="243"/>
-      <c r="J8" s="243"/>
-      <c r="K8" s="244"/>
+      <c r="D8" s="257"/>
+      <c r="E8" s="257"/>
+      <c r="F8" s="257"/>
+      <c r="G8" s="257"/>
+      <c r="H8" s="257"/>
+      <c r="I8" s="257"/>
+      <c r="J8" s="257"/>
+      <c r="K8" s="258"/>
       <c r="L8" s="155"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
@@ -3071,13 +3071,13 @@
       </c>
       <c r="D27" s="92"/>
       <c r="E27" s="92"/>
-      <c r="G27" s="245" t="s">
+      <c r="G27" s="259" t="s">
         <v>330</v>
       </c>
-      <c r="H27" s="245"/>
-      <c r="I27" s="245"/>
-      <c r="J27" s="245"/>
-      <c r="K27" s="245"/>
+      <c r="H27" s="259"/>
+      <c r="I27" s="259"/>
+      <c r="J27" s="259"/>
+      <c r="K27" s="259"/>
       <c r="L27" s="156"/>
       <c r="M27" s="80"/>
     </row>
@@ -3096,22 +3096,22 @@
     </row>
     <row r="29" spans="2:14" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="89"/>
-      <c r="C29" s="200" t="s">
+      <c r="C29" s="224" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="200"/>
-      <c r="E29" s="200"/>
+      <c r="D29" s="224"/>
+      <c r="E29" s="224"/>
       <c r="G29" s="142" t="s">
         <v>14</v>
       </c>
-      <c r="H29" s="246" t="s">
+      <c r="H29" s="260" t="s">
         <v>331</v>
       </c>
-      <c r="I29" s="247"/>
-      <c r="J29" s="247"/>
-      <c r="K29" s="247"/>
-      <c r="L29" s="247"/>
-      <c r="M29" s="248"/>
+      <c r="I29" s="261"/>
+      <c r="J29" s="261"/>
+      <c r="K29" s="261"/>
+      <c r="L29" s="261"/>
+      <c r="M29" s="262"/>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="89"/>
@@ -3130,11 +3130,11 @@
     </row>
     <row r="31" spans="2:14" ht="37.5" x14ac:dyDescent="0.25">
       <c r="B31" s="89"/>
-      <c r="C31" s="163" t="s">
+      <c r="C31" s="281" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="163"/>
-      <c r="E31" s="164"/>
+      <c r="D31" s="281"/>
+      <c r="E31" s="282"/>
       <c r="F31" s="11" t="s">
         <v>16</v>
       </c>
@@ -3295,12 +3295,12 @@
       <c r="E40" s="17"/>
       <c r="F40" s="17"/>
       <c r="G40" s="17"/>
-      <c r="H40" s="165" t="s">
+      <c r="H40" s="253" t="s">
         <v>310</v>
       </c>
-      <c r="I40" s="166"/>
-      <c r="J40" s="166"/>
-      <c r="K40" s="167"/>
+      <c r="I40" s="254"/>
+      <c r="J40" s="254"/>
+      <c r="K40" s="255"/>
       <c r="L40" s="20"/>
       <c r="M40" s="79"/>
     </row>
@@ -3313,12 +3313,12 @@
       <c r="E41" s="17"/>
       <c r="F41" s="17"/>
       <c r="G41" s="17"/>
-      <c r="H41" s="165" t="s">
+      <c r="H41" s="253" t="s">
         <v>311</v>
       </c>
-      <c r="I41" s="166"/>
-      <c r="J41" s="166"/>
-      <c r="K41" s="167"/>
+      <c r="I41" s="254"/>
+      <c r="J41" s="254"/>
+      <c r="K41" s="255"/>
       <c r="L41" s="20"/>
       <c r="M41" s="79"/>
     </row>
@@ -3331,12 +3331,12 @@
       <c r="E42" s="17"/>
       <c r="F42" s="17"/>
       <c r="G42" s="17"/>
-      <c r="H42" s="165" t="s">
+      <c r="H42" s="253" t="s">
         <v>312</v>
       </c>
-      <c r="I42" s="166"/>
-      <c r="J42" s="166"/>
-      <c r="K42" s="167"/>
+      <c r="I42" s="254"/>
+      <c r="J42" s="254"/>
+      <c r="K42" s="255"/>
       <c r="L42" s="20"/>
       <c r="M42" s="79"/>
     </row>
@@ -3349,12 +3349,12 @@
       <c r="E43" s="17"/>
       <c r="F43" s="17"/>
       <c r="G43" s="17"/>
-      <c r="H43" s="165" t="s">
+      <c r="H43" s="253" t="s">
         <v>325</v>
       </c>
-      <c r="I43" s="166"/>
-      <c r="J43" s="166"/>
-      <c r="K43" s="167"/>
+      <c r="I43" s="254"/>
+      <c r="J43" s="254"/>
+      <c r="K43" s="255"/>
       <c r="L43" s="20"/>
       <c r="M43" s="79"/>
     </row>
@@ -3412,12 +3412,12 @@
       <c r="E47" s="17"/>
       <c r="F47" s="17"/>
       <c r="G47" s="17"/>
-      <c r="H47" s="165" t="s">
+      <c r="H47" s="253" t="s">
         <v>310</v>
       </c>
-      <c r="I47" s="166"/>
-      <c r="J47" s="166"/>
-      <c r="K47" s="167"/>
+      <c r="I47" s="254"/>
+      <c r="J47" s="254"/>
+      <c r="K47" s="255"/>
       <c r="L47" s="20"/>
       <c r="M47" s="79"/>
     </row>
@@ -3430,12 +3430,12 @@
       <c r="E48" s="17"/>
       <c r="F48" s="17"/>
       <c r="G48" s="17"/>
-      <c r="H48" s="165" t="s">
+      <c r="H48" s="253" t="s">
         <v>311</v>
       </c>
-      <c r="I48" s="166"/>
-      <c r="J48" s="166"/>
-      <c r="K48" s="167"/>
+      <c r="I48" s="254"/>
+      <c r="J48" s="254"/>
+      <c r="K48" s="255"/>
       <c r="L48" s="20"/>
       <c r="M48" s="79"/>
     </row>
@@ -3448,12 +3448,12 @@
       <c r="E49" s="17"/>
       <c r="F49" s="17"/>
       <c r="G49" s="17"/>
-      <c r="H49" s="239" t="s">
+      <c r="H49" s="250" t="s">
         <v>313</v>
       </c>
-      <c r="I49" s="240"/>
-      <c r="J49" s="240"/>
-      <c r="K49" s="241"/>
+      <c r="I49" s="251"/>
+      <c r="J49" s="251"/>
+      <c r="K49" s="252"/>
       <c r="L49" s="149"/>
       <c r="M49" s="79"/>
     </row>
@@ -3466,12 +3466,12 @@
       <c r="E50" s="17"/>
       <c r="F50" s="17"/>
       <c r="G50" s="17"/>
-      <c r="H50" s="268" t="s">
+      <c r="H50" s="161" t="s">
         <v>333</v>
       </c>
-      <c r="I50" s="268"/>
-      <c r="J50" s="268"/>
-      <c r="K50" s="268"/>
+      <c r="I50" s="161"/>
+      <c r="J50" s="161"/>
+      <c r="K50" s="161"/>
       <c r="L50" s="158"/>
       <c r="M50" s="138"/>
       <c r="N50" s="138"/>
@@ -3520,12 +3520,12 @@
       <c r="E53" s="17"/>
       <c r="F53" s="17"/>
       <c r="G53" s="17"/>
-      <c r="H53" s="165" t="s">
+      <c r="H53" s="253" t="s">
         <v>310</v>
       </c>
-      <c r="I53" s="166"/>
-      <c r="J53" s="166"/>
-      <c r="K53" s="167"/>
+      <c r="I53" s="254"/>
+      <c r="J53" s="254"/>
+      <c r="K53" s="255"/>
       <c r="L53" s="20"/>
       <c r="M53" s="79"/>
     </row>
@@ -3538,12 +3538,12 @@
       <c r="E54" s="17"/>
       <c r="F54" s="17"/>
       <c r="G54" s="17"/>
-      <c r="H54" s="274" t="s">
+      <c r="H54" s="170" t="s">
         <v>311</v>
       </c>
-      <c r="I54" s="275"/>
-      <c r="J54" s="275"/>
-      <c r="K54" s="276"/>
+      <c r="I54" s="171"/>
+      <c r="J54" s="171"/>
+      <c r="K54" s="172"/>
       <c r="L54" s="20"/>
       <c r="M54" s="79"/>
     </row>
@@ -3556,12 +3556,12 @@
       <c r="E55" s="17"/>
       <c r="F55" s="17"/>
       <c r="G55" s="17"/>
-      <c r="H55" s="268" t="s">
+      <c r="H55" s="161" t="s">
         <v>314</v>
       </c>
-      <c r="I55" s="268"/>
-      <c r="J55" s="268"/>
-      <c r="K55" s="268"/>
+      <c r="I55" s="161"/>
+      <c r="J55" s="161"/>
+      <c r="K55" s="161"/>
       <c r="L55" s="158"/>
       <c r="M55" s="138"/>
       <c r="N55" s="138"/>
@@ -3578,12 +3578,12 @@
       <c r="E56" s="17"/>
       <c r="F56" s="17"/>
       <c r="G56" s="17"/>
-      <c r="H56" s="269" t="s">
+      <c r="H56" s="162" t="s">
         <v>315</v>
       </c>
-      <c r="I56" s="270"/>
-      <c r="J56" s="270"/>
-      <c r="K56" s="271"/>
+      <c r="I56" s="163"/>
+      <c r="J56" s="163"/>
+      <c r="K56" s="164"/>
       <c r="L56" s="158"/>
       <c r="M56" s="138"/>
       <c r="N56" s="138"/>
@@ -3863,11 +3863,11 @@
       <c r="F73" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="G73" s="186" t="s">
+      <c r="G73" s="203" t="s">
         <v>51</v>
       </c>
-      <c r="H73" s="187"/>
-      <c r="I73" s="188"/>
+      <c r="H73" s="204"/>
+      <c r="I73" s="205"/>
       <c r="J73" s="90"/>
       <c r="K73" s="90"/>
       <c r="L73" s="90"/>
@@ -3887,11 +3887,11 @@
       <c r="F74" s="30" t="s">
         <v>339</v>
       </c>
-      <c r="G74" s="280" t="s">
+      <c r="G74" s="200" t="s">
         <v>340</v>
       </c>
-      <c r="H74" s="281"/>
-      <c r="I74" s="282"/>
+      <c r="H74" s="201"/>
+      <c r="I74" s="202"/>
       <c r="J74" s="90"/>
       <c r="K74" s="90"/>
       <c r="L74" s="90"/>
@@ -4023,10 +4023,10 @@
       <c r="B83" s="15"/>
       <c r="C83" s="79"/>
       <c r="D83" s="80"/>
-      <c r="E83" s="168" t="s">
+      <c r="E83" s="267" t="s">
         <v>265</v>
       </c>
-      <c r="F83" s="168"/>
+      <c r="F83" s="267"/>
       <c r="I83" s="80"/>
       <c r="J83" s="80"/>
       <c r="K83" s="80"/>
@@ -4112,17 +4112,17 @@
     </row>
     <row r="88" spans="2:13" s="97" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="58"/>
-      <c r="C88" s="273" t="s">
+      <c r="C88" s="168" t="s">
         <v>268</v>
       </c>
-      <c r="D88" s="273"/>
-      <c r="E88" s="273"/>
-      <c r="F88" s="273"/>
-      <c r="G88" s="273"/>
-      <c r="H88" s="273"/>
-      <c r="I88" s="273"/>
-      <c r="J88" s="273"/>
-      <c r="K88" s="273"/>
+      <c r="D88" s="168"/>
+      <c r="E88" s="168"/>
+      <c r="F88" s="168"/>
+      <c r="G88" s="168"/>
+      <c r="H88" s="168"/>
+      <c r="I88" s="168"/>
+      <c r="J88" s="168"/>
+      <c r="K88" s="168"/>
       <c r="L88" s="147"/>
       <c r="M88" s="80"/>
     </row>
@@ -4289,10 +4289,10 @@
       </c>
       <c r="D99" s="103"/>
       <c r="E99" s="67"/>
-      <c r="F99" s="278" t="s">
+      <c r="F99" s="195" t="s">
         <v>280</v>
       </c>
-      <c r="G99" s="279"/>
+      <c r="G99" s="196"/>
       <c r="H99" s="107"/>
       <c r="I99" s="79"/>
       <c r="J99" s="79"/>
@@ -4472,13 +4472,13 @@
     </row>
     <row r="111" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B111" s="58"/>
-      <c r="C111" s="218" t="s">
+      <c r="C111" s="241" t="s">
         <v>74</v>
       </c>
-      <c r="D111" s="218"/>
-      <c r="E111" s="218"/>
-      <c r="F111" s="218"/>
-      <c r="G111" s="219"/>
+      <c r="D111" s="241"/>
+      <c r="E111" s="241"/>
+      <c r="F111" s="241"/>
+      <c r="G111" s="242"/>
       <c r="H111" s="26"/>
       <c r="I111" s="27"/>
       <c r="J111" s="80"/>
@@ -4493,8 +4493,8 @@
       <c r="E112" s="79"/>
       <c r="F112" s="79"/>
       <c r="G112" s="79"/>
-      <c r="H112" s="220"/>
-      <c r="I112" s="220"/>
+      <c r="H112" s="243"/>
+      <c r="I112" s="243"/>
       <c r="J112" s="80"/>
       <c r="K112" s="80"/>
       <c r="L112" s="152"/>
@@ -4502,13 +4502,13 @@
     </row>
     <row r="113" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B113" s="58"/>
-      <c r="C113" s="218" t="s">
+      <c r="C113" s="241" t="s">
         <v>75</v>
       </c>
-      <c r="D113" s="218"/>
-      <c r="E113" s="218"/>
-      <c r="F113" s="218"/>
-      <c r="G113" s="219"/>
+      <c r="D113" s="241"/>
+      <c r="E113" s="241"/>
+      <c r="F113" s="241"/>
+      <c r="G113" s="242"/>
       <c r="H113" s="26"/>
       <c r="I113" s="27"/>
       <c r="J113" s="80"/>
@@ -4640,47 +4640,47 @@
     </row>
     <row r="122" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B122" s="58"/>
-      <c r="C122" s="221" t="s">
+      <c r="C122" s="244" t="s">
         <v>281</v>
       </c>
-      <c r="D122" s="222"/>
-      <c r="E122" s="222"/>
-      <c r="F122" s="222"/>
-      <c r="G122" s="222"/>
-      <c r="H122" s="222"/>
-      <c r="I122" s="222"/>
-      <c r="J122" s="222"/>
-      <c r="K122" s="222"/>
-      <c r="L122" s="222"/>
-      <c r="M122" s="223"/>
+      <c r="D122" s="245"/>
+      <c r="E122" s="245"/>
+      <c r="F122" s="245"/>
+      <c r="G122" s="245"/>
+      <c r="H122" s="245"/>
+      <c r="I122" s="245"/>
+      <c r="J122" s="245"/>
+      <c r="K122" s="245"/>
+      <c r="L122" s="245"/>
+      <c r="M122" s="246"/>
     </row>
     <row r="123" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B123" s="58"/>
-      <c r="C123" s="224"/>
-      <c r="D123" s="225"/>
-      <c r="E123" s="225"/>
-      <c r="F123" s="225"/>
-      <c r="G123" s="225"/>
-      <c r="H123" s="225"/>
-      <c r="I123" s="225"/>
-      <c r="J123" s="225"/>
-      <c r="K123" s="225"/>
-      <c r="L123" s="225"/>
-      <c r="M123" s="226"/>
+      <c r="C123" s="197"/>
+      <c r="D123" s="198"/>
+      <c r="E123" s="198"/>
+      <c r="F123" s="198"/>
+      <c r="G123" s="198"/>
+      <c r="H123" s="198"/>
+      <c r="I123" s="198"/>
+      <c r="J123" s="198"/>
+      <c r="K123" s="198"/>
+      <c r="L123" s="198"/>
+      <c r="M123" s="199"/>
     </row>
     <row r="124" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B124" s="58"/>
-      <c r="C124" s="227"/>
-      <c r="D124" s="228"/>
-      <c r="E124" s="228"/>
-      <c r="F124" s="228"/>
-      <c r="G124" s="228"/>
-      <c r="H124" s="228"/>
-      <c r="I124" s="228"/>
-      <c r="J124" s="228"/>
-      <c r="K124" s="228"/>
-      <c r="L124" s="228"/>
-      <c r="M124" s="229"/>
+      <c r="C124" s="247"/>
+      <c r="D124" s="248"/>
+      <c r="E124" s="248"/>
+      <c r="F124" s="248"/>
+      <c r="G124" s="248"/>
+      <c r="H124" s="248"/>
+      <c r="I124" s="248"/>
+      <c r="J124" s="248"/>
+      <c r="K124" s="248"/>
+      <c r="L124" s="248"/>
+      <c r="M124" s="249"/>
     </row>
     <row r="125" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B125" s="58"/>
@@ -4714,19 +4714,19 @@
     </row>
     <row r="127" spans="2:13" ht="63" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" s="58"/>
-      <c r="C127" s="210" t="s">
+      <c r="C127" s="234" t="s">
         <v>282</v>
       </c>
-      <c r="D127" s="211"/>
-      <c r="E127" s="211"/>
-      <c r="F127" s="211"/>
-      <c r="G127" s="211"/>
-      <c r="H127" s="211"/>
-      <c r="I127" s="211"/>
-      <c r="J127" s="211"/>
-      <c r="K127" s="211"/>
-      <c r="L127" s="211"/>
-      <c r="M127" s="212"/>
+      <c r="D127" s="235"/>
+      <c r="E127" s="235"/>
+      <c r="F127" s="235"/>
+      <c r="G127" s="235"/>
+      <c r="H127" s="235"/>
+      <c r="I127" s="235"/>
+      <c r="J127" s="235"/>
+      <c r="K127" s="235"/>
+      <c r="L127" s="235"/>
+      <c r="M127" s="236"/>
     </row>
     <row r="128" spans="2:13" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" s="58"/>
@@ -4760,19 +4760,19 @@
     </row>
     <row r="130" spans="2:13" ht="46.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B130" s="58"/>
-      <c r="C130" s="213" t="s">
+      <c r="C130" s="237" t="s">
         <v>283</v>
       </c>
-      <c r="D130" s="214"/>
-      <c r="E130" s="214"/>
-      <c r="F130" s="214"/>
-      <c r="G130" s="214"/>
-      <c r="H130" s="214"/>
-      <c r="I130" s="214"/>
-      <c r="J130" s="214"/>
-      <c r="K130" s="214"/>
-      <c r="L130" s="214"/>
-      <c r="M130" s="215"/>
+      <c r="D130" s="238"/>
+      <c r="E130" s="238"/>
+      <c r="F130" s="238"/>
+      <c r="G130" s="238"/>
+      <c r="H130" s="238"/>
+      <c r="I130" s="238"/>
+      <c r="J130" s="238"/>
+      <c r="K130" s="238"/>
+      <c r="L130" s="238"/>
+      <c r="M130" s="239"/>
     </row>
     <row r="131" spans="2:13" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131" s="58"/>
@@ -4971,19 +4971,19 @@
     </row>
     <row r="144" spans="2:13" ht="87" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="58"/>
-      <c r="C144" s="216" t="s">
+      <c r="C144" s="240" t="s">
         <v>284</v>
       </c>
-      <c r="D144" s="216"/>
-      <c r="E144" s="216"/>
-      <c r="F144" s="216"/>
-      <c r="G144" s="216"/>
-      <c r="H144" s="216"/>
-      <c r="I144" s="216"/>
-      <c r="J144" s="216"/>
-      <c r="K144" s="216"/>
-      <c r="L144" s="216"/>
-      <c r="M144" s="216"/>
+      <c r="D144" s="240"/>
+      <c r="E144" s="240"/>
+      <c r="F144" s="240"/>
+      <c r="G144" s="240"/>
+      <c r="H144" s="240"/>
+      <c r="I144" s="240"/>
+      <c r="J144" s="240"/>
+      <c r="K144" s="240"/>
+      <c r="L144" s="240"/>
+      <c r="M144" s="240"/>
     </row>
     <row r="145" spans="2:13" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B145" s="58"/>
@@ -5001,11 +5001,11 @@
     </row>
     <row r="146" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B146" s="18"/>
-      <c r="C146" s="217" t="s">
+      <c r="C146" s="165" t="s">
         <v>91</v>
       </c>
-      <c r="D146" s="217"/>
-      <c r="E146" s="217"/>
+      <c r="D146" s="165"/>
+      <c r="E146" s="165"/>
       <c r="H146" s="106"/>
       <c r="I146" s="18" t="s">
         <v>92</v>
@@ -5029,11 +5029,11 @@
     </row>
     <row r="148" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B148" s="18"/>
-      <c r="C148" s="217" t="s">
+      <c r="C148" s="165" t="s">
         <v>93</v>
       </c>
-      <c r="D148" s="217"/>
-      <c r="E148" s="217"/>
+      <c r="D148" s="165"/>
+      <c r="E148" s="165"/>
       <c r="H148" s="106"/>
       <c r="I148" s="18" t="s">
         <v>94</v>
@@ -5057,11 +5057,11 @@
     </row>
     <row r="150" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B150" s="18"/>
-      <c r="C150" s="217" t="s">
+      <c r="C150" s="165" t="s">
         <v>95</v>
       </c>
-      <c r="D150" s="217"/>
-      <c r="E150" s="217"/>
+      <c r="D150" s="165"/>
+      <c r="E150" s="165"/>
       <c r="H150" s="106"/>
       <c r="I150" s="25"/>
       <c r="J150" s="25"/>
@@ -5083,12 +5083,12 @@
     </row>
     <row r="152" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B152" s="18"/>
-      <c r="C152" s="217" t="s">
+      <c r="C152" s="165" t="s">
         <v>96</v>
       </c>
-      <c r="D152" s="217"/>
-      <c r="E152" s="217"/>
-      <c r="F152" s="217"/>
+      <c r="D152" s="165"/>
+      <c r="E152" s="165"/>
+      <c r="F152" s="165"/>
       <c r="H152" s="106"/>
       <c r="I152" s="25"/>
       <c r="J152" s="25"/>
@@ -5111,13 +5111,13 @@
     </row>
     <row r="154" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B154" s="18"/>
-      <c r="C154" s="217" t="s">
+      <c r="C154" s="165" t="s">
         <v>97</v>
       </c>
-      <c r="D154" s="217"/>
-      <c r="E154" s="217"/>
-      <c r="F154" s="217"/>
-      <c r="G154" s="252"/>
+      <c r="D154" s="165"/>
+      <c r="E154" s="165"/>
+      <c r="F154" s="165"/>
+      <c r="G154" s="166"/>
       <c r="H154" s="106"/>
       <c r="I154" s="25"/>
     </row>
@@ -5245,19 +5245,19 @@
     </row>
     <row r="163" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B163" s="18"/>
-      <c r="C163" s="249" t="s">
+      <c r="C163" s="263" t="s">
         <v>285</v>
       </c>
-      <c r="D163" s="250"/>
-      <c r="E163" s="250"/>
-      <c r="F163" s="250"/>
-      <c r="G163" s="250"/>
-      <c r="H163" s="250"/>
-      <c r="I163" s="250"/>
-      <c r="J163" s="250"/>
-      <c r="K163" s="250"/>
-      <c r="L163" s="250"/>
-      <c r="M163" s="251"/>
+      <c r="D163" s="264"/>
+      <c r="E163" s="264"/>
+      <c r="F163" s="264"/>
+      <c r="G163" s="264"/>
+      <c r="H163" s="264"/>
+      <c r="I163" s="264"/>
+      <c r="J163" s="264"/>
+      <c r="K163" s="264"/>
+      <c r="L163" s="264"/>
+      <c r="M163" s="265"/>
     </row>
     <row r="164" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B164" s="18"/>
@@ -5475,12 +5475,12 @@
     </row>
     <row r="180" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B180" s="25"/>
-      <c r="C180" s="217" t="s">
+      <c r="C180" s="165" t="s">
         <v>93</v>
       </c>
-      <c r="D180" s="217"/>
-      <c r="E180" s="217"/>
-      <c r="F180" s="217"/>
+      <c r="D180" s="165"/>
+      <c r="E180" s="165"/>
+      <c r="F180" s="165"/>
       <c r="G180" s="79"/>
       <c r="H180" s="103"/>
       <c r="I180" s="18" t="s">
@@ -5507,13 +5507,13 @@
     </row>
     <row r="182" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B182" s="25"/>
-      <c r="C182" s="217" t="s">
+      <c r="C182" s="165" t="s">
         <v>112</v>
       </c>
-      <c r="D182" s="217"/>
-      <c r="E182" s="217"/>
-      <c r="F182" s="217"/>
-      <c r="G182" s="252"/>
+      <c r="D182" s="165"/>
+      <c r="E182" s="165"/>
+      <c r="F182" s="165"/>
+      <c r="G182" s="166"/>
       <c r="H182" s="103"/>
       <c r="I182" s="25"/>
       <c r="J182" s="25"/>
@@ -5567,13 +5567,13 @@
     </row>
     <row r="186" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B186" s="25"/>
-      <c r="C186" s="217" t="s">
+      <c r="C186" s="165" t="s">
         <v>114</v>
       </c>
-      <c r="D186" s="217"/>
-      <c r="E186" s="217"/>
-      <c r="F186" s="217"/>
-      <c r="G186" s="252"/>
+      <c r="D186" s="165"/>
+      <c r="E186" s="165"/>
+      <c r="F186" s="165"/>
+      <c r="G186" s="166"/>
       <c r="H186" s="103"/>
       <c r="I186" s="25"/>
       <c r="J186" s="25"/>
@@ -5686,79 +5686,79 @@
     </row>
     <row r="194" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B194" s="21"/>
-      <c r="C194" s="230" t="s">
+      <c r="C194" s="182" t="s">
         <v>286</v>
       </c>
-      <c r="D194" s="231"/>
-      <c r="E194" s="231"/>
-      <c r="F194" s="231"/>
-      <c r="G194" s="231"/>
-      <c r="H194" s="231"/>
-      <c r="I194" s="231"/>
-      <c r="J194" s="231"/>
-      <c r="K194" s="231"/>
-      <c r="L194" s="231"/>
-      <c r="M194" s="232"/>
+      <c r="D194" s="183"/>
+      <c r="E194" s="183"/>
+      <c r="F194" s="183"/>
+      <c r="G194" s="183"/>
+      <c r="H194" s="183"/>
+      <c r="I194" s="183"/>
+      <c r="J194" s="183"/>
+      <c r="K194" s="183"/>
+      <c r="L194" s="183"/>
+      <c r="M194" s="184"/>
       <c r="N194" s="21"/>
     </row>
     <row r="195" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B195" s="21"/>
-      <c r="C195" s="233"/>
-      <c r="D195" s="234"/>
-      <c r="E195" s="234"/>
-      <c r="F195" s="234"/>
-      <c r="G195" s="234"/>
-      <c r="H195" s="234"/>
-      <c r="I195" s="234"/>
-      <c r="J195" s="234"/>
-      <c r="K195" s="234"/>
-      <c r="L195" s="234"/>
-      <c r="M195" s="235"/>
+      <c r="C195" s="185"/>
+      <c r="D195" s="186"/>
+      <c r="E195" s="186"/>
+      <c r="F195" s="186"/>
+      <c r="G195" s="186"/>
+      <c r="H195" s="186"/>
+      <c r="I195" s="186"/>
+      <c r="J195" s="186"/>
+      <c r="K195" s="186"/>
+      <c r="L195" s="186"/>
+      <c r="M195" s="187"/>
       <c r="N195" s="2"/>
     </row>
     <row r="196" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B196" s="21"/>
-      <c r="C196" s="233"/>
-      <c r="D196" s="234"/>
-      <c r="E196" s="234"/>
-      <c r="F196" s="234"/>
-      <c r="G196" s="234"/>
-      <c r="H196" s="234"/>
-      <c r="I196" s="234"/>
-      <c r="J196" s="234"/>
-      <c r="K196" s="234"/>
-      <c r="L196" s="234"/>
-      <c r="M196" s="235"/>
+      <c r="C196" s="185"/>
+      <c r="D196" s="186"/>
+      <c r="E196" s="186"/>
+      <c r="F196" s="186"/>
+      <c r="G196" s="186"/>
+      <c r="H196" s="186"/>
+      <c r="I196" s="186"/>
+      <c r="J196" s="186"/>
+      <c r="K196" s="186"/>
+      <c r="L196" s="186"/>
+      <c r="M196" s="187"/>
       <c r="N196" s="2"/>
     </row>
     <row r="197" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B197" s="21"/>
-      <c r="C197" s="233"/>
-      <c r="D197" s="234"/>
-      <c r="E197" s="234"/>
-      <c r="F197" s="234"/>
-      <c r="G197" s="234"/>
-      <c r="H197" s="234"/>
-      <c r="I197" s="234"/>
-      <c r="J197" s="234"/>
-      <c r="K197" s="234"/>
-      <c r="L197" s="234"/>
-      <c r="M197" s="235"/>
+      <c r="C197" s="185"/>
+      <c r="D197" s="186"/>
+      <c r="E197" s="186"/>
+      <c r="F197" s="186"/>
+      <c r="G197" s="186"/>
+      <c r="H197" s="186"/>
+      <c r="I197" s="186"/>
+      <c r="J197" s="186"/>
+      <c r="K197" s="186"/>
+      <c r="L197" s="186"/>
+      <c r="M197" s="187"/>
       <c r="N197" s="2"/>
     </row>
     <row r="198" spans="2:14" ht="99.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B198" s="21"/>
-      <c r="C198" s="236"/>
-      <c r="D198" s="237"/>
-      <c r="E198" s="237"/>
-      <c r="F198" s="237"/>
-      <c r="G198" s="237"/>
-      <c r="H198" s="237"/>
-      <c r="I198" s="237"/>
-      <c r="J198" s="237"/>
-      <c r="K198" s="237"/>
-      <c r="L198" s="237"/>
-      <c r="M198" s="238"/>
+      <c r="C198" s="188"/>
+      <c r="D198" s="189"/>
+      <c r="E198" s="189"/>
+      <c r="F198" s="189"/>
+      <c r="G198" s="189"/>
+      <c r="H198" s="189"/>
+      <c r="I198" s="189"/>
+      <c r="J198" s="189"/>
+      <c r="K198" s="189"/>
+      <c r="L198" s="189"/>
+      <c r="M198" s="190"/>
       <c r="N198" s="2"/>
     </row>
     <row r="199" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -5795,79 +5795,79 @@
     </row>
     <row r="201" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B201" s="21"/>
-      <c r="C201" s="230" t="s">
+      <c r="C201" s="182" t="s">
         <v>287</v>
       </c>
-      <c r="D201" s="231"/>
-      <c r="E201" s="231"/>
-      <c r="F201" s="231"/>
-      <c r="G201" s="231"/>
-      <c r="H201" s="231"/>
-      <c r="I201" s="231"/>
-      <c r="J201" s="231"/>
-      <c r="K201" s="231"/>
-      <c r="L201" s="231"/>
-      <c r="M201" s="232"/>
+      <c r="D201" s="183"/>
+      <c r="E201" s="183"/>
+      <c r="F201" s="183"/>
+      <c r="G201" s="183"/>
+      <c r="H201" s="183"/>
+      <c r="I201" s="183"/>
+      <c r="J201" s="183"/>
+      <c r="K201" s="183"/>
+      <c r="L201" s="183"/>
+      <c r="M201" s="184"/>
       <c r="N201" s="34"/>
     </row>
     <row r="202" spans="2:14" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B202" s="21"/>
-      <c r="C202" s="233"/>
-      <c r="D202" s="234"/>
-      <c r="E202" s="234"/>
-      <c r="F202" s="234"/>
-      <c r="G202" s="234"/>
-      <c r="H202" s="234"/>
-      <c r="I202" s="234"/>
-      <c r="J202" s="234"/>
-      <c r="K202" s="234"/>
-      <c r="L202" s="234"/>
-      <c r="M202" s="235"/>
+      <c r="C202" s="185"/>
+      <c r="D202" s="186"/>
+      <c r="E202" s="186"/>
+      <c r="F202" s="186"/>
+      <c r="G202" s="186"/>
+      <c r="H202" s="186"/>
+      <c r="I202" s="186"/>
+      <c r="J202" s="186"/>
+      <c r="K202" s="186"/>
+      <c r="L202" s="186"/>
+      <c r="M202" s="187"/>
       <c r="N202" s="2"/>
     </row>
     <row r="203" spans="2:14" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B203" s="21"/>
-      <c r="C203" s="233"/>
-      <c r="D203" s="234"/>
-      <c r="E203" s="234"/>
-      <c r="F203" s="234"/>
-      <c r="G203" s="234"/>
-      <c r="H203" s="234"/>
-      <c r="I203" s="234"/>
-      <c r="J203" s="234"/>
-      <c r="K203" s="234"/>
-      <c r="L203" s="234"/>
-      <c r="M203" s="235"/>
+      <c r="C203" s="185"/>
+      <c r="D203" s="186"/>
+      <c r="E203" s="186"/>
+      <c r="F203" s="186"/>
+      <c r="G203" s="186"/>
+      <c r="H203" s="186"/>
+      <c r="I203" s="186"/>
+      <c r="J203" s="186"/>
+      <c r="K203" s="186"/>
+      <c r="L203" s="186"/>
+      <c r="M203" s="187"/>
       <c r="N203" s="2"/>
     </row>
     <row r="204" spans="2:14" ht="35.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B204" s="21"/>
-      <c r="C204" s="233"/>
-      <c r="D204" s="234"/>
-      <c r="E204" s="234"/>
-      <c r="F204" s="234"/>
-      <c r="G204" s="234"/>
-      <c r="H204" s="234"/>
-      <c r="I204" s="234"/>
-      <c r="J204" s="234"/>
-      <c r="K204" s="234"/>
-      <c r="L204" s="234"/>
-      <c r="M204" s="235"/>
+      <c r="C204" s="185"/>
+      <c r="D204" s="186"/>
+      <c r="E204" s="186"/>
+      <c r="F204" s="186"/>
+      <c r="G204" s="186"/>
+      <c r="H204" s="186"/>
+      <c r="I204" s="186"/>
+      <c r="J204" s="186"/>
+      <c r="K204" s="186"/>
+      <c r="L204" s="186"/>
+      <c r="M204" s="187"/>
       <c r="N204" s="2"/>
     </row>
     <row r="205" spans="2:14" ht="39" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B205" s="21"/>
-      <c r="C205" s="236"/>
-      <c r="D205" s="237"/>
-      <c r="E205" s="237"/>
-      <c r="F205" s="237"/>
-      <c r="G205" s="237"/>
-      <c r="H205" s="237"/>
-      <c r="I205" s="237"/>
-      <c r="J205" s="237"/>
-      <c r="K205" s="237"/>
-      <c r="L205" s="237"/>
-      <c r="M205" s="238"/>
+      <c r="C205" s="188"/>
+      <c r="D205" s="189"/>
+      <c r="E205" s="189"/>
+      <c r="F205" s="189"/>
+      <c r="G205" s="189"/>
+      <c r="H205" s="189"/>
+      <c r="I205" s="189"/>
+      <c r="J205" s="189"/>
+      <c r="K205" s="189"/>
+      <c r="L205" s="189"/>
+      <c r="M205" s="190"/>
       <c r="N205" s="2"/>
     </row>
     <row r="206" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -6014,49 +6014,49 @@
     </row>
     <row r="215" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B215" s="18"/>
-      <c r="C215" s="201" t="s">
+      <c r="C215" s="225" t="s">
         <v>292</v>
       </c>
-      <c r="D215" s="202"/>
-      <c r="E215" s="202"/>
-      <c r="F215" s="202"/>
-      <c r="G215" s="202"/>
-      <c r="H215" s="202"/>
-      <c r="I215" s="202"/>
-      <c r="J215" s="202"/>
-      <c r="K215" s="202"/>
-      <c r="L215" s="202"/>
-      <c r="M215" s="203"/>
+      <c r="D215" s="226"/>
+      <c r="E215" s="226"/>
+      <c r="F215" s="226"/>
+      <c r="G215" s="226"/>
+      <c r="H215" s="226"/>
+      <c r="I215" s="226"/>
+      <c r="J215" s="226"/>
+      <c r="K215" s="226"/>
+      <c r="L215" s="226"/>
+      <c r="M215" s="227"/>
       <c r="N215" s="34"/>
     </row>
     <row r="216" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B216" s="18"/>
-      <c r="C216" s="204"/>
-      <c r="D216" s="205"/>
-      <c r="E216" s="205"/>
-      <c r="F216" s="205"/>
-      <c r="G216" s="205"/>
-      <c r="H216" s="205"/>
-      <c r="I216" s="205"/>
-      <c r="J216" s="205"/>
-      <c r="K216" s="205"/>
-      <c r="L216" s="205"/>
-      <c r="M216" s="206"/>
+      <c r="C216" s="228"/>
+      <c r="D216" s="229"/>
+      <c r="E216" s="229"/>
+      <c r="F216" s="229"/>
+      <c r="G216" s="229"/>
+      <c r="H216" s="229"/>
+      <c r="I216" s="229"/>
+      <c r="J216" s="229"/>
+      <c r="K216" s="229"/>
+      <c r="L216" s="229"/>
+      <c r="M216" s="230"/>
       <c r="N216" s="60"/>
     </row>
     <row r="217" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B217" s="18"/>
-      <c r="C217" s="207"/>
-      <c r="D217" s="208"/>
-      <c r="E217" s="208"/>
-      <c r="F217" s="208"/>
-      <c r="G217" s="208"/>
-      <c r="H217" s="208"/>
-      <c r="I217" s="208"/>
-      <c r="J217" s="208"/>
-      <c r="K217" s="208"/>
-      <c r="L217" s="208"/>
-      <c r="M217" s="209"/>
+      <c r="C217" s="231"/>
+      <c r="D217" s="232"/>
+      <c r="E217" s="232"/>
+      <c r="F217" s="232"/>
+      <c r="G217" s="232"/>
+      <c r="H217" s="232"/>
+      <c r="I217" s="232"/>
+      <c r="J217" s="232"/>
+      <c r="K217" s="232"/>
+      <c r="L217" s="232"/>
+      <c r="M217" s="233"/>
       <c r="N217" s="60"/>
     </row>
     <row r="218" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
@@ -6091,10 +6091,10 @@
     </row>
     <row r="220" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B220" s="18"/>
-      <c r="C220" s="217" t="s">
+      <c r="C220" s="165" t="s">
         <v>122</v>
       </c>
-      <c r="D220" s="217"/>
+      <c r="D220" s="165"/>
       <c r="E220" s="82"/>
       <c r="F220" s="79"/>
       <c r="G220" s="13"/>
@@ -6219,19 +6219,19 @@
     </row>
     <row r="228" spans="2:15" ht="49.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B228" s="18"/>
-      <c r="C228" s="224" t="s">
+      <c r="C228" s="197" t="s">
         <v>291</v>
       </c>
-      <c r="D228" s="225"/>
-      <c r="E228" s="225"/>
-      <c r="F228" s="225"/>
-      <c r="G228" s="225"/>
-      <c r="H228" s="225"/>
-      <c r="I228" s="225"/>
-      <c r="J228" s="225"/>
-      <c r="K228" s="225"/>
-      <c r="L228" s="225"/>
-      <c r="M228" s="226"/>
+      <c r="D228" s="198"/>
+      <c r="E228" s="198"/>
+      <c r="F228" s="198"/>
+      <c r="G228" s="198"/>
+      <c r="H228" s="198"/>
+      <c r="I228" s="198"/>
+      <c r="J228" s="198"/>
+      <c r="K228" s="198"/>
+      <c r="L228" s="198"/>
+      <c r="M228" s="199"/>
     </row>
     <row r="229" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B229" s="18"/>
@@ -6340,51 +6340,51 @@
     </row>
     <row r="236" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B236" s="18"/>
-      <c r="C236" s="256" t="s">
+      <c r="C236" s="173" t="s">
         <v>129</v>
       </c>
-      <c r="D236" s="257"/>
-      <c r="E236" s="257"/>
-      <c r="F236" s="257"/>
-      <c r="G236" s="257"/>
-      <c r="H236" s="257"/>
-      <c r="I236" s="257"/>
-      <c r="J236" s="257"/>
-      <c r="K236" s="257"/>
-      <c r="L236" s="257"/>
-      <c r="M236" s="258"/>
+      <c r="D236" s="174"/>
+      <c r="E236" s="174"/>
+      <c r="F236" s="174"/>
+      <c r="G236" s="174"/>
+      <c r="H236" s="174"/>
+      <c r="I236" s="174"/>
+      <c r="J236" s="174"/>
+      <c r="K236" s="174"/>
+      <c r="L236" s="174"/>
+      <c r="M236" s="175"/>
       <c r="N236" s="34"/>
       <c r="O236" s="2"/>
     </row>
     <row r="237" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B237" s="18"/>
-      <c r="C237" s="259"/>
-      <c r="D237" s="260"/>
-      <c r="E237" s="260"/>
-      <c r="F237" s="260"/>
-      <c r="G237" s="260"/>
-      <c r="H237" s="260"/>
-      <c r="I237" s="260"/>
-      <c r="J237" s="260"/>
-      <c r="K237" s="260"/>
-      <c r="L237" s="260"/>
-      <c r="M237" s="261"/>
+      <c r="C237" s="176"/>
+      <c r="D237" s="177"/>
+      <c r="E237" s="177"/>
+      <c r="F237" s="177"/>
+      <c r="G237" s="177"/>
+      <c r="H237" s="177"/>
+      <c r="I237" s="177"/>
+      <c r="J237" s="177"/>
+      <c r="K237" s="177"/>
+      <c r="L237" s="177"/>
+      <c r="M237" s="178"/>
       <c r="N237" s="60"/>
       <c r="O237" s="2"/>
     </row>
     <row r="238" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B238" s="18"/>
-      <c r="C238" s="262"/>
-      <c r="D238" s="263"/>
-      <c r="E238" s="263"/>
-      <c r="F238" s="263"/>
-      <c r="G238" s="263"/>
-      <c r="H238" s="263"/>
-      <c r="I238" s="263"/>
-      <c r="J238" s="263"/>
-      <c r="K238" s="263"/>
-      <c r="L238" s="263"/>
-      <c r="M238" s="264"/>
+      <c r="C238" s="179"/>
+      <c r="D238" s="180"/>
+      <c r="E238" s="180"/>
+      <c r="F238" s="180"/>
+      <c r="G238" s="180"/>
+      <c r="H238" s="180"/>
+      <c r="I238" s="180"/>
+      <c r="J238" s="180"/>
+      <c r="K238" s="180"/>
+      <c r="L238" s="180"/>
+      <c r="M238" s="181"/>
       <c r="N238" s="60"/>
       <c r="O238" s="2"/>
     </row>
@@ -6499,35 +6499,35 @@
     </row>
     <row r="246" spans="2:13" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B246" s="18"/>
-      <c r="C246" s="273" t="s">
+      <c r="C246" s="168" t="s">
         <v>269</v>
       </c>
-      <c r="D246" s="273"/>
-      <c r="E246" s="273"/>
-      <c r="F246" s="273"/>
-      <c r="G246" s="273"/>
-      <c r="H246" s="273"/>
-      <c r="I246" s="273"/>
-      <c r="J246" s="273"/>
-      <c r="K246" s="273"/>
-      <c r="L246" s="273"/>
-      <c r="M246" s="273"/>
+      <c r="D246" s="168"/>
+      <c r="E246" s="168"/>
+      <c r="F246" s="168"/>
+      <c r="G246" s="168"/>
+      <c r="H246" s="168"/>
+      <c r="I246" s="168"/>
+      <c r="J246" s="168"/>
+      <c r="K246" s="168"/>
+      <c r="L246" s="168"/>
+      <c r="M246" s="168"/>
     </row>
     <row r="247" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B247" s="18"/>
-      <c r="C247" s="273" t="s">
+      <c r="C247" s="168" t="s">
         <v>133</v>
       </c>
-      <c r="D247" s="273"/>
-      <c r="E247" s="273"/>
-      <c r="F247" s="273"/>
-      <c r="G247" s="273"/>
-      <c r="H247" s="273"/>
-      <c r="I247" s="273"/>
-      <c r="J247" s="273"/>
-      <c r="K247" s="273"/>
-      <c r="L247" s="273"/>
-      <c r="M247" s="273"/>
+      <c r="D247" s="168"/>
+      <c r="E247" s="168"/>
+      <c r="F247" s="168"/>
+      <c r="G247" s="168"/>
+      <c r="H247" s="168"/>
+      <c r="I247" s="168"/>
+      <c r="J247" s="168"/>
+      <c r="K247" s="168"/>
+      <c r="L247" s="168"/>
+      <c r="M247" s="168"/>
     </row>
     <row r="248" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B248" s="18"/>
@@ -6733,83 +6733,83 @@
     </row>
     <row r="261" spans="2:15" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B261" s="18"/>
-      <c r="C261" s="230" t="s">
+      <c r="C261" s="182" t="s">
         <v>304</v>
       </c>
-      <c r="D261" s="231"/>
-      <c r="E261" s="231"/>
-      <c r="F261" s="231"/>
-      <c r="G261" s="231"/>
-      <c r="H261" s="231"/>
-      <c r="I261" s="231"/>
-      <c r="J261" s="231"/>
-      <c r="K261" s="231"/>
-      <c r="L261" s="231"/>
-      <c r="M261" s="232"/>
+      <c r="D261" s="183"/>
+      <c r="E261" s="183"/>
+      <c r="F261" s="183"/>
+      <c r="G261" s="183"/>
+      <c r="H261" s="183"/>
+      <c r="I261" s="183"/>
+      <c r="J261" s="183"/>
+      <c r="K261" s="183"/>
+      <c r="L261" s="183"/>
+      <c r="M261" s="184"/>
       <c r="N261" s="34"/>
       <c r="O261" s="2"/>
     </row>
     <row r="262" spans="2:15" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B262" s="18"/>
-      <c r="C262" s="233"/>
-      <c r="D262" s="234"/>
-      <c r="E262" s="234"/>
-      <c r="F262" s="234"/>
-      <c r="G262" s="234"/>
-      <c r="H262" s="234"/>
-      <c r="I262" s="234"/>
-      <c r="J262" s="234"/>
-      <c r="K262" s="234"/>
-      <c r="L262" s="234"/>
-      <c r="M262" s="235"/>
+      <c r="C262" s="185"/>
+      <c r="D262" s="186"/>
+      <c r="E262" s="186"/>
+      <c r="F262" s="186"/>
+      <c r="G262" s="186"/>
+      <c r="H262" s="186"/>
+      <c r="I262" s="186"/>
+      <c r="J262" s="186"/>
+      <c r="K262" s="186"/>
+      <c r="L262" s="186"/>
+      <c r="M262" s="187"/>
       <c r="N262" s="60"/>
       <c r="O262" s="2"/>
     </row>
     <row r="263" spans="2:15" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B263" s="18"/>
-      <c r="C263" s="233"/>
-      <c r="D263" s="234"/>
-      <c r="E263" s="234"/>
-      <c r="F263" s="234"/>
-      <c r="G263" s="234"/>
-      <c r="H263" s="234"/>
-      <c r="I263" s="234"/>
-      <c r="J263" s="234"/>
-      <c r="K263" s="234"/>
-      <c r="L263" s="234"/>
-      <c r="M263" s="235"/>
+      <c r="C263" s="185"/>
+      <c r="D263" s="186"/>
+      <c r="E263" s="186"/>
+      <c r="F263" s="186"/>
+      <c r="G263" s="186"/>
+      <c r="H263" s="186"/>
+      <c r="I263" s="186"/>
+      <c r="J263" s="186"/>
+      <c r="K263" s="186"/>
+      <c r="L263" s="186"/>
+      <c r="M263" s="187"/>
       <c r="N263" s="60"/>
       <c r="O263" s="2"/>
     </row>
     <row r="264" spans="2:15" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B264" s="18"/>
-      <c r="C264" s="233"/>
-      <c r="D264" s="234"/>
-      <c r="E264" s="234"/>
-      <c r="F264" s="234"/>
-      <c r="G264" s="234"/>
-      <c r="H264" s="234"/>
-      <c r="I264" s="234"/>
-      <c r="J264" s="234"/>
-      <c r="K264" s="234"/>
-      <c r="L264" s="234"/>
-      <c r="M264" s="235"/>
+      <c r="C264" s="185"/>
+      <c r="D264" s="186"/>
+      <c r="E264" s="186"/>
+      <c r="F264" s="186"/>
+      <c r="G264" s="186"/>
+      <c r="H264" s="186"/>
+      <c r="I264" s="186"/>
+      <c r="J264" s="186"/>
+      <c r="K264" s="186"/>
+      <c r="L264" s="186"/>
+      <c r="M264" s="187"/>
       <c r="N264" s="60"/>
       <c r="O264" s="2"/>
     </row>
     <row r="265" spans="2:15" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B265" s="18"/>
-      <c r="C265" s="236"/>
-      <c r="D265" s="237"/>
-      <c r="E265" s="237"/>
-      <c r="F265" s="237"/>
-      <c r="G265" s="237"/>
-      <c r="H265" s="237"/>
-      <c r="I265" s="237"/>
-      <c r="J265" s="237"/>
-      <c r="K265" s="237"/>
-      <c r="L265" s="237"/>
-      <c r="M265" s="238"/>
+      <c r="C265" s="188"/>
+      <c r="D265" s="189"/>
+      <c r="E265" s="189"/>
+      <c r="F265" s="189"/>
+      <c r="G265" s="189"/>
+      <c r="H265" s="189"/>
+      <c r="I265" s="189"/>
+      <c r="J265" s="189"/>
+      <c r="K265" s="189"/>
+      <c r="L265" s="189"/>
+      <c r="M265" s="190"/>
       <c r="N265" s="60"/>
       <c r="O265" s="2"/>
     </row>
@@ -6865,28 +6865,28 @@
     </row>
     <row r="269" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B269" s="18"/>
-      <c r="C269" s="183" t="s">
+      <c r="C269" s="169" t="s">
         <v>253</v>
       </c>
-      <c r="D269" s="183"/>
-      <c r="E269" s="179" t="s">
+      <c r="D269" s="169"/>
+      <c r="E269" s="192" t="s">
         <v>141</v>
       </c>
-      <c r="F269" s="180"/>
-      <c r="G269" s="180"/>
-      <c r="H269" s="180"/>
-      <c r="I269" s="180"/>
-      <c r="J269" s="180"/>
-      <c r="K269" s="180"/>
-      <c r="L269" s="180"/>
-      <c r="M269" s="181"/>
+      <c r="F269" s="193"/>
+      <c r="G269" s="193"/>
+      <c r="H269" s="193"/>
+      <c r="I269" s="193"/>
+      <c r="J269" s="193"/>
+      <c r="K269" s="193"/>
+      <c r="L269" s="193"/>
+      <c r="M269" s="194"/>
       <c r="N269" s="34"/>
       <c r="O269" s="2"/>
     </row>
     <row r="270" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B270" s="18"/>
-      <c r="C270" s="272"/>
-      <c r="D270" s="272"/>
+      <c r="C270" s="167"/>
+      <c r="D270" s="167"/>
       <c r="E270" s="71"/>
       <c r="F270" s="73"/>
       <c r="G270" s="73"/>
@@ -6901,8 +6901,8 @@
     </row>
     <row r="271" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B271" s="18"/>
-      <c r="C271" s="272"/>
-      <c r="D271" s="272"/>
+      <c r="C271" s="167"/>
+      <c r="D271" s="167"/>
       <c r="E271" s="71"/>
       <c r="F271" s="73"/>
       <c r="G271" s="73"/>
@@ -6917,8 +6917,8 @@
     </row>
     <row r="272" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B272" s="18"/>
-      <c r="C272" s="272"/>
-      <c r="D272" s="272"/>
+      <c r="C272" s="167"/>
+      <c r="D272" s="167"/>
       <c r="E272" s="71"/>
       <c r="F272" s="73"/>
       <c r="G272" s="73"/>
@@ -6933,8 +6933,8 @@
     </row>
     <row r="273" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B273" s="18"/>
-      <c r="C273" s="272"/>
-      <c r="D273" s="272"/>
+      <c r="C273" s="167"/>
+      <c r="D273" s="167"/>
       <c r="E273" s="71"/>
       <c r="F273" s="73"/>
       <c r="G273" s="73"/>
@@ -6999,83 +6999,83 @@
     </row>
     <row r="277" spans="2:15" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B277" s="18"/>
-      <c r="C277" s="277" t="s">
+      <c r="C277" s="191" t="s">
         <v>302</v>
       </c>
-      <c r="D277" s="277"/>
-      <c r="E277" s="277"/>
-      <c r="F277" s="277"/>
-      <c r="G277" s="277"/>
-      <c r="H277" s="277"/>
-      <c r="I277" s="277"/>
-      <c r="J277" s="277"/>
-      <c r="K277" s="277"/>
-      <c r="L277" s="277"/>
-      <c r="M277" s="277"/>
+      <c r="D277" s="191"/>
+      <c r="E277" s="191"/>
+      <c r="F277" s="191"/>
+      <c r="G277" s="191"/>
+      <c r="H277" s="191"/>
+      <c r="I277" s="191"/>
+      <c r="J277" s="191"/>
+      <c r="K277" s="191"/>
+      <c r="L277" s="191"/>
+      <c r="M277" s="191"/>
       <c r="N277" s="34"/>
       <c r="O277" s="2"/>
     </row>
     <row r="278" spans="2:15" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B278" s="18"/>
-      <c r="C278" s="277"/>
-      <c r="D278" s="277"/>
-      <c r="E278" s="277"/>
-      <c r="F278" s="277"/>
-      <c r="G278" s="277"/>
-      <c r="H278" s="277"/>
-      <c r="I278" s="277"/>
-      <c r="J278" s="277"/>
-      <c r="K278" s="277"/>
-      <c r="L278" s="277"/>
-      <c r="M278" s="277"/>
+      <c r="C278" s="191"/>
+      <c r="D278" s="191"/>
+      <c r="E278" s="191"/>
+      <c r="F278" s="191"/>
+      <c r="G278" s="191"/>
+      <c r="H278" s="191"/>
+      <c r="I278" s="191"/>
+      <c r="J278" s="191"/>
+      <c r="K278" s="191"/>
+      <c r="L278" s="191"/>
+      <c r="M278" s="191"/>
       <c r="N278" s="60"/>
       <c r="O278" s="2"/>
     </row>
     <row r="279" spans="2:15" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B279" s="18"/>
-      <c r="C279" s="277"/>
-      <c r="D279" s="277"/>
-      <c r="E279" s="277"/>
-      <c r="F279" s="277"/>
-      <c r="G279" s="277"/>
-      <c r="H279" s="277"/>
-      <c r="I279" s="277"/>
-      <c r="J279" s="277"/>
-      <c r="K279" s="277"/>
-      <c r="L279" s="277"/>
-      <c r="M279" s="277"/>
+      <c r="C279" s="191"/>
+      <c r="D279" s="191"/>
+      <c r="E279" s="191"/>
+      <c r="F279" s="191"/>
+      <c r="G279" s="191"/>
+      <c r="H279" s="191"/>
+      <c r="I279" s="191"/>
+      <c r="J279" s="191"/>
+      <c r="K279" s="191"/>
+      <c r="L279" s="191"/>
+      <c r="M279" s="191"/>
       <c r="N279" s="60"/>
       <c r="O279" s="2"/>
     </row>
     <row r="280" spans="2:15" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B280" s="18"/>
-      <c r="C280" s="277"/>
-      <c r="D280" s="277"/>
-      <c r="E280" s="277"/>
-      <c r="F280" s="277"/>
-      <c r="G280" s="277"/>
-      <c r="H280" s="277"/>
-      <c r="I280" s="277"/>
-      <c r="J280" s="277"/>
-      <c r="K280" s="277"/>
-      <c r="L280" s="277"/>
-      <c r="M280" s="277"/>
+      <c r="C280" s="191"/>
+      <c r="D280" s="191"/>
+      <c r="E280" s="191"/>
+      <c r="F280" s="191"/>
+      <c r="G280" s="191"/>
+      <c r="H280" s="191"/>
+      <c r="I280" s="191"/>
+      <c r="J280" s="191"/>
+      <c r="K280" s="191"/>
+      <c r="L280" s="191"/>
+      <c r="M280" s="191"/>
       <c r="N280" s="60"/>
       <c r="O280" s="2"/>
     </row>
     <row r="281" spans="2:15" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B281" s="18"/>
-      <c r="C281" s="277"/>
-      <c r="D281" s="277"/>
-      <c r="E281" s="277"/>
-      <c r="F281" s="277"/>
-      <c r="G281" s="277"/>
-      <c r="H281" s="277"/>
-      <c r="I281" s="277"/>
-      <c r="J281" s="277"/>
-      <c r="K281" s="277"/>
-      <c r="L281" s="277"/>
-      <c r="M281" s="277"/>
+      <c r="C281" s="191"/>
+      <c r="D281" s="191"/>
+      <c r="E281" s="191"/>
+      <c r="F281" s="191"/>
+      <c r="G281" s="191"/>
+      <c r="H281" s="191"/>
+      <c r="I281" s="191"/>
+      <c r="J281" s="191"/>
+      <c r="K281" s="191"/>
+      <c r="L281" s="191"/>
+      <c r="M281" s="191"/>
       <c r="N281" s="60"/>
       <c r="O281" s="2"/>
     </row>
@@ -7131,12 +7131,12 @@
     </row>
     <row r="285" spans="2:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B285" s="18"/>
-      <c r="C285" s="217" t="s">
+      <c r="C285" s="165" t="s">
         <v>144</v>
       </c>
-      <c r="D285" s="217"/>
-      <c r="E285" s="217"/>
-      <c r="F285" s="252"/>
+      <c r="D285" s="165"/>
+      <c r="E285" s="165"/>
+      <c r="F285" s="166"/>
       <c r="G285" s="106"/>
       <c r="H285" s="25"/>
       <c r="I285" s="25"/>
@@ -7147,10 +7147,10 @@
     </row>
     <row r="286" spans="2:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B286" s="18"/>
-      <c r="C286" s="217"/>
-      <c r="D286" s="217"/>
-      <c r="E286" s="217"/>
-      <c r="F286" s="217"/>
+      <c r="C286" s="165"/>
+      <c r="D286" s="165"/>
+      <c r="E286" s="165"/>
+      <c r="F286" s="165"/>
       <c r="G286" s="13"/>
       <c r="H286" s="25"/>
       <c r="I286" s="25"/>
@@ -7161,12 +7161,12 @@
     </row>
     <row r="287" spans="2:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B287" s="18"/>
-      <c r="C287" s="217" t="s">
+      <c r="C287" s="165" t="s">
         <v>145</v>
       </c>
-      <c r="D287" s="217"/>
-      <c r="E287" s="217"/>
-      <c r="F287" s="252"/>
+      <c r="D287" s="165"/>
+      <c r="E287" s="165"/>
+      <c r="F287" s="166"/>
       <c r="G287" s="106"/>
       <c r="H287" s="18" t="s">
         <v>146</v>
@@ -7179,10 +7179,10 @@
     </row>
     <row r="288" spans="2:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B288" s="18"/>
-      <c r="C288" s="217"/>
-      <c r="D288" s="217"/>
-      <c r="E288" s="217"/>
-      <c r="F288" s="217"/>
+      <c r="C288" s="165"/>
+      <c r="D288" s="165"/>
+      <c r="E288" s="165"/>
+      <c r="F288" s="165"/>
       <c r="G288" s="13"/>
       <c r="H288" s="25"/>
       <c r="I288" s="25"/>
@@ -7193,12 +7193,12 @@
     </row>
     <row r="289" spans="2:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B289" s="18"/>
-      <c r="C289" s="217" t="s">
+      <c r="C289" s="165" t="s">
         <v>147</v>
       </c>
-      <c r="D289" s="217"/>
-      <c r="E289" s="217"/>
-      <c r="F289" s="252"/>
+      <c r="D289" s="165"/>
+      <c r="E289" s="165"/>
+      <c r="F289" s="166"/>
       <c r="G289" s="106"/>
       <c r="H289" s="25"/>
       <c r="I289" s="25"/>
@@ -7223,12 +7223,12 @@
     </row>
     <row r="291" spans="2:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B291" s="18"/>
-      <c r="C291" s="217" t="s">
+      <c r="C291" s="165" t="s">
         <v>148</v>
       </c>
-      <c r="D291" s="217"/>
-      <c r="E291" s="217"/>
-      <c r="F291" s="252"/>
+      <c r="D291" s="165"/>
+      <c r="E291" s="165"/>
+      <c r="F291" s="166"/>
       <c r="G291" s="106"/>
       <c r="H291" s="25"/>
       <c r="I291" s="25"/>
@@ -7253,12 +7253,12 @@
     </row>
     <row r="293" spans="2:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B293" s="18"/>
-      <c r="C293" s="217" t="s">
+      <c r="C293" s="165" t="s">
         <v>149</v>
       </c>
-      <c r="D293" s="217"/>
-      <c r="E293" s="217"/>
-      <c r="F293" s="252"/>
+      <c r="D293" s="165"/>
+      <c r="E293" s="165"/>
+      <c r="F293" s="166"/>
       <c r="G293" s="106"/>
       <c r="H293" s="25"/>
       <c r="I293" s="25"/>
@@ -7361,82 +7361,82 @@
     </row>
     <row r="300" spans="2:15" ht="6.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B300" s="18"/>
-      <c r="C300" s="230" t="s">
+      <c r="C300" s="182" t="s">
         <v>305</v>
       </c>
-      <c r="D300" s="231"/>
-      <c r="E300" s="231"/>
-      <c r="F300" s="231"/>
-      <c r="G300" s="231"/>
-      <c r="H300" s="231"/>
-      <c r="I300" s="231"/>
-      <c r="J300" s="231"/>
-      <c r="K300" s="231"/>
-      <c r="L300" s="231"/>
-      <c r="M300" s="232"/>
+      <c r="D300" s="183"/>
+      <c r="E300" s="183"/>
+      <c r="F300" s="183"/>
+      <c r="G300" s="183"/>
+      <c r="H300" s="183"/>
+      <c r="I300" s="183"/>
+      <c r="J300" s="183"/>
+      <c r="K300" s="183"/>
+      <c r="L300" s="183"/>
+      <c r="M300" s="184"/>
       <c r="N300" s="21"/>
     </row>
     <row r="301" spans="2:15" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B301" s="18"/>
-      <c r="C301" s="233"/>
-      <c r="D301" s="234"/>
-      <c r="E301" s="234"/>
-      <c r="F301" s="234"/>
-      <c r="G301" s="234"/>
-      <c r="H301" s="234"/>
-      <c r="I301" s="234"/>
-      <c r="J301" s="234"/>
-      <c r="K301" s="234"/>
-      <c r="L301" s="234"/>
-      <c r="M301" s="235"/>
+      <c r="C301" s="185"/>
+      <c r="D301" s="186"/>
+      <c r="E301" s="186"/>
+      <c r="F301" s="186"/>
+      <c r="G301" s="186"/>
+      <c r="H301" s="186"/>
+      <c r="I301" s="186"/>
+      <c r="J301" s="186"/>
+      <c r="K301" s="186"/>
+      <c r="L301" s="186"/>
+      <c r="M301" s="187"/>
       <c r="N301" s="60"/>
       <c r="O301" s="2"/>
     </row>
     <row r="302" spans="2:15" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B302" s="18"/>
-      <c r="C302" s="233"/>
-      <c r="D302" s="234"/>
-      <c r="E302" s="234"/>
-      <c r="F302" s="234"/>
-      <c r="G302" s="234"/>
-      <c r="H302" s="234"/>
-      <c r="I302" s="234"/>
-      <c r="J302" s="234"/>
-      <c r="K302" s="234"/>
-      <c r="L302" s="234"/>
-      <c r="M302" s="235"/>
+      <c r="C302" s="185"/>
+      <c r="D302" s="186"/>
+      <c r="E302" s="186"/>
+      <c r="F302" s="186"/>
+      <c r="G302" s="186"/>
+      <c r="H302" s="186"/>
+      <c r="I302" s="186"/>
+      <c r="J302" s="186"/>
+      <c r="K302" s="186"/>
+      <c r="L302" s="186"/>
+      <c r="M302" s="187"/>
       <c r="N302" s="60"/>
       <c r="O302" s="2"/>
     </row>
     <row r="303" spans="2:15" ht="30.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B303" s="18"/>
-      <c r="C303" s="233"/>
-      <c r="D303" s="234"/>
-      <c r="E303" s="234"/>
-      <c r="F303" s="234"/>
-      <c r="G303" s="234"/>
-      <c r="H303" s="234"/>
-      <c r="I303" s="234"/>
-      <c r="J303" s="234"/>
-      <c r="K303" s="234"/>
-      <c r="L303" s="234"/>
-      <c r="M303" s="235"/>
+      <c r="C303" s="185"/>
+      <c r="D303" s="186"/>
+      <c r="E303" s="186"/>
+      <c r="F303" s="186"/>
+      <c r="G303" s="186"/>
+      <c r="H303" s="186"/>
+      <c r="I303" s="186"/>
+      <c r="J303" s="186"/>
+      <c r="K303" s="186"/>
+      <c r="L303" s="186"/>
+      <c r="M303" s="187"/>
       <c r="N303" s="60"/>
       <c r="O303" s="2"/>
     </row>
     <row r="304" spans="2:15" ht="119.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B304" s="18"/>
-      <c r="C304" s="236"/>
-      <c r="D304" s="237"/>
-      <c r="E304" s="237"/>
-      <c r="F304" s="237"/>
-      <c r="G304" s="237"/>
-      <c r="H304" s="237"/>
-      <c r="I304" s="237"/>
-      <c r="J304" s="237"/>
-      <c r="K304" s="237"/>
-      <c r="L304" s="237"/>
-      <c r="M304" s="238"/>
+      <c r="C304" s="188"/>
+      <c r="D304" s="189"/>
+      <c r="E304" s="189"/>
+      <c r="F304" s="189"/>
+      <c r="G304" s="189"/>
+      <c r="H304" s="189"/>
+      <c r="I304" s="189"/>
+      <c r="J304" s="189"/>
+      <c r="K304" s="189"/>
+      <c r="L304" s="189"/>
+      <c r="M304" s="190"/>
       <c r="N304" s="60"/>
       <c r="O304" s="2"/>
     </row>
@@ -7475,83 +7475,83 @@
     </row>
     <row r="307" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B307" s="18"/>
-      <c r="C307" s="230" t="s">
+      <c r="C307" s="182" t="s">
         <v>293</v>
       </c>
-      <c r="D307" s="231"/>
-      <c r="E307" s="231"/>
-      <c r="F307" s="231"/>
-      <c r="G307" s="231"/>
-      <c r="H307" s="231"/>
-      <c r="I307" s="231"/>
-      <c r="J307" s="231"/>
-      <c r="K307" s="231"/>
-      <c r="L307" s="231"/>
-      <c r="M307" s="232"/>
+      <c r="D307" s="183"/>
+      <c r="E307" s="183"/>
+      <c r="F307" s="183"/>
+      <c r="G307" s="183"/>
+      <c r="H307" s="183"/>
+      <c r="I307" s="183"/>
+      <c r="J307" s="183"/>
+      <c r="K307" s="183"/>
+      <c r="L307" s="183"/>
+      <c r="M307" s="184"/>
       <c r="N307" s="34"/>
       <c r="O307" s="2"/>
     </row>
     <row r="308" spans="2:15" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B308" s="18"/>
-      <c r="C308" s="233"/>
-      <c r="D308" s="234"/>
-      <c r="E308" s="234"/>
-      <c r="F308" s="234"/>
-      <c r="G308" s="234"/>
-      <c r="H308" s="234"/>
-      <c r="I308" s="234"/>
-      <c r="J308" s="234"/>
-      <c r="K308" s="234"/>
-      <c r="L308" s="234"/>
-      <c r="M308" s="235"/>
+      <c r="C308" s="185"/>
+      <c r="D308" s="186"/>
+      <c r="E308" s="186"/>
+      <c r="F308" s="186"/>
+      <c r="G308" s="186"/>
+      <c r="H308" s="186"/>
+      <c r="I308" s="186"/>
+      <c r="J308" s="186"/>
+      <c r="K308" s="186"/>
+      <c r="L308" s="186"/>
+      <c r="M308" s="187"/>
       <c r="N308" s="60"/>
       <c r="O308" s="2"/>
     </row>
     <row r="309" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B309" s="18"/>
-      <c r="C309" s="233"/>
-      <c r="D309" s="234"/>
-      <c r="E309" s="234"/>
-      <c r="F309" s="234"/>
-      <c r="G309" s="234"/>
-      <c r="H309" s="234"/>
-      <c r="I309" s="234"/>
-      <c r="J309" s="234"/>
-      <c r="K309" s="234"/>
-      <c r="L309" s="234"/>
-      <c r="M309" s="235"/>
+      <c r="C309" s="185"/>
+      <c r="D309" s="186"/>
+      <c r="E309" s="186"/>
+      <c r="F309" s="186"/>
+      <c r="G309" s="186"/>
+      <c r="H309" s="186"/>
+      <c r="I309" s="186"/>
+      <c r="J309" s="186"/>
+      <c r="K309" s="186"/>
+      <c r="L309" s="186"/>
+      <c r="M309" s="187"/>
       <c r="N309" s="60"/>
       <c r="O309" s="2"/>
     </row>
     <row r="310" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B310" s="18"/>
-      <c r="C310" s="233"/>
-      <c r="D310" s="234"/>
-      <c r="E310" s="234"/>
-      <c r="F310" s="234"/>
-      <c r="G310" s="234"/>
-      <c r="H310" s="234"/>
-      <c r="I310" s="234"/>
-      <c r="J310" s="234"/>
-      <c r="K310" s="234"/>
-      <c r="L310" s="234"/>
-      <c r="M310" s="235"/>
+      <c r="C310" s="185"/>
+      <c r="D310" s="186"/>
+      <c r="E310" s="186"/>
+      <c r="F310" s="186"/>
+      <c r="G310" s="186"/>
+      <c r="H310" s="186"/>
+      <c r="I310" s="186"/>
+      <c r="J310" s="186"/>
+      <c r="K310" s="186"/>
+      <c r="L310" s="186"/>
+      <c r="M310" s="187"/>
       <c r="N310" s="60"/>
       <c r="O310" s="2"/>
     </row>
     <row r="311" spans="2:15" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B311" s="18"/>
-      <c r="C311" s="236"/>
-      <c r="D311" s="237"/>
-      <c r="E311" s="237"/>
-      <c r="F311" s="237"/>
-      <c r="G311" s="237"/>
-      <c r="H311" s="237"/>
-      <c r="I311" s="237"/>
-      <c r="J311" s="237"/>
-      <c r="K311" s="237"/>
-      <c r="L311" s="237"/>
-      <c r="M311" s="238"/>
+      <c r="C311" s="188"/>
+      <c r="D311" s="189"/>
+      <c r="E311" s="189"/>
+      <c r="F311" s="189"/>
+      <c r="G311" s="189"/>
+      <c r="H311" s="189"/>
+      <c r="I311" s="189"/>
+      <c r="J311" s="189"/>
+      <c r="K311" s="189"/>
+      <c r="L311" s="189"/>
+      <c r="M311" s="190"/>
       <c r="N311" s="60"/>
       <c r="O311" s="2"/>
     </row>
@@ -7731,83 +7731,83 @@
     </row>
     <row r="322" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B322" s="18"/>
-      <c r="C322" s="230" t="s">
+      <c r="C322" s="182" t="s">
         <v>294</v>
       </c>
-      <c r="D322" s="231"/>
-      <c r="E322" s="231"/>
-      <c r="F322" s="231"/>
-      <c r="G322" s="231"/>
-      <c r="H322" s="231"/>
-      <c r="I322" s="231"/>
-      <c r="J322" s="231"/>
-      <c r="K322" s="231"/>
-      <c r="L322" s="231"/>
-      <c r="M322" s="232"/>
+      <c r="D322" s="183"/>
+      <c r="E322" s="183"/>
+      <c r="F322" s="183"/>
+      <c r="G322" s="183"/>
+      <c r="H322" s="183"/>
+      <c r="I322" s="183"/>
+      <c r="J322" s="183"/>
+      <c r="K322" s="183"/>
+      <c r="L322" s="183"/>
+      <c r="M322" s="184"/>
       <c r="N322" s="34"/>
       <c r="O322" s="2"/>
     </row>
     <row r="323" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B323" s="18"/>
-      <c r="C323" s="233"/>
-      <c r="D323" s="234"/>
-      <c r="E323" s="234"/>
-      <c r="F323" s="234"/>
-      <c r="G323" s="234"/>
-      <c r="H323" s="234"/>
-      <c r="I323" s="234"/>
-      <c r="J323" s="234"/>
-      <c r="K323" s="234"/>
-      <c r="L323" s="234"/>
-      <c r="M323" s="235"/>
+      <c r="C323" s="185"/>
+      <c r="D323" s="186"/>
+      <c r="E323" s="186"/>
+      <c r="F323" s="186"/>
+      <c r="G323" s="186"/>
+      <c r="H323" s="186"/>
+      <c r="I323" s="186"/>
+      <c r="J323" s="186"/>
+      <c r="K323" s="186"/>
+      <c r="L323" s="186"/>
+      <c r="M323" s="187"/>
       <c r="N323" s="60"/>
       <c r="O323" s="2"/>
     </row>
     <row r="324" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B324" s="18"/>
-      <c r="C324" s="233"/>
-      <c r="D324" s="234"/>
-      <c r="E324" s="234"/>
-      <c r="F324" s="234"/>
-      <c r="G324" s="234"/>
-      <c r="H324" s="234"/>
-      <c r="I324" s="234"/>
-      <c r="J324" s="234"/>
-      <c r="K324" s="234"/>
-      <c r="L324" s="234"/>
-      <c r="M324" s="235"/>
+      <c r="C324" s="185"/>
+      <c r="D324" s="186"/>
+      <c r="E324" s="186"/>
+      <c r="F324" s="186"/>
+      <c r="G324" s="186"/>
+      <c r="H324" s="186"/>
+      <c r="I324" s="186"/>
+      <c r="J324" s="186"/>
+      <c r="K324" s="186"/>
+      <c r="L324" s="186"/>
+      <c r="M324" s="187"/>
       <c r="N324" s="60"/>
       <c r="O324" s="2"/>
     </row>
     <row r="325" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B325" s="18"/>
-      <c r="C325" s="233"/>
-      <c r="D325" s="234"/>
-      <c r="E325" s="234"/>
-      <c r="F325" s="234"/>
-      <c r="G325" s="234"/>
-      <c r="H325" s="234"/>
-      <c r="I325" s="234"/>
-      <c r="J325" s="234"/>
-      <c r="K325" s="234"/>
-      <c r="L325" s="234"/>
-      <c r="M325" s="235"/>
+      <c r="C325" s="185"/>
+      <c r="D325" s="186"/>
+      <c r="E325" s="186"/>
+      <c r="F325" s="186"/>
+      <c r="G325" s="186"/>
+      <c r="H325" s="186"/>
+      <c r="I325" s="186"/>
+      <c r="J325" s="186"/>
+      <c r="K325" s="186"/>
+      <c r="L325" s="186"/>
+      <c r="M325" s="187"/>
       <c r="N325" s="60"/>
       <c r="O325" s="2"/>
     </row>
     <row r="326" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B326" s="18"/>
-      <c r="C326" s="236"/>
-      <c r="D326" s="237"/>
-      <c r="E326" s="237"/>
-      <c r="F326" s="237"/>
-      <c r="G326" s="237"/>
-      <c r="H326" s="237"/>
-      <c r="I326" s="237"/>
-      <c r="J326" s="237"/>
-      <c r="K326" s="237"/>
-      <c r="L326" s="237"/>
-      <c r="M326" s="238"/>
+      <c r="C326" s="188"/>
+      <c r="D326" s="189"/>
+      <c r="E326" s="189"/>
+      <c r="F326" s="189"/>
+      <c r="G326" s="189"/>
+      <c r="H326" s="189"/>
+      <c r="I326" s="189"/>
+      <c r="J326" s="189"/>
+      <c r="K326" s="189"/>
+      <c r="L326" s="189"/>
+      <c r="M326" s="190"/>
       <c r="N326" s="60"/>
       <c r="O326" s="2"/>
     </row>
@@ -7829,19 +7829,19 @@
     </row>
     <row r="328" spans="2:15" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B328" s="18"/>
-      <c r="C328" s="255" t="s">
+      <c r="C328" s="210" t="s">
         <v>156</v>
       </c>
-      <c r="D328" s="255"/>
-      <c r="E328" s="255"/>
-      <c r="F328" s="255"/>
-      <c r="G328" s="255"/>
-      <c r="H328" s="255"/>
-      <c r="I328" s="255"/>
-      <c r="J328" s="255"/>
-      <c r="K328" s="255"/>
-      <c r="L328" s="255"/>
-      <c r="M328" s="255"/>
+      <c r="D328" s="210"/>
+      <c r="E328" s="210"/>
+      <c r="F328" s="210"/>
+      <c r="G328" s="210"/>
+      <c r="H328" s="210"/>
+      <c r="I328" s="210"/>
+      <c r="J328" s="210"/>
+      <c r="K328" s="210"/>
+      <c r="L328" s="210"/>
+      <c r="M328" s="210"/>
       <c r="N328" s="20"/>
       <c r="O328" s="2"/>
     </row>
@@ -7956,79 +7956,79 @@
     </row>
     <row r="336" spans="2:15" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B336" s="18"/>
-      <c r="C336" s="256" t="s">
+      <c r="C336" s="173" t="s">
         <v>252</v>
       </c>
-      <c r="D336" s="257"/>
-      <c r="E336" s="257"/>
-      <c r="F336" s="257"/>
-      <c r="G336" s="257"/>
-      <c r="H336" s="257"/>
-      <c r="I336" s="257"/>
-      <c r="J336" s="257"/>
-      <c r="K336" s="257"/>
-      <c r="L336" s="257"/>
-      <c r="M336" s="258"/>
+      <c r="D336" s="174"/>
+      <c r="E336" s="174"/>
+      <c r="F336" s="174"/>
+      <c r="G336" s="174"/>
+      <c r="H336" s="174"/>
+      <c r="I336" s="174"/>
+      <c r="J336" s="174"/>
+      <c r="K336" s="174"/>
+      <c r="L336" s="174"/>
+      <c r="M336" s="175"/>
       <c r="N336" s="34"/>
     </row>
     <row r="337" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B337" s="18"/>
-      <c r="C337" s="259"/>
-      <c r="D337" s="260"/>
-      <c r="E337" s="260"/>
-      <c r="F337" s="260"/>
-      <c r="G337" s="260"/>
-      <c r="H337" s="260"/>
-      <c r="I337" s="260"/>
-      <c r="J337" s="260"/>
-      <c r="K337" s="260"/>
-      <c r="L337" s="260"/>
-      <c r="M337" s="261"/>
+      <c r="C337" s="176"/>
+      <c r="D337" s="177"/>
+      <c r="E337" s="177"/>
+      <c r="F337" s="177"/>
+      <c r="G337" s="177"/>
+      <c r="H337" s="177"/>
+      <c r="I337" s="177"/>
+      <c r="J337" s="177"/>
+      <c r="K337" s="177"/>
+      <c r="L337" s="177"/>
+      <c r="M337" s="178"/>
       <c r="N337" s="60"/>
     </row>
     <row r="338" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B338" s="18"/>
-      <c r="C338" s="259"/>
-      <c r="D338" s="260"/>
-      <c r="E338" s="260"/>
-      <c r="F338" s="260"/>
-      <c r="G338" s="260"/>
-      <c r="H338" s="260"/>
-      <c r="I338" s="260"/>
-      <c r="J338" s="260"/>
-      <c r="K338" s="260"/>
-      <c r="L338" s="260"/>
-      <c r="M338" s="261"/>
+      <c r="C338" s="176"/>
+      <c r="D338" s="177"/>
+      <c r="E338" s="177"/>
+      <c r="F338" s="177"/>
+      <c r="G338" s="177"/>
+      <c r="H338" s="177"/>
+      <c r="I338" s="177"/>
+      <c r="J338" s="177"/>
+      <c r="K338" s="177"/>
+      <c r="L338" s="177"/>
+      <c r="M338" s="178"/>
       <c r="N338" s="60"/>
     </row>
     <row r="339" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B339" s="18"/>
-      <c r="C339" s="259"/>
-      <c r="D339" s="260"/>
-      <c r="E339" s="260"/>
-      <c r="F339" s="260"/>
-      <c r="G339" s="260"/>
-      <c r="H339" s="260"/>
-      <c r="I339" s="260"/>
-      <c r="J339" s="260"/>
-      <c r="K339" s="260"/>
-      <c r="L339" s="260"/>
-      <c r="M339" s="261"/>
+      <c r="C339" s="176"/>
+      <c r="D339" s="177"/>
+      <c r="E339" s="177"/>
+      <c r="F339" s="177"/>
+      <c r="G339" s="177"/>
+      <c r="H339" s="177"/>
+      <c r="I339" s="177"/>
+      <c r="J339" s="177"/>
+      <c r="K339" s="177"/>
+      <c r="L339" s="177"/>
+      <c r="M339" s="178"/>
       <c r="N339" s="60"/>
     </row>
     <row r="340" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B340" s="18"/>
-      <c r="C340" s="262"/>
-      <c r="D340" s="263"/>
-      <c r="E340" s="263"/>
-      <c r="F340" s="263"/>
-      <c r="G340" s="263"/>
-      <c r="H340" s="263"/>
-      <c r="I340" s="263"/>
-      <c r="J340" s="263"/>
-      <c r="K340" s="263"/>
-      <c r="L340" s="263"/>
-      <c r="M340" s="264"/>
+      <c r="C340" s="179"/>
+      <c r="D340" s="180"/>
+      <c r="E340" s="180"/>
+      <c r="F340" s="180"/>
+      <c r="G340" s="180"/>
+      <c r="H340" s="180"/>
+      <c r="I340" s="180"/>
+      <c r="J340" s="180"/>
+      <c r="K340" s="180"/>
+      <c r="L340" s="180"/>
+      <c r="M340" s="181"/>
       <c r="N340" s="60"/>
     </row>
     <row r="341" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -8048,19 +8048,19 @@
     </row>
     <row r="342" spans="2:14" ht="39" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B342" s="18"/>
-      <c r="C342" s="255" t="s">
+      <c r="C342" s="210" t="s">
         <v>251</v>
       </c>
-      <c r="D342" s="255"/>
-      <c r="E342" s="255"/>
-      <c r="F342" s="255"/>
-      <c r="G342" s="255"/>
-      <c r="H342" s="255"/>
-      <c r="I342" s="255"/>
-      <c r="J342" s="255"/>
-      <c r="K342" s="255"/>
-      <c r="L342" s="255"/>
-      <c r="M342" s="255"/>
+      <c r="D342" s="210"/>
+      <c r="E342" s="210"/>
+      <c r="F342" s="210"/>
+      <c r="G342" s="210"/>
+      <c r="H342" s="210"/>
+      <c r="I342" s="210"/>
+      <c r="J342" s="210"/>
+      <c r="K342" s="210"/>
+      <c r="L342" s="210"/>
+      <c r="M342" s="210"/>
       <c r="N342" s="60"/>
     </row>
     <row r="343" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
@@ -8109,12 +8109,12 @@
     </row>
     <row r="346" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B346" s="18"/>
-      <c r="C346" s="254" t="s">
+      <c r="C346" s="207" t="s">
         <v>162</v>
       </c>
-      <c r="D346" s="254"/>
-      <c r="E346" s="254"/>
-      <c r="F346" s="254"/>
+      <c r="D346" s="207"/>
+      <c r="E346" s="207"/>
+      <c r="F346" s="207"/>
       <c r="H346" s="106"/>
       <c r="I346" s="25"/>
       <c r="J346" s="25"/>
@@ -8137,12 +8137,12 @@
     </row>
     <row r="348" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B348" s="18"/>
-      <c r="C348" s="254" t="s">
+      <c r="C348" s="207" t="s">
         <v>163</v>
       </c>
-      <c r="D348" s="254"/>
-      <c r="E348" s="254"/>
-      <c r="F348" s="254"/>
+      <c r="D348" s="207"/>
+      <c r="E348" s="207"/>
+      <c r="F348" s="207"/>
       <c r="H348" s="106"/>
       <c r="I348" s="18" t="s">
         <v>164</v>
@@ -8167,13 +8167,13 @@
     </row>
     <row r="350" spans="2:14" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B350" s="18"/>
-      <c r="C350" s="254" t="s">
+      <c r="C350" s="207" t="s">
         <v>165</v>
       </c>
-      <c r="D350" s="254"/>
-      <c r="E350" s="254"/>
-      <c r="F350" s="254"/>
-      <c r="G350" s="252"/>
+      <c r="D350" s="207"/>
+      <c r="E350" s="207"/>
+      <c r="F350" s="207"/>
+      <c r="G350" s="166"/>
       <c r="H350" s="106"/>
       <c r="I350" s="25"/>
       <c r="J350" s="25"/>
@@ -8196,13 +8196,13 @@
     </row>
     <row r="352" spans="2:14" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B352" s="18"/>
-      <c r="C352" s="254" t="s">
+      <c r="C352" s="207" t="s">
         <v>166</v>
       </c>
-      <c r="D352" s="254"/>
-      <c r="E352" s="254"/>
-      <c r="F352" s="254"/>
-      <c r="G352" s="252"/>
+      <c r="D352" s="207"/>
+      <c r="E352" s="207"/>
+      <c r="F352" s="207"/>
+      <c r="G352" s="166"/>
       <c r="H352" s="106"/>
       <c r="I352" s="25"/>
       <c r="J352" s="25"/>
@@ -8225,13 +8225,13 @@
     </row>
     <row r="354" spans="2:15" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B354" s="18"/>
-      <c r="C354" s="254" t="s">
+      <c r="C354" s="207" t="s">
         <v>167</v>
       </c>
-      <c r="D354" s="254"/>
-      <c r="E354" s="254"/>
-      <c r="F354" s="254"/>
-      <c r="G354" s="252"/>
+      <c r="D354" s="207"/>
+      <c r="E354" s="207"/>
+      <c r="F354" s="207"/>
+      <c r="G354" s="166"/>
       <c r="H354" s="106"/>
       <c r="I354" s="25"/>
       <c r="J354" s="25"/>
@@ -8303,83 +8303,83 @@
     </row>
     <row r="359" spans="2:15" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B359" s="18"/>
-      <c r="C359" s="230" t="s">
+      <c r="C359" s="182" t="s">
         <v>295</v>
       </c>
-      <c r="D359" s="231"/>
-      <c r="E359" s="231"/>
-      <c r="F359" s="231"/>
-      <c r="G359" s="231"/>
-      <c r="H359" s="231"/>
-      <c r="I359" s="231"/>
-      <c r="J359" s="231"/>
-      <c r="K359" s="231"/>
-      <c r="L359" s="231"/>
-      <c r="M359" s="232"/>
+      <c r="D359" s="183"/>
+      <c r="E359" s="183"/>
+      <c r="F359" s="183"/>
+      <c r="G359" s="183"/>
+      <c r="H359" s="183"/>
+      <c r="I359" s="183"/>
+      <c r="J359" s="183"/>
+      <c r="K359" s="183"/>
+      <c r="L359" s="183"/>
+      <c r="M359" s="184"/>
       <c r="N359" s="34"/>
       <c r="O359" s="2"/>
     </row>
     <row r="360" spans="2:15" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B360" s="18"/>
-      <c r="C360" s="233"/>
-      <c r="D360" s="234"/>
-      <c r="E360" s="234"/>
-      <c r="F360" s="234"/>
-      <c r="G360" s="234"/>
-      <c r="H360" s="234"/>
-      <c r="I360" s="234"/>
-      <c r="J360" s="234"/>
-      <c r="K360" s="234"/>
-      <c r="L360" s="234"/>
-      <c r="M360" s="235"/>
+      <c r="C360" s="185"/>
+      <c r="D360" s="186"/>
+      <c r="E360" s="186"/>
+      <c r="F360" s="186"/>
+      <c r="G360" s="186"/>
+      <c r="H360" s="186"/>
+      <c r="I360" s="186"/>
+      <c r="J360" s="186"/>
+      <c r="K360" s="186"/>
+      <c r="L360" s="186"/>
+      <c r="M360" s="187"/>
       <c r="N360" s="60"/>
       <c r="O360" s="2"/>
     </row>
     <row r="361" spans="2:15" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B361" s="18"/>
-      <c r="C361" s="233"/>
-      <c r="D361" s="234"/>
-      <c r="E361" s="234"/>
-      <c r="F361" s="234"/>
-      <c r="G361" s="234"/>
-      <c r="H361" s="234"/>
-      <c r="I361" s="234"/>
-      <c r="J361" s="234"/>
-      <c r="K361" s="234"/>
-      <c r="L361" s="234"/>
-      <c r="M361" s="235"/>
+      <c r="C361" s="185"/>
+      <c r="D361" s="186"/>
+      <c r="E361" s="186"/>
+      <c r="F361" s="186"/>
+      <c r="G361" s="186"/>
+      <c r="H361" s="186"/>
+      <c r="I361" s="186"/>
+      <c r="J361" s="186"/>
+      <c r="K361" s="186"/>
+      <c r="L361" s="186"/>
+      <c r="M361" s="187"/>
       <c r="N361" s="60"/>
       <c r="O361" s="2"/>
     </row>
     <row r="362" spans="2:15" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B362" s="18"/>
-      <c r="C362" s="233"/>
-      <c r="D362" s="234"/>
-      <c r="E362" s="234"/>
-      <c r="F362" s="234"/>
-      <c r="G362" s="234"/>
-      <c r="H362" s="234"/>
-      <c r="I362" s="234"/>
-      <c r="J362" s="234"/>
-      <c r="K362" s="234"/>
-      <c r="L362" s="234"/>
-      <c r="M362" s="235"/>
+      <c r="C362" s="185"/>
+      <c r="D362" s="186"/>
+      <c r="E362" s="186"/>
+      <c r="F362" s="186"/>
+      <c r="G362" s="186"/>
+      <c r="H362" s="186"/>
+      <c r="I362" s="186"/>
+      <c r="J362" s="186"/>
+      <c r="K362" s="186"/>
+      <c r="L362" s="186"/>
+      <c r="M362" s="187"/>
       <c r="N362" s="60"/>
       <c r="O362" s="2"/>
     </row>
     <row r="363" spans="2:15" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B363" s="18"/>
-      <c r="C363" s="236"/>
-      <c r="D363" s="237"/>
-      <c r="E363" s="237"/>
-      <c r="F363" s="237"/>
-      <c r="G363" s="237"/>
-      <c r="H363" s="237"/>
-      <c r="I363" s="237"/>
-      <c r="J363" s="237"/>
-      <c r="K363" s="237"/>
-      <c r="L363" s="237"/>
-      <c r="M363" s="238"/>
+      <c r="C363" s="188"/>
+      <c r="D363" s="189"/>
+      <c r="E363" s="189"/>
+      <c r="F363" s="189"/>
+      <c r="G363" s="189"/>
+      <c r="H363" s="189"/>
+      <c r="I363" s="189"/>
+      <c r="J363" s="189"/>
+      <c r="K363" s="189"/>
+      <c r="L363" s="189"/>
+      <c r="M363" s="190"/>
       <c r="N363" s="60"/>
       <c r="O363" s="2"/>
     </row>
@@ -8454,28 +8454,28 @@
     </row>
     <row r="368" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B368" s="18"/>
-      <c r="C368" s="265" t="s">
+      <c r="C368" s="211" t="s">
         <v>253</v>
       </c>
-      <c r="D368" s="266"/>
-      <c r="E368" s="170" t="s">
+      <c r="D368" s="212"/>
+      <c r="E368" s="208" t="s">
         <v>141</v>
       </c>
-      <c r="F368" s="267"/>
-      <c r="G368" s="267"/>
-      <c r="H368" s="267"/>
-      <c r="I368" s="267"/>
-      <c r="J368" s="267"/>
-      <c r="K368" s="267"/>
-      <c r="L368" s="267"/>
-      <c r="M368" s="171"/>
+      <c r="F368" s="213"/>
+      <c r="G368" s="213"/>
+      <c r="H368" s="213"/>
+      <c r="I368" s="213"/>
+      <c r="J368" s="213"/>
+      <c r="K368" s="213"/>
+      <c r="L368" s="213"/>
+      <c r="M368" s="209"/>
       <c r="N368" s="20"/>
       <c r="O368" s="2"/>
     </row>
     <row r="369" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B369" s="18"/>
-      <c r="C369" s="170"/>
-      <c r="D369" s="171"/>
+      <c r="C369" s="208"/>
+      <c r="D369" s="209"/>
       <c r="E369" s="71"/>
       <c r="F369" s="73"/>
       <c r="G369" s="73"/>
@@ -8490,19 +8490,19 @@
     </row>
     <row r="370" spans="2:15" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B370" s="18"/>
-      <c r="C370" s="253" t="s">
+      <c r="C370" s="206" t="s">
         <v>270</v>
       </c>
-      <c r="D370" s="253"/>
-      <c r="E370" s="253"/>
-      <c r="F370" s="253"/>
-      <c r="G370" s="253"/>
-      <c r="H370" s="253"/>
-      <c r="I370" s="253"/>
-      <c r="J370" s="253"/>
-      <c r="K370" s="253"/>
-      <c r="L370" s="253"/>
-      <c r="M370" s="253"/>
+      <c r="D370" s="206"/>
+      <c r="E370" s="206"/>
+      <c r="F370" s="206"/>
+      <c r="G370" s="206"/>
+      <c r="H370" s="206"/>
+      <c r="I370" s="206"/>
+      <c r="J370" s="206"/>
+      <c r="K370" s="206"/>
+      <c r="L370" s="206"/>
+      <c r="M370" s="206"/>
       <c r="N370" s="13"/>
       <c r="O370" s="2"/>
     </row>
@@ -8590,20 +8590,20 @@
       <c r="C376" s="75" t="s">
         <v>173</v>
       </c>
-      <c r="D376" s="169" t="s">
+      <c r="D376" s="266" t="s">
         <v>51</v>
       </c>
-      <c r="E376" s="169"/>
-      <c r="F376" s="168" t="s">
+      <c r="E376" s="266"/>
+      <c r="F376" s="267" t="s">
         <v>174</v>
       </c>
-      <c r="G376" s="168"/>
-      <c r="H376" s="168"/>
-      <c r="I376" s="168" t="s">
+      <c r="G376" s="267"/>
+      <c r="H376" s="267"/>
+      <c r="I376" s="267" t="s">
         <v>175</v>
       </c>
-      <c r="J376" s="168"/>
-      <c r="K376" s="168"/>
+      <c r="J376" s="267"/>
+      <c r="K376" s="267"/>
       <c r="L376" s="22"/>
       <c r="M376" s="22"/>
       <c r="N376" s="18"/>
@@ -8613,14 +8613,14 @@
       <c r="C377" s="75">
         <v>1</v>
       </c>
-      <c r="D377" s="169"/>
-      <c r="E377" s="169"/>
-      <c r="F377" s="168"/>
-      <c r="G377" s="168"/>
-      <c r="H377" s="168"/>
-      <c r="I377" s="168"/>
-      <c r="J377" s="168"/>
-      <c r="K377" s="168"/>
+      <c r="D377" s="266"/>
+      <c r="E377" s="266"/>
+      <c r="F377" s="267"/>
+      <c r="G377" s="267"/>
+      <c r="H377" s="267"/>
+      <c r="I377" s="267"/>
+      <c r="J377" s="267"/>
+      <c r="K377" s="267"/>
       <c r="L377" s="22"/>
       <c r="M377" s="34"/>
       <c r="N377" s="76"/>
@@ -8630,14 +8630,14 @@
       <c r="C378" s="75">
         <v>2</v>
       </c>
-      <c r="D378" s="169"/>
-      <c r="E378" s="169"/>
-      <c r="F378" s="168"/>
-      <c r="G378" s="168"/>
-      <c r="H378" s="168"/>
-      <c r="I378" s="168"/>
-      <c r="J378" s="168"/>
-      <c r="K378" s="168"/>
+      <c r="D378" s="266"/>
+      <c r="E378" s="266"/>
+      <c r="F378" s="267"/>
+      <c r="G378" s="267"/>
+      <c r="H378" s="267"/>
+      <c r="I378" s="267"/>
+      <c r="J378" s="267"/>
+      <c r="K378" s="267"/>
       <c r="L378" s="22"/>
       <c r="M378" s="34"/>
       <c r="N378" s="34"/>
@@ -8647,14 +8647,14 @@
       <c r="C379" s="75">
         <v>3</v>
       </c>
-      <c r="D379" s="169"/>
-      <c r="E379" s="169"/>
-      <c r="F379" s="168"/>
-      <c r="G379" s="168"/>
-      <c r="H379" s="168"/>
-      <c r="I379" s="168"/>
-      <c r="J379" s="168"/>
-      <c r="K379" s="168"/>
+      <c r="D379" s="266"/>
+      <c r="E379" s="266"/>
+      <c r="F379" s="267"/>
+      <c r="G379" s="267"/>
+      <c r="H379" s="267"/>
+      <c r="I379" s="267"/>
+      <c r="J379" s="267"/>
+      <c r="K379" s="267"/>
       <c r="L379" s="22"/>
       <c r="M379" s="34"/>
       <c r="N379" s="34"/>
@@ -8664,14 +8664,14 @@
       <c r="C380" s="75" t="s">
         <v>177</v>
       </c>
-      <c r="D380" s="169"/>
-      <c r="E380" s="169"/>
-      <c r="F380" s="168"/>
-      <c r="G380" s="168"/>
-      <c r="H380" s="168"/>
-      <c r="I380" s="168"/>
-      <c r="J380" s="168"/>
-      <c r="K380" s="168"/>
+      <c r="D380" s="266"/>
+      <c r="E380" s="266"/>
+      <c r="F380" s="267"/>
+      <c r="G380" s="267"/>
+      <c r="H380" s="267"/>
+      <c r="I380" s="267"/>
+      <c r="J380" s="267"/>
+      <c r="K380" s="267"/>
       <c r="L380" s="22"/>
       <c r="M380" s="34"/>
       <c r="N380" s="34"/>
@@ -8681,14 +8681,14 @@
       <c r="C381" s="75" t="s">
         <v>178</v>
       </c>
-      <c r="D381" s="169"/>
-      <c r="E381" s="169"/>
-      <c r="F381" s="168"/>
-      <c r="G381" s="168"/>
-      <c r="H381" s="168"/>
-      <c r="I381" s="168"/>
-      <c r="J381" s="168"/>
-      <c r="K381" s="168"/>
+      <c r="D381" s="266"/>
+      <c r="E381" s="266"/>
+      <c r="F381" s="267"/>
+      <c r="G381" s="267"/>
+      <c r="H381" s="267"/>
+      <c r="I381" s="267"/>
+      <c r="J381" s="267"/>
+      <c r="K381" s="267"/>
       <c r="L381" s="22"/>
       <c r="M381" s="34"/>
       <c r="N381" s="34"/>
@@ -8698,14 +8698,14 @@
       <c r="C382" s="75" t="s">
         <v>179</v>
       </c>
-      <c r="D382" s="169"/>
-      <c r="E382" s="169"/>
-      <c r="F382" s="168"/>
-      <c r="G382" s="168"/>
-      <c r="H382" s="168"/>
-      <c r="I382" s="168"/>
-      <c r="J382" s="168"/>
-      <c r="K382" s="168"/>
+      <c r="D382" s="266"/>
+      <c r="E382" s="266"/>
+      <c r="F382" s="267"/>
+      <c r="G382" s="267"/>
+      <c r="H382" s="267"/>
+      <c r="I382" s="267"/>
+      <c r="J382" s="267"/>
+      <c r="K382" s="267"/>
       <c r="L382" s="22"/>
       <c r="M382" s="34"/>
       <c r="N382" s="34"/>
@@ -8715,14 +8715,14 @@
       <c r="C383" s="75" t="s">
         <v>180</v>
       </c>
-      <c r="D383" s="169"/>
-      <c r="E383" s="169"/>
-      <c r="F383" s="168"/>
-      <c r="G383" s="168"/>
-      <c r="H383" s="168"/>
-      <c r="I383" s="168"/>
-      <c r="J383" s="168"/>
-      <c r="K383" s="168"/>
+      <c r="D383" s="266"/>
+      <c r="E383" s="266"/>
+      <c r="F383" s="267"/>
+      <c r="G383" s="267"/>
+      <c r="H383" s="267"/>
+      <c r="I383" s="267"/>
+      <c r="J383" s="267"/>
+      <c r="K383" s="267"/>
       <c r="L383" s="22"/>
       <c r="M383" s="34"/>
       <c r="N383" s="34"/>
@@ -8847,10 +8847,10 @@
     </row>
     <row r="393" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B393" s="18"/>
-      <c r="D393" s="169" t="s">
+      <c r="D393" s="266" t="s">
         <v>265</v>
       </c>
-      <c r="E393" s="169"/>
+      <c r="E393" s="266"/>
       <c r="J393" s="25"/>
       <c r="K393" s="25"/>
       <c r="L393" s="25"/>
@@ -8858,43 +8858,43 @@
     </row>
     <row r="394" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B394" s="18"/>
-      <c r="C394" s="183" t="s">
+      <c r="C394" s="169" t="s">
         <v>182</v>
       </c>
-      <c r="D394" s="183" t="s">
+      <c r="D394" s="169" t="s">
         <v>264</v>
       </c>
-      <c r="E394" s="183" t="s">
+      <c r="E394" s="169" t="s">
         <v>59</v>
       </c>
-      <c r="F394" s="183" t="s">
+      <c r="F394" s="169" t="s">
         <v>60</v>
       </c>
-      <c r="G394" s="184" t="s">
+      <c r="G394" s="268" t="s">
         <v>183</v>
       </c>
-      <c r="H394" s="184" t="s">
+      <c r="H394" s="268" t="s">
         <v>176</v>
       </c>
-      <c r="I394" s="184" t="s">
+      <c r="I394" s="268" t="s">
         <v>184</v>
       </c>
-      <c r="J394" s="168" t="s">
+      <c r="J394" s="267" t="s">
         <v>185</v>
       </c>
-      <c r="K394" s="168"/>
+      <c r="K394" s="267"/>
       <c r="L394" s="22"/>
       <c r="M394" s="25"/>
     </row>
     <row r="395" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B395" s="18"/>
-      <c r="C395" s="183"/>
-      <c r="D395" s="183"/>
-      <c r="E395" s="183"/>
-      <c r="F395" s="183"/>
-      <c r="G395" s="185"/>
-      <c r="H395" s="185"/>
-      <c r="I395" s="185"/>
+      <c r="C395" s="169"/>
+      <c r="D395" s="169"/>
+      <c r="E395" s="169"/>
+      <c r="F395" s="169"/>
+      <c r="G395" s="269"/>
+      <c r="H395" s="269"/>
+      <c r="I395" s="269"/>
       <c r="J395" s="75" t="s">
         <v>186</v>
       </c>
@@ -9199,21 +9199,21 @@
     </row>
     <row r="415" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B415" s="18"/>
-      <c r="C415" s="179" t="s">
+      <c r="C415" s="192" t="s">
         <v>265</v>
       </c>
-      <c r="D415" s="181"/>
-      <c r="E415" s="179" t="s">
+      <c r="D415" s="194"/>
+      <c r="E415" s="192" t="s">
         <v>204</v>
       </c>
-      <c r="F415" s="180"/>
-      <c r="G415" s="180"/>
-      <c r="H415" s="180"/>
-      <c r="I415" s="180"/>
-      <c r="J415" s="180"/>
-      <c r="K415" s="181"/>
+      <c r="F415" s="193"/>
+      <c r="G415" s="193"/>
+      <c r="H415" s="193"/>
+      <c r="I415" s="193"/>
+      <c r="J415" s="193"/>
+      <c r="K415" s="194"/>
       <c r="L415" s="154"/>
-      <c r="M415" s="184" t="s">
+      <c r="M415" s="268" t="s">
         <v>205</v>
       </c>
     </row>
@@ -9247,7 +9247,7 @@
         <v>180</v>
       </c>
       <c r="L416" s="160"/>
-      <c r="M416" s="185"/>
+      <c r="M416" s="269"/>
     </row>
     <row r="417" spans="2:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B417" s="20"/>
@@ -9493,23 +9493,23 @@
     </row>
     <row r="432" spans="2:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B432" s="20"/>
-      <c r="C432" s="179" t="s">
+      <c r="C432" s="192" t="s">
         <v>265</v>
       </c>
-      <c r="D432" s="181"/>
-      <c r="E432" s="190" t="s">
+      <c r="D432" s="194"/>
+      <c r="E432" s="270" t="s">
         <v>214</v>
       </c>
-      <c r="F432" s="179" t="s">
+      <c r="F432" s="192" t="s">
         <v>204</v>
       </c>
-      <c r="G432" s="180"/>
-      <c r="H432" s="180"/>
-      <c r="I432" s="180"/>
-      <c r="J432" s="180"/>
-      <c r="K432" s="181"/>
+      <c r="G432" s="193"/>
+      <c r="H432" s="193"/>
+      <c r="I432" s="193"/>
+      <c r="J432" s="193"/>
+      <c r="K432" s="194"/>
       <c r="L432" s="154"/>
-      <c r="M432" s="184" t="s">
+      <c r="M432" s="268" t="s">
         <v>210</v>
       </c>
     </row>
@@ -9521,7 +9521,7 @@
       <c r="D433" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="E433" s="169"/>
+      <c r="E433" s="266"/>
       <c r="F433" s="75">
         <v>1</v>
       </c>
@@ -9541,7 +9541,7 @@
         <v>180</v>
       </c>
       <c r="L433" s="160"/>
-      <c r="M433" s="185"/>
+      <c r="M433" s="269"/>
     </row>
     <row r="434" spans="2:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B434" s="20"/>
@@ -9729,26 +9729,26 @@
     </row>
     <row r="446" spans="2:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B446" s="20"/>
-      <c r="C446" s="175" t="s">
+      <c r="C446" s="271" t="s">
         <v>59</v>
       </c>
-      <c r="D446" s="176"/>
-      <c r="E446" s="179" t="s">
+      <c r="D446" s="272"/>
+      <c r="E446" s="192" t="s">
         <v>204</v>
       </c>
-      <c r="F446" s="180"/>
-      <c r="G446" s="180"/>
-      <c r="H446" s="180"/>
-      <c r="I446" s="180"/>
-      <c r="J446" s="180"/>
-      <c r="K446" s="181"/>
+      <c r="F446" s="193"/>
+      <c r="G446" s="193"/>
+      <c r="H446" s="193"/>
+      <c r="I446" s="193"/>
+      <c r="J446" s="193"/>
+      <c r="K446" s="194"/>
       <c r="L446" s="22"/>
-      <c r="M446" s="182"/>
+      <c r="M446" s="275"/>
     </row>
     <row r="447" spans="2:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B447" s="20"/>
-      <c r="C447" s="177"/>
-      <c r="D447" s="178"/>
+      <c r="C447" s="273"/>
+      <c r="D447" s="274"/>
       <c r="E447" s="75">
         <v>1</v>
       </c>
@@ -9771,14 +9771,14 @@
         <v>180</v>
       </c>
       <c r="L447" s="22"/>
-      <c r="M447" s="182"/>
+      <c r="M447" s="275"/>
     </row>
     <row r="448" spans="2:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B448" s="20"/>
-      <c r="C448" s="170" t="s">
+      <c r="C448" s="208" t="s">
         <v>219</v>
       </c>
-      <c r="D448" s="171"/>
+      <c r="D448" s="209"/>
       <c r="E448" s="82"/>
       <c r="F448" s="82"/>
       <c r="G448" s="82"/>
@@ -9790,10 +9790,10 @@
     </row>
     <row r="449" spans="2:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B449" s="20"/>
-      <c r="C449" s="170" t="s">
+      <c r="C449" s="208" t="s">
         <v>178</v>
       </c>
-      <c r="D449" s="171"/>
+      <c r="D449" s="209"/>
       <c r="E449" s="82"/>
       <c r="F449" s="82"/>
       <c r="G449" s="82"/>
@@ -9805,10 +9805,10 @@
     </row>
     <row r="450" spans="2:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B450" s="20"/>
-      <c r="C450" s="170" t="s">
+      <c r="C450" s="208" t="s">
         <v>220</v>
       </c>
-      <c r="D450" s="171"/>
+      <c r="D450" s="209"/>
       <c r="E450" s="82"/>
       <c r="F450" s="82"/>
       <c r="G450" s="82"/>
@@ -9820,10 +9820,10 @@
     </row>
     <row r="451" spans="2:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B451" s="20"/>
-      <c r="C451" s="179" t="s">
+      <c r="C451" s="192" t="s">
         <v>210</v>
       </c>
-      <c r="D451" s="181"/>
+      <c r="D451" s="194"/>
       <c r="E451" s="46"/>
       <c r="F451" s="46"/>
       <c r="G451" s="46"/>
@@ -10159,17 +10159,17 @@
         <v>238</v>
       </c>
       <c r="C473" s="80"/>
-      <c r="E473" s="189" t="s">
+      <c r="E473" s="276" t="s">
         <v>328</v>
       </c>
-      <c r="F473" s="189"/>
-      <c r="G473" s="189"/>
-      <c r="H473" s="189"/>
-      <c r="I473" s="189"/>
-      <c r="J473" s="189"/>
-      <c r="K473" s="189"/>
-      <c r="L473" s="189"/>
-      <c r="M473" s="189"/>
+      <c r="F473" s="276"/>
+      <c r="G473" s="276"/>
+      <c r="H473" s="276"/>
+      <c r="I473" s="276"/>
+      <c r="J473" s="276"/>
+      <c r="K473" s="276"/>
+      <c r="L473" s="276"/>
+      <c r="M473" s="276"/>
       <c r="N473" s="134"/>
     </row>
     <row r="474" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -10205,10 +10205,10 @@
     <row r="476" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B476" s="19"/>
       <c r="C476" s="19"/>
-      <c r="D476" s="169" t="s">
+      <c r="D476" s="266" t="s">
         <v>265</v>
       </c>
-      <c r="E476" s="169"/>
+      <c r="E476" s="266"/>
       <c r="F476" s="19"/>
       <c r="G476" s="19"/>
       <c r="H476" s="19"/>
@@ -10220,43 +10220,43 @@
     </row>
     <row r="477" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B477" s="79"/>
-      <c r="C477" s="183" t="s">
+      <c r="C477" s="169" t="s">
         <v>182</v>
       </c>
-      <c r="D477" s="183" t="s">
+      <c r="D477" s="169" t="s">
         <v>58</v>
       </c>
-      <c r="E477" s="183" t="s">
+      <c r="E477" s="169" t="s">
         <v>59</v>
       </c>
-      <c r="F477" s="183" t="s">
+      <c r="F477" s="169" t="s">
         <v>60</v>
       </c>
-      <c r="G477" s="184" t="s">
+      <c r="G477" s="268" t="s">
         <v>183</v>
       </c>
-      <c r="H477" s="184" t="s">
+      <c r="H477" s="268" t="s">
         <v>176</v>
       </c>
-      <c r="I477" s="184" t="s">
+      <c r="I477" s="268" t="s">
         <v>184</v>
       </c>
-      <c r="J477" s="186" t="s">
+      <c r="J477" s="203" t="s">
         <v>240</v>
       </c>
-      <c r="K477" s="187"/>
-      <c r="L477" s="187"/>
-      <c r="M477" s="188"/>
+      <c r="K477" s="204"/>
+      <c r="L477" s="204"/>
+      <c r="M477" s="205"/>
     </row>
     <row r="478" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B478" s="79"/>
-      <c r="C478" s="183"/>
-      <c r="D478" s="183"/>
-      <c r="E478" s="183"/>
-      <c r="F478" s="183"/>
-      <c r="G478" s="185"/>
-      <c r="H478" s="185"/>
-      <c r="I478" s="185"/>
+      <c r="C478" s="169"/>
+      <c r="D478" s="169"/>
+      <c r="E478" s="169"/>
+      <c r="F478" s="169"/>
+      <c r="G478" s="269"/>
+      <c r="H478" s="269"/>
+      <c r="I478" s="269"/>
       <c r="J478" s="77" t="s">
         <v>241</v>
       </c>
@@ -10292,16 +10292,17 @@
         <v>826.85</v>
       </c>
       <c r="I479" s="128">
-        <v>380539.3</v>
+        <f>312822.98+15464.07</f>
+        <v>328287.05</v>
       </c>
       <c r="J479" s="59"/>
       <c r="K479" s="128">
         <f>+I479/2</f>
-        <v>190269.65</v>
+        <v>164143.52499999999</v>
       </c>
       <c r="L479" s="128">
         <f>+I479/2</f>
-        <v>190269.65</v>
+        <v>164143.52499999999</v>
       </c>
       <c r="N479" s="80"/>
     </row>
@@ -10396,10 +10397,10 @@
       <c r="D485" s="80"/>
       <c r="E485" s="80"/>
       <c r="F485" s="40"/>
-      <c r="G485" s="161" t="s">
+      <c r="G485" s="279" t="s">
         <v>277</v>
       </c>
-      <c r="H485" s="161"/>
+      <c r="H485" s="279"/>
       <c r="I485" s="128">
         <v>10000</v>
       </c>
@@ -10418,10 +10419,10 @@
       <c r="D486" s="80"/>
       <c r="E486" s="80"/>
       <c r="F486" s="40"/>
-      <c r="G486" s="162" t="s">
+      <c r="G486" s="280" t="s">
         <v>278</v>
       </c>
-      <c r="H486" s="162"/>
+      <c r="H486" s="280"/>
       <c r="I486" s="128">
         <v>24961.5</v>
       </c>
@@ -10443,10 +10444,10 @@
       <c r="D487" s="80"/>
       <c r="E487" s="80"/>
       <c r="F487" s="40"/>
-      <c r="G487" s="162" t="s">
+      <c r="G487" s="280" t="s">
         <v>195</v>
       </c>
-      <c r="H487" s="162"/>
+      <c r="H487" s="280"/>
       <c r="I487" s="128">
         <v>17290.75</v>
       </c>
@@ -10465,13 +10466,13 @@
       <c r="D488" s="80"/>
       <c r="E488" s="80"/>
       <c r="F488" s="40"/>
-      <c r="G488" s="174" t="s">
+      <c r="G488" s="278" t="s">
         <v>196</v>
       </c>
-      <c r="H488" s="174"/>
+      <c r="H488" s="278"/>
       <c r="I488" s="129">
         <f>SUM(I479:I487)</f>
-        <v>432791.55</v>
+        <v>380539.3</v>
       </c>
       <c r="J488" s="103"/>
       <c r="K488" s="103"/>
@@ -10613,27 +10614,27 @@
     </row>
     <row r="497" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B497" s="20"/>
-      <c r="C497" s="175" t="s">
+      <c r="C497" s="271" t="s">
         <v>59</v>
       </c>
-      <c r="D497" s="176"/>
-      <c r="E497" s="179" t="s">
+      <c r="D497" s="272"/>
+      <c r="E497" s="192" t="s">
         <v>204</v>
       </c>
-      <c r="F497" s="180"/>
-      <c r="G497" s="180"/>
-      <c r="H497" s="180"/>
-      <c r="I497" s="180"/>
-      <c r="J497" s="180"/>
-      <c r="K497" s="181"/>
+      <c r="F497" s="193"/>
+      <c r="G497" s="193"/>
+      <c r="H497" s="193"/>
+      <c r="I497" s="193"/>
+      <c r="J497" s="193"/>
+      <c r="K497" s="194"/>
       <c r="L497" s="22"/>
-      <c r="M497" s="182"/>
+      <c r="M497" s="275"/>
       <c r="N497" s="80"/>
     </row>
     <row r="498" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B498" s="20"/>
-      <c r="C498" s="177"/>
-      <c r="D498" s="178"/>
+      <c r="C498" s="273"/>
+      <c r="D498" s="274"/>
       <c r="E498" s="75">
         <v>1</v>
       </c>
@@ -10656,15 +10657,15 @@
         <v>10</v>
       </c>
       <c r="L498" s="22"/>
-      <c r="M498" s="182"/>
+      <c r="M498" s="275"/>
       <c r="N498" s="80"/>
     </row>
     <row r="499" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B499" s="20"/>
-      <c r="C499" s="170" t="s">
+      <c r="C499" s="208" t="s">
         <v>324</v>
       </c>
-      <c r="D499" s="171"/>
+      <c r="D499" s="209"/>
       <c r="E499" s="103"/>
       <c r="F499" s="103">
         <v>3500</v>
@@ -10686,10 +10687,10 @@
     </row>
     <row r="500" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B500" s="20"/>
-      <c r="C500" s="170" t="s">
+      <c r="C500" s="208" t="s">
         <v>178</v>
       </c>
-      <c r="D500" s="171"/>
+      <c r="D500" s="209"/>
       <c r="E500" s="82"/>
       <c r="F500" s="82"/>
       <c r="G500" s="82"/>
@@ -10703,10 +10704,10 @@
     </row>
     <row r="501" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B501" s="20"/>
-      <c r="C501" s="170" t="s">
+      <c r="C501" s="208" t="s">
         <v>220</v>
       </c>
-      <c r="D501" s="171"/>
+      <c r="D501" s="209"/>
       <c r="E501" s="82"/>
       <c r="F501" s="82"/>
       <c r="G501" s="82"/>
@@ -11190,12 +11191,12 @@
       <c r="M532" s="80"/>
     </row>
     <row r="533" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B533" s="172" t="s">
+      <c r="B533" s="222" t="s">
         <v>246</v>
       </c>
-      <c r="C533" s="172"/>
-      <c r="D533" s="172"/>
-      <c r="E533" s="172"/>
+      <c r="C533" s="222"/>
+      <c r="D533" s="222"/>
+      <c r="E533" s="222"/>
       <c r="J533" s="80"/>
       <c r="K533" s="80"/>
       <c r="L533" s="152"/>
@@ -11273,36 +11274,36 @@
       <c r="L538" s="151"/>
     </row>
     <row r="539" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B539" s="173" t="s">
+      <c r="B539" s="277" t="s">
         <v>248</v>
       </c>
-      <c r="C539" s="173"/>
-      <c r="D539" s="173"/>
-      <c r="E539" s="173"/>
-      <c r="F539" s="173"/>
-      <c r="G539" s="173"/>
-      <c r="H539" s="173"/>
-      <c r="I539" s="173"/>
-      <c r="J539" s="173"/>
-      <c r="K539" s="173"/>
-      <c r="L539" s="173"/>
-      <c r="M539" s="173"/>
+      <c r="C539" s="277"/>
+      <c r="D539" s="277"/>
+      <c r="E539" s="277"/>
+      <c r="F539" s="277"/>
+      <c r="G539" s="277"/>
+      <c r="H539" s="277"/>
+      <c r="I539" s="277"/>
+      <c r="J539" s="277"/>
+      <c r="K539" s="277"/>
+      <c r="L539" s="277"/>
+      <c r="M539" s="277"/>
     </row>
     <row r="540" spans="2:13" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B540" s="173" t="s">
+      <c r="B540" s="277" t="s">
         <v>271</v>
       </c>
-      <c r="C540" s="173"/>
-      <c r="D540" s="173"/>
-      <c r="E540" s="173"/>
-      <c r="F540" s="173"/>
-      <c r="G540" s="173"/>
-      <c r="H540" s="173"/>
-      <c r="I540" s="173"/>
-      <c r="J540" s="173"/>
-      <c r="K540" s="173"/>
-      <c r="L540" s="173"/>
-      <c r="M540" s="173"/>
+      <c r="C540" s="277"/>
+      <c r="D540" s="277"/>
+      <c r="E540" s="277"/>
+      <c r="F540" s="277"/>
+      <c r="G540" s="277"/>
+      <c r="H540" s="277"/>
+      <c r="I540" s="277"/>
+      <c r="J540" s="277"/>
+      <c r="K540" s="277"/>
+      <c r="L540" s="277"/>
+      <c r="M540" s="277"/>
     </row>
     <row r="541" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B541" s="80"/>
@@ -11333,20 +11334,20 @@
       <c r="L542" s="151"/>
     </row>
     <row r="543" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B543" s="173" t="s">
+      <c r="B543" s="277" t="s">
         <v>250</v>
       </c>
-      <c r="C543" s="173"/>
-      <c r="D543" s="173"/>
-      <c r="E543" s="173"/>
-      <c r="F543" s="173"/>
-      <c r="G543" s="173"/>
-      <c r="H543" s="173"/>
-      <c r="I543" s="173"/>
-      <c r="J543" s="173"/>
-      <c r="K543" s="173"/>
-      <c r="L543" s="173"/>
-      <c r="M543" s="173"/>
+      <c r="C543" s="277"/>
+      <c r="D543" s="277"/>
+      <c r="E543" s="277"/>
+      <c r="F543" s="277"/>
+      <c r="G543" s="277"/>
+      <c r="H543" s="277"/>
+      <c r="I543" s="277"/>
+      <c r="J543" s="277"/>
+      <c r="K543" s="277"/>
+      <c r="L543" s="277"/>
+      <c r="M543" s="277"/>
     </row>
     <row r="544" spans="2:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B544" s="79"/>
@@ -11362,6 +11363,133 @@
     </row>
   </sheetData>
   <mergeCells count="151">
+    <mergeCell ref="G485:H485"/>
+    <mergeCell ref="G486:H486"/>
+    <mergeCell ref="G487:H487"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="D393:E393"/>
+    <mergeCell ref="D382:E382"/>
+    <mergeCell ref="F382:H382"/>
+    <mergeCell ref="I382:K382"/>
+    <mergeCell ref="D383:E383"/>
+    <mergeCell ref="F383:H383"/>
+    <mergeCell ref="I383:K383"/>
+    <mergeCell ref="D380:E380"/>
+    <mergeCell ref="F380:H380"/>
+    <mergeCell ref="I380:K380"/>
+    <mergeCell ref="D381:E381"/>
+    <mergeCell ref="F381:H381"/>
+    <mergeCell ref="I381:K381"/>
+    <mergeCell ref="C501:D501"/>
+    <mergeCell ref="B533:E533"/>
+    <mergeCell ref="B539:M539"/>
+    <mergeCell ref="B540:M540"/>
+    <mergeCell ref="B543:M543"/>
+    <mergeCell ref="G488:H488"/>
+    <mergeCell ref="C497:D498"/>
+    <mergeCell ref="E497:K497"/>
+    <mergeCell ref="M497:M498"/>
+    <mergeCell ref="C499:D499"/>
+    <mergeCell ref="C500:D500"/>
+    <mergeCell ref="C451:D451"/>
+    <mergeCell ref="C477:C478"/>
+    <mergeCell ref="D477:D478"/>
+    <mergeCell ref="E477:E478"/>
+    <mergeCell ref="F477:F478"/>
+    <mergeCell ref="G477:G478"/>
+    <mergeCell ref="C446:D447"/>
+    <mergeCell ref="E446:K446"/>
+    <mergeCell ref="M446:M447"/>
+    <mergeCell ref="C448:D448"/>
+    <mergeCell ref="C449:D449"/>
+    <mergeCell ref="C450:D450"/>
+    <mergeCell ref="D476:E476"/>
+    <mergeCell ref="H477:H478"/>
+    <mergeCell ref="I477:I478"/>
+    <mergeCell ref="J477:M477"/>
+    <mergeCell ref="E473:M473"/>
+    <mergeCell ref="I394:I395"/>
+    <mergeCell ref="J394:K394"/>
+    <mergeCell ref="C415:D415"/>
+    <mergeCell ref="E415:K415"/>
+    <mergeCell ref="M415:M416"/>
+    <mergeCell ref="C432:D432"/>
+    <mergeCell ref="E432:E433"/>
+    <mergeCell ref="F432:K432"/>
+    <mergeCell ref="M432:M433"/>
+    <mergeCell ref="C394:C395"/>
+    <mergeCell ref="D394:D395"/>
+    <mergeCell ref="E394:E395"/>
+    <mergeCell ref="F394:F395"/>
+    <mergeCell ref="G394:G395"/>
+    <mergeCell ref="H394:H395"/>
+    <mergeCell ref="D379:E379"/>
+    <mergeCell ref="F379:H379"/>
+    <mergeCell ref="I379:K379"/>
+    <mergeCell ref="D376:E376"/>
+    <mergeCell ref="F376:H376"/>
+    <mergeCell ref="I376:K376"/>
+    <mergeCell ref="D377:E377"/>
+    <mergeCell ref="F377:H377"/>
+    <mergeCell ref="I377:K377"/>
+    <mergeCell ref="D378:E378"/>
+    <mergeCell ref="F378:H378"/>
+    <mergeCell ref="I378:K378"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="B4:M4"/>
+    <mergeCell ref="B5:M5"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C215:M217"/>
+    <mergeCell ref="C127:M127"/>
+    <mergeCell ref="C130:M130"/>
+    <mergeCell ref="C144:M144"/>
+    <mergeCell ref="C146:E146"/>
+    <mergeCell ref="C148:E148"/>
+    <mergeCell ref="C150:E150"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="H112:I112"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="C122:M124"/>
+    <mergeCell ref="C194:M198"/>
+    <mergeCell ref="C201:M205"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="C8:K8"/>
+    <mergeCell ref="G27:K27"/>
+    <mergeCell ref="H29:M29"/>
+    <mergeCell ref="C163:M163"/>
+    <mergeCell ref="C180:F180"/>
+    <mergeCell ref="C182:G182"/>
+    <mergeCell ref="C186:G186"/>
+    <mergeCell ref="C370:M370"/>
+    <mergeCell ref="C350:G350"/>
+    <mergeCell ref="C352:G352"/>
+    <mergeCell ref="C354:G354"/>
+    <mergeCell ref="C154:G154"/>
+    <mergeCell ref="C369:D369"/>
+    <mergeCell ref="C346:F346"/>
+    <mergeCell ref="C348:F348"/>
+    <mergeCell ref="C287:F287"/>
+    <mergeCell ref="C288:F288"/>
+    <mergeCell ref="C289:F289"/>
+    <mergeCell ref="C291:F291"/>
+    <mergeCell ref="C293:F293"/>
+    <mergeCell ref="C328:M328"/>
+    <mergeCell ref="C342:M342"/>
+    <mergeCell ref="C359:M363"/>
+    <mergeCell ref="C300:M304"/>
+    <mergeCell ref="C307:M311"/>
+    <mergeCell ref="C322:M326"/>
+    <mergeCell ref="C336:M340"/>
+    <mergeCell ref="C368:D368"/>
+    <mergeCell ref="E368:M368"/>
     <mergeCell ref="H50:K50"/>
     <mergeCell ref="H55:K55"/>
     <mergeCell ref="H56:K56"/>
@@ -11386,133 +11514,6 @@
     <mergeCell ref="C152:F152"/>
     <mergeCell ref="G74:I74"/>
     <mergeCell ref="G73:I73"/>
-    <mergeCell ref="C182:G182"/>
-    <mergeCell ref="C186:G186"/>
-    <mergeCell ref="C370:M370"/>
-    <mergeCell ref="C350:G350"/>
-    <mergeCell ref="C352:G352"/>
-    <mergeCell ref="C354:G354"/>
-    <mergeCell ref="C154:G154"/>
-    <mergeCell ref="C369:D369"/>
-    <mergeCell ref="C346:F346"/>
-    <mergeCell ref="C348:F348"/>
-    <mergeCell ref="C287:F287"/>
-    <mergeCell ref="C288:F288"/>
-    <mergeCell ref="C289:F289"/>
-    <mergeCell ref="C291:F291"/>
-    <mergeCell ref="C293:F293"/>
-    <mergeCell ref="C328:M328"/>
-    <mergeCell ref="C342:M342"/>
-    <mergeCell ref="C359:M363"/>
-    <mergeCell ref="C300:M304"/>
-    <mergeCell ref="C307:M311"/>
-    <mergeCell ref="C322:M326"/>
-    <mergeCell ref="C336:M340"/>
-    <mergeCell ref="C368:D368"/>
-    <mergeCell ref="E368:M368"/>
-    <mergeCell ref="B3:M3"/>
-    <mergeCell ref="B4:M4"/>
-    <mergeCell ref="B5:M5"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C215:M217"/>
-    <mergeCell ref="C127:M127"/>
-    <mergeCell ref="C130:M130"/>
-    <mergeCell ref="C144:M144"/>
-    <mergeCell ref="C146:E146"/>
-    <mergeCell ref="C148:E148"/>
-    <mergeCell ref="C150:E150"/>
-    <mergeCell ref="C111:G111"/>
-    <mergeCell ref="H112:I112"/>
-    <mergeCell ref="C113:G113"/>
-    <mergeCell ref="C122:M124"/>
-    <mergeCell ref="C194:M198"/>
-    <mergeCell ref="C201:M205"/>
-    <mergeCell ref="H49:K49"/>
-    <mergeCell ref="H53:K53"/>
-    <mergeCell ref="C8:K8"/>
-    <mergeCell ref="G27:K27"/>
-    <mergeCell ref="H29:M29"/>
-    <mergeCell ref="C163:M163"/>
-    <mergeCell ref="C180:F180"/>
-    <mergeCell ref="D379:E379"/>
-    <mergeCell ref="F379:H379"/>
-    <mergeCell ref="I379:K379"/>
-    <mergeCell ref="D376:E376"/>
-    <mergeCell ref="F376:H376"/>
-    <mergeCell ref="I376:K376"/>
-    <mergeCell ref="D377:E377"/>
-    <mergeCell ref="F377:H377"/>
-    <mergeCell ref="I377:K377"/>
-    <mergeCell ref="D378:E378"/>
-    <mergeCell ref="F378:H378"/>
-    <mergeCell ref="I378:K378"/>
-    <mergeCell ref="I394:I395"/>
-    <mergeCell ref="J394:K394"/>
-    <mergeCell ref="C415:D415"/>
-    <mergeCell ref="E415:K415"/>
-    <mergeCell ref="M415:M416"/>
-    <mergeCell ref="C432:D432"/>
-    <mergeCell ref="E432:E433"/>
-    <mergeCell ref="F432:K432"/>
-    <mergeCell ref="M432:M433"/>
-    <mergeCell ref="C394:C395"/>
-    <mergeCell ref="D394:D395"/>
-    <mergeCell ref="E394:E395"/>
-    <mergeCell ref="F394:F395"/>
-    <mergeCell ref="G394:G395"/>
-    <mergeCell ref="H394:H395"/>
-    <mergeCell ref="C451:D451"/>
-    <mergeCell ref="C477:C478"/>
-    <mergeCell ref="D477:D478"/>
-    <mergeCell ref="E477:E478"/>
-    <mergeCell ref="F477:F478"/>
-    <mergeCell ref="G477:G478"/>
-    <mergeCell ref="C446:D447"/>
-    <mergeCell ref="E446:K446"/>
-    <mergeCell ref="M446:M447"/>
-    <mergeCell ref="C448:D448"/>
-    <mergeCell ref="C449:D449"/>
-    <mergeCell ref="C450:D450"/>
-    <mergeCell ref="D476:E476"/>
-    <mergeCell ref="H477:H478"/>
-    <mergeCell ref="I477:I478"/>
-    <mergeCell ref="J477:M477"/>
-    <mergeCell ref="E473:M473"/>
-    <mergeCell ref="C501:D501"/>
-    <mergeCell ref="B533:E533"/>
-    <mergeCell ref="B539:M539"/>
-    <mergeCell ref="B540:M540"/>
-    <mergeCell ref="B543:M543"/>
-    <mergeCell ref="G488:H488"/>
-    <mergeCell ref="C497:D498"/>
-    <mergeCell ref="E497:K497"/>
-    <mergeCell ref="M497:M498"/>
-    <mergeCell ref="C499:D499"/>
-    <mergeCell ref="C500:D500"/>
-    <mergeCell ref="G485:H485"/>
-    <mergeCell ref="G486:H486"/>
-    <mergeCell ref="G487:H487"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="H41:K41"/>
-    <mergeCell ref="H42:K42"/>
-    <mergeCell ref="H43:K43"/>
-    <mergeCell ref="H47:K47"/>
-    <mergeCell ref="H48:K48"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="D393:E393"/>
-    <mergeCell ref="D382:E382"/>
-    <mergeCell ref="F382:H382"/>
-    <mergeCell ref="I382:K382"/>
-    <mergeCell ref="D383:E383"/>
-    <mergeCell ref="F383:H383"/>
-    <mergeCell ref="I383:K383"/>
-    <mergeCell ref="D380:E380"/>
-    <mergeCell ref="F380:H380"/>
-    <mergeCell ref="I380:K380"/>
-    <mergeCell ref="D381:E381"/>
-    <mergeCell ref="F381:H381"/>
-    <mergeCell ref="I381:K381"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.78740157480314965" header="0" footer="0"/>

--- a/13.0 FORMATO N°07 INVIERTE PE/FORMATO 7C IES JOSÉ MARIA ARGUEDAS CHUQUIBAMBILLA.xlsx
+++ b/13.0 FORMATO N°07 INVIERTE PE/FORMATO 7C IES JOSÉ MARIA ARGUEDAS CHUQUIBAMBILLA.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="341">
   <si>
     <t>Nombre de la inversión (en función de las acciones, activos, nombre de la unidad productora y localización geográfica de la unidad productora)</t>
   </si>
@@ -1035,9 +1035,6 @@
   </si>
   <si>
     <t>mes 3</t>
-  </si>
-  <si>
-    <t>OPTIMIZACION MEDIANTE COBERTURA DE LA LOSA DEPORTIVA MULTIUSO DE LA IES WALTER PEÑALOZA DE SANTA ROSA, DISTRITO DE CHAPIMARCA, PROVINCIA AYMARAES - REGION APURIMAC</t>
   </si>
   <si>
     <t>0105 EDUCACIÓN SECUNDARIA</t>
@@ -1532,7 +1529,7 @@
     </xf>
     <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="283">
+  <cellXfs count="282">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2014,6 +2011,324 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2026,21 +2341,12 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2050,87 +2356,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2139,246 +2373,6 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2665,8 +2659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:Q547"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="B517" zoomScale="70" zoomScaleNormal="51" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="I480" sqref="I480"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="B496" zoomScale="70" zoomScaleNormal="51" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="E529" sqref="E529"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -2688,52 +2682,52 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="B3" s="214" t="s">
+      <c r="B3" s="190" t="s">
         <v>258</v>
       </c>
-      <c r="C3" s="215"/>
-      <c r="D3" s="216"/>
-      <c r="E3" s="216"/>
-      <c r="F3" s="216"/>
-      <c r="G3" s="216"/>
-      <c r="H3" s="216"/>
-      <c r="I3" s="216"/>
-      <c r="J3" s="216"/>
-      <c r="K3" s="216"/>
-      <c r="L3" s="216"/>
-      <c r="M3" s="217"/>
+      <c r="C3" s="191"/>
+      <c r="D3" s="192"/>
+      <c r="E3" s="192"/>
+      <c r="F3" s="192"/>
+      <c r="G3" s="192"/>
+      <c r="H3" s="192"/>
+      <c r="I3" s="192"/>
+      <c r="J3" s="192"/>
+      <c r="K3" s="192"/>
+      <c r="L3" s="192"/>
+      <c r="M3" s="193"/>
     </row>
     <row r="4" spans="2:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="B4" s="218" t="s">
+      <c r="B4" s="194" t="s">
         <v>259</v>
       </c>
-      <c r="C4" s="219"/>
-      <c r="D4" s="220"/>
-      <c r="E4" s="220"/>
-      <c r="F4" s="220"/>
-      <c r="G4" s="220"/>
-      <c r="H4" s="220"/>
-      <c r="I4" s="220"/>
-      <c r="J4" s="220"/>
-      <c r="K4" s="220"/>
-      <c r="L4" s="220"/>
-      <c r="M4" s="221"/>
+      <c r="C4" s="195"/>
+      <c r="D4" s="196"/>
+      <c r="E4" s="196"/>
+      <c r="F4" s="196"/>
+      <c r="G4" s="196"/>
+      <c r="H4" s="196"/>
+      <c r="I4" s="196"/>
+      <c r="J4" s="196"/>
+      <c r="K4" s="196"/>
+      <c r="L4" s="196"/>
+      <c r="M4" s="197"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="222" t="s">
+      <c r="B5" s="172" t="s">
         <v>261</v>
       </c>
-      <c r="C5" s="222"/>
-      <c r="D5" s="223"/>
-      <c r="E5" s="223"/>
-      <c r="F5" s="223"/>
-      <c r="G5" s="223"/>
-      <c r="H5" s="223"/>
-      <c r="I5" s="223"/>
-      <c r="J5" s="223"/>
-      <c r="K5" s="223"/>
-      <c r="L5" s="223"/>
-      <c r="M5" s="223"/>
+      <c r="C5" s="172"/>
+      <c r="D5" s="198"/>
+      <c r="E5" s="198"/>
+      <c r="F5" s="198"/>
+      <c r="G5" s="198"/>
+      <c r="H5" s="198"/>
+      <c r="I5" s="198"/>
+      <c r="J5" s="198"/>
+      <c r="K5" s="198"/>
+      <c r="L5" s="198"/>
+      <c r="M5" s="198"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
@@ -2767,17 +2761,17 @@
     </row>
     <row r="8" spans="2:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
-      <c r="C8" s="256" t="s">
-        <v>336</v>
-      </c>
-      <c r="D8" s="257"/>
-      <c r="E8" s="257"/>
-      <c r="F8" s="257"/>
-      <c r="G8" s="257"/>
-      <c r="H8" s="257"/>
-      <c r="I8" s="257"/>
-      <c r="J8" s="257"/>
-      <c r="K8" s="258"/>
+      <c r="C8" s="241" t="s">
+        <v>335</v>
+      </c>
+      <c r="D8" s="242"/>
+      <c r="E8" s="242"/>
+      <c r="F8" s="242"/>
+      <c r="G8" s="242"/>
+      <c r="H8" s="242"/>
+      <c r="I8" s="242"/>
+      <c r="J8" s="242"/>
+      <c r="K8" s="243"/>
       <c r="L8" s="155"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
@@ -3007,7 +3001,7 @@
       </c>
       <c r="D23" s="86"/>
       <c r="E23" s="91" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F23" s="141"/>
       <c r="G23" s="2"/>
@@ -3071,13 +3065,13 @@
       </c>
       <c r="D27" s="92"/>
       <c r="E27" s="92"/>
-      <c r="G27" s="259" t="s">
-        <v>330</v>
-      </c>
-      <c r="H27" s="259"/>
-      <c r="I27" s="259"/>
-      <c r="J27" s="259"/>
-      <c r="K27" s="259"/>
+      <c r="G27" s="244" t="s">
+        <v>329</v>
+      </c>
+      <c r="H27" s="244"/>
+      <c r="I27" s="244"/>
+      <c r="J27" s="244"/>
+      <c r="K27" s="244"/>
       <c r="L27" s="156"/>
       <c r="M27" s="80"/>
     </row>
@@ -3096,22 +3090,22 @@
     </row>
     <row r="29" spans="2:14" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="89"/>
-      <c r="C29" s="224" t="s">
+      <c r="C29" s="199" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="224"/>
-      <c r="E29" s="224"/>
+      <c r="D29" s="199"/>
+      <c r="E29" s="199"/>
       <c r="G29" s="142" t="s">
         <v>14</v>
       </c>
-      <c r="H29" s="260" t="s">
-        <v>331</v>
-      </c>
-      <c r="I29" s="261"/>
-      <c r="J29" s="261"/>
-      <c r="K29" s="261"/>
-      <c r="L29" s="261"/>
-      <c r="M29" s="262"/>
+      <c r="H29" s="245" t="s">
+        <v>330</v>
+      </c>
+      <c r="I29" s="246"/>
+      <c r="J29" s="246"/>
+      <c r="K29" s="246"/>
+      <c r="L29" s="246"/>
+      <c r="M29" s="247"/>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="89"/>
@@ -3130,11 +3124,11 @@
     </row>
     <row r="31" spans="2:14" ht="37.5" x14ac:dyDescent="0.25">
       <c r="B31" s="89"/>
-      <c r="C31" s="281" t="s">
+      <c r="C31" s="163" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="281"/>
-      <c r="E31" s="282"/>
+      <c r="D31" s="163"/>
+      <c r="E31" s="164"/>
       <c r="F31" s="11" t="s">
         <v>16</v>
       </c>
@@ -3145,7 +3139,7 @@
         <v>17</v>
       </c>
       <c r="I31" s="84" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J31" s="131" t="s">
         <v>18</v>
@@ -3295,12 +3289,12 @@
       <c r="E40" s="17"/>
       <c r="F40" s="17"/>
       <c r="G40" s="17"/>
-      <c r="H40" s="253" t="s">
+      <c r="H40" s="165" t="s">
         <v>310</v>
       </c>
-      <c r="I40" s="254"/>
-      <c r="J40" s="254"/>
-      <c r="K40" s="255"/>
+      <c r="I40" s="166"/>
+      <c r="J40" s="166"/>
+      <c r="K40" s="167"/>
       <c r="L40" s="20"/>
       <c r="M40" s="79"/>
     </row>
@@ -3313,12 +3307,12 @@
       <c r="E41" s="17"/>
       <c r="F41" s="17"/>
       <c r="G41" s="17"/>
-      <c r="H41" s="253" t="s">
+      <c r="H41" s="165" t="s">
         <v>311</v>
       </c>
-      <c r="I41" s="254"/>
-      <c r="J41" s="254"/>
-      <c r="K41" s="255"/>
+      <c r="I41" s="166"/>
+      <c r="J41" s="166"/>
+      <c r="K41" s="167"/>
       <c r="L41" s="20"/>
       <c r="M41" s="79"/>
     </row>
@@ -3331,12 +3325,12 @@
       <c r="E42" s="17"/>
       <c r="F42" s="17"/>
       <c r="G42" s="17"/>
-      <c r="H42" s="253" t="s">
+      <c r="H42" s="165" t="s">
         <v>312</v>
       </c>
-      <c r="I42" s="254"/>
-      <c r="J42" s="254"/>
-      <c r="K42" s="255"/>
+      <c r="I42" s="166"/>
+      <c r="J42" s="166"/>
+      <c r="K42" s="167"/>
       <c r="L42" s="20"/>
       <c r="M42" s="79"/>
     </row>
@@ -3349,12 +3343,12 @@
       <c r="E43" s="17"/>
       <c r="F43" s="17"/>
       <c r="G43" s="17"/>
-      <c r="H43" s="253" t="s">
+      <c r="H43" s="165" t="s">
         <v>325</v>
       </c>
-      <c r="I43" s="254"/>
-      <c r="J43" s="254"/>
-      <c r="K43" s="255"/>
+      <c r="I43" s="166"/>
+      <c r="J43" s="166"/>
+      <c r="K43" s="167"/>
       <c r="L43" s="20"/>
       <c r="M43" s="79"/>
     </row>
@@ -3412,12 +3406,12 @@
       <c r="E47" s="17"/>
       <c r="F47" s="17"/>
       <c r="G47" s="17"/>
-      <c r="H47" s="253" t="s">
+      <c r="H47" s="165" t="s">
         <v>310</v>
       </c>
-      <c r="I47" s="254"/>
-      <c r="J47" s="254"/>
-      <c r="K47" s="255"/>
+      <c r="I47" s="166"/>
+      <c r="J47" s="166"/>
+      <c r="K47" s="167"/>
       <c r="L47" s="20"/>
       <c r="M47" s="79"/>
     </row>
@@ -3430,12 +3424,12 @@
       <c r="E48" s="17"/>
       <c r="F48" s="17"/>
       <c r="G48" s="17"/>
-      <c r="H48" s="253" t="s">
+      <c r="H48" s="165" t="s">
         <v>311</v>
       </c>
-      <c r="I48" s="254"/>
-      <c r="J48" s="254"/>
-      <c r="K48" s="255"/>
+      <c r="I48" s="166"/>
+      <c r="J48" s="166"/>
+      <c r="K48" s="167"/>
       <c r="L48" s="20"/>
       <c r="M48" s="79"/>
     </row>
@@ -3448,12 +3442,12 @@
       <c r="E49" s="17"/>
       <c r="F49" s="17"/>
       <c r="G49" s="17"/>
-      <c r="H49" s="250" t="s">
+      <c r="H49" s="238" t="s">
         <v>313</v>
       </c>
-      <c r="I49" s="251"/>
-      <c r="J49" s="251"/>
-      <c r="K49" s="252"/>
+      <c r="I49" s="239"/>
+      <c r="J49" s="239"/>
+      <c r="K49" s="240"/>
       <c r="L49" s="149"/>
       <c r="M49" s="79"/>
     </row>
@@ -3466,12 +3460,12 @@
       <c r="E50" s="17"/>
       <c r="F50" s="17"/>
       <c r="G50" s="17"/>
-      <c r="H50" s="161" t="s">
-        <v>333</v>
-      </c>
-      <c r="I50" s="161"/>
-      <c r="J50" s="161"/>
-      <c r="K50" s="161"/>
+      <c r="H50" s="267" t="s">
+        <v>332</v>
+      </c>
+      <c r="I50" s="267"/>
+      <c r="J50" s="267"/>
+      <c r="K50" s="267"/>
       <c r="L50" s="158"/>
       <c r="M50" s="138"/>
       <c r="N50" s="138"/>
@@ -3520,12 +3514,12 @@
       <c r="E53" s="17"/>
       <c r="F53" s="17"/>
       <c r="G53" s="17"/>
-      <c r="H53" s="253" t="s">
+      <c r="H53" s="165" t="s">
         <v>310</v>
       </c>
-      <c r="I53" s="254"/>
-      <c r="J53" s="254"/>
-      <c r="K53" s="255"/>
+      <c r="I53" s="166"/>
+      <c r="J53" s="166"/>
+      <c r="K53" s="167"/>
       <c r="L53" s="20"/>
       <c r="M53" s="79"/>
     </row>
@@ -3538,12 +3532,12 @@
       <c r="E54" s="17"/>
       <c r="F54" s="17"/>
       <c r="G54" s="17"/>
-      <c r="H54" s="170" t="s">
+      <c r="H54" s="273" t="s">
         <v>311</v>
       </c>
-      <c r="I54" s="171"/>
-      <c r="J54" s="171"/>
-      <c r="K54" s="172"/>
+      <c r="I54" s="274"/>
+      <c r="J54" s="274"/>
+      <c r="K54" s="275"/>
       <c r="L54" s="20"/>
       <c r="M54" s="79"/>
     </row>
@@ -3556,12 +3550,12 @@
       <c r="E55" s="17"/>
       <c r="F55" s="17"/>
       <c r="G55" s="17"/>
-      <c r="H55" s="161" t="s">
+      <c r="H55" s="267" t="s">
         <v>314</v>
       </c>
-      <c r="I55" s="161"/>
-      <c r="J55" s="161"/>
-      <c r="K55" s="161"/>
+      <c r="I55" s="267"/>
+      <c r="J55" s="267"/>
+      <c r="K55" s="267"/>
       <c r="L55" s="158"/>
       <c r="M55" s="138"/>
       <c r="N55" s="138"/>
@@ -3578,12 +3572,12 @@
       <c r="E56" s="17"/>
       <c r="F56" s="17"/>
       <c r="G56" s="17"/>
-      <c r="H56" s="162" t="s">
+      <c r="H56" s="268" t="s">
         <v>315</v>
       </c>
-      <c r="I56" s="163"/>
-      <c r="J56" s="163"/>
-      <c r="K56" s="164"/>
+      <c r="I56" s="269"/>
+      <c r="J56" s="269"/>
+      <c r="K56" s="270"/>
       <c r="L56" s="158"/>
       <c r="M56" s="138"/>
       <c r="N56" s="138"/>
@@ -3729,7 +3723,7 @@
       <c r="D65" s="90"/>
       <c r="E65" s="90"/>
       <c r="F65" s="143" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G65" s="90"/>
       <c r="H65" s="90"/>
@@ -3793,7 +3787,7 @@
       <c r="D69" s="25"/>
       <c r="E69" s="25"/>
       <c r="F69" s="135" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G69" s="73"/>
       <c r="H69" s="73"/>
@@ -3863,11 +3857,11 @@
       <c r="F73" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="G73" s="203" t="s">
+      <c r="G73" s="186" t="s">
         <v>51</v>
       </c>
-      <c r="H73" s="204"/>
-      <c r="I73" s="205"/>
+      <c r="H73" s="187"/>
+      <c r="I73" s="188"/>
       <c r="J73" s="90"/>
       <c r="K73" s="90"/>
       <c r="L73" s="90"/>
@@ -3879,19 +3873,19 @@
         <v>317</v>
       </c>
       <c r="D74" s="30" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E74" s="30" t="s">
+        <v>338</v>
+      </c>
+      <c r="F74" s="30" t="s">
+        <v>338</v>
+      </c>
+      <c r="G74" s="279" t="s">
         <v>339</v>
       </c>
-      <c r="F74" s="30" t="s">
-        <v>339</v>
-      </c>
-      <c r="G74" s="200" t="s">
-        <v>340</v>
-      </c>
-      <c r="H74" s="201"/>
-      <c r="I74" s="202"/>
+      <c r="H74" s="280"/>
+      <c r="I74" s="281"/>
       <c r="J74" s="90"/>
       <c r="K74" s="90"/>
       <c r="L74" s="90"/>
@@ -4023,10 +4017,10 @@
       <c r="B83" s="15"/>
       <c r="C83" s="79"/>
       <c r="D83" s="80"/>
-      <c r="E83" s="267" t="s">
+      <c r="E83" s="168" t="s">
         <v>265</v>
       </c>
-      <c r="F83" s="267"/>
+      <c r="F83" s="168"/>
       <c r="I83" s="80"/>
       <c r="J83" s="80"/>
       <c r="K83" s="80"/>
@@ -4112,17 +4106,17 @@
     </row>
     <row r="88" spans="2:13" s="97" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="58"/>
-      <c r="C88" s="168" t="s">
+      <c r="C88" s="272" t="s">
         <v>268</v>
       </c>
-      <c r="D88" s="168"/>
-      <c r="E88" s="168"/>
-      <c r="F88" s="168"/>
-      <c r="G88" s="168"/>
-      <c r="H88" s="168"/>
-      <c r="I88" s="168"/>
-      <c r="J88" s="168"/>
-      <c r="K88" s="168"/>
+      <c r="D88" s="272"/>
+      <c r="E88" s="272"/>
+      <c r="F88" s="272"/>
+      <c r="G88" s="272"/>
+      <c r="H88" s="272"/>
+      <c r="I88" s="272"/>
+      <c r="J88" s="272"/>
+      <c r="K88" s="272"/>
       <c r="L88" s="147"/>
       <c r="M88" s="80"/>
     </row>
@@ -4289,10 +4283,10 @@
       </c>
       <c r="D99" s="103"/>
       <c r="E99" s="67"/>
-      <c r="F99" s="195" t="s">
+      <c r="F99" s="277" t="s">
         <v>280</v>
       </c>
-      <c r="G99" s="196"/>
+      <c r="G99" s="278"/>
       <c r="H99" s="107"/>
       <c r="I99" s="79"/>
       <c r="J99" s="79"/>
@@ -4472,13 +4466,13 @@
     </row>
     <row r="111" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B111" s="58"/>
-      <c r="C111" s="241" t="s">
+      <c r="C111" s="217" t="s">
         <v>74</v>
       </c>
-      <c r="D111" s="241"/>
-      <c r="E111" s="241"/>
-      <c r="F111" s="241"/>
-      <c r="G111" s="242"/>
+      <c r="D111" s="217"/>
+      <c r="E111" s="217"/>
+      <c r="F111" s="217"/>
+      <c r="G111" s="218"/>
       <c r="H111" s="26"/>
       <c r="I111" s="27"/>
       <c r="J111" s="80"/>
@@ -4493,8 +4487,8 @@
       <c r="E112" s="79"/>
       <c r="F112" s="79"/>
       <c r="G112" s="79"/>
-      <c r="H112" s="243"/>
-      <c r="I112" s="243"/>
+      <c r="H112" s="219"/>
+      <c r="I112" s="219"/>
       <c r="J112" s="80"/>
       <c r="K112" s="80"/>
       <c r="L112" s="152"/>
@@ -4502,13 +4496,13 @@
     </row>
     <row r="113" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B113" s="58"/>
-      <c r="C113" s="241" t="s">
+      <c r="C113" s="217" t="s">
         <v>75</v>
       </c>
-      <c r="D113" s="241"/>
-      <c r="E113" s="241"/>
-      <c r="F113" s="241"/>
-      <c r="G113" s="242"/>
+      <c r="D113" s="217"/>
+      <c r="E113" s="217"/>
+      <c r="F113" s="217"/>
+      <c r="G113" s="218"/>
       <c r="H113" s="26"/>
       <c r="I113" s="27"/>
       <c r="J113" s="80"/>
@@ -4640,47 +4634,47 @@
     </row>
     <row r="122" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B122" s="58"/>
-      <c r="C122" s="244" t="s">
+      <c r="C122" s="220" t="s">
         <v>281</v>
       </c>
-      <c r="D122" s="245"/>
-      <c r="E122" s="245"/>
-      <c r="F122" s="245"/>
-      <c r="G122" s="245"/>
-      <c r="H122" s="245"/>
-      <c r="I122" s="245"/>
-      <c r="J122" s="245"/>
-      <c r="K122" s="245"/>
-      <c r="L122" s="245"/>
-      <c r="M122" s="246"/>
+      <c r="D122" s="221"/>
+      <c r="E122" s="221"/>
+      <c r="F122" s="221"/>
+      <c r="G122" s="221"/>
+      <c r="H122" s="221"/>
+      <c r="I122" s="221"/>
+      <c r="J122" s="221"/>
+      <c r="K122" s="221"/>
+      <c r="L122" s="221"/>
+      <c r="M122" s="222"/>
     </row>
     <row r="123" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B123" s="58"/>
-      <c r="C123" s="197"/>
-      <c r="D123" s="198"/>
-      <c r="E123" s="198"/>
-      <c r="F123" s="198"/>
-      <c r="G123" s="198"/>
-      <c r="H123" s="198"/>
-      <c r="I123" s="198"/>
-      <c r="J123" s="198"/>
-      <c r="K123" s="198"/>
-      <c r="L123" s="198"/>
-      <c r="M123" s="199"/>
+      <c r="C123" s="223"/>
+      <c r="D123" s="224"/>
+      <c r="E123" s="224"/>
+      <c r="F123" s="224"/>
+      <c r="G123" s="224"/>
+      <c r="H123" s="224"/>
+      <c r="I123" s="224"/>
+      <c r="J123" s="224"/>
+      <c r="K123" s="224"/>
+      <c r="L123" s="224"/>
+      <c r="M123" s="225"/>
     </row>
     <row r="124" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B124" s="58"/>
-      <c r="C124" s="247"/>
-      <c r="D124" s="248"/>
-      <c r="E124" s="248"/>
-      <c r="F124" s="248"/>
-      <c r="G124" s="248"/>
-      <c r="H124" s="248"/>
-      <c r="I124" s="248"/>
-      <c r="J124" s="248"/>
-      <c r="K124" s="248"/>
-      <c r="L124" s="248"/>
-      <c r="M124" s="249"/>
+      <c r="C124" s="226"/>
+      <c r="D124" s="227"/>
+      <c r="E124" s="227"/>
+      <c r="F124" s="227"/>
+      <c r="G124" s="227"/>
+      <c r="H124" s="227"/>
+      <c r="I124" s="227"/>
+      <c r="J124" s="227"/>
+      <c r="K124" s="227"/>
+      <c r="L124" s="227"/>
+      <c r="M124" s="228"/>
     </row>
     <row r="125" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B125" s="58"/>
@@ -4714,19 +4708,19 @@
     </row>
     <row r="127" spans="2:13" ht="63" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" s="58"/>
-      <c r="C127" s="234" t="s">
+      <c r="C127" s="209" t="s">
         <v>282</v>
       </c>
-      <c r="D127" s="235"/>
-      <c r="E127" s="235"/>
-      <c r="F127" s="235"/>
-      <c r="G127" s="235"/>
-      <c r="H127" s="235"/>
-      <c r="I127" s="235"/>
-      <c r="J127" s="235"/>
-      <c r="K127" s="235"/>
-      <c r="L127" s="235"/>
-      <c r="M127" s="236"/>
+      <c r="D127" s="210"/>
+      <c r="E127" s="210"/>
+      <c r="F127" s="210"/>
+      <c r="G127" s="210"/>
+      <c r="H127" s="210"/>
+      <c r="I127" s="210"/>
+      <c r="J127" s="210"/>
+      <c r="K127" s="210"/>
+      <c r="L127" s="210"/>
+      <c r="M127" s="211"/>
     </row>
     <row r="128" spans="2:13" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" s="58"/>
@@ -4760,19 +4754,19 @@
     </row>
     <row r="130" spans="2:13" ht="46.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B130" s="58"/>
-      <c r="C130" s="237" t="s">
+      <c r="C130" s="212" t="s">
         <v>283</v>
       </c>
-      <c r="D130" s="238"/>
-      <c r="E130" s="238"/>
-      <c r="F130" s="238"/>
-      <c r="G130" s="238"/>
-      <c r="H130" s="238"/>
-      <c r="I130" s="238"/>
-      <c r="J130" s="238"/>
-      <c r="K130" s="238"/>
-      <c r="L130" s="238"/>
-      <c r="M130" s="239"/>
+      <c r="D130" s="213"/>
+      <c r="E130" s="213"/>
+      <c r="F130" s="213"/>
+      <c r="G130" s="213"/>
+      <c r="H130" s="213"/>
+      <c r="I130" s="213"/>
+      <c r="J130" s="213"/>
+      <c r="K130" s="213"/>
+      <c r="L130" s="213"/>
+      <c r="M130" s="214"/>
     </row>
     <row r="131" spans="2:13" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131" s="58"/>
@@ -4971,19 +4965,19 @@
     </row>
     <row r="144" spans="2:13" ht="87" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="58"/>
-      <c r="C144" s="240" t="s">
+      <c r="C144" s="215" t="s">
         <v>284</v>
       </c>
-      <c r="D144" s="240"/>
-      <c r="E144" s="240"/>
-      <c r="F144" s="240"/>
-      <c r="G144" s="240"/>
-      <c r="H144" s="240"/>
-      <c r="I144" s="240"/>
-      <c r="J144" s="240"/>
-      <c r="K144" s="240"/>
-      <c r="L144" s="240"/>
-      <c r="M144" s="240"/>
+      <c r="D144" s="215"/>
+      <c r="E144" s="215"/>
+      <c r="F144" s="215"/>
+      <c r="G144" s="215"/>
+      <c r="H144" s="215"/>
+      <c r="I144" s="215"/>
+      <c r="J144" s="215"/>
+      <c r="K144" s="215"/>
+      <c r="L144" s="215"/>
+      <c r="M144" s="215"/>
     </row>
     <row r="145" spans="2:13" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B145" s="58"/>
@@ -5001,11 +4995,11 @@
     </row>
     <row r="146" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B146" s="18"/>
-      <c r="C146" s="165" t="s">
+      <c r="C146" s="216" t="s">
         <v>91</v>
       </c>
-      <c r="D146" s="165"/>
-      <c r="E146" s="165"/>
+      <c r="D146" s="216"/>
+      <c r="E146" s="216"/>
       <c r="H146" s="106"/>
       <c r="I146" s="18" t="s">
         <v>92</v>
@@ -5029,11 +5023,11 @@
     </row>
     <row r="148" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B148" s="18"/>
-      <c r="C148" s="165" t="s">
+      <c r="C148" s="216" t="s">
         <v>93</v>
       </c>
-      <c r="D148" s="165"/>
-      <c r="E148" s="165"/>
+      <c r="D148" s="216"/>
+      <c r="E148" s="216"/>
       <c r="H148" s="106"/>
       <c r="I148" s="18" t="s">
         <v>94</v>
@@ -5057,11 +5051,11 @@
     </row>
     <row r="150" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B150" s="18"/>
-      <c r="C150" s="165" t="s">
+      <c r="C150" s="216" t="s">
         <v>95</v>
       </c>
-      <c r="D150" s="165"/>
-      <c r="E150" s="165"/>
+      <c r="D150" s="216"/>
+      <c r="E150" s="216"/>
       <c r="H150" s="106"/>
       <c r="I150" s="25"/>
       <c r="J150" s="25"/>
@@ -5083,12 +5077,12 @@
     </row>
     <row r="152" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B152" s="18"/>
-      <c r="C152" s="165" t="s">
+      <c r="C152" s="216" t="s">
         <v>96</v>
       </c>
-      <c r="D152" s="165"/>
-      <c r="E152" s="165"/>
-      <c r="F152" s="165"/>
+      <c r="D152" s="216"/>
+      <c r="E152" s="216"/>
+      <c r="F152" s="216"/>
       <c r="H152" s="106"/>
       <c r="I152" s="25"/>
       <c r="J152" s="25"/>
@@ -5111,13 +5105,13 @@
     </row>
     <row r="154" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B154" s="18"/>
-      <c r="C154" s="165" t="s">
+      <c r="C154" s="216" t="s">
         <v>97</v>
       </c>
-      <c r="D154" s="165"/>
-      <c r="E154" s="165"/>
-      <c r="F154" s="165"/>
-      <c r="G154" s="166"/>
+      <c r="D154" s="216"/>
+      <c r="E154" s="216"/>
+      <c r="F154" s="216"/>
+      <c r="G154" s="251"/>
       <c r="H154" s="106"/>
       <c r="I154" s="25"/>
     </row>
@@ -5245,19 +5239,19 @@
     </row>
     <row r="163" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B163" s="18"/>
-      <c r="C163" s="263" t="s">
+      <c r="C163" s="248" t="s">
         <v>285</v>
       </c>
-      <c r="D163" s="264"/>
-      <c r="E163" s="264"/>
-      <c r="F163" s="264"/>
-      <c r="G163" s="264"/>
-      <c r="H163" s="264"/>
-      <c r="I163" s="264"/>
-      <c r="J163" s="264"/>
-      <c r="K163" s="264"/>
-      <c r="L163" s="264"/>
-      <c r="M163" s="265"/>
+      <c r="D163" s="249"/>
+      <c r="E163" s="249"/>
+      <c r="F163" s="249"/>
+      <c r="G163" s="249"/>
+      <c r="H163" s="249"/>
+      <c r="I163" s="249"/>
+      <c r="J163" s="249"/>
+      <c r="K163" s="249"/>
+      <c r="L163" s="249"/>
+      <c r="M163" s="250"/>
     </row>
     <row r="164" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B164" s="18"/>
@@ -5475,12 +5469,12 @@
     </row>
     <row r="180" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B180" s="25"/>
-      <c r="C180" s="165" t="s">
+      <c r="C180" s="216" t="s">
         <v>93</v>
       </c>
-      <c r="D180" s="165"/>
-      <c r="E180" s="165"/>
-      <c r="F180" s="165"/>
+      <c r="D180" s="216"/>
+      <c r="E180" s="216"/>
+      <c r="F180" s="216"/>
       <c r="G180" s="79"/>
       <c r="H180" s="103"/>
       <c r="I180" s="18" t="s">
@@ -5507,13 +5501,13 @@
     </row>
     <row r="182" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B182" s="25"/>
-      <c r="C182" s="165" t="s">
+      <c r="C182" s="216" t="s">
         <v>112</v>
       </c>
-      <c r="D182" s="165"/>
-      <c r="E182" s="165"/>
-      <c r="F182" s="165"/>
-      <c r="G182" s="166"/>
+      <c r="D182" s="216"/>
+      <c r="E182" s="216"/>
+      <c r="F182" s="216"/>
+      <c r="G182" s="251"/>
       <c r="H182" s="103"/>
       <c r="I182" s="25"/>
       <c r="J182" s="25"/>
@@ -5567,13 +5561,13 @@
     </row>
     <row r="186" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B186" s="25"/>
-      <c r="C186" s="165" t="s">
+      <c r="C186" s="216" t="s">
         <v>114</v>
       </c>
-      <c r="D186" s="165"/>
-      <c r="E186" s="165"/>
-      <c r="F186" s="165"/>
-      <c r="G186" s="166"/>
+      <c r="D186" s="216"/>
+      <c r="E186" s="216"/>
+      <c r="F186" s="216"/>
+      <c r="G186" s="251"/>
       <c r="H186" s="103"/>
       <c r="I186" s="25"/>
       <c r="J186" s="25"/>
@@ -5686,79 +5680,79 @@
     </row>
     <row r="194" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B194" s="21"/>
-      <c r="C194" s="182" t="s">
+      <c r="C194" s="229" t="s">
         <v>286</v>
       </c>
-      <c r="D194" s="183"/>
-      <c r="E194" s="183"/>
-      <c r="F194" s="183"/>
-      <c r="G194" s="183"/>
-      <c r="H194" s="183"/>
-      <c r="I194" s="183"/>
-      <c r="J194" s="183"/>
-      <c r="K194" s="183"/>
-      <c r="L194" s="183"/>
-      <c r="M194" s="184"/>
+      <c r="D194" s="230"/>
+      <c r="E194" s="230"/>
+      <c r="F194" s="230"/>
+      <c r="G194" s="230"/>
+      <c r="H194" s="230"/>
+      <c r="I194" s="230"/>
+      <c r="J194" s="230"/>
+      <c r="K194" s="230"/>
+      <c r="L194" s="230"/>
+      <c r="M194" s="231"/>
       <c r="N194" s="21"/>
     </row>
     <row r="195" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B195" s="21"/>
-      <c r="C195" s="185"/>
-      <c r="D195" s="186"/>
-      <c r="E195" s="186"/>
-      <c r="F195" s="186"/>
-      <c r="G195" s="186"/>
-      <c r="H195" s="186"/>
-      <c r="I195" s="186"/>
-      <c r="J195" s="186"/>
-      <c r="K195" s="186"/>
-      <c r="L195" s="186"/>
-      <c r="M195" s="187"/>
+      <c r="C195" s="232"/>
+      <c r="D195" s="233"/>
+      <c r="E195" s="233"/>
+      <c r="F195" s="233"/>
+      <c r="G195" s="233"/>
+      <c r="H195" s="233"/>
+      <c r="I195" s="233"/>
+      <c r="J195" s="233"/>
+      <c r="K195" s="233"/>
+      <c r="L195" s="233"/>
+      <c r="M195" s="234"/>
       <c r="N195" s="2"/>
     </row>
     <row r="196" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B196" s="21"/>
-      <c r="C196" s="185"/>
-      <c r="D196" s="186"/>
-      <c r="E196" s="186"/>
-      <c r="F196" s="186"/>
-      <c r="G196" s="186"/>
-      <c r="H196" s="186"/>
-      <c r="I196" s="186"/>
-      <c r="J196" s="186"/>
-      <c r="K196" s="186"/>
-      <c r="L196" s="186"/>
-      <c r="M196" s="187"/>
+      <c r="C196" s="232"/>
+      <c r="D196" s="233"/>
+      <c r="E196" s="233"/>
+      <c r="F196" s="233"/>
+      <c r="G196" s="233"/>
+      <c r="H196" s="233"/>
+      <c r="I196" s="233"/>
+      <c r="J196" s="233"/>
+      <c r="K196" s="233"/>
+      <c r="L196" s="233"/>
+      <c r="M196" s="234"/>
       <c r="N196" s="2"/>
     </row>
     <row r="197" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B197" s="21"/>
-      <c r="C197" s="185"/>
-      <c r="D197" s="186"/>
-      <c r="E197" s="186"/>
-      <c r="F197" s="186"/>
-      <c r="G197" s="186"/>
-      <c r="H197" s="186"/>
-      <c r="I197" s="186"/>
-      <c r="J197" s="186"/>
-      <c r="K197" s="186"/>
-      <c r="L197" s="186"/>
-      <c r="M197" s="187"/>
+      <c r="C197" s="232"/>
+      <c r="D197" s="233"/>
+      <c r="E197" s="233"/>
+      <c r="F197" s="233"/>
+      <c r="G197" s="233"/>
+      <c r="H197" s="233"/>
+      <c r="I197" s="233"/>
+      <c r="J197" s="233"/>
+      <c r="K197" s="233"/>
+      <c r="L197" s="233"/>
+      <c r="M197" s="234"/>
       <c r="N197" s="2"/>
     </row>
     <row r="198" spans="2:14" ht="99.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B198" s="21"/>
-      <c r="C198" s="188"/>
-      <c r="D198" s="189"/>
-      <c r="E198" s="189"/>
-      <c r="F198" s="189"/>
-      <c r="G198" s="189"/>
-      <c r="H198" s="189"/>
-      <c r="I198" s="189"/>
-      <c r="J198" s="189"/>
-      <c r="K198" s="189"/>
-      <c r="L198" s="189"/>
-      <c r="M198" s="190"/>
+      <c r="C198" s="235"/>
+      <c r="D198" s="236"/>
+      <c r="E198" s="236"/>
+      <c r="F198" s="236"/>
+      <c r="G198" s="236"/>
+      <c r="H198" s="236"/>
+      <c r="I198" s="236"/>
+      <c r="J198" s="236"/>
+      <c r="K198" s="236"/>
+      <c r="L198" s="236"/>
+      <c r="M198" s="237"/>
       <c r="N198" s="2"/>
     </row>
     <row r="199" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -5795,79 +5789,79 @@
     </row>
     <row r="201" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B201" s="21"/>
-      <c r="C201" s="182" t="s">
+      <c r="C201" s="229" t="s">
         <v>287</v>
       </c>
-      <c r="D201" s="183"/>
-      <c r="E201" s="183"/>
-      <c r="F201" s="183"/>
-      <c r="G201" s="183"/>
-      <c r="H201" s="183"/>
-      <c r="I201" s="183"/>
-      <c r="J201" s="183"/>
-      <c r="K201" s="183"/>
-      <c r="L201" s="183"/>
-      <c r="M201" s="184"/>
+      <c r="D201" s="230"/>
+      <c r="E201" s="230"/>
+      <c r="F201" s="230"/>
+      <c r="G201" s="230"/>
+      <c r="H201" s="230"/>
+      <c r="I201" s="230"/>
+      <c r="J201" s="230"/>
+      <c r="K201" s="230"/>
+      <c r="L201" s="230"/>
+      <c r="M201" s="231"/>
       <c r="N201" s="34"/>
     </row>
     <row r="202" spans="2:14" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B202" s="21"/>
-      <c r="C202" s="185"/>
-      <c r="D202" s="186"/>
-      <c r="E202" s="186"/>
-      <c r="F202" s="186"/>
-      <c r="G202" s="186"/>
-      <c r="H202" s="186"/>
-      <c r="I202" s="186"/>
-      <c r="J202" s="186"/>
-      <c r="K202" s="186"/>
-      <c r="L202" s="186"/>
-      <c r="M202" s="187"/>
+      <c r="C202" s="232"/>
+      <c r="D202" s="233"/>
+      <c r="E202" s="233"/>
+      <c r="F202" s="233"/>
+      <c r="G202" s="233"/>
+      <c r="H202" s="233"/>
+      <c r="I202" s="233"/>
+      <c r="J202" s="233"/>
+      <c r="K202" s="233"/>
+      <c r="L202" s="233"/>
+      <c r="M202" s="234"/>
       <c r="N202" s="2"/>
     </row>
     <row r="203" spans="2:14" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B203" s="21"/>
-      <c r="C203" s="185"/>
-      <c r="D203" s="186"/>
-      <c r="E203" s="186"/>
-      <c r="F203" s="186"/>
-      <c r="G203" s="186"/>
-      <c r="H203" s="186"/>
-      <c r="I203" s="186"/>
-      <c r="J203" s="186"/>
-      <c r="K203" s="186"/>
-      <c r="L203" s="186"/>
-      <c r="M203" s="187"/>
+      <c r="C203" s="232"/>
+      <c r="D203" s="233"/>
+      <c r="E203" s="233"/>
+      <c r="F203" s="233"/>
+      <c r="G203" s="233"/>
+      <c r="H203" s="233"/>
+      <c r="I203" s="233"/>
+      <c r="J203" s="233"/>
+      <c r="K203" s="233"/>
+      <c r="L203" s="233"/>
+      <c r="M203" s="234"/>
       <c r="N203" s="2"/>
     </row>
     <row r="204" spans="2:14" ht="35.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B204" s="21"/>
-      <c r="C204" s="185"/>
-      <c r="D204" s="186"/>
-      <c r="E204" s="186"/>
-      <c r="F204" s="186"/>
-      <c r="G204" s="186"/>
-      <c r="H204" s="186"/>
-      <c r="I204" s="186"/>
-      <c r="J204" s="186"/>
-      <c r="K204" s="186"/>
-      <c r="L204" s="186"/>
-      <c r="M204" s="187"/>
+      <c r="C204" s="232"/>
+      <c r="D204" s="233"/>
+      <c r="E204" s="233"/>
+      <c r="F204" s="233"/>
+      <c r="G204" s="233"/>
+      <c r="H204" s="233"/>
+      <c r="I204" s="233"/>
+      <c r="J204" s="233"/>
+      <c r="K204" s="233"/>
+      <c r="L204" s="233"/>
+      <c r="M204" s="234"/>
       <c r="N204" s="2"/>
     </row>
     <row r="205" spans="2:14" ht="39" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B205" s="21"/>
-      <c r="C205" s="188"/>
-      <c r="D205" s="189"/>
-      <c r="E205" s="189"/>
-      <c r="F205" s="189"/>
-      <c r="G205" s="189"/>
-      <c r="H205" s="189"/>
-      <c r="I205" s="189"/>
-      <c r="J205" s="189"/>
-      <c r="K205" s="189"/>
-      <c r="L205" s="189"/>
-      <c r="M205" s="190"/>
+      <c r="C205" s="235"/>
+      <c r="D205" s="236"/>
+      <c r="E205" s="236"/>
+      <c r="F205" s="236"/>
+      <c r="G205" s="236"/>
+      <c r="H205" s="236"/>
+      <c r="I205" s="236"/>
+      <c r="J205" s="236"/>
+      <c r="K205" s="236"/>
+      <c r="L205" s="236"/>
+      <c r="M205" s="237"/>
       <c r="N205" s="2"/>
     </row>
     <row r="206" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -6014,49 +6008,49 @@
     </row>
     <row r="215" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B215" s="18"/>
-      <c r="C215" s="225" t="s">
+      <c r="C215" s="200" t="s">
         <v>292</v>
       </c>
-      <c r="D215" s="226"/>
-      <c r="E215" s="226"/>
-      <c r="F215" s="226"/>
-      <c r="G215" s="226"/>
-      <c r="H215" s="226"/>
-      <c r="I215" s="226"/>
-      <c r="J215" s="226"/>
-      <c r="K215" s="226"/>
-      <c r="L215" s="226"/>
-      <c r="M215" s="227"/>
+      <c r="D215" s="201"/>
+      <c r="E215" s="201"/>
+      <c r="F215" s="201"/>
+      <c r="G215" s="201"/>
+      <c r="H215" s="201"/>
+      <c r="I215" s="201"/>
+      <c r="J215" s="201"/>
+      <c r="K215" s="201"/>
+      <c r="L215" s="201"/>
+      <c r="M215" s="202"/>
       <c r="N215" s="34"/>
     </row>
     <row r="216" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B216" s="18"/>
-      <c r="C216" s="228"/>
-      <c r="D216" s="229"/>
-      <c r="E216" s="229"/>
-      <c r="F216" s="229"/>
-      <c r="G216" s="229"/>
-      <c r="H216" s="229"/>
-      <c r="I216" s="229"/>
-      <c r="J216" s="229"/>
-      <c r="K216" s="229"/>
-      <c r="L216" s="229"/>
-      <c r="M216" s="230"/>
+      <c r="C216" s="203"/>
+      <c r="D216" s="204"/>
+      <c r="E216" s="204"/>
+      <c r="F216" s="204"/>
+      <c r="G216" s="204"/>
+      <c r="H216" s="204"/>
+      <c r="I216" s="204"/>
+      <c r="J216" s="204"/>
+      <c r="K216" s="204"/>
+      <c r="L216" s="204"/>
+      <c r="M216" s="205"/>
       <c r="N216" s="60"/>
     </row>
     <row r="217" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B217" s="18"/>
-      <c r="C217" s="231"/>
-      <c r="D217" s="232"/>
-      <c r="E217" s="232"/>
-      <c r="F217" s="232"/>
-      <c r="G217" s="232"/>
-      <c r="H217" s="232"/>
-      <c r="I217" s="232"/>
-      <c r="J217" s="232"/>
-      <c r="K217" s="232"/>
-      <c r="L217" s="232"/>
-      <c r="M217" s="233"/>
+      <c r="C217" s="206"/>
+      <c r="D217" s="207"/>
+      <c r="E217" s="207"/>
+      <c r="F217" s="207"/>
+      <c r="G217" s="207"/>
+      <c r="H217" s="207"/>
+      <c r="I217" s="207"/>
+      <c r="J217" s="207"/>
+      <c r="K217" s="207"/>
+      <c r="L217" s="207"/>
+      <c r="M217" s="208"/>
       <c r="N217" s="60"/>
     </row>
     <row r="218" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
@@ -6091,10 +6085,10 @@
     </row>
     <row r="220" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B220" s="18"/>
-      <c r="C220" s="165" t="s">
+      <c r="C220" s="216" t="s">
         <v>122</v>
       </c>
-      <c r="D220" s="165"/>
+      <c r="D220" s="216"/>
       <c r="E220" s="82"/>
       <c r="F220" s="79"/>
       <c r="G220" s="13"/>
@@ -6219,19 +6213,19 @@
     </row>
     <row r="228" spans="2:15" ht="49.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B228" s="18"/>
-      <c r="C228" s="197" t="s">
+      <c r="C228" s="223" t="s">
         <v>291</v>
       </c>
-      <c r="D228" s="198"/>
-      <c r="E228" s="198"/>
-      <c r="F228" s="198"/>
-      <c r="G228" s="198"/>
-      <c r="H228" s="198"/>
-      <c r="I228" s="198"/>
-      <c r="J228" s="198"/>
-      <c r="K228" s="198"/>
-      <c r="L228" s="198"/>
-      <c r="M228" s="199"/>
+      <c r="D228" s="224"/>
+      <c r="E228" s="224"/>
+      <c r="F228" s="224"/>
+      <c r="G228" s="224"/>
+      <c r="H228" s="224"/>
+      <c r="I228" s="224"/>
+      <c r="J228" s="224"/>
+      <c r="K228" s="224"/>
+      <c r="L228" s="224"/>
+      <c r="M228" s="225"/>
     </row>
     <row r="229" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B229" s="18"/>
@@ -6340,51 +6334,51 @@
     </row>
     <row r="236" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B236" s="18"/>
-      <c r="C236" s="173" t="s">
+      <c r="C236" s="255" t="s">
         <v>129</v>
       </c>
-      <c r="D236" s="174"/>
-      <c r="E236" s="174"/>
-      <c r="F236" s="174"/>
-      <c r="G236" s="174"/>
-      <c r="H236" s="174"/>
-      <c r="I236" s="174"/>
-      <c r="J236" s="174"/>
-      <c r="K236" s="174"/>
-      <c r="L236" s="174"/>
-      <c r="M236" s="175"/>
+      <c r="D236" s="256"/>
+      <c r="E236" s="256"/>
+      <c r="F236" s="256"/>
+      <c r="G236" s="256"/>
+      <c r="H236" s="256"/>
+      <c r="I236" s="256"/>
+      <c r="J236" s="256"/>
+      <c r="K236" s="256"/>
+      <c r="L236" s="256"/>
+      <c r="M236" s="257"/>
       <c r="N236" s="34"/>
       <c r="O236" s="2"/>
     </row>
     <row r="237" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B237" s="18"/>
-      <c r="C237" s="176"/>
-      <c r="D237" s="177"/>
-      <c r="E237" s="177"/>
-      <c r="F237" s="177"/>
-      <c r="G237" s="177"/>
-      <c r="H237" s="177"/>
-      <c r="I237" s="177"/>
-      <c r="J237" s="177"/>
-      <c r="K237" s="177"/>
-      <c r="L237" s="177"/>
-      <c r="M237" s="178"/>
+      <c r="C237" s="258"/>
+      <c r="D237" s="259"/>
+      <c r="E237" s="259"/>
+      <c r="F237" s="259"/>
+      <c r="G237" s="259"/>
+      <c r="H237" s="259"/>
+      <c r="I237" s="259"/>
+      <c r="J237" s="259"/>
+      <c r="K237" s="259"/>
+      <c r="L237" s="259"/>
+      <c r="M237" s="260"/>
       <c r="N237" s="60"/>
       <c r="O237" s="2"/>
     </row>
     <row r="238" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B238" s="18"/>
-      <c r="C238" s="179"/>
-      <c r="D238" s="180"/>
-      <c r="E238" s="180"/>
-      <c r="F238" s="180"/>
-      <c r="G238" s="180"/>
-      <c r="H238" s="180"/>
-      <c r="I238" s="180"/>
-      <c r="J238" s="180"/>
-      <c r="K238" s="180"/>
-      <c r="L238" s="180"/>
-      <c r="M238" s="181"/>
+      <c r="C238" s="261"/>
+      <c r="D238" s="262"/>
+      <c r="E238" s="262"/>
+      <c r="F238" s="262"/>
+      <c r="G238" s="262"/>
+      <c r="H238" s="262"/>
+      <c r="I238" s="262"/>
+      <c r="J238" s="262"/>
+      <c r="K238" s="262"/>
+      <c r="L238" s="262"/>
+      <c r="M238" s="263"/>
       <c r="N238" s="60"/>
       <c r="O238" s="2"/>
     </row>
@@ -6499,35 +6493,35 @@
     </row>
     <row r="246" spans="2:13" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B246" s="18"/>
-      <c r="C246" s="168" t="s">
+      <c r="C246" s="272" t="s">
         <v>269</v>
       </c>
-      <c r="D246" s="168"/>
-      <c r="E246" s="168"/>
-      <c r="F246" s="168"/>
-      <c r="G246" s="168"/>
-      <c r="H246" s="168"/>
-      <c r="I246" s="168"/>
-      <c r="J246" s="168"/>
-      <c r="K246" s="168"/>
-      <c r="L246" s="168"/>
-      <c r="M246" s="168"/>
+      <c r="D246" s="272"/>
+      <c r="E246" s="272"/>
+      <c r="F246" s="272"/>
+      <c r="G246" s="272"/>
+      <c r="H246" s="272"/>
+      <c r="I246" s="272"/>
+      <c r="J246" s="272"/>
+      <c r="K246" s="272"/>
+      <c r="L246" s="272"/>
+      <c r="M246" s="272"/>
     </row>
     <row r="247" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B247" s="18"/>
-      <c r="C247" s="168" t="s">
+      <c r="C247" s="272" t="s">
         <v>133</v>
       </c>
-      <c r="D247" s="168"/>
-      <c r="E247" s="168"/>
-      <c r="F247" s="168"/>
-      <c r="G247" s="168"/>
-      <c r="H247" s="168"/>
-      <c r="I247" s="168"/>
-      <c r="J247" s="168"/>
-      <c r="K247" s="168"/>
-      <c r="L247" s="168"/>
-      <c r="M247" s="168"/>
+      <c r="D247" s="272"/>
+      <c r="E247" s="272"/>
+      <c r="F247" s="272"/>
+      <c r="G247" s="272"/>
+      <c r="H247" s="272"/>
+      <c r="I247" s="272"/>
+      <c r="J247" s="272"/>
+      <c r="K247" s="272"/>
+      <c r="L247" s="272"/>
+      <c r="M247" s="272"/>
     </row>
     <row r="248" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B248" s="18"/>
@@ -6733,83 +6727,83 @@
     </row>
     <row r="261" spans="2:15" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B261" s="18"/>
-      <c r="C261" s="182" t="s">
+      <c r="C261" s="229" t="s">
         <v>304</v>
       </c>
-      <c r="D261" s="183"/>
-      <c r="E261" s="183"/>
-      <c r="F261" s="183"/>
-      <c r="G261" s="183"/>
-      <c r="H261" s="183"/>
-      <c r="I261" s="183"/>
-      <c r="J261" s="183"/>
-      <c r="K261" s="183"/>
-      <c r="L261" s="183"/>
-      <c r="M261" s="184"/>
+      <c r="D261" s="230"/>
+      <c r="E261" s="230"/>
+      <c r="F261" s="230"/>
+      <c r="G261" s="230"/>
+      <c r="H261" s="230"/>
+      <c r="I261" s="230"/>
+      <c r="J261" s="230"/>
+      <c r="K261" s="230"/>
+      <c r="L261" s="230"/>
+      <c r="M261" s="231"/>
       <c r="N261" s="34"/>
       <c r="O261" s="2"/>
     </row>
     <row r="262" spans="2:15" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B262" s="18"/>
-      <c r="C262" s="185"/>
-      <c r="D262" s="186"/>
-      <c r="E262" s="186"/>
-      <c r="F262" s="186"/>
-      <c r="G262" s="186"/>
-      <c r="H262" s="186"/>
-      <c r="I262" s="186"/>
-      <c r="J262" s="186"/>
-      <c r="K262" s="186"/>
-      <c r="L262" s="186"/>
-      <c r="M262" s="187"/>
+      <c r="C262" s="232"/>
+      <c r="D262" s="233"/>
+      <c r="E262" s="233"/>
+      <c r="F262" s="233"/>
+      <c r="G262" s="233"/>
+      <c r="H262" s="233"/>
+      <c r="I262" s="233"/>
+      <c r="J262" s="233"/>
+      <c r="K262" s="233"/>
+      <c r="L262" s="233"/>
+      <c r="M262" s="234"/>
       <c r="N262" s="60"/>
       <c r="O262" s="2"/>
     </row>
     <row r="263" spans="2:15" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B263" s="18"/>
-      <c r="C263" s="185"/>
-      <c r="D263" s="186"/>
-      <c r="E263" s="186"/>
-      <c r="F263" s="186"/>
-      <c r="G263" s="186"/>
-      <c r="H263" s="186"/>
-      <c r="I263" s="186"/>
-      <c r="J263" s="186"/>
-      <c r="K263" s="186"/>
-      <c r="L263" s="186"/>
-      <c r="M263" s="187"/>
+      <c r="C263" s="232"/>
+      <c r="D263" s="233"/>
+      <c r="E263" s="233"/>
+      <c r="F263" s="233"/>
+      <c r="G263" s="233"/>
+      <c r="H263" s="233"/>
+      <c r="I263" s="233"/>
+      <c r="J263" s="233"/>
+      <c r="K263" s="233"/>
+      <c r="L263" s="233"/>
+      <c r="M263" s="234"/>
       <c r="N263" s="60"/>
       <c r="O263" s="2"/>
     </row>
     <row r="264" spans="2:15" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B264" s="18"/>
-      <c r="C264" s="185"/>
-      <c r="D264" s="186"/>
-      <c r="E264" s="186"/>
-      <c r="F264" s="186"/>
-      <c r="G264" s="186"/>
-      <c r="H264" s="186"/>
-      <c r="I264" s="186"/>
-      <c r="J264" s="186"/>
-      <c r="K264" s="186"/>
-      <c r="L264" s="186"/>
-      <c r="M264" s="187"/>
+      <c r="C264" s="232"/>
+      <c r="D264" s="233"/>
+      <c r="E264" s="233"/>
+      <c r="F264" s="233"/>
+      <c r="G264" s="233"/>
+      <c r="H264" s="233"/>
+      <c r="I264" s="233"/>
+      <c r="J264" s="233"/>
+      <c r="K264" s="233"/>
+      <c r="L264" s="233"/>
+      <c r="M264" s="234"/>
       <c r="N264" s="60"/>
       <c r="O264" s="2"/>
     </row>
     <row r="265" spans="2:15" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B265" s="18"/>
-      <c r="C265" s="188"/>
-      <c r="D265" s="189"/>
-      <c r="E265" s="189"/>
-      <c r="F265" s="189"/>
-      <c r="G265" s="189"/>
-      <c r="H265" s="189"/>
-      <c r="I265" s="189"/>
-      <c r="J265" s="189"/>
-      <c r="K265" s="189"/>
-      <c r="L265" s="189"/>
-      <c r="M265" s="190"/>
+      <c r="C265" s="235"/>
+      <c r="D265" s="236"/>
+      <c r="E265" s="236"/>
+      <c r="F265" s="236"/>
+      <c r="G265" s="236"/>
+      <c r="H265" s="236"/>
+      <c r="I265" s="236"/>
+      <c r="J265" s="236"/>
+      <c r="K265" s="236"/>
+      <c r="L265" s="236"/>
+      <c r="M265" s="237"/>
       <c r="N265" s="60"/>
       <c r="O265" s="2"/>
     </row>
@@ -6865,28 +6859,28 @@
     </row>
     <row r="269" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B269" s="18"/>
-      <c r="C269" s="169" t="s">
+      <c r="C269" s="183" t="s">
         <v>253</v>
       </c>
-      <c r="D269" s="169"/>
-      <c r="E269" s="192" t="s">
+      <c r="D269" s="183"/>
+      <c r="E269" s="179" t="s">
         <v>141</v>
       </c>
-      <c r="F269" s="193"/>
-      <c r="G269" s="193"/>
-      <c r="H269" s="193"/>
-      <c r="I269" s="193"/>
-      <c r="J269" s="193"/>
-      <c r="K269" s="193"/>
-      <c r="L269" s="193"/>
-      <c r="M269" s="194"/>
+      <c r="F269" s="180"/>
+      <c r="G269" s="180"/>
+      <c r="H269" s="180"/>
+      <c r="I269" s="180"/>
+      <c r="J269" s="180"/>
+      <c r="K269" s="180"/>
+      <c r="L269" s="180"/>
+      <c r="M269" s="181"/>
       <c r="N269" s="34"/>
       <c r="O269" s="2"/>
     </row>
     <row r="270" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B270" s="18"/>
-      <c r="C270" s="167"/>
-      <c r="D270" s="167"/>
+      <c r="C270" s="271"/>
+      <c r="D270" s="271"/>
       <c r="E270" s="71"/>
       <c r="F270" s="73"/>
       <c r="G270" s="73"/>
@@ -6901,8 +6895,8 @@
     </row>
     <row r="271" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B271" s="18"/>
-      <c r="C271" s="167"/>
-      <c r="D271" s="167"/>
+      <c r="C271" s="271"/>
+      <c r="D271" s="271"/>
       <c r="E271" s="71"/>
       <c r="F271" s="73"/>
       <c r="G271" s="73"/>
@@ -6917,8 +6911,8 @@
     </row>
     <row r="272" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B272" s="18"/>
-      <c r="C272" s="167"/>
-      <c r="D272" s="167"/>
+      <c r="C272" s="271"/>
+      <c r="D272" s="271"/>
       <c r="E272" s="71"/>
       <c r="F272" s="73"/>
       <c r="G272" s="73"/>
@@ -6933,8 +6927,8 @@
     </row>
     <row r="273" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B273" s="18"/>
-      <c r="C273" s="167"/>
-      <c r="D273" s="167"/>
+      <c r="C273" s="271"/>
+      <c r="D273" s="271"/>
       <c r="E273" s="71"/>
       <c r="F273" s="73"/>
       <c r="G273" s="73"/>
@@ -6999,83 +6993,83 @@
     </row>
     <row r="277" spans="2:15" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B277" s="18"/>
-      <c r="C277" s="191" t="s">
+      <c r="C277" s="276" t="s">
         <v>302</v>
       </c>
-      <c r="D277" s="191"/>
-      <c r="E277" s="191"/>
-      <c r="F277" s="191"/>
-      <c r="G277" s="191"/>
-      <c r="H277" s="191"/>
-      <c r="I277" s="191"/>
-      <c r="J277" s="191"/>
-      <c r="K277" s="191"/>
-      <c r="L277" s="191"/>
-      <c r="M277" s="191"/>
+      <c r="D277" s="276"/>
+      <c r="E277" s="276"/>
+      <c r="F277" s="276"/>
+      <c r="G277" s="276"/>
+      <c r="H277" s="276"/>
+      <c r="I277" s="276"/>
+      <c r="J277" s="276"/>
+      <c r="K277" s="276"/>
+      <c r="L277" s="276"/>
+      <c r="M277" s="276"/>
       <c r="N277" s="34"/>
       <c r="O277" s="2"/>
     </row>
     <row r="278" spans="2:15" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B278" s="18"/>
-      <c r="C278" s="191"/>
-      <c r="D278" s="191"/>
-      <c r="E278" s="191"/>
-      <c r="F278" s="191"/>
-      <c r="G278" s="191"/>
-      <c r="H278" s="191"/>
-      <c r="I278" s="191"/>
-      <c r="J278" s="191"/>
-      <c r="K278" s="191"/>
-      <c r="L278" s="191"/>
-      <c r="M278" s="191"/>
+      <c r="C278" s="276"/>
+      <c r="D278" s="276"/>
+      <c r="E278" s="276"/>
+      <c r="F278" s="276"/>
+      <c r="G278" s="276"/>
+      <c r="H278" s="276"/>
+      <c r="I278" s="276"/>
+      <c r="J278" s="276"/>
+      <c r="K278" s="276"/>
+      <c r="L278" s="276"/>
+      <c r="M278" s="276"/>
       <c r="N278" s="60"/>
       <c r="O278" s="2"/>
     </row>
     <row r="279" spans="2:15" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B279" s="18"/>
-      <c r="C279" s="191"/>
-      <c r="D279" s="191"/>
-      <c r="E279" s="191"/>
-      <c r="F279" s="191"/>
-      <c r="G279" s="191"/>
-      <c r="H279" s="191"/>
-      <c r="I279" s="191"/>
-      <c r="J279" s="191"/>
-      <c r="K279" s="191"/>
-      <c r="L279" s="191"/>
-      <c r="M279" s="191"/>
+      <c r="C279" s="276"/>
+      <c r="D279" s="276"/>
+      <c r="E279" s="276"/>
+      <c r="F279" s="276"/>
+      <c r="G279" s="276"/>
+      <c r="H279" s="276"/>
+      <c r="I279" s="276"/>
+      <c r="J279" s="276"/>
+      <c r="K279" s="276"/>
+      <c r="L279" s="276"/>
+      <c r="M279" s="276"/>
       <c r="N279" s="60"/>
       <c r="O279" s="2"/>
     </row>
     <row r="280" spans="2:15" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B280" s="18"/>
-      <c r="C280" s="191"/>
-      <c r="D280" s="191"/>
-      <c r="E280" s="191"/>
-      <c r="F280" s="191"/>
-      <c r="G280" s="191"/>
-      <c r="H280" s="191"/>
-      <c r="I280" s="191"/>
-      <c r="J280" s="191"/>
-      <c r="K280" s="191"/>
-      <c r="L280" s="191"/>
-      <c r="M280" s="191"/>
+      <c r="C280" s="276"/>
+      <c r="D280" s="276"/>
+      <c r="E280" s="276"/>
+      <c r="F280" s="276"/>
+      <c r="G280" s="276"/>
+      <c r="H280" s="276"/>
+      <c r="I280" s="276"/>
+      <c r="J280" s="276"/>
+      <c r="K280" s="276"/>
+      <c r="L280" s="276"/>
+      <c r="M280" s="276"/>
       <c r="N280" s="60"/>
       <c r="O280" s="2"/>
     </row>
     <row r="281" spans="2:15" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B281" s="18"/>
-      <c r="C281" s="191"/>
-      <c r="D281" s="191"/>
-      <c r="E281" s="191"/>
-      <c r="F281" s="191"/>
-      <c r="G281" s="191"/>
-      <c r="H281" s="191"/>
-      <c r="I281" s="191"/>
-      <c r="J281" s="191"/>
-      <c r="K281" s="191"/>
-      <c r="L281" s="191"/>
-      <c r="M281" s="191"/>
+      <c r="C281" s="276"/>
+      <c r="D281" s="276"/>
+      <c r="E281" s="276"/>
+      <c r="F281" s="276"/>
+      <c r="G281" s="276"/>
+      <c r="H281" s="276"/>
+      <c r="I281" s="276"/>
+      <c r="J281" s="276"/>
+      <c r="K281" s="276"/>
+      <c r="L281" s="276"/>
+      <c r="M281" s="276"/>
       <c r="N281" s="60"/>
       <c r="O281" s="2"/>
     </row>
@@ -7131,12 +7125,12 @@
     </row>
     <row r="285" spans="2:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B285" s="18"/>
-      <c r="C285" s="165" t="s">
+      <c r="C285" s="216" t="s">
         <v>144</v>
       </c>
-      <c r="D285" s="165"/>
-      <c r="E285" s="165"/>
-      <c r="F285" s="166"/>
+      <c r="D285" s="216"/>
+      <c r="E285" s="216"/>
+      <c r="F285" s="251"/>
       <c r="G285" s="106"/>
       <c r="H285" s="25"/>
       <c r="I285" s="25"/>
@@ -7147,10 +7141,10 @@
     </row>
     <row r="286" spans="2:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B286" s="18"/>
-      <c r="C286" s="165"/>
-      <c r="D286" s="165"/>
-      <c r="E286" s="165"/>
-      <c r="F286" s="165"/>
+      <c r="C286" s="216"/>
+      <c r="D286" s="216"/>
+      <c r="E286" s="216"/>
+      <c r="F286" s="216"/>
       <c r="G286" s="13"/>
       <c r="H286" s="25"/>
       <c r="I286" s="25"/>
@@ -7161,12 +7155,12 @@
     </row>
     <row r="287" spans="2:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B287" s="18"/>
-      <c r="C287" s="165" t="s">
+      <c r="C287" s="216" t="s">
         <v>145</v>
       </c>
-      <c r="D287" s="165"/>
-      <c r="E287" s="165"/>
-      <c r="F287" s="166"/>
+      <c r="D287" s="216"/>
+      <c r="E287" s="216"/>
+      <c r="F287" s="251"/>
       <c r="G287" s="106"/>
       <c r="H287" s="18" t="s">
         <v>146</v>
@@ -7179,10 +7173,10 @@
     </row>
     <row r="288" spans="2:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B288" s="18"/>
-      <c r="C288" s="165"/>
-      <c r="D288" s="165"/>
-      <c r="E288" s="165"/>
-      <c r="F288" s="165"/>
+      <c r="C288" s="216"/>
+      <c r="D288" s="216"/>
+      <c r="E288" s="216"/>
+      <c r="F288" s="216"/>
       <c r="G288" s="13"/>
       <c r="H288" s="25"/>
       <c r="I288" s="25"/>
@@ -7193,12 +7187,12 @@
     </row>
     <row r="289" spans="2:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B289" s="18"/>
-      <c r="C289" s="165" t="s">
+      <c r="C289" s="216" t="s">
         <v>147</v>
       </c>
-      <c r="D289" s="165"/>
-      <c r="E289" s="165"/>
-      <c r="F289" s="166"/>
+      <c r="D289" s="216"/>
+      <c r="E289" s="216"/>
+      <c r="F289" s="251"/>
       <c r="G289" s="106"/>
       <c r="H289" s="25"/>
       <c r="I289" s="25"/>
@@ -7223,12 +7217,12 @@
     </row>
     <row r="291" spans="2:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B291" s="18"/>
-      <c r="C291" s="165" t="s">
+      <c r="C291" s="216" t="s">
         <v>148</v>
       </c>
-      <c r="D291" s="165"/>
-      <c r="E291" s="165"/>
-      <c r="F291" s="166"/>
+      <c r="D291" s="216"/>
+      <c r="E291" s="216"/>
+      <c r="F291" s="251"/>
       <c r="G291" s="106"/>
       <c r="H291" s="25"/>
       <c r="I291" s="25"/>
@@ -7253,12 +7247,12 @@
     </row>
     <row r="293" spans="2:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B293" s="18"/>
-      <c r="C293" s="165" t="s">
+      <c r="C293" s="216" t="s">
         <v>149</v>
       </c>
-      <c r="D293" s="165"/>
-      <c r="E293" s="165"/>
-      <c r="F293" s="166"/>
+      <c r="D293" s="216"/>
+      <c r="E293" s="216"/>
+      <c r="F293" s="251"/>
       <c r="G293" s="106"/>
       <c r="H293" s="25"/>
       <c r="I293" s="25"/>
@@ -7361,82 +7355,82 @@
     </row>
     <row r="300" spans="2:15" ht="6.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B300" s="18"/>
-      <c r="C300" s="182" t="s">
+      <c r="C300" s="229" t="s">
         <v>305</v>
       </c>
-      <c r="D300" s="183"/>
-      <c r="E300" s="183"/>
-      <c r="F300" s="183"/>
-      <c r="G300" s="183"/>
-      <c r="H300" s="183"/>
-      <c r="I300" s="183"/>
-      <c r="J300" s="183"/>
-      <c r="K300" s="183"/>
-      <c r="L300" s="183"/>
-      <c r="M300" s="184"/>
+      <c r="D300" s="230"/>
+      <c r="E300" s="230"/>
+      <c r="F300" s="230"/>
+      <c r="G300" s="230"/>
+      <c r="H300" s="230"/>
+      <c r="I300" s="230"/>
+      <c r="J300" s="230"/>
+      <c r="K300" s="230"/>
+      <c r="L300" s="230"/>
+      <c r="M300" s="231"/>
       <c r="N300" s="21"/>
     </row>
     <row r="301" spans="2:15" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B301" s="18"/>
-      <c r="C301" s="185"/>
-      <c r="D301" s="186"/>
-      <c r="E301" s="186"/>
-      <c r="F301" s="186"/>
-      <c r="G301" s="186"/>
-      <c r="H301" s="186"/>
-      <c r="I301" s="186"/>
-      <c r="J301" s="186"/>
-      <c r="K301" s="186"/>
-      <c r="L301" s="186"/>
-      <c r="M301" s="187"/>
+      <c r="C301" s="232"/>
+      <c r="D301" s="233"/>
+      <c r="E301" s="233"/>
+      <c r="F301" s="233"/>
+      <c r="G301" s="233"/>
+      <c r="H301" s="233"/>
+      <c r="I301" s="233"/>
+      <c r="J301" s="233"/>
+      <c r="K301" s="233"/>
+      <c r="L301" s="233"/>
+      <c r="M301" s="234"/>
       <c r="N301" s="60"/>
       <c r="O301" s="2"/>
     </row>
     <row r="302" spans="2:15" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B302" s="18"/>
-      <c r="C302" s="185"/>
-      <c r="D302" s="186"/>
-      <c r="E302" s="186"/>
-      <c r="F302" s="186"/>
-      <c r="G302" s="186"/>
-      <c r="H302" s="186"/>
-      <c r="I302" s="186"/>
-      <c r="J302" s="186"/>
-      <c r="K302" s="186"/>
-      <c r="L302" s="186"/>
-      <c r="M302" s="187"/>
+      <c r="C302" s="232"/>
+      <c r="D302" s="233"/>
+      <c r="E302" s="233"/>
+      <c r="F302" s="233"/>
+      <c r="G302" s="233"/>
+      <c r="H302" s="233"/>
+      <c r="I302" s="233"/>
+      <c r="J302" s="233"/>
+      <c r="K302" s="233"/>
+      <c r="L302" s="233"/>
+      <c r="M302" s="234"/>
       <c r="N302" s="60"/>
       <c r="O302" s="2"/>
     </row>
     <row r="303" spans="2:15" ht="30.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B303" s="18"/>
-      <c r="C303" s="185"/>
-      <c r="D303" s="186"/>
-      <c r="E303" s="186"/>
-      <c r="F303" s="186"/>
-      <c r="G303" s="186"/>
-      <c r="H303" s="186"/>
-      <c r="I303" s="186"/>
-      <c r="J303" s="186"/>
-      <c r="K303" s="186"/>
-      <c r="L303" s="186"/>
-      <c r="M303" s="187"/>
+      <c r="C303" s="232"/>
+      <c r="D303" s="233"/>
+      <c r="E303" s="233"/>
+      <c r="F303" s="233"/>
+      <c r="G303" s="233"/>
+      <c r="H303" s="233"/>
+      <c r="I303" s="233"/>
+      <c r="J303" s="233"/>
+      <c r="K303" s="233"/>
+      <c r="L303" s="233"/>
+      <c r="M303" s="234"/>
       <c r="N303" s="60"/>
       <c r="O303" s="2"/>
     </row>
     <row r="304" spans="2:15" ht="119.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B304" s="18"/>
-      <c r="C304" s="188"/>
-      <c r="D304" s="189"/>
-      <c r="E304" s="189"/>
-      <c r="F304" s="189"/>
-      <c r="G304" s="189"/>
-      <c r="H304" s="189"/>
-      <c r="I304" s="189"/>
-      <c r="J304" s="189"/>
-      <c r="K304" s="189"/>
-      <c r="L304" s="189"/>
-      <c r="M304" s="190"/>
+      <c r="C304" s="235"/>
+      <c r="D304" s="236"/>
+      <c r="E304" s="236"/>
+      <c r="F304" s="236"/>
+      <c r="G304" s="236"/>
+      <c r="H304" s="236"/>
+      <c r="I304" s="236"/>
+      <c r="J304" s="236"/>
+      <c r="K304" s="236"/>
+      <c r="L304" s="236"/>
+      <c r="M304" s="237"/>
       <c r="N304" s="60"/>
       <c r="O304" s="2"/>
     </row>
@@ -7475,83 +7469,83 @@
     </row>
     <row r="307" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B307" s="18"/>
-      <c r="C307" s="182" t="s">
+      <c r="C307" s="229" t="s">
         <v>293</v>
       </c>
-      <c r="D307" s="183"/>
-      <c r="E307" s="183"/>
-      <c r="F307" s="183"/>
-      <c r="G307" s="183"/>
-      <c r="H307" s="183"/>
-      <c r="I307" s="183"/>
-      <c r="J307" s="183"/>
-      <c r="K307" s="183"/>
-      <c r="L307" s="183"/>
-      <c r="M307" s="184"/>
+      <c r="D307" s="230"/>
+      <c r="E307" s="230"/>
+      <c r="F307" s="230"/>
+      <c r="G307" s="230"/>
+      <c r="H307" s="230"/>
+      <c r="I307" s="230"/>
+      <c r="J307" s="230"/>
+      <c r="K307" s="230"/>
+      <c r="L307" s="230"/>
+      <c r="M307" s="231"/>
       <c r="N307" s="34"/>
       <c r="O307" s="2"/>
     </row>
     <row r="308" spans="2:15" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B308" s="18"/>
-      <c r="C308" s="185"/>
-      <c r="D308" s="186"/>
-      <c r="E308" s="186"/>
-      <c r="F308" s="186"/>
-      <c r="G308" s="186"/>
-      <c r="H308" s="186"/>
-      <c r="I308" s="186"/>
-      <c r="J308" s="186"/>
-      <c r="K308" s="186"/>
-      <c r="L308" s="186"/>
-      <c r="M308" s="187"/>
+      <c r="C308" s="232"/>
+      <c r="D308" s="233"/>
+      <c r="E308" s="233"/>
+      <c r="F308" s="233"/>
+      <c r="G308" s="233"/>
+      <c r="H308" s="233"/>
+      <c r="I308" s="233"/>
+      <c r="J308" s="233"/>
+      <c r="K308" s="233"/>
+      <c r="L308" s="233"/>
+      <c r="M308" s="234"/>
       <c r="N308" s="60"/>
       <c r="O308" s="2"/>
     </row>
     <row r="309" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B309" s="18"/>
-      <c r="C309" s="185"/>
-      <c r="D309" s="186"/>
-      <c r="E309" s="186"/>
-      <c r="F309" s="186"/>
-      <c r="G309" s="186"/>
-      <c r="H309" s="186"/>
-      <c r="I309" s="186"/>
-      <c r="J309" s="186"/>
-      <c r="K309" s="186"/>
-      <c r="L309" s="186"/>
-      <c r="M309" s="187"/>
+      <c r="C309" s="232"/>
+      <c r="D309" s="233"/>
+      <c r="E309" s="233"/>
+      <c r="F309" s="233"/>
+      <c r="G309" s="233"/>
+      <c r="H309" s="233"/>
+      <c r="I309" s="233"/>
+      <c r="J309" s="233"/>
+      <c r="K309" s="233"/>
+      <c r="L309" s="233"/>
+      <c r="M309" s="234"/>
       <c r="N309" s="60"/>
       <c r="O309" s="2"/>
     </row>
     <row r="310" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B310" s="18"/>
-      <c r="C310" s="185"/>
-      <c r="D310" s="186"/>
-      <c r="E310" s="186"/>
-      <c r="F310" s="186"/>
-      <c r="G310" s="186"/>
-      <c r="H310" s="186"/>
-      <c r="I310" s="186"/>
-      <c r="J310" s="186"/>
-      <c r="K310" s="186"/>
-      <c r="L310" s="186"/>
-      <c r="M310" s="187"/>
+      <c r="C310" s="232"/>
+      <c r="D310" s="233"/>
+      <c r="E310" s="233"/>
+      <c r="F310" s="233"/>
+      <c r="G310" s="233"/>
+      <c r="H310" s="233"/>
+      <c r="I310" s="233"/>
+      <c r="J310" s="233"/>
+      <c r="K310" s="233"/>
+      <c r="L310" s="233"/>
+      <c r="M310" s="234"/>
       <c r="N310" s="60"/>
       <c r="O310" s="2"/>
     </row>
     <row r="311" spans="2:15" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B311" s="18"/>
-      <c r="C311" s="188"/>
-      <c r="D311" s="189"/>
-      <c r="E311" s="189"/>
-      <c r="F311" s="189"/>
-      <c r="G311" s="189"/>
-      <c r="H311" s="189"/>
-      <c r="I311" s="189"/>
-      <c r="J311" s="189"/>
-      <c r="K311" s="189"/>
-      <c r="L311" s="189"/>
-      <c r="M311" s="190"/>
+      <c r="C311" s="235"/>
+      <c r="D311" s="236"/>
+      <c r="E311" s="236"/>
+      <c r="F311" s="236"/>
+      <c r="G311" s="236"/>
+      <c r="H311" s="236"/>
+      <c r="I311" s="236"/>
+      <c r="J311" s="236"/>
+      <c r="K311" s="236"/>
+      <c r="L311" s="236"/>
+      <c r="M311" s="237"/>
       <c r="N311" s="60"/>
       <c r="O311" s="2"/>
     </row>
@@ -7731,83 +7725,83 @@
     </row>
     <row r="322" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B322" s="18"/>
-      <c r="C322" s="182" t="s">
+      <c r="C322" s="229" t="s">
         <v>294</v>
       </c>
-      <c r="D322" s="183"/>
-      <c r="E322" s="183"/>
-      <c r="F322" s="183"/>
-      <c r="G322" s="183"/>
-      <c r="H322" s="183"/>
-      <c r="I322" s="183"/>
-      <c r="J322" s="183"/>
-      <c r="K322" s="183"/>
-      <c r="L322" s="183"/>
-      <c r="M322" s="184"/>
+      <c r="D322" s="230"/>
+      <c r="E322" s="230"/>
+      <c r="F322" s="230"/>
+      <c r="G322" s="230"/>
+      <c r="H322" s="230"/>
+      <c r="I322" s="230"/>
+      <c r="J322" s="230"/>
+      <c r="K322" s="230"/>
+      <c r="L322" s="230"/>
+      <c r="M322" s="231"/>
       <c r="N322" s="34"/>
       <c r="O322" s="2"/>
     </row>
     <row r="323" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B323" s="18"/>
-      <c r="C323" s="185"/>
-      <c r="D323" s="186"/>
-      <c r="E323" s="186"/>
-      <c r="F323" s="186"/>
-      <c r="G323" s="186"/>
-      <c r="H323" s="186"/>
-      <c r="I323" s="186"/>
-      <c r="J323" s="186"/>
-      <c r="K323" s="186"/>
-      <c r="L323" s="186"/>
-      <c r="M323" s="187"/>
+      <c r="C323" s="232"/>
+      <c r="D323" s="233"/>
+      <c r="E323" s="233"/>
+      <c r="F323" s="233"/>
+      <c r="G323" s="233"/>
+      <c r="H323" s="233"/>
+      <c r="I323" s="233"/>
+      <c r="J323" s="233"/>
+      <c r="K323" s="233"/>
+      <c r="L323" s="233"/>
+      <c r="M323" s="234"/>
       <c r="N323" s="60"/>
       <c r="O323" s="2"/>
     </row>
     <row r="324" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B324" s="18"/>
-      <c r="C324" s="185"/>
-      <c r="D324" s="186"/>
-      <c r="E324" s="186"/>
-      <c r="F324" s="186"/>
-      <c r="G324" s="186"/>
-      <c r="H324" s="186"/>
-      <c r="I324" s="186"/>
-      <c r="J324" s="186"/>
-      <c r="K324" s="186"/>
-      <c r="L324" s="186"/>
-      <c r="M324" s="187"/>
+      <c r="C324" s="232"/>
+      <c r="D324" s="233"/>
+      <c r="E324" s="233"/>
+      <c r="F324" s="233"/>
+      <c r="G324" s="233"/>
+      <c r="H324" s="233"/>
+      <c r="I324" s="233"/>
+      <c r="J324" s="233"/>
+      <c r="K324" s="233"/>
+      <c r="L324" s="233"/>
+      <c r="M324" s="234"/>
       <c r="N324" s="60"/>
       <c r="O324" s="2"/>
     </row>
     <row r="325" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B325" s="18"/>
-      <c r="C325" s="185"/>
-      <c r="D325" s="186"/>
-      <c r="E325" s="186"/>
-      <c r="F325" s="186"/>
-      <c r="G325" s="186"/>
-      <c r="H325" s="186"/>
-      <c r="I325" s="186"/>
-      <c r="J325" s="186"/>
-      <c r="K325" s="186"/>
-      <c r="L325" s="186"/>
-      <c r="M325" s="187"/>
+      <c r="C325" s="232"/>
+      <c r="D325" s="233"/>
+      <c r="E325" s="233"/>
+      <c r="F325" s="233"/>
+      <c r="G325" s="233"/>
+      <c r="H325" s="233"/>
+      <c r="I325" s="233"/>
+      <c r="J325" s="233"/>
+      <c r="K325" s="233"/>
+      <c r="L325" s="233"/>
+      <c r="M325" s="234"/>
       <c r="N325" s="60"/>
       <c r="O325" s="2"/>
     </row>
     <row r="326" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B326" s="18"/>
-      <c r="C326" s="188"/>
-      <c r="D326" s="189"/>
-      <c r="E326" s="189"/>
-      <c r="F326" s="189"/>
-      <c r="G326" s="189"/>
-      <c r="H326" s="189"/>
-      <c r="I326" s="189"/>
-      <c r="J326" s="189"/>
-      <c r="K326" s="189"/>
-      <c r="L326" s="189"/>
-      <c r="M326" s="190"/>
+      <c r="C326" s="235"/>
+      <c r="D326" s="236"/>
+      <c r="E326" s="236"/>
+      <c r="F326" s="236"/>
+      <c r="G326" s="236"/>
+      <c r="H326" s="236"/>
+      <c r="I326" s="236"/>
+      <c r="J326" s="236"/>
+      <c r="K326" s="236"/>
+      <c r="L326" s="236"/>
+      <c r="M326" s="237"/>
       <c r="N326" s="60"/>
       <c r="O326" s="2"/>
     </row>
@@ -7829,19 +7823,19 @@
     </row>
     <row r="328" spans="2:15" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B328" s="18"/>
-      <c r="C328" s="210" t="s">
+      <c r="C328" s="254" t="s">
         <v>156</v>
       </c>
-      <c r="D328" s="210"/>
-      <c r="E328" s="210"/>
-      <c r="F328" s="210"/>
-      <c r="G328" s="210"/>
-      <c r="H328" s="210"/>
-      <c r="I328" s="210"/>
-      <c r="J328" s="210"/>
-      <c r="K328" s="210"/>
-      <c r="L328" s="210"/>
-      <c r="M328" s="210"/>
+      <c r="D328" s="254"/>
+      <c r="E328" s="254"/>
+      <c r="F328" s="254"/>
+      <c r="G328" s="254"/>
+      <c r="H328" s="254"/>
+      <c r="I328" s="254"/>
+      <c r="J328" s="254"/>
+      <c r="K328" s="254"/>
+      <c r="L328" s="254"/>
+      <c r="M328" s="254"/>
       <c r="N328" s="20"/>
       <c r="O328" s="2"/>
     </row>
@@ -7956,79 +7950,79 @@
     </row>
     <row r="336" spans="2:15" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B336" s="18"/>
-      <c r="C336" s="173" t="s">
+      <c r="C336" s="255" t="s">
         <v>252</v>
       </c>
-      <c r="D336" s="174"/>
-      <c r="E336" s="174"/>
-      <c r="F336" s="174"/>
-      <c r="G336" s="174"/>
-      <c r="H336" s="174"/>
-      <c r="I336" s="174"/>
-      <c r="J336" s="174"/>
-      <c r="K336" s="174"/>
-      <c r="L336" s="174"/>
-      <c r="M336" s="175"/>
+      <c r="D336" s="256"/>
+      <c r="E336" s="256"/>
+      <c r="F336" s="256"/>
+      <c r="G336" s="256"/>
+      <c r="H336" s="256"/>
+      <c r="I336" s="256"/>
+      <c r="J336" s="256"/>
+      <c r="K336" s="256"/>
+      <c r="L336" s="256"/>
+      <c r="M336" s="257"/>
       <c r="N336" s="34"/>
     </row>
     <row r="337" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B337" s="18"/>
-      <c r="C337" s="176"/>
-      <c r="D337" s="177"/>
-      <c r="E337" s="177"/>
-      <c r="F337" s="177"/>
-      <c r="G337" s="177"/>
-      <c r="H337" s="177"/>
-      <c r="I337" s="177"/>
-      <c r="J337" s="177"/>
-      <c r="K337" s="177"/>
-      <c r="L337" s="177"/>
-      <c r="M337" s="178"/>
+      <c r="C337" s="258"/>
+      <c r="D337" s="259"/>
+      <c r="E337" s="259"/>
+      <c r="F337" s="259"/>
+      <c r="G337" s="259"/>
+      <c r="H337" s="259"/>
+      <c r="I337" s="259"/>
+      <c r="J337" s="259"/>
+      <c r="K337" s="259"/>
+      <c r="L337" s="259"/>
+      <c r="M337" s="260"/>
       <c r="N337" s="60"/>
     </row>
     <row r="338" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B338" s="18"/>
-      <c r="C338" s="176"/>
-      <c r="D338" s="177"/>
-      <c r="E338" s="177"/>
-      <c r="F338" s="177"/>
-      <c r="G338" s="177"/>
-      <c r="H338" s="177"/>
-      <c r="I338" s="177"/>
-      <c r="J338" s="177"/>
-      <c r="K338" s="177"/>
-      <c r="L338" s="177"/>
-      <c r="M338" s="178"/>
+      <c r="C338" s="258"/>
+      <c r="D338" s="259"/>
+      <c r="E338" s="259"/>
+      <c r="F338" s="259"/>
+      <c r="G338" s="259"/>
+      <c r="H338" s="259"/>
+      <c r="I338" s="259"/>
+      <c r="J338" s="259"/>
+      <c r="K338" s="259"/>
+      <c r="L338" s="259"/>
+      <c r="M338" s="260"/>
       <c r="N338" s="60"/>
     </row>
     <row r="339" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B339" s="18"/>
-      <c r="C339" s="176"/>
-      <c r="D339" s="177"/>
-      <c r="E339" s="177"/>
-      <c r="F339" s="177"/>
-      <c r="G339" s="177"/>
-      <c r="H339" s="177"/>
-      <c r="I339" s="177"/>
-      <c r="J339" s="177"/>
-      <c r="K339" s="177"/>
-      <c r="L339" s="177"/>
-      <c r="M339" s="178"/>
+      <c r="C339" s="258"/>
+      <c r="D339" s="259"/>
+      <c r="E339" s="259"/>
+      <c r="F339" s="259"/>
+      <c r="G339" s="259"/>
+      <c r="H339" s="259"/>
+      <c r="I339" s="259"/>
+      <c r="J339" s="259"/>
+      <c r="K339" s="259"/>
+      <c r="L339" s="259"/>
+      <c r="M339" s="260"/>
       <c r="N339" s="60"/>
     </row>
     <row r="340" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B340" s="18"/>
-      <c r="C340" s="179"/>
-      <c r="D340" s="180"/>
-      <c r="E340" s="180"/>
-      <c r="F340" s="180"/>
-      <c r="G340" s="180"/>
-      <c r="H340" s="180"/>
-      <c r="I340" s="180"/>
-      <c r="J340" s="180"/>
-      <c r="K340" s="180"/>
-      <c r="L340" s="180"/>
-      <c r="M340" s="181"/>
+      <c r="C340" s="261"/>
+      <c r="D340" s="262"/>
+      <c r="E340" s="262"/>
+      <c r="F340" s="262"/>
+      <c r="G340" s="262"/>
+      <c r="H340" s="262"/>
+      <c r="I340" s="262"/>
+      <c r="J340" s="262"/>
+      <c r="K340" s="262"/>
+      <c r="L340" s="262"/>
+      <c r="M340" s="263"/>
       <c r="N340" s="60"/>
     </row>
     <row r="341" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -8048,19 +8042,19 @@
     </row>
     <row r="342" spans="2:14" ht="39" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B342" s="18"/>
-      <c r="C342" s="210" t="s">
+      <c r="C342" s="254" t="s">
         <v>251</v>
       </c>
-      <c r="D342" s="210"/>
-      <c r="E342" s="210"/>
-      <c r="F342" s="210"/>
-      <c r="G342" s="210"/>
-      <c r="H342" s="210"/>
-      <c r="I342" s="210"/>
-      <c r="J342" s="210"/>
-      <c r="K342" s="210"/>
-      <c r="L342" s="210"/>
-      <c r="M342" s="210"/>
+      <c r="D342" s="254"/>
+      <c r="E342" s="254"/>
+      <c r="F342" s="254"/>
+      <c r="G342" s="254"/>
+      <c r="H342" s="254"/>
+      <c r="I342" s="254"/>
+      <c r="J342" s="254"/>
+      <c r="K342" s="254"/>
+      <c r="L342" s="254"/>
+      <c r="M342" s="254"/>
       <c r="N342" s="60"/>
     </row>
     <row r="343" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
@@ -8109,12 +8103,12 @@
     </row>
     <row r="346" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B346" s="18"/>
-      <c r="C346" s="207" t="s">
+      <c r="C346" s="253" t="s">
         <v>162</v>
       </c>
-      <c r="D346" s="207"/>
-      <c r="E346" s="207"/>
-      <c r="F346" s="207"/>
+      <c r="D346" s="253"/>
+      <c r="E346" s="253"/>
+      <c r="F346" s="253"/>
       <c r="H346" s="106"/>
       <c r="I346" s="25"/>
       <c r="J346" s="25"/>
@@ -8137,12 +8131,12 @@
     </row>
     <row r="348" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B348" s="18"/>
-      <c r="C348" s="207" t="s">
+      <c r="C348" s="253" t="s">
         <v>163</v>
       </c>
-      <c r="D348" s="207"/>
-      <c r="E348" s="207"/>
-      <c r="F348" s="207"/>
+      <c r="D348" s="253"/>
+      <c r="E348" s="253"/>
+      <c r="F348" s="253"/>
       <c r="H348" s="106"/>
       <c r="I348" s="18" t="s">
         <v>164</v>
@@ -8167,13 +8161,13 @@
     </row>
     <row r="350" spans="2:14" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B350" s="18"/>
-      <c r="C350" s="207" t="s">
+      <c r="C350" s="253" t="s">
         <v>165</v>
       </c>
-      <c r="D350" s="207"/>
-      <c r="E350" s="207"/>
-      <c r="F350" s="207"/>
-      <c r="G350" s="166"/>
+      <c r="D350" s="253"/>
+      <c r="E350" s="253"/>
+      <c r="F350" s="253"/>
+      <c r="G350" s="251"/>
       <c r="H350" s="106"/>
       <c r="I350" s="25"/>
       <c r="J350" s="25"/>
@@ -8196,13 +8190,13 @@
     </row>
     <row r="352" spans="2:14" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B352" s="18"/>
-      <c r="C352" s="207" t="s">
+      <c r="C352" s="253" t="s">
         <v>166</v>
       </c>
-      <c r="D352" s="207"/>
-      <c r="E352" s="207"/>
-      <c r="F352" s="207"/>
-      <c r="G352" s="166"/>
+      <c r="D352" s="253"/>
+      <c r="E352" s="253"/>
+      <c r="F352" s="253"/>
+      <c r="G352" s="251"/>
       <c r="H352" s="106"/>
       <c r="I352" s="25"/>
       <c r="J352" s="25"/>
@@ -8225,13 +8219,13 @@
     </row>
     <row r="354" spans="2:15" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B354" s="18"/>
-      <c r="C354" s="207" t="s">
+      <c r="C354" s="253" t="s">
         <v>167</v>
       </c>
-      <c r="D354" s="207"/>
-      <c r="E354" s="207"/>
-      <c r="F354" s="207"/>
-      <c r="G354" s="166"/>
+      <c r="D354" s="253"/>
+      <c r="E354" s="253"/>
+      <c r="F354" s="253"/>
+      <c r="G354" s="251"/>
       <c r="H354" s="106"/>
       <c r="I354" s="25"/>
       <c r="J354" s="25"/>
@@ -8303,83 +8297,83 @@
     </row>
     <row r="359" spans="2:15" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B359" s="18"/>
-      <c r="C359" s="182" t="s">
+      <c r="C359" s="229" t="s">
         <v>295</v>
       </c>
-      <c r="D359" s="183"/>
-      <c r="E359" s="183"/>
-      <c r="F359" s="183"/>
-      <c r="G359" s="183"/>
-      <c r="H359" s="183"/>
-      <c r="I359" s="183"/>
-      <c r="J359" s="183"/>
-      <c r="K359" s="183"/>
-      <c r="L359" s="183"/>
-      <c r="M359" s="184"/>
+      <c r="D359" s="230"/>
+      <c r="E359" s="230"/>
+      <c r="F359" s="230"/>
+      <c r="G359" s="230"/>
+      <c r="H359" s="230"/>
+      <c r="I359" s="230"/>
+      <c r="J359" s="230"/>
+      <c r="K359" s="230"/>
+      <c r="L359" s="230"/>
+      <c r="M359" s="231"/>
       <c r="N359" s="34"/>
       <c r="O359" s="2"/>
     </row>
     <row r="360" spans="2:15" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B360" s="18"/>
-      <c r="C360" s="185"/>
-      <c r="D360" s="186"/>
-      <c r="E360" s="186"/>
-      <c r="F360" s="186"/>
-      <c r="G360" s="186"/>
-      <c r="H360" s="186"/>
-      <c r="I360" s="186"/>
-      <c r="J360" s="186"/>
-      <c r="K360" s="186"/>
-      <c r="L360" s="186"/>
-      <c r="M360" s="187"/>
+      <c r="C360" s="232"/>
+      <c r="D360" s="233"/>
+      <c r="E360" s="233"/>
+      <c r="F360" s="233"/>
+      <c r="G360" s="233"/>
+      <c r="H360" s="233"/>
+      <c r="I360" s="233"/>
+      <c r="J360" s="233"/>
+      <c r="K360" s="233"/>
+      <c r="L360" s="233"/>
+      <c r="M360" s="234"/>
       <c r="N360" s="60"/>
       <c r="O360" s="2"/>
     </row>
     <row r="361" spans="2:15" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B361" s="18"/>
-      <c r="C361" s="185"/>
-      <c r="D361" s="186"/>
-      <c r="E361" s="186"/>
-      <c r="F361" s="186"/>
-      <c r="G361" s="186"/>
-      <c r="H361" s="186"/>
-      <c r="I361" s="186"/>
-      <c r="J361" s="186"/>
-      <c r="K361" s="186"/>
-      <c r="L361" s="186"/>
-      <c r="M361" s="187"/>
+      <c r="C361" s="232"/>
+      <c r="D361" s="233"/>
+      <c r="E361" s="233"/>
+      <c r="F361" s="233"/>
+      <c r="G361" s="233"/>
+      <c r="H361" s="233"/>
+      <c r="I361" s="233"/>
+      <c r="J361" s="233"/>
+      <c r="K361" s="233"/>
+      <c r="L361" s="233"/>
+      <c r="M361" s="234"/>
       <c r="N361" s="60"/>
       <c r="O361" s="2"/>
     </row>
     <row r="362" spans="2:15" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B362" s="18"/>
-      <c r="C362" s="185"/>
-      <c r="D362" s="186"/>
-      <c r="E362" s="186"/>
-      <c r="F362" s="186"/>
-      <c r="G362" s="186"/>
-      <c r="H362" s="186"/>
-      <c r="I362" s="186"/>
-      <c r="J362" s="186"/>
-      <c r="K362" s="186"/>
-      <c r="L362" s="186"/>
-      <c r="M362" s="187"/>
+      <c r="C362" s="232"/>
+      <c r="D362" s="233"/>
+      <c r="E362" s="233"/>
+      <c r="F362" s="233"/>
+      <c r="G362" s="233"/>
+      <c r="H362" s="233"/>
+      <c r="I362" s="233"/>
+      <c r="J362" s="233"/>
+      <c r="K362" s="233"/>
+      <c r="L362" s="233"/>
+      <c r="M362" s="234"/>
       <c r="N362" s="60"/>
       <c r="O362" s="2"/>
     </row>
     <row r="363" spans="2:15" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B363" s="18"/>
-      <c r="C363" s="188"/>
-      <c r="D363" s="189"/>
-      <c r="E363" s="189"/>
-      <c r="F363" s="189"/>
-      <c r="G363" s="189"/>
-      <c r="H363" s="189"/>
-      <c r="I363" s="189"/>
-      <c r="J363" s="189"/>
-      <c r="K363" s="189"/>
-      <c r="L363" s="189"/>
-      <c r="M363" s="190"/>
+      <c r="C363" s="235"/>
+      <c r="D363" s="236"/>
+      <c r="E363" s="236"/>
+      <c r="F363" s="236"/>
+      <c r="G363" s="236"/>
+      <c r="H363" s="236"/>
+      <c r="I363" s="236"/>
+      <c r="J363" s="236"/>
+      <c r="K363" s="236"/>
+      <c r="L363" s="236"/>
+      <c r="M363" s="237"/>
       <c r="N363" s="60"/>
       <c r="O363" s="2"/>
     </row>
@@ -8454,28 +8448,28 @@
     </row>
     <row r="368" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B368" s="18"/>
-      <c r="C368" s="211" t="s">
+      <c r="C368" s="264" t="s">
         <v>253</v>
       </c>
-      <c r="D368" s="212"/>
-      <c r="E368" s="208" t="s">
+      <c r="D368" s="265"/>
+      <c r="E368" s="170" t="s">
         <v>141</v>
       </c>
-      <c r="F368" s="213"/>
-      <c r="G368" s="213"/>
-      <c r="H368" s="213"/>
-      <c r="I368" s="213"/>
-      <c r="J368" s="213"/>
-      <c r="K368" s="213"/>
-      <c r="L368" s="213"/>
-      <c r="M368" s="209"/>
+      <c r="F368" s="266"/>
+      <c r="G368" s="266"/>
+      <c r="H368" s="266"/>
+      <c r="I368" s="266"/>
+      <c r="J368" s="266"/>
+      <c r="K368" s="266"/>
+      <c r="L368" s="266"/>
+      <c r="M368" s="171"/>
       <c r="N368" s="20"/>
       <c r="O368" s="2"/>
     </row>
     <row r="369" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B369" s="18"/>
-      <c r="C369" s="208"/>
-      <c r="D369" s="209"/>
+      <c r="C369" s="170"/>
+      <c r="D369" s="171"/>
       <c r="E369" s="71"/>
       <c r="F369" s="73"/>
       <c r="G369" s="73"/>
@@ -8490,19 +8484,19 @@
     </row>
     <row r="370" spans="2:15" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B370" s="18"/>
-      <c r="C370" s="206" t="s">
+      <c r="C370" s="252" t="s">
         <v>270</v>
       </c>
-      <c r="D370" s="206"/>
-      <c r="E370" s="206"/>
-      <c r="F370" s="206"/>
-      <c r="G370" s="206"/>
-      <c r="H370" s="206"/>
-      <c r="I370" s="206"/>
-      <c r="J370" s="206"/>
-      <c r="K370" s="206"/>
-      <c r="L370" s="206"/>
-      <c r="M370" s="206"/>
+      <c r="D370" s="252"/>
+      <c r="E370" s="252"/>
+      <c r="F370" s="252"/>
+      <c r="G370" s="252"/>
+      <c r="H370" s="252"/>
+      <c r="I370" s="252"/>
+      <c r="J370" s="252"/>
+      <c r="K370" s="252"/>
+      <c r="L370" s="252"/>
+      <c r="M370" s="252"/>
       <c r="N370" s="13"/>
       <c r="O370" s="2"/>
     </row>
@@ -8590,20 +8584,20 @@
       <c r="C376" s="75" t="s">
         <v>173</v>
       </c>
-      <c r="D376" s="266" t="s">
+      <c r="D376" s="169" t="s">
         <v>51</v>
       </c>
-      <c r="E376" s="266"/>
-      <c r="F376" s="267" t="s">
+      <c r="E376" s="169"/>
+      <c r="F376" s="168" t="s">
         <v>174</v>
       </c>
-      <c r="G376" s="267"/>
-      <c r="H376" s="267"/>
-      <c r="I376" s="267" t="s">
+      <c r="G376" s="168"/>
+      <c r="H376" s="168"/>
+      <c r="I376" s="168" t="s">
         <v>175</v>
       </c>
-      <c r="J376" s="267"/>
-      <c r="K376" s="267"/>
+      <c r="J376" s="168"/>
+      <c r="K376" s="168"/>
       <c r="L376" s="22"/>
       <c r="M376" s="22"/>
       <c r="N376" s="18"/>
@@ -8613,14 +8607,14 @@
       <c r="C377" s="75">
         <v>1</v>
       </c>
-      <c r="D377" s="266"/>
-      <c r="E377" s="266"/>
-      <c r="F377" s="267"/>
-      <c r="G377" s="267"/>
-      <c r="H377" s="267"/>
-      <c r="I377" s="267"/>
-      <c r="J377" s="267"/>
-      <c r="K377" s="267"/>
+      <c r="D377" s="169"/>
+      <c r="E377" s="169"/>
+      <c r="F377" s="168"/>
+      <c r="G377" s="168"/>
+      <c r="H377" s="168"/>
+      <c r="I377" s="168"/>
+      <c r="J377" s="168"/>
+      <c r="K377" s="168"/>
       <c r="L377" s="22"/>
       <c r="M377" s="34"/>
       <c r="N377" s="76"/>
@@ -8630,14 +8624,14 @@
       <c r="C378" s="75">
         <v>2</v>
       </c>
-      <c r="D378" s="266"/>
-      <c r="E378" s="266"/>
-      <c r="F378" s="267"/>
-      <c r="G378" s="267"/>
-      <c r="H378" s="267"/>
-      <c r="I378" s="267"/>
-      <c r="J378" s="267"/>
-      <c r="K378" s="267"/>
+      <c r="D378" s="169"/>
+      <c r="E378" s="169"/>
+      <c r="F378" s="168"/>
+      <c r="G378" s="168"/>
+      <c r="H378" s="168"/>
+      <c r="I378" s="168"/>
+      <c r="J378" s="168"/>
+      <c r="K378" s="168"/>
       <c r="L378" s="22"/>
       <c r="M378" s="34"/>
       <c r="N378" s="34"/>
@@ -8647,14 +8641,14 @@
       <c r="C379" s="75">
         <v>3</v>
       </c>
-      <c r="D379" s="266"/>
-      <c r="E379" s="266"/>
-      <c r="F379" s="267"/>
-      <c r="G379" s="267"/>
-      <c r="H379" s="267"/>
-      <c r="I379" s="267"/>
-      <c r="J379" s="267"/>
-      <c r="K379" s="267"/>
+      <c r="D379" s="169"/>
+      <c r="E379" s="169"/>
+      <c r="F379" s="168"/>
+      <c r="G379" s="168"/>
+      <c r="H379" s="168"/>
+      <c r="I379" s="168"/>
+      <c r="J379" s="168"/>
+      <c r="K379" s="168"/>
       <c r="L379" s="22"/>
       <c r="M379" s="34"/>
       <c r="N379" s="34"/>
@@ -8664,14 +8658,14 @@
       <c r="C380" s="75" t="s">
         <v>177</v>
       </c>
-      <c r="D380" s="266"/>
-      <c r="E380" s="266"/>
-      <c r="F380" s="267"/>
-      <c r="G380" s="267"/>
-      <c r="H380" s="267"/>
-      <c r="I380" s="267"/>
-      <c r="J380" s="267"/>
-      <c r="K380" s="267"/>
+      <c r="D380" s="169"/>
+      <c r="E380" s="169"/>
+      <c r="F380" s="168"/>
+      <c r="G380" s="168"/>
+      <c r="H380" s="168"/>
+      <c r="I380" s="168"/>
+      <c r="J380" s="168"/>
+      <c r="K380" s="168"/>
       <c r="L380" s="22"/>
       <c r="M380" s="34"/>
       <c r="N380" s="34"/>
@@ -8681,14 +8675,14 @@
       <c r="C381" s="75" t="s">
         <v>178</v>
       </c>
-      <c r="D381" s="266"/>
-      <c r="E381" s="266"/>
-      <c r="F381" s="267"/>
-      <c r="G381" s="267"/>
-      <c r="H381" s="267"/>
-      <c r="I381" s="267"/>
-      <c r="J381" s="267"/>
-      <c r="K381" s="267"/>
+      <c r="D381" s="169"/>
+      <c r="E381" s="169"/>
+      <c r="F381" s="168"/>
+      <c r="G381" s="168"/>
+      <c r="H381" s="168"/>
+      <c r="I381" s="168"/>
+      <c r="J381" s="168"/>
+      <c r="K381" s="168"/>
       <c r="L381" s="22"/>
       <c r="M381" s="34"/>
       <c r="N381" s="34"/>
@@ -8698,14 +8692,14 @@
       <c r="C382" s="75" t="s">
         <v>179</v>
       </c>
-      <c r="D382" s="266"/>
-      <c r="E382" s="266"/>
-      <c r="F382" s="267"/>
-      <c r="G382" s="267"/>
-      <c r="H382" s="267"/>
-      <c r="I382" s="267"/>
-      <c r="J382" s="267"/>
-      <c r="K382" s="267"/>
+      <c r="D382" s="169"/>
+      <c r="E382" s="169"/>
+      <c r="F382" s="168"/>
+      <c r="G382" s="168"/>
+      <c r="H382" s="168"/>
+      <c r="I382" s="168"/>
+      <c r="J382" s="168"/>
+      <c r="K382" s="168"/>
       <c r="L382" s="22"/>
       <c r="M382" s="34"/>
       <c r="N382" s="34"/>
@@ -8715,14 +8709,14 @@
       <c r="C383" s="75" t="s">
         <v>180</v>
       </c>
-      <c r="D383" s="266"/>
-      <c r="E383" s="266"/>
-      <c r="F383" s="267"/>
-      <c r="G383" s="267"/>
-      <c r="H383" s="267"/>
-      <c r="I383" s="267"/>
-      <c r="J383" s="267"/>
-      <c r="K383" s="267"/>
+      <c r="D383" s="169"/>
+      <c r="E383" s="169"/>
+      <c r="F383" s="168"/>
+      <c r="G383" s="168"/>
+      <c r="H383" s="168"/>
+      <c r="I383" s="168"/>
+      <c r="J383" s="168"/>
+      <c r="K383" s="168"/>
       <c r="L383" s="22"/>
       <c r="M383" s="34"/>
       <c r="N383" s="34"/>
@@ -8847,10 +8841,10 @@
     </row>
     <row r="393" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B393" s="18"/>
-      <c r="D393" s="266" t="s">
+      <c r="D393" s="169" t="s">
         <v>265</v>
       </c>
-      <c r="E393" s="266"/>
+      <c r="E393" s="169"/>
       <c r="J393" s="25"/>
       <c r="K393" s="25"/>
       <c r="L393" s="25"/>
@@ -8858,43 +8852,43 @@
     </row>
     <row r="394" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B394" s="18"/>
-      <c r="C394" s="169" t="s">
+      <c r="C394" s="183" t="s">
         <v>182</v>
       </c>
-      <c r="D394" s="169" t="s">
+      <c r="D394" s="183" t="s">
         <v>264</v>
       </c>
-      <c r="E394" s="169" t="s">
+      <c r="E394" s="183" t="s">
         <v>59</v>
       </c>
-      <c r="F394" s="169" t="s">
+      <c r="F394" s="183" t="s">
         <v>60</v>
       </c>
-      <c r="G394" s="268" t="s">
+      <c r="G394" s="184" t="s">
         <v>183</v>
       </c>
-      <c r="H394" s="268" t="s">
+      <c r="H394" s="184" t="s">
         <v>176</v>
       </c>
-      <c r="I394" s="268" t="s">
+      <c r="I394" s="184" t="s">
         <v>184</v>
       </c>
-      <c r="J394" s="267" t="s">
+      <c r="J394" s="168" t="s">
         <v>185</v>
       </c>
-      <c r="K394" s="267"/>
+      <c r="K394" s="168"/>
       <c r="L394" s="22"/>
       <c r="M394" s="25"/>
     </row>
     <row r="395" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B395" s="18"/>
-      <c r="C395" s="169"/>
-      <c r="D395" s="169"/>
-      <c r="E395" s="169"/>
-      <c r="F395" s="169"/>
-      <c r="G395" s="269"/>
-      <c r="H395" s="269"/>
-      <c r="I395" s="269"/>
+      <c r="C395" s="183"/>
+      <c r="D395" s="183"/>
+      <c r="E395" s="183"/>
+      <c r="F395" s="183"/>
+      <c r="G395" s="185"/>
+      <c r="H395" s="185"/>
+      <c r="I395" s="185"/>
       <c r="J395" s="75" t="s">
         <v>186</v>
       </c>
@@ -9199,21 +9193,21 @@
     </row>
     <row r="415" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B415" s="18"/>
-      <c r="C415" s="192" t="s">
+      <c r="C415" s="179" t="s">
         <v>265</v>
       </c>
-      <c r="D415" s="194"/>
-      <c r="E415" s="192" t="s">
+      <c r="D415" s="181"/>
+      <c r="E415" s="179" t="s">
         <v>204</v>
       </c>
-      <c r="F415" s="193"/>
-      <c r="G415" s="193"/>
-      <c r="H415" s="193"/>
-      <c r="I415" s="193"/>
-      <c r="J415" s="193"/>
-      <c r="K415" s="194"/>
+      <c r="F415" s="180"/>
+      <c r="G415" s="180"/>
+      <c r="H415" s="180"/>
+      <c r="I415" s="180"/>
+      <c r="J415" s="180"/>
+      <c r="K415" s="181"/>
       <c r="L415" s="154"/>
-      <c r="M415" s="268" t="s">
+      <c r="M415" s="184" t="s">
         <v>205</v>
       </c>
     </row>
@@ -9247,7 +9241,7 @@
         <v>180</v>
       </c>
       <c r="L416" s="160"/>
-      <c r="M416" s="269"/>
+      <c r="M416" s="185"/>
     </row>
     <row r="417" spans="2:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B417" s="20"/>
@@ -9493,23 +9487,23 @@
     </row>
     <row r="432" spans="2:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B432" s="20"/>
-      <c r="C432" s="192" t="s">
+      <c r="C432" s="179" t="s">
         <v>265</v>
       </c>
-      <c r="D432" s="194"/>
-      <c r="E432" s="270" t="s">
+      <c r="D432" s="181"/>
+      <c r="E432" s="189" t="s">
         <v>214</v>
       </c>
-      <c r="F432" s="192" t="s">
+      <c r="F432" s="179" t="s">
         <v>204</v>
       </c>
-      <c r="G432" s="193"/>
-      <c r="H432" s="193"/>
-      <c r="I432" s="193"/>
-      <c r="J432" s="193"/>
-      <c r="K432" s="194"/>
+      <c r="G432" s="180"/>
+      <c r="H432" s="180"/>
+      <c r="I432" s="180"/>
+      <c r="J432" s="180"/>
+      <c r="K432" s="181"/>
       <c r="L432" s="154"/>
-      <c r="M432" s="268" t="s">
+      <c r="M432" s="184" t="s">
         <v>210</v>
       </c>
     </row>
@@ -9521,7 +9515,7 @@
       <c r="D433" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="E433" s="266"/>
+      <c r="E433" s="169"/>
       <c r="F433" s="75">
         <v>1</v>
       </c>
@@ -9541,7 +9535,7 @@
         <v>180</v>
       </c>
       <c r="L433" s="160"/>
-      <c r="M433" s="269"/>
+      <c r="M433" s="185"/>
     </row>
     <row r="434" spans="2:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B434" s="20"/>
@@ -9729,26 +9723,26 @@
     </row>
     <row r="446" spans="2:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B446" s="20"/>
-      <c r="C446" s="271" t="s">
+      <c r="C446" s="175" t="s">
         <v>59</v>
       </c>
-      <c r="D446" s="272"/>
-      <c r="E446" s="192" t="s">
+      <c r="D446" s="176"/>
+      <c r="E446" s="179" t="s">
         <v>204</v>
       </c>
-      <c r="F446" s="193"/>
-      <c r="G446" s="193"/>
-      <c r="H446" s="193"/>
-      <c r="I446" s="193"/>
-      <c r="J446" s="193"/>
-      <c r="K446" s="194"/>
+      <c r="F446" s="180"/>
+      <c r="G446" s="180"/>
+      <c r="H446" s="180"/>
+      <c r="I446" s="180"/>
+      <c r="J446" s="180"/>
+      <c r="K446" s="181"/>
       <c r="L446" s="22"/>
-      <c r="M446" s="275"/>
+      <c r="M446" s="182"/>
     </row>
     <row r="447" spans="2:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B447" s="20"/>
-      <c r="C447" s="273"/>
-      <c r="D447" s="274"/>
+      <c r="C447" s="177"/>
+      <c r="D447" s="178"/>
       <c r="E447" s="75">
         <v>1</v>
       </c>
@@ -9771,14 +9765,14 @@
         <v>180</v>
       </c>
       <c r="L447" s="22"/>
-      <c r="M447" s="275"/>
+      <c r="M447" s="182"/>
     </row>
     <row r="448" spans="2:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B448" s="20"/>
-      <c r="C448" s="208" t="s">
+      <c r="C448" s="170" t="s">
         <v>219</v>
       </c>
-      <c r="D448" s="209"/>
+      <c r="D448" s="171"/>
       <c r="E448" s="82"/>
       <c r="F448" s="82"/>
       <c r="G448" s="82"/>
@@ -9790,10 +9784,10 @@
     </row>
     <row r="449" spans="2:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B449" s="20"/>
-      <c r="C449" s="208" t="s">
+      <c r="C449" s="170" t="s">
         <v>178</v>
       </c>
-      <c r="D449" s="209"/>
+      <c r="D449" s="171"/>
       <c r="E449" s="82"/>
       <c r="F449" s="82"/>
       <c r="G449" s="82"/>
@@ -9805,10 +9799,10 @@
     </row>
     <row r="450" spans="2:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B450" s="20"/>
-      <c r="C450" s="208" t="s">
+      <c r="C450" s="170" t="s">
         <v>220</v>
       </c>
-      <c r="D450" s="209"/>
+      <c r="D450" s="171"/>
       <c r="E450" s="82"/>
       <c r="F450" s="82"/>
       <c r="G450" s="82"/>
@@ -9820,10 +9814,10 @@
     </row>
     <row r="451" spans="2:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B451" s="20"/>
-      <c r="C451" s="192" t="s">
+      <c r="C451" s="179" t="s">
         <v>210</v>
       </c>
-      <c r="D451" s="194"/>
+      <c r="D451" s="181"/>
       <c r="E451" s="46"/>
       <c r="F451" s="46"/>
       <c r="G451" s="46"/>
@@ -10159,17 +10153,17 @@
         <v>238</v>
       </c>
       <c r="C473" s="80"/>
-      <c r="E473" s="276" t="s">
-        <v>328</v>
-      </c>
-      <c r="F473" s="276"/>
-      <c r="G473" s="276"/>
-      <c r="H473" s="276"/>
-      <c r="I473" s="276"/>
-      <c r="J473" s="276"/>
-      <c r="K473" s="276"/>
-      <c r="L473" s="276"/>
-      <c r="M473" s="276"/>
+      <c r="E473" s="241" t="s">
+        <v>335</v>
+      </c>
+      <c r="F473" s="242"/>
+      <c r="G473" s="242"/>
+      <c r="H473" s="242"/>
+      <c r="I473" s="242"/>
+      <c r="J473" s="242"/>
+      <c r="K473" s="242"/>
+      <c r="L473" s="242"/>
+      <c r="M473" s="243"/>
       <c r="N473" s="134"/>
     </row>
     <row r="474" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -10205,10 +10199,10 @@
     <row r="476" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B476" s="19"/>
       <c r="C476" s="19"/>
-      <c r="D476" s="266" t="s">
+      <c r="D476" s="169" t="s">
         <v>265</v>
       </c>
-      <c r="E476" s="266"/>
+      <c r="E476" s="169"/>
       <c r="F476" s="19"/>
       <c r="G476" s="19"/>
       <c r="H476" s="19"/>
@@ -10220,43 +10214,43 @@
     </row>
     <row r="477" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B477" s="79"/>
-      <c r="C477" s="169" t="s">
+      <c r="C477" s="183" t="s">
         <v>182</v>
       </c>
-      <c r="D477" s="169" t="s">
+      <c r="D477" s="183" t="s">
         <v>58</v>
       </c>
-      <c r="E477" s="169" t="s">
+      <c r="E477" s="183" t="s">
         <v>59</v>
       </c>
-      <c r="F477" s="169" t="s">
+      <c r="F477" s="183" t="s">
         <v>60</v>
       </c>
-      <c r="G477" s="268" t="s">
+      <c r="G477" s="184" t="s">
         <v>183</v>
       </c>
-      <c r="H477" s="268" t="s">
+      <c r="H477" s="184" t="s">
         <v>176</v>
       </c>
-      <c r="I477" s="268" t="s">
+      <c r="I477" s="184" t="s">
         <v>184</v>
       </c>
-      <c r="J477" s="203" t="s">
+      <c r="J477" s="186" t="s">
         <v>240</v>
       </c>
-      <c r="K477" s="204"/>
-      <c r="L477" s="204"/>
-      <c r="M477" s="205"/>
+      <c r="K477" s="187"/>
+      <c r="L477" s="187"/>
+      <c r="M477" s="188"/>
     </row>
     <row r="478" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B478" s="79"/>
-      <c r="C478" s="169"/>
-      <c r="D478" s="169"/>
-      <c r="E478" s="169"/>
-      <c r="F478" s="169"/>
-      <c r="G478" s="269"/>
-      <c r="H478" s="269"/>
-      <c r="I478" s="269"/>
+      <c r="C478" s="183"/>
+      <c r="D478" s="183"/>
+      <c r="E478" s="183"/>
+      <c r="F478" s="183"/>
+      <c r="G478" s="185"/>
+      <c r="H478" s="185"/>
+      <c r="I478" s="185"/>
       <c r="J478" s="77" t="s">
         <v>241</v>
       </c>
@@ -10267,7 +10261,7 @@
         <v>327</v>
       </c>
       <c r="M478" s="77" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="N478" s="80"/>
     </row>
@@ -10397,10 +10391,10 @@
       <c r="D485" s="80"/>
       <c r="E485" s="80"/>
       <c r="F485" s="40"/>
-      <c r="G485" s="279" t="s">
+      <c r="G485" s="161" t="s">
         <v>277</v>
       </c>
-      <c r="H485" s="279"/>
+      <c r="H485" s="161"/>
       <c r="I485" s="128">
         <v>10000</v>
       </c>
@@ -10419,10 +10413,10 @@
       <c r="D486" s="80"/>
       <c r="E486" s="80"/>
       <c r="F486" s="40"/>
-      <c r="G486" s="280" t="s">
+      <c r="G486" s="162" t="s">
         <v>278</v>
       </c>
-      <c r="H486" s="280"/>
+      <c r="H486" s="162"/>
       <c r="I486" s="128">
         <v>24961.5</v>
       </c>
@@ -10444,10 +10438,10 @@
       <c r="D487" s="80"/>
       <c r="E487" s="80"/>
       <c r="F487" s="40"/>
-      <c r="G487" s="280" t="s">
+      <c r="G487" s="162" t="s">
         <v>195</v>
       </c>
-      <c r="H487" s="280"/>
+      <c r="H487" s="162"/>
       <c r="I487" s="128">
         <v>17290.75</v>
       </c>
@@ -10466,10 +10460,10 @@
       <c r="D488" s="80"/>
       <c r="E488" s="80"/>
       <c r="F488" s="40"/>
-      <c r="G488" s="278" t="s">
+      <c r="G488" s="174" t="s">
         <v>196</v>
       </c>
-      <c r="H488" s="278"/>
+      <c r="H488" s="174"/>
       <c r="I488" s="129">
         <f>SUM(I479:I487)</f>
         <v>380539.3</v>
@@ -10553,7 +10547,7 @@
       <c r="E493" s="80"/>
       <c r="F493" s="80"/>
       <c r="G493" s="120" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H493" s="79"/>
       <c r="I493" s="80"/>
@@ -10614,27 +10608,27 @@
     </row>
     <row r="497" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B497" s="20"/>
-      <c r="C497" s="271" t="s">
+      <c r="C497" s="175" t="s">
         <v>59</v>
       </c>
-      <c r="D497" s="272"/>
-      <c r="E497" s="192" t="s">
+      <c r="D497" s="176"/>
+      <c r="E497" s="179" t="s">
         <v>204</v>
       </c>
-      <c r="F497" s="193"/>
-      <c r="G497" s="193"/>
-      <c r="H497" s="193"/>
-      <c r="I497" s="193"/>
-      <c r="J497" s="193"/>
-      <c r="K497" s="194"/>
+      <c r="F497" s="180"/>
+      <c r="G497" s="180"/>
+      <c r="H497" s="180"/>
+      <c r="I497" s="180"/>
+      <c r="J497" s="180"/>
+      <c r="K497" s="181"/>
       <c r="L497" s="22"/>
-      <c r="M497" s="275"/>
+      <c r="M497" s="182"/>
       <c r="N497" s="80"/>
     </row>
     <row r="498" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B498" s="20"/>
-      <c r="C498" s="273"/>
-      <c r="D498" s="274"/>
+      <c r="C498" s="177"/>
+      <c r="D498" s="178"/>
       <c r="E498" s="75">
         <v>1</v>
       </c>
@@ -10657,15 +10651,15 @@
         <v>10</v>
       </c>
       <c r="L498" s="22"/>
-      <c r="M498" s="275"/>
+      <c r="M498" s="182"/>
       <c r="N498" s="80"/>
     </row>
     <row r="499" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B499" s="20"/>
-      <c r="C499" s="208" t="s">
+      <c r="C499" s="170" t="s">
         <v>324</v>
       </c>
-      <c r="D499" s="209"/>
+      <c r="D499" s="171"/>
       <c r="E499" s="103"/>
       <c r="F499" s="103">
         <v>3500</v>
@@ -10687,10 +10681,10 @@
     </row>
     <row r="500" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B500" s="20"/>
-      <c r="C500" s="208" t="s">
+      <c r="C500" s="170" t="s">
         <v>178</v>
       </c>
-      <c r="D500" s="209"/>
+      <c r="D500" s="171"/>
       <c r="E500" s="82"/>
       <c r="F500" s="82"/>
       <c r="G500" s="82"/>
@@ -10704,10 +10698,10 @@
     </row>
     <row r="501" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B501" s="20"/>
-      <c r="C501" s="208" t="s">
+      <c r="C501" s="170" t="s">
         <v>220</v>
       </c>
-      <c r="D501" s="209"/>
+      <c r="D501" s="171"/>
       <c r="E501" s="82"/>
       <c r="F501" s="82"/>
       <c r="G501" s="82"/>
@@ -11191,12 +11185,12 @@
       <c r="M532" s="80"/>
     </row>
     <row r="533" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B533" s="222" t="s">
+      <c r="B533" s="172" t="s">
         <v>246</v>
       </c>
-      <c r="C533" s="222"/>
-      <c r="D533" s="222"/>
-      <c r="E533" s="222"/>
+      <c r="C533" s="172"/>
+      <c r="D533" s="172"/>
+      <c r="E533" s="172"/>
       <c r="J533" s="80"/>
       <c r="K533" s="80"/>
       <c r="L533" s="152"/>
@@ -11274,36 +11268,36 @@
       <c r="L538" s="151"/>
     </row>
     <row r="539" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B539" s="277" t="s">
+      <c r="B539" s="173" t="s">
         <v>248</v>
       </c>
-      <c r="C539" s="277"/>
-      <c r="D539" s="277"/>
-      <c r="E539" s="277"/>
-      <c r="F539" s="277"/>
-      <c r="G539" s="277"/>
-      <c r="H539" s="277"/>
-      <c r="I539" s="277"/>
-      <c r="J539" s="277"/>
-      <c r="K539" s="277"/>
-      <c r="L539" s="277"/>
-      <c r="M539" s="277"/>
+      <c r="C539" s="173"/>
+      <c r="D539" s="173"/>
+      <c r="E539" s="173"/>
+      <c r="F539" s="173"/>
+      <c r="G539" s="173"/>
+      <c r="H539" s="173"/>
+      <c r="I539" s="173"/>
+      <c r="J539" s="173"/>
+      <c r="K539" s="173"/>
+      <c r="L539" s="173"/>
+      <c r="M539" s="173"/>
     </row>
     <row r="540" spans="2:13" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B540" s="277" t="s">
+      <c r="B540" s="173" t="s">
         <v>271</v>
       </c>
-      <c r="C540" s="277"/>
-      <c r="D540" s="277"/>
-      <c r="E540" s="277"/>
-      <c r="F540" s="277"/>
-      <c r="G540" s="277"/>
-      <c r="H540" s="277"/>
-      <c r="I540" s="277"/>
-      <c r="J540" s="277"/>
-      <c r="K540" s="277"/>
-      <c r="L540" s="277"/>
-      <c r="M540" s="277"/>
+      <c r="C540" s="173"/>
+      <c r="D540" s="173"/>
+      <c r="E540" s="173"/>
+      <c r="F540" s="173"/>
+      <c r="G540" s="173"/>
+      <c r="H540" s="173"/>
+      <c r="I540" s="173"/>
+      <c r="J540" s="173"/>
+      <c r="K540" s="173"/>
+      <c r="L540" s="173"/>
+      <c r="M540" s="173"/>
     </row>
     <row r="541" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B541" s="80"/>
@@ -11334,20 +11328,20 @@
       <c r="L542" s="151"/>
     </row>
     <row r="543" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B543" s="277" t="s">
+      <c r="B543" s="173" t="s">
         <v>250</v>
       </c>
-      <c r="C543" s="277"/>
-      <c r="D543" s="277"/>
-      <c r="E543" s="277"/>
-      <c r="F543" s="277"/>
-      <c r="G543" s="277"/>
-      <c r="H543" s="277"/>
-      <c r="I543" s="277"/>
-      <c r="J543" s="277"/>
-      <c r="K543" s="277"/>
-      <c r="L543" s="277"/>
-      <c r="M543" s="277"/>
+      <c r="C543" s="173"/>
+      <c r="D543" s="173"/>
+      <c r="E543" s="173"/>
+      <c r="F543" s="173"/>
+      <c r="G543" s="173"/>
+      <c r="H543" s="173"/>
+      <c r="I543" s="173"/>
+      <c r="J543" s="173"/>
+      <c r="K543" s="173"/>
+      <c r="L543" s="173"/>
+      <c r="M543" s="173"/>
     </row>
     <row r="544" spans="2:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B544" s="79"/>
@@ -11363,6 +11357,133 @@
     </row>
   </sheetData>
   <mergeCells count="151">
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="C285:F285"/>
+    <mergeCell ref="C286:F286"/>
+    <mergeCell ref="C270:D270"/>
+    <mergeCell ref="C271:D271"/>
+    <mergeCell ref="C272:D272"/>
+    <mergeCell ref="C246:M246"/>
+    <mergeCell ref="C247:M247"/>
+    <mergeCell ref="C269:D269"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="C236:M238"/>
+    <mergeCell ref="C261:M265"/>
+    <mergeCell ref="C277:M281"/>
+    <mergeCell ref="E269:M269"/>
+    <mergeCell ref="C273:D273"/>
+    <mergeCell ref="F99:G99"/>
+    <mergeCell ref="C88:K88"/>
+    <mergeCell ref="C220:D220"/>
+    <mergeCell ref="C228:M228"/>
+    <mergeCell ref="C152:F152"/>
+    <mergeCell ref="G74:I74"/>
+    <mergeCell ref="G73:I73"/>
+    <mergeCell ref="C182:G182"/>
+    <mergeCell ref="C186:G186"/>
+    <mergeCell ref="C370:M370"/>
+    <mergeCell ref="C350:G350"/>
+    <mergeCell ref="C352:G352"/>
+    <mergeCell ref="C354:G354"/>
+    <mergeCell ref="C154:G154"/>
+    <mergeCell ref="C369:D369"/>
+    <mergeCell ref="C346:F346"/>
+    <mergeCell ref="C348:F348"/>
+    <mergeCell ref="C287:F287"/>
+    <mergeCell ref="C288:F288"/>
+    <mergeCell ref="C289:F289"/>
+    <mergeCell ref="C291:F291"/>
+    <mergeCell ref="C293:F293"/>
+    <mergeCell ref="C328:M328"/>
+    <mergeCell ref="C342:M342"/>
+    <mergeCell ref="C359:M363"/>
+    <mergeCell ref="C300:M304"/>
+    <mergeCell ref="C307:M311"/>
+    <mergeCell ref="C322:M326"/>
+    <mergeCell ref="C336:M340"/>
+    <mergeCell ref="C368:D368"/>
+    <mergeCell ref="E368:M368"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="B4:M4"/>
+    <mergeCell ref="B5:M5"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C215:M217"/>
+    <mergeCell ref="C127:M127"/>
+    <mergeCell ref="C130:M130"/>
+    <mergeCell ref="C144:M144"/>
+    <mergeCell ref="C146:E146"/>
+    <mergeCell ref="C148:E148"/>
+    <mergeCell ref="C150:E150"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="H112:I112"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="C122:M124"/>
+    <mergeCell ref="C194:M198"/>
+    <mergeCell ref="C201:M205"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="C8:K8"/>
+    <mergeCell ref="G27:K27"/>
+    <mergeCell ref="H29:M29"/>
+    <mergeCell ref="C163:M163"/>
+    <mergeCell ref="C180:F180"/>
+    <mergeCell ref="D379:E379"/>
+    <mergeCell ref="F379:H379"/>
+    <mergeCell ref="I379:K379"/>
+    <mergeCell ref="D376:E376"/>
+    <mergeCell ref="F376:H376"/>
+    <mergeCell ref="I376:K376"/>
+    <mergeCell ref="D377:E377"/>
+    <mergeCell ref="F377:H377"/>
+    <mergeCell ref="I377:K377"/>
+    <mergeCell ref="D378:E378"/>
+    <mergeCell ref="F378:H378"/>
+    <mergeCell ref="I378:K378"/>
+    <mergeCell ref="I394:I395"/>
+    <mergeCell ref="J394:K394"/>
+    <mergeCell ref="C415:D415"/>
+    <mergeCell ref="E415:K415"/>
+    <mergeCell ref="M415:M416"/>
+    <mergeCell ref="C432:D432"/>
+    <mergeCell ref="E432:E433"/>
+    <mergeCell ref="F432:K432"/>
+    <mergeCell ref="M432:M433"/>
+    <mergeCell ref="C394:C395"/>
+    <mergeCell ref="D394:D395"/>
+    <mergeCell ref="E394:E395"/>
+    <mergeCell ref="F394:F395"/>
+    <mergeCell ref="G394:G395"/>
+    <mergeCell ref="H394:H395"/>
+    <mergeCell ref="C451:D451"/>
+    <mergeCell ref="C477:C478"/>
+    <mergeCell ref="D477:D478"/>
+    <mergeCell ref="E477:E478"/>
+    <mergeCell ref="F477:F478"/>
+    <mergeCell ref="G477:G478"/>
+    <mergeCell ref="C446:D447"/>
+    <mergeCell ref="E446:K446"/>
+    <mergeCell ref="M446:M447"/>
+    <mergeCell ref="C448:D448"/>
+    <mergeCell ref="C449:D449"/>
+    <mergeCell ref="C450:D450"/>
+    <mergeCell ref="D476:E476"/>
+    <mergeCell ref="H477:H478"/>
+    <mergeCell ref="I477:I478"/>
+    <mergeCell ref="J477:M477"/>
+    <mergeCell ref="E473:M473"/>
+    <mergeCell ref="C501:D501"/>
+    <mergeCell ref="B533:E533"/>
+    <mergeCell ref="B539:M539"/>
+    <mergeCell ref="B540:M540"/>
+    <mergeCell ref="B543:M543"/>
+    <mergeCell ref="G488:H488"/>
+    <mergeCell ref="C497:D498"/>
+    <mergeCell ref="E497:K497"/>
+    <mergeCell ref="M497:M498"/>
+    <mergeCell ref="C499:D499"/>
+    <mergeCell ref="C500:D500"/>
     <mergeCell ref="G485:H485"/>
     <mergeCell ref="G486:H486"/>
     <mergeCell ref="G487:H487"/>
@@ -11387,133 +11508,6 @@
     <mergeCell ref="D381:E381"/>
     <mergeCell ref="F381:H381"/>
     <mergeCell ref="I381:K381"/>
-    <mergeCell ref="C501:D501"/>
-    <mergeCell ref="B533:E533"/>
-    <mergeCell ref="B539:M539"/>
-    <mergeCell ref="B540:M540"/>
-    <mergeCell ref="B543:M543"/>
-    <mergeCell ref="G488:H488"/>
-    <mergeCell ref="C497:D498"/>
-    <mergeCell ref="E497:K497"/>
-    <mergeCell ref="M497:M498"/>
-    <mergeCell ref="C499:D499"/>
-    <mergeCell ref="C500:D500"/>
-    <mergeCell ref="C451:D451"/>
-    <mergeCell ref="C477:C478"/>
-    <mergeCell ref="D477:D478"/>
-    <mergeCell ref="E477:E478"/>
-    <mergeCell ref="F477:F478"/>
-    <mergeCell ref="G477:G478"/>
-    <mergeCell ref="C446:D447"/>
-    <mergeCell ref="E446:K446"/>
-    <mergeCell ref="M446:M447"/>
-    <mergeCell ref="C448:D448"/>
-    <mergeCell ref="C449:D449"/>
-    <mergeCell ref="C450:D450"/>
-    <mergeCell ref="D476:E476"/>
-    <mergeCell ref="H477:H478"/>
-    <mergeCell ref="I477:I478"/>
-    <mergeCell ref="J477:M477"/>
-    <mergeCell ref="E473:M473"/>
-    <mergeCell ref="I394:I395"/>
-    <mergeCell ref="J394:K394"/>
-    <mergeCell ref="C415:D415"/>
-    <mergeCell ref="E415:K415"/>
-    <mergeCell ref="M415:M416"/>
-    <mergeCell ref="C432:D432"/>
-    <mergeCell ref="E432:E433"/>
-    <mergeCell ref="F432:K432"/>
-    <mergeCell ref="M432:M433"/>
-    <mergeCell ref="C394:C395"/>
-    <mergeCell ref="D394:D395"/>
-    <mergeCell ref="E394:E395"/>
-    <mergeCell ref="F394:F395"/>
-    <mergeCell ref="G394:G395"/>
-    <mergeCell ref="H394:H395"/>
-    <mergeCell ref="D379:E379"/>
-    <mergeCell ref="F379:H379"/>
-    <mergeCell ref="I379:K379"/>
-    <mergeCell ref="D376:E376"/>
-    <mergeCell ref="F376:H376"/>
-    <mergeCell ref="I376:K376"/>
-    <mergeCell ref="D377:E377"/>
-    <mergeCell ref="F377:H377"/>
-    <mergeCell ref="I377:K377"/>
-    <mergeCell ref="D378:E378"/>
-    <mergeCell ref="F378:H378"/>
-    <mergeCell ref="I378:K378"/>
-    <mergeCell ref="B3:M3"/>
-    <mergeCell ref="B4:M4"/>
-    <mergeCell ref="B5:M5"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C215:M217"/>
-    <mergeCell ref="C127:M127"/>
-    <mergeCell ref="C130:M130"/>
-    <mergeCell ref="C144:M144"/>
-    <mergeCell ref="C146:E146"/>
-    <mergeCell ref="C148:E148"/>
-    <mergeCell ref="C150:E150"/>
-    <mergeCell ref="C111:G111"/>
-    <mergeCell ref="H112:I112"/>
-    <mergeCell ref="C113:G113"/>
-    <mergeCell ref="C122:M124"/>
-    <mergeCell ref="C194:M198"/>
-    <mergeCell ref="C201:M205"/>
-    <mergeCell ref="H49:K49"/>
-    <mergeCell ref="H53:K53"/>
-    <mergeCell ref="C8:K8"/>
-    <mergeCell ref="G27:K27"/>
-    <mergeCell ref="H29:M29"/>
-    <mergeCell ref="C163:M163"/>
-    <mergeCell ref="C180:F180"/>
-    <mergeCell ref="C182:G182"/>
-    <mergeCell ref="C186:G186"/>
-    <mergeCell ref="C370:M370"/>
-    <mergeCell ref="C350:G350"/>
-    <mergeCell ref="C352:G352"/>
-    <mergeCell ref="C354:G354"/>
-    <mergeCell ref="C154:G154"/>
-    <mergeCell ref="C369:D369"/>
-    <mergeCell ref="C346:F346"/>
-    <mergeCell ref="C348:F348"/>
-    <mergeCell ref="C287:F287"/>
-    <mergeCell ref="C288:F288"/>
-    <mergeCell ref="C289:F289"/>
-    <mergeCell ref="C291:F291"/>
-    <mergeCell ref="C293:F293"/>
-    <mergeCell ref="C328:M328"/>
-    <mergeCell ref="C342:M342"/>
-    <mergeCell ref="C359:M363"/>
-    <mergeCell ref="C300:M304"/>
-    <mergeCell ref="C307:M311"/>
-    <mergeCell ref="C322:M326"/>
-    <mergeCell ref="C336:M340"/>
-    <mergeCell ref="C368:D368"/>
-    <mergeCell ref="E368:M368"/>
-    <mergeCell ref="H50:K50"/>
-    <mergeCell ref="H55:K55"/>
-    <mergeCell ref="H56:K56"/>
-    <mergeCell ref="C285:F285"/>
-    <mergeCell ref="C286:F286"/>
-    <mergeCell ref="C270:D270"/>
-    <mergeCell ref="C271:D271"/>
-    <mergeCell ref="C272:D272"/>
-    <mergeCell ref="C246:M246"/>
-    <mergeCell ref="C247:M247"/>
-    <mergeCell ref="C269:D269"/>
-    <mergeCell ref="H54:K54"/>
-    <mergeCell ref="C236:M238"/>
-    <mergeCell ref="C261:M265"/>
-    <mergeCell ref="C277:M281"/>
-    <mergeCell ref="E269:M269"/>
-    <mergeCell ref="C273:D273"/>
-    <mergeCell ref="F99:G99"/>
-    <mergeCell ref="C88:K88"/>
-    <mergeCell ref="C220:D220"/>
-    <mergeCell ref="C228:M228"/>
-    <mergeCell ref="C152:F152"/>
-    <mergeCell ref="G74:I74"/>
-    <mergeCell ref="G73:I73"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.78740157480314965" header="0" footer="0"/>

--- a/13.0 FORMATO N°07 INVIERTE PE/FORMATO 7C IES JOSÉ MARIA ARGUEDAS CHUQUIBAMBILLA.xlsx
+++ b/13.0 FORMATO N°07 INVIERTE PE/FORMATO 7C IES JOSÉ MARIA ARGUEDAS CHUQUIBAMBILLA.xlsx
@@ -2095,6 +2095,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2249,15 +2258,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2659,8 +2659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:Q547"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="B496" zoomScale="70" zoomScaleNormal="51" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="E529" sqref="E529"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="B69" zoomScale="70" zoomScaleNormal="51" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="H476" sqref="H476"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -2682,52 +2682,52 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="B3" s="190" t="s">
+      <c r="B3" s="193" t="s">
         <v>258</v>
       </c>
-      <c r="C3" s="191"/>
-      <c r="D3" s="192"/>
-      <c r="E3" s="192"/>
-      <c r="F3" s="192"/>
-      <c r="G3" s="192"/>
-      <c r="H3" s="192"/>
-      <c r="I3" s="192"/>
-      <c r="J3" s="192"/>
-      <c r="K3" s="192"/>
-      <c r="L3" s="192"/>
-      <c r="M3" s="193"/>
+      <c r="C3" s="194"/>
+      <c r="D3" s="195"/>
+      <c r="E3" s="195"/>
+      <c r="F3" s="195"/>
+      <c r="G3" s="195"/>
+      <c r="H3" s="195"/>
+      <c r="I3" s="195"/>
+      <c r="J3" s="195"/>
+      <c r="K3" s="195"/>
+      <c r="L3" s="195"/>
+      <c r="M3" s="196"/>
     </row>
     <row r="4" spans="2:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="B4" s="194" t="s">
+      <c r="B4" s="197" t="s">
         <v>259</v>
       </c>
-      <c r="C4" s="195"/>
-      <c r="D4" s="196"/>
-      <c r="E4" s="196"/>
-      <c r="F4" s="196"/>
-      <c r="G4" s="196"/>
-      <c r="H4" s="196"/>
-      <c r="I4" s="196"/>
-      <c r="J4" s="196"/>
-      <c r="K4" s="196"/>
-      <c r="L4" s="196"/>
-      <c r="M4" s="197"/>
+      <c r="C4" s="198"/>
+      <c r="D4" s="199"/>
+      <c r="E4" s="199"/>
+      <c r="F4" s="199"/>
+      <c r="G4" s="199"/>
+      <c r="H4" s="199"/>
+      <c r="I4" s="199"/>
+      <c r="J4" s="199"/>
+      <c r="K4" s="199"/>
+      <c r="L4" s="199"/>
+      <c r="M4" s="200"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="172" t="s">
         <v>261</v>
       </c>
       <c r="C5" s="172"/>
-      <c r="D5" s="198"/>
-      <c r="E5" s="198"/>
-      <c r="F5" s="198"/>
-      <c r="G5" s="198"/>
-      <c r="H5" s="198"/>
-      <c r="I5" s="198"/>
-      <c r="J5" s="198"/>
-      <c r="K5" s="198"/>
-      <c r="L5" s="198"/>
-      <c r="M5" s="198"/>
+      <c r="D5" s="201"/>
+      <c r="E5" s="201"/>
+      <c r="F5" s="201"/>
+      <c r="G5" s="201"/>
+      <c r="H5" s="201"/>
+      <c r="I5" s="201"/>
+      <c r="J5" s="201"/>
+      <c r="K5" s="201"/>
+      <c r="L5" s="201"/>
+      <c r="M5" s="201"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
@@ -2761,17 +2761,17 @@
     </row>
     <row r="8" spans="2:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
-      <c r="C8" s="241" t="s">
+      <c r="C8" s="189" t="s">
         <v>335</v>
       </c>
-      <c r="D8" s="242"/>
-      <c r="E8" s="242"/>
-      <c r="F8" s="242"/>
-      <c r="G8" s="242"/>
-      <c r="H8" s="242"/>
-      <c r="I8" s="242"/>
-      <c r="J8" s="242"/>
-      <c r="K8" s="243"/>
+      <c r="D8" s="190"/>
+      <c r="E8" s="190"/>
+      <c r="F8" s="190"/>
+      <c r="G8" s="190"/>
+      <c r="H8" s="190"/>
+      <c r="I8" s="190"/>
+      <c r="J8" s="190"/>
+      <c r="K8" s="191"/>
       <c r="L8" s="155"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
@@ -3090,11 +3090,11 @@
     </row>
     <row r="29" spans="2:14" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="89"/>
-      <c r="C29" s="199" t="s">
+      <c r="C29" s="202" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="199"/>
-      <c r="E29" s="199"/>
+      <c r="D29" s="202"/>
+      <c r="E29" s="202"/>
       <c r="G29" s="142" t="s">
         <v>14</v>
       </c>
@@ -3442,12 +3442,12 @@
       <c r="E49" s="17"/>
       <c r="F49" s="17"/>
       <c r="G49" s="17"/>
-      <c r="H49" s="238" t="s">
+      <c r="H49" s="241" t="s">
         <v>313</v>
       </c>
-      <c r="I49" s="239"/>
-      <c r="J49" s="239"/>
-      <c r="K49" s="240"/>
+      <c r="I49" s="242"/>
+      <c r="J49" s="242"/>
+      <c r="K49" s="243"/>
       <c r="L49" s="149"/>
       <c r="M49" s="79"/>
     </row>
@@ -4466,13 +4466,13 @@
     </row>
     <row r="111" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B111" s="58"/>
-      <c r="C111" s="217" t="s">
+      <c r="C111" s="220" t="s">
         <v>74</v>
       </c>
-      <c r="D111" s="217"/>
-      <c r="E111" s="217"/>
-      <c r="F111" s="217"/>
-      <c r="G111" s="218"/>
+      <c r="D111" s="220"/>
+      <c r="E111" s="220"/>
+      <c r="F111" s="220"/>
+      <c r="G111" s="221"/>
       <c r="H111" s="26"/>
       <c r="I111" s="27"/>
       <c r="J111" s="80"/>
@@ -4487,8 +4487,8 @@
       <c r="E112" s="79"/>
       <c r="F112" s="79"/>
       <c r="G112" s="79"/>
-      <c r="H112" s="219"/>
-      <c r="I112" s="219"/>
+      <c r="H112" s="222"/>
+      <c r="I112" s="222"/>
       <c r="J112" s="80"/>
       <c r="K112" s="80"/>
       <c r="L112" s="152"/>
@@ -4496,13 +4496,13 @@
     </row>
     <row r="113" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B113" s="58"/>
-      <c r="C113" s="217" t="s">
+      <c r="C113" s="220" t="s">
         <v>75</v>
       </c>
-      <c r="D113" s="217"/>
-      <c r="E113" s="217"/>
-      <c r="F113" s="217"/>
-      <c r="G113" s="218"/>
+      <c r="D113" s="220"/>
+      <c r="E113" s="220"/>
+      <c r="F113" s="220"/>
+      <c r="G113" s="221"/>
       <c r="H113" s="26"/>
       <c r="I113" s="27"/>
       <c r="J113" s="80"/>
@@ -4634,47 +4634,47 @@
     </row>
     <row r="122" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B122" s="58"/>
-      <c r="C122" s="220" t="s">
+      <c r="C122" s="223" t="s">
         <v>281</v>
       </c>
-      <c r="D122" s="221"/>
-      <c r="E122" s="221"/>
-      <c r="F122" s="221"/>
-      <c r="G122" s="221"/>
-      <c r="H122" s="221"/>
-      <c r="I122" s="221"/>
-      <c r="J122" s="221"/>
-      <c r="K122" s="221"/>
-      <c r="L122" s="221"/>
-      <c r="M122" s="222"/>
+      <c r="D122" s="224"/>
+      <c r="E122" s="224"/>
+      <c r="F122" s="224"/>
+      <c r="G122" s="224"/>
+      <c r="H122" s="224"/>
+      <c r="I122" s="224"/>
+      <c r="J122" s="224"/>
+      <c r="K122" s="224"/>
+      <c r="L122" s="224"/>
+      <c r="M122" s="225"/>
     </row>
     <row r="123" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B123" s="58"/>
-      <c r="C123" s="223"/>
-      <c r="D123" s="224"/>
-      <c r="E123" s="224"/>
-      <c r="F123" s="224"/>
-      <c r="G123" s="224"/>
-      <c r="H123" s="224"/>
-      <c r="I123" s="224"/>
-      <c r="J123" s="224"/>
-      <c r="K123" s="224"/>
-      <c r="L123" s="224"/>
-      <c r="M123" s="225"/>
+      <c r="C123" s="226"/>
+      <c r="D123" s="227"/>
+      <c r="E123" s="227"/>
+      <c r="F123" s="227"/>
+      <c r="G123" s="227"/>
+      <c r="H123" s="227"/>
+      <c r="I123" s="227"/>
+      <c r="J123" s="227"/>
+      <c r="K123" s="227"/>
+      <c r="L123" s="227"/>
+      <c r="M123" s="228"/>
     </row>
     <row r="124" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B124" s="58"/>
-      <c r="C124" s="226"/>
-      <c r="D124" s="227"/>
-      <c r="E124" s="227"/>
-      <c r="F124" s="227"/>
-      <c r="G124" s="227"/>
-      <c r="H124" s="227"/>
-      <c r="I124" s="227"/>
-      <c r="J124" s="227"/>
-      <c r="K124" s="227"/>
-      <c r="L124" s="227"/>
-      <c r="M124" s="228"/>
+      <c r="C124" s="229"/>
+      <c r="D124" s="230"/>
+      <c r="E124" s="230"/>
+      <c r="F124" s="230"/>
+      <c r="G124" s="230"/>
+      <c r="H124" s="230"/>
+      <c r="I124" s="230"/>
+      <c r="J124" s="230"/>
+      <c r="K124" s="230"/>
+      <c r="L124" s="230"/>
+      <c r="M124" s="231"/>
     </row>
     <row r="125" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B125" s="58"/>
@@ -4708,19 +4708,19 @@
     </row>
     <row r="127" spans="2:13" ht="63" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" s="58"/>
-      <c r="C127" s="209" t="s">
+      <c r="C127" s="212" t="s">
         <v>282</v>
       </c>
-      <c r="D127" s="210"/>
-      <c r="E127" s="210"/>
-      <c r="F127" s="210"/>
-      <c r="G127" s="210"/>
-      <c r="H127" s="210"/>
-      <c r="I127" s="210"/>
-      <c r="J127" s="210"/>
-      <c r="K127" s="210"/>
-      <c r="L127" s="210"/>
-      <c r="M127" s="211"/>
+      <c r="D127" s="213"/>
+      <c r="E127" s="213"/>
+      <c r="F127" s="213"/>
+      <c r="G127" s="213"/>
+      <c r="H127" s="213"/>
+      <c r="I127" s="213"/>
+      <c r="J127" s="213"/>
+      <c r="K127" s="213"/>
+      <c r="L127" s="213"/>
+      <c r="M127" s="214"/>
     </row>
     <row r="128" spans="2:13" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" s="58"/>
@@ -4754,19 +4754,19 @@
     </row>
     <row r="130" spans="2:13" ht="46.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B130" s="58"/>
-      <c r="C130" s="212" t="s">
+      <c r="C130" s="215" t="s">
         <v>283</v>
       </c>
-      <c r="D130" s="213"/>
-      <c r="E130" s="213"/>
-      <c r="F130" s="213"/>
-      <c r="G130" s="213"/>
-      <c r="H130" s="213"/>
-      <c r="I130" s="213"/>
-      <c r="J130" s="213"/>
-      <c r="K130" s="213"/>
-      <c r="L130" s="213"/>
-      <c r="M130" s="214"/>
+      <c r="D130" s="216"/>
+      <c r="E130" s="216"/>
+      <c r="F130" s="216"/>
+      <c r="G130" s="216"/>
+      <c r="H130" s="216"/>
+      <c r="I130" s="216"/>
+      <c r="J130" s="216"/>
+      <c r="K130" s="216"/>
+      <c r="L130" s="216"/>
+      <c r="M130" s="217"/>
     </row>
     <row r="131" spans="2:13" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131" s="58"/>
@@ -4965,19 +4965,19 @@
     </row>
     <row r="144" spans="2:13" ht="87" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="58"/>
-      <c r="C144" s="215" t="s">
+      <c r="C144" s="218" t="s">
         <v>284</v>
       </c>
-      <c r="D144" s="215"/>
-      <c r="E144" s="215"/>
-      <c r="F144" s="215"/>
-      <c r="G144" s="215"/>
-      <c r="H144" s="215"/>
-      <c r="I144" s="215"/>
-      <c r="J144" s="215"/>
-      <c r="K144" s="215"/>
-      <c r="L144" s="215"/>
-      <c r="M144" s="215"/>
+      <c r="D144" s="218"/>
+      <c r="E144" s="218"/>
+      <c r="F144" s="218"/>
+      <c r="G144" s="218"/>
+      <c r="H144" s="218"/>
+      <c r="I144" s="218"/>
+      <c r="J144" s="218"/>
+      <c r="K144" s="218"/>
+      <c r="L144" s="218"/>
+      <c r="M144" s="218"/>
     </row>
     <row r="145" spans="2:13" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B145" s="58"/>
@@ -4995,11 +4995,11 @@
     </row>
     <row r="146" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B146" s="18"/>
-      <c r="C146" s="216" t="s">
+      <c r="C146" s="219" t="s">
         <v>91</v>
       </c>
-      <c r="D146" s="216"/>
-      <c r="E146" s="216"/>
+      <c r="D146" s="219"/>
+      <c r="E146" s="219"/>
       <c r="H146" s="106"/>
       <c r="I146" s="18" t="s">
         <v>92</v>
@@ -5023,11 +5023,11 @@
     </row>
     <row r="148" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B148" s="18"/>
-      <c r="C148" s="216" t="s">
+      <c r="C148" s="219" t="s">
         <v>93</v>
       </c>
-      <c r="D148" s="216"/>
-      <c r="E148" s="216"/>
+      <c r="D148" s="219"/>
+      <c r="E148" s="219"/>
       <c r="H148" s="106"/>
       <c r="I148" s="18" t="s">
         <v>94</v>
@@ -5051,11 +5051,11 @@
     </row>
     <row r="150" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B150" s="18"/>
-      <c r="C150" s="216" t="s">
+      <c r="C150" s="219" t="s">
         <v>95</v>
       </c>
-      <c r="D150" s="216"/>
-      <c r="E150" s="216"/>
+      <c r="D150" s="219"/>
+      <c r="E150" s="219"/>
       <c r="H150" s="106"/>
       <c r="I150" s="25"/>
       <c r="J150" s="25"/>
@@ -5077,12 +5077,12 @@
     </row>
     <row r="152" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B152" s="18"/>
-      <c r="C152" s="216" t="s">
+      <c r="C152" s="219" t="s">
         <v>96</v>
       </c>
-      <c r="D152" s="216"/>
-      <c r="E152" s="216"/>
-      <c r="F152" s="216"/>
+      <c r="D152" s="219"/>
+      <c r="E152" s="219"/>
+      <c r="F152" s="219"/>
       <c r="H152" s="106"/>
       <c r="I152" s="25"/>
       <c r="J152" s="25"/>
@@ -5105,12 +5105,12 @@
     </row>
     <row r="154" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B154" s="18"/>
-      <c r="C154" s="216" t="s">
+      <c r="C154" s="219" t="s">
         <v>97</v>
       </c>
-      <c r="D154" s="216"/>
-      <c r="E154" s="216"/>
-      <c r="F154" s="216"/>
+      <c r="D154" s="219"/>
+      <c r="E154" s="219"/>
+      <c r="F154" s="219"/>
       <c r="G154" s="251"/>
       <c r="H154" s="106"/>
       <c r="I154" s="25"/>
@@ -5469,12 +5469,12 @@
     </row>
     <row r="180" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B180" s="25"/>
-      <c r="C180" s="216" t="s">
+      <c r="C180" s="219" t="s">
         <v>93</v>
       </c>
-      <c r="D180" s="216"/>
-      <c r="E180" s="216"/>
-      <c r="F180" s="216"/>
+      <c r="D180" s="219"/>
+      <c r="E180" s="219"/>
+      <c r="F180" s="219"/>
       <c r="G180" s="79"/>
       <c r="H180" s="103"/>
       <c r="I180" s="18" t="s">
@@ -5501,12 +5501,12 @@
     </row>
     <row r="182" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B182" s="25"/>
-      <c r="C182" s="216" t="s">
+      <c r="C182" s="219" t="s">
         <v>112</v>
       </c>
-      <c r="D182" s="216"/>
-      <c r="E182" s="216"/>
-      <c r="F182" s="216"/>
+      <c r="D182" s="219"/>
+      <c r="E182" s="219"/>
+      <c r="F182" s="219"/>
       <c r="G182" s="251"/>
       <c r="H182" s="103"/>
       <c r="I182" s="25"/>
@@ -5561,12 +5561,12 @@
     </row>
     <row r="186" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B186" s="25"/>
-      <c r="C186" s="216" t="s">
+      <c r="C186" s="219" t="s">
         <v>114</v>
       </c>
-      <c r="D186" s="216"/>
-      <c r="E186" s="216"/>
-      <c r="F186" s="216"/>
+      <c r="D186" s="219"/>
+      <c r="E186" s="219"/>
+      <c r="F186" s="219"/>
       <c r="G186" s="251"/>
       <c r="H186" s="103"/>
       <c r="I186" s="25"/>
@@ -5680,79 +5680,79 @@
     </row>
     <row r="194" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B194" s="21"/>
-      <c r="C194" s="229" t="s">
+      <c r="C194" s="232" t="s">
         <v>286</v>
       </c>
-      <c r="D194" s="230"/>
-      <c r="E194" s="230"/>
-      <c r="F194" s="230"/>
-      <c r="G194" s="230"/>
-      <c r="H194" s="230"/>
-      <c r="I194" s="230"/>
-      <c r="J194" s="230"/>
-      <c r="K194" s="230"/>
-      <c r="L194" s="230"/>
-      <c r="M194" s="231"/>
+      <c r="D194" s="233"/>
+      <c r="E194" s="233"/>
+      <c r="F194" s="233"/>
+      <c r="G194" s="233"/>
+      <c r="H194" s="233"/>
+      <c r="I194" s="233"/>
+      <c r="J194" s="233"/>
+      <c r="K194" s="233"/>
+      <c r="L194" s="233"/>
+      <c r="M194" s="234"/>
       <c r="N194" s="21"/>
     </row>
     <row r="195" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B195" s="21"/>
-      <c r="C195" s="232"/>
-      <c r="D195" s="233"/>
-      <c r="E195" s="233"/>
-      <c r="F195" s="233"/>
-      <c r="G195" s="233"/>
-      <c r="H195" s="233"/>
-      <c r="I195" s="233"/>
-      <c r="J195" s="233"/>
-      <c r="K195" s="233"/>
-      <c r="L195" s="233"/>
-      <c r="M195" s="234"/>
+      <c r="C195" s="235"/>
+      <c r="D195" s="236"/>
+      <c r="E195" s="236"/>
+      <c r="F195" s="236"/>
+      <c r="G195" s="236"/>
+      <c r="H195" s="236"/>
+      <c r="I195" s="236"/>
+      <c r="J195" s="236"/>
+      <c r="K195" s="236"/>
+      <c r="L195" s="236"/>
+      <c r="M195" s="237"/>
       <c r="N195" s="2"/>
     </row>
     <row r="196" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B196" s="21"/>
-      <c r="C196" s="232"/>
-      <c r="D196" s="233"/>
-      <c r="E196" s="233"/>
-      <c r="F196" s="233"/>
-      <c r="G196" s="233"/>
-      <c r="H196" s="233"/>
-      <c r="I196" s="233"/>
-      <c r="J196" s="233"/>
-      <c r="K196" s="233"/>
-      <c r="L196" s="233"/>
-      <c r="M196" s="234"/>
+      <c r="C196" s="235"/>
+      <c r="D196" s="236"/>
+      <c r="E196" s="236"/>
+      <c r="F196" s="236"/>
+      <c r="G196" s="236"/>
+      <c r="H196" s="236"/>
+      <c r="I196" s="236"/>
+      <c r="J196" s="236"/>
+      <c r="K196" s="236"/>
+      <c r="L196" s="236"/>
+      <c r="M196" s="237"/>
       <c r="N196" s="2"/>
     </row>
     <row r="197" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B197" s="21"/>
-      <c r="C197" s="232"/>
-      <c r="D197" s="233"/>
-      <c r="E197" s="233"/>
-      <c r="F197" s="233"/>
-      <c r="G197" s="233"/>
-      <c r="H197" s="233"/>
-      <c r="I197" s="233"/>
-      <c r="J197" s="233"/>
-      <c r="K197" s="233"/>
-      <c r="L197" s="233"/>
-      <c r="M197" s="234"/>
+      <c r="C197" s="235"/>
+      <c r="D197" s="236"/>
+      <c r="E197" s="236"/>
+      <c r="F197" s="236"/>
+      <c r="G197" s="236"/>
+      <c r="H197" s="236"/>
+      <c r="I197" s="236"/>
+      <c r="J197" s="236"/>
+      <c r="K197" s="236"/>
+      <c r="L197" s="236"/>
+      <c r="M197" s="237"/>
       <c r="N197" s="2"/>
     </row>
     <row r="198" spans="2:14" ht="99.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B198" s="21"/>
-      <c r="C198" s="235"/>
-      <c r="D198" s="236"/>
-      <c r="E198" s="236"/>
-      <c r="F198" s="236"/>
-      <c r="G198" s="236"/>
-      <c r="H198" s="236"/>
-      <c r="I198" s="236"/>
-      <c r="J198" s="236"/>
-      <c r="K198" s="236"/>
-      <c r="L198" s="236"/>
-      <c r="M198" s="237"/>
+      <c r="C198" s="238"/>
+      <c r="D198" s="239"/>
+      <c r="E198" s="239"/>
+      <c r="F198" s="239"/>
+      <c r="G198" s="239"/>
+      <c r="H198" s="239"/>
+      <c r="I198" s="239"/>
+      <c r="J198" s="239"/>
+      <c r="K198" s="239"/>
+      <c r="L198" s="239"/>
+      <c r="M198" s="240"/>
       <c r="N198" s="2"/>
     </row>
     <row r="199" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -5789,79 +5789,79 @@
     </row>
     <row r="201" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B201" s="21"/>
-      <c r="C201" s="229" t="s">
+      <c r="C201" s="232" t="s">
         <v>287</v>
       </c>
-      <c r="D201" s="230"/>
-      <c r="E201" s="230"/>
-      <c r="F201" s="230"/>
-      <c r="G201" s="230"/>
-      <c r="H201" s="230"/>
-      <c r="I201" s="230"/>
-      <c r="J201" s="230"/>
-      <c r="K201" s="230"/>
-      <c r="L201" s="230"/>
-      <c r="M201" s="231"/>
+      <c r="D201" s="233"/>
+      <c r="E201" s="233"/>
+      <c r="F201" s="233"/>
+      <c r="G201" s="233"/>
+      <c r="H201" s="233"/>
+      <c r="I201" s="233"/>
+      <c r="J201" s="233"/>
+      <c r="K201" s="233"/>
+      <c r="L201" s="233"/>
+      <c r="M201" s="234"/>
       <c r="N201" s="34"/>
     </row>
     <row r="202" spans="2:14" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B202" s="21"/>
-      <c r="C202" s="232"/>
-      <c r="D202" s="233"/>
-      <c r="E202" s="233"/>
-      <c r="F202" s="233"/>
-      <c r="G202" s="233"/>
-      <c r="H202" s="233"/>
-      <c r="I202" s="233"/>
-      <c r="J202" s="233"/>
-      <c r="K202" s="233"/>
-      <c r="L202" s="233"/>
-      <c r="M202" s="234"/>
+      <c r="C202" s="235"/>
+      <c r="D202" s="236"/>
+      <c r="E202" s="236"/>
+      <c r="F202" s="236"/>
+      <c r="G202" s="236"/>
+      <c r="H202" s="236"/>
+      <c r="I202" s="236"/>
+      <c r="J202" s="236"/>
+      <c r="K202" s="236"/>
+      <c r="L202" s="236"/>
+      <c r="M202" s="237"/>
       <c r="N202" s="2"/>
     </row>
     <row r="203" spans="2:14" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B203" s="21"/>
-      <c r="C203" s="232"/>
-      <c r="D203" s="233"/>
-      <c r="E203" s="233"/>
-      <c r="F203" s="233"/>
-      <c r="G203" s="233"/>
-      <c r="H203" s="233"/>
-      <c r="I203" s="233"/>
-      <c r="J203" s="233"/>
-      <c r="K203" s="233"/>
-      <c r="L203" s="233"/>
-      <c r="M203" s="234"/>
+      <c r="C203" s="235"/>
+      <c r="D203" s="236"/>
+      <c r="E203" s="236"/>
+      <c r="F203" s="236"/>
+      <c r="G203" s="236"/>
+      <c r="H203" s="236"/>
+      <c r="I203" s="236"/>
+      <c r="J203" s="236"/>
+      <c r="K203" s="236"/>
+      <c r="L203" s="236"/>
+      <c r="M203" s="237"/>
       <c r="N203" s="2"/>
     </row>
     <row r="204" spans="2:14" ht="35.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B204" s="21"/>
-      <c r="C204" s="232"/>
-      <c r="D204" s="233"/>
-      <c r="E204" s="233"/>
-      <c r="F204" s="233"/>
-      <c r="G204" s="233"/>
-      <c r="H204" s="233"/>
-      <c r="I204" s="233"/>
-      <c r="J204" s="233"/>
-      <c r="K204" s="233"/>
-      <c r="L204" s="233"/>
-      <c r="M204" s="234"/>
+      <c r="C204" s="235"/>
+      <c r="D204" s="236"/>
+      <c r="E204" s="236"/>
+      <c r="F204" s="236"/>
+      <c r="G204" s="236"/>
+      <c r="H204" s="236"/>
+      <c r="I204" s="236"/>
+      <c r="J204" s="236"/>
+      <c r="K204" s="236"/>
+      <c r="L204" s="236"/>
+      <c r="M204" s="237"/>
       <c r="N204" s="2"/>
     </row>
     <row r="205" spans="2:14" ht="39" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B205" s="21"/>
-      <c r="C205" s="235"/>
-      <c r="D205" s="236"/>
-      <c r="E205" s="236"/>
-      <c r="F205" s="236"/>
-      <c r="G205" s="236"/>
-      <c r="H205" s="236"/>
-      <c r="I205" s="236"/>
-      <c r="J205" s="236"/>
-      <c r="K205" s="236"/>
-      <c r="L205" s="236"/>
-      <c r="M205" s="237"/>
+      <c r="C205" s="238"/>
+      <c r="D205" s="239"/>
+      <c r="E205" s="239"/>
+      <c r="F205" s="239"/>
+      <c r="G205" s="239"/>
+      <c r="H205" s="239"/>
+      <c r="I205" s="239"/>
+      <c r="J205" s="239"/>
+      <c r="K205" s="239"/>
+      <c r="L205" s="239"/>
+      <c r="M205" s="240"/>
       <c r="N205" s="2"/>
     </row>
     <row r="206" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -6008,49 +6008,49 @@
     </row>
     <row r="215" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B215" s="18"/>
-      <c r="C215" s="200" t="s">
+      <c r="C215" s="203" t="s">
         <v>292</v>
       </c>
-      <c r="D215" s="201"/>
-      <c r="E215" s="201"/>
-      <c r="F215" s="201"/>
-      <c r="G215" s="201"/>
-      <c r="H215" s="201"/>
-      <c r="I215" s="201"/>
-      <c r="J215" s="201"/>
-      <c r="K215" s="201"/>
-      <c r="L215" s="201"/>
-      <c r="M215" s="202"/>
+      <c r="D215" s="204"/>
+      <c r="E215" s="204"/>
+      <c r="F215" s="204"/>
+      <c r="G215" s="204"/>
+      <c r="H215" s="204"/>
+      <c r="I215" s="204"/>
+      <c r="J215" s="204"/>
+      <c r="K215" s="204"/>
+      <c r="L215" s="204"/>
+      <c r="M215" s="205"/>
       <c r="N215" s="34"/>
     </row>
     <row r="216" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B216" s="18"/>
-      <c r="C216" s="203"/>
-      <c r="D216" s="204"/>
-      <c r="E216" s="204"/>
-      <c r="F216" s="204"/>
-      <c r="G216" s="204"/>
-      <c r="H216" s="204"/>
-      <c r="I216" s="204"/>
-      <c r="J216" s="204"/>
-      <c r="K216" s="204"/>
-      <c r="L216" s="204"/>
-      <c r="M216" s="205"/>
+      <c r="C216" s="206"/>
+      <c r="D216" s="207"/>
+      <c r="E216" s="207"/>
+      <c r="F216" s="207"/>
+      <c r="G216" s="207"/>
+      <c r="H216" s="207"/>
+      <c r="I216" s="207"/>
+      <c r="J216" s="207"/>
+      <c r="K216" s="207"/>
+      <c r="L216" s="207"/>
+      <c r="M216" s="208"/>
       <c r="N216" s="60"/>
     </row>
     <row r="217" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B217" s="18"/>
-      <c r="C217" s="206"/>
-      <c r="D217" s="207"/>
-      <c r="E217" s="207"/>
-      <c r="F217" s="207"/>
-      <c r="G217" s="207"/>
-      <c r="H217" s="207"/>
-      <c r="I217" s="207"/>
-      <c r="J217" s="207"/>
-      <c r="K217" s="207"/>
-      <c r="L217" s="207"/>
-      <c r="M217" s="208"/>
+      <c r="C217" s="209"/>
+      <c r="D217" s="210"/>
+      <c r="E217" s="210"/>
+      <c r="F217" s="210"/>
+      <c r="G217" s="210"/>
+      <c r="H217" s="210"/>
+      <c r="I217" s="210"/>
+      <c r="J217" s="210"/>
+      <c r="K217" s="210"/>
+      <c r="L217" s="210"/>
+      <c r="M217" s="211"/>
       <c r="N217" s="60"/>
     </row>
     <row r="218" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
@@ -6085,10 +6085,10 @@
     </row>
     <row r="220" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B220" s="18"/>
-      <c r="C220" s="216" t="s">
+      <c r="C220" s="219" t="s">
         <v>122</v>
       </c>
-      <c r="D220" s="216"/>
+      <c r="D220" s="219"/>
       <c r="E220" s="82"/>
       <c r="F220" s="79"/>
       <c r="G220" s="13"/>
@@ -6213,19 +6213,19 @@
     </row>
     <row r="228" spans="2:15" ht="49.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B228" s="18"/>
-      <c r="C228" s="223" t="s">
+      <c r="C228" s="226" t="s">
         <v>291</v>
       </c>
-      <c r="D228" s="224"/>
-      <c r="E228" s="224"/>
-      <c r="F228" s="224"/>
-      <c r="G228" s="224"/>
-      <c r="H228" s="224"/>
-      <c r="I228" s="224"/>
-      <c r="J228" s="224"/>
-      <c r="K228" s="224"/>
-      <c r="L228" s="224"/>
-      <c r="M228" s="225"/>
+      <c r="D228" s="227"/>
+      <c r="E228" s="227"/>
+      <c r="F228" s="227"/>
+      <c r="G228" s="227"/>
+      <c r="H228" s="227"/>
+      <c r="I228" s="227"/>
+      <c r="J228" s="227"/>
+      <c r="K228" s="227"/>
+      <c r="L228" s="227"/>
+      <c r="M228" s="228"/>
     </row>
     <row r="229" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B229" s="18"/>
@@ -6727,83 +6727,83 @@
     </row>
     <row r="261" spans="2:15" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B261" s="18"/>
-      <c r="C261" s="229" t="s">
+      <c r="C261" s="232" t="s">
         <v>304</v>
       </c>
-      <c r="D261" s="230"/>
-      <c r="E261" s="230"/>
-      <c r="F261" s="230"/>
-      <c r="G261" s="230"/>
-      <c r="H261" s="230"/>
-      <c r="I261" s="230"/>
-      <c r="J261" s="230"/>
-      <c r="K261" s="230"/>
-      <c r="L261" s="230"/>
-      <c r="M261" s="231"/>
+      <c r="D261" s="233"/>
+      <c r="E261" s="233"/>
+      <c r="F261" s="233"/>
+      <c r="G261" s="233"/>
+      <c r="H261" s="233"/>
+      <c r="I261" s="233"/>
+      <c r="J261" s="233"/>
+      <c r="K261" s="233"/>
+      <c r="L261" s="233"/>
+      <c r="M261" s="234"/>
       <c r="N261" s="34"/>
       <c r="O261" s="2"/>
     </row>
     <row r="262" spans="2:15" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B262" s="18"/>
-      <c r="C262" s="232"/>
-      <c r="D262" s="233"/>
-      <c r="E262" s="233"/>
-      <c r="F262" s="233"/>
-      <c r="G262" s="233"/>
-      <c r="H262" s="233"/>
-      <c r="I262" s="233"/>
-      <c r="J262" s="233"/>
-      <c r="K262" s="233"/>
-      <c r="L262" s="233"/>
-      <c r="M262" s="234"/>
+      <c r="C262" s="235"/>
+      <c r="D262" s="236"/>
+      <c r="E262" s="236"/>
+      <c r="F262" s="236"/>
+      <c r="G262" s="236"/>
+      <c r="H262" s="236"/>
+      <c r="I262" s="236"/>
+      <c r="J262" s="236"/>
+      <c r="K262" s="236"/>
+      <c r="L262" s="236"/>
+      <c r="M262" s="237"/>
       <c r="N262" s="60"/>
       <c r="O262" s="2"/>
     </row>
     <row r="263" spans="2:15" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B263" s="18"/>
-      <c r="C263" s="232"/>
-      <c r="D263" s="233"/>
-      <c r="E263" s="233"/>
-      <c r="F263" s="233"/>
-      <c r="G263" s="233"/>
-      <c r="H263" s="233"/>
-      <c r="I263" s="233"/>
-      <c r="J263" s="233"/>
-      <c r="K263" s="233"/>
-      <c r="L263" s="233"/>
-      <c r="M263" s="234"/>
+      <c r="C263" s="235"/>
+      <c r="D263" s="236"/>
+      <c r="E263" s="236"/>
+      <c r="F263" s="236"/>
+      <c r="G263" s="236"/>
+      <c r="H263" s="236"/>
+      <c r="I263" s="236"/>
+      <c r="J263" s="236"/>
+      <c r="K263" s="236"/>
+      <c r="L263" s="236"/>
+      <c r="M263" s="237"/>
       <c r="N263" s="60"/>
       <c r="O263" s="2"/>
     </row>
     <row r="264" spans="2:15" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B264" s="18"/>
-      <c r="C264" s="232"/>
-      <c r="D264" s="233"/>
-      <c r="E264" s="233"/>
-      <c r="F264" s="233"/>
-      <c r="G264" s="233"/>
-      <c r="H264" s="233"/>
-      <c r="I264" s="233"/>
-      <c r="J264" s="233"/>
-      <c r="K264" s="233"/>
-      <c r="L264" s="233"/>
-      <c r="M264" s="234"/>
+      <c r="C264" s="235"/>
+      <c r="D264" s="236"/>
+      <c r="E264" s="236"/>
+      <c r="F264" s="236"/>
+      <c r="G264" s="236"/>
+      <c r="H264" s="236"/>
+      <c r="I264" s="236"/>
+      <c r="J264" s="236"/>
+      <c r="K264" s="236"/>
+      <c r="L264" s="236"/>
+      <c r="M264" s="237"/>
       <c r="N264" s="60"/>
       <c r="O264" s="2"/>
     </row>
     <row r="265" spans="2:15" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B265" s="18"/>
-      <c r="C265" s="235"/>
-      <c r="D265" s="236"/>
-      <c r="E265" s="236"/>
-      <c r="F265" s="236"/>
-      <c r="G265" s="236"/>
-      <c r="H265" s="236"/>
-      <c r="I265" s="236"/>
-      <c r="J265" s="236"/>
-      <c r="K265" s="236"/>
-      <c r="L265" s="236"/>
-      <c r="M265" s="237"/>
+      <c r="C265" s="238"/>
+      <c r="D265" s="239"/>
+      <c r="E265" s="239"/>
+      <c r="F265" s="239"/>
+      <c r="G265" s="239"/>
+      <c r="H265" s="239"/>
+      <c r="I265" s="239"/>
+      <c r="J265" s="239"/>
+      <c r="K265" s="239"/>
+      <c r="L265" s="239"/>
+      <c r="M265" s="240"/>
       <c r="N265" s="60"/>
       <c r="O265" s="2"/>
     </row>
@@ -7125,11 +7125,11 @@
     </row>
     <row r="285" spans="2:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B285" s="18"/>
-      <c r="C285" s="216" t="s">
+      <c r="C285" s="219" t="s">
         <v>144</v>
       </c>
-      <c r="D285" s="216"/>
-      <c r="E285" s="216"/>
+      <c r="D285" s="219"/>
+      <c r="E285" s="219"/>
       <c r="F285" s="251"/>
       <c r="G285" s="106"/>
       <c r="H285" s="25"/>
@@ -7141,10 +7141,10 @@
     </row>
     <row r="286" spans="2:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B286" s="18"/>
-      <c r="C286" s="216"/>
-      <c r="D286" s="216"/>
-      <c r="E286" s="216"/>
-      <c r="F286" s="216"/>
+      <c r="C286" s="219"/>
+      <c r="D286" s="219"/>
+      <c r="E286" s="219"/>
+      <c r="F286" s="219"/>
       <c r="G286" s="13"/>
       <c r="H286" s="25"/>
       <c r="I286" s="25"/>
@@ -7155,11 +7155,11 @@
     </row>
     <row r="287" spans="2:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B287" s="18"/>
-      <c r="C287" s="216" t="s">
+      <c r="C287" s="219" t="s">
         <v>145</v>
       </c>
-      <c r="D287" s="216"/>
-      <c r="E287" s="216"/>
+      <c r="D287" s="219"/>
+      <c r="E287" s="219"/>
       <c r="F287" s="251"/>
       <c r="G287" s="106"/>
       <c r="H287" s="18" t="s">
@@ -7173,10 +7173,10 @@
     </row>
     <row r="288" spans="2:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B288" s="18"/>
-      <c r="C288" s="216"/>
-      <c r="D288" s="216"/>
-      <c r="E288" s="216"/>
-      <c r="F288" s="216"/>
+      <c r="C288" s="219"/>
+      <c r="D288" s="219"/>
+      <c r="E288" s="219"/>
+      <c r="F288" s="219"/>
       <c r="G288" s="13"/>
       <c r="H288" s="25"/>
       <c r="I288" s="25"/>
@@ -7187,11 +7187,11 @@
     </row>
     <row r="289" spans="2:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B289" s="18"/>
-      <c r="C289" s="216" t="s">
+      <c r="C289" s="219" t="s">
         <v>147</v>
       </c>
-      <c r="D289" s="216"/>
-      <c r="E289" s="216"/>
+      <c r="D289" s="219"/>
+      <c r="E289" s="219"/>
       <c r="F289" s="251"/>
       <c r="G289" s="106"/>
       <c r="H289" s="25"/>
@@ -7217,11 +7217,11 @@
     </row>
     <row r="291" spans="2:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B291" s="18"/>
-      <c r="C291" s="216" t="s">
+      <c r="C291" s="219" t="s">
         <v>148</v>
       </c>
-      <c r="D291" s="216"/>
-      <c r="E291" s="216"/>
+      <c r="D291" s="219"/>
+      <c r="E291" s="219"/>
       <c r="F291" s="251"/>
       <c r="G291" s="106"/>
       <c r="H291" s="25"/>
@@ -7247,11 +7247,11 @@
     </row>
     <row r="293" spans="2:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B293" s="18"/>
-      <c r="C293" s="216" t="s">
+      <c r="C293" s="219" t="s">
         <v>149</v>
       </c>
-      <c r="D293" s="216"/>
-      <c r="E293" s="216"/>
+      <c r="D293" s="219"/>
+      <c r="E293" s="219"/>
       <c r="F293" s="251"/>
       <c r="G293" s="106"/>
       <c r="H293" s="25"/>
@@ -7355,82 +7355,82 @@
     </row>
     <row r="300" spans="2:15" ht="6.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B300" s="18"/>
-      <c r="C300" s="229" t="s">
+      <c r="C300" s="232" t="s">
         <v>305</v>
       </c>
-      <c r="D300" s="230"/>
-      <c r="E300" s="230"/>
-      <c r="F300" s="230"/>
-      <c r="G300" s="230"/>
-      <c r="H300" s="230"/>
-      <c r="I300" s="230"/>
-      <c r="J300" s="230"/>
-      <c r="K300" s="230"/>
-      <c r="L300" s="230"/>
-      <c r="M300" s="231"/>
+      <c r="D300" s="233"/>
+      <c r="E300" s="233"/>
+      <c r="F300" s="233"/>
+      <c r="G300" s="233"/>
+      <c r="H300" s="233"/>
+      <c r="I300" s="233"/>
+      <c r="J300" s="233"/>
+      <c r="K300" s="233"/>
+      <c r="L300" s="233"/>
+      <c r="M300" s="234"/>
       <c r="N300" s="21"/>
     </row>
     <row r="301" spans="2:15" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B301" s="18"/>
-      <c r="C301" s="232"/>
-      <c r="D301" s="233"/>
-      <c r="E301" s="233"/>
-      <c r="F301" s="233"/>
-      <c r="G301" s="233"/>
-      <c r="H301" s="233"/>
-      <c r="I301" s="233"/>
-      <c r="J301" s="233"/>
-      <c r="K301" s="233"/>
-      <c r="L301" s="233"/>
-      <c r="M301" s="234"/>
+      <c r="C301" s="235"/>
+      <c r="D301" s="236"/>
+      <c r="E301" s="236"/>
+      <c r="F301" s="236"/>
+      <c r="G301" s="236"/>
+      <c r="H301" s="236"/>
+      <c r="I301" s="236"/>
+      <c r="J301" s="236"/>
+      <c r="K301" s="236"/>
+      <c r="L301" s="236"/>
+      <c r="M301" s="237"/>
       <c r="N301" s="60"/>
       <c r="O301" s="2"/>
     </row>
     <row r="302" spans="2:15" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B302" s="18"/>
-      <c r="C302" s="232"/>
-      <c r="D302" s="233"/>
-      <c r="E302" s="233"/>
-      <c r="F302" s="233"/>
-      <c r="G302" s="233"/>
-      <c r="H302" s="233"/>
-      <c r="I302" s="233"/>
-      <c r="J302" s="233"/>
-      <c r="K302" s="233"/>
-      <c r="L302" s="233"/>
-      <c r="M302" s="234"/>
+      <c r="C302" s="235"/>
+      <c r="D302" s="236"/>
+      <c r="E302" s="236"/>
+      <c r="F302" s="236"/>
+      <c r="G302" s="236"/>
+      <c r="H302" s="236"/>
+      <c r="I302" s="236"/>
+      <c r="J302" s="236"/>
+      <c r="K302" s="236"/>
+      <c r="L302" s="236"/>
+      <c r="M302" s="237"/>
       <c r="N302" s="60"/>
       <c r="O302" s="2"/>
     </row>
     <row r="303" spans="2:15" ht="30.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B303" s="18"/>
-      <c r="C303" s="232"/>
-      <c r="D303" s="233"/>
-      <c r="E303" s="233"/>
-      <c r="F303" s="233"/>
-      <c r="G303" s="233"/>
-      <c r="H303" s="233"/>
-      <c r="I303" s="233"/>
-      <c r="J303" s="233"/>
-      <c r="K303" s="233"/>
-      <c r="L303" s="233"/>
-      <c r="M303" s="234"/>
+      <c r="C303" s="235"/>
+      <c r="D303" s="236"/>
+      <c r="E303" s="236"/>
+      <c r="F303" s="236"/>
+      <c r="G303" s="236"/>
+      <c r="H303" s="236"/>
+      <c r="I303" s="236"/>
+      <c r="J303" s="236"/>
+      <c r="K303" s="236"/>
+      <c r="L303" s="236"/>
+      <c r="M303" s="237"/>
       <c r="N303" s="60"/>
       <c r="O303" s="2"/>
     </row>
     <row r="304" spans="2:15" ht="119.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B304" s="18"/>
-      <c r="C304" s="235"/>
-      <c r="D304" s="236"/>
-      <c r="E304" s="236"/>
-      <c r="F304" s="236"/>
-      <c r="G304" s="236"/>
-      <c r="H304" s="236"/>
-      <c r="I304" s="236"/>
-      <c r="J304" s="236"/>
-      <c r="K304" s="236"/>
-      <c r="L304" s="236"/>
-      <c r="M304" s="237"/>
+      <c r="C304" s="238"/>
+      <c r="D304" s="239"/>
+      <c r="E304" s="239"/>
+      <c r="F304" s="239"/>
+      <c r="G304" s="239"/>
+      <c r="H304" s="239"/>
+      <c r="I304" s="239"/>
+      <c r="J304" s="239"/>
+      <c r="K304" s="239"/>
+      <c r="L304" s="239"/>
+      <c r="M304" s="240"/>
       <c r="N304" s="60"/>
       <c r="O304" s="2"/>
     </row>
@@ -7469,83 +7469,83 @@
     </row>
     <row r="307" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B307" s="18"/>
-      <c r="C307" s="229" t="s">
+      <c r="C307" s="232" t="s">
         <v>293</v>
       </c>
-      <c r="D307" s="230"/>
-      <c r="E307" s="230"/>
-      <c r="F307" s="230"/>
-      <c r="G307" s="230"/>
-      <c r="H307" s="230"/>
-      <c r="I307" s="230"/>
-      <c r="J307" s="230"/>
-      <c r="K307" s="230"/>
-      <c r="L307" s="230"/>
-      <c r="M307" s="231"/>
+      <c r="D307" s="233"/>
+      <c r="E307" s="233"/>
+      <c r="F307" s="233"/>
+      <c r="G307" s="233"/>
+      <c r="H307" s="233"/>
+      <c r="I307" s="233"/>
+      <c r="J307" s="233"/>
+      <c r="K307" s="233"/>
+      <c r="L307" s="233"/>
+      <c r="M307" s="234"/>
       <c r="N307" s="34"/>
       <c r="O307" s="2"/>
     </row>
     <row r="308" spans="2:15" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B308" s="18"/>
-      <c r="C308" s="232"/>
-      <c r="D308" s="233"/>
-      <c r="E308" s="233"/>
-      <c r="F308" s="233"/>
-      <c r="G308" s="233"/>
-      <c r="H308" s="233"/>
-      <c r="I308" s="233"/>
-      <c r="J308" s="233"/>
-      <c r="K308" s="233"/>
-      <c r="L308" s="233"/>
-      <c r="M308" s="234"/>
+      <c r="C308" s="235"/>
+      <c r="D308" s="236"/>
+      <c r="E308" s="236"/>
+      <c r="F308" s="236"/>
+      <c r="G308" s="236"/>
+      <c r="H308" s="236"/>
+      <c r="I308" s="236"/>
+      <c r="J308" s="236"/>
+      <c r="K308" s="236"/>
+      <c r="L308" s="236"/>
+      <c r="M308" s="237"/>
       <c r="N308" s="60"/>
       <c r="O308" s="2"/>
     </row>
     <row r="309" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B309" s="18"/>
-      <c r="C309" s="232"/>
-      <c r="D309" s="233"/>
-      <c r="E309" s="233"/>
-      <c r="F309" s="233"/>
-      <c r="G309" s="233"/>
-      <c r="H309" s="233"/>
-      <c r="I309" s="233"/>
-      <c r="J309" s="233"/>
-      <c r="K309" s="233"/>
-      <c r="L309" s="233"/>
-      <c r="M309" s="234"/>
+      <c r="C309" s="235"/>
+      <c r="D309" s="236"/>
+      <c r="E309" s="236"/>
+      <c r="F309" s="236"/>
+      <c r="G309" s="236"/>
+      <c r="H309" s="236"/>
+      <c r="I309" s="236"/>
+      <c r="J309" s="236"/>
+      <c r="K309" s="236"/>
+      <c r="L309" s="236"/>
+      <c r="M309" s="237"/>
       <c r="N309" s="60"/>
       <c r="O309" s="2"/>
     </row>
     <row r="310" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B310" s="18"/>
-      <c r="C310" s="232"/>
-      <c r="D310" s="233"/>
-      <c r="E310" s="233"/>
-      <c r="F310" s="233"/>
-      <c r="G310" s="233"/>
-      <c r="H310" s="233"/>
-      <c r="I310" s="233"/>
-      <c r="J310" s="233"/>
-      <c r="K310" s="233"/>
-      <c r="L310" s="233"/>
-      <c r="M310" s="234"/>
+      <c r="C310" s="235"/>
+      <c r="D310" s="236"/>
+      <c r="E310" s="236"/>
+      <c r="F310" s="236"/>
+      <c r="G310" s="236"/>
+      <c r="H310" s="236"/>
+      <c r="I310" s="236"/>
+      <c r="J310" s="236"/>
+      <c r="K310" s="236"/>
+      <c r="L310" s="236"/>
+      <c r="M310" s="237"/>
       <c r="N310" s="60"/>
       <c r="O310" s="2"/>
     </row>
     <row r="311" spans="2:15" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B311" s="18"/>
-      <c r="C311" s="235"/>
-      <c r="D311" s="236"/>
-      <c r="E311" s="236"/>
-      <c r="F311" s="236"/>
-      <c r="G311" s="236"/>
-      <c r="H311" s="236"/>
-      <c r="I311" s="236"/>
-      <c r="J311" s="236"/>
-      <c r="K311" s="236"/>
-      <c r="L311" s="236"/>
-      <c r="M311" s="237"/>
+      <c r="C311" s="238"/>
+      <c r="D311" s="239"/>
+      <c r="E311" s="239"/>
+      <c r="F311" s="239"/>
+      <c r="G311" s="239"/>
+      <c r="H311" s="239"/>
+      <c r="I311" s="239"/>
+      <c r="J311" s="239"/>
+      <c r="K311" s="239"/>
+      <c r="L311" s="239"/>
+      <c r="M311" s="240"/>
       <c r="N311" s="60"/>
       <c r="O311" s="2"/>
     </row>
@@ -7725,83 +7725,83 @@
     </row>
     <row r="322" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B322" s="18"/>
-      <c r="C322" s="229" t="s">
+      <c r="C322" s="232" t="s">
         <v>294</v>
       </c>
-      <c r="D322" s="230"/>
-      <c r="E322" s="230"/>
-      <c r="F322" s="230"/>
-      <c r="G322" s="230"/>
-      <c r="H322" s="230"/>
-      <c r="I322" s="230"/>
-      <c r="J322" s="230"/>
-      <c r="K322" s="230"/>
-      <c r="L322" s="230"/>
-      <c r="M322" s="231"/>
+      <c r="D322" s="233"/>
+      <c r="E322" s="233"/>
+      <c r="F322" s="233"/>
+      <c r="G322" s="233"/>
+      <c r="H322" s="233"/>
+      <c r="I322" s="233"/>
+      <c r="J322" s="233"/>
+      <c r="K322" s="233"/>
+      <c r="L322" s="233"/>
+      <c r="M322" s="234"/>
       <c r="N322" s="34"/>
       <c r="O322" s="2"/>
     </row>
     <row r="323" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B323" s="18"/>
-      <c r="C323" s="232"/>
-      <c r="D323" s="233"/>
-      <c r="E323" s="233"/>
-      <c r="F323" s="233"/>
-      <c r="G323" s="233"/>
-      <c r="H323" s="233"/>
-      <c r="I323" s="233"/>
-      <c r="J323" s="233"/>
-      <c r="K323" s="233"/>
-      <c r="L323" s="233"/>
-      <c r="M323" s="234"/>
+      <c r="C323" s="235"/>
+      <c r="D323" s="236"/>
+      <c r="E323" s="236"/>
+      <c r="F323" s="236"/>
+      <c r="G323" s="236"/>
+      <c r="H323" s="236"/>
+      <c r="I323" s="236"/>
+      <c r="J323" s="236"/>
+      <c r="K323" s="236"/>
+      <c r="L323" s="236"/>
+      <c r="M323" s="237"/>
       <c r="N323" s="60"/>
       <c r="O323" s="2"/>
     </row>
     <row r="324" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B324" s="18"/>
-      <c r="C324" s="232"/>
-      <c r="D324" s="233"/>
-      <c r="E324" s="233"/>
-      <c r="F324" s="233"/>
-      <c r="G324" s="233"/>
-      <c r="H324" s="233"/>
-      <c r="I324" s="233"/>
-      <c r="J324" s="233"/>
-      <c r="K324" s="233"/>
-      <c r="L324" s="233"/>
-      <c r="M324" s="234"/>
+      <c r="C324" s="235"/>
+      <c r="D324" s="236"/>
+      <c r="E324" s="236"/>
+      <c r="F324" s="236"/>
+      <c r="G324" s="236"/>
+      <c r="H324" s="236"/>
+      <c r="I324" s="236"/>
+      <c r="J324" s="236"/>
+      <c r="K324" s="236"/>
+      <c r="L324" s="236"/>
+      <c r="M324" s="237"/>
       <c r="N324" s="60"/>
       <c r="O324" s="2"/>
     </row>
     <row r="325" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B325" s="18"/>
-      <c r="C325" s="232"/>
-      <c r="D325" s="233"/>
-      <c r="E325" s="233"/>
-      <c r="F325" s="233"/>
-      <c r="G325" s="233"/>
-      <c r="H325" s="233"/>
-      <c r="I325" s="233"/>
-      <c r="J325" s="233"/>
-      <c r="K325" s="233"/>
-      <c r="L325" s="233"/>
-      <c r="M325" s="234"/>
+      <c r="C325" s="235"/>
+      <c r="D325" s="236"/>
+      <c r="E325" s="236"/>
+      <c r="F325" s="236"/>
+      <c r="G325" s="236"/>
+      <c r="H325" s="236"/>
+      <c r="I325" s="236"/>
+      <c r="J325" s="236"/>
+      <c r="K325" s="236"/>
+      <c r="L325" s="236"/>
+      <c r="M325" s="237"/>
       <c r="N325" s="60"/>
       <c r="O325" s="2"/>
     </row>
     <row r="326" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B326" s="18"/>
-      <c r="C326" s="235"/>
-      <c r="D326" s="236"/>
-      <c r="E326" s="236"/>
-      <c r="F326" s="236"/>
-      <c r="G326" s="236"/>
-      <c r="H326" s="236"/>
-      <c r="I326" s="236"/>
-      <c r="J326" s="236"/>
-      <c r="K326" s="236"/>
-      <c r="L326" s="236"/>
-      <c r="M326" s="237"/>
+      <c r="C326" s="238"/>
+      <c r="D326" s="239"/>
+      <c r="E326" s="239"/>
+      <c r="F326" s="239"/>
+      <c r="G326" s="239"/>
+      <c r="H326" s="239"/>
+      <c r="I326" s="239"/>
+      <c r="J326" s="239"/>
+      <c r="K326" s="239"/>
+      <c r="L326" s="239"/>
+      <c r="M326" s="240"/>
       <c r="N326" s="60"/>
       <c r="O326" s="2"/>
     </row>
@@ -8297,83 +8297,83 @@
     </row>
     <row r="359" spans="2:15" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B359" s="18"/>
-      <c r="C359" s="229" t="s">
+      <c r="C359" s="232" t="s">
         <v>295</v>
       </c>
-      <c r="D359" s="230"/>
-      <c r="E359" s="230"/>
-      <c r="F359" s="230"/>
-      <c r="G359" s="230"/>
-      <c r="H359" s="230"/>
-      <c r="I359" s="230"/>
-      <c r="J359" s="230"/>
-      <c r="K359" s="230"/>
-      <c r="L359" s="230"/>
-      <c r="M359" s="231"/>
+      <c r="D359" s="233"/>
+      <c r="E359" s="233"/>
+      <c r="F359" s="233"/>
+      <c r="G359" s="233"/>
+      <c r="H359" s="233"/>
+      <c r="I359" s="233"/>
+      <c r="J359" s="233"/>
+      <c r="K359" s="233"/>
+      <c r="L359" s="233"/>
+      <c r="M359" s="234"/>
       <c r="N359" s="34"/>
       <c r="O359" s="2"/>
     </row>
     <row r="360" spans="2:15" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B360" s="18"/>
-      <c r="C360" s="232"/>
-      <c r="D360" s="233"/>
-      <c r="E360" s="233"/>
-      <c r="F360" s="233"/>
-      <c r="G360" s="233"/>
-      <c r="H360" s="233"/>
-      <c r="I360" s="233"/>
-      <c r="J360" s="233"/>
-      <c r="K360" s="233"/>
-      <c r="L360" s="233"/>
-      <c r="M360" s="234"/>
+      <c r="C360" s="235"/>
+      <c r="D360" s="236"/>
+      <c r="E360" s="236"/>
+      <c r="F360" s="236"/>
+      <c r="G360" s="236"/>
+      <c r="H360" s="236"/>
+      <c r="I360" s="236"/>
+      <c r="J360" s="236"/>
+      <c r="K360" s="236"/>
+      <c r="L360" s="236"/>
+      <c r="M360" s="237"/>
       <c r="N360" s="60"/>
       <c r="O360" s="2"/>
     </row>
     <row r="361" spans="2:15" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B361" s="18"/>
-      <c r="C361" s="232"/>
-      <c r="D361" s="233"/>
-      <c r="E361" s="233"/>
-      <c r="F361" s="233"/>
-      <c r="G361" s="233"/>
-      <c r="H361" s="233"/>
-      <c r="I361" s="233"/>
-      <c r="J361" s="233"/>
-      <c r="K361" s="233"/>
-      <c r="L361" s="233"/>
-      <c r="M361" s="234"/>
+      <c r="C361" s="235"/>
+      <c r="D361" s="236"/>
+      <c r="E361" s="236"/>
+      <c r="F361" s="236"/>
+      <c r="G361" s="236"/>
+      <c r="H361" s="236"/>
+      <c r="I361" s="236"/>
+      <c r="J361" s="236"/>
+      <c r="K361" s="236"/>
+      <c r="L361" s="236"/>
+      <c r="M361" s="237"/>
       <c r="N361" s="60"/>
       <c r="O361" s="2"/>
     </row>
     <row r="362" spans="2:15" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B362" s="18"/>
-      <c r="C362" s="232"/>
-      <c r="D362" s="233"/>
-      <c r="E362" s="233"/>
-      <c r="F362" s="233"/>
-      <c r="G362" s="233"/>
-      <c r="H362" s="233"/>
-      <c r="I362" s="233"/>
-      <c r="J362" s="233"/>
-      <c r="K362" s="233"/>
-      <c r="L362" s="233"/>
-      <c r="M362" s="234"/>
+      <c r="C362" s="235"/>
+      <c r="D362" s="236"/>
+      <c r="E362" s="236"/>
+      <c r="F362" s="236"/>
+      <c r="G362" s="236"/>
+      <c r="H362" s="236"/>
+      <c r="I362" s="236"/>
+      <c r="J362" s="236"/>
+      <c r="K362" s="236"/>
+      <c r="L362" s="236"/>
+      <c r="M362" s="237"/>
       <c r="N362" s="60"/>
       <c r="O362" s="2"/>
     </row>
     <row r="363" spans="2:15" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B363" s="18"/>
-      <c r="C363" s="235"/>
-      <c r="D363" s="236"/>
-      <c r="E363" s="236"/>
-      <c r="F363" s="236"/>
-      <c r="G363" s="236"/>
-      <c r="H363" s="236"/>
-      <c r="I363" s="236"/>
-      <c r="J363" s="236"/>
-      <c r="K363" s="236"/>
-      <c r="L363" s="236"/>
-      <c r="M363" s="237"/>
+      <c r="C363" s="238"/>
+      <c r="D363" s="239"/>
+      <c r="E363" s="239"/>
+      <c r="F363" s="239"/>
+      <c r="G363" s="239"/>
+      <c r="H363" s="239"/>
+      <c r="I363" s="239"/>
+      <c r="J363" s="239"/>
+      <c r="K363" s="239"/>
+      <c r="L363" s="239"/>
+      <c r="M363" s="240"/>
       <c r="N363" s="60"/>
       <c r="O363" s="2"/>
     </row>
@@ -9491,7 +9491,7 @@
         <v>265</v>
       </c>
       <c r="D432" s="181"/>
-      <c r="E432" s="189" t="s">
+      <c r="E432" s="192" t="s">
         <v>214</v>
       </c>
       <c r="F432" s="179" t="s">
@@ -10153,17 +10153,17 @@
         <v>238</v>
       </c>
       <c r="C473" s="80"/>
-      <c r="E473" s="241" t="s">
+      <c r="E473" s="189" t="s">
         <v>335</v>
       </c>
-      <c r="F473" s="242"/>
-      <c r="G473" s="242"/>
-      <c r="H473" s="242"/>
-      <c r="I473" s="242"/>
-      <c r="J473" s="242"/>
-      <c r="K473" s="242"/>
-      <c r="L473" s="242"/>
-      <c r="M473" s="243"/>
+      <c r="F473" s="190"/>
+      <c r="G473" s="190"/>
+      <c r="H473" s="190"/>
+      <c r="I473" s="190"/>
+      <c r="J473" s="190"/>
+      <c r="K473" s="190"/>
+      <c r="L473" s="190"/>
+      <c r="M473" s="191"/>
       <c r="N473" s="134"/>
     </row>
     <row r="474" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
